--- a/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
+++ b/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
@@ -26,7 +26,7 @@
     <definedName name="FarbeE" localSheetId="0">#REF!</definedName>
     <definedName name="FarbeE">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027" calcMode="manual"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="111">
   <si>
     <t>Pos.</t>
   </si>
@@ -357,9 +357,6 @@
   </si>
   <si>
     <t>Industriepartner</t>
-  </si>
-  <si>
-    <t>RUAG AG, Allmendstrasse 86, 3602 Thun            Dr. Thomas Nussbaumer</t>
   </si>
   <si>
     <t>Risikoanalyse erstellen</t>
@@ -520,9 +517,6 @@
     <t>Literaturverzeichnis, Glossar</t>
   </si>
   <si>
-    <t>Hardware erstellen</t>
-  </si>
-  <si>
     <t>Software erstellen</t>
   </si>
   <si>
@@ -539,9 +533,6 @@
   </si>
   <si>
     <t>Dreh-Messaufbau erstellen &amp; Messungen</t>
-  </si>
-  <si>
-    <t>Hardware evaluieren</t>
   </si>
   <si>
     <t>Variante 2: Plattform erarbeiten /abgeb</t>
@@ -564,6 +555,36 @@
   <si>
     <t>Kapitel Realisation</t>
   </si>
+  <si>
+    <t>Gehäuse/mech. Komponenten layouten</t>
+  </si>
+  <si>
+    <t>RUAG AG, Allmendstrasse 86, 3602 Thun                    Dr. Thomas Nussbaumer</t>
+  </si>
+  <si>
+    <t>Produktionszeiträume reservieren FABLAB</t>
+  </si>
+  <si>
+    <t>Kapitel Tests</t>
+  </si>
+  <si>
+    <t>Kapitel Reflektion</t>
+  </si>
+  <si>
+    <t>Verbindungsboard layouten</t>
+  </si>
+  <si>
+    <t>Eigenständigkeitserkärung einfügen</t>
+  </si>
+  <si>
+    <t>mechanische Komponenten herstellen</t>
+  </si>
+  <si>
+    <t>Encoder erstellen</t>
+  </si>
+  <si>
+    <t>Gehäuse zusammenbauen</t>
+  </si>
 </sst>
 </file>
 
@@ -573,7 +594,7 @@
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="d/m/"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -813,6 +834,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1461,7 +1497,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1772,6 +1808,76 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="30" fillId="13" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="6" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="34" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="6" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="6" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1781,22 +1887,14 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1814,24 +1912,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1883,31 +1963,22 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4215,13 +4286,13 @@
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:PB96"/>
+  <dimension ref="A1:PB103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="12" ySplit="14" topLeftCell="T18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="14" topLeftCell="M38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4244,47 +4315,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
       <c r="J2" s="6"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103" t="s">
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="104"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="146"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11" t="s">
@@ -4300,18 +4371,18 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="106"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108" t="s">
+      <c r="C4" s="124"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="108"/>
-      <c r="I4" s="109"/>
+      <c r="F4" s="126"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="127"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
@@ -4322,18 +4393,18 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108" t="s">
+      <c r="C5" s="124"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="109"/>
+      <c r="F5" s="126"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="127"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="13" t="s">
@@ -4344,18 +4415,18 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="105" t="s">
+      <c r="B6" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="116" t="s">
+      <c r="C6" s="124"/>
+      <c r="D6" s="125"/>
+      <c r="E6" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="117"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="128"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
@@ -4363,1232 +4434,1232 @@
       </c>
     </row>
     <row r="7" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="119"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="133" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="2:418" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="127"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="136"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
       <c r="L8" s="20"/>
       <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="135"/>
+      <c r="C9" s="116"/>
       <c r="D9" s="22">
         <f ca="1">TODAY()</f>
-        <v>43033</v>
-      </c>
-      <c r="E9" s="125"/>
-      <c r="F9" s="125"/>
-      <c r="G9" s="125"/>
-      <c r="H9" s="125"/>
-      <c r="I9" s="126"/>
+        <v>43041</v>
+      </c>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
       <c r="J9" s="17"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="115" t="str">
+      <c r="M9" s="120" t="str">
         <f>TEXT(P13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
-      <c r="S9" s="99"/>
-      <c r="T9" s="115" t="str">
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="118"/>
+      <c r="R9" s="118"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="120" t="str">
         <f>TEXT(W13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="99"/>
-      <c r="AA9" s="115" t="str">
+      <c r="U9" s="118"/>
+      <c r="V9" s="118"/>
+      <c r="W9" s="118"/>
+      <c r="X9" s="118"/>
+      <c r="Y9" s="118"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="120" t="str">
         <f t="shared" ref="AA9" si="0">TEXT(AD13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="98"/>
-      <c r="AG9" s="99"/>
-      <c r="AH9" s="115" t="str">
+      <c r="AB9" s="118"/>
+      <c r="AC9" s="118"/>
+      <c r="AD9" s="118"/>
+      <c r="AE9" s="118"/>
+      <c r="AF9" s="118"/>
+      <c r="AG9" s="119"/>
+      <c r="AH9" s="120" t="str">
         <f t="shared" ref="AH9" si="1">TEXT(AK13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AI9" s="98"/>
-      <c r="AJ9" s="98"/>
-      <c r="AK9" s="98"/>
-      <c r="AL9" s="98"/>
-      <c r="AM9" s="98"/>
-      <c r="AN9" s="99"/>
-      <c r="AO9" s="115" t="str">
+      <c r="AI9" s="118"/>
+      <c r="AJ9" s="118"/>
+      <c r="AK9" s="118"/>
+      <c r="AL9" s="118"/>
+      <c r="AM9" s="118"/>
+      <c r="AN9" s="119"/>
+      <c r="AO9" s="120" t="str">
         <f t="shared" ref="AO9" si="2">TEXT(AR13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AP9" s="98"/>
-      <c r="AQ9" s="98"/>
-      <c r="AR9" s="98"/>
-      <c r="AS9" s="98"/>
-      <c r="AT9" s="98"/>
-      <c r="AU9" s="99"/>
-      <c r="AV9" s="115" t="str">
+      <c r="AP9" s="118"/>
+      <c r="AQ9" s="118"/>
+      <c r="AR9" s="118"/>
+      <c r="AS9" s="118"/>
+      <c r="AT9" s="118"/>
+      <c r="AU9" s="119"/>
+      <c r="AV9" s="120" t="str">
         <f t="shared" ref="AV9" si="3">TEXT(AY13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AW9" s="98"/>
-      <c r="AX9" s="98"/>
-      <c r="AY9" s="98"/>
-      <c r="AZ9" s="98"/>
-      <c r="BA9" s="98"/>
-      <c r="BB9" s="99"/>
-      <c r="BC9" s="115" t="str">
+      <c r="AW9" s="118"/>
+      <c r="AX9" s="118"/>
+      <c r="AY9" s="118"/>
+      <c r="AZ9" s="118"/>
+      <c r="BA9" s="118"/>
+      <c r="BB9" s="119"/>
+      <c r="BC9" s="120" t="str">
         <f t="shared" ref="BC9" si="4">TEXT(BF13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BD9" s="98"/>
-      <c r="BE9" s="98"/>
-      <c r="BF9" s="98"/>
-      <c r="BG9" s="98"/>
-      <c r="BH9" s="98"/>
-      <c r="BI9" s="99"/>
-      <c r="BJ9" s="115" t="str">
+      <c r="BD9" s="118"/>
+      <c r="BE9" s="118"/>
+      <c r="BF9" s="118"/>
+      <c r="BG9" s="118"/>
+      <c r="BH9" s="118"/>
+      <c r="BI9" s="119"/>
+      <c r="BJ9" s="120" t="str">
         <f t="shared" ref="BJ9" si="5">TEXT(BM13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BK9" s="98"/>
-      <c r="BL9" s="98"/>
-      <c r="BM9" s="98"/>
-      <c r="BN9" s="98"/>
-      <c r="BO9" s="98"/>
-      <c r="BP9" s="99"/>
-      <c r="BQ9" s="115" t="str">
+      <c r="BK9" s="118"/>
+      <c r="BL9" s="118"/>
+      <c r="BM9" s="118"/>
+      <c r="BN9" s="118"/>
+      <c r="BO9" s="118"/>
+      <c r="BP9" s="119"/>
+      <c r="BQ9" s="120" t="str">
         <f t="shared" ref="BQ9" si="6">TEXT(BT13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BR9" s="98"/>
-      <c r="BS9" s="98"/>
-      <c r="BT9" s="98"/>
-      <c r="BU9" s="98"/>
-      <c r="BV9" s="98"/>
-      <c r="BW9" s="99"/>
-      <c r="BX9" s="115" t="str">
+      <c r="BR9" s="118"/>
+      <c r="BS9" s="118"/>
+      <c r="BT9" s="118"/>
+      <c r="BU9" s="118"/>
+      <c r="BV9" s="118"/>
+      <c r="BW9" s="119"/>
+      <c r="BX9" s="120" t="str">
         <f t="shared" ref="BX9" si="7">TEXT(CA13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BY9" s="98"/>
-      <c r="BZ9" s="98"/>
-      <c r="CA9" s="98"/>
-      <c r="CB9" s="98"/>
-      <c r="CC9" s="98"/>
-      <c r="CD9" s="99"/>
-      <c r="CE9" s="115" t="str">
+      <c r="BY9" s="118"/>
+      <c r="BZ9" s="118"/>
+      <c r="CA9" s="118"/>
+      <c r="CB9" s="118"/>
+      <c r="CC9" s="118"/>
+      <c r="CD9" s="119"/>
+      <c r="CE9" s="120" t="str">
         <f t="shared" ref="CE9" si="8">TEXT(CH13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="CF9" s="98"/>
-      <c r="CG9" s="98"/>
-      <c r="CH9" s="98"/>
-      <c r="CI9" s="98"/>
-      <c r="CJ9" s="98"/>
-      <c r="CK9" s="99"/>
-      <c r="CL9" s="115" t="str">
+      <c r="CF9" s="118"/>
+      <c r="CG9" s="118"/>
+      <c r="CH9" s="118"/>
+      <c r="CI9" s="118"/>
+      <c r="CJ9" s="118"/>
+      <c r="CK9" s="119"/>
+      <c r="CL9" s="120" t="str">
         <f t="shared" ref="CL9" si="9">TEXT(CO13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CM9" s="98"/>
-      <c r="CN9" s="98"/>
-      <c r="CO9" s="98"/>
-      <c r="CP9" s="98"/>
-      <c r="CQ9" s="98"/>
-      <c r="CR9" s="99"/>
-      <c r="CS9" s="115" t="str">
+      <c r="CM9" s="118"/>
+      <c r="CN9" s="118"/>
+      <c r="CO9" s="118"/>
+      <c r="CP9" s="118"/>
+      <c r="CQ9" s="118"/>
+      <c r="CR9" s="119"/>
+      <c r="CS9" s="120" t="str">
         <f t="shared" ref="CS9" si="10">TEXT(CV13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CT9" s="98"/>
-      <c r="CU9" s="98"/>
-      <c r="CV9" s="98"/>
-      <c r="CW9" s="98"/>
-      <c r="CX9" s="98"/>
-      <c r="CY9" s="99"/>
-      <c r="CZ9" s="115" t="str">
+      <c r="CT9" s="118"/>
+      <c r="CU9" s="118"/>
+      <c r="CV9" s="118"/>
+      <c r="CW9" s="118"/>
+      <c r="CX9" s="118"/>
+      <c r="CY9" s="119"/>
+      <c r="CZ9" s="120" t="str">
         <f t="shared" ref="CZ9" si="11">TEXT(DC13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DA9" s="98"/>
-      <c r="DB9" s="98"/>
-      <c r="DC9" s="98"/>
-      <c r="DD9" s="98"/>
-      <c r="DE9" s="98"/>
-      <c r="DF9" s="99"/>
-      <c r="DG9" s="115" t="str">
+      <c r="DA9" s="118"/>
+      <c r="DB9" s="118"/>
+      <c r="DC9" s="118"/>
+      <c r="DD9" s="118"/>
+      <c r="DE9" s="118"/>
+      <c r="DF9" s="119"/>
+      <c r="DG9" s="120" t="str">
         <f t="shared" ref="DG9" si="12">TEXT(DJ13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DH9" s="98"/>
-      <c r="DI9" s="98"/>
-      <c r="DJ9" s="98"/>
-      <c r="DK9" s="98"/>
-      <c r="DL9" s="98"/>
-      <c r="DM9" s="99"/>
-      <c r="DN9" s="115" t="str">
+      <c r="DH9" s="118"/>
+      <c r="DI9" s="118"/>
+      <c r="DJ9" s="118"/>
+      <c r="DK9" s="118"/>
+      <c r="DL9" s="118"/>
+      <c r="DM9" s="119"/>
+      <c r="DN9" s="120" t="str">
         <f t="shared" ref="DN9" si="13">TEXT(DQ13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DO9" s="98"/>
-      <c r="DP9" s="98"/>
-      <c r="DQ9" s="98"/>
-      <c r="DR9" s="98"/>
-      <c r="DS9" s="98"/>
-      <c r="DT9" s="99"/>
-      <c r="DU9" s="115" t="str">
+      <c r="DO9" s="118"/>
+      <c r="DP9" s="118"/>
+      <c r="DQ9" s="118"/>
+      <c r="DR9" s="118"/>
+      <c r="DS9" s="118"/>
+      <c r="DT9" s="119"/>
+      <c r="DU9" s="120" t="str">
         <f t="shared" ref="DU9" si="14">TEXT(DX13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DV9" s="98"/>
-      <c r="DW9" s="98"/>
-      <c r="DX9" s="98"/>
-      <c r="DY9" s="98"/>
-      <c r="DZ9" s="98"/>
-      <c r="EA9" s="99"/>
-      <c r="EB9" s="115" t="str">
+      <c r="DV9" s="118"/>
+      <c r="DW9" s="118"/>
+      <c r="DX9" s="118"/>
+      <c r="DY9" s="118"/>
+      <c r="DZ9" s="118"/>
+      <c r="EA9" s="119"/>
+      <c r="EB9" s="120" t="str">
         <f t="shared" ref="EB9" si="15">TEXT(EE13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EC9" s="98"/>
-      <c r="ED9" s="98"/>
-      <c r="EE9" s="98"/>
-      <c r="EF9" s="98"/>
-      <c r="EG9" s="98"/>
-      <c r="EH9" s="99"/>
-      <c r="EI9" s="115" t="str">
+      <c r="EC9" s="118"/>
+      <c r="ED9" s="118"/>
+      <c r="EE9" s="118"/>
+      <c r="EF9" s="118"/>
+      <c r="EG9" s="118"/>
+      <c r="EH9" s="119"/>
+      <c r="EI9" s="120" t="str">
         <f t="shared" ref="EI9" si="16">TEXT(EL13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EJ9" s="98"/>
-      <c r="EK9" s="98"/>
-      <c r="EL9" s="98"/>
-      <c r="EM9" s="98"/>
-      <c r="EN9" s="98"/>
-      <c r="EO9" s="99"/>
-      <c r="EP9" s="115" t="str">
+      <c r="EJ9" s="118"/>
+      <c r="EK9" s="118"/>
+      <c r="EL9" s="118"/>
+      <c r="EM9" s="118"/>
+      <c r="EN9" s="118"/>
+      <c r="EO9" s="119"/>
+      <c r="EP9" s="120" t="str">
         <f t="shared" ref="EP9" si="17">TEXT(ES13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EQ9" s="98"/>
-      <c r="ER9" s="98"/>
-      <c r="ES9" s="98"/>
-      <c r="ET9" s="98"/>
-      <c r="EU9" s="98"/>
-      <c r="EV9" s="99"/>
-      <c r="EW9" s="115" t="str">
+      <c r="EQ9" s="118"/>
+      <c r="ER9" s="118"/>
+      <c r="ES9" s="118"/>
+      <c r="ET9" s="118"/>
+      <c r="EU9" s="118"/>
+      <c r="EV9" s="119"/>
+      <c r="EW9" s="120" t="str">
         <f t="shared" ref="EW9" si="18">TEXT(EZ13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EX9" s="98"/>
-      <c r="EY9" s="98"/>
-      <c r="EZ9" s="98"/>
-      <c r="FA9" s="98"/>
-      <c r="FB9" s="98"/>
-      <c r="FC9" s="99"/>
-      <c r="FD9" s="115" t="str">
+      <c r="EX9" s="118"/>
+      <c r="EY9" s="118"/>
+      <c r="EZ9" s="118"/>
+      <c r="FA9" s="118"/>
+      <c r="FB9" s="118"/>
+      <c r="FC9" s="119"/>
+      <c r="FD9" s="120" t="str">
         <f t="shared" ref="FD9" si="19">TEXT(FG13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FE9" s="98"/>
-      <c r="FF9" s="98"/>
-      <c r="FG9" s="98"/>
-      <c r="FH9" s="98"/>
-      <c r="FI9" s="98"/>
-      <c r="FJ9" s="99"/>
-      <c r="FK9" s="97" t="str">
+      <c r="FE9" s="118"/>
+      <c r="FF9" s="118"/>
+      <c r="FG9" s="118"/>
+      <c r="FH9" s="118"/>
+      <c r="FI9" s="118"/>
+      <c r="FJ9" s="119"/>
+      <c r="FK9" s="117" t="str">
         <f t="shared" ref="FK9" si="20">TEXT(FN13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FL9" s="98"/>
-      <c r="FM9" s="98"/>
-      <c r="FN9" s="98"/>
-      <c r="FO9" s="98"/>
-      <c r="FP9" s="98"/>
-      <c r="FQ9" s="99"/>
-      <c r="FR9" s="97" t="str">
+      <c r="FL9" s="118"/>
+      <c r="FM9" s="118"/>
+      <c r="FN9" s="118"/>
+      <c r="FO9" s="118"/>
+      <c r="FP9" s="118"/>
+      <c r="FQ9" s="119"/>
+      <c r="FR9" s="117" t="str">
         <f t="shared" ref="FR9" si="21">TEXT(FU13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FS9" s="98"/>
-      <c r="FT9" s="98"/>
-      <c r="FU9" s="98"/>
-      <c r="FV9" s="98"/>
-      <c r="FW9" s="98"/>
-      <c r="FX9" s="99"/>
-      <c r="FY9" s="97" t="str">
+      <c r="FS9" s="118"/>
+      <c r="FT9" s="118"/>
+      <c r="FU9" s="118"/>
+      <c r="FV9" s="118"/>
+      <c r="FW9" s="118"/>
+      <c r="FX9" s="119"/>
+      <c r="FY9" s="117" t="str">
         <f t="shared" ref="FY9" si="22">TEXT(GB13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FZ9" s="98"/>
-      <c r="GA9" s="98"/>
-      <c r="GB9" s="98"/>
-      <c r="GC9" s="98"/>
-      <c r="GD9" s="98"/>
-      <c r="GE9" s="99"/>
-      <c r="GF9" s="97" t="str">
+      <c r="FZ9" s="118"/>
+      <c r="GA9" s="118"/>
+      <c r="GB9" s="118"/>
+      <c r="GC9" s="118"/>
+      <c r="GD9" s="118"/>
+      <c r="GE9" s="119"/>
+      <c r="GF9" s="117" t="str">
         <f t="shared" ref="GF9" si="23">TEXT(GI13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GG9" s="98"/>
-      <c r="GH9" s="98"/>
-      <c r="GI9" s="98"/>
-      <c r="GJ9" s="98"/>
-      <c r="GK9" s="98"/>
-      <c r="GL9" s="99"/>
-      <c r="GM9" s="97" t="str">
+      <c r="GG9" s="118"/>
+      <c r="GH9" s="118"/>
+      <c r="GI9" s="118"/>
+      <c r="GJ9" s="118"/>
+      <c r="GK9" s="118"/>
+      <c r="GL9" s="119"/>
+      <c r="GM9" s="117" t="str">
         <f t="shared" ref="GM9" si="24">TEXT(GP13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GN9" s="98"/>
-      <c r="GO9" s="98"/>
-      <c r="GP9" s="98"/>
-      <c r="GQ9" s="98"/>
-      <c r="GR9" s="98"/>
-      <c r="GS9" s="99"/>
-      <c r="GT9" s="97" t="str">
+      <c r="GN9" s="118"/>
+      <c r="GO9" s="118"/>
+      <c r="GP9" s="118"/>
+      <c r="GQ9" s="118"/>
+      <c r="GR9" s="118"/>
+      <c r="GS9" s="119"/>
+      <c r="GT9" s="117" t="str">
         <f t="shared" ref="GT9" si="25">TEXT(GW13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GU9" s="98"/>
-      <c r="GV9" s="98"/>
-      <c r="GW9" s="98"/>
-      <c r="GX9" s="98"/>
-      <c r="GY9" s="98"/>
-      <c r="GZ9" s="99"/>
-      <c r="HA9" s="97" t="str">
+      <c r="GU9" s="118"/>
+      <c r="GV9" s="118"/>
+      <c r="GW9" s="118"/>
+      <c r="GX9" s="118"/>
+      <c r="GY9" s="118"/>
+      <c r="GZ9" s="119"/>
+      <c r="HA9" s="117" t="str">
         <f t="shared" ref="HA9" si="26">TEXT(HD13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HB9" s="98"/>
-      <c r="HC9" s="98"/>
-      <c r="HD9" s="98"/>
-      <c r="HE9" s="98"/>
-      <c r="HF9" s="98"/>
-      <c r="HG9" s="99"/>
-      <c r="HH9" s="97" t="str">
+      <c r="HB9" s="118"/>
+      <c r="HC9" s="118"/>
+      <c r="HD9" s="118"/>
+      <c r="HE9" s="118"/>
+      <c r="HF9" s="118"/>
+      <c r="HG9" s="119"/>
+      <c r="HH9" s="117" t="str">
         <f t="shared" ref="HH9" si="27">TEXT(HK13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HI9" s="98"/>
-      <c r="HJ9" s="98"/>
-      <c r="HK9" s="98"/>
-      <c r="HL9" s="98"/>
-      <c r="HM9" s="98"/>
-      <c r="HN9" s="99"/>
-      <c r="HO9" s="97" t="str">
+      <c r="HI9" s="118"/>
+      <c r="HJ9" s="118"/>
+      <c r="HK9" s="118"/>
+      <c r="HL9" s="118"/>
+      <c r="HM9" s="118"/>
+      <c r="HN9" s="119"/>
+      <c r="HO9" s="117" t="str">
         <f t="shared" ref="HO9" si="28">TEXT(HR13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HP9" s="98"/>
-      <c r="HQ9" s="98"/>
-      <c r="HR9" s="98"/>
-      <c r="HS9" s="98"/>
-      <c r="HT9" s="98"/>
-      <c r="HU9" s="99"/>
-      <c r="HV9" s="97" t="str">
+      <c r="HP9" s="118"/>
+      <c r="HQ9" s="118"/>
+      <c r="HR9" s="118"/>
+      <c r="HS9" s="118"/>
+      <c r="HT9" s="118"/>
+      <c r="HU9" s="119"/>
+      <c r="HV9" s="117" t="str">
         <f t="shared" ref="HV9" si="29">TEXT(HY13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HW9" s="98"/>
-      <c r="HX9" s="98"/>
-      <c r="HY9" s="98"/>
-      <c r="HZ9" s="98"/>
-      <c r="IA9" s="98"/>
-      <c r="IB9" s="99"/>
-      <c r="IC9" s="97" t="str">
+      <c r="HW9" s="118"/>
+      <c r="HX9" s="118"/>
+      <c r="HY9" s="118"/>
+      <c r="HZ9" s="118"/>
+      <c r="IA9" s="118"/>
+      <c r="IB9" s="119"/>
+      <c r="IC9" s="117" t="str">
         <f t="shared" ref="IC9" si="30">TEXT(IF13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="ID9" s="98"/>
-      <c r="IE9" s="98"/>
-      <c r="IF9" s="98"/>
-      <c r="IG9" s="98"/>
-      <c r="IH9" s="98"/>
-      <c r="II9" s="99"/>
-      <c r="IJ9" s="97" t="str">
+      <c r="ID9" s="118"/>
+      <c r="IE9" s="118"/>
+      <c r="IF9" s="118"/>
+      <c r="IG9" s="118"/>
+      <c r="IH9" s="118"/>
+      <c r="II9" s="119"/>
+      <c r="IJ9" s="117" t="str">
         <f t="shared" ref="IJ9" si="31">TEXT(IM13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IK9" s="98"/>
-      <c r="IL9" s="98"/>
-      <c r="IM9" s="98"/>
-      <c r="IN9" s="98"/>
-      <c r="IO9" s="98"/>
-      <c r="IP9" s="99"/>
-      <c r="IQ9" s="97" t="str">
+      <c r="IK9" s="118"/>
+      <c r="IL9" s="118"/>
+      <c r="IM9" s="118"/>
+      <c r="IN9" s="118"/>
+      <c r="IO9" s="118"/>
+      <c r="IP9" s="119"/>
+      <c r="IQ9" s="117" t="str">
         <f t="shared" ref="IQ9" si="32">TEXT(IT13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IR9" s="98"/>
-      <c r="IS9" s="98"/>
-      <c r="IT9" s="98"/>
-      <c r="IU9" s="98"/>
-      <c r="IV9" s="98"/>
-      <c r="IW9" s="99"/>
-      <c r="IX9" s="97" t="str">
+      <c r="IR9" s="118"/>
+      <c r="IS9" s="118"/>
+      <c r="IT9" s="118"/>
+      <c r="IU9" s="118"/>
+      <c r="IV9" s="118"/>
+      <c r="IW9" s="119"/>
+      <c r="IX9" s="117" t="str">
         <f t="shared" ref="IX9" si="33">TEXT(JA13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IY9" s="98"/>
-      <c r="IZ9" s="98"/>
-      <c r="JA9" s="98"/>
-      <c r="JB9" s="98"/>
-      <c r="JC9" s="98"/>
-      <c r="JD9" s="99"/>
-      <c r="JE9" s="97" t="str">
+      <c r="IY9" s="118"/>
+      <c r="IZ9" s="118"/>
+      <c r="JA9" s="118"/>
+      <c r="JB9" s="118"/>
+      <c r="JC9" s="118"/>
+      <c r="JD9" s="119"/>
+      <c r="JE9" s="117" t="str">
         <f t="shared" ref="JE9" si="34">TEXT(JH13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="JF9" s="98"/>
-      <c r="JG9" s="98"/>
-      <c r="JH9" s="98"/>
-      <c r="JI9" s="98"/>
-      <c r="JJ9" s="98"/>
-      <c r="JK9" s="99"/>
-      <c r="JL9" s="97" t="str">
+      <c r="JF9" s="118"/>
+      <c r="JG9" s="118"/>
+      <c r="JH9" s="118"/>
+      <c r="JI9" s="118"/>
+      <c r="JJ9" s="118"/>
+      <c r="JK9" s="119"/>
+      <c r="JL9" s="117" t="str">
         <f t="shared" ref="JL9" si="35">TEXT(JO13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JM9" s="98"/>
-      <c r="JN9" s="98"/>
-      <c r="JO9" s="98"/>
-      <c r="JP9" s="98"/>
-      <c r="JQ9" s="98"/>
-      <c r="JR9" s="99"/>
-      <c r="JS9" s="97" t="str">
+      <c r="JM9" s="118"/>
+      <c r="JN9" s="118"/>
+      <c r="JO9" s="118"/>
+      <c r="JP9" s="118"/>
+      <c r="JQ9" s="118"/>
+      <c r="JR9" s="119"/>
+      <c r="JS9" s="117" t="str">
         <f t="shared" ref="JS9" si="36">TEXT(JV13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JT9" s="98"/>
-      <c r="JU9" s="98"/>
-      <c r="JV9" s="98"/>
-      <c r="JW9" s="98"/>
-      <c r="JX9" s="98"/>
-      <c r="JY9" s="99"/>
-      <c r="JZ9" s="97" t="str">
+      <c r="JT9" s="118"/>
+      <c r="JU9" s="118"/>
+      <c r="JV9" s="118"/>
+      <c r="JW9" s="118"/>
+      <c r="JX9" s="118"/>
+      <c r="JY9" s="119"/>
+      <c r="JZ9" s="117" t="str">
         <f t="shared" ref="JZ9" si="37">TEXT(KC13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KA9" s="98"/>
-      <c r="KB9" s="98"/>
-      <c r="KC9" s="98"/>
-      <c r="KD9" s="98"/>
-      <c r="KE9" s="98"/>
-      <c r="KF9" s="99"/>
-      <c r="KG9" s="97" t="str">
+      <c r="KA9" s="118"/>
+      <c r="KB9" s="118"/>
+      <c r="KC9" s="118"/>
+      <c r="KD9" s="118"/>
+      <c r="KE9" s="118"/>
+      <c r="KF9" s="119"/>
+      <c r="KG9" s="117" t="str">
         <f t="shared" ref="KG9" si="38">TEXT(KJ13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KH9" s="98"/>
-      <c r="KI9" s="98"/>
-      <c r="KJ9" s="98"/>
-      <c r="KK9" s="98"/>
-      <c r="KL9" s="98"/>
-      <c r="KM9" s="99"/>
-      <c r="KN9" s="97" t="str">
+      <c r="KH9" s="118"/>
+      <c r="KI9" s="118"/>
+      <c r="KJ9" s="118"/>
+      <c r="KK9" s="118"/>
+      <c r="KL9" s="118"/>
+      <c r="KM9" s="119"/>
+      <c r="KN9" s="117" t="str">
         <f t="shared" ref="KN9" si="39">TEXT(KQ13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KO9" s="98"/>
-      <c r="KP9" s="98"/>
-      <c r="KQ9" s="98"/>
-      <c r="KR9" s="98"/>
-      <c r="KS9" s="98"/>
-      <c r="KT9" s="99"/>
-      <c r="KU9" s="97" t="str">
+      <c r="KO9" s="118"/>
+      <c r="KP9" s="118"/>
+      <c r="KQ9" s="118"/>
+      <c r="KR9" s="118"/>
+      <c r="KS9" s="118"/>
+      <c r="KT9" s="119"/>
+      <c r="KU9" s="117" t="str">
         <f t="shared" ref="KU9" si="40">TEXT(KX13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KV9" s="98"/>
-      <c r="KW9" s="98"/>
-      <c r="KX9" s="98"/>
-      <c r="KY9" s="98"/>
-      <c r="KZ9" s="98"/>
-      <c r="LA9" s="99"/>
-      <c r="LB9" s="97" t="str">
+      <c r="KV9" s="118"/>
+      <c r="KW9" s="118"/>
+      <c r="KX9" s="118"/>
+      <c r="KY9" s="118"/>
+      <c r="KZ9" s="118"/>
+      <c r="LA9" s="119"/>
+      <c r="LB9" s="117" t="str">
         <f t="shared" ref="LB9" si="41">TEXT(LE13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LC9" s="98"/>
-      <c r="LD9" s="98"/>
-      <c r="LE9" s="98"/>
-      <c r="LF9" s="98"/>
-      <c r="LG9" s="98"/>
-      <c r="LH9" s="99"/>
-      <c r="LI9" s="97" t="str">
+      <c r="LC9" s="118"/>
+      <c r="LD9" s="118"/>
+      <c r="LE9" s="118"/>
+      <c r="LF9" s="118"/>
+      <c r="LG9" s="118"/>
+      <c r="LH9" s="119"/>
+      <c r="LI9" s="117" t="str">
         <f t="shared" ref="LI9" si="42">TEXT(LL13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LJ9" s="98"/>
-      <c r="LK9" s="98"/>
-      <c r="LL9" s="98"/>
-      <c r="LM9" s="98"/>
-      <c r="LN9" s="98"/>
-      <c r="LO9" s="99"/>
-      <c r="LP9" s="97" t="str">
+      <c r="LJ9" s="118"/>
+      <c r="LK9" s="118"/>
+      <c r="LL9" s="118"/>
+      <c r="LM9" s="118"/>
+      <c r="LN9" s="118"/>
+      <c r="LO9" s="119"/>
+      <c r="LP9" s="117" t="str">
         <f t="shared" ref="LP9" si="43">TEXT(LS13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LQ9" s="98"/>
-      <c r="LR9" s="98"/>
-      <c r="LS9" s="98"/>
-      <c r="LT9" s="98"/>
-      <c r="LU9" s="98"/>
-      <c r="LV9" s="99"/>
-      <c r="LW9" s="97" t="str">
+      <c r="LQ9" s="118"/>
+      <c r="LR9" s="118"/>
+      <c r="LS9" s="118"/>
+      <c r="LT9" s="118"/>
+      <c r="LU9" s="118"/>
+      <c r="LV9" s="119"/>
+      <c r="LW9" s="117" t="str">
         <f t="shared" ref="LW9" si="44">TEXT(LZ13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LX9" s="98"/>
-      <c r="LY9" s="98"/>
-      <c r="LZ9" s="98"/>
-      <c r="MA9" s="98"/>
-      <c r="MB9" s="98"/>
-      <c r="MC9" s="99"/>
-      <c r="MD9" s="97" t="str">
+      <c r="LX9" s="118"/>
+      <c r="LY9" s="118"/>
+      <c r="LZ9" s="118"/>
+      <c r="MA9" s="118"/>
+      <c r="MB9" s="118"/>
+      <c r="MC9" s="119"/>
+      <c r="MD9" s="117" t="str">
         <f t="shared" ref="MD9" si="45">TEXT(MG13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ME9" s="98"/>
-      <c r="MF9" s="98"/>
-      <c r="MG9" s="98"/>
-      <c r="MH9" s="98"/>
-      <c r="MI9" s="98"/>
-      <c r="MJ9" s="99"/>
-      <c r="MK9" s="97" t="str">
+      <c r="ME9" s="118"/>
+      <c r="MF9" s="118"/>
+      <c r="MG9" s="118"/>
+      <c r="MH9" s="118"/>
+      <c r="MI9" s="118"/>
+      <c r="MJ9" s="119"/>
+      <c r="MK9" s="117" t="str">
         <f t="shared" ref="MK9" si="46">TEXT(MN13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ML9" s="98"/>
-      <c r="MM9" s="98"/>
-      <c r="MN9" s="98"/>
-      <c r="MO9" s="98"/>
-      <c r="MP9" s="98"/>
-      <c r="MQ9" s="99"/>
-      <c r="MR9" s="97" t="str">
+      <c r="ML9" s="118"/>
+      <c r="MM9" s="118"/>
+      <c r="MN9" s="118"/>
+      <c r="MO9" s="118"/>
+      <c r="MP9" s="118"/>
+      <c r="MQ9" s="119"/>
+      <c r="MR9" s="117" t="str">
         <f t="shared" ref="MR9" si="47">TEXT(MU13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="MS9" s="98"/>
-      <c r="MT9" s="98"/>
-      <c r="MU9" s="98"/>
-      <c r="MV9" s="98"/>
-      <c r="MW9" s="98"/>
-      <c r="MX9" s="99"/>
-      <c r="MY9" s="97" t="str">
+      <c r="MS9" s="118"/>
+      <c r="MT9" s="118"/>
+      <c r="MU9" s="118"/>
+      <c r="MV9" s="118"/>
+      <c r="MW9" s="118"/>
+      <c r="MX9" s="119"/>
+      <c r="MY9" s="117" t="str">
         <f t="shared" ref="MY9" si="48">TEXT(NB13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="MZ9" s="98"/>
-      <c r="NA9" s="98"/>
-      <c r="NB9" s="98"/>
-      <c r="NC9" s="98"/>
-      <c r="ND9" s="98"/>
-      <c r="NE9" s="99"/>
-      <c r="NF9" s="97" t="str">
+      <c r="MZ9" s="118"/>
+      <c r="NA9" s="118"/>
+      <c r="NB9" s="118"/>
+      <c r="NC9" s="118"/>
+      <c r="ND9" s="118"/>
+      <c r="NE9" s="119"/>
+      <c r="NF9" s="117" t="str">
         <f t="shared" ref="NF9" si="49">TEXT(NI13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NG9" s="98"/>
-      <c r="NH9" s="98"/>
-      <c r="NI9" s="98"/>
-      <c r="NJ9" s="98"/>
-      <c r="NK9" s="98"/>
-      <c r="NL9" s="99"/>
-      <c r="NM9" s="97" t="str">
+      <c r="NG9" s="118"/>
+      <c r="NH9" s="118"/>
+      <c r="NI9" s="118"/>
+      <c r="NJ9" s="118"/>
+      <c r="NK9" s="118"/>
+      <c r="NL9" s="119"/>
+      <c r="NM9" s="117" t="str">
         <f t="shared" ref="NM9" si="50">TEXT(NP13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NN9" s="98"/>
-      <c r="NO9" s="98"/>
-      <c r="NP9" s="98"/>
-      <c r="NQ9" s="98"/>
-      <c r="NR9" s="98"/>
-      <c r="NS9" s="99"/>
-      <c r="NT9" s="97" t="str">
+      <c r="NN9" s="118"/>
+      <c r="NO9" s="118"/>
+      <c r="NP9" s="118"/>
+      <c r="NQ9" s="118"/>
+      <c r="NR9" s="118"/>
+      <c r="NS9" s="119"/>
+      <c r="NT9" s="117" t="str">
         <f t="shared" ref="NT9" si="51">TEXT(NW13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NU9" s="98"/>
-      <c r="NV9" s="98"/>
-      <c r="NW9" s="98"/>
-      <c r="NX9" s="98"/>
-      <c r="NY9" s="98"/>
-      <c r="NZ9" s="99"/>
-      <c r="OA9" s="97" t="str">
+      <c r="NU9" s="118"/>
+      <c r="NV9" s="118"/>
+      <c r="NW9" s="118"/>
+      <c r="NX9" s="118"/>
+      <c r="NY9" s="118"/>
+      <c r="NZ9" s="119"/>
+      <c r="OA9" s="117" t="str">
         <f t="shared" ref="OA9" si="52">TEXT(OD13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OB9" s="98"/>
-      <c r="OC9" s="98"/>
-      <c r="OD9" s="98"/>
-      <c r="OE9" s="98"/>
-      <c r="OF9" s="98"/>
-      <c r="OG9" s="99"/>
-      <c r="OH9" s="97" t="str">
+      <c r="OB9" s="118"/>
+      <c r="OC9" s="118"/>
+      <c r="OD9" s="118"/>
+      <c r="OE9" s="118"/>
+      <c r="OF9" s="118"/>
+      <c r="OG9" s="119"/>
+      <c r="OH9" s="117" t="str">
         <f t="shared" ref="OH9" si="53">TEXT(OK13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OI9" s="98"/>
-      <c r="OJ9" s="98"/>
-      <c r="OK9" s="98"/>
-      <c r="OL9" s="98"/>
-      <c r="OM9" s="98"/>
-      <c r="ON9" s="99"/>
-      <c r="OO9" s="97" t="str">
+      <c r="OI9" s="118"/>
+      <c r="OJ9" s="118"/>
+      <c r="OK9" s="118"/>
+      <c r="OL9" s="118"/>
+      <c r="OM9" s="118"/>
+      <c r="ON9" s="119"/>
+      <c r="OO9" s="117" t="str">
         <f t="shared" ref="OO9" si="54">TEXT(OR13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OP9" s="98"/>
-      <c r="OQ9" s="98"/>
-      <c r="OR9" s="98"/>
-      <c r="OS9" s="98"/>
-      <c r="OT9" s="98"/>
-      <c r="OU9" s="99"/>
-      <c r="OV9" s="97" t="str">
+      <c r="OP9" s="118"/>
+      <c r="OQ9" s="118"/>
+      <c r="OR9" s="118"/>
+      <c r="OS9" s="118"/>
+      <c r="OT9" s="118"/>
+      <c r="OU9" s="119"/>
+      <c r="OV9" s="117" t="str">
         <f t="shared" ref="OV9" si="55">TEXT(OY13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OW9" s="98"/>
-      <c r="OX9" s="98"/>
-      <c r="OY9" s="98"/>
-      <c r="OZ9" s="98"/>
-      <c r="PA9" s="98"/>
-      <c r="PB9" s="99"/>
+      <c r="OW9" s="118"/>
+      <c r="OX9" s="118"/>
+      <c r="OY9" s="118"/>
+      <c r="OZ9" s="118"/>
+      <c r="PA9" s="118"/>
+      <c r="PB9" s="119"/>
     </row>
     <row r="10" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="130"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
       <c r="F10" s="25"/>
       <c r="G10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="131">
+      <c r="H10" s="112">
         <v>42996</v>
       </c>
-      <c r="I10" s="131"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="27"/>
       <c r="L10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="132">
+      <c r="M10" s="113">
         <f>WEEKNUM(P13,21)</f>
         <v>38</v>
       </c>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="110">
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="113"/>
+      <c r="Q10" s="113"/>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="106">
         <f>WEEKNUM(W13,21)</f>
         <v>39</v>
       </c>
-      <c r="U10" s="111"/>
-      <c r="V10" s="111"/>
-      <c r="W10" s="111"/>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="133">
+      <c r="U10" s="107"/>
+      <c r="V10" s="107"/>
+      <c r="W10" s="107"/>
+      <c r="X10" s="107"/>
+      <c r="Y10" s="107"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="114">
         <f>WEEKNUM(AD13,21)</f>
         <v>40</v>
       </c>
-      <c r="AB10" s="133"/>
-      <c r="AC10" s="133"/>
-      <c r="AD10" s="133"/>
-      <c r="AE10" s="133"/>
-      <c r="AF10" s="133"/>
-      <c r="AG10" s="133"/>
-      <c r="AH10" s="110">
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="106">
         <f>WEEKNUM(AK13,21)</f>
         <v>41</v>
       </c>
-      <c r="AI10" s="111"/>
-      <c r="AJ10" s="111"/>
-      <c r="AK10" s="111"/>
-      <c r="AL10" s="111"/>
-      <c r="AM10" s="111"/>
-      <c r="AN10" s="112"/>
-      <c r="AO10" s="110">
+      <c r="AI10" s="107"/>
+      <c r="AJ10" s="107"/>
+      <c r="AK10" s="107"/>
+      <c r="AL10" s="107"/>
+      <c r="AM10" s="107"/>
+      <c r="AN10" s="108"/>
+      <c r="AO10" s="106">
         <f>WEEKNUM(AR13,21)</f>
         <v>42</v>
       </c>
-      <c r="AP10" s="111"/>
-      <c r="AQ10" s="111"/>
-      <c r="AR10" s="111"/>
-      <c r="AS10" s="111"/>
-      <c r="AT10" s="111"/>
-      <c r="AU10" s="112"/>
-      <c r="AV10" s="110">
+      <c r="AP10" s="107"/>
+      <c r="AQ10" s="107"/>
+      <c r="AR10" s="107"/>
+      <c r="AS10" s="107"/>
+      <c r="AT10" s="107"/>
+      <c r="AU10" s="108"/>
+      <c r="AV10" s="106">
         <f>WEEKNUM(AY13,21)</f>
         <v>43</v>
       </c>
-      <c r="AW10" s="111"/>
-      <c r="AX10" s="111"/>
-      <c r="AY10" s="111"/>
-      <c r="AZ10" s="111"/>
-      <c r="BA10" s="111"/>
-      <c r="BB10" s="112"/>
-      <c r="BC10" s="110">
+      <c r="AW10" s="107"/>
+      <c r="AX10" s="107"/>
+      <c r="AY10" s="107"/>
+      <c r="AZ10" s="107"/>
+      <c r="BA10" s="107"/>
+      <c r="BB10" s="108"/>
+      <c r="BC10" s="106">
         <f>WEEKNUM(BF13,21)</f>
         <v>44</v>
       </c>
-      <c r="BD10" s="111"/>
-      <c r="BE10" s="111"/>
-      <c r="BF10" s="111"/>
-      <c r="BG10" s="111"/>
-      <c r="BH10" s="111"/>
-      <c r="BI10" s="112"/>
-      <c r="BJ10" s="110">
+      <c r="BD10" s="107"/>
+      <c r="BE10" s="107"/>
+      <c r="BF10" s="107"/>
+      <c r="BG10" s="107"/>
+      <c r="BH10" s="107"/>
+      <c r="BI10" s="108"/>
+      <c r="BJ10" s="106">
         <f>WEEKNUM(BM13,21)</f>
         <v>45</v>
       </c>
-      <c r="BK10" s="111"/>
-      <c r="BL10" s="111"/>
-      <c r="BM10" s="111"/>
-      <c r="BN10" s="111"/>
-      <c r="BO10" s="111"/>
-      <c r="BP10" s="112"/>
-      <c r="BQ10" s="110">
+      <c r="BK10" s="107"/>
+      <c r="BL10" s="107"/>
+      <c r="BM10" s="107"/>
+      <c r="BN10" s="107"/>
+      <c r="BO10" s="107"/>
+      <c r="BP10" s="108"/>
+      <c r="BQ10" s="106">
         <f>WEEKNUM(BT13,21)</f>
         <v>46</v>
       </c>
-      <c r="BR10" s="111"/>
-      <c r="BS10" s="111"/>
-      <c r="BT10" s="111"/>
-      <c r="BU10" s="111"/>
-      <c r="BV10" s="111"/>
-      <c r="BW10" s="112"/>
-      <c r="BX10" s="110">
+      <c r="BR10" s="107"/>
+      <c r="BS10" s="107"/>
+      <c r="BT10" s="107"/>
+      <c r="BU10" s="107"/>
+      <c r="BV10" s="107"/>
+      <c r="BW10" s="108"/>
+      <c r="BX10" s="106">
         <f>WEEKNUM(CA13,21)</f>
         <v>47</v>
       </c>
-      <c r="BY10" s="111"/>
-      <c r="BZ10" s="111"/>
-      <c r="CA10" s="111"/>
-      <c r="CB10" s="111"/>
-      <c r="CC10" s="111"/>
-      <c r="CD10" s="112"/>
-      <c r="CE10" s="110">
+      <c r="BY10" s="107"/>
+      <c r="BZ10" s="107"/>
+      <c r="CA10" s="107"/>
+      <c r="CB10" s="107"/>
+      <c r="CC10" s="107"/>
+      <c r="CD10" s="108"/>
+      <c r="CE10" s="106">
         <f>WEEKNUM(CH13,21)</f>
         <v>48</v>
       </c>
-      <c r="CF10" s="111"/>
-      <c r="CG10" s="111"/>
-      <c r="CH10" s="111"/>
-      <c r="CI10" s="111"/>
-      <c r="CJ10" s="111"/>
-      <c r="CK10" s="112"/>
-      <c r="CL10" s="110">
+      <c r="CF10" s="107"/>
+      <c r="CG10" s="107"/>
+      <c r="CH10" s="107"/>
+      <c r="CI10" s="107"/>
+      <c r="CJ10" s="107"/>
+      <c r="CK10" s="108"/>
+      <c r="CL10" s="106">
         <f>WEEKNUM(CO13,21)</f>
         <v>49</v>
       </c>
-      <c r="CM10" s="111"/>
-      <c r="CN10" s="111"/>
-      <c r="CO10" s="111"/>
-      <c r="CP10" s="111"/>
-      <c r="CQ10" s="111"/>
-      <c r="CR10" s="112"/>
-      <c r="CS10" s="110">
+      <c r="CM10" s="107"/>
+      <c r="CN10" s="107"/>
+      <c r="CO10" s="107"/>
+      <c r="CP10" s="107"/>
+      <c r="CQ10" s="107"/>
+      <c r="CR10" s="108"/>
+      <c r="CS10" s="106">
         <f>WEEKNUM(CV13,21)</f>
         <v>50</v>
       </c>
-      <c r="CT10" s="111"/>
-      <c r="CU10" s="111"/>
-      <c r="CV10" s="111"/>
-      <c r="CW10" s="111"/>
-      <c r="CX10" s="111"/>
-      <c r="CY10" s="112"/>
-      <c r="CZ10" s="110">
+      <c r="CT10" s="107"/>
+      <c r="CU10" s="107"/>
+      <c r="CV10" s="107"/>
+      <c r="CW10" s="107"/>
+      <c r="CX10" s="107"/>
+      <c r="CY10" s="108"/>
+      <c r="CZ10" s="106">
         <f>WEEKNUM(DC13,21)</f>
         <v>51</v>
       </c>
-      <c r="DA10" s="111"/>
-      <c r="DB10" s="111"/>
-      <c r="DC10" s="111"/>
-      <c r="DD10" s="111"/>
-      <c r="DE10" s="111"/>
-      <c r="DF10" s="112"/>
-      <c r="DG10" s="110">
+      <c r="DA10" s="107"/>
+      <c r="DB10" s="107"/>
+      <c r="DC10" s="107"/>
+      <c r="DD10" s="107"/>
+      <c r="DE10" s="107"/>
+      <c r="DF10" s="108"/>
+      <c r="DG10" s="106">
         <f>WEEKNUM(DJ13,21)</f>
         <v>52</v>
       </c>
-      <c r="DH10" s="111"/>
-      <c r="DI10" s="111"/>
-      <c r="DJ10" s="111"/>
-      <c r="DK10" s="111"/>
-      <c r="DL10" s="111"/>
-      <c r="DM10" s="112"/>
-      <c r="DN10" s="110">
+      <c r="DH10" s="107"/>
+      <c r="DI10" s="107"/>
+      <c r="DJ10" s="107"/>
+      <c r="DK10" s="107"/>
+      <c r="DL10" s="107"/>
+      <c r="DM10" s="108"/>
+      <c r="DN10" s="106">
         <f>WEEKNUM(DQ13,21)</f>
         <v>1</v>
       </c>
-      <c r="DO10" s="111"/>
-      <c r="DP10" s="111"/>
-      <c r="DQ10" s="111"/>
-      <c r="DR10" s="111"/>
-      <c r="DS10" s="111"/>
-      <c r="DT10" s="112"/>
-      <c r="DU10" s="110">
+      <c r="DO10" s="107"/>
+      <c r="DP10" s="107"/>
+      <c r="DQ10" s="107"/>
+      <c r="DR10" s="107"/>
+      <c r="DS10" s="107"/>
+      <c r="DT10" s="108"/>
+      <c r="DU10" s="106">
         <f>WEEKNUM(DX13,21)</f>
         <v>2</v>
       </c>
-      <c r="DV10" s="111"/>
-      <c r="DW10" s="111"/>
-      <c r="DX10" s="111"/>
-      <c r="DY10" s="111"/>
-      <c r="DZ10" s="111"/>
-      <c r="EA10" s="112"/>
-      <c r="EB10" s="110">
+      <c r="DV10" s="107"/>
+      <c r="DW10" s="107"/>
+      <c r="DX10" s="107"/>
+      <c r="DY10" s="107"/>
+      <c r="DZ10" s="107"/>
+      <c r="EA10" s="108"/>
+      <c r="EB10" s="106">
         <f>WEEKNUM(EE13,21)</f>
         <v>3</v>
       </c>
-      <c r="EC10" s="111"/>
-      <c r="ED10" s="111"/>
-      <c r="EE10" s="111"/>
-      <c r="EF10" s="111"/>
-      <c r="EG10" s="111"/>
-      <c r="EH10" s="112"/>
-      <c r="EI10" s="110">
+      <c r="EC10" s="107"/>
+      <c r="ED10" s="107"/>
+      <c r="EE10" s="107"/>
+      <c r="EF10" s="107"/>
+      <c r="EG10" s="107"/>
+      <c r="EH10" s="108"/>
+      <c r="EI10" s="106">
         <f>WEEKNUM(EL13,21)</f>
         <v>4</v>
       </c>
-      <c r="EJ10" s="111"/>
-      <c r="EK10" s="111"/>
-      <c r="EL10" s="111"/>
-      <c r="EM10" s="111"/>
-      <c r="EN10" s="111"/>
-      <c r="EO10" s="112"/>
-      <c r="EP10" s="110">
+      <c r="EJ10" s="107"/>
+      <c r="EK10" s="107"/>
+      <c r="EL10" s="107"/>
+      <c r="EM10" s="107"/>
+      <c r="EN10" s="107"/>
+      <c r="EO10" s="108"/>
+      <c r="EP10" s="106">
         <f>WEEKNUM(ES13,21)</f>
         <v>5</v>
       </c>
-      <c r="EQ10" s="111"/>
-      <c r="ER10" s="111"/>
-      <c r="ES10" s="111"/>
-      <c r="ET10" s="111"/>
-      <c r="EU10" s="111"/>
-      <c r="EV10" s="112"/>
-      <c r="EW10" s="110">
+      <c r="EQ10" s="107"/>
+      <c r="ER10" s="107"/>
+      <c r="ES10" s="107"/>
+      <c r="ET10" s="107"/>
+      <c r="EU10" s="107"/>
+      <c r="EV10" s="108"/>
+      <c r="EW10" s="106">
         <f>WEEKNUM(EZ13,21)</f>
         <v>6</v>
       </c>
-      <c r="EX10" s="111"/>
-      <c r="EY10" s="111"/>
-      <c r="EZ10" s="111"/>
-      <c r="FA10" s="111"/>
-      <c r="FB10" s="111"/>
-      <c r="FC10" s="112"/>
-      <c r="FD10" s="110">
+      <c r="EX10" s="107"/>
+      <c r="EY10" s="107"/>
+      <c r="EZ10" s="107"/>
+      <c r="FA10" s="107"/>
+      <c r="FB10" s="107"/>
+      <c r="FC10" s="108"/>
+      <c r="FD10" s="106">
         <f>WEEKNUM(FG13,21)</f>
         <v>7</v>
       </c>
-      <c r="FE10" s="111"/>
-      <c r="FF10" s="111"/>
-      <c r="FG10" s="111"/>
-      <c r="FH10" s="111"/>
-      <c r="FI10" s="111"/>
-      <c r="FJ10" s="112"/>
-      <c r="FK10" s="110">
+      <c r="FE10" s="107"/>
+      <c r="FF10" s="107"/>
+      <c r="FG10" s="107"/>
+      <c r="FH10" s="107"/>
+      <c r="FI10" s="107"/>
+      <c r="FJ10" s="108"/>
+      <c r="FK10" s="106">
         <f>WEEKNUM(FN13,21)</f>
         <v>8</v>
       </c>
-      <c r="FL10" s="111"/>
-      <c r="FM10" s="111"/>
-      <c r="FN10" s="111"/>
-      <c r="FO10" s="111"/>
-      <c r="FP10" s="111"/>
-      <c r="FQ10" s="112"/>
-      <c r="FR10" s="110">
+      <c r="FL10" s="107"/>
+      <c r="FM10" s="107"/>
+      <c r="FN10" s="107"/>
+      <c r="FO10" s="107"/>
+      <c r="FP10" s="107"/>
+      <c r="FQ10" s="108"/>
+      <c r="FR10" s="106">
         <f>WEEKNUM(FU13,21)</f>
         <v>9</v>
       </c>
-      <c r="FS10" s="111"/>
-      <c r="FT10" s="111"/>
-      <c r="FU10" s="111"/>
-      <c r="FV10" s="111"/>
-      <c r="FW10" s="111"/>
-      <c r="FX10" s="112"/>
-      <c r="FY10" s="110">
+      <c r="FS10" s="107"/>
+      <c r="FT10" s="107"/>
+      <c r="FU10" s="107"/>
+      <c r="FV10" s="107"/>
+      <c r="FW10" s="107"/>
+      <c r="FX10" s="108"/>
+      <c r="FY10" s="106">
         <f>WEEKNUM(GB13,21)</f>
         <v>10</v>
       </c>
-      <c r="FZ10" s="111"/>
-      <c r="GA10" s="111"/>
-      <c r="GB10" s="111"/>
-      <c r="GC10" s="111"/>
-      <c r="GD10" s="111"/>
-      <c r="GE10" s="112"/>
-      <c r="GF10" s="110">
+      <c r="FZ10" s="107"/>
+      <c r="GA10" s="107"/>
+      <c r="GB10" s="107"/>
+      <c r="GC10" s="107"/>
+      <c r="GD10" s="107"/>
+      <c r="GE10" s="108"/>
+      <c r="GF10" s="106">
         <f>WEEKNUM(GI13,21)</f>
         <v>11</v>
       </c>
-      <c r="GG10" s="111"/>
-      <c r="GH10" s="111"/>
-      <c r="GI10" s="111"/>
-      <c r="GJ10" s="111"/>
-      <c r="GK10" s="111"/>
-      <c r="GL10" s="112"/>
-      <c r="GM10" s="110">
+      <c r="GG10" s="107"/>
+      <c r="GH10" s="107"/>
+      <c r="GI10" s="107"/>
+      <c r="GJ10" s="107"/>
+      <c r="GK10" s="107"/>
+      <c r="GL10" s="108"/>
+      <c r="GM10" s="106">
         <f>WEEKNUM(GP13,21)</f>
         <v>12</v>
       </c>
-      <c r="GN10" s="111"/>
-      <c r="GO10" s="111"/>
-      <c r="GP10" s="111"/>
-      <c r="GQ10" s="111"/>
-      <c r="GR10" s="111"/>
-      <c r="GS10" s="112"/>
-      <c r="GT10" s="110">
+      <c r="GN10" s="107"/>
+      <c r="GO10" s="107"/>
+      <c r="GP10" s="107"/>
+      <c r="GQ10" s="107"/>
+      <c r="GR10" s="107"/>
+      <c r="GS10" s="108"/>
+      <c r="GT10" s="106">
         <f>WEEKNUM(GW13,21)</f>
         <v>13</v>
       </c>
-      <c r="GU10" s="111"/>
-      <c r="GV10" s="111"/>
-      <c r="GW10" s="111"/>
-      <c r="GX10" s="111"/>
-      <c r="GY10" s="111"/>
-      <c r="GZ10" s="112"/>
-      <c r="HA10" s="110">
+      <c r="GU10" s="107"/>
+      <c r="GV10" s="107"/>
+      <c r="GW10" s="107"/>
+      <c r="GX10" s="107"/>
+      <c r="GY10" s="107"/>
+      <c r="GZ10" s="108"/>
+      <c r="HA10" s="106">
         <f>WEEKNUM(HD13,21)</f>
         <v>14</v>
       </c>
-      <c r="HB10" s="111"/>
-      <c r="HC10" s="111"/>
-      <c r="HD10" s="111"/>
-      <c r="HE10" s="111"/>
-      <c r="HF10" s="111"/>
-      <c r="HG10" s="112"/>
-      <c r="HH10" s="110">
+      <c r="HB10" s="107"/>
+      <c r="HC10" s="107"/>
+      <c r="HD10" s="107"/>
+      <c r="HE10" s="107"/>
+      <c r="HF10" s="107"/>
+      <c r="HG10" s="108"/>
+      <c r="HH10" s="106">
         <f>WEEKNUM(HK13,21)</f>
         <v>15</v>
       </c>
-      <c r="HI10" s="111"/>
-      <c r="HJ10" s="111"/>
-      <c r="HK10" s="111"/>
-      <c r="HL10" s="111"/>
-      <c r="HM10" s="111"/>
-      <c r="HN10" s="112"/>
-      <c r="HO10" s="110">
+      <c r="HI10" s="107"/>
+      <c r="HJ10" s="107"/>
+      <c r="HK10" s="107"/>
+      <c r="HL10" s="107"/>
+      <c r="HM10" s="107"/>
+      <c r="HN10" s="108"/>
+      <c r="HO10" s="106">
         <f>WEEKNUM(HR13,21)</f>
         <v>16</v>
       </c>
-      <c r="HP10" s="111"/>
-      <c r="HQ10" s="111"/>
-      <c r="HR10" s="111"/>
-      <c r="HS10" s="111"/>
-      <c r="HT10" s="111"/>
-      <c r="HU10" s="112"/>
-      <c r="HV10" s="110">
+      <c r="HP10" s="107"/>
+      <c r="HQ10" s="107"/>
+      <c r="HR10" s="107"/>
+      <c r="HS10" s="107"/>
+      <c r="HT10" s="107"/>
+      <c r="HU10" s="108"/>
+      <c r="HV10" s="106">
         <f t="shared" ref="HV10" si="56">WEEKNUM(HY13,21)</f>
         <v>17</v>
       </c>
-      <c r="HW10" s="111"/>
-      <c r="HX10" s="111"/>
-      <c r="HY10" s="111"/>
-      <c r="HZ10" s="111"/>
-      <c r="IA10" s="111"/>
-      <c r="IB10" s="112"/>
-      <c r="IC10" s="110">
+      <c r="HW10" s="107"/>
+      <c r="HX10" s="107"/>
+      <c r="HY10" s="107"/>
+      <c r="HZ10" s="107"/>
+      <c r="IA10" s="107"/>
+      <c r="IB10" s="108"/>
+      <c r="IC10" s="106">
         <f t="shared" ref="IC10" si="57">WEEKNUM(IF13,21)</f>
         <v>18</v>
       </c>
-      <c r="ID10" s="111"/>
-      <c r="IE10" s="111"/>
-      <c r="IF10" s="111"/>
-      <c r="IG10" s="111"/>
-      <c r="IH10" s="111"/>
-      <c r="II10" s="112"/>
-      <c r="IJ10" s="110">
+      <c r="ID10" s="107"/>
+      <c r="IE10" s="107"/>
+      <c r="IF10" s="107"/>
+      <c r="IG10" s="107"/>
+      <c r="IH10" s="107"/>
+      <c r="II10" s="108"/>
+      <c r="IJ10" s="106">
         <f t="shared" ref="IJ10" si="58">WEEKNUM(IM13,21)</f>
         <v>19</v>
       </c>
-      <c r="IK10" s="111"/>
-      <c r="IL10" s="111"/>
-      <c r="IM10" s="111"/>
-      <c r="IN10" s="111"/>
-      <c r="IO10" s="111"/>
-      <c r="IP10" s="112"/>
-      <c r="IQ10" s="110">
+      <c r="IK10" s="107"/>
+      <c r="IL10" s="107"/>
+      <c r="IM10" s="107"/>
+      <c r="IN10" s="107"/>
+      <c r="IO10" s="107"/>
+      <c r="IP10" s="108"/>
+      <c r="IQ10" s="106">
         <f t="shared" ref="IQ10" si="59">WEEKNUM(IT13,21)</f>
         <v>20</v>
       </c>
-      <c r="IR10" s="111"/>
-      <c r="IS10" s="111"/>
-      <c r="IT10" s="111"/>
-      <c r="IU10" s="111"/>
-      <c r="IV10" s="111"/>
-      <c r="IW10" s="112"/>
-      <c r="IX10" s="110">
+      <c r="IR10" s="107"/>
+      <c r="IS10" s="107"/>
+      <c r="IT10" s="107"/>
+      <c r="IU10" s="107"/>
+      <c r="IV10" s="107"/>
+      <c r="IW10" s="108"/>
+      <c r="IX10" s="106">
         <f t="shared" ref="IX10" si="60">WEEKNUM(JA13,21)</f>
         <v>21</v>
       </c>
-      <c r="IY10" s="111"/>
-      <c r="IZ10" s="111"/>
-      <c r="JA10" s="111"/>
-      <c r="JB10" s="111"/>
-      <c r="JC10" s="111"/>
-      <c r="JD10" s="112"/>
-      <c r="JE10" s="110">
+      <c r="IY10" s="107"/>
+      <c r="IZ10" s="107"/>
+      <c r="JA10" s="107"/>
+      <c r="JB10" s="107"/>
+      <c r="JC10" s="107"/>
+      <c r="JD10" s="108"/>
+      <c r="JE10" s="106">
         <f t="shared" ref="JE10" si="61">WEEKNUM(JH13,21)</f>
         <v>22</v>
       </c>
-      <c r="JF10" s="111"/>
-      <c r="JG10" s="111"/>
-      <c r="JH10" s="111"/>
-      <c r="JI10" s="111"/>
-      <c r="JJ10" s="111"/>
-      <c r="JK10" s="112"/>
-      <c r="JL10" s="110">
+      <c r="JF10" s="107"/>
+      <c r="JG10" s="107"/>
+      <c r="JH10" s="107"/>
+      <c r="JI10" s="107"/>
+      <c r="JJ10" s="107"/>
+      <c r="JK10" s="108"/>
+      <c r="JL10" s="106">
         <f t="shared" ref="JL10" si="62">WEEKNUM(JO13,21)</f>
         <v>23</v>
       </c>
-      <c r="JM10" s="111"/>
-      <c r="JN10" s="111"/>
-      <c r="JO10" s="111"/>
-      <c r="JP10" s="111"/>
-      <c r="JQ10" s="111"/>
-      <c r="JR10" s="112"/>
-      <c r="JS10" s="110">
+      <c r="JM10" s="107"/>
+      <c r="JN10" s="107"/>
+      <c r="JO10" s="107"/>
+      <c r="JP10" s="107"/>
+      <c r="JQ10" s="107"/>
+      <c r="JR10" s="108"/>
+      <c r="JS10" s="106">
         <f t="shared" ref="JS10" si="63">WEEKNUM(JV13,21)</f>
         <v>24</v>
       </c>
-      <c r="JT10" s="111"/>
-      <c r="JU10" s="111"/>
-      <c r="JV10" s="111"/>
-      <c r="JW10" s="111"/>
-      <c r="JX10" s="111"/>
-      <c r="JY10" s="112"/>
-      <c r="JZ10" s="110">
+      <c r="JT10" s="107"/>
+      <c r="JU10" s="107"/>
+      <c r="JV10" s="107"/>
+      <c r="JW10" s="107"/>
+      <c r="JX10" s="107"/>
+      <c r="JY10" s="108"/>
+      <c r="JZ10" s="106">
         <f t="shared" ref="JZ10" si="64">WEEKNUM(KC13,21)</f>
         <v>25</v>
       </c>
-      <c r="KA10" s="111"/>
-      <c r="KB10" s="111"/>
-      <c r="KC10" s="111"/>
-      <c r="KD10" s="111"/>
-      <c r="KE10" s="111"/>
-      <c r="KF10" s="112"/>
-      <c r="KG10" s="110">
+      <c r="KA10" s="107"/>
+      <c r="KB10" s="107"/>
+      <c r="KC10" s="107"/>
+      <c r="KD10" s="107"/>
+      <c r="KE10" s="107"/>
+      <c r="KF10" s="108"/>
+      <c r="KG10" s="106">
         <f t="shared" ref="KG10" si="65">WEEKNUM(KJ13,21)</f>
         <v>26</v>
       </c>
-      <c r="KH10" s="111"/>
-      <c r="KI10" s="111"/>
-      <c r="KJ10" s="111"/>
-      <c r="KK10" s="111"/>
-      <c r="KL10" s="111"/>
-      <c r="KM10" s="112"/>
-      <c r="KN10" s="110">
+      <c r="KH10" s="107"/>
+      <c r="KI10" s="107"/>
+      <c r="KJ10" s="107"/>
+      <c r="KK10" s="107"/>
+      <c r="KL10" s="107"/>
+      <c r="KM10" s="108"/>
+      <c r="KN10" s="106">
         <f t="shared" ref="KN10" si="66">WEEKNUM(KQ13,21)</f>
         <v>27</v>
       </c>
-      <c r="KO10" s="111"/>
-      <c r="KP10" s="111"/>
-      <c r="KQ10" s="111"/>
-      <c r="KR10" s="111"/>
-      <c r="KS10" s="111"/>
-      <c r="KT10" s="112"/>
-      <c r="KU10" s="110">
+      <c r="KO10" s="107"/>
+      <c r="KP10" s="107"/>
+      <c r="KQ10" s="107"/>
+      <c r="KR10" s="107"/>
+      <c r="KS10" s="107"/>
+      <c r="KT10" s="108"/>
+      <c r="KU10" s="106">
         <f t="shared" ref="KU10" si="67">WEEKNUM(KX13,21)</f>
         <v>28</v>
       </c>
-      <c r="KV10" s="111"/>
-      <c r="KW10" s="111"/>
-      <c r="KX10" s="111"/>
-      <c r="KY10" s="111"/>
-      <c r="KZ10" s="111"/>
-      <c r="LA10" s="112"/>
-      <c r="LB10" s="110">
+      <c r="KV10" s="107"/>
+      <c r="KW10" s="107"/>
+      <c r="KX10" s="107"/>
+      <c r="KY10" s="107"/>
+      <c r="KZ10" s="107"/>
+      <c r="LA10" s="108"/>
+      <c r="LB10" s="106">
         <f t="shared" ref="LB10" si="68">WEEKNUM(LE13,21)</f>
         <v>29</v>
       </c>
-      <c r="LC10" s="111"/>
-      <c r="LD10" s="111"/>
-      <c r="LE10" s="111"/>
-      <c r="LF10" s="111"/>
-      <c r="LG10" s="111"/>
-      <c r="LH10" s="112"/>
-      <c r="LI10" s="110">
+      <c r="LC10" s="107"/>
+      <c r="LD10" s="107"/>
+      <c r="LE10" s="107"/>
+      <c r="LF10" s="107"/>
+      <c r="LG10" s="107"/>
+      <c r="LH10" s="108"/>
+      <c r="LI10" s="106">
         <f t="shared" ref="LI10" si="69">WEEKNUM(LL13,21)</f>
         <v>30</v>
       </c>
-      <c r="LJ10" s="111"/>
-      <c r="LK10" s="111"/>
-      <c r="LL10" s="111"/>
-      <c r="LM10" s="111"/>
-      <c r="LN10" s="111"/>
-      <c r="LO10" s="112"/>
-      <c r="LP10" s="110">
+      <c r="LJ10" s="107"/>
+      <c r="LK10" s="107"/>
+      <c r="LL10" s="107"/>
+      <c r="LM10" s="107"/>
+      <c r="LN10" s="107"/>
+      <c r="LO10" s="108"/>
+      <c r="LP10" s="106">
         <f t="shared" ref="LP10" si="70">WEEKNUM(LS13,21)</f>
         <v>31</v>
       </c>
-      <c r="LQ10" s="111"/>
-      <c r="LR10" s="111"/>
-      <c r="LS10" s="111"/>
-      <c r="LT10" s="111"/>
-      <c r="LU10" s="111"/>
-      <c r="LV10" s="112"/>
-      <c r="LW10" s="110">
+      <c r="LQ10" s="107"/>
+      <c r="LR10" s="107"/>
+      <c r="LS10" s="107"/>
+      <c r="LT10" s="107"/>
+      <c r="LU10" s="107"/>
+      <c r="LV10" s="108"/>
+      <c r="LW10" s="106">
         <f t="shared" ref="LW10" si="71">WEEKNUM(LZ13,21)</f>
         <v>32</v>
       </c>
-      <c r="LX10" s="111"/>
-      <c r="LY10" s="111"/>
-      <c r="LZ10" s="111"/>
-      <c r="MA10" s="111"/>
-      <c r="MB10" s="111"/>
-      <c r="MC10" s="112"/>
-      <c r="MD10" s="110">
+      <c r="LX10" s="107"/>
+      <c r="LY10" s="107"/>
+      <c r="LZ10" s="107"/>
+      <c r="MA10" s="107"/>
+      <c r="MB10" s="107"/>
+      <c r="MC10" s="108"/>
+      <c r="MD10" s="106">
         <f t="shared" ref="MD10" si="72">WEEKNUM(MG13,21)</f>
         <v>33</v>
       </c>
-      <c r="ME10" s="111"/>
-      <c r="MF10" s="111"/>
-      <c r="MG10" s="111"/>
-      <c r="MH10" s="111"/>
-      <c r="MI10" s="111"/>
-      <c r="MJ10" s="112"/>
-      <c r="MK10" s="110">
+      <c r="ME10" s="107"/>
+      <c r="MF10" s="107"/>
+      <c r="MG10" s="107"/>
+      <c r="MH10" s="107"/>
+      <c r="MI10" s="107"/>
+      <c r="MJ10" s="108"/>
+      <c r="MK10" s="106">
         <f t="shared" ref="MK10" si="73">WEEKNUM(MN13,21)</f>
         <v>34</v>
       </c>
-      <c r="ML10" s="111"/>
-      <c r="MM10" s="111"/>
-      <c r="MN10" s="111"/>
-      <c r="MO10" s="111"/>
-      <c r="MP10" s="111"/>
-      <c r="MQ10" s="112"/>
-      <c r="MR10" s="110">
+      <c r="ML10" s="107"/>
+      <c r="MM10" s="107"/>
+      <c r="MN10" s="107"/>
+      <c r="MO10" s="107"/>
+      <c r="MP10" s="107"/>
+      <c r="MQ10" s="108"/>
+      <c r="MR10" s="106">
         <f t="shared" ref="MR10" si="74">WEEKNUM(MU13,21)</f>
         <v>35</v>
       </c>
-      <c r="MS10" s="111"/>
-      <c r="MT10" s="111"/>
-      <c r="MU10" s="111"/>
-      <c r="MV10" s="111"/>
-      <c r="MW10" s="111"/>
-      <c r="MX10" s="112"/>
-      <c r="MY10" s="110">
+      <c r="MS10" s="107"/>
+      <c r="MT10" s="107"/>
+      <c r="MU10" s="107"/>
+      <c r="MV10" s="107"/>
+      <c r="MW10" s="107"/>
+      <c r="MX10" s="108"/>
+      <c r="MY10" s="106">
         <f t="shared" ref="MY10" si="75">WEEKNUM(NB13,21)</f>
         <v>36</v>
       </c>
-      <c r="MZ10" s="111"/>
-      <c r="NA10" s="111"/>
-      <c r="NB10" s="111"/>
-      <c r="NC10" s="111"/>
-      <c r="ND10" s="111"/>
-      <c r="NE10" s="112"/>
-      <c r="NF10" s="110">
+      <c r="MZ10" s="107"/>
+      <c r="NA10" s="107"/>
+      <c r="NB10" s="107"/>
+      <c r="NC10" s="107"/>
+      <c r="ND10" s="107"/>
+      <c r="NE10" s="108"/>
+      <c r="NF10" s="106">
         <f t="shared" ref="NF10" si="76">WEEKNUM(NI13,21)</f>
         <v>37</v>
       </c>
-      <c r="NG10" s="111"/>
-      <c r="NH10" s="111"/>
-      <c r="NI10" s="111"/>
-      <c r="NJ10" s="111"/>
-      <c r="NK10" s="111"/>
-      <c r="NL10" s="112"/>
-      <c r="NM10" s="110">
+      <c r="NG10" s="107"/>
+      <c r="NH10" s="107"/>
+      <c r="NI10" s="107"/>
+      <c r="NJ10" s="107"/>
+      <c r="NK10" s="107"/>
+      <c r="NL10" s="108"/>
+      <c r="NM10" s="106">
         <f t="shared" ref="NM10" si="77">WEEKNUM(NP13,21)</f>
         <v>38</v>
       </c>
-      <c r="NN10" s="111"/>
-      <c r="NO10" s="111"/>
-      <c r="NP10" s="111"/>
-      <c r="NQ10" s="111"/>
-      <c r="NR10" s="111"/>
-      <c r="NS10" s="112"/>
-      <c r="NT10" s="110">
+      <c r="NN10" s="107"/>
+      <c r="NO10" s="107"/>
+      <c r="NP10" s="107"/>
+      <c r="NQ10" s="107"/>
+      <c r="NR10" s="107"/>
+      <c r="NS10" s="108"/>
+      <c r="NT10" s="106">
         <f t="shared" ref="NT10" si="78">WEEKNUM(NW13,21)</f>
         <v>39</v>
       </c>
-      <c r="NU10" s="111"/>
-      <c r="NV10" s="111"/>
-      <c r="NW10" s="111"/>
-      <c r="NX10" s="111"/>
-      <c r="NY10" s="111"/>
-      <c r="NZ10" s="112"/>
-      <c r="OA10" s="110">
+      <c r="NU10" s="107"/>
+      <c r="NV10" s="107"/>
+      <c r="NW10" s="107"/>
+      <c r="NX10" s="107"/>
+      <c r="NY10" s="107"/>
+      <c r="NZ10" s="108"/>
+      <c r="OA10" s="106">
         <f t="shared" ref="OA10" si="79">WEEKNUM(OD13,21)</f>
         <v>40</v>
       </c>
-      <c r="OB10" s="111"/>
-      <c r="OC10" s="111"/>
-      <c r="OD10" s="111"/>
-      <c r="OE10" s="111"/>
-      <c r="OF10" s="111"/>
-      <c r="OG10" s="112"/>
-      <c r="OH10" s="110">
+      <c r="OB10" s="107"/>
+      <c r="OC10" s="107"/>
+      <c r="OD10" s="107"/>
+      <c r="OE10" s="107"/>
+      <c r="OF10" s="107"/>
+      <c r="OG10" s="108"/>
+      <c r="OH10" s="106">
         <f t="shared" ref="OH10" si="80">WEEKNUM(OK13,21)</f>
         <v>41</v>
       </c>
-      <c r="OI10" s="111"/>
-      <c r="OJ10" s="111"/>
-      <c r="OK10" s="111"/>
-      <c r="OL10" s="111"/>
-      <c r="OM10" s="111"/>
-      <c r="ON10" s="112"/>
-      <c r="OO10" s="110">
+      <c r="OI10" s="107"/>
+      <c r="OJ10" s="107"/>
+      <c r="OK10" s="107"/>
+      <c r="OL10" s="107"/>
+      <c r="OM10" s="107"/>
+      <c r="ON10" s="108"/>
+      <c r="OO10" s="106">
         <f t="shared" ref="OO10" si="81">WEEKNUM(OR13,21)</f>
         <v>42</v>
       </c>
-      <c r="OP10" s="111"/>
-      <c r="OQ10" s="111"/>
-      <c r="OR10" s="111"/>
-      <c r="OS10" s="111"/>
-      <c r="OT10" s="111"/>
-      <c r="OU10" s="112"/>
-      <c r="OV10" s="110">
+      <c r="OP10" s="107"/>
+      <c r="OQ10" s="107"/>
+      <c r="OR10" s="107"/>
+      <c r="OS10" s="107"/>
+      <c r="OT10" s="107"/>
+      <c r="OU10" s="108"/>
+      <c r="OV10" s="106">
         <f t="shared" ref="OV10" si="82">WEEKNUM(OY13,21)</f>
         <v>43</v>
       </c>
-      <c r="OW10" s="111"/>
-      <c r="OX10" s="111"/>
-      <c r="OY10" s="111"/>
-      <c r="OZ10" s="111"/>
-      <c r="PA10" s="111"/>
-      <c r="PB10" s="112"/>
+      <c r="OW10" s="107"/>
+      <c r="OX10" s="107"/>
+      <c r="OY10" s="107"/>
+      <c r="OZ10" s="107"/>
+      <c r="PA10" s="107"/>
+      <c r="PB10" s="108"/>
     </row>
     <row r="11" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="29"/>
@@ -5597,8 +5668,8 @@
       <c r="G11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
       <c r="J11" s="33"/>
       <c r="L11" s="28" t="s">
         <v>17</v>
@@ -6827,8 +6898,8 @@
       <c r="C12" s="30"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
       <c r="J12" s="38"/>
       <c r="L12" s="39" t="s">
         <v>2</v>
@@ -8460,7 +8531,7 @@
     </row>
     <row r="13" spans="2:418" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -10115,7 +10186,7 @@
         <v>Endet nach [Tagen]</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>12</v>
@@ -10555,7 +10626,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="53">
-        <f t="shared" ref="G15:G94" si="97">IF(F15&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E15,1)=7,E15+2,IF(WEEKDAY(E15,1)=1,E15+1,E15)),F15-1),E15+F15-1),"")</f>
+        <f t="shared" ref="G15:G101" si="97">IF(F15&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E15,1)=7,E15+2,IF(WEEKDAY(E15,1)=1,E15+1,E15)),F15-1),E15+F15-1),"")</f>
         <v>42753</v>
       </c>
       <c r="H15" s="54">
@@ -10982,12 +11053,12 @@
     </row>
     <row r="16" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B16" s="49">
-        <f t="shared" ref="B16:B94" si="98">ROW()-15+1</f>
+        <f t="shared" ref="B16:B101" si="98">ROW()-15+1</f>
         <v>2</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="64">
         <v>43003</v>
@@ -11872,7 +11943,7 @@
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="75">
         <v>42998</v>
@@ -12309,7 +12380,7 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="75">
         <v>42998</v>
@@ -12746,7 +12817,7 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="75">
         <v>43003</v>
@@ -13183,7 +13254,7 @@
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="75">
         <v>43005</v>
@@ -13621,7 +13692,7 @@
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E22" s="75">
         <v>43005</v>
@@ -14059,7 +14130,7 @@
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="75">
         <v>43005</v>
@@ -14497,7 +14568,7 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" s="75">
         <v>43012</v>
@@ -15379,7 +15450,7 @@
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="74" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="75">
         <v>43003</v>
@@ -15817,7 +15888,7 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="75">
         <v>43007</v>
@@ -16255,7 +16326,7 @@
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="75">
         <v>43005</v>
@@ -16693,7 +16764,7 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" s="75">
         <v>43006</v>
@@ -17131,7 +17202,7 @@
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="75">
         <v>43010</v>
@@ -17569,7 +17640,7 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="75">
         <v>43012</v>
@@ -18007,7 +18078,7 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E32" s="75">
         <v>43012</v>
@@ -18444,7 +18515,7 @@
       </c>
       <c r="C33" s="62"/>
       <c r="D33" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E33" s="64">
         <v>43012</v>
@@ -18886,7 +18957,7 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="75">
         <v>43013</v>
@@ -19324,7 +19395,7 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E35" s="75">
         <v>43013</v>
@@ -19762,7 +19833,7 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="75">
         <v>43017</v>
@@ -20200,7 +20271,7 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E37" s="75">
         <v>43019</v>
@@ -20637,7 +20708,7 @@
       </c>
       <c r="C38" s="73"/>
       <c r="D38" s="74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E38" s="75">
         <v>43021</v>
@@ -21074,7 +21145,7 @@
       </c>
       <c r="C39" s="62"/>
       <c r="D39" s="63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E39" s="64">
         <v>43019</v>
@@ -21088,18 +21159,19 @@
       </c>
       <c r="H39" s="65">
         <f>100*AVERAGE(H40:H49)%</f>
-        <v>0.86000000000000021</v>
+        <v>0.90000000000000013</v>
       </c>
       <c r="I39" s="66">
         <v>43044</v>
       </c>
       <c r="J39" s="66"/>
       <c r="K39" s="67">
-        <v>30</v>
+        <f>SUM(K40:K49)</f>
+        <v>29</v>
       </c>
       <c r="L39" s="68">
         <f>SUM(L40:L49)</f>
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="M39" s="58"/>
       <c r="N39" s="59"/>
@@ -21515,17 +21587,17 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="74" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E40" s="75">
         <v>43019</v>
       </c>
       <c r="F40" s="73">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="76">
         <f>IF(F40&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E40,1)=7,E40+2,IF(WEEKDAY(E40,1)=1,E40+1,E40)),F40-1),E40+F40-1),"")</f>
-        <v>43028</v>
+        <v>43033</v>
       </c>
       <c r="H40" s="77">
         <v>1</v>
@@ -21952,7 +22024,7 @@
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="94" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E41" s="75">
         <v>43019</v>
@@ -22389,7 +22461,7 @@
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="63" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" s="64">
         <v>43024</v>
@@ -22398,7 +22470,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="53">
-        <f t="shared" ref="G42:G49" si="104">IF(F42&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E42,1)=7,E42+2,IF(WEEKDAY(E42,1)=1,E42+1,E42)),F42-1),E42+F42-1),"")</f>
+        <f t="shared" ref="G42:G48" si="104">IF(F42&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E42,1)=7,E42+2,IF(WEEKDAY(E42,1)=1,E42+1,E42)),F42-1),E42+F42-1),"")</f>
         <v>43024</v>
       </c>
       <c r="H42" s="65">
@@ -22829,30 +22901,30 @@
         <f t="shared" si="103"/>
         <v>29</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="64">
+      <c r="C43" s="98"/>
+      <c r="D43" s="99" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="100">
         <v>43026</v>
       </c>
-      <c r="F43" s="62">
-        <v>3</v>
-      </c>
-      <c r="G43" s="53">
+      <c r="F43" s="98">
+        <v>10</v>
+      </c>
+      <c r="G43" s="101">
         <f t="shared" si="104"/>
-        <v>43028</v>
-      </c>
-      <c r="H43" s="65">
+        <v>43035</v>
+      </c>
+      <c r="H43" s="102">
         <v>1</v>
       </c>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="67">
-        <v>3</v>
-      </c>
-      <c r="L43" s="68">
-        <v>2</v>
+      <c r="I43" s="103"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="104">
+        <v>4</v>
+      </c>
+      <c r="L43" s="105">
+        <v>5</v>
       </c>
       <c r="M43" s="58"/>
       <c r="N43" s="59"/>
@@ -23268,7 +23340,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="75">
         <v>43026</v>
@@ -23281,7 +23353,7 @@
         <v>43028</v>
       </c>
       <c r="H44" s="77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I44" s="78"/>
       <c r="J44" s="78"/>
@@ -23705,17 +23777,17 @@
       </c>
       <c r="C45" s="73"/>
       <c r="D45" s="74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E45" s="75">
-        <v>43028</v>
+        <v>43035</v>
       </c>
       <c r="F45" s="73">
         <v>1</v>
       </c>
       <c r="G45" s="76">
         <f t="shared" si="104"/>
-        <v>43028</v>
+        <v>43035</v>
       </c>
       <c r="H45" s="77">
         <v>1</v>
@@ -24142,7 +24214,7 @@
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="74" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E46" s="75">
         <v>43028</v>
@@ -24162,7 +24234,7 @@
       <c r="K46" s="79">
         <v>2</v>
       </c>
-      <c r="L46" s="80">
+      <c r="L46" s="97">
         <v>1</v>
       </c>
       <c r="M46" s="58"/>
@@ -24578,16 +24650,18 @@
         <v>33</v>
       </c>
       <c r="C47" s="73"/>
-      <c r="D47" s="74"/>
+      <c r="D47" s="74" t="s">
+        <v>101</v>
+      </c>
       <c r="E47" s="75">
-        <v>43027</v>
+        <v>43031</v>
       </c>
       <c r="F47" s="73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" s="76">
         <f t="shared" si="104"/>
-        <v>43028</v>
+        <v>43033</v>
       </c>
       <c r="H47" s="77">
         <v>1</v>
@@ -24598,7 +24672,7 @@
         <v>2</v>
       </c>
       <c r="L47" s="80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M47" s="58"/>
       <c r="N47" s="59"/>
@@ -25014,25 +25088,29 @@
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="74" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E48" s="75">
-        <v>43026</v>
+        <v>43039</v>
       </c>
       <c r="F48" s="73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="76">
         <f t="shared" si="104"/>
-        <v>43028</v>
+        <v>43039</v>
       </c>
       <c r="H48" s="77">
         <v>1</v>
       </c>
       <c r="I48" s="78"/>
       <c r="J48" s="78"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="80"/>
+      <c r="K48" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="L48" s="80">
+        <v>0.5</v>
+      </c>
       <c r="M48" s="58"/>
       <c r="N48" s="59"/>
       <c r="O48" s="59"/>
@@ -25447,25 +25525,28 @@
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E49" s="75">
         <v>43035</v>
       </c>
       <c r="F49" s="73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G49" s="76">
-        <f>IF(F49&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E49,1)=7,E49+2,IF(WEEKDAY(E49,1)=1,E49+1,E49)),F49-1),E49+F49-1),"")</f>
-        <v>43035</v>
+        <v>43039</v>
       </c>
       <c r="H49" s="77">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="I49" s="78"/>
       <c r="J49" s="78"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="80"/>
+      <c r="K49" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="L49" s="80">
+        <v>1</v>
+      </c>
       <c r="M49" s="58"/>
       <c r="N49" s="59"/>
       <c r="O49" s="59"/>
@@ -25873,36 +25954,18 @@
       <c r="PA49" s="59"/>
       <c r="PB49" s="71"/>
     </row>
-    <row r="50" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B50" s="49">
-        <f t="shared" si="98"/>
-        <v>36</v>
-      </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="64">
-        <v>43047</v>
-      </c>
-      <c r="F50" s="62">
-        <v>1</v>
-      </c>
-      <c r="G50" s="53">
-        <f t="shared" si="97"/>
-        <v>43047</v>
-      </c>
-      <c r="H50" s="65">
-        <v>0</v>
-      </c>
-      <c r="I50" s="66">
-        <v>43047</v>
-      </c>
-      <c r="J50" s="66"/>
-      <c r="K50" s="67">
-        <v>5</v>
-      </c>
-      <c r="L50" s="68"/>
+    <row r="50" spans="2:418" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="49"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="80"/>
       <c r="M50" s="58"/>
       <c r="N50" s="59"/>
       <c r="O50" s="59"/>
@@ -26315,27 +26378,31 @@
         <f t="shared" si="98"/>
         <v>37</v>
       </c>
-      <c r="C51" s="73"/>
-      <c r="D51" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="75">
-        <v>43040</v>
-      </c>
-      <c r="F51" s="73">
-        <v>7</v>
-      </c>
-      <c r="G51" s="76">
+      <c r="C51" s="62"/>
+      <c r="D51" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="64">
+        <v>43047</v>
+      </c>
+      <c r="F51" s="62">
+        <v>1</v>
+      </c>
+      <c r="G51" s="53">
         <f t="shared" si="97"/>
-        <v>43046</v>
-      </c>
-      <c r="H51" s="77">
+        <v>43047</v>
+      </c>
+      <c r="H51" s="65">
         <v>0</v>
       </c>
-      <c r="I51" s="78"/>
-      <c r="J51" s="78"/>
-      <c r="K51" s="79"/>
-      <c r="L51" s="80"/>
+      <c r="I51" s="66">
+        <v>43047</v>
+      </c>
+      <c r="J51" s="66"/>
+      <c r="K51" s="67">
+        <v>5</v>
+      </c>
+      <c r="L51" s="68"/>
       <c r="M51" s="58"/>
       <c r="N51" s="59"/>
       <c r="O51" s="59"/>
@@ -26748,35 +26815,27 @@
         <f t="shared" si="98"/>
         <v>38</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="64">
+      <c r="C52" s="73"/>
+      <c r="D52" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="75">
         <v>43040</v>
       </c>
-      <c r="F52" s="62">
-        <v>33</v>
-      </c>
-      <c r="G52" s="53">
-        <f>IF(F52&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E52,1)=7,E52+2,IF(WEEKDAY(E52,1)=1,E52+1,E52)),F52-1),E52+F52-1),"")</f>
-        <v>43072</v>
-      </c>
-      <c r="H52" s="65">
-        <f>100*AVERAGE(H59:H63)%</f>
+      <c r="F52" s="73">
+        <v>7</v>
+      </c>
+      <c r="G52" s="76">
+        <f t="shared" si="97"/>
+        <v>43046</v>
+      </c>
+      <c r="H52" s="77">
         <v>0</v>
       </c>
-      <c r="I52" s="66">
-        <v>43072</v>
-      </c>
-      <c r="J52" s="66"/>
-      <c r="K52" s="67">
-        <v>50</v>
-      </c>
-      <c r="L52" s="68">
-        <f>SUM(L53:L57)</f>
-        <v>0</v>
-      </c>
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="80"/>
       <c r="M52" s="58"/>
       <c r="N52" s="59"/>
       <c r="O52" s="59"/>
@@ -27189,23 +27248,35 @@
         <f t="shared" si="98"/>
         <v>39</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" s="75"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="76" t="str">
-        <f t="shared" ref="G53:G57" si="105">IF(F53&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E53,1)=7,E53+2,IF(WEEKDAY(E53,1)=1,E53+1,E53)),F53-1),E53+F53-1),"")</f>
-        <v/>
-      </c>
-      <c r="H53" s="77">
+      <c r="C53" s="62"/>
+      <c r="D53" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="64">
+        <v>43040</v>
+      </c>
+      <c r="F53" s="62">
+        <v>33</v>
+      </c>
+      <c r="G53" s="53">
+        <f>IF(F53&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E53,1)=7,E53+2,IF(WEEKDAY(E53,1)=1,E53+1,E53)),F53-1),E53+F53-1),"")</f>
+        <v>43072</v>
+      </c>
+      <c r="H53" s="65">
+        <f>100*AVERAGE(H63:H67)%</f>
         <v>0</v>
       </c>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="79"/>
-      <c r="L53" s="80"/>
+      <c r="I53" s="66">
+        <v>43072</v>
+      </c>
+      <c r="J53" s="66"/>
+      <c r="K53" s="67">
+        <v>50</v>
+      </c>
+      <c r="L53" s="68">
+        <f>SUM(L54:L61)</f>
+        <v>0</v>
+      </c>
       <c r="M53" s="58"/>
       <c r="N53" s="59"/>
       <c r="O53" s="59"/>
@@ -27615,17 +27686,17 @@
     </row>
     <row r="54" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B54" s="49">
-        <f>ROW()-15+1</f>
+        <f t="shared" si="98"/>
         <v>40</v>
       </c>
       <c r="C54" s="73"/>
       <c r="D54" s="74" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E54" s="75"/>
       <c r="F54" s="73"/>
       <c r="G54" s="76" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="G54:G61" si="105">IF(F54&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E54,1)=7,E54+2,IF(WEEKDAY(E54,1)=1,E54+1,E54)),F54-1),E54+F54-1),"")</f>
         <v/>
       </c>
       <c r="H54" s="77">
@@ -28043,26 +28114,29 @@
       <c r="PB54" s="71"/>
     </row>
     <row r="55" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B55" s="49">
-        <f>ROW()-15+1</f>
-        <v>41</v>
-      </c>
+      <c r="B55" s="49"/>
       <c r="C55" s="73"/>
       <c r="D55" s="74" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="75"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="76" t="str">
-        <f t="shared" si="105"/>
-        <v/>
+        <v>108</v>
+      </c>
+      <c r="E55" s="75">
+        <v>43041</v>
+      </c>
+      <c r="F55" s="73">
+        <v>14</v>
+      </c>
+      <c r="G55" s="76">
+        <f t="shared" si="97"/>
+        <v>43054</v>
       </c>
       <c r="H55" s="77">
         <v>0</v>
       </c>
       <c r="I55" s="78"/>
       <c r="J55" s="78"/>
-      <c r="K55" s="79"/>
+      <c r="K55" s="79">
+        <v>5</v>
+      </c>
       <c r="L55" s="80"/>
       <c r="M55" s="58"/>
       <c r="N55" s="59"/>
@@ -28473,12 +28547,12 @@
     </row>
     <row r="56" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B56" s="49">
-        <f t="shared" si="98"/>
+        <f>ROW()-15+1</f>
         <v>42</v>
       </c>
       <c r="C56" s="73"/>
       <c r="D56" s="74" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E56" s="75"/>
       <c r="F56" s="73"/>
@@ -28491,7 +28565,9 @@
       </c>
       <c r="I56" s="78"/>
       <c r="J56" s="78"/>
-      <c r="K56" s="79"/>
+      <c r="K56" s="79">
+        <v>2</v>
+      </c>
       <c r="L56" s="80"/>
       <c r="M56" s="58"/>
       <c r="N56" s="59"/>
@@ -28901,20 +28977,14 @@
       <c r="PB56" s="71"/>
     </row>
     <row r="57" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B57" s="49">
-        <f t="shared" si="98"/>
-        <v>43</v>
-      </c>
+      <c r="B57" s="49"/>
       <c r="C57" s="73"/>
       <c r="D57" s="74" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E57" s="75"/>
       <c r="F57" s="73"/>
-      <c r="G57" s="76" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
+      <c r="G57" s="76"/>
       <c r="H57" s="77">
         <v>0</v>
       </c>
@@ -29330,38 +29400,21 @@
       <c r="PB57" s="71"/>
     </row>
     <row r="58" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B58" s="49">
-        <f t="shared" si="98"/>
-        <v>44</v>
-      </c>
-      <c r="C58" s="62"/>
-      <c r="D58" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="64">
-        <v>43068</v>
-      </c>
-      <c r="F58" s="62">
-        <v>22</v>
-      </c>
-      <c r="G58" s="53">
-        <f t="shared" si="97"/>
-        <v>43089</v>
-      </c>
-      <c r="H58" s="65">
+      <c r="B58" s="49"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="E58" s="75"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="77">
         <v>0</v>
       </c>
-      <c r="I58" s="66">
-        <v>43089</v>
-      </c>
-      <c r="J58" s="66"/>
-      <c r="K58" s="67">
-        <v>20</v>
-      </c>
-      <c r="L58" s="68">
-        <f>SUM(L59:L63)</f>
-        <v>0</v>
-      </c>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+      <c r="K58" s="79"/>
+      <c r="L58" s="80"/>
       <c r="M58" s="58"/>
       <c r="N58" s="59"/>
       <c r="O58" s="59"/>
@@ -29771,22 +29824,18 @@
     </row>
     <row r="59" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B59" s="49">
-        <f t="shared" si="98"/>
+        <f>ROW()-15+1</f>
         <v>45</v>
       </c>
       <c r="C59" s="73"/>
       <c r="D59" s="74" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" s="75">
-        <v>43068</v>
-      </c>
-      <c r="F59" s="73">
-        <v>10</v>
-      </c>
-      <c r="G59" s="76">
-        <f t="shared" ref="G59:G63" si="106">IF(F59&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E59,1)=7,E59+2,IF(WEEKDAY(E59,1)=1,E59+1,E59)),F59-1),E59+F59-1),"")</f>
-        <v>43077</v>
+        <v>88</v>
+      </c>
+      <c r="E59" s="75"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="76" t="str">
+        <f t="shared" si="105"/>
+        <v/>
       </c>
       <c r="H59" s="77">
         <v>0</v>
@@ -30209,17 +30258,13 @@
       </c>
       <c r="C60" s="73"/>
       <c r="D60" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="E60" s="75">
-        <v>43068</v>
-      </c>
-      <c r="F60" s="73">
-        <v>10</v>
-      </c>
-      <c r="G60" s="76">
-        <f t="shared" si="106"/>
-        <v>43077</v>
+        <v>89</v>
+      </c>
+      <c r="E60" s="75"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="76" t="str">
+        <f t="shared" si="105"/>
+        <v/>
       </c>
       <c r="H60" s="77">
         <v>0</v>
@@ -30636,20 +30681,19 @@
       <c r="PB60" s="71"/>
     </row>
     <row r="61" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B61" s="49"/>
+      <c r="B61" s="49">
+        <f t="shared" si="98"/>
+        <v>47</v>
+      </c>
       <c r="C61" s="73"/>
       <c r="D61" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="E61" s="75">
-        <v>43073</v>
-      </c>
-      <c r="F61" s="73">
-        <v>10</v>
-      </c>
-      <c r="G61" s="76">
-        <f t="shared" si="106"/>
-        <v>43082</v>
+        <v>58</v>
+      </c>
+      <c r="E61" s="75"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="76" t="str">
+        <f t="shared" si="105"/>
+        <v/>
       </c>
       <c r="H61" s="77">
         <v>0</v>
@@ -31070,27 +31114,34 @@
         <f t="shared" si="98"/>
         <v>48</v>
       </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E62" s="75">
-        <v>43084</v>
-      </c>
-      <c r="F62" s="73">
-        <v>2</v>
-      </c>
-      <c r="G62" s="76">
-        <f t="shared" si="106"/>
-        <v>43085</v>
-      </c>
-      <c r="H62" s="77">
+      <c r="C62" s="62"/>
+      <c r="D62" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="64">
+        <v>43068</v>
+      </c>
+      <c r="F62" s="62">
+        <v>22</v>
+      </c>
+      <c r="G62" s="53">
+        <f t="shared" si="97"/>
+        <v>43089</v>
+      </c>
+      <c r="H62" s="65">
         <v>0</v>
       </c>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="80"/>
+      <c r="I62" s="66">
+        <v>43089</v>
+      </c>
+      <c r="J62" s="66"/>
+      <c r="K62" s="67">
+        <v>20</v>
+      </c>
+      <c r="L62" s="68">
+        <f>SUM(L63:L67)</f>
+        <v>0</v>
+      </c>
       <c r="M62" s="58"/>
       <c r="N62" s="59"/>
       <c r="O62" s="59"/>
@@ -31505,17 +31556,17 @@
       </c>
       <c r="C63" s="73"/>
       <c r="D63" s="74" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E63" s="75">
-        <v>43084</v>
+        <v>43068</v>
       </c>
       <c r="F63" s="73">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G63" s="76">
-        <f t="shared" si="106"/>
-        <v>43085</v>
+        <f t="shared" ref="G63:G67" si="106">IF(F63&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E63,1)=7,E63+2,IF(WEEKDAY(E63,1)=1,E63+1,E63)),F63-1),E63+F63-1),"")</f>
+        <v>43077</v>
       </c>
       <c r="H63" s="77">
         <v>0</v>
@@ -31936,35 +31987,27 @@
         <f t="shared" si="98"/>
         <v>50</v>
       </c>
-      <c r="C64" s="62"/>
-      <c r="D64" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E64" s="64">
-        <v>42998</v>
-      </c>
-      <c r="F64" s="62">
-        <v>94</v>
-      </c>
-      <c r="G64" s="53">
-        <f t="shared" si="97"/>
-        <v>43091</v>
-      </c>
-      <c r="H64" s="65">
-        <f>100*AVERAGE(H65:H80)%</f>
-        <v>0.25</v>
-      </c>
-      <c r="I64" s="66">
-        <v>43091</v>
-      </c>
-      <c r="J64" s="66"/>
-      <c r="K64" s="67">
-        <v>60</v>
-      </c>
-      <c r="L64" s="68">
-        <f>SUM(L65:L80)</f>
-        <v>13.5</v>
-      </c>
+      <c r="C64" s="73"/>
+      <c r="D64" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="E64" s="75">
+        <v>43068</v>
+      </c>
+      <c r="F64" s="73">
+        <v>10</v>
+      </c>
+      <c r="G64" s="76">
+        <f t="shared" si="106"/>
+        <v>43077</v>
+      </c>
+      <c r="H64" s="77">
+        <v>0</v>
+      </c>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="79"/>
+      <c r="L64" s="80"/>
       <c r="M64" s="58"/>
       <c r="N64" s="59"/>
       <c r="O64" s="59"/>
@@ -32373,35 +32416,28 @@
       <c r="PB64" s="71"/>
     </row>
     <row r="65" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B65" s="49">
-        <f t="shared" si="98"/>
-        <v>51</v>
-      </c>
+      <c r="B65" s="49"/>
       <c r="C65" s="73"/>
       <c r="D65" s="74" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="E65" s="75">
-        <v>43014</v>
+        <v>43073</v>
       </c>
       <c r="F65" s="73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G65" s="76">
-        <f>IF(F65&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E65+2,IF(WEEKDAY(E65,1)=1,E65+1,E65)),F65-1),E65+F65-1),"")</f>
-        <v>43033</v>
+        <f t="shared" si="106"/>
+        <v>43082</v>
       </c>
       <c r="H65" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="78"/>
       <c r="J65" s="78"/>
-      <c r="K65" s="79">
-        <v>8</v>
-      </c>
-      <c r="L65" s="80">
-        <v>4</v>
-      </c>
+      <c r="K65" s="79"/>
+      <c r="L65" s="80"/>
       <c r="M65" s="58"/>
       <c r="N65" s="59"/>
       <c r="O65" s="59"/>
@@ -32816,26 +32852,24 @@
       </c>
       <c r="C66" s="73"/>
       <c r="D66" s="74" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="E66" s="75">
-        <v>43014</v>
+        <v>43084</v>
       </c>
       <c r="F66" s="73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G66" s="76">
-        <f>IF(F66&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E66+2,IF(WEEKDAY(E66,1)=1,E66+1,E66)),F66-1),E66+F66-1),"")</f>
-        <v>43019</v>
+        <f t="shared" si="106"/>
+        <v>43085</v>
       </c>
       <c r="H66" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" s="78"/>
       <c r="J66" s="78"/>
-      <c r="K66" s="79">
-        <v>1</v>
-      </c>
+      <c r="K66" s="79"/>
       <c r="L66" s="80"/>
       <c r="M66" s="58"/>
       <c r="N66" s="59"/>
@@ -33251,28 +33285,25 @@
       </c>
       <c r="C67" s="73"/>
       <c r="D67" s="74" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E67" s="75">
-        <v>43019</v>
+        <v>43084</v>
       </c>
       <c r="F67" s="73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G67" s="76">
-        <v>43027</v>
+        <f t="shared" si="106"/>
+        <v>43085</v>
       </c>
       <c r="H67" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" s="78"/>
       <c r="J67" s="78"/>
-      <c r="K67" s="79">
-        <v>1</v>
-      </c>
-      <c r="L67" s="80">
-        <v>1.5</v>
-      </c>
+      <c r="K67" s="79"/>
+      <c r="L67" s="80"/>
       <c r="M67" s="58"/>
       <c r="N67" s="59"/>
       <c r="O67" s="59"/>
@@ -33685,25 +33716,35 @@
         <f t="shared" si="98"/>
         <v>54</v>
       </c>
-      <c r="C68" s="73"/>
-      <c r="D68" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="75"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="76" t="str">
-        <f>IF(F68&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E68+2,IF(WEEKDAY(E68,1)=1,E68+1,E68)),F68-1),E68+F68-1),"")</f>
-        <v/>
-      </c>
-      <c r="H68" s="77">
-        <v>0</v>
-      </c>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="L68" s="80"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="64">
+        <v>42998</v>
+      </c>
+      <c r="F68" s="62">
+        <v>94</v>
+      </c>
+      <c r="G68" s="53">
+        <f t="shared" si="97"/>
+        <v>43091</v>
+      </c>
+      <c r="H68" s="65">
+        <f>100*AVERAGE(H69:H87)%</f>
+        <v>0.37368421052631579</v>
+      </c>
+      <c r="I68" s="66">
+        <v>43091</v>
+      </c>
+      <c r="J68" s="66"/>
+      <c r="K68" s="67">
+        <v>60</v>
+      </c>
+      <c r="L68" s="68">
+        <f>SUM(L69:L87)</f>
+        <v>20.5</v>
+      </c>
       <c r="M68" s="58"/>
       <c r="N68" s="59"/>
       <c r="O68" s="59"/>
@@ -34118,17 +34159,17 @@
       </c>
       <c r="C69" s="73"/>
       <c r="D69" s="74" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="E69" s="75">
-        <v>43017</v>
+        <v>43014</v>
       </c>
       <c r="F69" s="73">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G69" s="76">
         <f>IF(F69&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E69+2,IF(WEEKDAY(E69,1)=1,E69+1,E69)),F69-1),E69+F69-1),"")</f>
-        <v>43030</v>
+        <v>43033</v>
       </c>
       <c r="H69" s="77">
         <v>1</v>
@@ -34136,10 +34177,10 @@
       <c r="I69" s="78"/>
       <c r="J69" s="78"/>
       <c r="K69" s="79">
+        <v>8</v>
+      </c>
+      <c r="L69" s="80">
         <v>6</v>
-      </c>
-      <c r="L69" s="80">
-        <v>8</v>
       </c>
       <c r="M69" s="58"/>
       <c r="N69" s="59"/>
@@ -34549,33 +34590,29 @@
       <c r="PB69" s="71"/>
     </row>
     <row r="70" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B70" s="49">
-        <f t="shared" si="98"/>
-        <v>56</v>
-      </c>
+      <c r="B70" s="49"/>
       <c r="C70" s="73"/>
       <c r="D70" s="74" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E70" s="75">
-        <v>43036</v>
+        <v>43009</v>
       </c>
       <c r="F70" s="73">
-        <v>7</v>
-      </c>
-      <c r="G70" s="76">
-        <f>IF(F70&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E70+2,IF(WEEKDAY(E70,1)=1,E70+1,E70)),F70-1),E70+F70-1),"")</f>
-        <v>43042</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G70" s="76"/>
       <c r="H70" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" s="78"/>
       <c r="J70" s="78"/>
       <c r="K70" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="L70" s="80"/>
+        <v>0.5</v>
+      </c>
+      <c r="L70" s="80">
+        <v>0.5</v>
+      </c>
       <c r="M70" s="58"/>
       <c r="N70" s="59"/>
       <c r="O70" s="59"/>
@@ -34983,34 +35020,36 @@
       <c r="PA70" s="59"/>
       <c r="PB70" s="71"/>
     </row>
-    <row r="71" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="49">
         <f t="shared" si="98"/>
         <v>57</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="74" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="E71" s="75">
-        <v>43038</v>
+        <v>43014</v>
       </c>
       <c r="F71" s="73">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G71" s="76">
         <f>IF(F71&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E71+2,IF(WEEKDAY(E71,1)=1,E71+1,E71)),F71-1),E71+F71-1),"")</f>
-        <v>43049</v>
+        <v>43019</v>
       </c>
       <c r="H71" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" s="78"/>
       <c r="J71" s="78"/>
       <c r="K71" s="79">
-        <v>8</v>
-      </c>
-      <c r="L71" s="80"/>
+        <v>1</v>
+      </c>
+      <c r="L71" s="80">
+        <v>1</v>
+      </c>
       <c r="M71" s="58"/>
       <c r="N71" s="59"/>
       <c r="O71" s="59"/>
@@ -35425,21 +35464,28 @@
       </c>
       <c r="C72" s="73"/>
       <c r="D72" s="74" t="s">
-        <v>103</v>
-      </c>
-      <c r="E72" s="75"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="76" t="str">
-        <f>IF(F72&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E72+2,IF(WEEKDAY(E72,1)=1,E72+1,E72)),F72-1),E72+F72-1),"")</f>
-        <v/>
+        <v>66</v>
+      </c>
+      <c r="E72" s="75">
+        <v>43019</v>
+      </c>
+      <c r="F72" s="73">
+        <v>6</v>
+      </c>
+      <c r="G72" s="76">
+        <v>43027</v>
       </c>
       <c r="H72" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" s="78"/>
       <c r="J72" s="78"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="80"/>
+      <c r="K72" s="79">
+        <v>1</v>
+      </c>
+      <c r="L72" s="80">
+        <v>1.5</v>
+      </c>
       <c r="M72" s="58"/>
       <c r="N72" s="59"/>
       <c r="O72" s="59"/>
@@ -35854,7 +35900,7 @@
       </c>
       <c r="C73" s="73"/>
       <c r="D73" s="74" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="E73" s="75"/>
       <c r="F73" s="73"/>
@@ -35863,14 +35909,16 @@
         <v/>
       </c>
       <c r="H73" s="77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I73" s="78"/>
       <c r="J73" s="78"/>
       <c r="K73" s="79">
-        <v>6</v>
-      </c>
-      <c r="L73" s="80"/>
+        <v>1.5</v>
+      </c>
+      <c r="L73" s="97">
+        <v>1.5</v>
+      </c>
       <c r="M73" s="58"/>
       <c r="N73" s="59"/>
       <c r="O73" s="59"/>
@@ -36285,23 +36333,29 @@
       </c>
       <c r="C74" s="73"/>
       <c r="D74" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E74" s="75"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="76" t="str">
+        <v>98</v>
+      </c>
+      <c r="E74" s="75">
+        <v>43017</v>
+      </c>
+      <c r="F74" s="73">
+        <v>14</v>
+      </c>
+      <c r="G74" s="76">
         <f>IF(F74&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E74+2,IF(WEEKDAY(E74,1)=1,E74+1,E74)),F74-1),E74+F74-1),"")</f>
-        <v/>
+        <v>43030</v>
       </c>
       <c r="H74" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="78"/>
       <c r="J74" s="78"/>
       <c r="K74" s="79">
         <v>6</v>
       </c>
-      <c r="L74" s="80"/>
+      <c r="L74" s="80">
+        <v>9</v>
+      </c>
       <c r="M74" s="58"/>
       <c r="N74" s="59"/>
       <c r="O74" s="59"/>
@@ -36716,23 +36770,29 @@
       </c>
       <c r="C75" s="73"/>
       <c r="D75" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="E75" s="75"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="76" t="str">
+        <v>47</v>
+      </c>
+      <c r="E75" s="75">
+        <v>43036</v>
+      </c>
+      <c r="F75" s="73">
+        <v>7</v>
+      </c>
+      <c r="G75" s="76">
         <f>IF(F75&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E75+2,IF(WEEKDAY(E75,1)=1,E75+1,E75)),F75-1),E75+F75-1),"")</f>
-        <v/>
+        <v>43042</v>
       </c>
       <c r="H75" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="78"/>
       <c r="J75" s="78"/>
       <c r="K75" s="79">
-        <v>2</v>
-      </c>
-      <c r="L75" s="80"/>
+        <v>1.5</v>
+      </c>
+      <c r="L75" s="97">
+        <v>1</v>
+      </c>
       <c r="M75" s="58"/>
       <c r="N75" s="59"/>
       <c r="O75" s="59"/>
@@ -37147,21 +37207,25 @@
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="E76" s="75"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="76" t="str">
+        <v>99</v>
+      </c>
+      <c r="E76" s="75">
+        <v>43038</v>
+      </c>
+      <c r="F76" s="73">
+        <v>12</v>
+      </c>
+      <c r="G76" s="76">
         <f>IF(F76&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E76+2,IF(WEEKDAY(E76,1)=1,E76+1,E76)),F76-1),E76+F76-1),"")</f>
-        <v/>
+        <v>43049</v>
       </c>
       <c r="H76" s="77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I76" s="78"/>
       <c r="J76" s="78"/>
       <c r="K76" s="79">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L76" s="80"/>
       <c r="M76" s="58"/>
@@ -37578,7 +37642,7 @@
       </c>
       <c r="C77" s="73"/>
       <c r="D77" s="74" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E77" s="75"/>
       <c r="F77" s="73"/>
@@ -37587,12 +37651,12 @@
         <v/>
       </c>
       <c r="H77" s="77">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I77" s="78"/>
       <c r="J77" s="78"/>
       <c r="K77" s="79">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="L77" s="80"/>
       <c r="M77" s="58"/>
@@ -38009,21 +38073,18 @@
       </c>
       <c r="C78" s="73"/>
       <c r="D78" s="74" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="E78" s="75"/>
       <c r="F78" s="73"/>
-      <c r="G78" s="76" t="str">
-        <f>IF(F78&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E78+2,IF(WEEKDAY(E78,1)=1,E78+1,E78)),F78-1),E78+F78-1),"")</f>
-        <v/>
-      </c>
+      <c r="G78" s="76"/>
       <c r="H78" s="77">
         <v>0</v>
       </c>
       <c r="I78" s="78"/>
       <c r="J78" s="78"/>
       <c r="K78" s="79">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L78" s="80"/>
       <c r="M78" s="58"/>
@@ -38440,21 +38501,18 @@
       </c>
       <c r="C79" s="73"/>
       <c r="D79" s="74" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E79" s="75"/>
       <c r="F79" s="73"/>
-      <c r="G79" s="76" t="str">
-        <f>IF(F79&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E79+2,IF(WEEKDAY(E79,1)=1,E79+1,E79)),F79-1),E79+F79-1),"")</f>
-        <v/>
-      </c>
+      <c r="G79" s="76"/>
       <c r="H79" s="77">
         <v>0</v>
       </c>
       <c r="I79" s="78"/>
       <c r="J79" s="78"/>
       <c r="K79" s="79">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L79" s="80"/>
       <c r="M79" s="58"/>
@@ -38871,7 +38929,7 @@
       </c>
       <c r="C80" s="73"/>
       <c r="D80" s="74" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E80" s="75"/>
       <c r="F80" s="73"/>
@@ -38885,7 +38943,7 @@
       <c r="I80" s="78"/>
       <c r="J80" s="78"/>
       <c r="K80" s="79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L80" s="80"/>
       <c r="M80" s="58"/>
@@ -39300,31 +39358,25 @@
         <f t="shared" si="98"/>
         <v>67</v>
       </c>
-      <c r="C81" s="62"/>
-      <c r="D81" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" s="64">
-        <v>43087</v>
-      </c>
-      <c r="F81" s="62">
-        <v>40</v>
-      </c>
-      <c r="G81" s="53">
-        <f t="shared" ref="G81:G84" si="107">IF(F81&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E81,1)=7,E81+2,IF(WEEKDAY(E81,1)=1,E81+1,E81)),F81-1),E81+F81-1),"")</f>
-        <v>43126</v>
-      </c>
-      <c r="H81" s="65">
+      <c r="C81" s="73"/>
+      <c r="D81" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E81" s="75"/>
+      <c r="F81" s="73"/>
+      <c r="G81" s="76" t="str">
+        <f>IF(F81&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E81+2,IF(WEEKDAY(E81,1)=1,E81+1,E81)),F81-1),E81+F81-1),"")</f>
+        <v/>
+      </c>
+      <c r="H81" s="77">
         <v>0</v>
       </c>
-      <c r="I81" s="66">
-        <v>43452</v>
-      </c>
-      <c r="J81" s="66"/>
-      <c r="K81" s="67">
-        <v>10</v>
-      </c>
-      <c r="L81" s="68"/>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="79">
+        <v>6</v>
+      </c>
+      <c r="L81" s="80"/>
       <c r="M81" s="58"/>
       <c r="N81" s="59"/>
       <c r="O81" s="59"/>
@@ -39733,21 +39785,28 @@
       <c r="PB81" s="71"/>
     </row>
     <row r="82" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B82" s="49"/>
+      <c r="B82" s="49">
+        <f t="shared" si="98"/>
+        <v>68</v>
+      </c>
       <c r="C82" s="73"/>
       <c r="D82" s="74" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E82" s="75"/>
       <c r="F82" s="73"/>
-      <c r="G82" s="53" t="str">
-        <f>IF(F82&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E82,1)=7,E82+2,IF(WEEKDAY(E82,1)=1,E82+1,E82)),F82-1),E82+F82-1),"")</f>
+      <c r="G82" s="76" t="str">
+        <f>IF(F82&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E82+2,IF(WEEKDAY(E82,1)=1,E82+1,E82)),F82-1),E82+F82-1),"")</f>
         <v/>
       </c>
-      <c r="H82" s="77"/>
+      <c r="H82" s="77">
+        <v>0</v>
+      </c>
       <c r="I82" s="78"/>
       <c r="J82" s="78"/>
-      <c r="K82" s="79"/>
+      <c r="K82" s="79">
+        <v>2</v>
+      </c>
       <c r="L82" s="80"/>
       <c r="M82" s="58"/>
       <c r="N82" s="59"/>
@@ -40161,31 +40220,25 @@
         <f t="shared" si="98"/>
         <v>69</v>
       </c>
-      <c r="C83" s="62"/>
-      <c r="D83" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="64">
-        <v>43130</v>
-      </c>
-      <c r="F83" s="62">
+      <c r="C83" s="73"/>
+      <c r="D83" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="E83" s="75"/>
+      <c r="F83" s="73"/>
+      <c r="G83" s="76" t="str">
+        <f>IF(F83&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E83+2,IF(WEEKDAY(E83,1)=1,E83+1,E83)),F83-1),E83+F83-1),"")</f>
+        <v/>
+      </c>
+      <c r="H83" s="77">
+        <v>0</v>
+      </c>
+      <c r="I83" s="78"/>
+      <c r="J83" s="78"/>
+      <c r="K83" s="79">
         <v>1</v>
       </c>
-      <c r="G83" s="53">
-        <f t="shared" si="107"/>
-        <v>43130</v>
-      </c>
-      <c r="H83" s="65">
-        <v>0</v>
-      </c>
-      <c r="I83" s="66">
-        <v>43130</v>
-      </c>
-      <c r="J83" s="66"/>
-      <c r="K83" s="67">
-        <v>6</v>
-      </c>
-      <c r="L83" s="68"/>
+      <c r="L83" s="80"/>
       <c r="M83" s="58"/>
       <c r="N83" s="59"/>
       <c r="O83" s="59"/>
@@ -40600,12 +40653,12 @@
       </c>
       <c r="C84" s="73"/>
       <c r="D84" s="74" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="E84" s="75"/>
       <c r="F84" s="73"/>
       <c r="G84" s="76" t="str">
-        <f t="shared" si="107"/>
+        <f>IF(F84&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E84+2,IF(WEEKDAY(E84,1)=1,E84+1,E84)),F84-1),E84+F84-1),"")</f>
         <v/>
       </c>
       <c r="H84" s="77">
@@ -40614,7 +40667,7 @@
       <c r="I84" s="78"/>
       <c r="J84" s="78"/>
       <c r="K84" s="79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L84" s="80"/>
       <c r="M84" s="58"/>
@@ -41029,20 +41082,25 @@
         <f t="shared" si="98"/>
         <v>71</v>
       </c>
-      <c r="C85" s="82"/>
-      <c r="D85" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="E85" s="84"/>
-      <c r="F85" s="82"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="86"/>
-      <c r="I85" s="87"/>
-      <c r="J85" s="87"/>
-      <c r="K85" s="88">
-        <v>1</v>
-      </c>
-      <c r="L85" s="89"/>
+      <c r="C85" s="73"/>
+      <c r="D85" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="75"/>
+      <c r="F85" s="73"/>
+      <c r="G85" s="76" t="str">
+        <f>IF(F85&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E85+2,IF(WEEKDAY(E85,1)=1,E85+1,E85)),F85-1),E85+F85-1),"")</f>
+        <v/>
+      </c>
+      <c r="H85" s="77">
+        <v>0</v>
+      </c>
+      <c r="I85" s="78"/>
+      <c r="J85" s="78"/>
+      <c r="K85" s="79">
+        <v>5</v>
+      </c>
+      <c r="L85" s="80"/>
       <c r="M85" s="58"/>
       <c r="N85" s="59"/>
       <c r="O85" s="59"/>
@@ -41455,16 +41513,25 @@
         <f t="shared" si="98"/>
         <v>72</v>
       </c>
-      <c r="C86" s="82"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="84"/>
-      <c r="F86" s="82"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="86"/>
-      <c r="I86" s="87"/>
-      <c r="J86" s="87"/>
-      <c r="K86" s="88"/>
-      <c r="L86" s="89"/>
+      <c r="C86" s="73"/>
+      <c r="D86" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="75"/>
+      <c r="F86" s="73"/>
+      <c r="G86" s="76" t="str">
+        <f>IF(F86&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E86+2,IF(WEEKDAY(E86,1)=1,E86+1,E86)),F86-1),E86+F86-1),"")</f>
+        <v/>
+      </c>
+      <c r="H86" s="77">
+        <v>0</v>
+      </c>
+      <c r="I86" s="78"/>
+      <c r="J86" s="78"/>
+      <c r="K86" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="L86" s="80"/>
       <c r="M86" s="58"/>
       <c r="N86" s="59"/>
       <c r="O86" s="59"/>
@@ -41877,16 +41944,25 @@
         <f t="shared" si="98"/>
         <v>73</v>
       </c>
-      <c r="C87" s="82"/>
-      <c r="D87" s="83"/>
-      <c r="E87" s="84"/>
-      <c r="F87" s="82"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="86"/>
-      <c r="I87" s="87"/>
-      <c r="J87" s="87"/>
-      <c r="K87" s="88"/>
-      <c r="L87" s="89"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87" s="75"/>
+      <c r="F87" s="73"/>
+      <c r="G87" s="76" t="str">
+        <f>IF(F87&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E87+2,IF(WEEKDAY(E87,1)=1,E87+1,E87)),F87-1),E87+F87-1),"")</f>
+        <v/>
+      </c>
+      <c r="H87" s="77">
+        <v>0</v>
+      </c>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
+      <c r="K87" s="79">
+        <v>1</v>
+      </c>
+      <c r="L87" s="80"/>
       <c r="M87" s="58"/>
       <c r="N87" s="59"/>
       <c r="O87" s="59"/>
@@ -42299,16 +42375,31 @@
         <f t="shared" si="98"/>
         <v>74</v>
       </c>
-      <c r="C88" s="82"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="86"/>
-      <c r="I88" s="87"/>
-      <c r="J88" s="87"/>
-      <c r="K88" s="88"/>
-      <c r="L88" s="89"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="64">
+        <v>43087</v>
+      </c>
+      <c r="F88" s="62">
+        <v>40</v>
+      </c>
+      <c r="G88" s="53">
+        <f t="shared" ref="G88:G91" si="107">IF(F88&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E88,1)=7,E88+2,IF(WEEKDAY(E88,1)=1,E88+1,E88)),F88-1),E88+F88-1),"")</f>
+        <v>43126</v>
+      </c>
+      <c r="H88" s="65">
+        <v>0</v>
+      </c>
+      <c r="I88" s="66">
+        <v>43452</v>
+      </c>
+      <c r="J88" s="66"/>
+      <c r="K88" s="67">
+        <v>10</v>
+      </c>
+      <c r="L88" s="68"/>
       <c r="M88" s="58"/>
       <c r="N88" s="59"/>
       <c r="O88" s="59"/>
@@ -42717,20 +42808,22 @@
       <c r="PB88" s="71"/>
     </row>
     <row r="89" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B89" s="49">
-        <f t="shared" si="98"/>
-        <v>75</v>
-      </c>
-      <c r="C89" s="82"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="82"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="86"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
-      <c r="K89" s="88"/>
-      <c r="L89" s="89"/>
+      <c r="B89" s="49"/>
+      <c r="C89" s="73"/>
+      <c r="D89" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E89" s="75"/>
+      <c r="F89" s="73"/>
+      <c r="G89" s="53" t="str">
+        <f>IF(F89&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E89,1)=7,E89+2,IF(WEEKDAY(E89,1)=1,E89+1,E89)),F89-1),E89+F89-1),"")</f>
+        <v/>
+      </c>
+      <c r="H89" s="77"/>
+      <c r="I89" s="78"/>
+      <c r="J89" s="78"/>
+      <c r="K89" s="79"/>
+      <c r="L89" s="80"/>
       <c r="M89" s="58"/>
       <c r="N89" s="59"/>
       <c r="O89" s="59"/>
@@ -43143,16 +43236,31 @@
         <f t="shared" si="98"/>
         <v>76</v>
       </c>
-      <c r="C90" s="82"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="84"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="86"/>
-      <c r="I90" s="87"/>
-      <c r="J90" s="87"/>
-      <c r="K90" s="88"/>
-      <c r="L90" s="89"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="64">
+        <v>43130</v>
+      </c>
+      <c r="F90" s="62">
+        <v>1</v>
+      </c>
+      <c r="G90" s="53">
+        <f t="shared" si="107"/>
+        <v>43130</v>
+      </c>
+      <c r="H90" s="65">
+        <v>0</v>
+      </c>
+      <c r="I90" s="66">
+        <v>43130</v>
+      </c>
+      <c r="J90" s="66"/>
+      <c r="K90" s="67">
+        <v>6</v>
+      </c>
+      <c r="L90" s="68"/>
       <c r="M90" s="58"/>
       <c r="N90" s="59"/>
       <c r="O90" s="59"/>
@@ -43565,16 +43673,25 @@
         <f t="shared" si="98"/>
         <v>77</v>
       </c>
-      <c r="C91" s="82"/>
-      <c r="D91" s="83"/>
-      <c r="E91" s="84"/>
-      <c r="F91" s="82"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="86"/>
-      <c r="I91" s="87"/>
-      <c r="J91" s="87"/>
-      <c r="K91" s="88"/>
-      <c r="L91" s="89"/>
+      <c r="C91" s="73"/>
+      <c r="D91" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="E91" s="75"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="76" t="str">
+        <f t="shared" si="107"/>
+        <v/>
+      </c>
+      <c r="H91" s="77">
+        <v>0</v>
+      </c>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="79">
+        <v>5</v>
+      </c>
+      <c r="L91" s="80"/>
       <c r="M91" s="58"/>
       <c r="N91" s="59"/>
       <c r="O91" s="59"/>
@@ -43988,14 +44105,18 @@
         <v>78</v>
       </c>
       <c r="C92" s="82"/>
-      <c r="D92" s="83"/>
+      <c r="D92" s="83" t="s">
+        <v>69</v>
+      </c>
       <c r="E92" s="84"/>
       <c r="F92" s="82"/>
       <c r="G92" s="85"/>
       <c r="H92" s="86"/>
       <c r="I92" s="87"/>
       <c r="J92" s="87"/>
-      <c r="K92" s="88"/>
+      <c r="K92" s="88">
+        <v>1</v>
+      </c>
       <c r="L92" s="89"/>
       <c r="M92" s="58"/>
       <c r="N92" s="59"/>
@@ -44835,10 +44956,7 @@
       <c r="D94" s="83"/>
       <c r="E94" s="84"/>
       <c r="F94" s="82"/>
-      <c r="G94" s="85" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
+      <c r="G94" s="85"/>
       <c r="H94" s="86"/>
       <c r="I94" s="87"/>
       <c r="J94" s="87"/>
@@ -45252,265 +45370,3289 @@
       <c r="PB94" s="71"/>
     </row>
     <row r="95" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="M95" s="90"/>
-      <c r="N95" s="90"/>
-      <c r="O95" s="90"/>
-      <c r="P95" s="91"/>
-      <c r="Q95" s="91"/>
-      <c r="R95" s="91"/>
-      <c r="S95" s="91"/>
-      <c r="T95" s="91"/>
-      <c r="U95" s="91"/>
-      <c r="V95" s="91"/>
-      <c r="W95" s="91"/>
-      <c r="X95" s="91"/>
-      <c r="Y95" s="91"/>
-      <c r="Z95" s="91"/>
-      <c r="AA95" s="91"/>
-      <c r="AB95" s="91"/>
-      <c r="AC95" s="91"/>
-      <c r="AD95" s="91"/>
-      <c r="AE95" s="91"/>
-      <c r="AF95" s="91"/>
-      <c r="AG95" s="91"/>
-      <c r="AH95" s="91"/>
-      <c r="AI95" s="91"/>
-      <c r="AJ95" s="91"/>
-      <c r="AK95" s="91"/>
-      <c r="AL95" s="91"/>
-      <c r="AM95" s="91"/>
-      <c r="AN95" s="91"/>
-      <c r="AO95" s="91"/>
-      <c r="AP95" s="91"/>
-      <c r="AQ95" s="91"/>
-      <c r="AR95" s="91"/>
-      <c r="AS95" s="91"/>
-      <c r="AT95" s="91"/>
-      <c r="AU95" s="91"/>
-      <c r="AV95" s="91"/>
-      <c r="AW95" s="91"/>
-      <c r="AX95" s="91"/>
-      <c r="AY95" s="91"/>
-      <c r="AZ95" s="91"/>
-      <c r="BA95" s="91"/>
-      <c r="BB95" s="91"/>
-      <c r="BC95" s="91"/>
-      <c r="BD95" s="91"/>
-      <c r="BE95" s="91"/>
-      <c r="BF95" s="91"/>
-      <c r="BG95" s="91"/>
-      <c r="BH95" s="91"/>
-      <c r="BI95" s="91"/>
-      <c r="BJ95" s="91"/>
-      <c r="BK95" s="91"/>
-      <c r="BL95" s="91"/>
-      <c r="BM95" s="91"/>
-      <c r="BN95" s="91"/>
-      <c r="BO95" s="91"/>
-      <c r="BP95" s="91"/>
-      <c r="BQ95" s="91"/>
-      <c r="BR95" s="91"/>
-      <c r="BS95" s="91"/>
-      <c r="BT95" s="91"/>
-      <c r="BU95" s="91"/>
-      <c r="BV95" s="91"/>
-      <c r="BW95" s="91"/>
-      <c r="BX95" s="91"/>
-      <c r="BY95" s="91"/>
-      <c r="BZ95" s="91"/>
-      <c r="CA95" s="91"/>
-      <c r="CB95" s="91"/>
-      <c r="CC95" s="91"/>
-      <c r="CD95" s="91"/>
-      <c r="CE95" s="91"/>
-      <c r="CF95" s="91"/>
-      <c r="CG95" s="91"/>
-      <c r="CH95" s="91"/>
-      <c r="CI95" s="91"/>
-      <c r="CJ95" s="91"/>
-      <c r="CK95" s="91"/>
-      <c r="CL95" s="91"/>
-      <c r="CM95" s="91"/>
-      <c r="CN95" s="91"/>
-      <c r="CO95" s="91"/>
-      <c r="CP95" s="91"/>
-      <c r="CQ95" s="91"/>
-      <c r="CR95" s="91"/>
-      <c r="CS95" s="91"/>
-      <c r="CT95" s="91"/>
-      <c r="CU95" s="91"/>
-      <c r="CV95" s="91"/>
-      <c r="CW95" s="91"/>
-      <c r="CX95" s="91"/>
-      <c r="CY95" s="91"/>
-      <c r="CZ95" s="91"/>
-      <c r="DA95" s="91"/>
-      <c r="DB95" s="91"/>
-      <c r="DC95" s="91"/>
-      <c r="DD95" s="91"/>
-      <c r="DE95" s="91"/>
-      <c r="DF95" s="91"/>
-      <c r="DG95" s="91"/>
-      <c r="DH95" s="91"/>
-      <c r="DI95" s="91"/>
-      <c r="DJ95" s="91"/>
-      <c r="DK95" s="91"/>
-      <c r="DL95" s="91"/>
-      <c r="DM95" s="91"/>
-      <c r="DN95" s="91"/>
-      <c r="DO95" s="91"/>
-      <c r="DP95" s="91"/>
-      <c r="DQ95" s="91"/>
-      <c r="DR95" s="91"/>
-      <c r="DS95" s="91"/>
-      <c r="DT95" s="91"/>
-      <c r="DU95" s="91"/>
-      <c r="DV95" s="91"/>
-      <c r="DW95" s="91"/>
-      <c r="DX95" s="91"/>
+      <c r="B95" s="49">
+        <f t="shared" si="98"/>
+        <v>81</v>
+      </c>
+      <c r="C95" s="82"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="86"/>
+      <c r="I95" s="87"/>
+      <c r="J95" s="87"/>
+      <c r="K95" s="88"/>
+      <c r="L95" s="89"/>
+      <c r="M95" s="58"/>
+      <c r="N95" s="59"/>
+      <c r="O95" s="59"/>
+      <c r="P95" s="59"/>
+      <c r="Q95" s="59"/>
+      <c r="R95" s="59"/>
+      <c r="S95" s="59"/>
+      <c r="T95" s="59"/>
+      <c r="U95" s="59"/>
+      <c r="V95" s="59"/>
+      <c r="W95" s="59"/>
+      <c r="X95" s="59"/>
+      <c r="Y95" s="59"/>
+      <c r="Z95" s="59"/>
+      <c r="AA95" s="59"/>
+      <c r="AB95" s="59"/>
+      <c r="AC95" s="59"/>
+      <c r="AD95" s="59"/>
+      <c r="AE95" s="59"/>
+      <c r="AF95" s="59"/>
+      <c r="AG95" s="59"/>
+      <c r="AH95" s="59"/>
+      <c r="AI95" s="59"/>
+      <c r="AJ95" s="59"/>
+      <c r="AK95" s="59"/>
+      <c r="AL95" s="59"/>
+      <c r="AM95" s="59"/>
+      <c r="AN95" s="59"/>
+      <c r="AO95" s="59"/>
+      <c r="AP95" s="59"/>
+      <c r="AQ95" s="59"/>
+      <c r="AR95" s="59"/>
+      <c r="AS95" s="59"/>
+      <c r="AT95" s="59"/>
+      <c r="AU95" s="59"/>
+      <c r="AV95" s="59"/>
+      <c r="AW95" s="59"/>
+      <c r="AX95" s="59"/>
+      <c r="AY95" s="59"/>
+      <c r="AZ95" s="59"/>
+      <c r="BA95" s="59"/>
+      <c r="BB95" s="59"/>
+      <c r="BC95" s="59"/>
+      <c r="BD95" s="59"/>
+      <c r="BE95" s="59"/>
+      <c r="BF95" s="59"/>
+      <c r="BG95" s="59"/>
+      <c r="BH95" s="59"/>
+      <c r="BI95" s="59"/>
+      <c r="BJ95" s="59"/>
+      <c r="BK95" s="59"/>
+      <c r="BL95" s="59"/>
+      <c r="BM95" s="59"/>
+      <c r="BN95" s="59"/>
+      <c r="BO95" s="59"/>
+      <c r="BP95" s="59"/>
+      <c r="BQ95" s="59"/>
+      <c r="BR95" s="59"/>
+      <c r="BS95" s="59"/>
+      <c r="BT95" s="59"/>
+      <c r="BU95" s="59"/>
+      <c r="BV95" s="59"/>
+      <c r="BW95" s="59"/>
+      <c r="BX95" s="59"/>
+      <c r="BY95" s="59"/>
+      <c r="BZ95" s="59"/>
+      <c r="CA95" s="59"/>
+      <c r="CB95" s="59"/>
+      <c r="CC95" s="59"/>
+      <c r="CD95" s="59"/>
+      <c r="CE95" s="59"/>
+      <c r="CF95" s="59"/>
+      <c r="CG95" s="59"/>
+      <c r="CH95" s="59"/>
+      <c r="CI95" s="59"/>
+      <c r="CJ95" s="59"/>
+      <c r="CK95" s="59"/>
+      <c r="CL95" s="59"/>
+      <c r="CM95" s="59"/>
+      <c r="CN95" s="59"/>
+      <c r="CO95" s="59"/>
+      <c r="CP95" s="59"/>
+      <c r="CQ95" s="59"/>
+      <c r="CR95" s="59"/>
+      <c r="CS95" s="59"/>
+      <c r="CT95" s="59"/>
+      <c r="CU95" s="59"/>
+      <c r="CV95" s="59"/>
+      <c r="CW95" s="59"/>
+      <c r="CX95" s="59"/>
+      <c r="CY95" s="59"/>
+      <c r="CZ95" s="59"/>
+      <c r="DA95" s="59"/>
+      <c r="DB95" s="59"/>
+      <c r="DC95" s="59"/>
+      <c r="DD95" s="59"/>
+      <c r="DE95" s="59"/>
+      <c r="DF95" s="59"/>
+      <c r="DG95" s="59"/>
+      <c r="DH95" s="59"/>
+      <c r="DI95" s="59"/>
+      <c r="DJ95" s="59"/>
+      <c r="DK95" s="59"/>
+      <c r="DL95" s="59"/>
+      <c r="DM95" s="59"/>
+      <c r="DN95" s="59"/>
+      <c r="DO95" s="59"/>
+      <c r="DP95" s="59"/>
+      <c r="DQ95" s="59"/>
+      <c r="DR95" s="59"/>
+      <c r="DS95" s="59"/>
+      <c r="DT95" s="59"/>
+      <c r="DU95" s="59"/>
+      <c r="DV95" s="59"/>
+      <c r="DW95" s="59"/>
+      <c r="DX95" s="59"/>
+      <c r="DY95" s="59"/>
+      <c r="DZ95" s="59"/>
+      <c r="EA95" s="59"/>
+      <c r="EB95" s="59"/>
+      <c r="EC95" s="59"/>
+      <c r="ED95" s="59"/>
+      <c r="EE95" s="59"/>
+      <c r="EF95" s="59"/>
+      <c r="EG95" s="59"/>
+      <c r="EH95" s="59"/>
+      <c r="EI95" s="59"/>
+      <c r="EJ95" s="59"/>
+      <c r="EK95" s="59"/>
+      <c r="EL95" s="59"/>
+      <c r="EM95" s="59"/>
+      <c r="EN95" s="59"/>
+      <c r="EO95" s="59"/>
+      <c r="EP95" s="59"/>
+      <c r="EQ95" s="59"/>
+      <c r="ER95" s="59"/>
+      <c r="ES95" s="59"/>
+      <c r="ET95" s="59"/>
+      <c r="EU95" s="59"/>
+      <c r="EV95" s="59"/>
+      <c r="EW95" s="59"/>
+      <c r="EX95" s="59"/>
+      <c r="EY95" s="59"/>
+      <c r="EZ95" s="59"/>
+      <c r="FA95" s="59"/>
+      <c r="FB95" s="59"/>
+      <c r="FC95" s="59"/>
+      <c r="FD95" s="59"/>
+      <c r="FE95" s="59"/>
+      <c r="FF95" s="59"/>
+      <c r="FG95" s="59"/>
+      <c r="FH95" s="59"/>
+      <c r="FI95" s="59"/>
+      <c r="FJ95" s="59"/>
+      <c r="FK95" s="59"/>
+      <c r="FL95" s="59"/>
+      <c r="FM95" s="59"/>
+      <c r="FN95" s="59"/>
+      <c r="FO95" s="59"/>
+      <c r="FP95" s="59"/>
+      <c r="FQ95" s="59"/>
+      <c r="FR95" s="59"/>
+      <c r="FS95" s="59"/>
+      <c r="FT95" s="59"/>
+      <c r="FU95" s="59"/>
+      <c r="FV95" s="59"/>
+      <c r="FW95" s="59"/>
+      <c r="FX95" s="59"/>
+      <c r="FY95" s="59"/>
+      <c r="FZ95" s="59"/>
+      <c r="GA95" s="59"/>
+      <c r="GB95" s="59"/>
+      <c r="GC95" s="59"/>
+      <c r="GD95" s="59"/>
+      <c r="GE95" s="59"/>
+      <c r="GF95" s="59"/>
+      <c r="GG95" s="59"/>
+      <c r="GH95" s="59"/>
+      <c r="GI95" s="59"/>
+      <c r="GJ95" s="59"/>
+      <c r="GK95" s="59"/>
+      <c r="GL95" s="59"/>
+      <c r="GM95" s="59"/>
+      <c r="GN95" s="59"/>
+      <c r="GO95" s="59"/>
+      <c r="GP95" s="59"/>
+      <c r="GQ95" s="59"/>
+      <c r="GR95" s="59"/>
+      <c r="GS95" s="59"/>
+      <c r="GT95" s="59"/>
+      <c r="GU95" s="59"/>
+      <c r="GV95" s="59"/>
+      <c r="GW95" s="59"/>
+      <c r="GX95" s="59"/>
+      <c r="GY95" s="59"/>
+      <c r="GZ95" s="59"/>
+      <c r="HA95" s="59"/>
+      <c r="HB95" s="59"/>
+      <c r="HC95" s="59"/>
+      <c r="HD95" s="59"/>
+      <c r="HE95" s="59"/>
+      <c r="HF95" s="59"/>
+      <c r="HG95" s="59"/>
+      <c r="HH95" s="59"/>
+      <c r="HI95" s="59"/>
+      <c r="HJ95" s="59"/>
+      <c r="HK95" s="59"/>
+      <c r="HL95" s="59"/>
+      <c r="HM95" s="59"/>
+      <c r="HN95" s="59"/>
+      <c r="HO95" s="59"/>
+      <c r="HP95" s="59"/>
+      <c r="HQ95" s="59"/>
+      <c r="HR95" s="59"/>
+      <c r="HS95" s="59"/>
+      <c r="HT95" s="59"/>
+      <c r="HU95" s="59"/>
+      <c r="HV95" s="59"/>
+      <c r="HW95" s="59"/>
+      <c r="HX95" s="59"/>
+      <c r="HY95" s="59"/>
+      <c r="HZ95" s="59"/>
+      <c r="IA95" s="59"/>
+      <c r="IB95" s="59"/>
+      <c r="IC95" s="59"/>
+      <c r="ID95" s="59"/>
+      <c r="IE95" s="59"/>
+      <c r="IF95" s="59"/>
+      <c r="IG95" s="59"/>
+      <c r="IH95" s="59"/>
+      <c r="II95" s="59"/>
+      <c r="IJ95" s="59"/>
+      <c r="IK95" s="59"/>
+      <c r="IL95" s="59"/>
+      <c r="IM95" s="59"/>
+      <c r="IN95" s="59"/>
+      <c r="IO95" s="59"/>
+      <c r="IP95" s="59"/>
+      <c r="IQ95" s="59"/>
+      <c r="IR95" s="59"/>
+      <c r="IS95" s="59"/>
+      <c r="IT95" s="59"/>
+      <c r="IU95" s="59"/>
+      <c r="IV95" s="59"/>
+      <c r="IW95" s="59"/>
+      <c r="IX95" s="59"/>
+      <c r="IY95" s="59"/>
+      <c r="IZ95" s="59"/>
+      <c r="JA95" s="59"/>
+      <c r="JB95" s="59"/>
+      <c r="JC95" s="59"/>
+      <c r="JD95" s="59"/>
+      <c r="JE95" s="59"/>
+      <c r="JF95" s="59"/>
+      <c r="JG95" s="59"/>
+      <c r="JH95" s="59"/>
+      <c r="JI95" s="59"/>
+      <c r="JJ95" s="59"/>
+      <c r="JK95" s="59"/>
+      <c r="JL95" s="59"/>
+      <c r="JM95" s="59"/>
+      <c r="JN95" s="59"/>
+      <c r="JO95" s="59"/>
+      <c r="JP95" s="59"/>
+      <c r="JQ95" s="59"/>
+      <c r="JR95" s="59"/>
+      <c r="JS95" s="59"/>
+      <c r="JT95" s="59"/>
+      <c r="JU95" s="59"/>
+      <c r="JV95" s="59"/>
+      <c r="JW95" s="59"/>
+      <c r="JX95" s="59"/>
+      <c r="JY95" s="59"/>
+      <c r="JZ95" s="59"/>
+      <c r="KA95" s="59"/>
+      <c r="KB95" s="59"/>
+      <c r="KC95" s="59"/>
+      <c r="KD95" s="59"/>
+      <c r="KE95" s="59"/>
+      <c r="KF95" s="59"/>
+      <c r="KG95" s="59"/>
+      <c r="KH95" s="59"/>
+      <c r="KI95" s="59"/>
+      <c r="KJ95" s="59"/>
+      <c r="KK95" s="59"/>
+      <c r="KL95" s="59"/>
+      <c r="KM95" s="59"/>
+      <c r="KN95" s="59"/>
+      <c r="KO95" s="59"/>
+      <c r="KP95" s="59"/>
+      <c r="KQ95" s="59"/>
+      <c r="KR95" s="59"/>
+      <c r="KS95" s="59"/>
+      <c r="KT95" s="59"/>
+      <c r="KU95" s="59"/>
+      <c r="KV95" s="59"/>
+      <c r="KW95" s="59"/>
+      <c r="KX95" s="59"/>
+      <c r="KY95" s="59"/>
+      <c r="KZ95" s="59"/>
+      <c r="LA95" s="59"/>
+      <c r="LB95" s="59"/>
+      <c r="LC95" s="59"/>
+      <c r="LD95" s="59"/>
+      <c r="LE95" s="59"/>
+      <c r="LF95" s="59"/>
+      <c r="LG95" s="59"/>
+      <c r="LH95" s="59"/>
+      <c r="LI95" s="59"/>
+      <c r="LJ95" s="59"/>
+      <c r="LK95" s="59"/>
+      <c r="LL95" s="59"/>
+      <c r="LM95" s="59"/>
+      <c r="LN95" s="59"/>
+      <c r="LO95" s="59"/>
+      <c r="LP95" s="59"/>
+      <c r="LQ95" s="59"/>
+      <c r="LR95" s="59"/>
+      <c r="LS95" s="59"/>
+      <c r="LT95" s="59"/>
+      <c r="LU95" s="59"/>
+      <c r="LV95" s="59"/>
+      <c r="LW95" s="59"/>
+      <c r="LX95" s="59"/>
+      <c r="LY95" s="59"/>
+      <c r="LZ95" s="59"/>
+      <c r="MA95" s="59"/>
+      <c r="MB95" s="59"/>
+      <c r="MC95" s="59"/>
+      <c r="MD95" s="59"/>
+      <c r="ME95" s="59"/>
+      <c r="MF95" s="59"/>
+      <c r="MG95" s="59"/>
+      <c r="MH95" s="59"/>
+      <c r="MI95" s="59"/>
+      <c r="MJ95" s="59"/>
+      <c r="MK95" s="59"/>
+      <c r="ML95" s="59"/>
+      <c r="MM95" s="59"/>
+      <c r="MN95" s="59"/>
+      <c r="MO95" s="59"/>
+      <c r="MP95" s="59"/>
+      <c r="MQ95" s="59"/>
+      <c r="MR95" s="59"/>
+      <c r="MS95" s="59"/>
+      <c r="MT95" s="59"/>
+      <c r="MU95" s="59"/>
+      <c r="MV95" s="59"/>
+      <c r="MW95" s="59"/>
+      <c r="MX95" s="59"/>
+      <c r="MY95" s="59"/>
+      <c r="MZ95" s="59"/>
+      <c r="NA95" s="59"/>
+      <c r="NB95" s="59"/>
+      <c r="NC95" s="59"/>
+      <c r="ND95" s="59"/>
+      <c r="NE95" s="59"/>
+      <c r="NF95" s="59"/>
+      <c r="NG95" s="59"/>
+      <c r="NH95" s="59"/>
+      <c r="NI95" s="59"/>
+      <c r="NJ95" s="59"/>
+      <c r="NK95" s="59"/>
+      <c r="NL95" s="59"/>
+      <c r="NM95" s="59"/>
+      <c r="NN95" s="59"/>
+      <c r="NO95" s="59"/>
+      <c r="NP95" s="59"/>
+      <c r="NQ95" s="59"/>
+      <c r="NR95" s="59"/>
+      <c r="NS95" s="59"/>
+      <c r="NT95" s="59"/>
+      <c r="NU95" s="59"/>
+      <c r="NV95" s="59"/>
+      <c r="NW95" s="59"/>
+      <c r="NX95" s="59"/>
+      <c r="NY95" s="59"/>
+      <c r="NZ95" s="59"/>
+      <c r="OA95" s="59"/>
+      <c r="OB95" s="59"/>
+      <c r="OC95" s="59"/>
+      <c r="OD95" s="59"/>
+      <c r="OE95" s="59"/>
+      <c r="OF95" s="59"/>
+      <c r="OG95" s="59"/>
+      <c r="OH95" s="59"/>
+      <c r="OI95" s="59"/>
+      <c r="OJ95" s="59"/>
+      <c r="OK95" s="59"/>
+      <c r="OL95" s="59"/>
+      <c r="OM95" s="59"/>
+      <c r="ON95" s="59"/>
+      <c r="OO95" s="59"/>
+      <c r="OP95" s="59"/>
+      <c r="OQ95" s="59"/>
+      <c r="OR95" s="59"/>
+      <c r="OS95" s="59"/>
+      <c r="OT95" s="59"/>
+      <c r="OU95" s="59"/>
+      <c r="OV95" s="59"/>
+      <c r="OW95" s="59"/>
+      <c r="OX95" s="59"/>
+      <c r="OY95" s="59"/>
+      <c r="OZ95" s="59"/>
+      <c r="PA95" s="59"/>
+      <c r="PB95" s="71"/>
     </row>
     <row r="96" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="M96" s="92"/>
-      <c r="N96" s="92"/>
-      <c r="O96" s="92"/>
-      <c r="P96" s="93"/>
-      <c r="Q96" s="93"/>
-      <c r="R96" s="93"/>
-      <c r="S96" s="93"/>
-      <c r="T96" s="93"/>
-      <c r="U96" s="93"/>
-      <c r="V96" s="93"/>
-      <c r="W96" s="93"/>
-      <c r="X96" s="93"/>
-      <c r="Y96" s="93"/>
-      <c r="Z96" s="93"/>
-      <c r="AA96" s="93"/>
-      <c r="AB96" s="93"/>
-      <c r="AC96" s="93"/>
-      <c r="AD96" s="93"/>
-      <c r="AE96" s="93"/>
-      <c r="AF96" s="93"/>
-      <c r="AG96" s="93"/>
-      <c r="AH96" s="93"/>
-      <c r="AI96" s="93"/>
-      <c r="AJ96" s="93"/>
-      <c r="AK96" s="93"/>
-      <c r="AL96" s="93"/>
-      <c r="AM96" s="93"/>
-      <c r="AN96" s="93"/>
-      <c r="AO96" s="93"/>
-      <c r="AP96" s="93"/>
-      <c r="AQ96" s="93"/>
-      <c r="AR96" s="93"/>
-      <c r="AS96" s="93"/>
-      <c r="AT96" s="93"/>
-      <c r="AU96" s="93"/>
-      <c r="AV96" s="93"/>
-      <c r="AW96" s="93"/>
-      <c r="AX96" s="93"/>
-      <c r="AY96" s="93"/>
-      <c r="AZ96" s="93"/>
-      <c r="BA96" s="93"/>
-      <c r="BB96" s="93"/>
-      <c r="BC96" s="93"/>
-      <c r="BD96" s="93"/>
-      <c r="BE96" s="93"/>
-      <c r="BF96" s="93"/>
-      <c r="BG96" s="93"/>
-      <c r="BH96" s="93"/>
-      <c r="BI96" s="93"/>
-      <c r="BJ96" s="93"/>
-      <c r="BK96" s="93"/>
-      <c r="BL96" s="93"/>
-      <c r="BM96" s="93"/>
-      <c r="BN96" s="93"/>
-      <c r="BO96" s="93"/>
-      <c r="BP96" s="93"/>
-      <c r="BQ96" s="93"/>
-      <c r="BR96" s="93"/>
-      <c r="BS96" s="93"/>
-      <c r="BT96" s="93"/>
-      <c r="BU96" s="93"/>
-      <c r="BV96" s="93"/>
-      <c r="BW96" s="93"/>
-      <c r="BX96" s="93"/>
-      <c r="BY96" s="93"/>
-      <c r="BZ96" s="93"/>
-      <c r="CA96" s="93"/>
-      <c r="CB96" s="93"/>
-      <c r="CC96" s="93"/>
-      <c r="CD96" s="93"/>
-      <c r="CE96" s="93"/>
-      <c r="CF96" s="93"/>
-      <c r="CG96" s="93"/>
-      <c r="CH96" s="93"/>
-      <c r="CI96" s="93"/>
-      <c r="CJ96" s="93"/>
-      <c r="CK96" s="93"/>
-      <c r="CL96" s="93"/>
-      <c r="CM96" s="93"/>
-      <c r="CN96" s="93"/>
-      <c r="CO96" s="93"/>
-      <c r="CP96" s="93"/>
-      <c r="CQ96" s="93"/>
-      <c r="CR96" s="93"/>
-      <c r="CS96" s="93"/>
-      <c r="CT96" s="93"/>
-      <c r="CU96" s="93"/>
-      <c r="CV96" s="93"/>
-      <c r="CW96" s="93"/>
-      <c r="CX96" s="93"/>
-      <c r="CY96" s="93"/>
-      <c r="CZ96" s="93"/>
-      <c r="DA96" s="93"/>
-      <c r="DB96" s="93"/>
-      <c r="DC96" s="93"/>
-      <c r="DD96" s="93"/>
-      <c r="DE96" s="93"/>
-      <c r="DF96" s="93"/>
-      <c r="DG96" s="93"/>
-      <c r="DH96" s="93"/>
-      <c r="DI96" s="93"/>
-      <c r="DJ96" s="93"/>
-      <c r="DK96" s="93"/>
-      <c r="DL96" s="93"/>
-      <c r="DM96" s="93"/>
-      <c r="DN96" s="93"/>
-      <c r="DO96" s="93"/>
-      <c r="DP96" s="93"/>
-      <c r="DQ96" s="93"/>
-      <c r="DR96" s="93"/>
-      <c r="DS96" s="93"/>
-      <c r="DT96" s="93"/>
-      <c r="DU96" s="93"/>
-      <c r="DV96" s="93"/>
-      <c r="DW96" s="93"/>
-      <c r="DX96" s="93"/>
+      <c r="B96" s="49">
+        <f t="shared" si="98"/>
+        <v>82</v>
+      </c>
+      <c r="C96" s="82"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="84"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="86"/>
+      <c r="I96" s="87"/>
+      <c r="J96" s="87"/>
+      <c r="K96" s="88"/>
+      <c r="L96" s="89"/>
+      <c r="M96" s="58"/>
+      <c r="N96" s="59"/>
+      <c r="O96" s="59"/>
+      <c r="P96" s="59"/>
+      <c r="Q96" s="59"/>
+      <c r="R96" s="59"/>
+      <c r="S96" s="59"/>
+      <c r="T96" s="59"/>
+      <c r="U96" s="59"/>
+      <c r="V96" s="59"/>
+      <c r="W96" s="59"/>
+      <c r="X96" s="59"/>
+      <c r="Y96" s="59"/>
+      <c r="Z96" s="59"/>
+      <c r="AA96" s="59"/>
+      <c r="AB96" s="59"/>
+      <c r="AC96" s="59"/>
+      <c r="AD96" s="59"/>
+      <c r="AE96" s="59"/>
+      <c r="AF96" s="59"/>
+      <c r="AG96" s="59"/>
+      <c r="AH96" s="59"/>
+      <c r="AI96" s="59"/>
+      <c r="AJ96" s="59"/>
+      <c r="AK96" s="59"/>
+      <c r="AL96" s="59"/>
+      <c r="AM96" s="59"/>
+      <c r="AN96" s="59"/>
+      <c r="AO96" s="59"/>
+      <c r="AP96" s="59"/>
+      <c r="AQ96" s="59"/>
+      <c r="AR96" s="59"/>
+      <c r="AS96" s="59"/>
+      <c r="AT96" s="59"/>
+      <c r="AU96" s="59"/>
+      <c r="AV96" s="59"/>
+      <c r="AW96" s="59"/>
+      <c r="AX96" s="59"/>
+      <c r="AY96" s="59"/>
+      <c r="AZ96" s="59"/>
+      <c r="BA96" s="59"/>
+      <c r="BB96" s="59"/>
+      <c r="BC96" s="59"/>
+      <c r="BD96" s="59"/>
+      <c r="BE96" s="59"/>
+      <c r="BF96" s="59"/>
+      <c r="BG96" s="59"/>
+      <c r="BH96" s="59"/>
+      <c r="BI96" s="59"/>
+      <c r="BJ96" s="59"/>
+      <c r="BK96" s="59"/>
+      <c r="BL96" s="59"/>
+      <c r="BM96" s="59"/>
+      <c r="BN96" s="59"/>
+      <c r="BO96" s="59"/>
+      <c r="BP96" s="59"/>
+      <c r="BQ96" s="59"/>
+      <c r="BR96" s="59"/>
+      <c r="BS96" s="59"/>
+      <c r="BT96" s="59"/>
+      <c r="BU96" s="59"/>
+      <c r="BV96" s="59"/>
+      <c r="BW96" s="59"/>
+      <c r="BX96" s="59"/>
+      <c r="BY96" s="59"/>
+      <c r="BZ96" s="59"/>
+      <c r="CA96" s="59"/>
+      <c r="CB96" s="59"/>
+      <c r="CC96" s="59"/>
+      <c r="CD96" s="59"/>
+      <c r="CE96" s="59"/>
+      <c r="CF96" s="59"/>
+      <c r="CG96" s="59"/>
+      <c r="CH96" s="59"/>
+      <c r="CI96" s="59"/>
+      <c r="CJ96" s="59"/>
+      <c r="CK96" s="59"/>
+      <c r="CL96" s="59"/>
+      <c r="CM96" s="59"/>
+      <c r="CN96" s="59"/>
+      <c r="CO96" s="59"/>
+      <c r="CP96" s="59"/>
+      <c r="CQ96" s="59"/>
+      <c r="CR96" s="59"/>
+      <c r="CS96" s="59"/>
+      <c r="CT96" s="59"/>
+      <c r="CU96" s="59"/>
+      <c r="CV96" s="59"/>
+      <c r="CW96" s="59"/>
+      <c r="CX96" s="59"/>
+      <c r="CY96" s="59"/>
+      <c r="CZ96" s="59"/>
+      <c r="DA96" s="59"/>
+      <c r="DB96" s="59"/>
+      <c r="DC96" s="59"/>
+      <c r="DD96" s="59"/>
+      <c r="DE96" s="59"/>
+      <c r="DF96" s="59"/>
+      <c r="DG96" s="59"/>
+      <c r="DH96" s="59"/>
+      <c r="DI96" s="59"/>
+      <c r="DJ96" s="59"/>
+      <c r="DK96" s="59"/>
+      <c r="DL96" s="59"/>
+      <c r="DM96" s="59"/>
+      <c r="DN96" s="59"/>
+      <c r="DO96" s="59"/>
+      <c r="DP96" s="59"/>
+      <c r="DQ96" s="59"/>
+      <c r="DR96" s="59"/>
+      <c r="DS96" s="59"/>
+      <c r="DT96" s="59"/>
+      <c r="DU96" s="59"/>
+      <c r="DV96" s="59"/>
+      <c r="DW96" s="59"/>
+      <c r="DX96" s="59"/>
+      <c r="DY96" s="59"/>
+      <c r="DZ96" s="59"/>
+      <c r="EA96" s="59"/>
+      <c r="EB96" s="59"/>
+      <c r="EC96" s="59"/>
+      <c r="ED96" s="59"/>
+      <c r="EE96" s="59"/>
+      <c r="EF96" s="59"/>
+      <c r="EG96" s="59"/>
+      <c r="EH96" s="59"/>
+      <c r="EI96" s="59"/>
+      <c r="EJ96" s="59"/>
+      <c r="EK96" s="59"/>
+      <c r="EL96" s="59"/>
+      <c r="EM96" s="59"/>
+      <c r="EN96" s="59"/>
+      <c r="EO96" s="59"/>
+      <c r="EP96" s="59"/>
+      <c r="EQ96" s="59"/>
+      <c r="ER96" s="59"/>
+      <c r="ES96" s="59"/>
+      <c r="ET96" s="59"/>
+      <c r="EU96" s="59"/>
+      <c r="EV96" s="59"/>
+      <c r="EW96" s="59"/>
+      <c r="EX96" s="59"/>
+      <c r="EY96" s="59"/>
+      <c r="EZ96" s="59"/>
+      <c r="FA96" s="59"/>
+      <c r="FB96" s="59"/>
+      <c r="FC96" s="59"/>
+      <c r="FD96" s="59"/>
+      <c r="FE96" s="59"/>
+      <c r="FF96" s="59"/>
+      <c r="FG96" s="59"/>
+      <c r="FH96" s="59"/>
+      <c r="FI96" s="59"/>
+      <c r="FJ96" s="59"/>
+      <c r="FK96" s="59"/>
+      <c r="FL96" s="59"/>
+      <c r="FM96" s="59"/>
+      <c r="FN96" s="59"/>
+      <c r="FO96" s="59"/>
+      <c r="FP96" s="59"/>
+      <c r="FQ96" s="59"/>
+      <c r="FR96" s="59"/>
+      <c r="FS96" s="59"/>
+      <c r="FT96" s="59"/>
+      <c r="FU96" s="59"/>
+      <c r="FV96" s="59"/>
+      <c r="FW96" s="59"/>
+      <c r="FX96" s="59"/>
+      <c r="FY96" s="59"/>
+      <c r="FZ96" s="59"/>
+      <c r="GA96" s="59"/>
+      <c r="GB96" s="59"/>
+      <c r="GC96" s="59"/>
+      <c r="GD96" s="59"/>
+      <c r="GE96" s="59"/>
+      <c r="GF96" s="59"/>
+      <c r="GG96" s="59"/>
+      <c r="GH96" s="59"/>
+      <c r="GI96" s="59"/>
+      <c r="GJ96" s="59"/>
+      <c r="GK96" s="59"/>
+      <c r="GL96" s="59"/>
+      <c r="GM96" s="59"/>
+      <c r="GN96" s="59"/>
+      <c r="GO96" s="59"/>
+      <c r="GP96" s="59"/>
+      <c r="GQ96" s="59"/>
+      <c r="GR96" s="59"/>
+      <c r="GS96" s="59"/>
+      <c r="GT96" s="59"/>
+      <c r="GU96" s="59"/>
+      <c r="GV96" s="59"/>
+      <c r="GW96" s="59"/>
+      <c r="GX96" s="59"/>
+      <c r="GY96" s="59"/>
+      <c r="GZ96" s="59"/>
+      <c r="HA96" s="59"/>
+      <c r="HB96" s="59"/>
+      <c r="HC96" s="59"/>
+      <c r="HD96" s="59"/>
+      <c r="HE96" s="59"/>
+      <c r="HF96" s="59"/>
+      <c r="HG96" s="59"/>
+      <c r="HH96" s="59"/>
+      <c r="HI96" s="59"/>
+      <c r="HJ96" s="59"/>
+      <c r="HK96" s="59"/>
+      <c r="HL96" s="59"/>
+      <c r="HM96" s="59"/>
+      <c r="HN96" s="59"/>
+      <c r="HO96" s="59"/>
+      <c r="HP96" s="59"/>
+      <c r="HQ96" s="59"/>
+      <c r="HR96" s="59"/>
+      <c r="HS96" s="59"/>
+      <c r="HT96" s="59"/>
+      <c r="HU96" s="59"/>
+      <c r="HV96" s="59"/>
+      <c r="HW96" s="59"/>
+      <c r="HX96" s="59"/>
+      <c r="HY96" s="59"/>
+      <c r="HZ96" s="59"/>
+      <c r="IA96" s="59"/>
+      <c r="IB96" s="59"/>
+      <c r="IC96" s="59"/>
+      <c r="ID96" s="59"/>
+      <c r="IE96" s="59"/>
+      <c r="IF96" s="59"/>
+      <c r="IG96" s="59"/>
+      <c r="IH96" s="59"/>
+      <c r="II96" s="59"/>
+      <c r="IJ96" s="59"/>
+      <c r="IK96" s="59"/>
+      <c r="IL96" s="59"/>
+      <c r="IM96" s="59"/>
+      <c r="IN96" s="59"/>
+      <c r="IO96" s="59"/>
+      <c r="IP96" s="59"/>
+      <c r="IQ96" s="59"/>
+      <c r="IR96" s="59"/>
+      <c r="IS96" s="59"/>
+      <c r="IT96" s="59"/>
+      <c r="IU96" s="59"/>
+      <c r="IV96" s="59"/>
+      <c r="IW96" s="59"/>
+      <c r="IX96" s="59"/>
+      <c r="IY96" s="59"/>
+      <c r="IZ96" s="59"/>
+      <c r="JA96" s="59"/>
+      <c r="JB96" s="59"/>
+      <c r="JC96" s="59"/>
+      <c r="JD96" s="59"/>
+      <c r="JE96" s="59"/>
+      <c r="JF96" s="59"/>
+      <c r="JG96" s="59"/>
+      <c r="JH96" s="59"/>
+      <c r="JI96" s="59"/>
+      <c r="JJ96" s="59"/>
+      <c r="JK96" s="59"/>
+      <c r="JL96" s="59"/>
+      <c r="JM96" s="59"/>
+      <c r="JN96" s="59"/>
+      <c r="JO96" s="59"/>
+      <c r="JP96" s="59"/>
+      <c r="JQ96" s="59"/>
+      <c r="JR96" s="59"/>
+      <c r="JS96" s="59"/>
+      <c r="JT96" s="59"/>
+      <c r="JU96" s="59"/>
+      <c r="JV96" s="59"/>
+      <c r="JW96" s="59"/>
+      <c r="JX96" s="59"/>
+      <c r="JY96" s="59"/>
+      <c r="JZ96" s="59"/>
+      <c r="KA96" s="59"/>
+      <c r="KB96" s="59"/>
+      <c r="KC96" s="59"/>
+      <c r="KD96" s="59"/>
+      <c r="KE96" s="59"/>
+      <c r="KF96" s="59"/>
+      <c r="KG96" s="59"/>
+      <c r="KH96" s="59"/>
+      <c r="KI96" s="59"/>
+      <c r="KJ96" s="59"/>
+      <c r="KK96" s="59"/>
+      <c r="KL96" s="59"/>
+      <c r="KM96" s="59"/>
+      <c r="KN96" s="59"/>
+      <c r="KO96" s="59"/>
+      <c r="KP96" s="59"/>
+      <c r="KQ96" s="59"/>
+      <c r="KR96" s="59"/>
+      <c r="KS96" s="59"/>
+      <c r="KT96" s="59"/>
+      <c r="KU96" s="59"/>
+      <c r="KV96" s="59"/>
+      <c r="KW96" s="59"/>
+      <c r="KX96" s="59"/>
+      <c r="KY96" s="59"/>
+      <c r="KZ96" s="59"/>
+      <c r="LA96" s="59"/>
+      <c r="LB96" s="59"/>
+      <c r="LC96" s="59"/>
+      <c r="LD96" s="59"/>
+      <c r="LE96" s="59"/>
+      <c r="LF96" s="59"/>
+      <c r="LG96" s="59"/>
+      <c r="LH96" s="59"/>
+      <c r="LI96" s="59"/>
+      <c r="LJ96" s="59"/>
+      <c r="LK96" s="59"/>
+      <c r="LL96" s="59"/>
+      <c r="LM96" s="59"/>
+      <c r="LN96" s="59"/>
+      <c r="LO96" s="59"/>
+      <c r="LP96" s="59"/>
+      <c r="LQ96" s="59"/>
+      <c r="LR96" s="59"/>
+      <c r="LS96" s="59"/>
+      <c r="LT96" s="59"/>
+      <c r="LU96" s="59"/>
+      <c r="LV96" s="59"/>
+      <c r="LW96" s="59"/>
+      <c r="LX96" s="59"/>
+      <c r="LY96" s="59"/>
+      <c r="LZ96" s="59"/>
+      <c r="MA96" s="59"/>
+      <c r="MB96" s="59"/>
+      <c r="MC96" s="59"/>
+      <c r="MD96" s="59"/>
+      <c r="ME96" s="59"/>
+      <c r="MF96" s="59"/>
+      <c r="MG96" s="59"/>
+      <c r="MH96" s="59"/>
+      <c r="MI96" s="59"/>
+      <c r="MJ96" s="59"/>
+      <c r="MK96" s="59"/>
+      <c r="ML96" s="59"/>
+      <c r="MM96" s="59"/>
+      <c r="MN96" s="59"/>
+      <c r="MO96" s="59"/>
+      <c r="MP96" s="59"/>
+      <c r="MQ96" s="59"/>
+      <c r="MR96" s="59"/>
+      <c r="MS96" s="59"/>
+      <c r="MT96" s="59"/>
+      <c r="MU96" s="59"/>
+      <c r="MV96" s="59"/>
+      <c r="MW96" s="59"/>
+      <c r="MX96" s="59"/>
+      <c r="MY96" s="59"/>
+      <c r="MZ96" s="59"/>
+      <c r="NA96" s="59"/>
+      <c r="NB96" s="59"/>
+      <c r="NC96" s="59"/>
+      <c r="ND96" s="59"/>
+      <c r="NE96" s="59"/>
+      <c r="NF96" s="59"/>
+      <c r="NG96" s="59"/>
+      <c r="NH96" s="59"/>
+      <c r="NI96" s="59"/>
+      <c r="NJ96" s="59"/>
+      <c r="NK96" s="59"/>
+      <c r="NL96" s="59"/>
+      <c r="NM96" s="59"/>
+      <c r="NN96" s="59"/>
+      <c r="NO96" s="59"/>
+      <c r="NP96" s="59"/>
+      <c r="NQ96" s="59"/>
+      <c r="NR96" s="59"/>
+      <c r="NS96" s="59"/>
+      <c r="NT96" s="59"/>
+      <c r="NU96" s="59"/>
+      <c r="NV96" s="59"/>
+      <c r="NW96" s="59"/>
+      <c r="NX96" s="59"/>
+      <c r="NY96" s="59"/>
+      <c r="NZ96" s="59"/>
+      <c r="OA96" s="59"/>
+      <c r="OB96" s="59"/>
+      <c r="OC96" s="59"/>
+      <c r="OD96" s="59"/>
+      <c r="OE96" s="59"/>
+      <c r="OF96" s="59"/>
+      <c r="OG96" s="59"/>
+      <c r="OH96" s="59"/>
+      <c r="OI96" s="59"/>
+      <c r="OJ96" s="59"/>
+      <c r="OK96" s="59"/>
+      <c r="OL96" s="59"/>
+      <c r="OM96" s="59"/>
+      <c r="ON96" s="59"/>
+      <c r="OO96" s="59"/>
+      <c r="OP96" s="59"/>
+      <c r="OQ96" s="59"/>
+      <c r="OR96" s="59"/>
+      <c r="OS96" s="59"/>
+      <c r="OT96" s="59"/>
+      <c r="OU96" s="59"/>
+      <c r="OV96" s="59"/>
+      <c r="OW96" s="59"/>
+      <c r="OX96" s="59"/>
+      <c r="OY96" s="59"/>
+      <c r="OZ96" s="59"/>
+      <c r="PA96" s="59"/>
+      <c r="PB96" s="71"/>
+    </row>
+    <row r="97" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B97" s="49">
+        <f t="shared" si="98"/>
+        <v>83</v>
+      </c>
+      <c r="C97" s="82"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="84"/>
+      <c r="F97" s="82"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="86"/>
+      <c r="I97" s="87"/>
+      <c r="J97" s="87"/>
+      <c r="K97" s="88"/>
+      <c r="L97" s="89"/>
+      <c r="M97" s="58"/>
+      <c r="N97" s="59"/>
+      <c r="O97" s="59"/>
+      <c r="P97" s="59"/>
+      <c r="Q97" s="59"/>
+      <c r="R97" s="59"/>
+      <c r="S97" s="59"/>
+      <c r="T97" s="59"/>
+      <c r="U97" s="59"/>
+      <c r="V97" s="59"/>
+      <c r="W97" s="59"/>
+      <c r="X97" s="59"/>
+      <c r="Y97" s="59"/>
+      <c r="Z97" s="59"/>
+      <c r="AA97" s="59"/>
+      <c r="AB97" s="59"/>
+      <c r="AC97" s="59"/>
+      <c r="AD97" s="59"/>
+      <c r="AE97" s="59"/>
+      <c r="AF97" s="59"/>
+      <c r="AG97" s="59"/>
+      <c r="AH97" s="59"/>
+      <c r="AI97" s="59"/>
+      <c r="AJ97" s="59"/>
+      <c r="AK97" s="59"/>
+      <c r="AL97" s="59"/>
+      <c r="AM97" s="59"/>
+      <c r="AN97" s="59"/>
+      <c r="AO97" s="59"/>
+      <c r="AP97" s="59"/>
+      <c r="AQ97" s="59"/>
+      <c r="AR97" s="59"/>
+      <c r="AS97" s="59"/>
+      <c r="AT97" s="59"/>
+      <c r="AU97" s="59"/>
+      <c r="AV97" s="59"/>
+      <c r="AW97" s="59"/>
+      <c r="AX97" s="59"/>
+      <c r="AY97" s="59"/>
+      <c r="AZ97" s="59"/>
+      <c r="BA97" s="59"/>
+      <c r="BB97" s="59"/>
+      <c r="BC97" s="59"/>
+      <c r="BD97" s="59"/>
+      <c r="BE97" s="59"/>
+      <c r="BF97" s="59"/>
+      <c r="BG97" s="59"/>
+      <c r="BH97" s="59"/>
+      <c r="BI97" s="59"/>
+      <c r="BJ97" s="59"/>
+      <c r="BK97" s="59"/>
+      <c r="BL97" s="59"/>
+      <c r="BM97" s="59"/>
+      <c r="BN97" s="59"/>
+      <c r="BO97" s="59"/>
+      <c r="BP97" s="59"/>
+      <c r="BQ97" s="59"/>
+      <c r="BR97" s="59"/>
+      <c r="BS97" s="59"/>
+      <c r="BT97" s="59"/>
+      <c r="BU97" s="59"/>
+      <c r="BV97" s="59"/>
+      <c r="BW97" s="59"/>
+      <c r="BX97" s="59"/>
+      <c r="BY97" s="59"/>
+      <c r="BZ97" s="59"/>
+      <c r="CA97" s="59"/>
+      <c r="CB97" s="59"/>
+      <c r="CC97" s="59"/>
+      <c r="CD97" s="59"/>
+      <c r="CE97" s="59"/>
+      <c r="CF97" s="59"/>
+      <c r="CG97" s="59"/>
+      <c r="CH97" s="59"/>
+      <c r="CI97" s="59"/>
+      <c r="CJ97" s="59"/>
+      <c r="CK97" s="59"/>
+      <c r="CL97" s="59"/>
+      <c r="CM97" s="59"/>
+      <c r="CN97" s="59"/>
+      <c r="CO97" s="59"/>
+      <c r="CP97" s="59"/>
+      <c r="CQ97" s="59"/>
+      <c r="CR97" s="59"/>
+      <c r="CS97" s="59"/>
+      <c r="CT97" s="59"/>
+      <c r="CU97" s="59"/>
+      <c r="CV97" s="59"/>
+      <c r="CW97" s="59"/>
+      <c r="CX97" s="59"/>
+      <c r="CY97" s="59"/>
+      <c r="CZ97" s="59"/>
+      <c r="DA97" s="59"/>
+      <c r="DB97" s="59"/>
+      <c r="DC97" s="59"/>
+      <c r="DD97" s="59"/>
+      <c r="DE97" s="59"/>
+      <c r="DF97" s="59"/>
+      <c r="DG97" s="59"/>
+      <c r="DH97" s="59"/>
+      <c r="DI97" s="59"/>
+      <c r="DJ97" s="59"/>
+      <c r="DK97" s="59"/>
+      <c r="DL97" s="59"/>
+      <c r="DM97" s="59"/>
+      <c r="DN97" s="59"/>
+      <c r="DO97" s="59"/>
+      <c r="DP97" s="59"/>
+      <c r="DQ97" s="59"/>
+      <c r="DR97" s="59"/>
+      <c r="DS97" s="59"/>
+      <c r="DT97" s="59"/>
+      <c r="DU97" s="59"/>
+      <c r="DV97" s="59"/>
+      <c r="DW97" s="59"/>
+      <c r="DX97" s="59"/>
+      <c r="DY97" s="59"/>
+      <c r="DZ97" s="59"/>
+      <c r="EA97" s="59"/>
+      <c r="EB97" s="59"/>
+      <c r="EC97" s="59"/>
+      <c r="ED97" s="59"/>
+      <c r="EE97" s="59"/>
+      <c r="EF97" s="59"/>
+      <c r="EG97" s="59"/>
+      <c r="EH97" s="59"/>
+      <c r="EI97" s="59"/>
+      <c r="EJ97" s="59"/>
+      <c r="EK97" s="59"/>
+      <c r="EL97" s="59"/>
+      <c r="EM97" s="59"/>
+      <c r="EN97" s="59"/>
+      <c r="EO97" s="59"/>
+      <c r="EP97" s="59"/>
+      <c r="EQ97" s="59"/>
+      <c r="ER97" s="59"/>
+      <c r="ES97" s="59"/>
+      <c r="ET97" s="59"/>
+      <c r="EU97" s="59"/>
+      <c r="EV97" s="59"/>
+      <c r="EW97" s="59"/>
+      <c r="EX97" s="59"/>
+      <c r="EY97" s="59"/>
+      <c r="EZ97" s="59"/>
+      <c r="FA97" s="59"/>
+      <c r="FB97" s="59"/>
+      <c r="FC97" s="59"/>
+      <c r="FD97" s="59"/>
+      <c r="FE97" s="59"/>
+      <c r="FF97" s="59"/>
+      <c r="FG97" s="59"/>
+      <c r="FH97" s="59"/>
+      <c r="FI97" s="59"/>
+      <c r="FJ97" s="59"/>
+      <c r="FK97" s="59"/>
+      <c r="FL97" s="59"/>
+      <c r="FM97" s="59"/>
+      <c r="FN97" s="59"/>
+      <c r="FO97" s="59"/>
+      <c r="FP97" s="59"/>
+      <c r="FQ97" s="59"/>
+      <c r="FR97" s="59"/>
+      <c r="FS97" s="59"/>
+      <c r="FT97" s="59"/>
+      <c r="FU97" s="59"/>
+      <c r="FV97" s="59"/>
+      <c r="FW97" s="59"/>
+      <c r="FX97" s="59"/>
+      <c r="FY97" s="59"/>
+      <c r="FZ97" s="59"/>
+      <c r="GA97" s="59"/>
+      <c r="GB97" s="59"/>
+      <c r="GC97" s="59"/>
+      <c r="GD97" s="59"/>
+      <c r="GE97" s="59"/>
+      <c r="GF97" s="59"/>
+      <c r="GG97" s="59"/>
+      <c r="GH97" s="59"/>
+      <c r="GI97" s="59"/>
+      <c r="GJ97" s="59"/>
+      <c r="GK97" s="59"/>
+      <c r="GL97" s="59"/>
+      <c r="GM97" s="59"/>
+      <c r="GN97" s="59"/>
+      <c r="GO97" s="59"/>
+      <c r="GP97" s="59"/>
+      <c r="GQ97" s="59"/>
+      <c r="GR97" s="59"/>
+      <c r="GS97" s="59"/>
+      <c r="GT97" s="59"/>
+      <c r="GU97" s="59"/>
+      <c r="GV97" s="59"/>
+      <c r="GW97" s="59"/>
+      <c r="GX97" s="59"/>
+      <c r="GY97" s="59"/>
+      <c r="GZ97" s="59"/>
+      <c r="HA97" s="59"/>
+      <c r="HB97" s="59"/>
+      <c r="HC97" s="59"/>
+      <c r="HD97" s="59"/>
+      <c r="HE97" s="59"/>
+      <c r="HF97" s="59"/>
+      <c r="HG97" s="59"/>
+      <c r="HH97" s="59"/>
+      <c r="HI97" s="59"/>
+      <c r="HJ97" s="59"/>
+      <c r="HK97" s="59"/>
+      <c r="HL97" s="59"/>
+      <c r="HM97" s="59"/>
+      <c r="HN97" s="59"/>
+      <c r="HO97" s="59"/>
+      <c r="HP97" s="59"/>
+      <c r="HQ97" s="59"/>
+      <c r="HR97" s="59"/>
+      <c r="HS97" s="59"/>
+      <c r="HT97" s="59"/>
+      <c r="HU97" s="59"/>
+      <c r="HV97" s="59"/>
+      <c r="HW97" s="59"/>
+      <c r="HX97" s="59"/>
+      <c r="HY97" s="59"/>
+      <c r="HZ97" s="59"/>
+      <c r="IA97" s="59"/>
+      <c r="IB97" s="59"/>
+      <c r="IC97" s="59"/>
+      <c r="ID97" s="59"/>
+      <c r="IE97" s="59"/>
+      <c r="IF97" s="59"/>
+      <c r="IG97" s="59"/>
+      <c r="IH97" s="59"/>
+      <c r="II97" s="59"/>
+      <c r="IJ97" s="59"/>
+      <c r="IK97" s="59"/>
+      <c r="IL97" s="59"/>
+      <c r="IM97" s="59"/>
+      <c r="IN97" s="59"/>
+      <c r="IO97" s="59"/>
+      <c r="IP97" s="59"/>
+      <c r="IQ97" s="59"/>
+      <c r="IR97" s="59"/>
+      <c r="IS97" s="59"/>
+      <c r="IT97" s="59"/>
+      <c r="IU97" s="59"/>
+      <c r="IV97" s="59"/>
+      <c r="IW97" s="59"/>
+      <c r="IX97" s="59"/>
+      <c r="IY97" s="59"/>
+      <c r="IZ97" s="59"/>
+      <c r="JA97" s="59"/>
+      <c r="JB97" s="59"/>
+      <c r="JC97" s="59"/>
+      <c r="JD97" s="59"/>
+      <c r="JE97" s="59"/>
+      <c r="JF97" s="59"/>
+      <c r="JG97" s="59"/>
+      <c r="JH97" s="59"/>
+      <c r="JI97" s="59"/>
+      <c r="JJ97" s="59"/>
+      <c r="JK97" s="59"/>
+      <c r="JL97" s="59"/>
+      <c r="JM97" s="59"/>
+      <c r="JN97" s="59"/>
+      <c r="JO97" s="59"/>
+      <c r="JP97" s="59"/>
+      <c r="JQ97" s="59"/>
+      <c r="JR97" s="59"/>
+      <c r="JS97" s="59"/>
+      <c r="JT97" s="59"/>
+      <c r="JU97" s="59"/>
+      <c r="JV97" s="59"/>
+      <c r="JW97" s="59"/>
+      <c r="JX97" s="59"/>
+      <c r="JY97" s="59"/>
+      <c r="JZ97" s="59"/>
+      <c r="KA97" s="59"/>
+      <c r="KB97" s="59"/>
+      <c r="KC97" s="59"/>
+      <c r="KD97" s="59"/>
+      <c r="KE97" s="59"/>
+      <c r="KF97" s="59"/>
+      <c r="KG97" s="59"/>
+      <c r="KH97" s="59"/>
+      <c r="KI97" s="59"/>
+      <c r="KJ97" s="59"/>
+      <c r="KK97" s="59"/>
+      <c r="KL97" s="59"/>
+      <c r="KM97" s="59"/>
+      <c r="KN97" s="59"/>
+      <c r="KO97" s="59"/>
+      <c r="KP97" s="59"/>
+      <c r="KQ97" s="59"/>
+      <c r="KR97" s="59"/>
+      <c r="KS97" s="59"/>
+      <c r="KT97" s="59"/>
+      <c r="KU97" s="59"/>
+      <c r="KV97" s="59"/>
+      <c r="KW97" s="59"/>
+      <c r="KX97" s="59"/>
+      <c r="KY97" s="59"/>
+      <c r="KZ97" s="59"/>
+      <c r="LA97" s="59"/>
+      <c r="LB97" s="59"/>
+      <c r="LC97" s="59"/>
+      <c r="LD97" s="59"/>
+      <c r="LE97" s="59"/>
+      <c r="LF97" s="59"/>
+      <c r="LG97" s="59"/>
+      <c r="LH97" s="59"/>
+      <c r="LI97" s="59"/>
+      <c r="LJ97" s="59"/>
+      <c r="LK97" s="59"/>
+      <c r="LL97" s="59"/>
+      <c r="LM97" s="59"/>
+      <c r="LN97" s="59"/>
+      <c r="LO97" s="59"/>
+      <c r="LP97" s="59"/>
+      <c r="LQ97" s="59"/>
+      <c r="LR97" s="59"/>
+      <c r="LS97" s="59"/>
+      <c r="LT97" s="59"/>
+      <c r="LU97" s="59"/>
+      <c r="LV97" s="59"/>
+      <c r="LW97" s="59"/>
+      <c r="LX97" s="59"/>
+      <c r="LY97" s="59"/>
+      <c r="LZ97" s="59"/>
+      <c r="MA97" s="59"/>
+      <c r="MB97" s="59"/>
+      <c r="MC97" s="59"/>
+      <c r="MD97" s="59"/>
+      <c r="ME97" s="59"/>
+      <c r="MF97" s="59"/>
+      <c r="MG97" s="59"/>
+      <c r="MH97" s="59"/>
+      <c r="MI97" s="59"/>
+      <c r="MJ97" s="59"/>
+      <c r="MK97" s="59"/>
+      <c r="ML97" s="59"/>
+      <c r="MM97" s="59"/>
+      <c r="MN97" s="59"/>
+      <c r="MO97" s="59"/>
+      <c r="MP97" s="59"/>
+      <c r="MQ97" s="59"/>
+      <c r="MR97" s="59"/>
+      <c r="MS97" s="59"/>
+      <c r="MT97" s="59"/>
+      <c r="MU97" s="59"/>
+      <c r="MV97" s="59"/>
+      <c r="MW97" s="59"/>
+      <c r="MX97" s="59"/>
+      <c r="MY97" s="59"/>
+      <c r="MZ97" s="59"/>
+      <c r="NA97" s="59"/>
+      <c r="NB97" s="59"/>
+      <c r="NC97" s="59"/>
+      <c r="ND97" s="59"/>
+      <c r="NE97" s="59"/>
+      <c r="NF97" s="59"/>
+      <c r="NG97" s="59"/>
+      <c r="NH97" s="59"/>
+      <c r="NI97" s="59"/>
+      <c r="NJ97" s="59"/>
+      <c r="NK97" s="59"/>
+      <c r="NL97" s="59"/>
+      <c r="NM97" s="59"/>
+      <c r="NN97" s="59"/>
+      <c r="NO97" s="59"/>
+      <c r="NP97" s="59"/>
+      <c r="NQ97" s="59"/>
+      <c r="NR97" s="59"/>
+      <c r="NS97" s="59"/>
+      <c r="NT97" s="59"/>
+      <c r="NU97" s="59"/>
+      <c r="NV97" s="59"/>
+      <c r="NW97" s="59"/>
+      <c r="NX97" s="59"/>
+      <c r="NY97" s="59"/>
+      <c r="NZ97" s="59"/>
+      <c r="OA97" s="59"/>
+      <c r="OB97" s="59"/>
+      <c r="OC97" s="59"/>
+      <c r="OD97" s="59"/>
+      <c r="OE97" s="59"/>
+      <c r="OF97" s="59"/>
+      <c r="OG97" s="59"/>
+      <c r="OH97" s="59"/>
+      <c r="OI97" s="59"/>
+      <c r="OJ97" s="59"/>
+      <c r="OK97" s="59"/>
+      <c r="OL97" s="59"/>
+      <c r="OM97" s="59"/>
+      <c r="ON97" s="59"/>
+      <c r="OO97" s="59"/>
+      <c r="OP97" s="59"/>
+      <c r="OQ97" s="59"/>
+      <c r="OR97" s="59"/>
+      <c r="OS97" s="59"/>
+      <c r="OT97" s="59"/>
+      <c r="OU97" s="59"/>
+      <c r="OV97" s="59"/>
+      <c r="OW97" s="59"/>
+      <c r="OX97" s="59"/>
+      <c r="OY97" s="59"/>
+      <c r="OZ97" s="59"/>
+      <c r="PA97" s="59"/>
+      <c r="PB97" s="71"/>
+    </row>
+    <row r="98" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B98" s="49">
+        <f t="shared" si="98"/>
+        <v>84</v>
+      </c>
+      <c r="C98" s="82"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="84"/>
+      <c r="F98" s="82"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="86"/>
+      <c r="I98" s="87"/>
+      <c r="J98" s="87"/>
+      <c r="K98" s="88"/>
+      <c r="L98" s="89"/>
+      <c r="M98" s="58"/>
+      <c r="N98" s="59"/>
+      <c r="O98" s="59"/>
+      <c r="P98" s="59"/>
+      <c r="Q98" s="59"/>
+      <c r="R98" s="59"/>
+      <c r="S98" s="59"/>
+      <c r="T98" s="59"/>
+      <c r="U98" s="59"/>
+      <c r="V98" s="59"/>
+      <c r="W98" s="59"/>
+      <c r="X98" s="59"/>
+      <c r="Y98" s="59"/>
+      <c r="Z98" s="59"/>
+      <c r="AA98" s="59"/>
+      <c r="AB98" s="59"/>
+      <c r="AC98" s="59"/>
+      <c r="AD98" s="59"/>
+      <c r="AE98" s="59"/>
+      <c r="AF98" s="59"/>
+      <c r="AG98" s="59"/>
+      <c r="AH98" s="59"/>
+      <c r="AI98" s="59"/>
+      <c r="AJ98" s="59"/>
+      <c r="AK98" s="59"/>
+      <c r="AL98" s="59"/>
+      <c r="AM98" s="59"/>
+      <c r="AN98" s="59"/>
+      <c r="AO98" s="59"/>
+      <c r="AP98" s="59"/>
+      <c r="AQ98" s="59"/>
+      <c r="AR98" s="59"/>
+      <c r="AS98" s="59"/>
+      <c r="AT98" s="59"/>
+      <c r="AU98" s="59"/>
+      <c r="AV98" s="59"/>
+      <c r="AW98" s="59"/>
+      <c r="AX98" s="59"/>
+      <c r="AY98" s="59"/>
+      <c r="AZ98" s="59"/>
+      <c r="BA98" s="59"/>
+      <c r="BB98" s="59"/>
+      <c r="BC98" s="59"/>
+      <c r="BD98" s="59"/>
+      <c r="BE98" s="59"/>
+      <c r="BF98" s="59"/>
+      <c r="BG98" s="59"/>
+      <c r="BH98" s="59"/>
+      <c r="BI98" s="59"/>
+      <c r="BJ98" s="59"/>
+      <c r="BK98" s="59"/>
+      <c r="BL98" s="59"/>
+      <c r="BM98" s="59"/>
+      <c r="BN98" s="59"/>
+      <c r="BO98" s="59"/>
+      <c r="BP98" s="59"/>
+      <c r="BQ98" s="59"/>
+      <c r="BR98" s="59"/>
+      <c r="BS98" s="59"/>
+      <c r="BT98" s="59"/>
+      <c r="BU98" s="59"/>
+      <c r="BV98" s="59"/>
+      <c r="BW98" s="59"/>
+      <c r="BX98" s="59"/>
+      <c r="BY98" s="59"/>
+      <c r="BZ98" s="59"/>
+      <c r="CA98" s="59"/>
+      <c r="CB98" s="59"/>
+      <c r="CC98" s="59"/>
+      <c r="CD98" s="59"/>
+      <c r="CE98" s="59"/>
+      <c r="CF98" s="59"/>
+      <c r="CG98" s="59"/>
+      <c r="CH98" s="59"/>
+      <c r="CI98" s="59"/>
+      <c r="CJ98" s="59"/>
+      <c r="CK98" s="59"/>
+      <c r="CL98" s="59"/>
+      <c r="CM98" s="59"/>
+      <c r="CN98" s="59"/>
+      <c r="CO98" s="59"/>
+      <c r="CP98" s="59"/>
+      <c r="CQ98" s="59"/>
+      <c r="CR98" s="59"/>
+      <c r="CS98" s="59"/>
+      <c r="CT98" s="59"/>
+      <c r="CU98" s="59"/>
+      <c r="CV98" s="59"/>
+      <c r="CW98" s="59"/>
+      <c r="CX98" s="59"/>
+      <c r="CY98" s="59"/>
+      <c r="CZ98" s="59"/>
+      <c r="DA98" s="59"/>
+      <c r="DB98" s="59"/>
+      <c r="DC98" s="59"/>
+      <c r="DD98" s="59"/>
+      <c r="DE98" s="59"/>
+      <c r="DF98" s="59"/>
+      <c r="DG98" s="59"/>
+      <c r="DH98" s="59"/>
+      <c r="DI98" s="59"/>
+      <c r="DJ98" s="59"/>
+      <c r="DK98" s="59"/>
+      <c r="DL98" s="59"/>
+      <c r="DM98" s="59"/>
+      <c r="DN98" s="59"/>
+      <c r="DO98" s="59"/>
+      <c r="DP98" s="59"/>
+      <c r="DQ98" s="59"/>
+      <c r="DR98" s="59"/>
+      <c r="DS98" s="59"/>
+      <c r="DT98" s="59"/>
+      <c r="DU98" s="59"/>
+      <c r="DV98" s="59"/>
+      <c r="DW98" s="59"/>
+      <c r="DX98" s="59"/>
+      <c r="DY98" s="59"/>
+      <c r="DZ98" s="59"/>
+      <c r="EA98" s="59"/>
+      <c r="EB98" s="59"/>
+      <c r="EC98" s="59"/>
+      <c r="ED98" s="59"/>
+      <c r="EE98" s="59"/>
+      <c r="EF98" s="59"/>
+      <c r="EG98" s="59"/>
+      <c r="EH98" s="59"/>
+      <c r="EI98" s="59"/>
+      <c r="EJ98" s="59"/>
+      <c r="EK98" s="59"/>
+      <c r="EL98" s="59"/>
+      <c r="EM98" s="59"/>
+      <c r="EN98" s="59"/>
+      <c r="EO98" s="59"/>
+      <c r="EP98" s="59"/>
+      <c r="EQ98" s="59"/>
+      <c r="ER98" s="59"/>
+      <c r="ES98" s="59"/>
+      <c r="ET98" s="59"/>
+      <c r="EU98" s="59"/>
+      <c r="EV98" s="59"/>
+      <c r="EW98" s="59"/>
+      <c r="EX98" s="59"/>
+      <c r="EY98" s="59"/>
+      <c r="EZ98" s="59"/>
+      <c r="FA98" s="59"/>
+      <c r="FB98" s="59"/>
+      <c r="FC98" s="59"/>
+      <c r="FD98" s="59"/>
+      <c r="FE98" s="59"/>
+      <c r="FF98" s="59"/>
+      <c r="FG98" s="59"/>
+      <c r="FH98" s="59"/>
+      <c r="FI98" s="59"/>
+      <c r="FJ98" s="59"/>
+      <c r="FK98" s="59"/>
+      <c r="FL98" s="59"/>
+      <c r="FM98" s="59"/>
+      <c r="FN98" s="59"/>
+      <c r="FO98" s="59"/>
+      <c r="FP98" s="59"/>
+      <c r="FQ98" s="59"/>
+      <c r="FR98" s="59"/>
+      <c r="FS98" s="59"/>
+      <c r="FT98" s="59"/>
+      <c r="FU98" s="59"/>
+      <c r="FV98" s="59"/>
+      <c r="FW98" s="59"/>
+      <c r="FX98" s="59"/>
+      <c r="FY98" s="59"/>
+      <c r="FZ98" s="59"/>
+      <c r="GA98" s="59"/>
+      <c r="GB98" s="59"/>
+      <c r="GC98" s="59"/>
+      <c r="GD98" s="59"/>
+      <c r="GE98" s="59"/>
+      <c r="GF98" s="59"/>
+      <c r="GG98" s="59"/>
+      <c r="GH98" s="59"/>
+      <c r="GI98" s="59"/>
+      <c r="GJ98" s="59"/>
+      <c r="GK98" s="59"/>
+      <c r="GL98" s="59"/>
+      <c r="GM98" s="59"/>
+      <c r="GN98" s="59"/>
+      <c r="GO98" s="59"/>
+      <c r="GP98" s="59"/>
+      <c r="GQ98" s="59"/>
+      <c r="GR98" s="59"/>
+      <c r="GS98" s="59"/>
+      <c r="GT98" s="59"/>
+      <c r="GU98" s="59"/>
+      <c r="GV98" s="59"/>
+      <c r="GW98" s="59"/>
+      <c r="GX98" s="59"/>
+      <c r="GY98" s="59"/>
+      <c r="GZ98" s="59"/>
+      <c r="HA98" s="59"/>
+      <c r="HB98" s="59"/>
+      <c r="HC98" s="59"/>
+      <c r="HD98" s="59"/>
+      <c r="HE98" s="59"/>
+      <c r="HF98" s="59"/>
+      <c r="HG98" s="59"/>
+      <c r="HH98" s="59"/>
+      <c r="HI98" s="59"/>
+      <c r="HJ98" s="59"/>
+      <c r="HK98" s="59"/>
+      <c r="HL98" s="59"/>
+      <c r="HM98" s="59"/>
+      <c r="HN98" s="59"/>
+      <c r="HO98" s="59"/>
+      <c r="HP98" s="59"/>
+      <c r="HQ98" s="59"/>
+      <c r="HR98" s="59"/>
+      <c r="HS98" s="59"/>
+      <c r="HT98" s="59"/>
+      <c r="HU98" s="59"/>
+      <c r="HV98" s="59"/>
+      <c r="HW98" s="59"/>
+      <c r="HX98" s="59"/>
+      <c r="HY98" s="59"/>
+      <c r="HZ98" s="59"/>
+      <c r="IA98" s="59"/>
+      <c r="IB98" s="59"/>
+      <c r="IC98" s="59"/>
+      <c r="ID98" s="59"/>
+      <c r="IE98" s="59"/>
+      <c r="IF98" s="59"/>
+      <c r="IG98" s="59"/>
+      <c r="IH98" s="59"/>
+      <c r="II98" s="59"/>
+      <c r="IJ98" s="59"/>
+      <c r="IK98" s="59"/>
+      <c r="IL98" s="59"/>
+      <c r="IM98" s="59"/>
+      <c r="IN98" s="59"/>
+      <c r="IO98" s="59"/>
+      <c r="IP98" s="59"/>
+      <c r="IQ98" s="59"/>
+      <c r="IR98" s="59"/>
+      <c r="IS98" s="59"/>
+      <c r="IT98" s="59"/>
+      <c r="IU98" s="59"/>
+      <c r="IV98" s="59"/>
+      <c r="IW98" s="59"/>
+      <c r="IX98" s="59"/>
+      <c r="IY98" s="59"/>
+      <c r="IZ98" s="59"/>
+      <c r="JA98" s="59"/>
+      <c r="JB98" s="59"/>
+      <c r="JC98" s="59"/>
+      <c r="JD98" s="59"/>
+      <c r="JE98" s="59"/>
+      <c r="JF98" s="59"/>
+      <c r="JG98" s="59"/>
+      <c r="JH98" s="59"/>
+      <c r="JI98" s="59"/>
+      <c r="JJ98" s="59"/>
+      <c r="JK98" s="59"/>
+      <c r="JL98" s="59"/>
+      <c r="JM98" s="59"/>
+      <c r="JN98" s="59"/>
+      <c r="JO98" s="59"/>
+      <c r="JP98" s="59"/>
+      <c r="JQ98" s="59"/>
+      <c r="JR98" s="59"/>
+      <c r="JS98" s="59"/>
+      <c r="JT98" s="59"/>
+      <c r="JU98" s="59"/>
+      <c r="JV98" s="59"/>
+      <c r="JW98" s="59"/>
+      <c r="JX98" s="59"/>
+      <c r="JY98" s="59"/>
+      <c r="JZ98" s="59"/>
+      <c r="KA98" s="59"/>
+      <c r="KB98" s="59"/>
+      <c r="KC98" s="59"/>
+      <c r="KD98" s="59"/>
+      <c r="KE98" s="59"/>
+      <c r="KF98" s="59"/>
+      <c r="KG98" s="59"/>
+      <c r="KH98" s="59"/>
+      <c r="KI98" s="59"/>
+      <c r="KJ98" s="59"/>
+      <c r="KK98" s="59"/>
+      <c r="KL98" s="59"/>
+      <c r="KM98" s="59"/>
+      <c r="KN98" s="59"/>
+      <c r="KO98" s="59"/>
+      <c r="KP98" s="59"/>
+      <c r="KQ98" s="59"/>
+      <c r="KR98" s="59"/>
+      <c r="KS98" s="59"/>
+      <c r="KT98" s="59"/>
+      <c r="KU98" s="59"/>
+      <c r="KV98" s="59"/>
+      <c r="KW98" s="59"/>
+      <c r="KX98" s="59"/>
+      <c r="KY98" s="59"/>
+      <c r="KZ98" s="59"/>
+      <c r="LA98" s="59"/>
+      <c r="LB98" s="59"/>
+      <c r="LC98" s="59"/>
+      <c r="LD98" s="59"/>
+      <c r="LE98" s="59"/>
+      <c r="LF98" s="59"/>
+      <c r="LG98" s="59"/>
+      <c r="LH98" s="59"/>
+      <c r="LI98" s="59"/>
+      <c r="LJ98" s="59"/>
+      <c r="LK98" s="59"/>
+      <c r="LL98" s="59"/>
+      <c r="LM98" s="59"/>
+      <c r="LN98" s="59"/>
+      <c r="LO98" s="59"/>
+      <c r="LP98" s="59"/>
+      <c r="LQ98" s="59"/>
+      <c r="LR98" s="59"/>
+      <c r="LS98" s="59"/>
+      <c r="LT98" s="59"/>
+      <c r="LU98" s="59"/>
+      <c r="LV98" s="59"/>
+      <c r="LW98" s="59"/>
+      <c r="LX98" s="59"/>
+      <c r="LY98" s="59"/>
+      <c r="LZ98" s="59"/>
+      <c r="MA98" s="59"/>
+      <c r="MB98" s="59"/>
+      <c r="MC98" s="59"/>
+      <c r="MD98" s="59"/>
+      <c r="ME98" s="59"/>
+      <c r="MF98" s="59"/>
+      <c r="MG98" s="59"/>
+      <c r="MH98" s="59"/>
+      <c r="MI98" s="59"/>
+      <c r="MJ98" s="59"/>
+      <c r="MK98" s="59"/>
+      <c r="ML98" s="59"/>
+      <c r="MM98" s="59"/>
+      <c r="MN98" s="59"/>
+      <c r="MO98" s="59"/>
+      <c r="MP98" s="59"/>
+      <c r="MQ98" s="59"/>
+      <c r="MR98" s="59"/>
+      <c r="MS98" s="59"/>
+      <c r="MT98" s="59"/>
+      <c r="MU98" s="59"/>
+      <c r="MV98" s="59"/>
+      <c r="MW98" s="59"/>
+      <c r="MX98" s="59"/>
+      <c r="MY98" s="59"/>
+      <c r="MZ98" s="59"/>
+      <c r="NA98" s="59"/>
+      <c r="NB98" s="59"/>
+      <c r="NC98" s="59"/>
+      <c r="ND98" s="59"/>
+      <c r="NE98" s="59"/>
+      <c r="NF98" s="59"/>
+      <c r="NG98" s="59"/>
+      <c r="NH98" s="59"/>
+      <c r="NI98" s="59"/>
+      <c r="NJ98" s="59"/>
+      <c r="NK98" s="59"/>
+      <c r="NL98" s="59"/>
+      <c r="NM98" s="59"/>
+      <c r="NN98" s="59"/>
+      <c r="NO98" s="59"/>
+      <c r="NP98" s="59"/>
+      <c r="NQ98" s="59"/>
+      <c r="NR98" s="59"/>
+      <c r="NS98" s="59"/>
+      <c r="NT98" s="59"/>
+      <c r="NU98" s="59"/>
+      <c r="NV98" s="59"/>
+      <c r="NW98" s="59"/>
+      <c r="NX98" s="59"/>
+      <c r="NY98" s="59"/>
+      <c r="NZ98" s="59"/>
+      <c r="OA98" s="59"/>
+      <c r="OB98" s="59"/>
+      <c r="OC98" s="59"/>
+      <c r="OD98" s="59"/>
+      <c r="OE98" s="59"/>
+      <c r="OF98" s="59"/>
+      <c r="OG98" s="59"/>
+      <c r="OH98" s="59"/>
+      <c r="OI98" s="59"/>
+      <c r="OJ98" s="59"/>
+      <c r="OK98" s="59"/>
+      <c r="OL98" s="59"/>
+      <c r="OM98" s="59"/>
+      <c r="ON98" s="59"/>
+      <c r="OO98" s="59"/>
+      <c r="OP98" s="59"/>
+      <c r="OQ98" s="59"/>
+      <c r="OR98" s="59"/>
+      <c r="OS98" s="59"/>
+      <c r="OT98" s="59"/>
+      <c r="OU98" s="59"/>
+      <c r="OV98" s="59"/>
+      <c r="OW98" s="59"/>
+      <c r="OX98" s="59"/>
+      <c r="OY98" s="59"/>
+      <c r="OZ98" s="59"/>
+      <c r="PA98" s="59"/>
+      <c r="PB98" s="71"/>
+    </row>
+    <row r="99" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B99" s="49">
+        <f t="shared" si="98"/>
+        <v>85</v>
+      </c>
+      <c r="C99" s="82"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="84"/>
+      <c r="F99" s="82"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="86"/>
+      <c r="I99" s="87"/>
+      <c r="J99" s="87"/>
+      <c r="K99" s="88"/>
+      <c r="L99" s="89"/>
+      <c r="M99" s="58"/>
+      <c r="N99" s="59"/>
+      <c r="O99" s="59"/>
+      <c r="P99" s="59"/>
+      <c r="Q99" s="59"/>
+      <c r="R99" s="59"/>
+      <c r="S99" s="59"/>
+      <c r="T99" s="59"/>
+      <c r="U99" s="59"/>
+      <c r="V99" s="59"/>
+      <c r="W99" s="59"/>
+      <c r="X99" s="59"/>
+      <c r="Y99" s="59"/>
+      <c r="Z99" s="59"/>
+      <c r="AA99" s="59"/>
+      <c r="AB99" s="59"/>
+      <c r="AC99" s="59"/>
+      <c r="AD99" s="59"/>
+      <c r="AE99" s="59"/>
+      <c r="AF99" s="59"/>
+      <c r="AG99" s="59"/>
+      <c r="AH99" s="59"/>
+      <c r="AI99" s="59"/>
+      <c r="AJ99" s="59"/>
+      <c r="AK99" s="59"/>
+      <c r="AL99" s="59"/>
+      <c r="AM99" s="59"/>
+      <c r="AN99" s="59"/>
+      <c r="AO99" s="59"/>
+      <c r="AP99" s="59"/>
+      <c r="AQ99" s="59"/>
+      <c r="AR99" s="59"/>
+      <c r="AS99" s="59"/>
+      <c r="AT99" s="59"/>
+      <c r="AU99" s="59"/>
+      <c r="AV99" s="59"/>
+      <c r="AW99" s="59"/>
+      <c r="AX99" s="59"/>
+      <c r="AY99" s="59"/>
+      <c r="AZ99" s="59"/>
+      <c r="BA99" s="59"/>
+      <c r="BB99" s="59"/>
+      <c r="BC99" s="59"/>
+      <c r="BD99" s="59"/>
+      <c r="BE99" s="59"/>
+      <c r="BF99" s="59"/>
+      <c r="BG99" s="59"/>
+      <c r="BH99" s="59"/>
+      <c r="BI99" s="59"/>
+      <c r="BJ99" s="59"/>
+      <c r="BK99" s="59"/>
+      <c r="BL99" s="59"/>
+      <c r="BM99" s="59"/>
+      <c r="BN99" s="59"/>
+      <c r="BO99" s="59"/>
+      <c r="BP99" s="59"/>
+      <c r="BQ99" s="59"/>
+      <c r="BR99" s="59"/>
+      <c r="BS99" s="59"/>
+      <c r="BT99" s="59"/>
+      <c r="BU99" s="59"/>
+      <c r="BV99" s="59"/>
+      <c r="BW99" s="59"/>
+      <c r="BX99" s="59"/>
+      <c r="BY99" s="59"/>
+      <c r="BZ99" s="59"/>
+      <c r="CA99" s="59"/>
+      <c r="CB99" s="59"/>
+      <c r="CC99" s="59"/>
+      <c r="CD99" s="59"/>
+      <c r="CE99" s="59"/>
+      <c r="CF99" s="59"/>
+      <c r="CG99" s="59"/>
+      <c r="CH99" s="59"/>
+      <c r="CI99" s="59"/>
+      <c r="CJ99" s="59"/>
+      <c r="CK99" s="59"/>
+      <c r="CL99" s="59"/>
+      <c r="CM99" s="59"/>
+      <c r="CN99" s="59"/>
+      <c r="CO99" s="59"/>
+      <c r="CP99" s="59"/>
+      <c r="CQ99" s="59"/>
+      <c r="CR99" s="59"/>
+      <c r="CS99" s="59"/>
+      <c r="CT99" s="59"/>
+      <c r="CU99" s="59"/>
+      <c r="CV99" s="59"/>
+      <c r="CW99" s="59"/>
+      <c r="CX99" s="59"/>
+      <c r="CY99" s="59"/>
+      <c r="CZ99" s="59"/>
+      <c r="DA99" s="59"/>
+      <c r="DB99" s="59"/>
+      <c r="DC99" s="59"/>
+      <c r="DD99" s="59"/>
+      <c r="DE99" s="59"/>
+      <c r="DF99" s="59"/>
+      <c r="DG99" s="59"/>
+      <c r="DH99" s="59"/>
+      <c r="DI99" s="59"/>
+      <c r="DJ99" s="59"/>
+      <c r="DK99" s="59"/>
+      <c r="DL99" s="59"/>
+      <c r="DM99" s="59"/>
+      <c r="DN99" s="59"/>
+      <c r="DO99" s="59"/>
+      <c r="DP99" s="59"/>
+      <c r="DQ99" s="59"/>
+      <c r="DR99" s="59"/>
+      <c r="DS99" s="59"/>
+      <c r="DT99" s="59"/>
+      <c r="DU99" s="59"/>
+      <c r="DV99" s="59"/>
+      <c r="DW99" s="59"/>
+      <c r="DX99" s="59"/>
+      <c r="DY99" s="59"/>
+      <c r="DZ99" s="59"/>
+      <c r="EA99" s="59"/>
+      <c r="EB99" s="59"/>
+      <c r="EC99" s="59"/>
+      <c r="ED99" s="59"/>
+      <c r="EE99" s="59"/>
+      <c r="EF99" s="59"/>
+      <c r="EG99" s="59"/>
+      <c r="EH99" s="59"/>
+      <c r="EI99" s="59"/>
+      <c r="EJ99" s="59"/>
+      <c r="EK99" s="59"/>
+      <c r="EL99" s="59"/>
+      <c r="EM99" s="59"/>
+      <c r="EN99" s="59"/>
+      <c r="EO99" s="59"/>
+      <c r="EP99" s="59"/>
+      <c r="EQ99" s="59"/>
+      <c r="ER99" s="59"/>
+      <c r="ES99" s="59"/>
+      <c r="ET99" s="59"/>
+      <c r="EU99" s="59"/>
+      <c r="EV99" s="59"/>
+      <c r="EW99" s="59"/>
+      <c r="EX99" s="59"/>
+      <c r="EY99" s="59"/>
+      <c r="EZ99" s="59"/>
+      <c r="FA99" s="59"/>
+      <c r="FB99" s="59"/>
+      <c r="FC99" s="59"/>
+      <c r="FD99" s="59"/>
+      <c r="FE99" s="59"/>
+      <c r="FF99" s="59"/>
+      <c r="FG99" s="59"/>
+      <c r="FH99" s="59"/>
+      <c r="FI99" s="59"/>
+      <c r="FJ99" s="59"/>
+      <c r="FK99" s="59"/>
+      <c r="FL99" s="59"/>
+      <c r="FM99" s="59"/>
+      <c r="FN99" s="59"/>
+      <c r="FO99" s="59"/>
+      <c r="FP99" s="59"/>
+      <c r="FQ99" s="59"/>
+      <c r="FR99" s="59"/>
+      <c r="FS99" s="59"/>
+      <c r="FT99" s="59"/>
+      <c r="FU99" s="59"/>
+      <c r="FV99" s="59"/>
+      <c r="FW99" s="59"/>
+      <c r="FX99" s="59"/>
+      <c r="FY99" s="59"/>
+      <c r="FZ99" s="59"/>
+      <c r="GA99" s="59"/>
+      <c r="GB99" s="59"/>
+      <c r="GC99" s="59"/>
+      <c r="GD99" s="59"/>
+      <c r="GE99" s="59"/>
+      <c r="GF99" s="59"/>
+      <c r="GG99" s="59"/>
+      <c r="GH99" s="59"/>
+      <c r="GI99" s="59"/>
+      <c r="GJ99" s="59"/>
+      <c r="GK99" s="59"/>
+      <c r="GL99" s="59"/>
+      <c r="GM99" s="59"/>
+      <c r="GN99" s="59"/>
+      <c r="GO99" s="59"/>
+      <c r="GP99" s="59"/>
+      <c r="GQ99" s="59"/>
+      <c r="GR99" s="59"/>
+      <c r="GS99" s="59"/>
+      <c r="GT99" s="59"/>
+      <c r="GU99" s="59"/>
+      <c r="GV99" s="59"/>
+      <c r="GW99" s="59"/>
+      <c r="GX99" s="59"/>
+      <c r="GY99" s="59"/>
+      <c r="GZ99" s="59"/>
+      <c r="HA99" s="59"/>
+      <c r="HB99" s="59"/>
+      <c r="HC99" s="59"/>
+      <c r="HD99" s="59"/>
+      <c r="HE99" s="59"/>
+      <c r="HF99" s="59"/>
+      <c r="HG99" s="59"/>
+      <c r="HH99" s="59"/>
+      <c r="HI99" s="59"/>
+      <c r="HJ99" s="59"/>
+      <c r="HK99" s="59"/>
+      <c r="HL99" s="59"/>
+      <c r="HM99" s="59"/>
+      <c r="HN99" s="59"/>
+      <c r="HO99" s="59"/>
+      <c r="HP99" s="59"/>
+      <c r="HQ99" s="59"/>
+      <c r="HR99" s="59"/>
+      <c r="HS99" s="59"/>
+      <c r="HT99" s="59"/>
+      <c r="HU99" s="59"/>
+      <c r="HV99" s="59"/>
+      <c r="HW99" s="59"/>
+      <c r="HX99" s="59"/>
+      <c r="HY99" s="59"/>
+      <c r="HZ99" s="59"/>
+      <c r="IA99" s="59"/>
+      <c r="IB99" s="59"/>
+      <c r="IC99" s="59"/>
+      <c r="ID99" s="59"/>
+      <c r="IE99" s="59"/>
+      <c r="IF99" s="59"/>
+      <c r="IG99" s="59"/>
+      <c r="IH99" s="59"/>
+      <c r="II99" s="59"/>
+      <c r="IJ99" s="59"/>
+      <c r="IK99" s="59"/>
+      <c r="IL99" s="59"/>
+      <c r="IM99" s="59"/>
+      <c r="IN99" s="59"/>
+      <c r="IO99" s="59"/>
+      <c r="IP99" s="59"/>
+      <c r="IQ99" s="59"/>
+      <c r="IR99" s="59"/>
+      <c r="IS99" s="59"/>
+      <c r="IT99" s="59"/>
+      <c r="IU99" s="59"/>
+      <c r="IV99" s="59"/>
+      <c r="IW99" s="59"/>
+      <c r="IX99" s="59"/>
+      <c r="IY99" s="59"/>
+      <c r="IZ99" s="59"/>
+      <c r="JA99" s="59"/>
+      <c r="JB99" s="59"/>
+      <c r="JC99" s="59"/>
+      <c r="JD99" s="59"/>
+      <c r="JE99" s="59"/>
+      <c r="JF99" s="59"/>
+      <c r="JG99" s="59"/>
+      <c r="JH99" s="59"/>
+      <c r="JI99" s="59"/>
+      <c r="JJ99" s="59"/>
+      <c r="JK99" s="59"/>
+      <c r="JL99" s="59"/>
+      <c r="JM99" s="59"/>
+      <c r="JN99" s="59"/>
+      <c r="JO99" s="59"/>
+      <c r="JP99" s="59"/>
+      <c r="JQ99" s="59"/>
+      <c r="JR99" s="59"/>
+      <c r="JS99" s="59"/>
+      <c r="JT99" s="59"/>
+      <c r="JU99" s="59"/>
+      <c r="JV99" s="59"/>
+      <c r="JW99" s="59"/>
+      <c r="JX99" s="59"/>
+      <c r="JY99" s="59"/>
+      <c r="JZ99" s="59"/>
+      <c r="KA99" s="59"/>
+      <c r="KB99" s="59"/>
+      <c r="KC99" s="59"/>
+      <c r="KD99" s="59"/>
+      <c r="KE99" s="59"/>
+      <c r="KF99" s="59"/>
+      <c r="KG99" s="59"/>
+      <c r="KH99" s="59"/>
+      <c r="KI99" s="59"/>
+      <c r="KJ99" s="59"/>
+      <c r="KK99" s="59"/>
+      <c r="KL99" s="59"/>
+      <c r="KM99" s="59"/>
+      <c r="KN99" s="59"/>
+      <c r="KO99" s="59"/>
+      <c r="KP99" s="59"/>
+      <c r="KQ99" s="59"/>
+      <c r="KR99" s="59"/>
+      <c r="KS99" s="59"/>
+      <c r="KT99" s="59"/>
+      <c r="KU99" s="59"/>
+      <c r="KV99" s="59"/>
+      <c r="KW99" s="59"/>
+      <c r="KX99" s="59"/>
+      <c r="KY99" s="59"/>
+      <c r="KZ99" s="59"/>
+      <c r="LA99" s="59"/>
+      <c r="LB99" s="59"/>
+      <c r="LC99" s="59"/>
+      <c r="LD99" s="59"/>
+      <c r="LE99" s="59"/>
+      <c r="LF99" s="59"/>
+      <c r="LG99" s="59"/>
+      <c r="LH99" s="59"/>
+      <c r="LI99" s="59"/>
+      <c r="LJ99" s="59"/>
+      <c r="LK99" s="59"/>
+      <c r="LL99" s="59"/>
+      <c r="LM99" s="59"/>
+      <c r="LN99" s="59"/>
+      <c r="LO99" s="59"/>
+      <c r="LP99" s="59"/>
+      <c r="LQ99" s="59"/>
+      <c r="LR99" s="59"/>
+      <c r="LS99" s="59"/>
+      <c r="LT99" s="59"/>
+      <c r="LU99" s="59"/>
+      <c r="LV99" s="59"/>
+      <c r="LW99" s="59"/>
+      <c r="LX99" s="59"/>
+      <c r="LY99" s="59"/>
+      <c r="LZ99" s="59"/>
+      <c r="MA99" s="59"/>
+      <c r="MB99" s="59"/>
+      <c r="MC99" s="59"/>
+      <c r="MD99" s="59"/>
+      <c r="ME99" s="59"/>
+      <c r="MF99" s="59"/>
+      <c r="MG99" s="59"/>
+      <c r="MH99" s="59"/>
+      <c r="MI99" s="59"/>
+      <c r="MJ99" s="59"/>
+      <c r="MK99" s="59"/>
+      <c r="ML99" s="59"/>
+      <c r="MM99" s="59"/>
+      <c r="MN99" s="59"/>
+      <c r="MO99" s="59"/>
+      <c r="MP99" s="59"/>
+      <c r="MQ99" s="59"/>
+      <c r="MR99" s="59"/>
+      <c r="MS99" s="59"/>
+      <c r="MT99" s="59"/>
+      <c r="MU99" s="59"/>
+      <c r="MV99" s="59"/>
+      <c r="MW99" s="59"/>
+      <c r="MX99" s="59"/>
+      <c r="MY99" s="59"/>
+      <c r="MZ99" s="59"/>
+      <c r="NA99" s="59"/>
+      <c r="NB99" s="59"/>
+      <c r="NC99" s="59"/>
+      <c r="ND99" s="59"/>
+      <c r="NE99" s="59"/>
+      <c r="NF99" s="59"/>
+      <c r="NG99" s="59"/>
+      <c r="NH99" s="59"/>
+      <c r="NI99" s="59"/>
+      <c r="NJ99" s="59"/>
+      <c r="NK99" s="59"/>
+      <c r="NL99" s="59"/>
+      <c r="NM99" s="59"/>
+      <c r="NN99" s="59"/>
+      <c r="NO99" s="59"/>
+      <c r="NP99" s="59"/>
+      <c r="NQ99" s="59"/>
+      <c r="NR99" s="59"/>
+      <c r="NS99" s="59"/>
+      <c r="NT99" s="59"/>
+      <c r="NU99" s="59"/>
+      <c r="NV99" s="59"/>
+      <c r="NW99" s="59"/>
+      <c r="NX99" s="59"/>
+      <c r="NY99" s="59"/>
+      <c r="NZ99" s="59"/>
+      <c r="OA99" s="59"/>
+      <c r="OB99" s="59"/>
+      <c r="OC99" s="59"/>
+      <c r="OD99" s="59"/>
+      <c r="OE99" s="59"/>
+      <c r="OF99" s="59"/>
+      <c r="OG99" s="59"/>
+      <c r="OH99" s="59"/>
+      <c r="OI99" s="59"/>
+      <c r="OJ99" s="59"/>
+      <c r="OK99" s="59"/>
+      <c r="OL99" s="59"/>
+      <c r="OM99" s="59"/>
+      <c r="ON99" s="59"/>
+      <c r="OO99" s="59"/>
+      <c r="OP99" s="59"/>
+      <c r="OQ99" s="59"/>
+      <c r="OR99" s="59"/>
+      <c r="OS99" s="59"/>
+      <c r="OT99" s="59"/>
+      <c r="OU99" s="59"/>
+      <c r="OV99" s="59"/>
+      <c r="OW99" s="59"/>
+      <c r="OX99" s="59"/>
+      <c r="OY99" s="59"/>
+      <c r="OZ99" s="59"/>
+      <c r="PA99" s="59"/>
+      <c r="PB99" s="71"/>
+    </row>
+    <row r="100" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B100" s="49">
+        <f t="shared" si="98"/>
+        <v>86</v>
+      </c>
+      <c r="C100" s="82"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="86"/>
+      <c r="I100" s="87"/>
+      <c r="J100" s="87"/>
+      <c r="K100" s="88"/>
+      <c r="L100" s="89"/>
+      <c r="M100" s="58"/>
+      <c r="N100" s="59"/>
+      <c r="O100" s="59"/>
+      <c r="P100" s="59"/>
+      <c r="Q100" s="59"/>
+      <c r="R100" s="59"/>
+      <c r="S100" s="59"/>
+      <c r="T100" s="59"/>
+      <c r="U100" s="59"/>
+      <c r="V100" s="59"/>
+      <c r="W100" s="59"/>
+      <c r="X100" s="59"/>
+      <c r="Y100" s="59"/>
+      <c r="Z100" s="59"/>
+      <c r="AA100" s="59"/>
+      <c r="AB100" s="59"/>
+      <c r="AC100" s="59"/>
+      <c r="AD100" s="59"/>
+      <c r="AE100" s="59"/>
+      <c r="AF100" s="59"/>
+      <c r="AG100" s="59"/>
+      <c r="AH100" s="59"/>
+      <c r="AI100" s="59"/>
+      <c r="AJ100" s="59"/>
+      <c r="AK100" s="59"/>
+      <c r="AL100" s="59"/>
+      <c r="AM100" s="59"/>
+      <c r="AN100" s="59"/>
+      <c r="AO100" s="59"/>
+      <c r="AP100" s="59"/>
+      <c r="AQ100" s="59"/>
+      <c r="AR100" s="59"/>
+      <c r="AS100" s="59"/>
+      <c r="AT100" s="59"/>
+      <c r="AU100" s="59"/>
+      <c r="AV100" s="59"/>
+      <c r="AW100" s="59"/>
+      <c r="AX100" s="59"/>
+      <c r="AY100" s="59"/>
+      <c r="AZ100" s="59"/>
+      <c r="BA100" s="59"/>
+      <c r="BB100" s="59"/>
+      <c r="BC100" s="59"/>
+      <c r="BD100" s="59"/>
+      <c r="BE100" s="59"/>
+      <c r="BF100" s="59"/>
+      <c r="BG100" s="59"/>
+      <c r="BH100" s="59"/>
+      <c r="BI100" s="59"/>
+      <c r="BJ100" s="59"/>
+      <c r="BK100" s="59"/>
+      <c r="BL100" s="59"/>
+      <c r="BM100" s="59"/>
+      <c r="BN100" s="59"/>
+      <c r="BO100" s="59"/>
+      <c r="BP100" s="59"/>
+      <c r="BQ100" s="59"/>
+      <c r="BR100" s="59"/>
+      <c r="BS100" s="59"/>
+      <c r="BT100" s="59"/>
+      <c r="BU100" s="59"/>
+      <c r="BV100" s="59"/>
+      <c r="BW100" s="59"/>
+      <c r="BX100" s="59"/>
+      <c r="BY100" s="59"/>
+      <c r="BZ100" s="59"/>
+      <c r="CA100" s="59"/>
+      <c r="CB100" s="59"/>
+      <c r="CC100" s="59"/>
+      <c r="CD100" s="59"/>
+      <c r="CE100" s="59"/>
+      <c r="CF100" s="59"/>
+      <c r="CG100" s="59"/>
+      <c r="CH100" s="59"/>
+      <c r="CI100" s="59"/>
+      <c r="CJ100" s="59"/>
+      <c r="CK100" s="59"/>
+      <c r="CL100" s="59"/>
+      <c r="CM100" s="59"/>
+      <c r="CN100" s="59"/>
+      <c r="CO100" s="59"/>
+      <c r="CP100" s="59"/>
+      <c r="CQ100" s="59"/>
+      <c r="CR100" s="59"/>
+      <c r="CS100" s="59"/>
+      <c r="CT100" s="59"/>
+      <c r="CU100" s="59"/>
+      <c r="CV100" s="59"/>
+      <c r="CW100" s="59"/>
+      <c r="CX100" s="59"/>
+      <c r="CY100" s="59"/>
+      <c r="CZ100" s="59"/>
+      <c r="DA100" s="59"/>
+      <c r="DB100" s="59"/>
+      <c r="DC100" s="59"/>
+      <c r="DD100" s="59"/>
+      <c r="DE100" s="59"/>
+      <c r="DF100" s="59"/>
+      <c r="DG100" s="59"/>
+      <c r="DH100" s="59"/>
+      <c r="DI100" s="59"/>
+      <c r="DJ100" s="59"/>
+      <c r="DK100" s="59"/>
+      <c r="DL100" s="59"/>
+      <c r="DM100" s="59"/>
+      <c r="DN100" s="59"/>
+      <c r="DO100" s="59"/>
+      <c r="DP100" s="59"/>
+      <c r="DQ100" s="59"/>
+      <c r="DR100" s="59"/>
+      <c r="DS100" s="59"/>
+      <c r="DT100" s="59"/>
+      <c r="DU100" s="59"/>
+      <c r="DV100" s="59"/>
+      <c r="DW100" s="59"/>
+      <c r="DX100" s="59"/>
+      <c r="DY100" s="59"/>
+      <c r="DZ100" s="59"/>
+      <c r="EA100" s="59"/>
+      <c r="EB100" s="59"/>
+      <c r="EC100" s="59"/>
+      <c r="ED100" s="59"/>
+      <c r="EE100" s="59"/>
+      <c r="EF100" s="59"/>
+      <c r="EG100" s="59"/>
+      <c r="EH100" s="59"/>
+      <c r="EI100" s="59"/>
+      <c r="EJ100" s="59"/>
+      <c r="EK100" s="59"/>
+      <c r="EL100" s="59"/>
+      <c r="EM100" s="59"/>
+      <c r="EN100" s="59"/>
+      <c r="EO100" s="59"/>
+      <c r="EP100" s="59"/>
+      <c r="EQ100" s="59"/>
+      <c r="ER100" s="59"/>
+      <c r="ES100" s="59"/>
+      <c r="ET100" s="59"/>
+      <c r="EU100" s="59"/>
+      <c r="EV100" s="59"/>
+      <c r="EW100" s="59"/>
+      <c r="EX100" s="59"/>
+      <c r="EY100" s="59"/>
+      <c r="EZ100" s="59"/>
+      <c r="FA100" s="59"/>
+      <c r="FB100" s="59"/>
+      <c r="FC100" s="59"/>
+      <c r="FD100" s="59"/>
+      <c r="FE100" s="59"/>
+      <c r="FF100" s="59"/>
+      <c r="FG100" s="59"/>
+      <c r="FH100" s="59"/>
+      <c r="FI100" s="59"/>
+      <c r="FJ100" s="59"/>
+      <c r="FK100" s="59"/>
+      <c r="FL100" s="59"/>
+      <c r="FM100" s="59"/>
+      <c r="FN100" s="59"/>
+      <c r="FO100" s="59"/>
+      <c r="FP100" s="59"/>
+      <c r="FQ100" s="59"/>
+      <c r="FR100" s="59"/>
+      <c r="FS100" s="59"/>
+      <c r="FT100" s="59"/>
+      <c r="FU100" s="59"/>
+      <c r="FV100" s="59"/>
+      <c r="FW100" s="59"/>
+      <c r="FX100" s="59"/>
+      <c r="FY100" s="59"/>
+      <c r="FZ100" s="59"/>
+      <c r="GA100" s="59"/>
+      <c r="GB100" s="59"/>
+      <c r="GC100" s="59"/>
+      <c r="GD100" s="59"/>
+      <c r="GE100" s="59"/>
+      <c r="GF100" s="59"/>
+      <c r="GG100" s="59"/>
+      <c r="GH100" s="59"/>
+      <c r="GI100" s="59"/>
+      <c r="GJ100" s="59"/>
+      <c r="GK100" s="59"/>
+      <c r="GL100" s="59"/>
+      <c r="GM100" s="59"/>
+      <c r="GN100" s="59"/>
+      <c r="GO100" s="59"/>
+      <c r="GP100" s="59"/>
+      <c r="GQ100" s="59"/>
+      <c r="GR100" s="59"/>
+      <c r="GS100" s="59"/>
+      <c r="GT100" s="59"/>
+      <c r="GU100" s="59"/>
+      <c r="GV100" s="59"/>
+      <c r="GW100" s="59"/>
+      <c r="GX100" s="59"/>
+      <c r="GY100" s="59"/>
+      <c r="GZ100" s="59"/>
+      <c r="HA100" s="59"/>
+      <c r="HB100" s="59"/>
+      <c r="HC100" s="59"/>
+      <c r="HD100" s="59"/>
+      <c r="HE100" s="59"/>
+      <c r="HF100" s="59"/>
+      <c r="HG100" s="59"/>
+      <c r="HH100" s="59"/>
+      <c r="HI100" s="59"/>
+      <c r="HJ100" s="59"/>
+      <c r="HK100" s="59"/>
+      <c r="HL100" s="59"/>
+      <c r="HM100" s="59"/>
+      <c r="HN100" s="59"/>
+      <c r="HO100" s="59"/>
+      <c r="HP100" s="59"/>
+      <c r="HQ100" s="59"/>
+      <c r="HR100" s="59"/>
+      <c r="HS100" s="59"/>
+      <c r="HT100" s="59"/>
+      <c r="HU100" s="59"/>
+      <c r="HV100" s="59"/>
+      <c r="HW100" s="59"/>
+      <c r="HX100" s="59"/>
+      <c r="HY100" s="59"/>
+      <c r="HZ100" s="59"/>
+      <c r="IA100" s="59"/>
+      <c r="IB100" s="59"/>
+      <c r="IC100" s="59"/>
+      <c r="ID100" s="59"/>
+      <c r="IE100" s="59"/>
+      <c r="IF100" s="59"/>
+      <c r="IG100" s="59"/>
+      <c r="IH100" s="59"/>
+      <c r="II100" s="59"/>
+      <c r="IJ100" s="59"/>
+      <c r="IK100" s="59"/>
+      <c r="IL100" s="59"/>
+      <c r="IM100" s="59"/>
+      <c r="IN100" s="59"/>
+      <c r="IO100" s="59"/>
+      <c r="IP100" s="59"/>
+      <c r="IQ100" s="59"/>
+      <c r="IR100" s="59"/>
+      <c r="IS100" s="59"/>
+      <c r="IT100" s="59"/>
+      <c r="IU100" s="59"/>
+      <c r="IV100" s="59"/>
+      <c r="IW100" s="59"/>
+      <c r="IX100" s="59"/>
+      <c r="IY100" s="59"/>
+      <c r="IZ100" s="59"/>
+      <c r="JA100" s="59"/>
+      <c r="JB100" s="59"/>
+      <c r="JC100" s="59"/>
+      <c r="JD100" s="59"/>
+      <c r="JE100" s="59"/>
+      <c r="JF100" s="59"/>
+      <c r="JG100" s="59"/>
+      <c r="JH100" s="59"/>
+      <c r="JI100" s="59"/>
+      <c r="JJ100" s="59"/>
+      <c r="JK100" s="59"/>
+      <c r="JL100" s="59"/>
+      <c r="JM100" s="59"/>
+      <c r="JN100" s="59"/>
+      <c r="JO100" s="59"/>
+      <c r="JP100" s="59"/>
+      <c r="JQ100" s="59"/>
+      <c r="JR100" s="59"/>
+      <c r="JS100" s="59"/>
+      <c r="JT100" s="59"/>
+      <c r="JU100" s="59"/>
+      <c r="JV100" s="59"/>
+      <c r="JW100" s="59"/>
+      <c r="JX100" s="59"/>
+      <c r="JY100" s="59"/>
+      <c r="JZ100" s="59"/>
+      <c r="KA100" s="59"/>
+      <c r="KB100" s="59"/>
+      <c r="KC100" s="59"/>
+      <c r="KD100" s="59"/>
+      <c r="KE100" s="59"/>
+      <c r="KF100" s="59"/>
+      <c r="KG100" s="59"/>
+      <c r="KH100" s="59"/>
+      <c r="KI100" s="59"/>
+      <c r="KJ100" s="59"/>
+      <c r="KK100" s="59"/>
+      <c r="KL100" s="59"/>
+      <c r="KM100" s="59"/>
+      <c r="KN100" s="59"/>
+      <c r="KO100" s="59"/>
+      <c r="KP100" s="59"/>
+      <c r="KQ100" s="59"/>
+      <c r="KR100" s="59"/>
+      <c r="KS100" s="59"/>
+      <c r="KT100" s="59"/>
+      <c r="KU100" s="59"/>
+      <c r="KV100" s="59"/>
+      <c r="KW100" s="59"/>
+      <c r="KX100" s="59"/>
+      <c r="KY100" s="59"/>
+      <c r="KZ100" s="59"/>
+      <c r="LA100" s="59"/>
+      <c r="LB100" s="59"/>
+      <c r="LC100" s="59"/>
+      <c r="LD100" s="59"/>
+      <c r="LE100" s="59"/>
+      <c r="LF100" s="59"/>
+      <c r="LG100" s="59"/>
+      <c r="LH100" s="59"/>
+      <c r="LI100" s="59"/>
+      <c r="LJ100" s="59"/>
+      <c r="LK100" s="59"/>
+      <c r="LL100" s="59"/>
+      <c r="LM100" s="59"/>
+      <c r="LN100" s="59"/>
+      <c r="LO100" s="59"/>
+      <c r="LP100" s="59"/>
+      <c r="LQ100" s="59"/>
+      <c r="LR100" s="59"/>
+      <c r="LS100" s="59"/>
+      <c r="LT100" s="59"/>
+      <c r="LU100" s="59"/>
+      <c r="LV100" s="59"/>
+      <c r="LW100" s="59"/>
+      <c r="LX100" s="59"/>
+      <c r="LY100" s="59"/>
+      <c r="LZ100" s="59"/>
+      <c r="MA100" s="59"/>
+      <c r="MB100" s="59"/>
+      <c r="MC100" s="59"/>
+      <c r="MD100" s="59"/>
+      <c r="ME100" s="59"/>
+      <c r="MF100" s="59"/>
+      <c r="MG100" s="59"/>
+      <c r="MH100" s="59"/>
+      <c r="MI100" s="59"/>
+      <c r="MJ100" s="59"/>
+      <c r="MK100" s="59"/>
+      <c r="ML100" s="59"/>
+      <c r="MM100" s="59"/>
+      <c r="MN100" s="59"/>
+      <c r="MO100" s="59"/>
+      <c r="MP100" s="59"/>
+      <c r="MQ100" s="59"/>
+      <c r="MR100" s="59"/>
+      <c r="MS100" s="59"/>
+      <c r="MT100" s="59"/>
+      <c r="MU100" s="59"/>
+      <c r="MV100" s="59"/>
+      <c r="MW100" s="59"/>
+      <c r="MX100" s="59"/>
+      <c r="MY100" s="59"/>
+      <c r="MZ100" s="59"/>
+      <c r="NA100" s="59"/>
+      <c r="NB100" s="59"/>
+      <c r="NC100" s="59"/>
+      <c r="ND100" s="59"/>
+      <c r="NE100" s="59"/>
+      <c r="NF100" s="59"/>
+      <c r="NG100" s="59"/>
+      <c r="NH100" s="59"/>
+      <c r="NI100" s="59"/>
+      <c r="NJ100" s="59"/>
+      <c r="NK100" s="59"/>
+      <c r="NL100" s="59"/>
+      <c r="NM100" s="59"/>
+      <c r="NN100" s="59"/>
+      <c r="NO100" s="59"/>
+      <c r="NP100" s="59"/>
+      <c r="NQ100" s="59"/>
+      <c r="NR100" s="59"/>
+      <c r="NS100" s="59"/>
+      <c r="NT100" s="59"/>
+      <c r="NU100" s="59"/>
+      <c r="NV100" s="59"/>
+      <c r="NW100" s="59"/>
+      <c r="NX100" s="59"/>
+      <c r="NY100" s="59"/>
+      <c r="NZ100" s="59"/>
+      <c r="OA100" s="59"/>
+      <c r="OB100" s="59"/>
+      <c r="OC100" s="59"/>
+      <c r="OD100" s="59"/>
+      <c r="OE100" s="59"/>
+      <c r="OF100" s="59"/>
+      <c r="OG100" s="59"/>
+      <c r="OH100" s="59"/>
+      <c r="OI100" s="59"/>
+      <c r="OJ100" s="59"/>
+      <c r="OK100" s="59"/>
+      <c r="OL100" s="59"/>
+      <c r="OM100" s="59"/>
+      <c r="ON100" s="59"/>
+      <c r="OO100" s="59"/>
+      <c r="OP100" s="59"/>
+      <c r="OQ100" s="59"/>
+      <c r="OR100" s="59"/>
+      <c r="OS100" s="59"/>
+      <c r="OT100" s="59"/>
+      <c r="OU100" s="59"/>
+      <c r="OV100" s="59"/>
+      <c r="OW100" s="59"/>
+      <c r="OX100" s="59"/>
+      <c r="OY100" s="59"/>
+      <c r="OZ100" s="59"/>
+      <c r="PA100" s="59"/>
+      <c r="PB100" s="71"/>
+    </row>
+    <row r="101" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B101" s="49">
+        <f t="shared" si="98"/>
+        <v>87</v>
+      </c>
+      <c r="C101" s="82"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="84"/>
+      <c r="F101" s="82"/>
+      <c r="G101" s="85" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="H101" s="86"/>
+      <c r="I101" s="87"/>
+      <c r="J101" s="87"/>
+      <c r="K101" s="88"/>
+      <c r="L101" s="89"/>
+      <c r="M101" s="58"/>
+      <c r="N101" s="59"/>
+      <c r="O101" s="59"/>
+      <c r="P101" s="59"/>
+      <c r="Q101" s="59"/>
+      <c r="R101" s="59"/>
+      <c r="S101" s="59"/>
+      <c r="T101" s="59"/>
+      <c r="U101" s="59"/>
+      <c r="V101" s="59"/>
+      <c r="W101" s="59"/>
+      <c r="X101" s="59"/>
+      <c r="Y101" s="59"/>
+      <c r="Z101" s="59"/>
+      <c r="AA101" s="59"/>
+      <c r="AB101" s="59"/>
+      <c r="AC101" s="59"/>
+      <c r="AD101" s="59"/>
+      <c r="AE101" s="59"/>
+      <c r="AF101" s="59"/>
+      <c r="AG101" s="59"/>
+      <c r="AH101" s="59"/>
+      <c r="AI101" s="59"/>
+      <c r="AJ101" s="59"/>
+      <c r="AK101" s="59"/>
+      <c r="AL101" s="59"/>
+      <c r="AM101" s="59"/>
+      <c r="AN101" s="59"/>
+      <c r="AO101" s="59"/>
+      <c r="AP101" s="59"/>
+      <c r="AQ101" s="59"/>
+      <c r="AR101" s="59"/>
+      <c r="AS101" s="59"/>
+      <c r="AT101" s="59"/>
+      <c r="AU101" s="59"/>
+      <c r="AV101" s="59"/>
+      <c r="AW101" s="59"/>
+      <c r="AX101" s="59"/>
+      <c r="AY101" s="59"/>
+      <c r="AZ101" s="59"/>
+      <c r="BA101" s="59"/>
+      <c r="BB101" s="59"/>
+      <c r="BC101" s="59"/>
+      <c r="BD101" s="59"/>
+      <c r="BE101" s="59"/>
+      <c r="BF101" s="59"/>
+      <c r="BG101" s="59"/>
+      <c r="BH101" s="59"/>
+      <c r="BI101" s="59"/>
+      <c r="BJ101" s="59"/>
+      <c r="BK101" s="59"/>
+      <c r="BL101" s="59"/>
+      <c r="BM101" s="59"/>
+      <c r="BN101" s="59"/>
+      <c r="BO101" s="59"/>
+      <c r="BP101" s="59"/>
+      <c r="BQ101" s="59"/>
+      <c r="BR101" s="59"/>
+      <c r="BS101" s="59"/>
+      <c r="BT101" s="59"/>
+      <c r="BU101" s="59"/>
+      <c r="BV101" s="59"/>
+      <c r="BW101" s="59"/>
+      <c r="BX101" s="59"/>
+      <c r="BY101" s="59"/>
+      <c r="BZ101" s="59"/>
+      <c r="CA101" s="59"/>
+      <c r="CB101" s="59"/>
+      <c r="CC101" s="59"/>
+      <c r="CD101" s="59"/>
+      <c r="CE101" s="59"/>
+      <c r="CF101" s="59"/>
+      <c r="CG101" s="59"/>
+      <c r="CH101" s="59"/>
+      <c r="CI101" s="59"/>
+      <c r="CJ101" s="59"/>
+      <c r="CK101" s="59"/>
+      <c r="CL101" s="59"/>
+      <c r="CM101" s="59"/>
+      <c r="CN101" s="59"/>
+      <c r="CO101" s="59"/>
+      <c r="CP101" s="59"/>
+      <c r="CQ101" s="59"/>
+      <c r="CR101" s="59"/>
+      <c r="CS101" s="59"/>
+      <c r="CT101" s="59"/>
+      <c r="CU101" s="59"/>
+      <c r="CV101" s="59"/>
+      <c r="CW101" s="59"/>
+      <c r="CX101" s="59"/>
+      <c r="CY101" s="59"/>
+      <c r="CZ101" s="59"/>
+      <c r="DA101" s="59"/>
+      <c r="DB101" s="59"/>
+      <c r="DC101" s="59"/>
+      <c r="DD101" s="59"/>
+      <c r="DE101" s="59"/>
+      <c r="DF101" s="59"/>
+      <c r="DG101" s="59"/>
+      <c r="DH101" s="59"/>
+      <c r="DI101" s="59"/>
+      <c r="DJ101" s="59"/>
+      <c r="DK101" s="59"/>
+      <c r="DL101" s="59"/>
+      <c r="DM101" s="59"/>
+      <c r="DN101" s="59"/>
+      <c r="DO101" s="59"/>
+      <c r="DP101" s="59"/>
+      <c r="DQ101" s="59"/>
+      <c r="DR101" s="59"/>
+      <c r="DS101" s="59"/>
+      <c r="DT101" s="59"/>
+      <c r="DU101" s="59"/>
+      <c r="DV101" s="59"/>
+      <c r="DW101" s="59"/>
+      <c r="DX101" s="59"/>
+      <c r="DY101" s="59"/>
+      <c r="DZ101" s="59"/>
+      <c r="EA101" s="59"/>
+      <c r="EB101" s="59"/>
+      <c r="EC101" s="59"/>
+      <c r="ED101" s="59"/>
+      <c r="EE101" s="59"/>
+      <c r="EF101" s="59"/>
+      <c r="EG101" s="59"/>
+      <c r="EH101" s="59"/>
+      <c r="EI101" s="59"/>
+      <c r="EJ101" s="59"/>
+      <c r="EK101" s="59"/>
+      <c r="EL101" s="59"/>
+      <c r="EM101" s="59"/>
+      <c r="EN101" s="59"/>
+      <c r="EO101" s="59"/>
+      <c r="EP101" s="59"/>
+      <c r="EQ101" s="59"/>
+      <c r="ER101" s="59"/>
+      <c r="ES101" s="59"/>
+      <c r="ET101" s="59"/>
+      <c r="EU101" s="59"/>
+      <c r="EV101" s="59"/>
+      <c r="EW101" s="59"/>
+      <c r="EX101" s="59"/>
+      <c r="EY101" s="59"/>
+      <c r="EZ101" s="59"/>
+      <c r="FA101" s="59"/>
+      <c r="FB101" s="59"/>
+      <c r="FC101" s="59"/>
+      <c r="FD101" s="59"/>
+      <c r="FE101" s="59"/>
+      <c r="FF101" s="59"/>
+      <c r="FG101" s="59"/>
+      <c r="FH101" s="59"/>
+      <c r="FI101" s="59"/>
+      <c r="FJ101" s="59"/>
+      <c r="FK101" s="59"/>
+      <c r="FL101" s="59"/>
+      <c r="FM101" s="59"/>
+      <c r="FN101" s="59"/>
+      <c r="FO101" s="59"/>
+      <c r="FP101" s="59"/>
+      <c r="FQ101" s="59"/>
+      <c r="FR101" s="59"/>
+      <c r="FS101" s="59"/>
+      <c r="FT101" s="59"/>
+      <c r="FU101" s="59"/>
+      <c r="FV101" s="59"/>
+      <c r="FW101" s="59"/>
+      <c r="FX101" s="59"/>
+      <c r="FY101" s="59"/>
+      <c r="FZ101" s="59"/>
+      <c r="GA101" s="59"/>
+      <c r="GB101" s="59"/>
+      <c r="GC101" s="59"/>
+      <c r="GD101" s="59"/>
+      <c r="GE101" s="59"/>
+      <c r="GF101" s="59"/>
+      <c r="GG101" s="59"/>
+      <c r="GH101" s="59"/>
+      <c r="GI101" s="59"/>
+      <c r="GJ101" s="59"/>
+      <c r="GK101" s="59"/>
+      <c r="GL101" s="59"/>
+      <c r="GM101" s="59"/>
+      <c r="GN101" s="59"/>
+      <c r="GO101" s="59"/>
+      <c r="GP101" s="59"/>
+      <c r="GQ101" s="59"/>
+      <c r="GR101" s="59"/>
+      <c r="GS101" s="59"/>
+      <c r="GT101" s="59"/>
+      <c r="GU101" s="59"/>
+      <c r="GV101" s="59"/>
+      <c r="GW101" s="59"/>
+      <c r="GX101" s="59"/>
+      <c r="GY101" s="59"/>
+      <c r="GZ101" s="59"/>
+      <c r="HA101" s="59"/>
+      <c r="HB101" s="59"/>
+      <c r="HC101" s="59"/>
+      <c r="HD101" s="59"/>
+      <c r="HE101" s="59"/>
+      <c r="HF101" s="59"/>
+      <c r="HG101" s="59"/>
+      <c r="HH101" s="59"/>
+      <c r="HI101" s="59"/>
+      <c r="HJ101" s="59"/>
+      <c r="HK101" s="59"/>
+      <c r="HL101" s="59"/>
+      <c r="HM101" s="59"/>
+      <c r="HN101" s="59"/>
+      <c r="HO101" s="59"/>
+      <c r="HP101" s="59"/>
+      <c r="HQ101" s="59"/>
+      <c r="HR101" s="59"/>
+      <c r="HS101" s="59"/>
+      <c r="HT101" s="59"/>
+      <c r="HU101" s="59"/>
+      <c r="HV101" s="59"/>
+      <c r="HW101" s="59"/>
+      <c r="HX101" s="59"/>
+      <c r="HY101" s="59"/>
+      <c r="HZ101" s="59"/>
+      <c r="IA101" s="59"/>
+      <c r="IB101" s="59"/>
+      <c r="IC101" s="59"/>
+      <c r="ID101" s="59"/>
+      <c r="IE101" s="59"/>
+      <c r="IF101" s="59"/>
+      <c r="IG101" s="59"/>
+      <c r="IH101" s="59"/>
+      <c r="II101" s="59"/>
+      <c r="IJ101" s="59"/>
+      <c r="IK101" s="59"/>
+      <c r="IL101" s="59"/>
+      <c r="IM101" s="59"/>
+      <c r="IN101" s="59"/>
+      <c r="IO101" s="59"/>
+      <c r="IP101" s="59"/>
+      <c r="IQ101" s="59"/>
+      <c r="IR101" s="59"/>
+      <c r="IS101" s="59"/>
+      <c r="IT101" s="59"/>
+      <c r="IU101" s="59"/>
+      <c r="IV101" s="59"/>
+      <c r="IW101" s="59"/>
+      <c r="IX101" s="59"/>
+      <c r="IY101" s="59"/>
+      <c r="IZ101" s="59"/>
+      <c r="JA101" s="59"/>
+      <c r="JB101" s="59"/>
+      <c r="JC101" s="59"/>
+      <c r="JD101" s="59"/>
+      <c r="JE101" s="59"/>
+      <c r="JF101" s="59"/>
+      <c r="JG101" s="59"/>
+      <c r="JH101" s="59"/>
+      <c r="JI101" s="59"/>
+      <c r="JJ101" s="59"/>
+      <c r="JK101" s="59"/>
+      <c r="JL101" s="59"/>
+      <c r="JM101" s="59"/>
+      <c r="JN101" s="59"/>
+      <c r="JO101" s="59"/>
+      <c r="JP101" s="59"/>
+      <c r="JQ101" s="59"/>
+      <c r="JR101" s="59"/>
+      <c r="JS101" s="59"/>
+      <c r="JT101" s="59"/>
+      <c r="JU101" s="59"/>
+      <c r="JV101" s="59"/>
+      <c r="JW101" s="59"/>
+      <c r="JX101" s="59"/>
+      <c r="JY101" s="59"/>
+      <c r="JZ101" s="59"/>
+      <c r="KA101" s="59"/>
+      <c r="KB101" s="59"/>
+      <c r="KC101" s="59"/>
+      <c r="KD101" s="59"/>
+      <c r="KE101" s="59"/>
+      <c r="KF101" s="59"/>
+      <c r="KG101" s="59"/>
+      <c r="KH101" s="59"/>
+      <c r="KI101" s="59"/>
+      <c r="KJ101" s="59"/>
+      <c r="KK101" s="59"/>
+      <c r="KL101" s="59"/>
+      <c r="KM101" s="59"/>
+      <c r="KN101" s="59"/>
+      <c r="KO101" s="59"/>
+      <c r="KP101" s="59"/>
+      <c r="KQ101" s="59"/>
+      <c r="KR101" s="59"/>
+      <c r="KS101" s="59"/>
+      <c r="KT101" s="59"/>
+      <c r="KU101" s="59"/>
+      <c r="KV101" s="59"/>
+      <c r="KW101" s="59"/>
+      <c r="KX101" s="59"/>
+      <c r="KY101" s="59"/>
+      <c r="KZ101" s="59"/>
+      <c r="LA101" s="59"/>
+      <c r="LB101" s="59"/>
+      <c r="LC101" s="59"/>
+      <c r="LD101" s="59"/>
+      <c r="LE101" s="59"/>
+      <c r="LF101" s="59"/>
+      <c r="LG101" s="59"/>
+      <c r="LH101" s="59"/>
+      <c r="LI101" s="59"/>
+      <c r="LJ101" s="59"/>
+      <c r="LK101" s="59"/>
+      <c r="LL101" s="59"/>
+      <c r="LM101" s="59"/>
+      <c r="LN101" s="59"/>
+      <c r="LO101" s="59"/>
+      <c r="LP101" s="59"/>
+      <c r="LQ101" s="59"/>
+      <c r="LR101" s="59"/>
+      <c r="LS101" s="59"/>
+      <c r="LT101" s="59"/>
+      <c r="LU101" s="59"/>
+      <c r="LV101" s="59"/>
+      <c r="LW101" s="59"/>
+      <c r="LX101" s="59"/>
+      <c r="LY101" s="59"/>
+      <c r="LZ101" s="59"/>
+      <c r="MA101" s="59"/>
+      <c r="MB101" s="59"/>
+      <c r="MC101" s="59"/>
+      <c r="MD101" s="59"/>
+      <c r="ME101" s="59"/>
+      <c r="MF101" s="59"/>
+      <c r="MG101" s="59"/>
+      <c r="MH101" s="59"/>
+      <c r="MI101" s="59"/>
+      <c r="MJ101" s="59"/>
+      <c r="MK101" s="59"/>
+      <c r="ML101" s="59"/>
+      <c r="MM101" s="59"/>
+      <c r="MN101" s="59"/>
+      <c r="MO101" s="59"/>
+      <c r="MP101" s="59"/>
+      <c r="MQ101" s="59"/>
+      <c r="MR101" s="59"/>
+      <c r="MS101" s="59"/>
+      <c r="MT101" s="59"/>
+      <c r="MU101" s="59"/>
+      <c r="MV101" s="59"/>
+      <c r="MW101" s="59"/>
+      <c r="MX101" s="59"/>
+      <c r="MY101" s="59"/>
+      <c r="MZ101" s="59"/>
+      <c r="NA101" s="59"/>
+      <c r="NB101" s="59"/>
+      <c r="NC101" s="59"/>
+      <c r="ND101" s="59"/>
+      <c r="NE101" s="59"/>
+      <c r="NF101" s="59"/>
+      <c r="NG101" s="59"/>
+      <c r="NH101" s="59"/>
+      <c r="NI101" s="59"/>
+      <c r="NJ101" s="59"/>
+      <c r="NK101" s="59"/>
+      <c r="NL101" s="59"/>
+      <c r="NM101" s="59"/>
+      <c r="NN101" s="59"/>
+      <c r="NO101" s="59"/>
+      <c r="NP101" s="59"/>
+      <c r="NQ101" s="59"/>
+      <c r="NR101" s="59"/>
+      <c r="NS101" s="59"/>
+      <c r="NT101" s="59"/>
+      <c r="NU101" s="59"/>
+      <c r="NV101" s="59"/>
+      <c r="NW101" s="59"/>
+      <c r="NX101" s="59"/>
+      <c r="NY101" s="59"/>
+      <c r="NZ101" s="59"/>
+      <c r="OA101" s="59"/>
+      <c r="OB101" s="59"/>
+      <c r="OC101" s="59"/>
+      <c r="OD101" s="59"/>
+      <c r="OE101" s="59"/>
+      <c r="OF101" s="59"/>
+      <c r="OG101" s="59"/>
+      <c r="OH101" s="59"/>
+      <c r="OI101" s="59"/>
+      <c r="OJ101" s="59"/>
+      <c r="OK101" s="59"/>
+      <c r="OL101" s="59"/>
+      <c r="OM101" s="59"/>
+      <c r="ON101" s="59"/>
+      <c r="OO101" s="59"/>
+      <c r="OP101" s="59"/>
+      <c r="OQ101" s="59"/>
+      <c r="OR101" s="59"/>
+      <c r="OS101" s="59"/>
+      <c r="OT101" s="59"/>
+      <c r="OU101" s="59"/>
+      <c r="OV101" s="59"/>
+      <c r="OW101" s="59"/>
+      <c r="OX101" s="59"/>
+      <c r="OY101" s="59"/>
+      <c r="OZ101" s="59"/>
+      <c r="PA101" s="59"/>
+      <c r="PB101" s="71"/>
+    </row>
+    <row r="102" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="M102" s="90"/>
+      <c r="N102" s="90"/>
+      <c r="O102" s="90"/>
+      <c r="P102" s="91"/>
+      <c r="Q102" s="91"/>
+      <c r="R102" s="91"/>
+      <c r="S102" s="91"/>
+      <c r="T102" s="91"/>
+      <c r="U102" s="91"/>
+      <c r="V102" s="91"/>
+      <c r="W102" s="91"/>
+      <c r="X102" s="91"/>
+      <c r="Y102" s="91"/>
+      <c r="Z102" s="91"/>
+      <c r="AA102" s="91"/>
+      <c r="AB102" s="91"/>
+      <c r="AC102" s="91"/>
+      <c r="AD102" s="91"/>
+      <c r="AE102" s="91"/>
+      <c r="AF102" s="91"/>
+      <c r="AG102" s="91"/>
+      <c r="AH102" s="91"/>
+      <c r="AI102" s="91"/>
+      <c r="AJ102" s="91"/>
+      <c r="AK102" s="91"/>
+      <c r="AL102" s="91"/>
+      <c r="AM102" s="91"/>
+      <c r="AN102" s="91"/>
+      <c r="AO102" s="91"/>
+      <c r="AP102" s="91"/>
+      <c r="AQ102" s="91"/>
+      <c r="AR102" s="91"/>
+      <c r="AS102" s="91"/>
+      <c r="AT102" s="91"/>
+      <c r="AU102" s="91"/>
+      <c r="AV102" s="91"/>
+      <c r="AW102" s="91"/>
+      <c r="AX102" s="91"/>
+      <c r="AY102" s="91"/>
+      <c r="AZ102" s="91"/>
+      <c r="BA102" s="91"/>
+      <c r="BB102" s="91"/>
+      <c r="BC102" s="91"/>
+      <c r="BD102" s="91"/>
+      <c r="BE102" s="91"/>
+      <c r="BF102" s="91"/>
+      <c r="BG102" s="91"/>
+      <c r="BH102" s="91"/>
+      <c r="BI102" s="91"/>
+      <c r="BJ102" s="91"/>
+      <c r="BK102" s="91"/>
+      <c r="BL102" s="91"/>
+      <c r="BM102" s="91"/>
+      <c r="BN102" s="91"/>
+      <c r="BO102" s="91"/>
+      <c r="BP102" s="91"/>
+      <c r="BQ102" s="91"/>
+      <c r="BR102" s="91"/>
+      <c r="BS102" s="91"/>
+      <c r="BT102" s="91"/>
+      <c r="BU102" s="91"/>
+      <c r="BV102" s="91"/>
+      <c r="BW102" s="91"/>
+      <c r="BX102" s="91"/>
+      <c r="BY102" s="91"/>
+      <c r="BZ102" s="91"/>
+      <c r="CA102" s="91"/>
+      <c r="CB102" s="91"/>
+      <c r="CC102" s="91"/>
+      <c r="CD102" s="91"/>
+      <c r="CE102" s="91"/>
+      <c r="CF102" s="91"/>
+      <c r="CG102" s="91"/>
+      <c r="CH102" s="91"/>
+      <c r="CI102" s="91"/>
+      <c r="CJ102" s="91"/>
+      <c r="CK102" s="91"/>
+      <c r="CL102" s="91"/>
+      <c r="CM102" s="91"/>
+      <c r="CN102" s="91"/>
+      <c r="CO102" s="91"/>
+      <c r="CP102" s="91"/>
+      <c r="CQ102" s="91"/>
+      <c r="CR102" s="91"/>
+      <c r="CS102" s="91"/>
+      <c r="CT102" s="91"/>
+      <c r="CU102" s="91"/>
+      <c r="CV102" s="91"/>
+      <c r="CW102" s="91"/>
+      <c r="CX102" s="91"/>
+      <c r="CY102" s="91"/>
+      <c r="CZ102" s="91"/>
+      <c r="DA102" s="91"/>
+      <c r="DB102" s="91"/>
+      <c r="DC102" s="91"/>
+      <c r="DD102" s="91"/>
+      <c r="DE102" s="91"/>
+      <c r="DF102" s="91"/>
+      <c r="DG102" s="91"/>
+      <c r="DH102" s="91"/>
+      <c r="DI102" s="91"/>
+      <c r="DJ102" s="91"/>
+      <c r="DK102" s="91"/>
+      <c r="DL102" s="91"/>
+      <c r="DM102" s="91"/>
+      <c r="DN102" s="91"/>
+      <c r="DO102" s="91"/>
+      <c r="DP102" s="91"/>
+      <c r="DQ102" s="91"/>
+      <c r="DR102" s="91"/>
+      <c r="DS102" s="91"/>
+      <c r="DT102" s="91"/>
+      <c r="DU102" s="91"/>
+      <c r="DV102" s="91"/>
+      <c r="DW102" s="91"/>
+      <c r="DX102" s="91"/>
+    </row>
+    <row r="103" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="M103" s="92"/>
+      <c r="N103" s="92"/>
+      <c r="O103" s="92"/>
+      <c r="P103" s="93"/>
+      <c r="Q103" s="93"/>
+      <c r="R103" s="93"/>
+      <c r="S103" s="93"/>
+      <c r="T103" s="93"/>
+      <c r="U103" s="93"/>
+      <c r="V103" s="93"/>
+      <c r="W103" s="93"/>
+      <c r="X103" s="93"/>
+      <c r="Y103" s="93"/>
+      <c r="Z103" s="93"/>
+      <c r="AA103" s="93"/>
+      <c r="AB103" s="93"/>
+      <c r="AC103" s="93"/>
+      <c r="AD103" s="93"/>
+      <c r="AE103" s="93"/>
+      <c r="AF103" s="93"/>
+      <c r="AG103" s="93"/>
+      <c r="AH103" s="93"/>
+      <c r="AI103" s="93"/>
+      <c r="AJ103" s="93"/>
+      <c r="AK103" s="93"/>
+      <c r="AL103" s="93"/>
+      <c r="AM103" s="93"/>
+      <c r="AN103" s="93"/>
+      <c r="AO103" s="93"/>
+      <c r="AP103" s="93"/>
+      <c r="AQ103" s="93"/>
+      <c r="AR103" s="93"/>
+      <c r="AS103" s="93"/>
+      <c r="AT103" s="93"/>
+      <c r="AU103" s="93"/>
+      <c r="AV103" s="93"/>
+      <c r="AW103" s="93"/>
+      <c r="AX103" s="93"/>
+      <c r="AY103" s="93"/>
+      <c r="AZ103" s="93"/>
+      <c r="BA103" s="93"/>
+      <c r="BB103" s="93"/>
+      <c r="BC103" s="93"/>
+      <c r="BD103" s="93"/>
+      <c r="BE103" s="93"/>
+      <c r="BF103" s="93"/>
+      <c r="BG103" s="93"/>
+      <c r="BH103" s="93"/>
+      <c r="BI103" s="93"/>
+      <c r="BJ103" s="93"/>
+      <c r="BK103" s="93"/>
+      <c r="BL103" s="93"/>
+      <c r="BM103" s="93"/>
+      <c r="BN103" s="93"/>
+      <c r="BO103" s="93"/>
+      <c r="BP103" s="93"/>
+      <c r="BQ103" s="93"/>
+      <c r="BR103" s="93"/>
+      <c r="BS103" s="93"/>
+      <c r="BT103" s="93"/>
+      <c r="BU103" s="93"/>
+      <c r="BV103" s="93"/>
+      <c r="BW103" s="93"/>
+      <c r="BX103" s="93"/>
+      <c r="BY103" s="93"/>
+      <c r="BZ103" s="93"/>
+      <c r="CA103" s="93"/>
+      <c r="CB103" s="93"/>
+      <c r="CC103" s="93"/>
+      <c r="CD103" s="93"/>
+      <c r="CE103" s="93"/>
+      <c r="CF103" s="93"/>
+      <c r="CG103" s="93"/>
+      <c r="CH103" s="93"/>
+      <c r="CI103" s="93"/>
+      <c r="CJ103" s="93"/>
+      <c r="CK103" s="93"/>
+      <c r="CL103" s="93"/>
+      <c r="CM103" s="93"/>
+      <c r="CN103" s="93"/>
+      <c r="CO103" s="93"/>
+      <c r="CP103" s="93"/>
+      <c r="CQ103" s="93"/>
+      <c r="CR103" s="93"/>
+      <c r="CS103" s="93"/>
+      <c r="CT103" s="93"/>
+      <c r="CU103" s="93"/>
+      <c r="CV103" s="93"/>
+      <c r="CW103" s="93"/>
+      <c r="CX103" s="93"/>
+      <c r="CY103" s="93"/>
+      <c r="CZ103" s="93"/>
+      <c r="DA103" s="93"/>
+      <c r="DB103" s="93"/>
+      <c r="DC103" s="93"/>
+      <c r="DD103" s="93"/>
+      <c r="DE103" s="93"/>
+      <c r="DF103" s="93"/>
+      <c r="DG103" s="93"/>
+      <c r="DH103" s="93"/>
+      <c r="DI103" s="93"/>
+      <c r="DJ103" s="93"/>
+      <c r="DK103" s="93"/>
+      <c r="DL103" s="93"/>
+      <c r="DM103" s="93"/>
+      <c r="DN103" s="93"/>
+      <c r="DO103" s="93"/>
+      <c r="DP103" s="93"/>
+      <c r="DQ103" s="93"/>
+      <c r="DR103" s="93"/>
+      <c r="DS103" s="93"/>
+      <c r="DT103" s="93"/>
+      <c r="DU103" s="93"/>
+      <c r="DV103" s="93"/>
+      <c r="DW103" s="93"/>
+      <c r="DX103" s="93"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="133">
-    <mergeCell ref="IQ10:IW10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="FD10:FJ10"/>
-    <mergeCell ref="CE10:CK10"/>
-    <mergeCell ref="CL10:CR10"/>
-    <mergeCell ref="CS10:CY10"/>
-    <mergeCell ref="CZ10:DF10"/>
-    <mergeCell ref="DG10:DM10"/>
-    <mergeCell ref="DN10:DT10"/>
-    <mergeCell ref="BQ10:BW10"/>
-    <mergeCell ref="BX10:CD10"/>
-    <mergeCell ref="AO10:AU10"/>
-    <mergeCell ref="AV10:BB10"/>
-    <mergeCell ref="BC10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="DU10:EA10"/>
-    <mergeCell ref="EB10:EH10"/>
-    <mergeCell ref="EI10:EO10"/>
-    <mergeCell ref="EP10:EV10"/>
-    <mergeCell ref="EW10:FC10"/>
+    <mergeCell ref="OA9:OG9"/>
+    <mergeCell ref="KN9:KT9"/>
+    <mergeCell ref="IX9:JD9"/>
+    <mergeCell ref="IQ9:IW9"/>
+    <mergeCell ref="IJ9:IP9"/>
+    <mergeCell ref="IC9:II9"/>
+    <mergeCell ref="HV9:IB9"/>
+    <mergeCell ref="HO9:HU9"/>
+    <mergeCell ref="HH9:HN9"/>
+    <mergeCell ref="JE9:JK9"/>
+    <mergeCell ref="JL9:JR9"/>
+    <mergeCell ref="JS9:JY9"/>
+    <mergeCell ref="JZ9:KF9"/>
+    <mergeCell ref="KG9:KM9"/>
+    <mergeCell ref="MY9:NE9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="OV10:PB10"/>
+    <mergeCell ref="OO10:OU10"/>
+    <mergeCell ref="OH10:ON10"/>
+    <mergeCell ref="OA10:OG10"/>
+    <mergeCell ref="NT10:NZ10"/>
+    <mergeCell ref="NM10:NS10"/>
+    <mergeCell ref="NF10:NL10"/>
+    <mergeCell ref="MY10:NE10"/>
+    <mergeCell ref="MR10:MX10"/>
+    <mergeCell ref="MK10:MQ10"/>
+    <mergeCell ref="MD10:MJ10"/>
+    <mergeCell ref="LW10:MC10"/>
+    <mergeCell ref="LP10:LV10"/>
+    <mergeCell ref="LI10:LO10"/>
+    <mergeCell ref="LB10:LH10"/>
+    <mergeCell ref="KU10:LA10"/>
+    <mergeCell ref="KN10:KT10"/>
+    <mergeCell ref="KG10:KM10"/>
+    <mergeCell ref="OO9:OU9"/>
+    <mergeCell ref="OH9:ON9"/>
+    <mergeCell ref="OV9:PB9"/>
+    <mergeCell ref="NF9:NL9"/>
+    <mergeCell ref="NM9:NS9"/>
+    <mergeCell ref="NT9:NZ9"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="BC9:BI9"/>
+    <mergeCell ref="BJ9:BP9"/>
+    <mergeCell ref="BQ9:BW9"/>
+    <mergeCell ref="BX9:CD9"/>
+    <mergeCell ref="CE9:CK9"/>
+    <mergeCell ref="CL9:CR9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:AU9"/>
+    <mergeCell ref="AV9:BB9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="EW9:FC9"/>
+    <mergeCell ref="FD9:FJ9"/>
+    <mergeCell ref="CS9:CY9"/>
+    <mergeCell ref="CZ9:DF9"/>
+    <mergeCell ref="DG9:DM9"/>
+    <mergeCell ref="DN9:DT9"/>
+    <mergeCell ref="DU9:EA9"/>
+    <mergeCell ref="EB9:EH9"/>
+    <mergeCell ref="EI9:EO9"/>
+    <mergeCell ref="EP9:EV9"/>
+    <mergeCell ref="HA9:HG9"/>
+    <mergeCell ref="GT9:GZ9"/>
+    <mergeCell ref="GM9:GS9"/>
+    <mergeCell ref="GF9:GL9"/>
+    <mergeCell ref="FY9:GE9"/>
+    <mergeCell ref="FR9:FX9"/>
+    <mergeCell ref="FK9:FQ9"/>
+    <mergeCell ref="MK9:MQ9"/>
+    <mergeCell ref="MR9:MX9"/>
+    <mergeCell ref="KU9:LA9"/>
+    <mergeCell ref="LB9:LH9"/>
+    <mergeCell ref="LI9:LO9"/>
+    <mergeCell ref="LP9:LV9"/>
+    <mergeCell ref="LW9:MC9"/>
+    <mergeCell ref="MD9:MJ9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="M10:S10"/>
@@ -45535,101 +48677,34 @@
     <mergeCell ref="JL10:JR10"/>
     <mergeCell ref="JE10:JK10"/>
     <mergeCell ref="IX10:JD10"/>
-    <mergeCell ref="HA9:HG9"/>
-    <mergeCell ref="GT9:GZ9"/>
-    <mergeCell ref="GM9:GS9"/>
-    <mergeCell ref="GF9:GL9"/>
-    <mergeCell ref="FY9:GE9"/>
-    <mergeCell ref="FR9:FX9"/>
-    <mergeCell ref="FK9:FQ9"/>
-    <mergeCell ref="MK9:MQ9"/>
-    <mergeCell ref="MR9:MX9"/>
-    <mergeCell ref="KU9:LA9"/>
-    <mergeCell ref="LB9:LH9"/>
-    <mergeCell ref="LI9:LO9"/>
-    <mergeCell ref="LP9:LV9"/>
-    <mergeCell ref="LW9:MC9"/>
-    <mergeCell ref="MD9:MJ9"/>
-    <mergeCell ref="EW9:FC9"/>
-    <mergeCell ref="FD9:FJ9"/>
-    <mergeCell ref="CS9:CY9"/>
-    <mergeCell ref="CZ9:DF9"/>
-    <mergeCell ref="DG9:DM9"/>
-    <mergeCell ref="DN9:DT9"/>
-    <mergeCell ref="DU9:EA9"/>
-    <mergeCell ref="EB9:EH9"/>
-    <mergeCell ref="EI9:EO9"/>
-    <mergeCell ref="EP9:EV9"/>
-    <mergeCell ref="OV9:PB9"/>
-    <mergeCell ref="NF9:NL9"/>
-    <mergeCell ref="NM9:NS9"/>
-    <mergeCell ref="NT9:NZ9"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="BC9:BI9"/>
-    <mergeCell ref="BJ9:BP9"/>
-    <mergeCell ref="BQ9:BW9"/>
-    <mergeCell ref="BX9:CD9"/>
-    <mergeCell ref="CE9:CK9"/>
-    <mergeCell ref="CL9:CR9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:AU9"/>
-    <mergeCell ref="AV9:BB9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="OV10:PB10"/>
-    <mergeCell ref="OO10:OU10"/>
-    <mergeCell ref="OH10:ON10"/>
-    <mergeCell ref="OA10:OG10"/>
-    <mergeCell ref="NT10:NZ10"/>
-    <mergeCell ref="NM10:NS10"/>
-    <mergeCell ref="NF10:NL10"/>
-    <mergeCell ref="MY10:NE10"/>
-    <mergeCell ref="MR10:MX10"/>
-    <mergeCell ref="MK10:MQ10"/>
-    <mergeCell ref="MD10:MJ10"/>
-    <mergeCell ref="LW10:MC10"/>
-    <mergeCell ref="LP10:LV10"/>
-    <mergeCell ref="LI10:LO10"/>
-    <mergeCell ref="LB10:LH10"/>
-    <mergeCell ref="KU10:LA10"/>
-    <mergeCell ref="KN10:KT10"/>
-    <mergeCell ref="KG10:KM10"/>
-    <mergeCell ref="OO9:OU9"/>
-    <mergeCell ref="OH9:ON9"/>
-    <mergeCell ref="OA9:OG9"/>
-    <mergeCell ref="KN9:KT9"/>
-    <mergeCell ref="IX9:JD9"/>
-    <mergeCell ref="IQ9:IW9"/>
-    <mergeCell ref="IJ9:IP9"/>
-    <mergeCell ref="IC9:II9"/>
-    <mergeCell ref="HV9:IB9"/>
-    <mergeCell ref="HO9:HU9"/>
-    <mergeCell ref="HH9:HN9"/>
-    <mergeCell ref="JE9:JK9"/>
-    <mergeCell ref="JL9:JR9"/>
-    <mergeCell ref="JS9:JY9"/>
-    <mergeCell ref="JZ9:KF9"/>
-    <mergeCell ref="KG9:KM9"/>
-    <mergeCell ref="MY9:NE9"/>
+    <mergeCell ref="IQ10:IW10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="FD10:FJ10"/>
+    <mergeCell ref="CE10:CK10"/>
+    <mergeCell ref="CL10:CR10"/>
+    <mergeCell ref="CS10:CY10"/>
+    <mergeCell ref="CZ10:DF10"/>
+    <mergeCell ref="DG10:DM10"/>
+    <mergeCell ref="DN10:DT10"/>
+    <mergeCell ref="BQ10:BW10"/>
+    <mergeCell ref="BX10:CD10"/>
+    <mergeCell ref="AO10:AU10"/>
+    <mergeCell ref="AV10:BB10"/>
+    <mergeCell ref="BC10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="DU10:EA10"/>
+    <mergeCell ref="EB10:EH10"/>
+    <mergeCell ref="EI10:EO10"/>
+    <mergeCell ref="EP10:EV10"/>
+    <mergeCell ref="EW10:FC10"/>
   </mergeCells>
   <conditionalFormatting sqref="M9:PB9">
     <cfRule type="expression" dxfId="203" priority="642">
       <formula>OR(TEXT(M9,"MMMM")="Februar",TEXT(M9,"MMMM")="April",TEXT(M9,"MMMM")="Juni",TEXT(M9,"MMMM")="August",TEXT(M9,"MMMM")="Oktober",TEXT(M9,"MMMM")="Dezember")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M64:PB83 M28:PB28 M30:PB32 M39:PB62 M86:PB94 M34:PB37">
+  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M68:PB90 M28:PB28 M30:PB32 M39:PB66 M93:PB101 M34:PB37">
     <cfRule type="expression" dxfId="202" priority="635">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
@@ -45655,7 +48730,7 @@
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB94">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB101">
     <cfRule type="expression" dxfId="196" priority="622">
       <formula>AND($I15=M$13,$J15&lt;&gt;"F",$I15&lt;TODAY())</formula>
     </cfRule>
@@ -45669,27 +48744,27 @@
       <formula>AND($G15&lt;&gt;"",AND(M$13&gt;=$E15,M$13&lt;=$G15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB94">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB101">
     <cfRule type="expression" dxfId="192" priority="632">
       <formula>AND($H15&gt;0,AND(M$13&gt;=$E15,M$13&lt;=$E15+($G15-$E15)*$H15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M64:PB83 M28:PB28 M30:PB32 M39:PB62 M86:PB94 M34:PB37">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M68:PB90 M28:PB28 M30:PB32 M39:PB66 M93:PB101 M34:PB37">
     <cfRule type="expression" dxfId="191" priority="643">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M64:PB83 M28:PB28 M30:PB32 M39:PB62 M34:PB37 M86:PB94">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M68:PB90 M28:PB28 M30:PB32 M39:PB66 M34:PB37 M93:PB101">
     <cfRule type="expression" dxfId="190" priority="630">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M64:PB83 M28:PB28 M30:PB32 M39:PB62 M86:PB94 M34:PB37">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M68:PB90 M28:PB28 M30:PB32 M39:PB66 M93:PB101 M34:PB37">
     <cfRule type="expression" dxfId="189" priority="641">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J18 I20:J26 I64:J64 I28:J28 I30:J32 I39:J39 I48:J62 I34:J37 I86:J94">
+  <conditionalFormatting sqref="I15:J18 I20:J26 I68:J68 I28:J28 I30:J32 I39:J39 I48:J66 I34:J37 I93:J101">
     <cfRule type="expression" dxfId="188" priority="623">
       <formula>AND($J15="F")</formula>
     </cfRule>
@@ -45713,7 +48788,7 @@
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L18 C64:L64 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C61:F62 H61:L62 G61:G63 C49:F49 H48:L49 C86:L94 C50:L60 C48:D48 F48">
+  <conditionalFormatting sqref="C15:L18 C68:L68 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C65:F66 H65:L66 G65:G67 C49:F50 H48:L50 C93:L101 C48:D48 F48 C51:L64">
     <cfRule type="expression" dxfId="182" priority="633">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
@@ -45770,123 +48845,123 @@
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M85:PB85">
+  <conditionalFormatting sqref="M92:PB92">
     <cfRule type="expression" dxfId="169" priority="337">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M85:PB85">
+  <conditionalFormatting sqref="M92:PB92">
     <cfRule type="expression" dxfId="168" priority="339">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M85:PB85">
+  <conditionalFormatting sqref="M92:PB92">
     <cfRule type="expression" dxfId="167" priority="332">
-      <formula>OR($C85="X",$C85="x")</formula>
+      <formula>OR($C92="X",$C92="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M85:PB85">
+  <conditionalFormatting sqref="M92:PB92">
     <cfRule type="expression" dxfId="166" priority="338">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85:J85">
+  <conditionalFormatting sqref="I92:J92">
     <cfRule type="expression" dxfId="165" priority="329">
-      <formula>AND($J85="F")</formula>
+      <formula>AND($J92="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="164" priority="330">
-      <formula>AND($I85&lt;&gt;"",AND($I85&lt;TODAY()))</formula>
+      <formula>AND($I92&lt;&gt;"",AND($I92&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C85 F85:L85">
+  <conditionalFormatting sqref="C92 F92:L92">
     <cfRule type="expression" dxfId="163" priority="335">
-      <formula>OR($C85="X",$C85="x")</formula>
+      <formula>OR($C92="X",$C92="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
+  <conditionalFormatting sqref="E92">
     <cfRule type="expression" dxfId="162" priority="327">
-      <formula>OR($C85="X",$C85="x")</formula>
+      <formula>OR($C92="X",$C92="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M84:PB84">
+  <conditionalFormatting sqref="M91:PB91">
     <cfRule type="expression" dxfId="161" priority="323">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M84:PB84">
+  <conditionalFormatting sqref="M91:PB91">
     <cfRule type="expression" dxfId="160" priority="325">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M84:PB84">
+  <conditionalFormatting sqref="M91:PB91">
     <cfRule type="expression" dxfId="159" priority="318">
-      <formula>OR($C84="X",$C84="x")</formula>
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M84:PB84">
+  <conditionalFormatting sqref="M91:PB91">
     <cfRule type="expression" dxfId="158" priority="324">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:J84">
+  <conditionalFormatting sqref="I91:J91">
     <cfRule type="expression" dxfId="157" priority="315">
-      <formula>AND($J84="F")</formula>
+      <formula>AND($J91="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="156" priority="316">
-      <formula>AND($I84&lt;&gt;"",AND($I84&lt;TODAY()))</formula>
+      <formula>AND($I91&lt;&gt;"",AND($I91&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84 F84:L84">
+  <conditionalFormatting sqref="C91 F91:L91">
     <cfRule type="expression" dxfId="155" priority="321">
-      <formula>OR($C84="X",$C84="x")</formula>
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E91">
     <cfRule type="expression" dxfId="154" priority="313">
-      <formula>OR($C84="X",$C84="x")</formula>
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
+  <conditionalFormatting sqref="D91">
     <cfRule type="expression" dxfId="153" priority="277">
-      <formula>OR($C84="X",$C84="x")</formula>
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
+  <conditionalFormatting sqref="D92">
     <cfRule type="expression" dxfId="152" priority="278">
-      <formula>OR($C85="X",$C85="x")</formula>
+      <formula>OR($C92="X",$C92="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M63:PB63">
+  <conditionalFormatting sqref="M67:PB67">
     <cfRule type="expression" dxfId="151" priority="274">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M63:PB63">
+  <conditionalFormatting sqref="M67:PB67">
     <cfRule type="expression" dxfId="150" priority="276">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M63:PB63">
+  <conditionalFormatting sqref="M67:PB67">
     <cfRule type="expression" dxfId="149" priority="269">
-      <formula>OR($C63="X",$C63="x")</formula>
+      <formula>OR($C67="X",$C67="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M63:PB63">
+  <conditionalFormatting sqref="M67:PB67">
     <cfRule type="expression" dxfId="148" priority="275">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I63:J63">
+  <conditionalFormatting sqref="I67:J67">
     <cfRule type="expression" dxfId="147" priority="266">
-      <formula>AND($J63="F")</formula>
+      <formula>AND($J67="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="146" priority="267">
-      <formula>AND($I63&lt;&gt;"",AND($I63&lt;TODAY()))</formula>
+      <formula>AND($I67&lt;&gt;"",AND($I67&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63:F63 H63:L63">
+  <conditionalFormatting sqref="C67:F67 H67:L67">
     <cfRule type="expression" dxfId="145" priority="272">
-      <formula>OR($C63="X",$C63="x")</formula>
+      <formula>OR($C67="X",$C67="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
@@ -46086,7 +49161,7 @@
       <formula>AND($I40&lt;&gt;"",AND($I40&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:L40 G49 G42:G43">
+  <conditionalFormatting sqref="C40:L40 G49:G50 G42:G43">
     <cfRule type="expression" dxfId="99" priority="112">
       <formula>OR($C40="X",$C40="x")</formula>
     </cfRule>
@@ -46104,260 +49179,260 @@
       <formula>OR($C41="X",$C41="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I65:J65">
+  <conditionalFormatting sqref="I69:J70">
     <cfRule type="expression" dxfId="95" priority="104">
-      <formula>AND($J65="F")</formula>
+      <formula>AND($J69="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="94" priority="105">
-      <formula>AND($I65&lt;&gt;"",AND($I65&lt;TODAY()))</formula>
+      <formula>AND($I69&lt;&gt;"",AND($I69&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C65 F65:L65 G66:G68 G70:G80">
+  <conditionalFormatting sqref="C69:C70 F69:L70 G71:G73 G75:G87">
     <cfRule type="expression" dxfId="93" priority="106">
-      <formula>OR($C65="X",$C65="x")</formula>
+      <formula>OR($C69="X",$C69="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E65">
+  <conditionalFormatting sqref="E69:E70">
     <cfRule type="expression" dxfId="92" priority="103">
-      <formula>OR($C65="X",$C65="x")</formula>
+      <formula>OR($C69="X",$C69="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65">
+  <conditionalFormatting sqref="D69:D70">
     <cfRule type="expression" dxfId="91" priority="102">
-      <formula>OR($C65="X",$C65="x")</formula>
+      <formula>OR($C69="X",$C69="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I68:J68 I83:J83 I70:J81">
+  <conditionalFormatting sqref="I73:J73 I90:J90 I75:J88">
     <cfRule type="expression" dxfId="90" priority="99">
-      <formula>AND($J68="F")</formula>
+      <formula>AND($J73="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="89" priority="100">
-      <formula>AND($I68&lt;&gt;"",AND($I68&lt;TODAY()))</formula>
+      <formula>AND($I73&lt;&gt;"",AND($I73&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C68 F83:L83 C83 G82 F81:L81 F80 H68:L68 H70:L80 C70:C81">
+  <conditionalFormatting sqref="C73 F90:L90 C90 G89 F88:L88 F87 H73:L73 H75:L87 C75:C88">
     <cfRule type="expression" dxfId="88" priority="101">
-      <formula>OR($C68="X",$C68="x")</formula>
+      <formula>OR($C73="X",$C73="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E81 E83">
+  <conditionalFormatting sqref="E87:E88 E90">
     <cfRule type="expression" dxfId="87" priority="98">
-      <formula>OR($C80="X",$C80="x")</formula>
+      <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:J67">
+  <conditionalFormatting sqref="I72:J72">
     <cfRule type="expression" dxfId="86" priority="95">
-      <formula>AND($J67="F")</formula>
+      <formula>AND($J72="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="85" priority="96">
-      <formula>AND($I67&lt;&gt;"",AND($I67&lt;TODAY()))</formula>
+      <formula>AND($I72&lt;&gt;"",AND($I72&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67 F67 H67:L67">
+  <conditionalFormatting sqref="C72 F72 H72:L72">
     <cfRule type="expression" dxfId="84" priority="97">
-      <formula>OR($C67="X",$C67="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E67">
-    <cfRule type="expression" dxfId="83" priority="94">
-      <formula>OR($C67="X",$C67="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D68 D83 D70:D81">
-    <cfRule type="expression" dxfId="82" priority="93">
-      <formula>OR($C68="X",$C68="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D67">
-    <cfRule type="expression" dxfId="81" priority="92">
-      <formula>OR($C67="X",$C67="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D66">
-    <cfRule type="expression" dxfId="80" priority="87">
-      <formula>OR($C66="X",$C66="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66:J66">
-    <cfRule type="expression" dxfId="79" priority="89">
-      <formula>AND($J66="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="90">
-      <formula>AND($I66&lt;&gt;"",AND($I66&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C66 F66 H66:L66">
-    <cfRule type="expression" dxfId="77" priority="91">
-      <formula>OR($C66="X",$C66="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E66">
-    <cfRule type="expression" dxfId="76" priority="88">
-      <formula>OR($C66="X",$C66="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I81:J81 I85:J85 I83:J83">
-    <cfRule type="expression" dxfId="75" priority="84">
-      <formula>AND($J81="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="85">
-      <formula>AND($I81&lt;&gt;"",AND($I81&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85:L85 C81:L81 C83:L83 G82">
-    <cfRule type="expression" dxfId="73" priority="86">
-      <formula>OR($C81="X",$C81="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I80:J80">
-    <cfRule type="expression" dxfId="72" priority="81">
-      <formula>AND($J80="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="71" priority="82">
-      <formula>AND($I80&lt;&gt;"",AND($I80&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80 F80 H80:L80">
-    <cfRule type="expression" dxfId="70" priority="83">
-      <formula>OR($C80="X",$C80="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="69" priority="80">
-      <formula>OR($C80="X",$C80="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I79:J79">
-    <cfRule type="expression" dxfId="68" priority="77">
-      <formula>AND($J79="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="78">
-      <formula>AND($I79&lt;&gt;"",AND($I79&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C79 H79:L79">
-    <cfRule type="expression" dxfId="66" priority="79">
-      <formula>OR($C79="X",$C79="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:J78">
-    <cfRule type="expression" dxfId="65" priority="73">
-      <formula>AND($J78="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="74">
-      <formula>AND($I78&lt;&gt;"",AND($I78&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C78 H78:L78">
-    <cfRule type="expression" dxfId="63" priority="75">
-      <formula>OR($C78="X",$C78="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70:J77">
-    <cfRule type="expression" dxfId="62" priority="69">
-      <formula>AND($J70="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="70">
-      <formula>AND($I70&lt;&gt;"",AND($I70&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70:C77 H70:L77">
-    <cfRule type="expression" dxfId="60" priority="71">
-      <formula>OR($C70="X",$C70="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D78">
-    <cfRule type="expression" dxfId="59" priority="62">
-      <formula>OR($C78="X",$C78="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="expression" dxfId="58" priority="40">
       <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D80">
-    <cfRule type="expression" dxfId="57" priority="63">
-      <formula>OR($C80="X",$C80="x")</formula>
+  <conditionalFormatting sqref="E72">
+    <cfRule type="expression" dxfId="83" priority="94">
+      <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D79">
-    <cfRule type="expression" dxfId="56" priority="61">
-      <formula>OR($C79="X",$C79="x")</formula>
+  <conditionalFormatting sqref="D73 D90 D75:D88">
+    <cfRule type="expression" dxfId="82" priority="93">
+      <formula>OR($C73="X",$C73="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D77">
-    <cfRule type="expression" dxfId="55" priority="60">
-      <formula>OR($C70="X",$C70="x")</formula>
+  <conditionalFormatting sqref="D72">
+    <cfRule type="expression" dxfId="81" priority="92">
+      <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84:J84">
+  <conditionalFormatting sqref="D71">
+    <cfRule type="expression" dxfId="80" priority="87">
+      <formula>OR($C71="X",$C71="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I71:J71">
+    <cfRule type="expression" dxfId="79" priority="89">
+      <formula>AND($J71="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="90">
+      <formula>AND($I71&lt;&gt;"",AND($I71&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71 F71 H71:L71">
+    <cfRule type="expression" dxfId="77" priority="91">
+      <formula>OR($C71="X",$C71="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71">
+    <cfRule type="expression" dxfId="76" priority="88">
+      <formula>OR($C71="X",$C71="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I88:J88 I92:J92 I90:J90">
+    <cfRule type="expression" dxfId="75" priority="84">
+      <formula>AND($J88="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="85">
+      <formula>AND($I88&lt;&gt;"",AND($I88&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:L92 C88:L88 C90:L90 G89">
+    <cfRule type="expression" dxfId="73" priority="86">
+      <formula>OR($C88="X",$C88="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I87:J87">
+    <cfRule type="expression" dxfId="72" priority="81">
+      <formula>AND($J87="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="82">
+      <formula>AND($I87&lt;&gt;"",AND($I87&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87 F87 H87:L87">
+    <cfRule type="expression" dxfId="70" priority="83">
+      <formula>OR($C87="X",$C87="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="69" priority="80">
+      <formula>OR($C87="X",$C87="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I86:J86">
+    <cfRule type="expression" dxfId="68" priority="77">
+      <formula>AND($J86="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="78">
+      <formula>AND($I86&lt;&gt;"",AND($I86&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86 H86:L86">
+    <cfRule type="expression" dxfId="66" priority="79">
+      <formula>OR($C86="X",$C86="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85:J85">
+    <cfRule type="expression" dxfId="65" priority="73">
+      <formula>AND($J85="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="74">
+      <formula>AND($I85&lt;&gt;"",AND($I85&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85 H85:L85">
+    <cfRule type="expression" dxfId="63" priority="75">
+      <formula>OR($C85="X",$C85="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I75:J84">
+    <cfRule type="expression" dxfId="62" priority="69">
+      <formula>AND($J75="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="70">
+      <formula>AND($I75&lt;&gt;"",AND($I75&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C75:C84 H75:L84">
+    <cfRule type="expression" dxfId="60" priority="71">
+      <formula>OR($C75="X",$C75="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="expression" dxfId="59" priority="62">
+      <formula>OR($C85="X",$C85="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77:H79">
+    <cfRule type="expression" dxfId="58" priority="40">
+      <formula>OR($C77="X",$C77="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="expression" dxfId="57" priority="63">
+      <formula>OR($C87="X",$C87="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="expression" dxfId="56" priority="61">
+      <formula>OR($C86="X",$C86="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75:D84">
+    <cfRule type="expression" dxfId="55" priority="60">
+      <formula>OR($C75="X",$C75="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91:J91">
     <cfRule type="expression" dxfId="54" priority="56">
-      <formula>AND($J84="F")</formula>
+      <formula>AND($J91="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="53" priority="57">
-      <formula>AND($I84&lt;&gt;"",AND($I84&lt;TODAY()))</formula>
+      <formula>AND($I91&lt;&gt;"",AND($I91&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84 F84:L84">
+  <conditionalFormatting sqref="C91 F91:L91">
     <cfRule type="expression" dxfId="52" priority="58">
-      <formula>OR($C84="X",$C84="x")</formula>
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
+  <conditionalFormatting sqref="E91">
     <cfRule type="expression" dxfId="51" priority="55">
-      <formula>OR($C84="X",$C84="x")</formula>
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
+  <conditionalFormatting sqref="D91">
     <cfRule type="expression" dxfId="50" priority="54">
-      <formula>OR($C84="X",$C84="x")</formula>
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:J82">
+  <conditionalFormatting sqref="I89:J89">
     <cfRule type="expression" dxfId="49" priority="51">
-      <formula>AND($J82="F")</formula>
+      <formula>AND($J89="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="52">
-      <formula>AND($I82&lt;&gt;"",AND($I82&lt;TODAY()))</formula>
+      <formula>AND($I89&lt;&gt;"",AND($I89&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82 F82 H82:L82">
+  <conditionalFormatting sqref="C89 F89 H89:L89">
     <cfRule type="expression" dxfId="47" priority="53">
-      <formula>OR($C82="X",$C82="x")</formula>
+      <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E89">
     <cfRule type="expression" dxfId="46" priority="50">
-      <formula>OR($C82="X",$C82="x")</formula>
+      <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
+  <conditionalFormatting sqref="D89">
     <cfRule type="expression" dxfId="45" priority="49">
-      <formula>OR($C82="X",$C82="x")</formula>
+      <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:J82">
+  <conditionalFormatting sqref="I89:J89">
     <cfRule type="expression" dxfId="44" priority="46">
-      <formula>AND($J82="F")</formula>
+      <formula>AND($J89="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="43" priority="47">
-      <formula>AND($I82&lt;&gt;"",AND($I82&lt;TODAY()))</formula>
+      <formula>AND($I89&lt;&gt;"",AND($I89&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82 F82 H82:L82">
+  <conditionalFormatting sqref="C89 F89 H89:L89">
     <cfRule type="expression" dxfId="42" priority="48">
-      <formula>OR($C82="X",$C82="x")</formula>
+      <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
+  <conditionalFormatting sqref="E89">
     <cfRule type="expression" dxfId="41" priority="45">
-      <formula>OR($C82="X",$C82="x")</formula>
+      <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82">
+  <conditionalFormatting sqref="D89">
     <cfRule type="expression" dxfId="40" priority="44">
-      <formula>OR($C82="X",$C82="x")</formula>
+      <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:J47">
@@ -46373,129 +49448,129 @@
       <formula>OR($C42="X",$C42="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H80">
     <cfRule type="expression" dxfId="36" priority="39">
-      <formula>OR($C73="X",$C73="x")</formula>
+      <formula>OR($C80="X",$C80="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H81">
     <cfRule type="expression" dxfId="35" priority="38">
-      <formula>OR($C74="X",$C74="x")</formula>
+      <formula>OR($C81="X",$C81="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H81">
     <cfRule type="expression" dxfId="34" priority="37">
-      <formula>OR($C74="X",$C74="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="expression" dxfId="33" priority="36">
-      <formula>OR($C68="X",$C68="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="expression" dxfId="32" priority="35">
-      <formula>OR($C68="X",$C68="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F70">
-    <cfRule type="expression" dxfId="31" priority="34">
-      <formula>OR($C70="X",$C70="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E70">
-    <cfRule type="expression" dxfId="30" priority="33">
-      <formula>OR($C70="X",$C70="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>OR($C71="X",$C71="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>OR($C71="X",$C71="x")</formula>
+      <formula>OR($C81="X",$C81="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="expression" dxfId="27" priority="28">
+    <cfRule type="expression" dxfId="33" priority="36">
       <formula>OR($C73="X",$C73="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="32" priority="35">
       <formula>OR($C73="X",$C73="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F72">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>OR($C72="X",$C72="x")</formula>
+  <conditionalFormatting sqref="F75">
+    <cfRule type="expression" dxfId="31" priority="34">
+      <formula>OR($C75="X",$C75="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>OR($C72="X",$C72="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>OR($C74="X",$C74="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>OR($C74="X",$C74="x")</formula>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="30" priority="33">
+      <formula>OR($C75="X",$C75="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>OR($C76="X",$C76="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>OR($C76="X",$C76="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>OR($C75="X",$C75="x")</formula>
+  <conditionalFormatting sqref="F80">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>OR($C80="X",$C80="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>OR($C75="X",$C75="x")</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>OR($C80="X",$C80="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
-    <cfRule type="expression" dxfId="17" priority="18">
+  <conditionalFormatting sqref="F77:F79">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>OR($C77="X",$C77="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
-    <cfRule type="expression" dxfId="16" priority="17">
+  <conditionalFormatting sqref="E77:E79">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>OR($C77="X",$C77="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>OR($C79="X",$C79="x")</formula>
+  <conditionalFormatting sqref="F81">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>OR($C81="X",$C81="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>OR($C79="X",$C79="x")</formula>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>OR($C81="X",$C81="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>OR($C78="X",$C78="x")</formula>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>OR($C83="X",$C83="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F82">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>OR($C82="X",$C82="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E82">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>OR($C82="X",$C82="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>OR($C84="X",$C84="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>OR($C84="X",$C84="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>OR($C86="X",$C86="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>OR($C86="X",$C86="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>OR($C85="X",$C85="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>OR($C78="X",$C78="x")</formula>
+      <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
@@ -46503,55 +49578,55 @@
       <formula>OR($C48="X",$C48="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69">
+  <conditionalFormatting sqref="G74">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>OR($C69="X",$C69="x")</formula>
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:J69">
+  <conditionalFormatting sqref="I74:J74">
     <cfRule type="expression" dxfId="9" priority="8">
-      <formula>AND($J69="F")</formula>
+      <formula>AND($J74="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>AND($I69&lt;&gt;"",AND($I69&lt;TODAY()))</formula>
+      <formula>AND($I74&lt;&gt;"",AND($I74&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:L69 C69">
+  <conditionalFormatting sqref="H74:L74 C74">
     <cfRule type="expression" dxfId="7" priority="10">
-      <formula>OR($C69="X",$C69="x")</formula>
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="D74">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>OR($C69="X",$C69="x")</formula>
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:J69">
+  <conditionalFormatting sqref="I74:J74">
     <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND($J69="F")</formula>
+      <formula>AND($J74="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND($I69&lt;&gt;"",AND($I69&lt;TODAY()))</formula>
+      <formula>AND($I74&lt;&gt;"",AND($I74&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69 H69:L69">
+  <conditionalFormatting sqref="C74 H74:L74">
     <cfRule type="expression" dxfId="3" priority="6">
-      <formula>OR($C69="X",$C69="x")</formula>
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D69">
+  <conditionalFormatting sqref="D74">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>OR($C69="X",$C69="x")</formula>
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="F74">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>OR($C69="X",$C69="x")</formula>
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
+  <conditionalFormatting sqref="E74">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($C69="X",$C69="x")</formula>
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
+++ b/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
   <si>
     <t>Pos.</t>
   </si>
@@ -323,13 +323,7 @@
     <t>Zwischenpräsentation</t>
   </si>
   <si>
-    <t>Abschlusspäsentaton provisorisch</t>
-  </si>
-  <si>
     <t>Dokumentation</t>
-  </si>
-  <si>
-    <t>Poster</t>
   </si>
   <si>
     <t>Projektplanung Industriearbeit</t>
@@ -484,16 +478,10 @@
     <t>Simulation VLP-16 des mittels Rviz, Gromeo</t>
   </si>
   <si>
-    <t xml:space="preserve">Einführung OnShape </t>
-  </si>
-  <si>
     <t>Besrepchung mit Dr. Jensen/ Dr. Nussbaumer</t>
   </si>
   <si>
     <t>Abschlusspäsentaton vorbereiten</t>
-  </si>
-  <si>
-    <t>V2.0</t>
   </si>
   <si>
     <t>Komponentenliste &amp; Bestellungen</t>
@@ -533,9 +521,6 @@
   </si>
   <si>
     <t>Dreh-Messaufbau erstellen &amp; Messungen</t>
-  </si>
-  <si>
-    <t>Variante 2: Plattform erarbeiten /abgeb</t>
   </si>
   <si>
     <t>Variante 3: Turm (Elektronik dreh.)</t>
@@ -584,6 +569,33 @@
   </si>
   <si>
     <t>Gehäuse zusammenbauen</t>
+  </si>
+  <si>
+    <t>V3.0</t>
+  </si>
+  <si>
+    <t>Software Grobkonstruktion</t>
+  </si>
+  <si>
+    <t>Einführung OnShape CAD</t>
+  </si>
+  <si>
+    <t>Abschlusspäsentaton</t>
+  </si>
+  <si>
+    <t>Gerätedemonstation vorbereiten</t>
+  </si>
+  <si>
+    <t>Motoransteuerung implementieren</t>
+  </si>
+  <si>
+    <t>Motor hinzufügen</t>
+  </si>
+  <si>
+    <t>Variante 2: Plattform erarbeiten /abgbr.</t>
+  </si>
+  <si>
+    <t>Überarbeitung nach Zwischenpräsentation</t>
   </si>
 </sst>
 </file>
@@ -854,7 +866,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -936,6 +948,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,7 +1515,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1843,40 +1861,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1887,14 +1874,22 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1912,6 +1907,24 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1963,21 +1976,64 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="30" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="15" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="15" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="15" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="15" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1986,7 +2042,175 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="204">
+  <dxfs count="222">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -3962,8 +4186,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FFFF3300"/>
       <color rgb="FF71AF47"/>
       <color rgb="FFFFF8E5"/>
       <color rgb="FFDEDEDE"/>
@@ -4286,13 +4510,13 @@
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:PB103"/>
+  <dimension ref="A1:PB109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="12" ySplit="14" topLeftCell="M38" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="12" ySplit="14" topLeftCell="BE30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4315,47 +4539,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
+      <c r="B1" s="124" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="6"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="145" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="146"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11" t="s">
@@ -4371,18 +4595,18 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="126" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="127"/>
+      <c r="B4" s="116" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="119" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="120"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
@@ -4393,18 +4617,18 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="124"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="127"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="120"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="13" t="s">
@@ -4415,18 +4639,18 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="117"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="124"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="128" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="128"/>
-      <c r="G6" s="128"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
@@ -4434,1232 +4658,1232 @@
       </c>
     </row>
     <row r="7" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="130" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="131"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="133" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="134"/>
+      <c r="B7" s="129" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="130"/>
+      <c r="D7" s="131"/>
+      <c r="E7" s="132" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
+      <c r="I7" s="133"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="2:418" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="139"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="136"/>
+      <c r="B8" s="138"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
+      <c r="H8" s="134"/>
+      <c r="I8" s="135"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
       <c r="L8" s="20"/>
       <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="116"/>
+      <c r="C9" s="146"/>
       <c r="D9" s="22">
         <f ca="1">TODAY()</f>
-        <v>43041</v>
-      </c>
-      <c r="E9" s="137"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="138"/>
+        <v>43052</v>
+      </c>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="17"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="120" t="str">
+      <c r="M9" s="126" t="str">
         <f>TEXT(P13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="118"/>
-      <c r="R9" s="118"/>
-      <c r="S9" s="119"/>
-      <c r="T9" s="120" t="str">
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="109"/>
+      <c r="R9" s="109"/>
+      <c r="S9" s="110"/>
+      <c r="T9" s="126" t="str">
         <f>TEXT(W13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="U9" s="118"/>
-      <c r="V9" s="118"/>
-      <c r="W9" s="118"/>
-      <c r="X9" s="118"/>
-      <c r="Y9" s="118"/>
-      <c r="Z9" s="119"/>
-      <c r="AA9" s="120" t="str">
+      <c r="U9" s="109"/>
+      <c r="V9" s="109"/>
+      <c r="W9" s="109"/>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="126" t="str">
         <f t="shared" ref="AA9" si="0">TEXT(AD13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AB9" s="118"/>
-      <c r="AC9" s="118"/>
-      <c r="AD9" s="118"/>
-      <c r="AE9" s="118"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="119"/>
-      <c r="AH9" s="120" t="str">
+      <c r="AB9" s="109"/>
+      <c r="AC9" s="109"/>
+      <c r="AD9" s="109"/>
+      <c r="AE9" s="109"/>
+      <c r="AF9" s="109"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="126" t="str">
         <f t="shared" ref="AH9" si="1">TEXT(AK13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AI9" s="118"/>
-      <c r="AJ9" s="118"/>
-      <c r="AK9" s="118"/>
-      <c r="AL9" s="118"/>
-      <c r="AM9" s="118"/>
-      <c r="AN9" s="119"/>
-      <c r="AO9" s="120" t="str">
+      <c r="AI9" s="109"/>
+      <c r="AJ9" s="109"/>
+      <c r="AK9" s="109"/>
+      <c r="AL9" s="109"/>
+      <c r="AM9" s="109"/>
+      <c r="AN9" s="110"/>
+      <c r="AO9" s="126" t="str">
         <f t="shared" ref="AO9" si="2">TEXT(AR13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AP9" s="118"/>
-      <c r="AQ9" s="118"/>
-      <c r="AR9" s="118"/>
-      <c r="AS9" s="118"/>
-      <c r="AT9" s="118"/>
-      <c r="AU9" s="119"/>
-      <c r="AV9" s="120" t="str">
+      <c r="AP9" s="109"/>
+      <c r="AQ9" s="109"/>
+      <c r="AR9" s="109"/>
+      <c r="AS9" s="109"/>
+      <c r="AT9" s="109"/>
+      <c r="AU9" s="110"/>
+      <c r="AV9" s="126" t="str">
         <f t="shared" ref="AV9" si="3">TEXT(AY13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AW9" s="118"/>
-      <c r="AX9" s="118"/>
-      <c r="AY9" s="118"/>
-      <c r="AZ9" s="118"/>
-      <c r="BA9" s="118"/>
-      <c r="BB9" s="119"/>
-      <c r="BC9" s="120" t="str">
+      <c r="AW9" s="109"/>
+      <c r="AX9" s="109"/>
+      <c r="AY9" s="109"/>
+      <c r="AZ9" s="109"/>
+      <c r="BA9" s="109"/>
+      <c r="BB9" s="110"/>
+      <c r="BC9" s="126" t="str">
         <f t="shared" ref="BC9" si="4">TEXT(BF13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BD9" s="118"/>
-      <c r="BE9" s="118"/>
-      <c r="BF9" s="118"/>
-      <c r="BG9" s="118"/>
-      <c r="BH9" s="118"/>
-      <c r="BI9" s="119"/>
-      <c r="BJ9" s="120" t="str">
+      <c r="BD9" s="109"/>
+      <c r="BE9" s="109"/>
+      <c r="BF9" s="109"/>
+      <c r="BG9" s="109"/>
+      <c r="BH9" s="109"/>
+      <c r="BI9" s="110"/>
+      <c r="BJ9" s="126" t="str">
         <f t="shared" ref="BJ9" si="5">TEXT(BM13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BK9" s="118"/>
-      <c r="BL9" s="118"/>
-      <c r="BM9" s="118"/>
-      <c r="BN9" s="118"/>
-      <c r="BO9" s="118"/>
-      <c r="BP9" s="119"/>
-      <c r="BQ9" s="120" t="str">
+      <c r="BK9" s="109"/>
+      <c r="BL9" s="109"/>
+      <c r="BM9" s="109"/>
+      <c r="BN9" s="109"/>
+      <c r="BO9" s="109"/>
+      <c r="BP9" s="110"/>
+      <c r="BQ9" s="126" t="str">
         <f t="shared" ref="BQ9" si="6">TEXT(BT13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BR9" s="118"/>
-      <c r="BS9" s="118"/>
-      <c r="BT9" s="118"/>
-      <c r="BU9" s="118"/>
-      <c r="BV9" s="118"/>
-      <c r="BW9" s="119"/>
-      <c r="BX9" s="120" t="str">
+      <c r="BR9" s="109"/>
+      <c r="BS9" s="109"/>
+      <c r="BT9" s="109"/>
+      <c r="BU9" s="109"/>
+      <c r="BV9" s="109"/>
+      <c r="BW9" s="110"/>
+      <c r="BX9" s="126" t="str">
         <f t="shared" ref="BX9" si="7">TEXT(CA13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BY9" s="118"/>
-      <c r="BZ9" s="118"/>
-      <c r="CA9" s="118"/>
-      <c r="CB9" s="118"/>
-      <c r="CC9" s="118"/>
-      <c r="CD9" s="119"/>
-      <c r="CE9" s="120" t="str">
+      <c r="BY9" s="109"/>
+      <c r="BZ9" s="109"/>
+      <c r="CA9" s="109"/>
+      <c r="CB9" s="109"/>
+      <c r="CC9" s="109"/>
+      <c r="CD9" s="110"/>
+      <c r="CE9" s="126" t="str">
         <f t="shared" ref="CE9" si="8">TEXT(CH13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="CF9" s="118"/>
-      <c r="CG9" s="118"/>
-      <c r="CH9" s="118"/>
-      <c r="CI9" s="118"/>
-      <c r="CJ9" s="118"/>
-      <c r="CK9" s="119"/>
-      <c r="CL9" s="120" t="str">
+      <c r="CF9" s="109"/>
+      <c r="CG9" s="109"/>
+      <c r="CH9" s="109"/>
+      <c r="CI9" s="109"/>
+      <c r="CJ9" s="109"/>
+      <c r="CK9" s="110"/>
+      <c r="CL9" s="126" t="str">
         <f t="shared" ref="CL9" si="9">TEXT(CO13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CM9" s="118"/>
-      <c r="CN9" s="118"/>
-      <c r="CO9" s="118"/>
-      <c r="CP9" s="118"/>
-      <c r="CQ9" s="118"/>
-      <c r="CR9" s="119"/>
-      <c r="CS9" s="120" t="str">
+      <c r="CM9" s="109"/>
+      <c r="CN9" s="109"/>
+      <c r="CO9" s="109"/>
+      <c r="CP9" s="109"/>
+      <c r="CQ9" s="109"/>
+      <c r="CR9" s="110"/>
+      <c r="CS9" s="126" t="str">
         <f t="shared" ref="CS9" si="10">TEXT(CV13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CT9" s="118"/>
-      <c r="CU9" s="118"/>
-      <c r="CV9" s="118"/>
-      <c r="CW9" s="118"/>
-      <c r="CX9" s="118"/>
-      <c r="CY9" s="119"/>
-      <c r="CZ9" s="120" t="str">
+      <c r="CT9" s="109"/>
+      <c r="CU9" s="109"/>
+      <c r="CV9" s="109"/>
+      <c r="CW9" s="109"/>
+      <c r="CX9" s="109"/>
+      <c r="CY9" s="110"/>
+      <c r="CZ9" s="126" t="str">
         <f t="shared" ref="CZ9" si="11">TEXT(DC13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DA9" s="118"/>
-      <c r="DB9" s="118"/>
-      <c r="DC9" s="118"/>
-      <c r="DD9" s="118"/>
-      <c r="DE9" s="118"/>
-      <c r="DF9" s="119"/>
-      <c r="DG9" s="120" t="str">
+      <c r="DA9" s="109"/>
+      <c r="DB9" s="109"/>
+      <c r="DC9" s="109"/>
+      <c r="DD9" s="109"/>
+      <c r="DE9" s="109"/>
+      <c r="DF9" s="110"/>
+      <c r="DG9" s="126" t="str">
         <f t="shared" ref="DG9" si="12">TEXT(DJ13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DH9" s="118"/>
-      <c r="DI9" s="118"/>
-      <c r="DJ9" s="118"/>
-      <c r="DK9" s="118"/>
-      <c r="DL9" s="118"/>
-      <c r="DM9" s="119"/>
-      <c r="DN9" s="120" t="str">
+      <c r="DH9" s="109"/>
+      <c r="DI9" s="109"/>
+      <c r="DJ9" s="109"/>
+      <c r="DK9" s="109"/>
+      <c r="DL9" s="109"/>
+      <c r="DM9" s="110"/>
+      <c r="DN9" s="126" t="str">
         <f t="shared" ref="DN9" si="13">TEXT(DQ13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DO9" s="118"/>
-      <c r="DP9" s="118"/>
-      <c r="DQ9" s="118"/>
-      <c r="DR9" s="118"/>
-      <c r="DS9" s="118"/>
-      <c r="DT9" s="119"/>
-      <c r="DU9" s="120" t="str">
+      <c r="DO9" s="109"/>
+      <c r="DP9" s="109"/>
+      <c r="DQ9" s="109"/>
+      <c r="DR9" s="109"/>
+      <c r="DS9" s="109"/>
+      <c r="DT9" s="110"/>
+      <c r="DU9" s="126" t="str">
         <f t="shared" ref="DU9" si="14">TEXT(DX13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DV9" s="118"/>
-      <c r="DW9" s="118"/>
-      <c r="DX9" s="118"/>
-      <c r="DY9" s="118"/>
-      <c r="DZ9" s="118"/>
-      <c r="EA9" s="119"/>
-      <c r="EB9" s="120" t="str">
+      <c r="DV9" s="109"/>
+      <c r="DW9" s="109"/>
+      <c r="DX9" s="109"/>
+      <c r="DY9" s="109"/>
+      <c r="DZ9" s="109"/>
+      <c r="EA9" s="110"/>
+      <c r="EB9" s="126" t="str">
         <f t="shared" ref="EB9" si="15">TEXT(EE13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EC9" s="118"/>
-      <c r="ED9" s="118"/>
-      <c r="EE9" s="118"/>
-      <c r="EF9" s="118"/>
-      <c r="EG9" s="118"/>
-      <c r="EH9" s="119"/>
-      <c r="EI9" s="120" t="str">
+      <c r="EC9" s="109"/>
+      <c r="ED9" s="109"/>
+      <c r="EE9" s="109"/>
+      <c r="EF9" s="109"/>
+      <c r="EG9" s="109"/>
+      <c r="EH9" s="110"/>
+      <c r="EI9" s="126" t="str">
         <f t="shared" ref="EI9" si="16">TEXT(EL13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EJ9" s="118"/>
-      <c r="EK9" s="118"/>
-      <c r="EL9" s="118"/>
-      <c r="EM9" s="118"/>
-      <c r="EN9" s="118"/>
-      <c r="EO9" s="119"/>
-      <c r="EP9" s="120" t="str">
+      <c r="EJ9" s="109"/>
+      <c r="EK9" s="109"/>
+      <c r="EL9" s="109"/>
+      <c r="EM9" s="109"/>
+      <c r="EN9" s="109"/>
+      <c r="EO9" s="110"/>
+      <c r="EP9" s="126" t="str">
         <f t="shared" ref="EP9" si="17">TEXT(ES13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EQ9" s="118"/>
-      <c r="ER9" s="118"/>
-      <c r="ES9" s="118"/>
-      <c r="ET9" s="118"/>
-      <c r="EU9" s="118"/>
-      <c r="EV9" s="119"/>
-      <c r="EW9" s="120" t="str">
+      <c r="EQ9" s="109"/>
+      <c r="ER9" s="109"/>
+      <c r="ES9" s="109"/>
+      <c r="ET9" s="109"/>
+      <c r="EU9" s="109"/>
+      <c r="EV9" s="110"/>
+      <c r="EW9" s="126" t="str">
         <f t="shared" ref="EW9" si="18">TEXT(EZ13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EX9" s="118"/>
-      <c r="EY9" s="118"/>
-      <c r="EZ9" s="118"/>
-      <c r="FA9" s="118"/>
-      <c r="FB9" s="118"/>
-      <c r="FC9" s="119"/>
-      <c r="FD9" s="120" t="str">
+      <c r="EX9" s="109"/>
+      <c r="EY9" s="109"/>
+      <c r="EZ9" s="109"/>
+      <c r="FA9" s="109"/>
+      <c r="FB9" s="109"/>
+      <c r="FC9" s="110"/>
+      <c r="FD9" s="126" t="str">
         <f t="shared" ref="FD9" si="19">TEXT(FG13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FE9" s="118"/>
-      <c r="FF9" s="118"/>
-      <c r="FG9" s="118"/>
-      <c r="FH9" s="118"/>
-      <c r="FI9" s="118"/>
-      <c r="FJ9" s="119"/>
-      <c r="FK9" s="117" t="str">
+      <c r="FE9" s="109"/>
+      <c r="FF9" s="109"/>
+      <c r="FG9" s="109"/>
+      <c r="FH9" s="109"/>
+      <c r="FI9" s="109"/>
+      <c r="FJ9" s="110"/>
+      <c r="FK9" s="108" t="str">
         <f t="shared" ref="FK9" si="20">TEXT(FN13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FL9" s="118"/>
-      <c r="FM9" s="118"/>
-      <c r="FN9" s="118"/>
-      <c r="FO9" s="118"/>
-      <c r="FP9" s="118"/>
-      <c r="FQ9" s="119"/>
-      <c r="FR9" s="117" t="str">
+      <c r="FL9" s="109"/>
+      <c r="FM9" s="109"/>
+      <c r="FN9" s="109"/>
+      <c r="FO9" s="109"/>
+      <c r="FP9" s="109"/>
+      <c r="FQ9" s="110"/>
+      <c r="FR9" s="108" t="str">
         <f t="shared" ref="FR9" si="21">TEXT(FU13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FS9" s="118"/>
-      <c r="FT9" s="118"/>
-      <c r="FU9" s="118"/>
-      <c r="FV9" s="118"/>
-      <c r="FW9" s="118"/>
-      <c r="FX9" s="119"/>
-      <c r="FY9" s="117" t="str">
+      <c r="FS9" s="109"/>
+      <c r="FT9" s="109"/>
+      <c r="FU9" s="109"/>
+      <c r="FV9" s="109"/>
+      <c r="FW9" s="109"/>
+      <c r="FX9" s="110"/>
+      <c r="FY9" s="108" t="str">
         <f t="shared" ref="FY9" si="22">TEXT(GB13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FZ9" s="118"/>
-      <c r="GA9" s="118"/>
-      <c r="GB9" s="118"/>
-      <c r="GC9" s="118"/>
-      <c r="GD9" s="118"/>
-      <c r="GE9" s="119"/>
-      <c r="GF9" s="117" t="str">
+      <c r="FZ9" s="109"/>
+      <c r="GA9" s="109"/>
+      <c r="GB9" s="109"/>
+      <c r="GC9" s="109"/>
+      <c r="GD9" s="109"/>
+      <c r="GE9" s="110"/>
+      <c r="GF9" s="108" t="str">
         <f t="shared" ref="GF9" si="23">TEXT(GI13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GG9" s="118"/>
-      <c r="GH9" s="118"/>
-      <c r="GI9" s="118"/>
-      <c r="GJ9" s="118"/>
-      <c r="GK9" s="118"/>
-      <c r="GL9" s="119"/>
-      <c r="GM9" s="117" t="str">
+      <c r="GG9" s="109"/>
+      <c r="GH9" s="109"/>
+      <c r="GI9" s="109"/>
+      <c r="GJ9" s="109"/>
+      <c r="GK9" s="109"/>
+      <c r="GL9" s="110"/>
+      <c r="GM9" s="108" t="str">
         <f t="shared" ref="GM9" si="24">TEXT(GP13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GN9" s="118"/>
-      <c r="GO9" s="118"/>
-      <c r="GP9" s="118"/>
-      <c r="GQ9" s="118"/>
-      <c r="GR9" s="118"/>
-      <c r="GS9" s="119"/>
-      <c r="GT9" s="117" t="str">
+      <c r="GN9" s="109"/>
+      <c r="GO9" s="109"/>
+      <c r="GP9" s="109"/>
+      <c r="GQ9" s="109"/>
+      <c r="GR9" s="109"/>
+      <c r="GS9" s="110"/>
+      <c r="GT9" s="108" t="str">
         <f t="shared" ref="GT9" si="25">TEXT(GW13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GU9" s="118"/>
-      <c r="GV9" s="118"/>
-      <c r="GW9" s="118"/>
-      <c r="GX9" s="118"/>
-      <c r="GY9" s="118"/>
-      <c r="GZ9" s="119"/>
-      <c r="HA9" s="117" t="str">
+      <c r="GU9" s="109"/>
+      <c r="GV9" s="109"/>
+      <c r="GW9" s="109"/>
+      <c r="GX9" s="109"/>
+      <c r="GY9" s="109"/>
+      <c r="GZ9" s="110"/>
+      <c r="HA9" s="108" t="str">
         <f t="shared" ref="HA9" si="26">TEXT(HD13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HB9" s="118"/>
-      <c r="HC9" s="118"/>
-      <c r="HD9" s="118"/>
-      <c r="HE9" s="118"/>
-      <c r="HF9" s="118"/>
-      <c r="HG9" s="119"/>
-      <c r="HH9" s="117" t="str">
+      <c r="HB9" s="109"/>
+      <c r="HC9" s="109"/>
+      <c r="HD9" s="109"/>
+      <c r="HE9" s="109"/>
+      <c r="HF9" s="109"/>
+      <c r="HG9" s="110"/>
+      <c r="HH9" s="108" t="str">
         <f t="shared" ref="HH9" si="27">TEXT(HK13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HI9" s="118"/>
-      <c r="HJ9" s="118"/>
-      <c r="HK9" s="118"/>
-      <c r="HL9" s="118"/>
-      <c r="HM9" s="118"/>
-      <c r="HN9" s="119"/>
-      <c r="HO9" s="117" t="str">
+      <c r="HI9" s="109"/>
+      <c r="HJ9" s="109"/>
+      <c r="HK9" s="109"/>
+      <c r="HL9" s="109"/>
+      <c r="HM9" s="109"/>
+      <c r="HN9" s="110"/>
+      <c r="HO9" s="108" t="str">
         <f t="shared" ref="HO9" si="28">TEXT(HR13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HP9" s="118"/>
-      <c r="HQ9" s="118"/>
-      <c r="HR9" s="118"/>
-      <c r="HS9" s="118"/>
-      <c r="HT9" s="118"/>
-      <c r="HU9" s="119"/>
-      <c r="HV9" s="117" t="str">
+      <c r="HP9" s="109"/>
+      <c r="HQ9" s="109"/>
+      <c r="HR9" s="109"/>
+      <c r="HS9" s="109"/>
+      <c r="HT9" s="109"/>
+      <c r="HU9" s="110"/>
+      <c r="HV9" s="108" t="str">
         <f t="shared" ref="HV9" si="29">TEXT(HY13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HW9" s="118"/>
-      <c r="HX9" s="118"/>
-      <c r="HY9" s="118"/>
-      <c r="HZ9" s="118"/>
-      <c r="IA9" s="118"/>
-      <c r="IB9" s="119"/>
-      <c r="IC9" s="117" t="str">
+      <c r="HW9" s="109"/>
+      <c r="HX9" s="109"/>
+      <c r="HY9" s="109"/>
+      <c r="HZ9" s="109"/>
+      <c r="IA9" s="109"/>
+      <c r="IB9" s="110"/>
+      <c r="IC9" s="108" t="str">
         <f t="shared" ref="IC9" si="30">TEXT(IF13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="ID9" s="118"/>
-      <c r="IE9" s="118"/>
-      <c r="IF9" s="118"/>
-      <c r="IG9" s="118"/>
-      <c r="IH9" s="118"/>
-      <c r="II9" s="119"/>
-      <c r="IJ9" s="117" t="str">
+      <c r="ID9" s="109"/>
+      <c r="IE9" s="109"/>
+      <c r="IF9" s="109"/>
+      <c r="IG9" s="109"/>
+      <c r="IH9" s="109"/>
+      <c r="II9" s="110"/>
+      <c r="IJ9" s="108" t="str">
         <f t="shared" ref="IJ9" si="31">TEXT(IM13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IK9" s="118"/>
-      <c r="IL9" s="118"/>
-      <c r="IM9" s="118"/>
-      <c r="IN9" s="118"/>
-      <c r="IO9" s="118"/>
-      <c r="IP9" s="119"/>
-      <c r="IQ9" s="117" t="str">
+      <c r="IK9" s="109"/>
+      <c r="IL9" s="109"/>
+      <c r="IM9" s="109"/>
+      <c r="IN9" s="109"/>
+      <c r="IO9" s="109"/>
+      <c r="IP9" s="110"/>
+      <c r="IQ9" s="108" t="str">
         <f t="shared" ref="IQ9" si="32">TEXT(IT13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IR9" s="118"/>
-      <c r="IS9" s="118"/>
-      <c r="IT9" s="118"/>
-      <c r="IU9" s="118"/>
-      <c r="IV9" s="118"/>
-      <c r="IW9" s="119"/>
-      <c r="IX9" s="117" t="str">
+      <c r="IR9" s="109"/>
+      <c r="IS9" s="109"/>
+      <c r="IT9" s="109"/>
+      <c r="IU9" s="109"/>
+      <c r="IV9" s="109"/>
+      <c r="IW9" s="110"/>
+      <c r="IX9" s="108" t="str">
         <f t="shared" ref="IX9" si="33">TEXT(JA13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IY9" s="118"/>
-      <c r="IZ9" s="118"/>
-      <c r="JA9" s="118"/>
-      <c r="JB9" s="118"/>
-      <c r="JC9" s="118"/>
-      <c r="JD9" s="119"/>
-      <c r="JE9" s="117" t="str">
+      <c r="IY9" s="109"/>
+      <c r="IZ9" s="109"/>
+      <c r="JA9" s="109"/>
+      <c r="JB9" s="109"/>
+      <c r="JC9" s="109"/>
+      <c r="JD9" s="110"/>
+      <c r="JE9" s="108" t="str">
         <f t="shared" ref="JE9" si="34">TEXT(JH13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="JF9" s="118"/>
-      <c r="JG9" s="118"/>
-      <c r="JH9" s="118"/>
-      <c r="JI9" s="118"/>
-      <c r="JJ9" s="118"/>
-      <c r="JK9" s="119"/>
-      <c r="JL9" s="117" t="str">
+      <c r="JF9" s="109"/>
+      <c r="JG9" s="109"/>
+      <c r="JH9" s="109"/>
+      <c r="JI9" s="109"/>
+      <c r="JJ9" s="109"/>
+      <c r="JK9" s="110"/>
+      <c r="JL9" s="108" t="str">
         <f t="shared" ref="JL9" si="35">TEXT(JO13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JM9" s="118"/>
-      <c r="JN9" s="118"/>
-      <c r="JO9" s="118"/>
-      <c r="JP9" s="118"/>
-      <c r="JQ9" s="118"/>
-      <c r="JR9" s="119"/>
-      <c r="JS9" s="117" t="str">
+      <c r="JM9" s="109"/>
+      <c r="JN9" s="109"/>
+      <c r="JO9" s="109"/>
+      <c r="JP9" s="109"/>
+      <c r="JQ9" s="109"/>
+      <c r="JR9" s="110"/>
+      <c r="JS9" s="108" t="str">
         <f t="shared" ref="JS9" si="36">TEXT(JV13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JT9" s="118"/>
-      <c r="JU9" s="118"/>
-      <c r="JV9" s="118"/>
-      <c r="JW9" s="118"/>
-      <c r="JX9" s="118"/>
-      <c r="JY9" s="119"/>
-      <c r="JZ9" s="117" t="str">
+      <c r="JT9" s="109"/>
+      <c r="JU9" s="109"/>
+      <c r="JV9" s="109"/>
+      <c r="JW9" s="109"/>
+      <c r="JX9" s="109"/>
+      <c r="JY9" s="110"/>
+      <c r="JZ9" s="108" t="str">
         <f t="shared" ref="JZ9" si="37">TEXT(KC13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KA9" s="118"/>
-      <c r="KB9" s="118"/>
-      <c r="KC9" s="118"/>
-      <c r="KD9" s="118"/>
-      <c r="KE9" s="118"/>
-      <c r="KF9" s="119"/>
-      <c r="KG9" s="117" t="str">
+      <c r="KA9" s="109"/>
+      <c r="KB9" s="109"/>
+      <c r="KC9" s="109"/>
+      <c r="KD9" s="109"/>
+      <c r="KE9" s="109"/>
+      <c r="KF9" s="110"/>
+      <c r="KG9" s="108" t="str">
         <f t="shared" ref="KG9" si="38">TEXT(KJ13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KH9" s="118"/>
-      <c r="KI9" s="118"/>
-      <c r="KJ9" s="118"/>
-      <c r="KK9" s="118"/>
-      <c r="KL9" s="118"/>
-      <c r="KM9" s="119"/>
-      <c r="KN9" s="117" t="str">
+      <c r="KH9" s="109"/>
+      <c r="KI9" s="109"/>
+      <c r="KJ9" s="109"/>
+      <c r="KK9" s="109"/>
+      <c r="KL9" s="109"/>
+      <c r="KM9" s="110"/>
+      <c r="KN9" s="108" t="str">
         <f t="shared" ref="KN9" si="39">TEXT(KQ13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KO9" s="118"/>
-      <c r="KP9" s="118"/>
-      <c r="KQ9" s="118"/>
-      <c r="KR9" s="118"/>
-      <c r="KS9" s="118"/>
-      <c r="KT9" s="119"/>
-      <c r="KU9" s="117" t="str">
+      <c r="KO9" s="109"/>
+      <c r="KP9" s="109"/>
+      <c r="KQ9" s="109"/>
+      <c r="KR9" s="109"/>
+      <c r="KS9" s="109"/>
+      <c r="KT9" s="110"/>
+      <c r="KU9" s="108" t="str">
         <f t="shared" ref="KU9" si="40">TEXT(KX13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KV9" s="118"/>
-      <c r="KW9" s="118"/>
-      <c r="KX9" s="118"/>
-      <c r="KY9" s="118"/>
-      <c r="KZ9" s="118"/>
-      <c r="LA9" s="119"/>
-      <c r="LB9" s="117" t="str">
+      <c r="KV9" s="109"/>
+      <c r="KW9" s="109"/>
+      <c r="KX9" s="109"/>
+      <c r="KY9" s="109"/>
+      <c r="KZ9" s="109"/>
+      <c r="LA9" s="110"/>
+      <c r="LB9" s="108" t="str">
         <f t="shared" ref="LB9" si="41">TEXT(LE13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LC9" s="118"/>
-      <c r="LD9" s="118"/>
-      <c r="LE9" s="118"/>
-      <c r="LF9" s="118"/>
-      <c r="LG9" s="118"/>
-      <c r="LH9" s="119"/>
-      <c r="LI9" s="117" t="str">
+      <c r="LC9" s="109"/>
+      <c r="LD9" s="109"/>
+      <c r="LE9" s="109"/>
+      <c r="LF9" s="109"/>
+      <c r="LG9" s="109"/>
+      <c r="LH9" s="110"/>
+      <c r="LI9" s="108" t="str">
         <f t="shared" ref="LI9" si="42">TEXT(LL13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LJ9" s="118"/>
-      <c r="LK9" s="118"/>
-      <c r="LL9" s="118"/>
-      <c r="LM9" s="118"/>
-      <c r="LN9" s="118"/>
-      <c r="LO9" s="119"/>
-      <c r="LP9" s="117" t="str">
+      <c r="LJ9" s="109"/>
+      <c r="LK9" s="109"/>
+      <c r="LL9" s="109"/>
+      <c r="LM9" s="109"/>
+      <c r="LN9" s="109"/>
+      <c r="LO9" s="110"/>
+      <c r="LP9" s="108" t="str">
         <f t="shared" ref="LP9" si="43">TEXT(LS13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LQ9" s="118"/>
-      <c r="LR9" s="118"/>
-      <c r="LS9" s="118"/>
-      <c r="LT9" s="118"/>
-      <c r="LU9" s="118"/>
-      <c r="LV9" s="119"/>
-      <c r="LW9" s="117" t="str">
+      <c r="LQ9" s="109"/>
+      <c r="LR9" s="109"/>
+      <c r="LS9" s="109"/>
+      <c r="LT9" s="109"/>
+      <c r="LU9" s="109"/>
+      <c r="LV9" s="110"/>
+      <c r="LW9" s="108" t="str">
         <f t="shared" ref="LW9" si="44">TEXT(LZ13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LX9" s="118"/>
-      <c r="LY9" s="118"/>
-      <c r="LZ9" s="118"/>
-      <c r="MA9" s="118"/>
-      <c r="MB9" s="118"/>
-      <c r="MC9" s="119"/>
-      <c r="MD9" s="117" t="str">
+      <c r="LX9" s="109"/>
+      <c r="LY9" s="109"/>
+      <c r="LZ9" s="109"/>
+      <c r="MA9" s="109"/>
+      <c r="MB9" s="109"/>
+      <c r="MC9" s="110"/>
+      <c r="MD9" s="108" t="str">
         <f t="shared" ref="MD9" si="45">TEXT(MG13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ME9" s="118"/>
-      <c r="MF9" s="118"/>
-      <c r="MG9" s="118"/>
-      <c r="MH9" s="118"/>
-      <c r="MI9" s="118"/>
-      <c r="MJ9" s="119"/>
-      <c r="MK9" s="117" t="str">
+      <c r="ME9" s="109"/>
+      <c r="MF9" s="109"/>
+      <c r="MG9" s="109"/>
+      <c r="MH9" s="109"/>
+      <c r="MI9" s="109"/>
+      <c r="MJ9" s="110"/>
+      <c r="MK9" s="108" t="str">
         <f t="shared" ref="MK9" si="46">TEXT(MN13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ML9" s="118"/>
-      <c r="MM9" s="118"/>
-      <c r="MN9" s="118"/>
-      <c r="MO9" s="118"/>
-      <c r="MP9" s="118"/>
-      <c r="MQ9" s="119"/>
-      <c r="MR9" s="117" t="str">
+      <c r="ML9" s="109"/>
+      <c r="MM9" s="109"/>
+      <c r="MN9" s="109"/>
+      <c r="MO9" s="109"/>
+      <c r="MP9" s="109"/>
+      <c r="MQ9" s="110"/>
+      <c r="MR9" s="108" t="str">
         <f t="shared" ref="MR9" si="47">TEXT(MU13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="MS9" s="118"/>
-      <c r="MT9" s="118"/>
-      <c r="MU9" s="118"/>
-      <c r="MV9" s="118"/>
-      <c r="MW9" s="118"/>
-      <c r="MX9" s="119"/>
-      <c r="MY9" s="117" t="str">
+      <c r="MS9" s="109"/>
+      <c r="MT9" s="109"/>
+      <c r="MU9" s="109"/>
+      <c r="MV9" s="109"/>
+      <c r="MW9" s="109"/>
+      <c r="MX9" s="110"/>
+      <c r="MY9" s="108" t="str">
         <f t="shared" ref="MY9" si="48">TEXT(NB13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="MZ9" s="118"/>
-      <c r="NA9" s="118"/>
-      <c r="NB9" s="118"/>
-      <c r="NC9" s="118"/>
-      <c r="ND9" s="118"/>
-      <c r="NE9" s="119"/>
-      <c r="NF9" s="117" t="str">
+      <c r="MZ9" s="109"/>
+      <c r="NA9" s="109"/>
+      <c r="NB9" s="109"/>
+      <c r="NC9" s="109"/>
+      <c r="ND9" s="109"/>
+      <c r="NE9" s="110"/>
+      <c r="NF9" s="108" t="str">
         <f t="shared" ref="NF9" si="49">TEXT(NI13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NG9" s="118"/>
-      <c r="NH9" s="118"/>
-      <c r="NI9" s="118"/>
-      <c r="NJ9" s="118"/>
-      <c r="NK9" s="118"/>
-      <c r="NL9" s="119"/>
-      <c r="NM9" s="117" t="str">
+      <c r="NG9" s="109"/>
+      <c r="NH9" s="109"/>
+      <c r="NI9" s="109"/>
+      <c r="NJ9" s="109"/>
+      <c r="NK9" s="109"/>
+      <c r="NL9" s="110"/>
+      <c r="NM9" s="108" t="str">
         <f t="shared" ref="NM9" si="50">TEXT(NP13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NN9" s="118"/>
-      <c r="NO9" s="118"/>
-      <c r="NP9" s="118"/>
-      <c r="NQ9" s="118"/>
-      <c r="NR9" s="118"/>
-      <c r="NS9" s="119"/>
-      <c r="NT9" s="117" t="str">
+      <c r="NN9" s="109"/>
+      <c r="NO9" s="109"/>
+      <c r="NP9" s="109"/>
+      <c r="NQ9" s="109"/>
+      <c r="NR9" s="109"/>
+      <c r="NS9" s="110"/>
+      <c r="NT9" s="108" t="str">
         <f t="shared" ref="NT9" si="51">TEXT(NW13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NU9" s="118"/>
-      <c r="NV9" s="118"/>
-      <c r="NW9" s="118"/>
-      <c r="NX9" s="118"/>
-      <c r="NY9" s="118"/>
-      <c r="NZ9" s="119"/>
-      <c r="OA9" s="117" t="str">
+      <c r="NU9" s="109"/>
+      <c r="NV9" s="109"/>
+      <c r="NW9" s="109"/>
+      <c r="NX9" s="109"/>
+      <c r="NY9" s="109"/>
+      <c r="NZ9" s="110"/>
+      <c r="OA9" s="108" t="str">
         <f t="shared" ref="OA9" si="52">TEXT(OD13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OB9" s="118"/>
-      <c r="OC9" s="118"/>
-      <c r="OD9" s="118"/>
-      <c r="OE9" s="118"/>
-      <c r="OF9" s="118"/>
-      <c r="OG9" s="119"/>
-      <c r="OH9" s="117" t="str">
+      <c r="OB9" s="109"/>
+      <c r="OC9" s="109"/>
+      <c r="OD9" s="109"/>
+      <c r="OE9" s="109"/>
+      <c r="OF9" s="109"/>
+      <c r="OG9" s="110"/>
+      <c r="OH9" s="108" t="str">
         <f t="shared" ref="OH9" si="53">TEXT(OK13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OI9" s="118"/>
-      <c r="OJ9" s="118"/>
-      <c r="OK9" s="118"/>
-      <c r="OL9" s="118"/>
-      <c r="OM9" s="118"/>
-      <c r="ON9" s="119"/>
-      <c r="OO9" s="117" t="str">
+      <c r="OI9" s="109"/>
+      <c r="OJ9" s="109"/>
+      <c r="OK9" s="109"/>
+      <c r="OL9" s="109"/>
+      <c r="OM9" s="109"/>
+      <c r="ON9" s="110"/>
+      <c r="OO9" s="108" t="str">
         <f t="shared" ref="OO9" si="54">TEXT(OR13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OP9" s="118"/>
-      <c r="OQ9" s="118"/>
-      <c r="OR9" s="118"/>
-      <c r="OS9" s="118"/>
-      <c r="OT9" s="118"/>
-      <c r="OU9" s="119"/>
-      <c r="OV9" s="117" t="str">
+      <c r="OP9" s="109"/>
+      <c r="OQ9" s="109"/>
+      <c r="OR9" s="109"/>
+      <c r="OS9" s="109"/>
+      <c r="OT9" s="109"/>
+      <c r="OU9" s="110"/>
+      <c r="OV9" s="108" t="str">
         <f t="shared" ref="OV9" si="55">TEXT(OY13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OW9" s="118"/>
-      <c r="OX9" s="118"/>
-      <c r="OY9" s="118"/>
-      <c r="OZ9" s="118"/>
-      <c r="PA9" s="118"/>
-      <c r="PB9" s="119"/>
+      <c r="OW9" s="109"/>
+      <c r="OX9" s="109"/>
+      <c r="OY9" s="109"/>
+      <c r="OZ9" s="109"/>
+      <c r="PA9" s="109"/>
+      <c r="PB9" s="110"/>
     </row>
     <row r="10" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
-      <c r="D10" s="111"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
       <c r="F10" s="25"/>
       <c r="G10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="112">
+      <c r="H10" s="142">
         <v>42996</v>
       </c>
-      <c r="I10" s="112"/>
+      <c r="I10" s="142"/>
       <c r="J10" s="27"/>
       <c r="L10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="113">
+      <c r="M10" s="143">
         <f>WEEKNUM(P13,21)</f>
         <v>38</v>
       </c>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="113"/>
-      <c r="S10" s="113"/>
-      <c r="T10" s="106">
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="121">
         <f>WEEKNUM(W13,21)</f>
         <v>39</v>
       </c>
-      <c r="U10" s="107"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="107"/>
-      <c r="X10" s="107"/>
-      <c r="Y10" s="107"/>
-      <c r="Z10" s="108"/>
-      <c r="AA10" s="114">
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
+      <c r="W10" s="122"/>
+      <c r="X10" s="122"/>
+      <c r="Y10" s="122"/>
+      <c r="Z10" s="123"/>
+      <c r="AA10" s="144">
         <f>WEEKNUM(AD13,21)</f>
         <v>40</v>
       </c>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="106">
+      <c r="AB10" s="144"/>
+      <c r="AC10" s="144"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="144"/>
+      <c r="AF10" s="144"/>
+      <c r="AG10" s="144"/>
+      <c r="AH10" s="121">
         <f>WEEKNUM(AK13,21)</f>
         <v>41</v>
       </c>
-      <c r="AI10" s="107"/>
-      <c r="AJ10" s="107"/>
-      <c r="AK10" s="107"/>
-      <c r="AL10" s="107"/>
-      <c r="AM10" s="107"/>
-      <c r="AN10" s="108"/>
-      <c r="AO10" s="106">
+      <c r="AI10" s="122"/>
+      <c r="AJ10" s="122"/>
+      <c r="AK10" s="122"/>
+      <c r="AL10" s="122"/>
+      <c r="AM10" s="122"/>
+      <c r="AN10" s="123"/>
+      <c r="AO10" s="121">
         <f>WEEKNUM(AR13,21)</f>
         <v>42</v>
       </c>
-      <c r="AP10" s="107"/>
-      <c r="AQ10" s="107"/>
-      <c r="AR10" s="107"/>
-      <c r="AS10" s="107"/>
-      <c r="AT10" s="107"/>
-      <c r="AU10" s="108"/>
-      <c r="AV10" s="106">
+      <c r="AP10" s="122"/>
+      <c r="AQ10" s="122"/>
+      <c r="AR10" s="122"/>
+      <c r="AS10" s="122"/>
+      <c r="AT10" s="122"/>
+      <c r="AU10" s="123"/>
+      <c r="AV10" s="121">
         <f>WEEKNUM(AY13,21)</f>
         <v>43</v>
       </c>
-      <c r="AW10" s="107"/>
-      <c r="AX10" s="107"/>
-      <c r="AY10" s="107"/>
-      <c r="AZ10" s="107"/>
-      <c r="BA10" s="107"/>
-      <c r="BB10" s="108"/>
-      <c r="BC10" s="106">
+      <c r="AW10" s="122"/>
+      <c r="AX10" s="122"/>
+      <c r="AY10" s="122"/>
+      <c r="AZ10" s="122"/>
+      <c r="BA10" s="122"/>
+      <c r="BB10" s="123"/>
+      <c r="BC10" s="121">
         <f>WEEKNUM(BF13,21)</f>
         <v>44</v>
       </c>
-      <c r="BD10" s="107"/>
-      <c r="BE10" s="107"/>
-      <c r="BF10" s="107"/>
-      <c r="BG10" s="107"/>
-      <c r="BH10" s="107"/>
-      <c r="BI10" s="108"/>
-      <c r="BJ10" s="106">
+      <c r="BD10" s="122"/>
+      <c r="BE10" s="122"/>
+      <c r="BF10" s="122"/>
+      <c r="BG10" s="122"/>
+      <c r="BH10" s="122"/>
+      <c r="BI10" s="123"/>
+      <c r="BJ10" s="121">
         <f>WEEKNUM(BM13,21)</f>
         <v>45</v>
       </c>
-      <c r="BK10" s="107"/>
-      <c r="BL10" s="107"/>
-      <c r="BM10" s="107"/>
-      <c r="BN10" s="107"/>
-      <c r="BO10" s="107"/>
-      <c r="BP10" s="108"/>
-      <c r="BQ10" s="106">
+      <c r="BK10" s="122"/>
+      <c r="BL10" s="122"/>
+      <c r="BM10" s="122"/>
+      <c r="BN10" s="122"/>
+      <c r="BO10" s="122"/>
+      <c r="BP10" s="123"/>
+      <c r="BQ10" s="121">
         <f>WEEKNUM(BT13,21)</f>
         <v>46</v>
       </c>
-      <c r="BR10" s="107"/>
-      <c r="BS10" s="107"/>
-      <c r="BT10" s="107"/>
-      <c r="BU10" s="107"/>
-      <c r="BV10" s="107"/>
-      <c r="BW10" s="108"/>
-      <c r="BX10" s="106">
+      <c r="BR10" s="122"/>
+      <c r="BS10" s="122"/>
+      <c r="BT10" s="122"/>
+      <c r="BU10" s="122"/>
+      <c r="BV10" s="122"/>
+      <c r="BW10" s="123"/>
+      <c r="BX10" s="121">
         <f>WEEKNUM(CA13,21)</f>
         <v>47</v>
       </c>
-      <c r="BY10" s="107"/>
-      <c r="BZ10" s="107"/>
-      <c r="CA10" s="107"/>
-      <c r="CB10" s="107"/>
-      <c r="CC10" s="107"/>
-      <c r="CD10" s="108"/>
-      <c r="CE10" s="106">
+      <c r="BY10" s="122"/>
+      <c r="BZ10" s="122"/>
+      <c r="CA10" s="122"/>
+      <c r="CB10" s="122"/>
+      <c r="CC10" s="122"/>
+      <c r="CD10" s="123"/>
+      <c r="CE10" s="121">
         <f>WEEKNUM(CH13,21)</f>
         <v>48</v>
       </c>
-      <c r="CF10" s="107"/>
-      <c r="CG10" s="107"/>
-      <c r="CH10" s="107"/>
-      <c r="CI10" s="107"/>
-      <c r="CJ10" s="107"/>
-      <c r="CK10" s="108"/>
-      <c r="CL10" s="106">
+      <c r="CF10" s="122"/>
+      <c r="CG10" s="122"/>
+      <c r="CH10" s="122"/>
+      <c r="CI10" s="122"/>
+      <c r="CJ10" s="122"/>
+      <c r="CK10" s="123"/>
+      <c r="CL10" s="121">
         <f>WEEKNUM(CO13,21)</f>
         <v>49</v>
       </c>
-      <c r="CM10" s="107"/>
-      <c r="CN10" s="107"/>
-      <c r="CO10" s="107"/>
-      <c r="CP10" s="107"/>
-      <c r="CQ10" s="107"/>
-      <c r="CR10" s="108"/>
-      <c r="CS10" s="106">
+      <c r="CM10" s="122"/>
+      <c r="CN10" s="122"/>
+      <c r="CO10" s="122"/>
+      <c r="CP10" s="122"/>
+      <c r="CQ10" s="122"/>
+      <c r="CR10" s="123"/>
+      <c r="CS10" s="121">
         <f>WEEKNUM(CV13,21)</f>
         <v>50</v>
       </c>
-      <c r="CT10" s="107"/>
-      <c r="CU10" s="107"/>
-      <c r="CV10" s="107"/>
-      <c r="CW10" s="107"/>
-      <c r="CX10" s="107"/>
-      <c r="CY10" s="108"/>
-      <c r="CZ10" s="106">
+      <c r="CT10" s="122"/>
+      <c r="CU10" s="122"/>
+      <c r="CV10" s="122"/>
+      <c r="CW10" s="122"/>
+      <c r="CX10" s="122"/>
+      <c r="CY10" s="123"/>
+      <c r="CZ10" s="121">
         <f>WEEKNUM(DC13,21)</f>
         <v>51</v>
       </c>
-      <c r="DA10" s="107"/>
-      <c r="DB10" s="107"/>
-      <c r="DC10" s="107"/>
-      <c r="DD10" s="107"/>
-      <c r="DE10" s="107"/>
-      <c r="DF10" s="108"/>
-      <c r="DG10" s="106">
+      <c r="DA10" s="122"/>
+      <c r="DB10" s="122"/>
+      <c r="DC10" s="122"/>
+      <c r="DD10" s="122"/>
+      <c r="DE10" s="122"/>
+      <c r="DF10" s="123"/>
+      <c r="DG10" s="121">
         <f>WEEKNUM(DJ13,21)</f>
         <v>52</v>
       </c>
-      <c r="DH10" s="107"/>
-      <c r="DI10" s="107"/>
-      <c r="DJ10" s="107"/>
-      <c r="DK10" s="107"/>
-      <c r="DL10" s="107"/>
-      <c r="DM10" s="108"/>
-      <c r="DN10" s="106">
+      <c r="DH10" s="122"/>
+      <c r="DI10" s="122"/>
+      <c r="DJ10" s="122"/>
+      <c r="DK10" s="122"/>
+      <c r="DL10" s="122"/>
+      <c r="DM10" s="123"/>
+      <c r="DN10" s="121">
         <f>WEEKNUM(DQ13,21)</f>
         <v>1</v>
       </c>
-      <c r="DO10" s="107"/>
-      <c r="DP10" s="107"/>
-      <c r="DQ10" s="107"/>
-      <c r="DR10" s="107"/>
-      <c r="DS10" s="107"/>
-      <c r="DT10" s="108"/>
-      <c r="DU10" s="106">
+      <c r="DO10" s="122"/>
+      <c r="DP10" s="122"/>
+      <c r="DQ10" s="122"/>
+      <c r="DR10" s="122"/>
+      <c r="DS10" s="122"/>
+      <c r="DT10" s="123"/>
+      <c r="DU10" s="121">
         <f>WEEKNUM(DX13,21)</f>
         <v>2</v>
       </c>
-      <c r="DV10" s="107"/>
-      <c r="DW10" s="107"/>
-      <c r="DX10" s="107"/>
-      <c r="DY10" s="107"/>
-      <c r="DZ10" s="107"/>
-      <c r="EA10" s="108"/>
-      <c r="EB10" s="106">
+      <c r="DV10" s="122"/>
+      <c r="DW10" s="122"/>
+      <c r="DX10" s="122"/>
+      <c r="DY10" s="122"/>
+      <c r="DZ10" s="122"/>
+      <c r="EA10" s="123"/>
+      <c r="EB10" s="121">
         <f>WEEKNUM(EE13,21)</f>
         <v>3</v>
       </c>
-      <c r="EC10" s="107"/>
-      <c r="ED10" s="107"/>
-      <c r="EE10" s="107"/>
-      <c r="EF10" s="107"/>
-      <c r="EG10" s="107"/>
-      <c r="EH10" s="108"/>
-      <c r="EI10" s="106">
+      <c r="EC10" s="122"/>
+      <c r="ED10" s="122"/>
+      <c r="EE10" s="122"/>
+      <c r="EF10" s="122"/>
+      <c r="EG10" s="122"/>
+      <c r="EH10" s="123"/>
+      <c r="EI10" s="121">
         <f>WEEKNUM(EL13,21)</f>
         <v>4</v>
       </c>
-      <c r="EJ10" s="107"/>
-      <c r="EK10" s="107"/>
-      <c r="EL10" s="107"/>
-      <c r="EM10" s="107"/>
-      <c r="EN10" s="107"/>
-      <c r="EO10" s="108"/>
-      <c r="EP10" s="106">
+      <c r="EJ10" s="122"/>
+      <c r="EK10" s="122"/>
+      <c r="EL10" s="122"/>
+      <c r="EM10" s="122"/>
+      <c r="EN10" s="122"/>
+      <c r="EO10" s="123"/>
+      <c r="EP10" s="121">
         <f>WEEKNUM(ES13,21)</f>
         <v>5</v>
       </c>
-      <c r="EQ10" s="107"/>
-      <c r="ER10" s="107"/>
-      <c r="ES10" s="107"/>
-      <c r="ET10" s="107"/>
-      <c r="EU10" s="107"/>
-      <c r="EV10" s="108"/>
-      <c r="EW10" s="106">
+      <c r="EQ10" s="122"/>
+      <c r="ER10" s="122"/>
+      <c r="ES10" s="122"/>
+      <c r="ET10" s="122"/>
+      <c r="EU10" s="122"/>
+      <c r="EV10" s="123"/>
+      <c r="EW10" s="121">
         <f>WEEKNUM(EZ13,21)</f>
         <v>6</v>
       </c>
-      <c r="EX10" s="107"/>
-      <c r="EY10" s="107"/>
-      <c r="EZ10" s="107"/>
-      <c r="FA10" s="107"/>
-      <c r="FB10" s="107"/>
-      <c r="FC10" s="108"/>
-      <c r="FD10" s="106">
+      <c r="EX10" s="122"/>
+      <c r="EY10" s="122"/>
+      <c r="EZ10" s="122"/>
+      <c r="FA10" s="122"/>
+      <c r="FB10" s="122"/>
+      <c r="FC10" s="123"/>
+      <c r="FD10" s="121">
         <f>WEEKNUM(FG13,21)</f>
         <v>7</v>
       </c>
-      <c r="FE10" s="107"/>
-      <c r="FF10" s="107"/>
-      <c r="FG10" s="107"/>
-      <c r="FH10" s="107"/>
-      <c r="FI10" s="107"/>
-      <c r="FJ10" s="108"/>
-      <c r="FK10" s="106">
+      <c r="FE10" s="122"/>
+      <c r="FF10" s="122"/>
+      <c r="FG10" s="122"/>
+      <c r="FH10" s="122"/>
+      <c r="FI10" s="122"/>
+      <c r="FJ10" s="123"/>
+      <c r="FK10" s="121">
         <f>WEEKNUM(FN13,21)</f>
         <v>8</v>
       </c>
-      <c r="FL10" s="107"/>
-      <c r="FM10" s="107"/>
-      <c r="FN10" s="107"/>
-      <c r="FO10" s="107"/>
-      <c r="FP10" s="107"/>
-      <c r="FQ10" s="108"/>
-      <c r="FR10" s="106">
+      <c r="FL10" s="122"/>
+      <c r="FM10" s="122"/>
+      <c r="FN10" s="122"/>
+      <c r="FO10" s="122"/>
+      <c r="FP10" s="122"/>
+      <c r="FQ10" s="123"/>
+      <c r="FR10" s="121">
         <f>WEEKNUM(FU13,21)</f>
         <v>9</v>
       </c>
-      <c r="FS10" s="107"/>
-      <c r="FT10" s="107"/>
-      <c r="FU10" s="107"/>
-      <c r="FV10" s="107"/>
-      <c r="FW10" s="107"/>
-      <c r="FX10" s="108"/>
-      <c r="FY10" s="106">
+      <c r="FS10" s="122"/>
+      <c r="FT10" s="122"/>
+      <c r="FU10" s="122"/>
+      <c r="FV10" s="122"/>
+      <c r="FW10" s="122"/>
+      <c r="FX10" s="123"/>
+      <c r="FY10" s="121">
         <f>WEEKNUM(GB13,21)</f>
         <v>10</v>
       </c>
-      <c r="FZ10" s="107"/>
-      <c r="GA10" s="107"/>
-      <c r="GB10" s="107"/>
-      <c r="GC10" s="107"/>
-      <c r="GD10" s="107"/>
-      <c r="GE10" s="108"/>
-      <c r="GF10" s="106">
+      <c r="FZ10" s="122"/>
+      <c r="GA10" s="122"/>
+      <c r="GB10" s="122"/>
+      <c r="GC10" s="122"/>
+      <c r="GD10" s="122"/>
+      <c r="GE10" s="123"/>
+      <c r="GF10" s="121">
         <f>WEEKNUM(GI13,21)</f>
         <v>11</v>
       </c>
-      <c r="GG10" s="107"/>
-      <c r="GH10" s="107"/>
-      <c r="GI10" s="107"/>
-      <c r="GJ10" s="107"/>
-      <c r="GK10" s="107"/>
-      <c r="GL10" s="108"/>
-      <c r="GM10" s="106">
+      <c r="GG10" s="122"/>
+      <c r="GH10" s="122"/>
+      <c r="GI10" s="122"/>
+      <c r="GJ10" s="122"/>
+      <c r="GK10" s="122"/>
+      <c r="GL10" s="123"/>
+      <c r="GM10" s="121">
         <f>WEEKNUM(GP13,21)</f>
         <v>12</v>
       </c>
-      <c r="GN10" s="107"/>
-      <c r="GO10" s="107"/>
-      <c r="GP10" s="107"/>
-      <c r="GQ10" s="107"/>
-      <c r="GR10" s="107"/>
-      <c r="GS10" s="108"/>
-      <c r="GT10" s="106">
+      <c r="GN10" s="122"/>
+      <c r="GO10" s="122"/>
+      <c r="GP10" s="122"/>
+      <c r="GQ10" s="122"/>
+      <c r="GR10" s="122"/>
+      <c r="GS10" s="123"/>
+      <c r="GT10" s="121">
         <f>WEEKNUM(GW13,21)</f>
         <v>13</v>
       </c>
-      <c r="GU10" s="107"/>
-      <c r="GV10" s="107"/>
-      <c r="GW10" s="107"/>
-      <c r="GX10" s="107"/>
-      <c r="GY10" s="107"/>
-      <c r="GZ10" s="108"/>
-      <c r="HA10" s="106">
+      <c r="GU10" s="122"/>
+      <c r="GV10" s="122"/>
+      <c r="GW10" s="122"/>
+      <c r="GX10" s="122"/>
+      <c r="GY10" s="122"/>
+      <c r="GZ10" s="123"/>
+      <c r="HA10" s="121">
         <f>WEEKNUM(HD13,21)</f>
         <v>14</v>
       </c>
-      <c r="HB10" s="107"/>
-      <c r="HC10" s="107"/>
-      <c r="HD10" s="107"/>
-      <c r="HE10" s="107"/>
-      <c r="HF10" s="107"/>
-      <c r="HG10" s="108"/>
-      <c r="HH10" s="106">
+      <c r="HB10" s="122"/>
+      <c r="HC10" s="122"/>
+      <c r="HD10" s="122"/>
+      <c r="HE10" s="122"/>
+      <c r="HF10" s="122"/>
+      <c r="HG10" s="123"/>
+      <c r="HH10" s="121">
         <f>WEEKNUM(HK13,21)</f>
         <v>15</v>
       </c>
-      <c r="HI10" s="107"/>
-      <c r="HJ10" s="107"/>
-      <c r="HK10" s="107"/>
-      <c r="HL10" s="107"/>
-      <c r="HM10" s="107"/>
-      <c r="HN10" s="108"/>
-      <c r="HO10" s="106">
+      <c r="HI10" s="122"/>
+      <c r="HJ10" s="122"/>
+      <c r="HK10" s="122"/>
+      <c r="HL10" s="122"/>
+      <c r="HM10" s="122"/>
+      <c r="HN10" s="123"/>
+      <c r="HO10" s="121">
         <f>WEEKNUM(HR13,21)</f>
         <v>16</v>
       </c>
-      <c r="HP10" s="107"/>
-      <c r="HQ10" s="107"/>
-      <c r="HR10" s="107"/>
-      <c r="HS10" s="107"/>
-      <c r="HT10" s="107"/>
-      <c r="HU10" s="108"/>
-      <c r="HV10" s="106">
+      <c r="HP10" s="122"/>
+      <c r="HQ10" s="122"/>
+      <c r="HR10" s="122"/>
+      <c r="HS10" s="122"/>
+      <c r="HT10" s="122"/>
+      <c r="HU10" s="123"/>
+      <c r="HV10" s="121">
         <f t="shared" ref="HV10" si="56">WEEKNUM(HY13,21)</f>
         <v>17</v>
       </c>
-      <c r="HW10" s="107"/>
-      <c r="HX10" s="107"/>
-      <c r="HY10" s="107"/>
-      <c r="HZ10" s="107"/>
-      <c r="IA10" s="107"/>
-      <c r="IB10" s="108"/>
-      <c r="IC10" s="106">
+      <c r="HW10" s="122"/>
+      <c r="HX10" s="122"/>
+      <c r="HY10" s="122"/>
+      <c r="HZ10" s="122"/>
+      <c r="IA10" s="122"/>
+      <c r="IB10" s="123"/>
+      <c r="IC10" s="121">
         <f t="shared" ref="IC10" si="57">WEEKNUM(IF13,21)</f>
         <v>18</v>
       </c>
-      <c r="ID10" s="107"/>
-      <c r="IE10" s="107"/>
-      <c r="IF10" s="107"/>
-      <c r="IG10" s="107"/>
-      <c r="IH10" s="107"/>
-      <c r="II10" s="108"/>
-      <c r="IJ10" s="106">
+      <c r="ID10" s="122"/>
+      <c r="IE10" s="122"/>
+      <c r="IF10" s="122"/>
+      <c r="IG10" s="122"/>
+      <c r="IH10" s="122"/>
+      <c r="II10" s="123"/>
+      <c r="IJ10" s="121">
         <f t="shared" ref="IJ10" si="58">WEEKNUM(IM13,21)</f>
         <v>19</v>
       </c>
-      <c r="IK10" s="107"/>
-      <c r="IL10" s="107"/>
-      <c r="IM10" s="107"/>
-      <c r="IN10" s="107"/>
-      <c r="IO10" s="107"/>
-      <c r="IP10" s="108"/>
-      <c r="IQ10" s="106">
+      <c r="IK10" s="122"/>
+      <c r="IL10" s="122"/>
+      <c r="IM10" s="122"/>
+      <c r="IN10" s="122"/>
+      <c r="IO10" s="122"/>
+      <c r="IP10" s="123"/>
+      <c r="IQ10" s="121">
         <f t="shared" ref="IQ10" si="59">WEEKNUM(IT13,21)</f>
         <v>20</v>
       </c>
-      <c r="IR10" s="107"/>
-      <c r="IS10" s="107"/>
-      <c r="IT10" s="107"/>
-      <c r="IU10" s="107"/>
-      <c r="IV10" s="107"/>
-      <c r="IW10" s="108"/>
-      <c r="IX10" s="106">
+      <c r="IR10" s="122"/>
+      <c r="IS10" s="122"/>
+      <c r="IT10" s="122"/>
+      <c r="IU10" s="122"/>
+      <c r="IV10" s="122"/>
+      <c r="IW10" s="123"/>
+      <c r="IX10" s="121">
         <f t="shared" ref="IX10" si="60">WEEKNUM(JA13,21)</f>
         <v>21</v>
       </c>
-      <c r="IY10" s="107"/>
-      <c r="IZ10" s="107"/>
-      <c r="JA10" s="107"/>
-      <c r="JB10" s="107"/>
-      <c r="JC10" s="107"/>
-      <c r="JD10" s="108"/>
-      <c r="JE10" s="106">
+      <c r="IY10" s="122"/>
+      <c r="IZ10" s="122"/>
+      <c r="JA10" s="122"/>
+      <c r="JB10" s="122"/>
+      <c r="JC10" s="122"/>
+      <c r="JD10" s="123"/>
+      <c r="JE10" s="121">
         <f t="shared" ref="JE10" si="61">WEEKNUM(JH13,21)</f>
         <v>22</v>
       </c>
-      <c r="JF10" s="107"/>
-      <c r="JG10" s="107"/>
-      <c r="JH10" s="107"/>
-      <c r="JI10" s="107"/>
-      <c r="JJ10" s="107"/>
-      <c r="JK10" s="108"/>
-      <c r="JL10" s="106">
+      <c r="JF10" s="122"/>
+      <c r="JG10" s="122"/>
+      <c r="JH10" s="122"/>
+      <c r="JI10" s="122"/>
+      <c r="JJ10" s="122"/>
+      <c r="JK10" s="123"/>
+      <c r="JL10" s="121">
         <f t="shared" ref="JL10" si="62">WEEKNUM(JO13,21)</f>
         <v>23</v>
       </c>
-      <c r="JM10" s="107"/>
-      <c r="JN10" s="107"/>
-      <c r="JO10" s="107"/>
-      <c r="JP10" s="107"/>
-      <c r="JQ10" s="107"/>
-      <c r="JR10" s="108"/>
-      <c r="JS10" s="106">
+      <c r="JM10" s="122"/>
+      <c r="JN10" s="122"/>
+      <c r="JO10" s="122"/>
+      <c r="JP10" s="122"/>
+      <c r="JQ10" s="122"/>
+      <c r="JR10" s="123"/>
+      <c r="JS10" s="121">
         <f t="shared" ref="JS10" si="63">WEEKNUM(JV13,21)</f>
         <v>24</v>
       </c>
-      <c r="JT10" s="107"/>
-      <c r="JU10" s="107"/>
-      <c r="JV10" s="107"/>
-      <c r="JW10" s="107"/>
-      <c r="JX10" s="107"/>
-      <c r="JY10" s="108"/>
-      <c r="JZ10" s="106">
+      <c r="JT10" s="122"/>
+      <c r="JU10" s="122"/>
+      <c r="JV10" s="122"/>
+      <c r="JW10" s="122"/>
+      <c r="JX10" s="122"/>
+      <c r="JY10" s="123"/>
+      <c r="JZ10" s="121">
         <f t="shared" ref="JZ10" si="64">WEEKNUM(KC13,21)</f>
         <v>25</v>
       </c>
-      <c r="KA10" s="107"/>
-      <c r="KB10" s="107"/>
-      <c r="KC10" s="107"/>
-      <c r="KD10" s="107"/>
-      <c r="KE10" s="107"/>
-      <c r="KF10" s="108"/>
-      <c r="KG10" s="106">
+      <c r="KA10" s="122"/>
+      <c r="KB10" s="122"/>
+      <c r="KC10" s="122"/>
+      <c r="KD10" s="122"/>
+      <c r="KE10" s="122"/>
+      <c r="KF10" s="123"/>
+      <c r="KG10" s="121">
         <f t="shared" ref="KG10" si="65">WEEKNUM(KJ13,21)</f>
         <v>26</v>
       </c>
-      <c r="KH10" s="107"/>
-      <c r="KI10" s="107"/>
-      <c r="KJ10" s="107"/>
-      <c r="KK10" s="107"/>
-      <c r="KL10" s="107"/>
-      <c r="KM10" s="108"/>
-      <c r="KN10" s="106">
+      <c r="KH10" s="122"/>
+      <c r="KI10" s="122"/>
+      <c r="KJ10" s="122"/>
+      <c r="KK10" s="122"/>
+      <c r="KL10" s="122"/>
+      <c r="KM10" s="123"/>
+      <c r="KN10" s="121">
         <f t="shared" ref="KN10" si="66">WEEKNUM(KQ13,21)</f>
         <v>27</v>
       </c>
-      <c r="KO10" s="107"/>
-      <c r="KP10" s="107"/>
-      <c r="KQ10" s="107"/>
-      <c r="KR10" s="107"/>
-      <c r="KS10" s="107"/>
-      <c r="KT10" s="108"/>
-      <c r="KU10" s="106">
+      <c r="KO10" s="122"/>
+      <c r="KP10" s="122"/>
+      <c r="KQ10" s="122"/>
+      <c r="KR10" s="122"/>
+      <c r="KS10" s="122"/>
+      <c r="KT10" s="123"/>
+      <c r="KU10" s="121">
         <f t="shared" ref="KU10" si="67">WEEKNUM(KX13,21)</f>
         <v>28</v>
       </c>
-      <c r="KV10" s="107"/>
-      <c r="KW10" s="107"/>
-      <c r="KX10" s="107"/>
-      <c r="KY10" s="107"/>
-      <c r="KZ10" s="107"/>
-      <c r="LA10" s="108"/>
-      <c r="LB10" s="106">
+      <c r="KV10" s="122"/>
+      <c r="KW10" s="122"/>
+      <c r="KX10" s="122"/>
+      <c r="KY10" s="122"/>
+      <c r="KZ10" s="122"/>
+      <c r="LA10" s="123"/>
+      <c r="LB10" s="121">
         <f t="shared" ref="LB10" si="68">WEEKNUM(LE13,21)</f>
         <v>29</v>
       </c>
-      <c r="LC10" s="107"/>
-      <c r="LD10" s="107"/>
-      <c r="LE10" s="107"/>
-      <c r="LF10" s="107"/>
-      <c r="LG10" s="107"/>
-      <c r="LH10" s="108"/>
-      <c r="LI10" s="106">
+      <c r="LC10" s="122"/>
+      <c r="LD10" s="122"/>
+      <c r="LE10" s="122"/>
+      <c r="LF10" s="122"/>
+      <c r="LG10" s="122"/>
+      <c r="LH10" s="123"/>
+      <c r="LI10" s="121">
         <f t="shared" ref="LI10" si="69">WEEKNUM(LL13,21)</f>
         <v>30</v>
       </c>
-      <c r="LJ10" s="107"/>
-      <c r="LK10" s="107"/>
-      <c r="LL10" s="107"/>
-      <c r="LM10" s="107"/>
-      <c r="LN10" s="107"/>
-      <c r="LO10" s="108"/>
-      <c r="LP10" s="106">
+      <c r="LJ10" s="122"/>
+      <c r="LK10" s="122"/>
+      <c r="LL10" s="122"/>
+      <c r="LM10" s="122"/>
+      <c r="LN10" s="122"/>
+      <c r="LO10" s="123"/>
+      <c r="LP10" s="121">
         <f t="shared" ref="LP10" si="70">WEEKNUM(LS13,21)</f>
         <v>31</v>
       </c>
-      <c r="LQ10" s="107"/>
-      <c r="LR10" s="107"/>
-      <c r="LS10" s="107"/>
-      <c r="LT10" s="107"/>
-      <c r="LU10" s="107"/>
-      <c r="LV10" s="108"/>
-      <c r="LW10" s="106">
+      <c r="LQ10" s="122"/>
+      <c r="LR10" s="122"/>
+      <c r="LS10" s="122"/>
+      <c r="LT10" s="122"/>
+      <c r="LU10" s="122"/>
+      <c r="LV10" s="123"/>
+      <c r="LW10" s="121">
         <f t="shared" ref="LW10" si="71">WEEKNUM(LZ13,21)</f>
         <v>32</v>
       </c>
-      <c r="LX10" s="107"/>
-      <c r="LY10" s="107"/>
-      <c r="LZ10" s="107"/>
-      <c r="MA10" s="107"/>
-      <c r="MB10" s="107"/>
-      <c r="MC10" s="108"/>
-      <c r="MD10" s="106">
+      <c r="LX10" s="122"/>
+      <c r="LY10" s="122"/>
+      <c r="LZ10" s="122"/>
+      <c r="MA10" s="122"/>
+      <c r="MB10" s="122"/>
+      <c r="MC10" s="123"/>
+      <c r="MD10" s="121">
         <f t="shared" ref="MD10" si="72">WEEKNUM(MG13,21)</f>
         <v>33</v>
       </c>
-      <c r="ME10" s="107"/>
-      <c r="MF10" s="107"/>
-      <c r="MG10" s="107"/>
-      <c r="MH10" s="107"/>
-      <c r="MI10" s="107"/>
-      <c r="MJ10" s="108"/>
-      <c r="MK10" s="106">
+      <c r="ME10" s="122"/>
+      <c r="MF10" s="122"/>
+      <c r="MG10" s="122"/>
+      <c r="MH10" s="122"/>
+      <c r="MI10" s="122"/>
+      <c r="MJ10" s="123"/>
+      <c r="MK10" s="121">
         <f t="shared" ref="MK10" si="73">WEEKNUM(MN13,21)</f>
         <v>34</v>
       </c>
-      <c r="ML10" s="107"/>
-      <c r="MM10" s="107"/>
-      <c r="MN10" s="107"/>
-      <c r="MO10" s="107"/>
-      <c r="MP10" s="107"/>
-      <c r="MQ10" s="108"/>
-      <c r="MR10" s="106">
+      <c r="ML10" s="122"/>
+      <c r="MM10" s="122"/>
+      <c r="MN10" s="122"/>
+      <c r="MO10" s="122"/>
+      <c r="MP10" s="122"/>
+      <c r="MQ10" s="123"/>
+      <c r="MR10" s="121">
         <f t="shared" ref="MR10" si="74">WEEKNUM(MU13,21)</f>
         <v>35</v>
       </c>
-      <c r="MS10" s="107"/>
-      <c r="MT10" s="107"/>
-      <c r="MU10" s="107"/>
-      <c r="MV10" s="107"/>
-      <c r="MW10" s="107"/>
-      <c r="MX10" s="108"/>
-      <c r="MY10" s="106">
+      <c r="MS10" s="122"/>
+      <c r="MT10" s="122"/>
+      <c r="MU10" s="122"/>
+      <c r="MV10" s="122"/>
+      <c r="MW10" s="122"/>
+      <c r="MX10" s="123"/>
+      <c r="MY10" s="121">
         <f t="shared" ref="MY10" si="75">WEEKNUM(NB13,21)</f>
         <v>36</v>
       </c>
-      <c r="MZ10" s="107"/>
-      <c r="NA10" s="107"/>
-      <c r="NB10" s="107"/>
-      <c r="NC10" s="107"/>
-      <c r="ND10" s="107"/>
-      <c r="NE10" s="108"/>
-      <c r="NF10" s="106">
+      <c r="MZ10" s="122"/>
+      <c r="NA10" s="122"/>
+      <c r="NB10" s="122"/>
+      <c r="NC10" s="122"/>
+      <c r="ND10" s="122"/>
+      <c r="NE10" s="123"/>
+      <c r="NF10" s="121">
         <f t="shared" ref="NF10" si="76">WEEKNUM(NI13,21)</f>
         <v>37</v>
       </c>
-      <c r="NG10" s="107"/>
-      <c r="NH10" s="107"/>
-      <c r="NI10" s="107"/>
-      <c r="NJ10" s="107"/>
-      <c r="NK10" s="107"/>
-      <c r="NL10" s="108"/>
-      <c r="NM10" s="106">
+      <c r="NG10" s="122"/>
+      <c r="NH10" s="122"/>
+      <c r="NI10" s="122"/>
+      <c r="NJ10" s="122"/>
+      <c r="NK10" s="122"/>
+      <c r="NL10" s="123"/>
+      <c r="NM10" s="121">
         <f t="shared" ref="NM10" si="77">WEEKNUM(NP13,21)</f>
         <v>38</v>
       </c>
-      <c r="NN10" s="107"/>
-      <c r="NO10" s="107"/>
-      <c r="NP10" s="107"/>
-      <c r="NQ10" s="107"/>
-      <c r="NR10" s="107"/>
-      <c r="NS10" s="108"/>
-      <c r="NT10" s="106">
+      <c r="NN10" s="122"/>
+      <c r="NO10" s="122"/>
+      <c r="NP10" s="122"/>
+      <c r="NQ10" s="122"/>
+      <c r="NR10" s="122"/>
+      <c r="NS10" s="123"/>
+      <c r="NT10" s="121">
         <f t="shared" ref="NT10" si="78">WEEKNUM(NW13,21)</f>
         <v>39</v>
       </c>
-      <c r="NU10" s="107"/>
-      <c r="NV10" s="107"/>
-      <c r="NW10" s="107"/>
-      <c r="NX10" s="107"/>
-      <c r="NY10" s="107"/>
-      <c r="NZ10" s="108"/>
-      <c r="OA10" s="106">
+      <c r="NU10" s="122"/>
+      <c r="NV10" s="122"/>
+      <c r="NW10" s="122"/>
+      <c r="NX10" s="122"/>
+      <c r="NY10" s="122"/>
+      <c r="NZ10" s="123"/>
+      <c r="OA10" s="121">
         <f t="shared" ref="OA10" si="79">WEEKNUM(OD13,21)</f>
         <v>40</v>
       </c>
-      <c r="OB10" s="107"/>
-      <c r="OC10" s="107"/>
-      <c r="OD10" s="107"/>
-      <c r="OE10" s="107"/>
-      <c r="OF10" s="107"/>
-      <c r="OG10" s="108"/>
-      <c r="OH10" s="106">
+      <c r="OB10" s="122"/>
+      <c r="OC10" s="122"/>
+      <c r="OD10" s="122"/>
+      <c r="OE10" s="122"/>
+      <c r="OF10" s="122"/>
+      <c r="OG10" s="123"/>
+      <c r="OH10" s="121">
         <f t="shared" ref="OH10" si="80">WEEKNUM(OK13,21)</f>
         <v>41</v>
       </c>
-      <c r="OI10" s="107"/>
-      <c r="OJ10" s="107"/>
-      <c r="OK10" s="107"/>
-      <c r="OL10" s="107"/>
-      <c r="OM10" s="107"/>
-      <c r="ON10" s="108"/>
-      <c r="OO10" s="106">
+      <c r="OI10" s="122"/>
+      <c r="OJ10" s="122"/>
+      <c r="OK10" s="122"/>
+      <c r="OL10" s="122"/>
+      <c r="OM10" s="122"/>
+      <c r="ON10" s="123"/>
+      <c r="OO10" s="121">
         <f t="shared" ref="OO10" si="81">WEEKNUM(OR13,21)</f>
         <v>42</v>
       </c>
-      <c r="OP10" s="107"/>
-      <c r="OQ10" s="107"/>
-      <c r="OR10" s="107"/>
-      <c r="OS10" s="107"/>
-      <c r="OT10" s="107"/>
-      <c r="OU10" s="108"/>
-      <c r="OV10" s="106">
+      <c r="OP10" s="122"/>
+      <c r="OQ10" s="122"/>
+      <c r="OR10" s="122"/>
+      <c r="OS10" s="122"/>
+      <c r="OT10" s="122"/>
+      <c r="OU10" s="123"/>
+      <c r="OV10" s="121">
         <f t="shared" ref="OV10" si="82">WEEKNUM(OY13,21)</f>
         <v>43</v>
       </c>
-      <c r="OW10" s="107"/>
-      <c r="OX10" s="107"/>
-      <c r="OY10" s="107"/>
-      <c r="OZ10" s="107"/>
-      <c r="PA10" s="107"/>
-      <c r="PB10" s="108"/>
+      <c r="OW10" s="122"/>
+      <c r="OX10" s="122"/>
+      <c r="OY10" s="122"/>
+      <c r="OZ10" s="122"/>
+      <c r="PA10" s="122"/>
+      <c r="PB10" s="123"/>
     </row>
     <row r="11" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="29"/>
@@ -5668,8 +5892,8 @@
       <c r="G11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
       <c r="J11" s="33"/>
       <c r="L11" s="28" t="s">
         <v>17</v>
@@ -6898,8 +7122,8 @@
       <c r="C12" s="30"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
       <c r="J12" s="38"/>
       <c r="L12" s="39" t="s">
         <v>2</v>
@@ -8530,8 +8754,8 @@
       </c>
     </row>
     <row r="13" spans="2:418" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="3" t="s">
-        <v>80</v>
+      <c r="B13" s="106" t="s">
+        <v>106</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -10186,7 +10410,7 @@
         <v>Endet nach [Tagen]</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>12</v>
@@ -10626,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="53">
-        <f t="shared" ref="G15:G101" si="97">IF(F15&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E15,1)=7,E15+2,IF(WEEKDAY(E15,1)=1,E15+1,E15)),F15-1),E15+F15-1),"")</f>
+        <f t="shared" ref="G15:G107" si="97">IF(F15&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E15,1)=7,E15+2,IF(WEEKDAY(E15,1)=1,E15+1,E15)),F15-1),E15+F15-1),"")</f>
         <v>42753</v>
       </c>
       <c r="H15" s="54">
@@ -11053,12 +11277,12 @@
     </row>
     <row r="16" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B16" s="49">
-        <f t="shared" ref="B16:B101" si="98">ROW()-15+1</f>
+        <f t="shared" ref="B16:B107" si="98">ROW()-15+1</f>
         <v>2</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="64">
         <v>43003</v>
@@ -11943,7 +12167,7 @@
       </c>
       <c r="C18" s="73"/>
       <c r="D18" s="74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E18" s="75">
         <v>42998</v>
@@ -12380,7 +12604,7 @@
       </c>
       <c r="C19" s="73"/>
       <c r="D19" s="74" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" s="75">
         <v>42998</v>
@@ -12817,7 +13041,7 @@
       </c>
       <c r="C20" s="73"/>
       <c r="D20" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="75">
         <v>43003</v>
@@ -13254,7 +13478,7 @@
       </c>
       <c r="C21" s="73"/>
       <c r="D21" s="74" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="75">
         <v>43005</v>
@@ -13692,7 +13916,7 @@
       </c>
       <c r="C22" s="73"/>
       <c r="D22" s="74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22" s="75">
         <v>43005</v>
@@ -14130,7 +14354,7 @@
       </c>
       <c r="C23" s="73"/>
       <c r="D23" s="74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="75">
         <v>43005</v>
@@ -14568,7 +14792,7 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" s="75">
         <v>43012</v>
@@ -15450,7 +15674,7 @@
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="74" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26" s="75">
         <v>43003</v>
@@ -15888,7 +16112,7 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E27" s="75">
         <v>43007</v>
@@ -16326,7 +16550,7 @@
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="75">
         <v>43005</v>
@@ -16764,7 +16988,7 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="75">
         <v>43006</v>
@@ -17202,7 +17426,7 @@
       </c>
       <c r="C30" s="73"/>
       <c r="D30" s="74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E30" s="75">
         <v>43010</v>
@@ -17640,7 +17864,7 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E31" s="75">
         <v>43012</v>
@@ -18078,7 +18302,7 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E32" s="75">
         <v>43012</v>
@@ -18515,7 +18739,7 @@
       </c>
       <c r="C33" s="62"/>
       <c r="D33" s="63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="64">
         <v>43012</v>
@@ -18957,7 +19181,7 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="74" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E34" s="75">
         <v>43013</v>
@@ -19395,7 +19619,7 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E35" s="75">
         <v>43013</v>
@@ -19833,7 +20057,7 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="74" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E36" s="75">
         <v>43017</v>
@@ -20271,7 +20495,7 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="74" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E37" s="75">
         <v>43019</v>
@@ -20708,7 +20932,7 @@
       </c>
       <c r="C38" s="73"/>
       <c r="D38" s="74" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E38" s="75">
         <v>43021</v>
@@ -21145,7 +21369,7 @@
       </c>
       <c r="C39" s="62"/>
       <c r="D39" s="63" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E39" s="64">
         <v>43019</v>
@@ -21159,19 +21383,21 @@
       </c>
       <c r="H39" s="65">
         <f>100*AVERAGE(H40:H49)%</f>
-        <v>0.90000000000000013</v>
+        <v>1</v>
       </c>
       <c r="I39" s="66">
         <v>43044</v>
       </c>
-      <c r="J39" s="66"/>
+      <c r="J39" s="66" t="s">
+        <v>19</v>
+      </c>
       <c r="K39" s="67">
         <f>SUM(K40:K49)</f>
         <v>29</v>
       </c>
       <c r="L39" s="68">
         <f>SUM(L40:L49)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M39" s="58"/>
       <c r="N39" s="59"/>
@@ -21190,7 +21416,7 @@
       <c r="AA39" s="59"/>
       <c r="AB39" s="59"/>
       <c r="AC39" s="59"/>
-      <c r="AD39" s="72"/>
+      <c r="AD39" s="107"/>
       <c r="AE39" s="72"/>
       <c r="AF39" s="72"/>
       <c r="AG39" s="72"/>
@@ -21587,7 +21813,7 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="74" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E40" s="75">
         <v>43019</v>
@@ -21608,7 +21834,7 @@
         <v>7</v>
       </c>
       <c r="L40" s="80">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M40" s="58"/>
       <c r="N40" s="59"/>
@@ -22024,7 +22250,7 @@
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="94" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="E41" s="75">
         <v>43019</v>
@@ -22461,7 +22687,7 @@
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="63" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E42" s="64">
         <v>43024</v>
@@ -22903,7 +23129,7 @@
       </c>
       <c r="C43" s="98"/>
       <c r="D43" s="99" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E43" s="100">
         <v>43026</v>
@@ -23340,7 +23566,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E44" s="75">
         <v>43026</v>
@@ -23777,7 +24003,7 @@
       </c>
       <c r="C45" s="73"/>
       <c r="D45" s="74" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E45" s="75">
         <v>43035</v>
@@ -24214,7 +24440,7 @@
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="74" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E46" s="75">
         <v>43028</v>
@@ -24227,14 +24453,14 @@
         <v>43028</v>
       </c>
       <c r="H46" s="77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I46" s="78"/>
       <c r="J46" s="78"/>
       <c r="K46" s="79">
         <v>2</v>
       </c>
-      <c r="L46" s="97">
+      <c r="L46" s="80">
         <v>1</v>
       </c>
       <c r="M46" s="58"/>
@@ -24651,7 +24877,7 @@
       </c>
       <c r="C47" s="73"/>
       <c r="D47" s="74" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E47" s="75">
         <v>43031</v>
@@ -25088,7 +25314,7 @@
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="74" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E48" s="75">
         <v>43039</v>
@@ -25525,7 +25751,7 @@
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="74" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E49" s="75">
         <v>43035</v>
@@ -25537,7 +25763,7 @@
         <v>43039</v>
       </c>
       <c r="H49" s="77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I49" s="78"/>
       <c r="J49" s="78"/>
@@ -25955,17 +26181,33 @@
       <c r="PB49" s="71"/>
     </row>
     <row r="50" spans="2:418" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="49"/>
+      <c r="B50" s="49">
+        <v>36</v>
+      </c>
       <c r="C50" s="73"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="77"/>
+      <c r="D50" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="75">
+        <v>43041</v>
+      </c>
+      <c r="F50" s="73">
+        <v>3</v>
+      </c>
+      <c r="G50" s="76">
+        <v>43040</v>
+      </c>
+      <c r="H50" s="77">
+        <v>1</v>
+      </c>
       <c r="I50" s="78"/>
       <c r="J50" s="78"/>
-      <c r="K50" s="79"/>
-      <c r="L50" s="80"/>
+      <c r="K50" s="79">
+        <v>4</v>
+      </c>
+      <c r="L50" s="80">
+        <v>5</v>
+      </c>
       <c r="M50" s="58"/>
       <c r="N50" s="59"/>
       <c r="O50" s="59"/>
@@ -26398,11 +26640,15 @@
       <c r="I51" s="66">
         <v>43047</v>
       </c>
-      <c r="J51" s="66"/>
+      <c r="J51" s="66" t="s">
+        <v>19</v>
+      </c>
       <c r="K51" s="67">
         <v>5</v>
       </c>
-      <c r="L51" s="68"/>
+      <c r="L51" s="68">
+        <v>7</v>
+      </c>
       <c r="M51" s="58"/>
       <c r="N51" s="59"/>
       <c r="O51" s="59"/>
@@ -26817,7 +27063,7 @@
       </c>
       <c r="C52" s="73"/>
       <c r="D52" s="74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E52" s="75">
         <v>43040</v>
@@ -26830,12 +27076,16 @@
         <v>43046</v>
       </c>
       <c r="H52" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" s="78"/>
       <c r="J52" s="78"/>
-      <c r="K52" s="79"/>
-      <c r="L52" s="80"/>
+      <c r="K52" s="79">
+        <v>5</v>
+      </c>
+      <c r="L52" s="80">
+        <v>7</v>
+      </c>
       <c r="M52" s="58"/>
       <c r="N52" s="59"/>
       <c r="O52" s="59"/>
@@ -27256,15 +27506,15 @@
         <v>43040</v>
       </c>
       <c r="F53" s="62">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G53" s="53">
         <f>IF(F53&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E53,1)=7,E53+2,IF(WEEKDAY(E53,1)=1,E53+1,E53)),F53-1),E53+F53-1),"")</f>
-        <v>43072</v>
+        <v>43079</v>
       </c>
       <c r="H53" s="65">
-        <f>100*AVERAGE(H63:H67)%</f>
-        <v>0</v>
+        <f>100*AVERAGE(H54:H64)%</f>
+        <v>0.25</v>
       </c>
       <c r="I53" s="66">
         <v>43072</v>
@@ -27274,8 +27524,8 @@
         <v>50</v>
       </c>
       <c r="L53" s="68">
-        <f>SUM(L54:L61)</f>
-        <v>0</v>
+        <f>SUM(L54:L64)</f>
+        <v>13</v>
       </c>
       <c r="M53" s="58"/>
       <c r="N53" s="59"/>
@@ -27691,21 +27941,27 @@
       </c>
       <c r="C54" s="73"/>
       <c r="D54" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="75"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="76" t="str">
-        <f t="shared" ref="G54:G61" si="105">IF(F54&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E54,1)=7,E54+2,IF(WEEKDAY(E54,1)=1,E54+1,E54)),F54-1),E54+F54-1),"")</f>
-        <v/>
+        <v>78</v>
+      </c>
+      <c r="E54" s="75">
+        <v>43044</v>
+      </c>
+      <c r="F54" s="73">
+        <v>5</v>
+      </c>
+      <c r="G54" s="76">
+        <f t="shared" ref="G54:G64" si="105">IF(F54&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E54,1)=7,E54+2,IF(WEEKDAY(E54,1)=1,E54+1,E54)),F54-1),E54+F54-1),"")</f>
+        <v>43048</v>
       </c>
       <c r="H54" s="77">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I54" s="78"/>
       <c r="J54" s="78"/>
       <c r="K54" s="79"/>
-      <c r="L54" s="80"/>
+      <c r="L54" s="97">
+        <v>2</v>
+      </c>
       <c r="M54" s="58"/>
       <c r="N54" s="59"/>
       <c r="O54" s="59"/>
@@ -28114,30 +28370,35 @@
       <c r="PB54" s="71"/>
     </row>
     <row r="55" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B55" s="49"/>
+      <c r="B55" s="49">
+        <f t="shared" si="98"/>
+        <v>41</v>
+      </c>
       <c r="C55" s="73"/>
       <c r="D55" s="74" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E55" s="75">
         <v>43041</v>
       </c>
       <c r="F55" s="73">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G55" s="76">
         <f t="shared" si="97"/>
-        <v>43054</v>
+        <v>43048</v>
       </c>
       <c r="H55" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="78"/>
       <c r="J55" s="78"/>
       <c r="K55" s="79">
         <v>5</v>
       </c>
-      <c r="L55" s="80"/>
+      <c r="L55" s="97">
+        <v>5</v>
+      </c>
       <c r="M55" s="58"/>
       <c r="N55" s="59"/>
       <c r="O55" s="59"/>
@@ -28552,23 +28813,29 @@
       </c>
       <c r="C56" s="73"/>
       <c r="D56" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="E56" s="75"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="76" t="str">
+        <v>105</v>
+      </c>
+      <c r="E56" s="75">
+        <v>43048</v>
+      </c>
+      <c r="F56" s="73">
+        <v>3</v>
+      </c>
+      <c r="G56" s="76">
         <f t="shared" si="105"/>
-        <v/>
+        <v>43050</v>
       </c>
       <c r="H56" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" s="78"/>
       <c r="J56" s="78"/>
       <c r="K56" s="79">
-        <v>2</v>
-      </c>
-      <c r="L56" s="80"/>
+        <v>4</v>
+      </c>
+      <c r="L56" s="97">
+        <v>3</v>
+      </c>
       <c r="M56" s="58"/>
       <c r="N56" s="59"/>
       <c r="O56" s="59"/>
@@ -28977,21 +29244,25 @@
       <c r="PB56" s="71"/>
     </row>
     <row r="57" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B57" s="49"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="75"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="76"/>
-      <c r="H57" s="77">
-        <v>0</v>
-      </c>
-      <c r="I57" s="78"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="80"/>
+      <c r="B57" s="149">
+        <v>43</v>
+      </c>
+      <c r="C57" s="150"/>
+      <c r="D57" s="151" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" s="152"/>
+      <c r="F57" s="150"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="156">
+        <v>10</v>
+      </c>
+      <c r="L57" s="157">
+        <v>3</v>
+      </c>
       <c r="M57" s="58"/>
       <c r="N57" s="59"/>
       <c r="O57" s="59"/>
@@ -29400,10 +29671,13 @@
       <c r="PB57" s="71"/>
     </row>
     <row r="58" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B58" s="49"/>
+      <c r="B58" s="49">
+        <f t="shared" si="98"/>
+        <v>44</v>
+      </c>
       <c r="C58" s="73"/>
       <c r="D58" s="74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E58" s="75"/>
       <c r="F58" s="73"/>
@@ -29414,7 +29688,7 @@
       <c r="I58" s="78"/>
       <c r="J58" s="78"/>
       <c r="K58" s="79"/>
-      <c r="L58" s="80"/>
+      <c r="L58" s="97"/>
       <c r="M58" s="58"/>
       <c r="N58" s="59"/>
       <c r="O58" s="59"/>
@@ -29824,19 +30098,16 @@
     </row>
     <row r="59" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B59" s="49">
-        <f>ROW()-15+1</f>
+        <f t="shared" si="98"/>
         <v>45</v>
       </c>
       <c r="C59" s="73"/>
       <c r="D59" s="74" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="E59" s="75"/>
       <c r="F59" s="73"/>
-      <c r="G59" s="76" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
+      <c r="G59" s="76"/>
       <c r="H59" s="77">
         <v>0</v>
       </c>
@@ -30258,14 +30529,11 @@
       </c>
       <c r="C60" s="73"/>
       <c r="D60" s="74" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E60" s="75"/>
       <c r="F60" s="73"/>
-      <c r="G60" s="76" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
+      <c r="G60" s="76"/>
       <c r="H60" s="77">
         <v>0</v>
       </c>
@@ -30682,12 +30950,12 @@
     </row>
     <row r="61" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B61" s="49">
-        <f t="shared" si="98"/>
+        <f>ROW()-15+1</f>
         <v>47</v>
       </c>
       <c r="C61" s="73"/>
       <c r="D61" s="74" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E61" s="75"/>
       <c r="F61" s="73"/>
@@ -31114,34 +31382,20 @@
         <f t="shared" si="98"/>
         <v>48</v>
       </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="64">
-        <v>43068</v>
-      </c>
-      <c r="F62" s="62">
-        <v>22</v>
-      </c>
-      <c r="G62" s="53">
-        <f t="shared" si="97"/>
-        <v>43089</v>
-      </c>
-      <c r="H62" s="65">
+      <c r="C62" s="73"/>
+      <c r="D62" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="75"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="77">
         <v>0</v>
       </c>
-      <c r="I62" s="66">
-        <v>43089</v>
-      </c>
-      <c r="J62" s="66"/>
-      <c r="K62" s="67">
-        <v>20</v>
-      </c>
-      <c r="L62" s="68">
-        <f>SUM(L63:L67)</f>
-        <v>0</v>
-      </c>
+      <c r="I62" s="78"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="80"/>
       <c r="M62" s="58"/>
       <c r="N62" s="59"/>
       <c r="O62" s="59"/>
@@ -31556,17 +31810,13 @@
       </c>
       <c r="C63" s="73"/>
       <c r="D63" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="75">
-        <v>43068</v>
-      </c>
-      <c r="F63" s="73">
-        <v>10</v>
-      </c>
-      <c r="G63" s="76">
-        <f t="shared" ref="G63:G67" si="106">IF(F63&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E63,1)=7,E63+2,IF(WEEKDAY(E63,1)=1,E63+1,E63)),F63-1),E63+F63-1),"")</f>
-        <v>43077</v>
+        <v>85</v>
+      </c>
+      <c r="E63" s="75"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="76" t="str">
+        <f t="shared" si="105"/>
+        <v/>
       </c>
       <c r="H63" s="77">
         <v>0</v>
@@ -31989,17 +32239,13 @@
       </c>
       <c r="C64" s="73"/>
       <c r="D64" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E64" s="75">
-        <v>43068</v>
-      </c>
-      <c r="F64" s="73">
-        <v>10</v>
-      </c>
-      <c r="G64" s="76">
-        <f t="shared" si="106"/>
-        <v>43077</v>
+        <v>56</v>
+      </c>
+      <c r="E64" s="75"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="76" t="str">
+        <f t="shared" si="105"/>
+        <v/>
       </c>
       <c r="H64" s="77">
         <v>0</v>
@@ -32416,28 +32662,38 @@
       <c r="PB64" s="71"/>
     </row>
     <row r="65" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B65" s="49"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" s="75">
+      <c r="B65" s="49">
+        <f t="shared" si="98"/>
+        <v>51</v>
+      </c>
+      <c r="C65" s="62"/>
+      <c r="D65" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="64">
         <v>43073</v>
       </c>
-      <c r="F65" s="73">
-        <v>10</v>
-      </c>
-      <c r="G65" s="76">
-        <f t="shared" si="106"/>
-        <v>43082</v>
-      </c>
-      <c r="H65" s="77">
+      <c r="F65" s="62">
+        <v>16</v>
+      </c>
+      <c r="G65" s="53">
+        <f t="shared" si="97"/>
+        <v>43088</v>
+      </c>
+      <c r="H65" s="65">
         <v>0</v>
       </c>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="80"/>
+      <c r="I65" s="66">
+        <v>43089</v>
+      </c>
+      <c r="J65" s="66"/>
+      <c r="K65" s="67">
+        <v>20</v>
+      </c>
+      <c r="L65" s="68">
+        <f>SUM(L66:L70)</f>
+        <v>0</v>
+      </c>
       <c r="M65" s="58"/>
       <c r="N65" s="59"/>
       <c r="O65" s="59"/>
@@ -32852,17 +33108,17 @@
       </c>
       <c r="C66" s="73"/>
       <c r="D66" s="74" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="E66" s="75">
-        <v>43084</v>
+        <v>43073</v>
       </c>
       <c r="F66" s="73">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G66" s="76">
-        <f t="shared" si="106"/>
-        <v>43085</v>
+        <f t="shared" ref="G66:G70" si="106">IF(F66&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E66,1)=7,E66+2,IF(WEEKDAY(E66,1)=1,E66+1,E66)),F66-1),E66+F66-1),"")</f>
+        <v>43082</v>
       </c>
       <c r="H66" s="77">
         <v>0</v>
@@ -33285,17 +33541,17 @@
       </c>
       <c r="C67" s="73"/>
       <c r="D67" s="74" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E67" s="75">
-        <v>43084</v>
+        <v>43073</v>
       </c>
       <c r="F67" s="73">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G67" s="76">
         <f t="shared" si="106"/>
-        <v>43085</v>
+        <v>43082</v>
       </c>
       <c r="H67" s="77">
         <v>0</v>
@@ -33716,35 +33972,27 @@
         <f t="shared" si="98"/>
         <v>54</v>
       </c>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="64">
-        <v>42998</v>
-      </c>
-      <c r="F68" s="62">
-        <v>94</v>
-      </c>
-      <c r="G68" s="53">
-        <f t="shared" si="97"/>
-        <v>43091</v>
-      </c>
-      <c r="H68" s="65">
-        <f>100*AVERAGE(H69:H87)%</f>
-        <v>0.37368421052631579</v>
-      </c>
-      <c r="I68" s="66">
-        <v>43091</v>
-      </c>
-      <c r="J68" s="66"/>
-      <c r="K68" s="67">
-        <v>60</v>
-      </c>
-      <c r="L68" s="68">
-        <f>SUM(L69:L87)</f>
-        <v>20.5</v>
-      </c>
+      <c r="C68" s="73"/>
+      <c r="D68" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="75">
+        <v>43073</v>
+      </c>
+      <c r="F68" s="73">
+        <v>10</v>
+      </c>
+      <c r="G68" s="76">
+        <f t="shared" si="106"/>
+        <v>43082</v>
+      </c>
+      <c r="H68" s="77">
+        <v>0</v>
+      </c>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="79"/>
+      <c r="L68" s="80"/>
       <c r="M68" s="58"/>
       <c r="N68" s="59"/>
       <c r="O68" s="59"/>
@@ -34159,29 +34407,25 @@
       </c>
       <c r="C69" s="73"/>
       <c r="D69" s="74" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E69" s="75">
-        <v>43014</v>
+        <v>43082</v>
       </c>
       <c r="F69" s="73">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G69" s="76">
-        <f>IF(F69&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E69+2,IF(WEEKDAY(E69,1)=1,E69+1,E69)),F69-1),E69+F69-1),"")</f>
-        <v>43033</v>
+        <f t="shared" si="106"/>
+        <v>43083</v>
       </c>
       <c r="H69" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="78"/>
       <c r="J69" s="78"/>
-      <c r="K69" s="79">
-        <v>8</v>
-      </c>
-      <c r="L69" s="80">
-        <v>6</v>
-      </c>
+      <c r="K69" s="79"/>
+      <c r="L69" s="80"/>
       <c r="M69" s="58"/>
       <c r="N69" s="59"/>
       <c r="O69" s="59"/>
@@ -34590,29 +34834,31 @@
       <c r="PB69" s="71"/>
     </row>
     <row r="70" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B70" s="49"/>
+      <c r="B70" s="49">
+        <f t="shared" si="98"/>
+        <v>56</v>
+      </c>
       <c r="C70" s="73"/>
       <c r="D70" s="74" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="E70" s="75">
-        <v>43009</v>
+        <v>43087</v>
       </c>
       <c r="F70" s="73">
-        <v>1</v>
-      </c>
-      <c r="G70" s="76"/>
+        <v>2</v>
+      </c>
+      <c r="G70" s="76">
+        <f t="shared" si="106"/>
+        <v>43088</v>
+      </c>
       <c r="H70" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="78"/>
       <c r="J70" s="78"/>
-      <c r="K70" s="79">
-        <v>0.5</v>
-      </c>
-      <c r="L70" s="80">
-        <v>0.5</v>
-      </c>
+      <c r="K70" s="79"/>
+      <c r="L70" s="80"/>
       <c r="M70" s="58"/>
       <c r="N70" s="59"/>
       <c r="O70" s="59"/>
@@ -35020,35 +35266,39 @@
       <c r="PA70" s="59"/>
       <c r="PB70" s="71"/>
     </row>
-    <row r="71" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B71" s="49">
-        <f t="shared" si="98"/>
+        <f>ROW()-15+1</f>
         <v>57</v>
       </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="E71" s="75">
-        <v>43014</v>
-      </c>
-      <c r="F71" s="73">
-        <v>6</v>
-      </c>
-      <c r="G71" s="76">
-        <f>IF(F71&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E71+2,IF(WEEKDAY(E71,1)=1,E71+1,E71)),F71-1),E71+F71-1),"")</f>
-        <v>43019</v>
-      </c>
-      <c r="H71" s="77">
-        <v>1</v>
-      </c>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="79">
-        <v>1</v>
-      </c>
-      <c r="L71" s="80">
-        <v>1</v>
+      <c r="C71" s="62"/>
+      <c r="D71" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E71" s="64">
+        <v>42998</v>
+      </c>
+      <c r="F71" s="62">
+        <v>94</v>
+      </c>
+      <c r="G71" s="53">
+        <f t="shared" si="97"/>
+        <v>43091</v>
+      </c>
+      <c r="H71" s="65">
+        <f>100*AVERAGE(H72:H90)%</f>
+        <v>0.4263157894736842</v>
+      </c>
+      <c r="I71" s="66">
+        <v>43091</v>
+      </c>
+      <c r="J71" s="66"/>
+      <c r="K71" s="67">
+        <v>60</v>
+      </c>
+      <c r="L71" s="68">
+        <f>SUM(L72:L90)</f>
+        <v>31.5</v>
       </c>
       <c r="M71" s="58"/>
       <c r="N71" s="59"/>
@@ -35464,16 +35714,17 @@
       </c>
       <c r="C72" s="73"/>
       <c r="D72" s="74" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E72" s="75">
-        <v>43019</v>
+        <v>43014</v>
       </c>
       <c r="F72" s="73">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G72" s="76">
-        <v>43027</v>
+        <f>IF(F72&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E72+2,IF(WEEKDAY(E72,1)=1,E72+1,E72)),F72-1),E72+F72-1),"")</f>
+        <v>43033</v>
       </c>
       <c r="H72" s="77">
         <v>1</v>
@@ -35481,10 +35732,10 @@
       <c r="I72" s="78"/>
       <c r="J72" s="78"/>
       <c r="K72" s="79">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L72" s="80">
-        <v>1.5</v>
+        <v>6</v>
       </c>
       <c r="M72" s="58"/>
       <c r="N72" s="59"/>
@@ -35900,24 +36151,25 @@
       </c>
       <c r="C73" s="73"/>
       <c r="D73" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="75"/>
-      <c r="F73" s="73"/>
-      <c r="G73" s="76" t="str">
-        <f>IF(F73&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E73+2,IF(WEEKDAY(E73,1)=1,E73+1,E73)),F73-1),E73+F73-1),"")</f>
-        <v/>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="E73" s="75">
+        <v>43009</v>
+      </c>
+      <c r="F73" s="73">
+        <v>1</v>
+      </c>
+      <c r="G73" s="76"/>
       <c r="H73" s="77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I73" s="78"/>
       <c r="J73" s="78"/>
       <c r="K73" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="L73" s="97">
-        <v>1.5</v>
+        <v>0.5</v>
+      </c>
+      <c r="L73" s="80">
+        <v>0.5</v>
       </c>
       <c r="M73" s="58"/>
       <c r="N73" s="59"/>
@@ -36326,24 +36578,24 @@
       <c r="PA73" s="59"/>
       <c r="PB73" s="71"/>
     </row>
-    <row r="74" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="49">
         <f t="shared" si="98"/>
         <v>60</v>
       </c>
       <c r="C74" s="73"/>
       <c r="D74" s="74" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="E74" s="75">
-        <v>43017</v>
+        <v>43014</v>
       </c>
       <c r="F74" s="73">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G74" s="76">
         <f>IF(F74&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E74+2,IF(WEEKDAY(E74,1)=1,E74+1,E74)),F74-1),E74+F74-1),"")</f>
-        <v>43030</v>
+        <v>43019</v>
       </c>
       <c r="H74" s="77">
         <v>1</v>
@@ -36351,10 +36603,10 @@
       <c r="I74" s="78"/>
       <c r="J74" s="78"/>
       <c r="K74" s="79">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L74" s="80">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M74" s="58"/>
       <c r="N74" s="59"/>
@@ -36770,17 +37022,16 @@
       </c>
       <c r="C75" s="73"/>
       <c r="D75" s="74" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E75" s="75">
-        <v>43036</v>
+        <v>43019</v>
       </c>
       <c r="F75" s="73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G75" s="76">
-        <f>IF(F75&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E75+2,IF(WEEKDAY(E75,1)=1,E75+1,E75)),F75-1),E75+F75-1),"")</f>
-        <v>43042</v>
+        <v>43027</v>
       </c>
       <c r="H75" s="77">
         <v>1</v>
@@ -36788,10 +37039,10 @@
       <c r="I75" s="78"/>
       <c r="J75" s="78"/>
       <c r="K75" s="79">
+        <v>1</v>
+      </c>
+      <c r="L75" s="80">
         <v>1.5</v>
-      </c>
-      <c r="L75" s="97">
-        <v>1</v>
       </c>
       <c r="M75" s="58"/>
       <c r="N75" s="59"/>
@@ -37207,27 +37458,25 @@
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="E76" s="75">
-        <v>43038</v>
-      </c>
-      <c r="F76" s="73">
-        <v>12</v>
-      </c>
-      <c r="G76" s="76">
+        <v>46</v>
+      </c>
+      <c r="E76" s="75"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="76" t="str">
         <f>IF(F76&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E76+2,IF(WEEKDAY(E76,1)=1,E76+1,E76)),F76-1),E76+F76-1),"")</f>
-        <v>43049</v>
+        <v/>
       </c>
       <c r="H76" s="77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I76" s="78"/>
       <c r="J76" s="78"/>
       <c r="K76" s="79">
-        <v>10</v>
-      </c>
-      <c r="L76" s="80"/>
+        <v>1.5</v>
+      </c>
+      <c r="L76" s="80">
+        <v>1.5</v>
+      </c>
       <c r="M76" s="58"/>
       <c r="N76" s="59"/>
       <c r="O76" s="59"/>
@@ -37642,23 +37891,29 @@
       </c>
       <c r="C77" s="73"/>
       <c r="D77" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E77" s="75"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="76" t="str">
+        <v>93</v>
+      </c>
+      <c r="E77" s="75">
+        <v>43017</v>
+      </c>
+      <c r="F77" s="73">
+        <v>14</v>
+      </c>
+      <c r="G77" s="76">
         <f>IF(F77&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E77+2,IF(WEEKDAY(E77,1)=1,E77+1,E77)),F77-1),E77+F77-1),"")</f>
-        <v/>
+        <v>43030</v>
       </c>
       <c r="H77" s="77">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I77" s="78"/>
       <c r="J77" s="78"/>
       <c r="K77" s="79">
-        <v>20</v>
-      </c>
-      <c r="L77" s="80"/>
+        <v>6</v>
+      </c>
+      <c r="L77" s="80">
+        <v>9</v>
+      </c>
       <c r="M77" s="58"/>
       <c r="N77" s="59"/>
       <c r="O77" s="59"/>
@@ -38073,20 +38328,29 @@
       </c>
       <c r="C78" s="73"/>
       <c r="D78" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="E78" s="75"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="76"/>
+        <v>45</v>
+      </c>
+      <c r="E78" s="75">
+        <v>43036</v>
+      </c>
+      <c r="F78" s="73">
+        <v>7</v>
+      </c>
+      <c r="G78" s="76">
+        <f>IF(F78&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E78+2,IF(WEEKDAY(E78,1)=1,E78+1,E78)),F78-1),E78+F78-1),"")</f>
+        <v>43042</v>
+      </c>
       <c r="H78" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" s="78"/>
       <c r="J78" s="78"/>
       <c r="K78" s="79">
-        <v>10</v>
-      </c>
-      <c r="L78" s="80"/>
+        <v>1.5</v>
+      </c>
+      <c r="L78" s="80">
+        <v>2</v>
+      </c>
       <c r="M78" s="58"/>
       <c r="N78" s="59"/>
       <c r="O78" s="59"/>
@@ -38501,20 +38765,29 @@
       </c>
       <c r="C79" s="73"/>
       <c r="D79" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="E79" s="75"/>
-      <c r="F79" s="73"/>
-      <c r="G79" s="76"/>
+        <v>94</v>
+      </c>
+      <c r="E79" s="75">
+        <v>43038</v>
+      </c>
+      <c r="F79" s="73">
+        <v>12</v>
+      </c>
+      <c r="G79" s="76">
+        <f>IF(F79&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E79+2,IF(WEEKDAY(E79,1)=1,E79+1,E79)),F79-1),E79+F79-1),"")</f>
+        <v>43049</v>
+      </c>
       <c r="H79" s="77">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I79" s="78"/>
       <c r="J79" s="78"/>
       <c r="K79" s="79">
-        <v>5</v>
-      </c>
-      <c r="L79" s="80"/>
+        <v>10</v>
+      </c>
+      <c r="L79" s="97">
+        <v>8</v>
+      </c>
       <c r="M79" s="58"/>
       <c r="N79" s="59"/>
       <c r="O79" s="59"/>
@@ -38929,23 +39202,29 @@
       </c>
       <c r="C80" s="73"/>
       <c r="D80" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="E80" s="75"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="76" t="str">
+        <v>95</v>
+      </c>
+      <c r="E80" s="75">
+        <v>43044</v>
+      </c>
+      <c r="F80" s="73">
+        <v>30</v>
+      </c>
+      <c r="G80" s="76">
         <f>IF(F80&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E80+2,IF(WEEKDAY(E80,1)=1,E80+1,E80)),F80-1),E80+F80-1),"")</f>
-        <v/>
+        <v>43073</v>
       </c>
       <c r="H80" s="77">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I80" s="78"/>
       <c r="J80" s="78"/>
       <c r="K80" s="79">
-        <v>6</v>
-      </c>
-      <c r="L80" s="80"/>
+        <v>20</v>
+      </c>
+      <c r="L80" s="97">
+        <v>2</v>
+      </c>
       <c r="M80" s="58"/>
       <c r="N80" s="59"/>
       <c r="O80" s="59"/>
@@ -39360,21 +39639,18 @@
       </c>
       <c r="C81" s="73"/>
       <c r="D81" s="74" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="E81" s="75"/>
       <c r="F81" s="73"/>
-      <c r="G81" s="76" t="str">
-        <f>IF(F81&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E81+2,IF(WEEKDAY(E81,1)=1,E81+1,E81)),F81-1),E81+F81-1),"")</f>
-        <v/>
-      </c>
+      <c r="G81" s="76"/>
       <c r="H81" s="77">
         <v>0</v>
       </c>
       <c r="I81" s="78"/>
       <c r="J81" s="78"/>
       <c r="K81" s="79">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L81" s="80"/>
       <c r="M81" s="58"/>
@@ -39791,21 +40067,18 @@
       </c>
       <c r="C82" s="73"/>
       <c r="D82" s="74" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E82" s="75"/>
       <c r="F82" s="73"/>
-      <c r="G82" s="76" t="str">
-        <f>IF(F82&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E82+2,IF(WEEKDAY(E82,1)=1,E82+1,E82)),F82-1),E82+F82-1),"")</f>
-        <v/>
-      </c>
+      <c r="G82" s="76"/>
       <c r="H82" s="77">
         <v>0</v>
       </c>
       <c r="I82" s="78"/>
       <c r="J82" s="78"/>
       <c r="K82" s="79">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L82" s="80"/>
       <c r="M82" s="58"/>
@@ -40222,7 +40495,7 @@
       </c>
       <c r="C83" s="73"/>
       <c r="D83" s="74" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E83" s="75"/>
       <c r="F83" s="73"/>
@@ -40236,7 +40509,7 @@
       <c r="I83" s="78"/>
       <c r="J83" s="78"/>
       <c r="K83" s="79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L83" s="80"/>
       <c r="M83" s="58"/>
@@ -40653,7 +40926,7 @@
       </c>
       <c r="C84" s="73"/>
       <c r="D84" s="74" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E84" s="75"/>
       <c r="F84" s="73"/>
@@ -40667,7 +40940,7 @@
       <c r="I84" s="78"/>
       <c r="J84" s="78"/>
       <c r="K84" s="79">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L84" s="80"/>
       <c r="M84" s="58"/>
@@ -41084,7 +41357,7 @@
       </c>
       <c r="C85" s="73"/>
       <c r="D85" s="74" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="E85" s="75"/>
       <c r="F85" s="73"/>
@@ -41098,7 +41371,7 @@
       <c r="I85" s="78"/>
       <c r="J85" s="78"/>
       <c r="K85" s="79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L85" s="80"/>
       <c r="M85" s="58"/>
@@ -41515,7 +41788,7 @@
       </c>
       <c r="C86" s="73"/>
       <c r="D86" s="74" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E86" s="75"/>
       <c r="F86" s="73"/>
@@ -41529,7 +41802,7 @@
       <c r="I86" s="78"/>
       <c r="J86" s="78"/>
       <c r="K86" s="79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L86" s="80"/>
       <c r="M86" s="58"/>
@@ -41946,7 +42219,7 @@
       </c>
       <c r="C87" s="73"/>
       <c r="D87" s="74" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E87" s="75"/>
       <c r="F87" s="73"/>
@@ -41955,12 +42228,12 @@
         <v/>
       </c>
       <c r="H87" s="77">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I87" s="78"/>
       <c r="J87" s="78"/>
       <c r="K87" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L87" s="80"/>
       <c r="M87" s="58"/>
@@ -42375,31 +42648,25 @@
         <f t="shared" si="98"/>
         <v>74</v>
       </c>
-      <c r="C88" s="62"/>
-      <c r="D88" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E88" s="64">
-        <v>43087</v>
-      </c>
-      <c r="F88" s="62">
-        <v>40</v>
-      </c>
-      <c r="G88" s="53">
-        <f t="shared" ref="G88:G91" si="107">IF(F88&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E88,1)=7,E88+2,IF(WEEKDAY(E88,1)=1,E88+1,E88)),F88-1),E88+F88-1),"")</f>
-        <v>43126</v>
-      </c>
-      <c r="H88" s="65">
+      <c r="C88" s="73"/>
+      <c r="D88" s="74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88" s="75"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="76" t="str">
+        <f>IF(F88&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E88+2,IF(WEEKDAY(E88,1)=1,E88+1,E88)),F88-1),E88+F88-1),"")</f>
+        <v/>
+      </c>
+      <c r="H88" s="77">
         <v>0</v>
       </c>
-      <c r="I88" s="66">
-        <v>43452</v>
-      </c>
-      <c r="J88" s="66"/>
-      <c r="K88" s="67">
-        <v>10</v>
-      </c>
-      <c r="L88" s="68"/>
+      <c r="I88" s="78"/>
+      <c r="J88" s="78"/>
+      <c r="K88" s="79">
+        <v>5</v>
+      </c>
+      <c r="L88" s="80"/>
       <c r="M88" s="58"/>
       <c r="N88" s="59"/>
       <c r="O88" s="59"/>
@@ -42808,21 +43075,28 @@
       <c r="PB88" s="71"/>
     </row>
     <row r="89" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B89" s="49"/>
+      <c r="B89" s="49">
+        <f t="shared" si="98"/>
+        <v>75</v>
+      </c>
       <c r="C89" s="73"/>
       <c r="D89" s="74" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="E89" s="75"/>
       <c r="F89" s="73"/>
-      <c r="G89" s="53" t="str">
-        <f>IF(F89&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E89,1)=7,E89+2,IF(WEEKDAY(E89,1)=1,E89+1,E89)),F89-1),E89+F89-1),"")</f>
+      <c r="G89" s="76" t="str">
+        <f>IF(F89&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E89+2,IF(WEEKDAY(E89,1)=1,E89+1,E89)),F89-1),E89+F89-1),"")</f>
         <v/>
       </c>
-      <c r="H89" s="77"/>
+      <c r="H89" s="77">
+        <v>0</v>
+      </c>
       <c r="I89" s="78"/>
       <c r="J89" s="78"/>
-      <c r="K89" s="79"/>
+      <c r="K89" s="79">
+        <v>0.5</v>
+      </c>
       <c r="L89" s="80"/>
       <c r="M89" s="58"/>
       <c r="N89" s="59"/>
@@ -43236,31 +43510,25 @@
         <f t="shared" si="98"/>
         <v>76</v>
       </c>
-      <c r="C90" s="62"/>
-      <c r="D90" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="E90" s="64">
-        <v>43130</v>
-      </c>
-      <c r="F90" s="62">
+      <c r="C90" s="73"/>
+      <c r="D90" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="E90" s="75"/>
+      <c r="F90" s="73"/>
+      <c r="G90" s="76" t="str">
+        <f>IF(F90&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E90+2,IF(WEEKDAY(E90,1)=1,E90+1,E90)),F90-1),E90+F90-1),"")</f>
+        <v/>
+      </c>
+      <c r="H90" s="77">
+        <v>0</v>
+      </c>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+      <c r="K90" s="79">
         <v>1</v>
       </c>
-      <c r="G90" s="53">
-        <f t="shared" si="107"/>
-        <v>43130</v>
-      </c>
-      <c r="H90" s="65">
-        <v>0</v>
-      </c>
-      <c r="I90" s="66">
-        <v>43130</v>
-      </c>
-      <c r="J90" s="66"/>
-      <c r="K90" s="67">
-        <v>6</v>
-      </c>
-      <c r="L90" s="68"/>
+      <c r="L90" s="80"/>
       <c r="M90" s="58"/>
       <c r="N90" s="59"/>
       <c r="O90" s="59"/>
@@ -43673,25 +43941,31 @@
         <f t="shared" si="98"/>
         <v>77</v>
       </c>
-      <c r="C91" s="73"/>
-      <c r="D91" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="E91" s="75"/>
-      <c r="F91" s="73"/>
-      <c r="G91" s="76" t="str">
-        <f t="shared" si="107"/>
-        <v/>
-      </c>
-      <c r="H91" s="77">
+      <c r="C91" s="62"/>
+      <c r="D91" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="E91" s="64">
+        <v>43109</v>
+      </c>
+      <c r="F91" s="62">
+        <v>1</v>
+      </c>
+      <c r="G91" s="53">
+        <f t="shared" ref="G91:G94" si="107">IF(F91&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E91,1)=7,E91+2,IF(WEEKDAY(E91,1)=1,E91+1,E91)),F91-1),E91+F91-1),"")</f>
+        <v>43109</v>
+      </c>
+      <c r="H91" s="65">
         <v>0</v>
       </c>
-      <c r="I91" s="78"/>
-      <c r="J91" s="78"/>
-      <c r="K91" s="79">
-        <v>5</v>
-      </c>
-      <c r="L91" s="80"/>
+      <c r="I91" s="66">
+        <v>43109</v>
+      </c>
+      <c r="J91" s="66"/>
+      <c r="K91" s="67">
+        <v>10</v>
+      </c>
+      <c r="L91" s="68"/>
       <c r="M91" s="58"/>
       <c r="N91" s="59"/>
       <c r="O91" s="59"/>
@@ -44101,23 +44375,31 @@
     </row>
     <row r="92" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B92" s="49">
-        <f t="shared" si="98"/>
-        <v>78</v>
-      </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="E92" s="84"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="86"/>
-      <c r="I92" s="87"/>
-      <c r="J92" s="87"/>
-      <c r="K92" s="88">
-        <v>1</v>
-      </c>
-      <c r="L92" s="89"/>
+        <v>75</v>
+      </c>
+      <c r="C92" s="73"/>
+      <c r="D92" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E92" s="75">
+        <v>43101</v>
+      </c>
+      <c r="F92" s="73">
+        <v>9</v>
+      </c>
+      <c r="G92" s="76">
+        <f t="shared" si="107"/>
+        <v>43109</v>
+      </c>
+      <c r="H92" s="77">
+        <v>0</v>
+      </c>
+      <c r="I92" s="78"/>
+      <c r="J92" s="78"/>
+      <c r="K92" s="79">
+        <v>8</v>
+      </c>
+      <c r="L92" s="80"/>
       <c r="M92" s="58"/>
       <c r="N92" s="59"/>
       <c r="O92" s="59"/>
@@ -44527,19 +44809,31 @@
     </row>
     <row r="93" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B93" s="49">
-        <f t="shared" si="98"/>
-        <v>79</v>
-      </c>
-      <c r="C93" s="82"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="84"/>
-      <c r="F93" s="82"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="86"/>
-      <c r="I93" s="87"/>
-      <c r="J93" s="87"/>
-      <c r="K93" s="88"/>
-      <c r="L93" s="89"/>
+        <v>76</v>
+      </c>
+      <c r="C93" s="73"/>
+      <c r="D93" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="E93" s="75">
+        <v>43104</v>
+      </c>
+      <c r="F93" s="73">
+        <v>5</v>
+      </c>
+      <c r="G93" s="76">
+        <f t="shared" si="107"/>
+        <v>43108</v>
+      </c>
+      <c r="H93" s="77">
+        <v>0</v>
+      </c>
+      <c r="I93" s="78"/>
+      <c r="J93" s="78"/>
+      <c r="K93" s="79">
+        <v>2</v>
+      </c>
+      <c r="L93" s="80"/>
       <c r="M93" s="58"/>
       <c r="N93" s="59"/>
       <c r="O93" s="59"/>
@@ -44952,16 +45246,31 @@
         <f t="shared" si="98"/>
         <v>80</v>
       </c>
-      <c r="C94" s="82"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="84"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="86"/>
-      <c r="I94" s="87"/>
-      <c r="J94" s="87"/>
-      <c r="K94" s="88"/>
-      <c r="L94" s="89"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E94" s="64">
+        <v>43130</v>
+      </c>
+      <c r="F94" s="62">
+        <v>1</v>
+      </c>
+      <c r="G94" s="53">
+        <f t="shared" si="107"/>
+        <v>43130</v>
+      </c>
+      <c r="H94" s="65">
+        <v>0</v>
+      </c>
+      <c r="I94" s="66">
+        <v>43130</v>
+      </c>
+      <c r="J94" s="66"/>
+      <c r="K94" s="67">
+        <v>6</v>
+      </c>
+      <c r="L94" s="68"/>
       <c r="M94" s="58"/>
       <c r="N94" s="59"/>
       <c r="O94" s="59"/>
@@ -45374,16 +45683,29 @@
         <f t="shared" si="98"/>
         <v>81</v>
       </c>
-      <c r="C95" s="82"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="84"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="86"/>
-      <c r="I95" s="87"/>
-      <c r="J95" s="87"/>
-      <c r="K95" s="88"/>
-      <c r="L95" s="89"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="E95" s="75">
+        <v>43120</v>
+      </c>
+      <c r="F95" s="73">
+        <v>8</v>
+      </c>
+      <c r="G95" s="76">
+        <f t="shared" ref="G95:G96" si="108">IF(F95&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E95,1)=7,E95+2,IF(WEEKDAY(E95,1)=1,E95+1,E95)),F95-1),E95+F95-1),"")</f>
+        <v>43127</v>
+      </c>
+      <c r="H95" s="77">
+        <v>0</v>
+      </c>
+      <c r="I95" s="78"/>
+      <c r="J95" s="78"/>
+      <c r="K95" s="79">
+        <v>5</v>
+      </c>
+      <c r="L95" s="80"/>
       <c r="M95" s="58"/>
       <c r="N95" s="59"/>
       <c r="O95" s="59"/>
@@ -45797,14 +46119,27 @@
         <v>82</v>
       </c>
       <c r="C96" s="82"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="84"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="86"/>
+      <c r="D96" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="E96" s="84">
+        <v>43128</v>
+      </c>
+      <c r="F96" s="82">
+        <v>1</v>
+      </c>
+      <c r="G96" s="76">
+        <f t="shared" si="108"/>
+        <v>43128</v>
+      </c>
+      <c r="H96" s="86">
+        <v>0</v>
+      </c>
       <c r="I96" s="87"/>
       <c r="J96" s="87"/>
-      <c r="K96" s="88"/>
+      <c r="K96" s="88">
+        <v>1</v>
+      </c>
       <c r="L96" s="89"/>
       <c r="M96" s="58"/>
       <c r="N96" s="59"/>
@@ -46218,16 +46553,16 @@
         <f t="shared" si="98"/>
         <v>83</v>
       </c>
-      <c r="C97" s="82"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="84"/>
-      <c r="F97" s="82"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="86"/>
-      <c r="I97" s="87"/>
-      <c r="J97" s="87"/>
-      <c r="K97" s="88"/>
-      <c r="L97" s="89"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="73"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="78"/>
+      <c r="J97" s="78"/>
+      <c r="K97" s="79"/>
+      <c r="L97" s="80"/>
       <c r="M97" s="58"/>
       <c r="N97" s="59"/>
       <c r="O97" s="59"/>
@@ -47910,10 +48245,7 @@
       <c r="D101" s="83"/>
       <c r="E101" s="84"/>
       <c r="F101" s="82"/>
-      <c r="G101" s="85" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
+      <c r="G101" s="85"/>
       <c r="H101" s="86"/>
       <c r="I101" s="87"/>
       <c r="J101" s="87"/>
@@ -48327,259 +48659,2873 @@
       <c r="PB101" s="71"/>
     </row>
     <row r="102" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="M102" s="90"/>
-      <c r="N102" s="90"/>
-      <c r="O102" s="90"/>
-      <c r="P102" s="91"/>
-      <c r="Q102" s="91"/>
-      <c r="R102" s="91"/>
-      <c r="S102" s="91"/>
-      <c r="T102" s="91"/>
-      <c r="U102" s="91"/>
-      <c r="V102" s="91"/>
-      <c r="W102" s="91"/>
-      <c r="X102" s="91"/>
-      <c r="Y102" s="91"/>
-      <c r="Z102" s="91"/>
-      <c r="AA102" s="91"/>
-      <c r="AB102" s="91"/>
-      <c r="AC102" s="91"/>
-      <c r="AD102" s="91"/>
-      <c r="AE102" s="91"/>
-      <c r="AF102" s="91"/>
-      <c r="AG102" s="91"/>
-      <c r="AH102" s="91"/>
-      <c r="AI102" s="91"/>
-      <c r="AJ102" s="91"/>
-      <c r="AK102" s="91"/>
-      <c r="AL102" s="91"/>
-      <c r="AM102" s="91"/>
-      <c r="AN102" s="91"/>
-      <c r="AO102" s="91"/>
-      <c r="AP102" s="91"/>
-      <c r="AQ102" s="91"/>
-      <c r="AR102" s="91"/>
-      <c r="AS102" s="91"/>
-      <c r="AT102" s="91"/>
-      <c r="AU102" s="91"/>
-      <c r="AV102" s="91"/>
-      <c r="AW102" s="91"/>
-      <c r="AX102" s="91"/>
-      <c r="AY102" s="91"/>
-      <c r="AZ102" s="91"/>
-      <c r="BA102" s="91"/>
-      <c r="BB102" s="91"/>
-      <c r="BC102" s="91"/>
-      <c r="BD102" s="91"/>
-      <c r="BE102" s="91"/>
-      <c r="BF102" s="91"/>
-      <c r="BG102" s="91"/>
-      <c r="BH102" s="91"/>
-      <c r="BI102" s="91"/>
-      <c r="BJ102" s="91"/>
-      <c r="BK102" s="91"/>
-      <c r="BL102" s="91"/>
-      <c r="BM102" s="91"/>
-      <c r="BN102" s="91"/>
-      <c r="BO102" s="91"/>
-      <c r="BP102" s="91"/>
-      <c r="BQ102" s="91"/>
-      <c r="BR102" s="91"/>
-      <c r="BS102" s="91"/>
-      <c r="BT102" s="91"/>
-      <c r="BU102" s="91"/>
-      <c r="BV102" s="91"/>
-      <c r="BW102" s="91"/>
-      <c r="BX102" s="91"/>
-      <c r="BY102" s="91"/>
-      <c r="BZ102" s="91"/>
-      <c r="CA102" s="91"/>
-      <c r="CB102" s="91"/>
-      <c r="CC102" s="91"/>
-      <c r="CD102" s="91"/>
-      <c r="CE102" s="91"/>
-      <c r="CF102" s="91"/>
-      <c r="CG102" s="91"/>
-      <c r="CH102" s="91"/>
-      <c r="CI102" s="91"/>
-      <c r="CJ102" s="91"/>
-      <c r="CK102" s="91"/>
-      <c r="CL102" s="91"/>
-      <c r="CM102" s="91"/>
-      <c r="CN102" s="91"/>
-      <c r="CO102" s="91"/>
-      <c r="CP102" s="91"/>
-      <c r="CQ102" s="91"/>
-      <c r="CR102" s="91"/>
-      <c r="CS102" s="91"/>
-      <c r="CT102" s="91"/>
-      <c r="CU102" s="91"/>
-      <c r="CV102" s="91"/>
-      <c r="CW102" s="91"/>
-      <c r="CX102" s="91"/>
-      <c r="CY102" s="91"/>
-      <c r="CZ102" s="91"/>
-      <c r="DA102" s="91"/>
-      <c r="DB102" s="91"/>
-      <c r="DC102" s="91"/>
-      <c r="DD102" s="91"/>
-      <c r="DE102" s="91"/>
-      <c r="DF102" s="91"/>
-      <c r="DG102" s="91"/>
-      <c r="DH102" s="91"/>
-      <c r="DI102" s="91"/>
-      <c r="DJ102" s="91"/>
-      <c r="DK102" s="91"/>
-      <c r="DL102" s="91"/>
-      <c r="DM102" s="91"/>
-      <c r="DN102" s="91"/>
-      <c r="DO102" s="91"/>
-      <c r="DP102" s="91"/>
-      <c r="DQ102" s="91"/>
-      <c r="DR102" s="91"/>
-      <c r="DS102" s="91"/>
-      <c r="DT102" s="91"/>
-      <c r="DU102" s="91"/>
-      <c r="DV102" s="91"/>
-      <c r="DW102" s="91"/>
-      <c r="DX102" s="91"/>
+      <c r="B102" s="49">
+        <f t="shared" si="98"/>
+        <v>88</v>
+      </c>
+      <c r="C102" s="82"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="84"/>
+      <c r="F102" s="82"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="87"/>
+      <c r="J102" s="87"/>
+      <c r="K102" s="88"/>
+      <c r="L102" s="89"/>
+      <c r="M102" s="58"/>
+      <c r="N102" s="59"/>
+      <c r="O102" s="59"/>
+      <c r="P102" s="59"/>
+      <c r="Q102" s="59"/>
+      <c r="R102" s="59"/>
+      <c r="S102" s="59"/>
+      <c r="T102" s="59"/>
+      <c r="U102" s="59"/>
+      <c r="V102" s="59"/>
+      <c r="W102" s="59"/>
+      <c r="X102" s="59"/>
+      <c r="Y102" s="59"/>
+      <c r="Z102" s="59"/>
+      <c r="AA102" s="59"/>
+      <c r="AB102" s="59"/>
+      <c r="AC102" s="59"/>
+      <c r="AD102" s="59"/>
+      <c r="AE102" s="59"/>
+      <c r="AF102" s="59"/>
+      <c r="AG102" s="59"/>
+      <c r="AH102" s="59"/>
+      <c r="AI102" s="59"/>
+      <c r="AJ102" s="59"/>
+      <c r="AK102" s="59"/>
+      <c r="AL102" s="59"/>
+      <c r="AM102" s="59"/>
+      <c r="AN102" s="59"/>
+      <c r="AO102" s="59"/>
+      <c r="AP102" s="59"/>
+      <c r="AQ102" s="59"/>
+      <c r="AR102" s="59"/>
+      <c r="AS102" s="59"/>
+      <c r="AT102" s="59"/>
+      <c r="AU102" s="59"/>
+      <c r="AV102" s="59"/>
+      <c r="AW102" s="59"/>
+      <c r="AX102" s="59"/>
+      <c r="AY102" s="59"/>
+      <c r="AZ102" s="59"/>
+      <c r="BA102" s="59"/>
+      <c r="BB102" s="59"/>
+      <c r="BC102" s="59"/>
+      <c r="BD102" s="59"/>
+      <c r="BE102" s="59"/>
+      <c r="BF102" s="59"/>
+      <c r="BG102" s="59"/>
+      <c r="BH102" s="59"/>
+      <c r="BI102" s="59"/>
+      <c r="BJ102" s="59"/>
+      <c r="BK102" s="59"/>
+      <c r="BL102" s="59"/>
+      <c r="BM102" s="59"/>
+      <c r="BN102" s="59"/>
+      <c r="BO102" s="59"/>
+      <c r="BP102" s="59"/>
+      <c r="BQ102" s="59"/>
+      <c r="BR102" s="59"/>
+      <c r="BS102" s="59"/>
+      <c r="BT102" s="59"/>
+      <c r="BU102" s="59"/>
+      <c r="BV102" s="59"/>
+      <c r="BW102" s="59"/>
+      <c r="BX102" s="59"/>
+      <c r="BY102" s="59"/>
+      <c r="BZ102" s="59"/>
+      <c r="CA102" s="59"/>
+      <c r="CB102" s="59"/>
+      <c r="CC102" s="59"/>
+      <c r="CD102" s="59"/>
+      <c r="CE102" s="59"/>
+      <c r="CF102" s="59"/>
+      <c r="CG102" s="59"/>
+      <c r="CH102" s="59"/>
+      <c r="CI102" s="59"/>
+      <c r="CJ102" s="59"/>
+      <c r="CK102" s="59"/>
+      <c r="CL102" s="59"/>
+      <c r="CM102" s="59"/>
+      <c r="CN102" s="59"/>
+      <c r="CO102" s="59"/>
+      <c r="CP102" s="59"/>
+      <c r="CQ102" s="59"/>
+      <c r="CR102" s="59"/>
+      <c r="CS102" s="59"/>
+      <c r="CT102" s="59"/>
+      <c r="CU102" s="59"/>
+      <c r="CV102" s="59"/>
+      <c r="CW102" s="59"/>
+      <c r="CX102" s="59"/>
+      <c r="CY102" s="59"/>
+      <c r="CZ102" s="59"/>
+      <c r="DA102" s="59"/>
+      <c r="DB102" s="59"/>
+      <c r="DC102" s="59"/>
+      <c r="DD102" s="59"/>
+      <c r="DE102" s="59"/>
+      <c r="DF102" s="59"/>
+      <c r="DG102" s="59"/>
+      <c r="DH102" s="59"/>
+      <c r="DI102" s="59"/>
+      <c r="DJ102" s="59"/>
+      <c r="DK102" s="59"/>
+      <c r="DL102" s="59"/>
+      <c r="DM102" s="59"/>
+      <c r="DN102" s="59"/>
+      <c r="DO102" s="59"/>
+      <c r="DP102" s="59"/>
+      <c r="DQ102" s="59"/>
+      <c r="DR102" s="59"/>
+      <c r="DS102" s="59"/>
+      <c r="DT102" s="59"/>
+      <c r="DU102" s="59"/>
+      <c r="DV102" s="59"/>
+      <c r="DW102" s="59"/>
+      <c r="DX102" s="59"/>
+      <c r="DY102" s="59"/>
+      <c r="DZ102" s="59"/>
+      <c r="EA102" s="59"/>
+      <c r="EB102" s="59"/>
+      <c r="EC102" s="59"/>
+      <c r="ED102" s="59"/>
+      <c r="EE102" s="59"/>
+      <c r="EF102" s="59"/>
+      <c r="EG102" s="59"/>
+      <c r="EH102" s="59"/>
+      <c r="EI102" s="59"/>
+      <c r="EJ102" s="59"/>
+      <c r="EK102" s="59"/>
+      <c r="EL102" s="59"/>
+      <c r="EM102" s="59"/>
+      <c r="EN102" s="59"/>
+      <c r="EO102" s="59"/>
+      <c r="EP102" s="59"/>
+      <c r="EQ102" s="59"/>
+      <c r="ER102" s="59"/>
+      <c r="ES102" s="59"/>
+      <c r="ET102" s="59"/>
+      <c r="EU102" s="59"/>
+      <c r="EV102" s="59"/>
+      <c r="EW102" s="59"/>
+      <c r="EX102" s="59"/>
+      <c r="EY102" s="59"/>
+      <c r="EZ102" s="59"/>
+      <c r="FA102" s="59"/>
+      <c r="FB102" s="59"/>
+      <c r="FC102" s="59"/>
+      <c r="FD102" s="59"/>
+      <c r="FE102" s="59"/>
+      <c r="FF102" s="59"/>
+      <c r="FG102" s="59"/>
+      <c r="FH102" s="59"/>
+      <c r="FI102" s="59"/>
+      <c r="FJ102" s="59"/>
+      <c r="FK102" s="59"/>
+      <c r="FL102" s="59"/>
+      <c r="FM102" s="59"/>
+      <c r="FN102" s="59"/>
+      <c r="FO102" s="59"/>
+      <c r="FP102" s="59"/>
+      <c r="FQ102" s="59"/>
+      <c r="FR102" s="59"/>
+      <c r="FS102" s="59"/>
+      <c r="FT102" s="59"/>
+      <c r="FU102" s="59"/>
+      <c r="FV102" s="59"/>
+      <c r="FW102" s="59"/>
+      <c r="FX102" s="59"/>
+      <c r="FY102" s="59"/>
+      <c r="FZ102" s="59"/>
+      <c r="GA102" s="59"/>
+      <c r="GB102" s="59"/>
+      <c r="GC102" s="59"/>
+      <c r="GD102" s="59"/>
+      <c r="GE102" s="59"/>
+      <c r="GF102" s="59"/>
+      <c r="GG102" s="59"/>
+      <c r="GH102" s="59"/>
+      <c r="GI102" s="59"/>
+      <c r="GJ102" s="59"/>
+      <c r="GK102" s="59"/>
+      <c r="GL102" s="59"/>
+      <c r="GM102" s="59"/>
+      <c r="GN102" s="59"/>
+      <c r="GO102" s="59"/>
+      <c r="GP102" s="59"/>
+      <c r="GQ102" s="59"/>
+      <c r="GR102" s="59"/>
+      <c r="GS102" s="59"/>
+      <c r="GT102" s="59"/>
+      <c r="GU102" s="59"/>
+      <c r="GV102" s="59"/>
+      <c r="GW102" s="59"/>
+      <c r="GX102" s="59"/>
+      <c r="GY102" s="59"/>
+      <c r="GZ102" s="59"/>
+      <c r="HA102" s="59"/>
+      <c r="HB102" s="59"/>
+      <c r="HC102" s="59"/>
+      <c r="HD102" s="59"/>
+      <c r="HE102" s="59"/>
+      <c r="HF102" s="59"/>
+      <c r="HG102" s="59"/>
+      <c r="HH102" s="59"/>
+      <c r="HI102" s="59"/>
+      <c r="HJ102" s="59"/>
+      <c r="HK102" s="59"/>
+      <c r="HL102" s="59"/>
+      <c r="HM102" s="59"/>
+      <c r="HN102" s="59"/>
+      <c r="HO102" s="59"/>
+      <c r="HP102" s="59"/>
+      <c r="HQ102" s="59"/>
+      <c r="HR102" s="59"/>
+      <c r="HS102" s="59"/>
+      <c r="HT102" s="59"/>
+      <c r="HU102" s="59"/>
+      <c r="HV102" s="59"/>
+      <c r="HW102" s="59"/>
+      <c r="HX102" s="59"/>
+      <c r="HY102" s="59"/>
+      <c r="HZ102" s="59"/>
+      <c r="IA102" s="59"/>
+      <c r="IB102" s="59"/>
+      <c r="IC102" s="59"/>
+      <c r="ID102" s="59"/>
+      <c r="IE102" s="59"/>
+      <c r="IF102" s="59"/>
+      <c r="IG102" s="59"/>
+      <c r="IH102" s="59"/>
+      <c r="II102" s="59"/>
+      <c r="IJ102" s="59"/>
+      <c r="IK102" s="59"/>
+      <c r="IL102" s="59"/>
+      <c r="IM102" s="59"/>
+      <c r="IN102" s="59"/>
+      <c r="IO102" s="59"/>
+      <c r="IP102" s="59"/>
+      <c r="IQ102" s="59"/>
+      <c r="IR102" s="59"/>
+      <c r="IS102" s="59"/>
+      <c r="IT102" s="59"/>
+      <c r="IU102" s="59"/>
+      <c r="IV102" s="59"/>
+      <c r="IW102" s="59"/>
+      <c r="IX102" s="59"/>
+      <c r="IY102" s="59"/>
+      <c r="IZ102" s="59"/>
+      <c r="JA102" s="59"/>
+      <c r="JB102" s="59"/>
+      <c r="JC102" s="59"/>
+      <c r="JD102" s="59"/>
+      <c r="JE102" s="59"/>
+      <c r="JF102" s="59"/>
+      <c r="JG102" s="59"/>
+      <c r="JH102" s="59"/>
+      <c r="JI102" s="59"/>
+      <c r="JJ102" s="59"/>
+      <c r="JK102" s="59"/>
+      <c r="JL102" s="59"/>
+      <c r="JM102" s="59"/>
+      <c r="JN102" s="59"/>
+      <c r="JO102" s="59"/>
+      <c r="JP102" s="59"/>
+      <c r="JQ102" s="59"/>
+      <c r="JR102" s="59"/>
+      <c r="JS102" s="59"/>
+      <c r="JT102" s="59"/>
+      <c r="JU102" s="59"/>
+      <c r="JV102" s="59"/>
+      <c r="JW102" s="59"/>
+      <c r="JX102" s="59"/>
+      <c r="JY102" s="59"/>
+      <c r="JZ102" s="59"/>
+      <c r="KA102" s="59"/>
+      <c r="KB102" s="59"/>
+      <c r="KC102" s="59"/>
+      <c r="KD102" s="59"/>
+      <c r="KE102" s="59"/>
+      <c r="KF102" s="59"/>
+      <c r="KG102" s="59"/>
+      <c r="KH102" s="59"/>
+      <c r="KI102" s="59"/>
+      <c r="KJ102" s="59"/>
+      <c r="KK102" s="59"/>
+      <c r="KL102" s="59"/>
+      <c r="KM102" s="59"/>
+      <c r="KN102" s="59"/>
+      <c r="KO102" s="59"/>
+      <c r="KP102" s="59"/>
+      <c r="KQ102" s="59"/>
+      <c r="KR102" s="59"/>
+      <c r="KS102" s="59"/>
+      <c r="KT102" s="59"/>
+      <c r="KU102" s="59"/>
+      <c r="KV102" s="59"/>
+      <c r="KW102" s="59"/>
+      <c r="KX102" s="59"/>
+      <c r="KY102" s="59"/>
+      <c r="KZ102" s="59"/>
+      <c r="LA102" s="59"/>
+      <c r="LB102" s="59"/>
+      <c r="LC102" s="59"/>
+      <c r="LD102" s="59"/>
+      <c r="LE102" s="59"/>
+      <c r="LF102" s="59"/>
+      <c r="LG102" s="59"/>
+      <c r="LH102" s="59"/>
+      <c r="LI102" s="59"/>
+      <c r="LJ102" s="59"/>
+      <c r="LK102" s="59"/>
+      <c r="LL102" s="59"/>
+      <c r="LM102" s="59"/>
+      <c r="LN102" s="59"/>
+      <c r="LO102" s="59"/>
+      <c r="LP102" s="59"/>
+      <c r="LQ102" s="59"/>
+      <c r="LR102" s="59"/>
+      <c r="LS102" s="59"/>
+      <c r="LT102" s="59"/>
+      <c r="LU102" s="59"/>
+      <c r="LV102" s="59"/>
+      <c r="LW102" s="59"/>
+      <c r="LX102" s="59"/>
+      <c r="LY102" s="59"/>
+      <c r="LZ102" s="59"/>
+      <c r="MA102" s="59"/>
+      <c r="MB102" s="59"/>
+      <c r="MC102" s="59"/>
+      <c r="MD102" s="59"/>
+      <c r="ME102" s="59"/>
+      <c r="MF102" s="59"/>
+      <c r="MG102" s="59"/>
+      <c r="MH102" s="59"/>
+      <c r="MI102" s="59"/>
+      <c r="MJ102" s="59"/>
+      <c r="MK102" s="59"/>
+      <c r="ML102" s="59"/>
+      <c r="MM102" s="59"/>
+      <c r="MN102" s="59"/>
+      <c r="MO102" s="59"/>
+      <c r="MP102" s="59"/>
+      <c r="MQ102" s="59"/>
+      <c r="MR102" s="59"/>
+      <c r="MS102" s="59"/>
+      <c r="MT102" s="59"/>
+      <c r="MU102" s="59"/>
+      <c r="MV102" s="59"/>
+      <c r="MW102" s="59"/>
+      <c r="MX102" s="59"/>
+      <c r="MY102" s="59"/>
+      <c r="MZ102" s="59"/>
+      <c r="NA102" s="59"/>
+      <c r="NB102" s="59"/>
+      <c r="NC102" s="59"/>
+      <c r="ND102" s="59"/>
+      <c r="NE102" s="59"/>
+      <c r="NF102" s="59"/>
+      <c r="NG102" s="59"/>
+      <c r="NH102" s="59"/>
+      <c r="NI102" s="59"/>
+      <c r="NJ102" s="59"/>
+      <c r="NK102" s="59"/>
+      <c r="NL102" s="59"/>
+      <c r="NM102" s="59"/>
+      <c r="NN102" s="59"/>
+      <c r="NO102" s="59"/>
+      <c r="NP102" s="59"/>
+      <c r="NQ102" s="59"/>
+      <c r="NR102" s="59"/>
+      <c r="NS102" s="59"/>
+      <c r="NT102" s="59"/>
+      <c r="NU102" s="59"/>
+      <c r="NV102" s="59"/>
+      <c r="NW102" s="59"/>
+      <c r="NX102" s="59"/>
+      <c r="NY102" s="59"/>
+      <c r="NZ102" s="59"/>
+      <c r="OA102" s="59"/>
+      <c r="OB102" s="59"/>
+      <c r="OC102" s="59"/>
+      <c r="OD102" s="59"/>
+      <c r="OE102" s="59"/>
+      <c r="OF102" s="59"/>
+      <c r="OG102" s="59"/>
+      <c r="OH102" s="59"/>
+      <c r="OI102" s="59"/>
+      <c r="OJ102" s="59"/>
+      <c r="OK102" s="59"/>
+      <c r="OL102" s="59"/>
+      <c r="OM102" s="59"/>
+      <c r="ON102" s="59"/>
+      <c r="OO102" s="59"/>
+      <c r="OP102" s="59"/>
+      <c r="OQ102" s="59"/>
+      <c r="OR102" s="59"/>
+      <c r="OS102" s="59"/>
+      <c r="OT102" s="59"/>
+      <c r="OU102" s="59"/>
+      <c r="OV102" s="59"/>
+      <c r="OW102" s="59"/>
+      <c r="OX102" s="59"/>
+      <c r="OY102" s="59"/>
+      <c r="OZ102" s="59"/>
+      <c r="PA102" s="59"/>
+      <c r="PB102" s="71"/>
     </row>
     <row r="103" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="M103" s="92"/>
-      <c r="N103" s="92"/>
-      <c r="O103" s="92"/>
-      <c r="P103" s="93"/>
-      <c r="Q103" s="93"/>
-      <c r="R103" s="93"/>
-      <c r="S103" s="93"/>
-      <c r="T103" s="93"/>
-      <c r="U103" s="93"/>
-      <c r="V103" s="93"/>
-      <c r="W103" s="93"/>
-      <c r="X103" s="93"/>
-      <c r="Y103" s="93"/>
-      <c r="Z103" s="93"/>
-      <c r="AA103" s="93"/>
-      <c r="AB103" s="93"/>
-      <c r="AC103" s="93"/>
-      <c r="AD103" s="93"/>
-      <c r="AE103" s="93"/>
-      <c r="AF103" s="93"/>
-      <c r="AG103" s="93"/>
-      <c r="AH103" s="93"/>
-      <c r="AI103" s="93"/>
-      <c r="AJ103" s="93"/>
-      <c r="AK103" s="93"/>
-      <c r="AL103" s="93"/>
-      <c r="AM103" s="93"/>
-      <c r="AN103" s="93"/>
-      <c r="AO103" s="93"/>
-      <c r="AP103" s="93"/>
-      <c r="AQ103" s="93"/>
-      <c r="AR103" s="93"/>
-      <c r="AS103" s="93"/>
-      <c r="AT103" s="93"/>
-      <c r="AU103" s="93"/>
-      <c r="AV103" s="93"/>
-      <c r="AW103" s="93"/>
-      <c r="AX103" s="93"/>
-      <c r="AY103" s="93"/>
-      <c r="AZ103" s="93"/>
-      <c r="BA103" s="93"/>
-      <c r="BB103" s="93"/>
-      <c r="BC103" s="93"/>
-      <c r="BD103" s="93"/>
-      <c r="BE103" s="93"/>
-      <c r="BF103" s="93"/>
-      <c r="BG103" s="93"/>
-      <c r="BH103" s="93"/>
-      <c r="BI103" s="93"/>
-      <c r="BJ103" s="93"/>
-      <c r="BK103" s="93"/>
-      <c r="BL103" s="93"/>
-      <c r="BM103" s="93"/>
-      <c r="BN103" s="93"/>
-      <c r="BO103" s="93"/>
-      <c r="BP103" s="93"/>
-      <c r="BQ103" s="93"/>
-      <c r="BR103" s="93"/>
-      <c r="BS103" s="93"/>
-      <c r="BT103" s="93"/>
-      <c r="BU103" s="93"/>
-      <c r="BV103" s="93"/>
-      <c r="BW103" s="93"/>
-      <c r="BX103" s="93"/>
-      <c r="BY103" s="93"/>
-      <c r="BZ103" s="93"/>
-      <c r="CA103" s="93"/>
-      <c r="CB103" s="93"/>
-      <c r="CC103" s="93"/>
-      <c r="CD103" s="93"/>
-      <c r="CE103" s="93"/>
-      <c r="CF103" s="93"/>
-      <c r="CG103" s="93"/>
-      <c r="CH103" s="93"/>
-      <c r="CI103" s="93"/>
-      <c r="CJ103" s="93"/>
-      <c r="CK103" s="93"/>
-      <c r="CL103" s="93"/>
-      <c r="CM103" s="93"/>
-      <c r="CN103" s="93"/>
-      <c r="CO103" s="93"/>
-      <c r="CP103" s="93"/>
-      <c r="CQ103" s="93"/>
-      <c r="CR103" s="93"/>
-      <c r="CS103" s="93"/>
-      <c r="CT103" s="93"/>
-      <c r="CU103" s="93"/>
-      <c r="CV103" s="93"/>
-      <c r="CW103" s="93"/>
-      <c r="CX103" s="93"/>
-      <c r="CY103" s="93"/>
-      <c r="CZ103" s="93"/>
-      <c r="DA103" s="93"/>
-      <c r="DB103" s="93"/>
-      <c r="DC103" s="93"/>
-      <c r="DD103" s="93"/>
-      <c r="DE103" s="93"/>
-      <c r="DF103" s="93"/>
-      <c r="DG103" s="93"/>
-      <c r="DH103" s="93"/>
-      <c r="DI103" s="93"/>
-      <c r="DJ103" s="93"/>
-      <c r="DK103" s="93"/>
-      <c r="DL103" s="93"/>
-      <c r="DM103" s="93"/>
-      <c r="DN103" s="93"/>
-      <c r="DO103" s="93"/>
-      <c r="DP103" s="93"/>
-      <c r="DQ103" s="93"/>
-      <c r="DR103" s="93"/>
-      <c r="DS103" s="93"/>
-      <c r="DT103" s="93"/>
-      <c r="DU103" s="93"/>
-      <c r="DV103" s="93"/>
-      <c r="DW103" s="93"/>
-      <c r="DX103" s="93"/>
+      <c r="B103" s="49">
+        <f t="shared" si="98"/>
+        <v>89</v>
+      </c>
+      <c r="C103" s="82"/>
+      <c r="D103" s="83"/>
+      <c r="E103" s="84"/>
+      <c r="F103" s="82"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="86"/>
+      <c r="I103" s="87"/>
+      <c r="J103" s="87"/>
+      <c r="K103" s="88"/>
+      <c r="L103" s="89"/>
+      <c r="M103" s="58"/>
+      <c r="N103" s="59"/>
+      <c r="O103" s="59"/>
+      <c r="P103" s="59"/>
+      <c r="Q103" s="59"/>
+      <c r="R103" s="59"/>
+      <c r="S103" s="59"/>
+      <c r="T103" s="59"/>
+      <c r="U103" s="59"/>
+      <c r="V103" s="59"/>
+      <c r="W103" s="59"/>
+      <c r="X103" s="59"/>
+      <c r="Y103" s="59"/>
+      <c r="Z103" s="59"/>
+      <c r="AA103" s="59"/>
+      <c r="AB103" s="59"/>
+      <c r="AC103" s="59"/>
+      <c r="AD103" s="59"/>
+      <c r="AE103" s="59"/>
+      <c r="AF103" s="59"/>
+      <c r="AG103" s="59"/>
+      <c r="AH103" s="59"/>
+      <c r="AI103" s="59"/>
+      <c r="AJ103" s="59"/>
+      <c r="AK103" s="59"/>
+      <c r="AL103" s="59"/>
+      <c r="AM103" s="59"/>
+      <c r="AN103" s="59"/>
+      <c r="AO103" s="59"/>
+      <c r="AP103" s="59"/>
+      <c r="AQ103" s="59"/>
+      <c r="AR103" s="59"/>
+      <c r="AS103" s="59"/>
+      <c r="AT103" s="59"/>
+      <c r="AU103" s="59"/>
+      <c r="AV103" s="59"/>
+      <c r="AW103" s="59"/>
+      <c r="AX103" s="59"/>
+      <c r="AY103" s="59"/>
+      <c r="AZ103" s="59"/>
+      <c r="BA103" s="59"/>
+      <c r="BB103" s="59"/>
+      <c r="BC103" s="59"/>
+      <c r="BD103" s="59"/>
+      <c r="BE103" s="59"/>
+      <c r="BF103" s="59"/>
+      <c r="BG103" s="59"/>
+      <c r="BH103" s="59"/>
+      <c r="BI103" s="59"/>
+      <c r="BJ103" s="59"/>
+      <c r="BK103" s="59"/>
+      <c r="BL103" s="59"/>
+      <c r="BM103" s="59"/>
+      <c r="BN103" s="59"/>
+      <c r="BO103" s="59"/>
+      <c r="BP103" s="59"/>
+      <c r="BQ103" s="59"/>
+      <c r="BR103" s="59"/>
+      <c r="BS103" s="59"/>
+      <c r="BT103" s="59"/>
+      <c r="BU103" s="59"/>
+      <c r="BV103" s="59"/>
+      <c r="BW103" s="59"/>
+      <c r="BX103" s="59"/>
+      <c r="BY103" s="59"/>
+      <c r="BZ103" s="59"/>
+      <c r="CA103" s="59"/>
+      <c r="CB103" s="59"/>
+      <c r="CC103" s="59"/>
+      <c r="CD103" s="59"/>
+      <c r="CE103" s="59"/>
+      <c r="CF103" s="59"/>
+      <c r="CG103" s="59"/>
+      <c r="CH103" s="59"/>
+      <c r="CI103" s="59"/>
+      <c r="CJ103" s="59"/>
+      <c r="CK103" s="59"/>
+      <c r="CL103" s="59"/>
+      <c r="CM103" s="59"/>
+      <c r="CN103" s="59"/>
+      <c r="CO103" s="59"/>
+      <c r="CP103" s="59"/>
+      <c r="CQ103" s="59"/>
+      <c r="CR103" s="59"/>
+      <c r="CS103" s="59"/>
+      <c r="CT103" s="59"/>
+      <c r="CU103" s="59"/>
+      <c r="CV103" s="59"/>
+      <c r="CW103" s="59"/>
+      <c r="CX103" s="59"/>
+      <c r="CY103" s="59"/>
+      <c r="CZ103" s="59"/>
+      <c r="DA103" s="59"/>
+      <c r="DB103" s="59"/>
+      <c r="DC103" s="59"/>
+      <c r="DD103" s="59"/>
+      <c r="DE103" s="59"/>
+      <c r="DF103" s="59"/>
+      <c r="DG103" s="59"/>
+      <c r="DH103" s="59"/>
+      <c r="DI103" s="59"/>
+      <c r="DJ103" s="59"/>
+      <c r="DK103" s="59"/>
+      <c r="DL103" s="59"/>
+      <c r="DM103" s="59"/>
+      <c r="DN103" s="59"/>
+      <c r="DO103" s="59"/>
+      <c r="DP103" s="59"/>
+      <c r="DQ103" s="59"/>
+      <c r="DR103" s="59"/>
+      <c r="DS103" s="59"/>
+      <c r="DT103" s="59"/>
+      <c r="DU103" s="59"/>
+      <c r="DV103" s="59"/>
+      <c r="DW103" s="59"/>
+      <c r="DX103" s="59"/>
+      <c r="DY103" s="59"/>
+      <c r="DZ103" s="59"/>
+      <c r="EA103" s="59"/>
+      <c r="EB103" s="59"/>
+      <c r="EC103" s="59"/>
+      <c r="ED103" s="59"/>
+      <c r="EE103" s="59"/>
+      <c r="EF103" s="59"/>
+      <c r="EG103" s="59"/>
+      <c r="EH103" s="59"/>
+      <c r="EI103" s="59"/>
+      <c r="EJ103" s="59"/>
+      <c r="EK103" s="59"/>
+      <c r="EL103" s="59"/>
+      <c r="EM103" s="59"/>
+      <c r="EN103" s="59"/>
+      <c r="EO103" s="59"/>
+      <c r="EP103" s="59"/>
+      <c r="EQ103" s="59"/>
+      <c r="ER103" s="59"/>
+      <c r="ES103" s="59"/>
+      <c r="ET103" s="59"/>
+      <c r="EU103" s="59"/>
+      <c r="EV103" s="59"/>
+      <c r="EW103" s="59"/>
+      <c r="EX103" s="59"/>
+      <c r="EY103" s="59"/>
+      <c r="EZ103" s="59"/>
+      <c r="FA103" s="59"/>
+      <c r="FB103" s="59"/>
+      <c r="FC103" s="59"/>
+      <c r="FD103" s="59"/>
+      <c r="FE103" s="59"/>
+      <c r="FF103" s="59"/>
+      <c r="FG103" s="59"/>
+      <c r="FH103" s="59"/>
+      <c r="FI103" s="59"/>
+      <c r="FJ103" s="59"/>
+      <c r="FK103" s="59"/>
+      <c r="FL103" s="59"/>
+      <c r="FM103" s="59"/>
+      <c r="FN103" s="59"/>
+      <c r="FO103" s="59"/>
+      <c r="FP103" s="59"/>
+      <c r="FQ103" s="59"/>
+      <c r="FR103" s="59"/>
+      <c r="FS103" s="59"/>
+      <c r="FT103" s="59"/>
+      <c r="FU103" s="59"/>
+      <c r="FV103" s="59"/>
+      <c r="FW103" s="59"/>
+      <c r="FX103" s="59"/>
+      <c r="FY103" s="59"/>
+      <c r="FZ103" s="59"/>
+      <c r="GA103" s="59"/>
+      <c r="GB103" s="59"/>
+      <c r="GC103" s="59"/>
+      <c r="GD103" s="59"/>
+      <c r="GE103" s="59"/>
+      <c r="GF103" s="59"/>
+      <c r="GG103" s="59"/>
+      <c r="GH103" s="59"/>
+      <c r="GI103" s="59"/>
+      <c r="GJ103" s="59"/>
+      <c r="GK103" s="59"/>
+      <c r="GL103" s="59"/>
+      <c r="GM103" s="59"/>
+      <c r="GN103" s="59"/>
+      <c r="GO103" s="59"/>
+      <c r="GP103" s="59"/>
+      <c r="GQ103" s="59"/>
+      <c r="GR103" s="59"/>
+      <c r="GS103" s="59"/>
+      <c r="GT103" s="59"/>
+      <c r="GU103" s="59"/>
+      <c r="GV103" s="59"/>
+      <c r="GW103" s="59"/>
+      <c r="GX103" s="59"/>
+      <c r="GY103" s="59"/>
+      <c r="GZ103" s="59"/>
+      <c r="HA103" s="59"/>
+      <c r="HB103" s="59"/>
+      <c r="HC103" s="59"/>
+      <c r="HD103" s="59"/>
+      <c r="HE103" s="59"/>
+      <c r="HF103" s="59"/>
+      <c r="HG103" s="59"/>
+      <c r="HH103" s="59"/>
+      <c r="HI103" s="59"/>
+      <c r="HJ103" s="59"/>
+      <c r="HK103" s="59"/>
+      <c r="HL103" s="59"/>
+      <c r="HM103" s="59"/>
+      <c r="HN103" s="59"/>
+      <c r="HO103" s="59"/>
+      <c r="HP103" s="59"/>
+      <c r="HQ103" s="59"/>
+      <c r="HR103" s="59"/>
+      <c r="HS103" s="59"/>
+      <c r="HT103" s="59"/>
+      <c r="HU103" s="59"/>
+      <c r="HV103" s="59"/>
+      <c r="HW103" s="59"/>
+      <c r="HX103" s="59"/>
+      <c r="HY103" s="59"/>
+      <c r="HZ103" s="59"/>
+      <c r="IA103" s="59"/>
+      <c r="IB103" s="59"/>
+      <c r="IC103" s="59"/>
+      <c r="ID103" s="59"/>
+      <c r="IE103" s="59"/>
+      <c r="IF103" s="59"/>
+      <c r="IG103" s="59"/>
+      <c r="IH103" s="59"/>
+      <c r="II103" s="59"/>
+      <c r="IJ103" s="59"/>
+      <c r="IK103" s="59"/>
+      <c r="IL103" s="59"/>
+      <c r="IM103" s="59"/>
+      <c r="IN103" s="59"/>
+      <c r="IO103" s="59"/>
+      <c r="IP103" s="59"/>
+      <c r="IQ103" s="59"/>
+      <c r="IR103" s="59"/>
+      <c r="IS103" s="59"/>
+      <c r="IT103" s="59"/>
+      <c r="IU103" s="59"/>
+      <c r="IV103" s="59"/>
+      <c r="IW103" s="59"/>
+      <c r="IX103" s="59"/>
+      <c r="IY103" s="59"/>
+      <c r="IZ103" s="59"/>
+      <c r="JA103" s="59"/>
+      <c r="JB103" s="59"/>
+      <c r="JC103" s="59"/>
+      <c r="JD103" s="59"/>
+      <c r="JE103" s="59"/>
+      <c r="JF103" s="59"/>
+      <c r="JG103" s="59"/>
+      <c r="JH103" s="59"/>
+      <c r="JI103" s="59"/>
+      <c r="JJ103" s="59"/>
+      <c r="JK103" s="59"/>
+      <c r="JL103" s="59"/>
+      <c r="JM103" s="59"/>
+      <c r="JN103" s="59"/>
+      <c r="JO103" s="59"/>
+      <c r="JP103" s="59"/>
+      <c r="JQ103" s="59"/>
+      <c r="JR103" s="59"/>
+      <c r="JS103" s="59"/>
+      <c r="JT103" s="59"/>
+      <c r="JU103" s="59"/>
+      <c r="JV103" s="59"/>
+      <c r="JW103" s="59"/>
+      <c r="JX103" s="59"/>
+      <c r="JY103" s="59"/>
+      <c r="JZ103" s="59"/>
+      <c r="KA103" s="59"/>
+      <c r="KB103" s="59"/>
+      <c r="KC103" s="59"/>
+      <c r="KD103" s="59"/>
+      <c r="KE103" s="59"/>
+      <c r="KF103" s="59"/>
+      <c r="KG103" s="59"/>
+      <c r="KH103" s="59"/>
+      <c r="KI103" s="59"/>
+      <c r="KJ103" s="59"/>
+      <c r="KK103" s="59"/>
+      <c r="KL103" s="59"/>
+      <c r="KM103" s="59"/>
+      <c r="KN103" s="59"/>
+      <c r="KO103" s="59"/>
+      <c r="KP103" s="59"/>
+      <c r="KQ103" s="59"/>
+      <c r="KR103" s="59"/>
+      <c r="KS103" s="59"/>
+      <c r="KT103" s="59"/>
+      <c r="KU103" s="59"/>
+      <c r="KV103" s="59"/>
+      <c r="KW103" s="59"/>
+      <c r="KX103" s="59"/>
+      <c r="KY103" s="59"/>
+      <c r="KZ103" s="59"/>
+      <c r="LA103" s="59"/>
+      <c r="LB103" s="59"/>
+      <c r="LC103" s="59"/>
+      <c r="LD103" s="59"/>
+      <c r="LE103" s="59"/>
+      <c r="LF103" s="59"/>
+      <c r="LG103" s="59"/>
+      <c r="LH103" s="59"/>
+      <c r="LI103" s="59"/>
+      <c r="LJ103" s="59"/>
+      <c r="LK103" s="59"/>
+      <c r="LL103" s="59"/>
+      <c r="LM103" s="59"/>
+      <c r="LN103" s="59"/>
+      <c r="LO103" s="59"/>
+      <c r="LP103" s="59"/>
+      <c r="LQ103" s="59"/>
+      <c r="LR103" s="59"/>
+      <c r="LS103" s="59"/>
+      <c r="LT103" s="59"/>
+      <c r="LU103" s="59"/>
+      <c r="LV103" s="59"/>
+      <c r="LW103" s="59"/>
+      <c r="LX103" s="59"/>
+      <c r="LY103" s="59"/>
+      <c r="LZ103" s="59"/>
+      <c r="MA103" s="59"/>
+      <c r="MB103" s="59"/>
+      <c r="MC103" s="59"/>
+      <c r="MD103" s="59"/>
+      <c r="ME103" s="59"/>
+      <c r="MF103" s="59"/>
+      <c r="MG103" s="59"/>
+      <c r="MH103" s="59"/>
+      <c r="MI103" s="59"/>
+      <c r="MJ103" s="59"/>
+      <c r="MK103" s="59"/>
+      <c r="ML103" s="59"/>
+      <c r="MM103" s="59"/>
+      <c r="MN103" s="59"/>
+      <c r="MO103" s="59"/>
+      <c r="MP103" s="59"/>
+      <c r="MQ103" s="59"/>
+      <c r="MR103" s="59"/>
+      <c r="MS103" s="59"/>
+      <c r="MT103" s="59"/>
+      <c r="MU103" s="59"/>
+      <c r="MV103" s="59"/>
+      <c r="MW103" s="59"/>
+      <c r="MX103" s="59"/>
+      <c r="MY103" s="59"/>
+      <c r="MZ103" s="59"/>
+      <c r="NA103" s="59"/>
+      <c r="NB103" s="59"/>
+      <c r="NC103" s="59"/>
+      <c r="ND103" s="59"/>
+      <c r="NE103" s="59"/>
+      <c r="NF103" s="59"/>
+      <c r="NG103" s="59"/>
+      <c r="NH103" s="59"/>
+      <c r="NI103" s="59"/>
+      <c r="NJ103" s="59"/>
+      <c r="NK103" s="59"/>
+      <c r="NL103" s="59"/>
+      <c r="NM103" s="59"/>
+      <c r="NN103" s="59"/>
+      <c r="NO103" s="59"/>
+      <c r="NP103" s="59"/>
+      <c r="NQ103" s="59"/>
+      <c r="NR103" s="59"/>
+      <c r="NS103" s="59"/>
+      <c r="NT103" s="59"/>
+      <c r="NU103" s="59"/>
+      <c r="NV103" s="59"/>
+      <c r="NW103" s="59"/>
+      <c r="NX103" s="59"/>
+      <c r="NY103" s="59"/>
+      <c r="NZ103" s="59"/>
+      <c r="OA103" s="59"/>
+      <c r="OB103" s="59"/>
+      <c r="OC103" s="59"/>
+      <c r="OD103" s="59"/>
+      <c r="OE103" s="59"/>
+      <c r="OF103" s="59"/>
+      <c r="OG103" s="59"/>
+      <c r="OH103" s="59"/>
+      <c r="OI103" s="59"/>
+      <c r="OJ103" s="59"/>
+      <c r="OK103" s="59"/>
+      <c r="OL103" s="59"/>
+      <c r="OM103" s="59"/>
+      <c r="ON103" s="59"/>
+      <c r="OO103" s="59"/>
+      <c r="OP103" s="59"/>
+      <c r="OQ103" s="59"/>
+      <c r="OR103" s="59"/>
+      <c r="OS103" s="59"/>
+      <c r="OT103" s="59"/>
+      <c r="OU103" s="59"/>
+      <c r="OV103" s="59"/>
+      <c r="OW103" s="59"/>
+      <c r="OX103" s="59"/>
+      <c r="OY103" s="59"/>
+      <c r="OZ103" s="59"/>
+      <c r="PA103" s="59"/>
+      <c r="PB103" s="71"/>
+    </row>
+    <row r="104" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B104" s="49">
+        <f t="shared" si="98"/>
+        <v>90</v>
+      </c>
+      <c r="C104" s="82"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="86"/>
+      <c r="I104" s="87"/>
+      <c r="J104" s="87"/>
+      <c r="K104" s="88"/>
+      <c r="L104" s="89"/>
+      <c r="M104" s="58"/>
+      <c r="N104" s="59"/>
+      <c r="O104" s="59"/>
+      <c r="P104" s="59"/>
+      <c r="Q104" s="59"/>
+      <c r="R104" s="59"/>
+      <c r="S104" s="59"/>
+      <c r="T104" s="59"/>
+      <c r="U104" s="59"/>
+      <c r="V104" s="59"/>
+      <c r="W104" s="59"/>
+      <c r="X104" s="59"/>
+      <c r="Y104" s="59"/>
+      <c r="Z104" s="59"/>
+      <c r="AA104" s="59"/>
+      <c r="AB104" s="59"/>
+      <c r="AC104" s="59"/>
+      <c r="AD104" s="59"/>
+      <c r="AE104" s="59"/>
+      <c r="AF104" s="59"/>
+      <c r="AG104" s="59"/>
+      <c r="AH104" s="59"/>
+      <c r="AI104" s="59"/>
+      <c r="AJ104" s="59"/>
+      <c r="AK104" s="59"/>
+      <c r="AL104" s="59"/>
+      <c r="AM104" s="59"/>
+      <c r="AN104" s="59"/>
+      <c r="AO104" s="59"/>
+      <c r="AP104" s="59"/>
+      <c r="AQ104" s="59"/>
+      <c r="AR104" s="59"/>
+      <c r="AS104" s="59"/>
+      <c r="AT104" s="59"/>
+      <c r="AU104" s="59"/>
+      <c r="AV104" s="59"/>
+      <c r="AW104" s="59"/>
+      <c r="AX104" s="59"/>
+      <c r="AY104" s="59"/>
+      <c r="AZ104" s="59"/>
+      <c r="BA104" s="59"/>
+      <c r="BB104" s="59"/>
+      <c r="BC104" s="59"/>
+      <c r="BD104" s="59"/>
+      <c r="BE104" s="59"/>
+      <c r="BF104" s="59"/>
+      <c r="BG104" s="59"/>
+      <c r="BH104" s="59"/>
+      <c r="BI104" s="59"/>
+      <c r="BJ104" s="59"/>
+      <c r="BK104" s="59"/>
+      <c r="BL104" s="59"/>
+      <c r="BM104" s="59"/>
+      <c r="BN104" s="59"/>
+      <c r="BO104" s="59"/>
+      <c r="BP104" s="59"/>
+      <c r="BQ104" s="59"/>
+      <c r="BR104" s="59"/>
+      <c r="BS104" s="59"/>
+      <c r="BT104" s="59"/>
+      <c r="BU104" s="59"/>
+      <c r="BV104" s="59"/>
+      <c r="BW104" s="59"/>
+      <c r="BX104" s="59"/>
+      <c r="BY104" s="59"/>
+      <c r="BZ104" s="59"/>
+      <c r="CA104" s="59"/>
+      <c r="CB104" s="59"/>
+      <c r="CC104" s="59"/>
+      <c r="CD104" s="59"/>
+      <c r="CE104" s="59"/>
+      <c r="CF104" s="59"/>
+      <c r="CG104" s="59"/>
+      <c r="CH104" s="59"/>
+      <c r="CI104" s="59"/>
+      <c r="CJ104" s="59"/>
+      <c r="CK104" s="59"/>
+      <c r="CL104" s="59"/>
+      <c r="CM104" s="59"/>
+      <c r="CN104" s="59"/>
+      <c r="CO104" s="59"/>
+      <c r="CP104" s="59"/>
+      <c r="CQ104" s="59"/>
+      <c r="CR104" s="59"/>
+      <c r="CS104" s="59"/>
+      <c r="CT104" s="59"/>
+      <c r="CU104" s="59"/>
+      <c r="CV104" s="59"/>
+      <c r="CW104" s="59"/>
+      <c r="CX104" s="59"/>
+      <c r="CY104" s="59"/>
+      <c r="CZ104" s="59"/>
+      <c r="DA104" s="59"/>
+      <c r="DB104" s="59"/>
+      <c r="DC104" s="59"/>
+      <c r="DD104" s="59"/>
+      <c r="DE104" s="59"/>
+      <c r="DF104" s="59"/>
+      <c r="DG104" s="59"/>
+      <c r="DH104" s="59"/>
+      <c r="DI104" s="59"/>
+      <c r="DJ104" s="59"/>
+      <c r="DK104" s="59"/>
+      <c r="DL104" s="59"/>
+      <c r="DM104" s="59"/>
+      <c r="DN104" s="59"/>
+      <c r="DO104" s="59"/>
+      <c r="DP104" s="59"/>
+      <c r="DQ104" s="59"/>
+      <c r="DR104" s="59"/>
+      <c r="DS104" s="59"/>
+      <c r="DT104" s="59"/>
+      <c r="DU104" s="59"/>
+      <c r="DV104" s="59"/>
+      <c r="DW104" s="59"/>
+      <c r="DX104" s="59"/>
+      <c r="DY104" s="59"/>
+      <c r="DZ104" s="59"/>
+      <c r="EA104" s="59"/>
+      <c r="EB104" s="59"/>
+      <c r="EC104" s="59"/>
+      <c r="ED104" s="59"/>
+      <c r="EE104" s="59"/>
+      <c r="EF104" s="59"/>
+      <c r="EG104" s="59"/>
+      <c r="EH104" s="59"/>
+      <c r="EI104" s="59"/>
+      <c r="EJ104" s="59"/>
+      <c r="EK104" s="59"/>
+      <c r="EL104" s="59"/>
+      <c r="EM104" s="59"/>
+      <c r="EN104" s="59"/>
+      <c r="EO104" s="59"/>
+      <c r="EP104" s="59"/>
+      <c r="EQ104" s="59"/>
+      <c r="ER104" s="59"/>
+      <c r="ES104" s="59"/>
+      <c r="ET104" s="59"/>
+      <c r="EU104" s="59"/>
+      <c r="EV104" s="59"/>
+      <c r="EW104" s="59"/>
+      <c r="EX104" s="59"/>
+      <c r="EY104" s="59"/>
+      <c r="EZ104" s="59"/>
+      <c r="FA104" s="59"/>
+      <c r="FB104" s="59"/>
+      <c r="FC104" s="59"/>
+      <c r="FD104" s="59"/>
+      <c r="FE104" s="59"/>
+      <c r="FF104" s="59"/>
+      <c r="FG104" s="59"/>
+      <c r="FH104" s="59"/>
+      <c r="FI104" s="59"/>
+      <c r="FJ104" s="59"/>
+      <c r="FK104" s="59"/>
+      <c r="FL104" s="59"/>
+      <c r="FM104" s="59"/>
+      <c r="FN104" s="59"/>
+      <c r="FO104" s="59"/>
+      <c r="FP104" s="59"/>
+      <c r="FQ104" s="59"/>
+      <c r="FR104" s="59"/>
+      <c r="FS104" s="59"/>
+      <c r="FT104" s="59"/>
+      <c r="FU104" s="59"/>
+      <c r="FV104" s="59"/>
+      <c r="FW104" s="59"/>
+      <c r="FX104" s="59"/>
+      <c r="FY104" s="59"/>
+      <c r="FZ104" s="59"/>
+      <c r="GA104" s="59"/>
+      <c r="GB104" s="59"/>
+      <c r="GC104" s="59"/>
+      <c r="GD104" s="59"/>
+      <c r="GE104" s="59"/>
+      <c r="GF104" s="59"/>
+      <c r="GG104" s="59"/>
+      <c r="GH104" s="59"/>
+      <c r="GI104" s="59"/>
+      <c r="GJ104" s="59"/>
+      <c r="GK104" s="59"/>
+      <c r="GL104" s="59"/>
+      <c r="GM104" s="59"/>
+      <c r="GN104" s="59"/>
+      <c r="GO104" s="59"/>
+      <c r="GP104" s="59"/>
+      <c r="GQ104" s="59"/>
+      <c r="GR104" s="59"/>
+      <c r="GS104" s="59"/>
+      <c r="GT104" s="59"/>
+      <c r="GU104" s="59"/>
+      <c r="GV104" s="59"/>
+      <c r="GW104" s="59"/>
+      <c r="GX104" s="59"/>
+      <c r="GY104" s="59"/>
+      <c r="GZ104" s="59"/>
+      <c r="HA104" s="59"/>
+      <c r="HB104" s="59"/>
+      <c r="HC104" s="59"/>
+      <c r="HD104" s="59"/>
+      <c r="HE104" s="59"/>
+      <c r="HF104" s="59"/>
+      <c r="HG104" s="59"/>
+      <c r="HH104" s="59"/>
+      <c r="HI104" s="59"/>
+      <c r="HJ104" s="59"/>
+      <c r="HK104" s="59"/>
+      <c r="HL104" s="59"/>
+      <c r="HM104" s="59"/>
+      <c r="HN104" s="59"/>
+      <c r="HO104" s="59"/>
+      <c r="HP104" s="59"/>
+      <c r="HQ104" s="59"/>
+      <c r="HR104" s="59"/>
+      <c r="HS104" s="59"/>
+      <c r="HT104" s="59"/>
+      <c r="HU104" s="59"/>
+      <c r="HV104" s="59"/>
+      <c r="HW104" s="59"/>
+      <c r="HX104" s="59"/>
+      <c r="HY104" s="59"/>
+      <c r="HZ104" s="59"/>
+      <c r="IA104" s="59"/>
+      <c r="IB104" s="59"/>
+      <c r="IC104" s="59"/>
+      <c r="ID104" s="59"/>
+      <c r="IE104" s="59"/>
+      <c r="IF104" s="59"/>
+      <c r="IG104" s="59"/>
+      <c r="IH104" s="59"/>
+      <c r="II104" s="59"/>
+      <c r="IJ104" s="59"/>
+      <c r="IK104" s="59"/>
+      <c r="IL104" s="59"/>
+      <c r="IM104" s="59"/>
+      <c r="IN104" s="59"/>
+      <c r="IO104" s="59"/>
+      <c r="IP104" s="59"/>
+      <c r="IQ104" s="59"/>
+      <c r="IR104" s="59"/>
+      <c r="IS104" s="59"/>
+      <c r="IT104" s="59"/>
+      <c r="IU104" s="59"/>
+      <c r="IV104" s="59"/>
+      <c r="IW104" s="59"/>
+      <c r="IX104" s="59"/>
+      <c r="IY104" s="59"/>
+      <c r="IZ104" s="59"/>
+      <c r="JA104" s="59"/>
+      <c r="JB104" s="59"/>
+      <c r="JC104" s="59"/>
+      <c r="JD104" s="59"/>
+      <c r="JE104" s="59"/>
+      <c r="JF104" s="59"/>
+      <c r="JG104" s="59"/>
+      <c r="JH104" s="59"/>
+      <c r="JI104" s="59"/>
+      <c r="JJ104" s="59"/>
+      <c r="JK104" s="59"/>
+      <c r="JL104" s="59"/>
+      <c r="JM104" s="59"/>
+      <c r="JN104" s="59"/>
+      <c r="JO104" s="59"/>
+      <c r="JP104" s="59"/>
+      <c r="JQ104" s="59"/>
+      <c r="JR104" s="59"/>
+      <c r="JS104" s="59"/>
+      <c r="JT104" s="59"/>
+      <c r="JU104" s="59"/>
+      <c r="JV104" s="59"/>
+      <c r="JW104" s="59"/>
+      <c r="JX104" s="59"/>
+      <c r="JY104" s="59"/>
+      <c r="JZ104" s="59"/>
+      <c r="KA104" s="59"/>
+      <c r="KB104" s="59"/>
+      <c r="KC104" s="59"/>
+      <c r="KD104" s="59"/>
+      <c r="KE104" s="59"/>
+      <c r="KF104" s="59"/>
+      <c r="KG104" s="59"/>
+      <c r="KH104" s="59"/>
+      <c r="KI104" s="59"/>
+      <c r="KJ104" s="59"/>
+      <c r="KK104" s="59"/>
+      <c r="KL104" s="59"/>
+      <c r="KM104" s="59"/>
+      <c r="KN104" s="59"/>
+      <c r="KO104" s="59"/>
+      <c r="KP104" s="59"/>
+      <c r="KQ104" s="59"/>
+      <c r="KR104" s="59"/>
+      <c r="KS104" s="59"/>
+      <c r="KT104" s="59"/>
+      <c r="KU104" s="59"/>
+      <c r="KV104" s="59"/>
+      <c r="KW104" s="59"/>
+      <c r="KX104" s="59"/>
+      <c r="KY104" s="59"/>
+      <c r="KZ104" s="59"/>
+      <c r="LA104" s="59"/>
+      <c r="LB104" s="59"/>
+      <c r="LC104" s="59"/>
+      <c r="LD104" s="59"/>
+      <c r="LE104" s="59"/>
+      <c r="LF104" s="59"/>
+      <c r="LG104" s="59"/>
+      <c r="LH104" s="59"/>
+      <c r="LI104" s="59"/>
+      <c r="LJ104" s="59"/>
+      <c r="LK104" s="59"/>
+      <c r="LL104" s="59"/>
+      <c r="LM104" s="59"/>
+      <c r="LN104" s="59"/>
+      <c r="LO104" s="59"/>
+      <c r="LP104" s="59"/>
+      <c r="LQ104" s="59"/>
+      <c r="LR104" s="59"/>
+      <c r="LS104" s="59"/>
+      <c r="LT104" s="59"/>
+      <c r="LU104" s="59"/>
+      <c r="LV104" s="59"/>
+      <c r="LW104" s="59"/>
+      <c r="LX104" s="59"/>
+      <c r="LY104" s="59"/>
+      <c r="LZ104" s="59"/>
+      <c r="MA104" s="59"/>
+      <c r="MB104" s="59"/>
+      <c r="MC104" s="59"/>
+      <c r="MD104" s="59"/>
+      <c r="ME104" s="59"/>
+      <c r="MF104" s="59"/>
+      <c r="MG104" s="59"/>
+      <c r="MH104" s="59"/>
+      <c r="MI104" s="59"/>
+      <c r="MJ104" s="59"/>
+      <c r="MK104" s="59"/>
+      <c r="ML104" s="59"/>
+      <c r="MM104" s="59"/>
+      <c r="MN104" s="59"/>
+      <c r="MO104" s="59"/>
+      <c r="MP104" s="59"/>
+      <c r="MQ104" s="59"/>
+      <c r="MR104" s="59"/>
+      <c r="MS104" s="59"/>
+      <c r="MT104" s="59"/>
+      <c r="MU104" s="59"/>
+      <c r="MV104" s="59"/>
+      <c r="MW104" s="59"/>
+      <c r="MX104" s="59"/>
+      <c r="MY104" s="59"/>
+      <c r="MZ104" s="59"/>
+      <c r="NA104" s="59"/>
+      <c r="NB104" s="59"/>
+      <c r="NC104" s="59"/>
+      <c r="ND104" s="59"/>
+      <c r="NE104" s="59"/>
+      <c r="NF104" s="59"/>
+      <c r="NG104" s="59"/>
+      <c r="NH104" s="59"/>
+      <c r="NI104" s="59"/>
+      <c r="NJ104" s="59"/>
+      <c r="NK104" s="59"/>
+      <c r="NL104" s="59"/>
+      <c r="NM104" s="59"/>
+      <c r="NN104" s="59"/>
+      <c r="NO104" s="59"/>
+      <c r="NP104" s="59"/>
+      <c r="NQ104" s="59"/>
+      <c r="NR104" s="59"/>
+      <c r="NS104" s="59"/>
+      <c r="NT104" s="59"/>
+      <c r="NU104" s="59"/>
+      <c r="NV104" s="59"/>
+      <c r="NW104" s="59"/>
+      <c r="NX104" s="59"/>
+      <c r="NY104" s="59"/>
+      <c r="NZ104" s="59"/>
+      <c r="OA104" s="59"/>
+      <c r="OB104" s="59"/>
+      <c r="OC104" s="59"/>
+      <c r="OD104" s="59"/>
+      <c r="OE104" s="59"/>
+      <c r="OF104" s="59"/>
+      <c r="OG104" s="59"/>
+      <c r="OH104" s="59"/>
+      <c r="OI104" s="59"/>
+      <c r="OJ104" s="59"/>
+      <c r="OK104" s="59"/>
+      <c r="OL104" s="59"/>
+      <c r="OM104" s="59"/>
+      <c r="ON104" s="59"/>
+      <c r="OO104" s="59"/>
+      <c r="OP104" s="59"/>
+      <c r="OQ104" s="59"/>
+      <c r="OR104" s="59"/>
+      <c r="OS104" s="59"/>
+      <c r="OT104" s="59"/>
+      <c r="OU104" s="59"/>
+      <c r="OV104" s="59"/>
+      <c r="OW104" s="59"/>
+      <c r="OX104" s="59"/>
+      <c r="OY104" s="59"/>
+      <c r="OZ104" s="59"/>
+      <c r="PA104" s="59"/>
+      <c r="PB104" s="71"/>
+    </row>
+    <row r="105" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B105" s="49">
+        <f t="shared" si="98"/>
+        <v>91</v>
+      </c>
+      <c r="C105" s="82"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="84"/>
+      <c r="F105" s="82"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="86"/>
+      <c r="I105" s="87"/>
+      <c r="J105" s="87"/>
+      <c r="K105" s="88"/>
+      <c r="L105" s="89"/>
+      <c r="M105" s="58"/>
+      <c r="N105" s="59"/>
+      <c r="O105" s="59"/>
+      <c r="P105" s="59"/>
+      <c r="Q105" s="59"/>
+      <c r="R105" s="59"/>
+      <c r="S105" s="59"/>
+      <c r="T105" s="59"/>
+      <c r="U105" s="59"/>
+      <c r="V105" s="59"/>
+      <c r="W105" s="59"/>
+      <c r="X105" s="59"/>
+      <c r="Y105" s="59"/>
+      <c r="Z105" s="59"/>
+      <c r="AA105" s="59"/>
+      <c r="AB105" s="59"/>
+      <c r="AC105" s="59"/>
+      <c r="AD105" s="59"/>
+      <c r="AE105" s="59"/>
+      <c r="AF105" s="59"/>
+      <c r="AG105" s="59"/>
+      <c r="AH105" s="59"/>
+      <c r="AI105" s="59"/>
+      <c r="AJ105" s="59"/>
+      <c r="AK105" s="59"/>
+      <c r="AL105" s="59"/>
+      <c r="AM105" s="59"/>
+      <c r="AN105" s="59"/>
+      <c r="AO105" s="59"/>
+      <c r="AP105" s="59"/>
+      <c r="AQ105" s="59"/>
+      <c r="AR105" s="59"/>
+      <c r="AS105" s="59"/>
+      <c r="AT105" s="59"/>
+      <c r="AU105" s="59"/>
+      <c r="AV105" s="59"/>
+      <c r="AW105" s="59"/>
+      <c r="AX105" s="59"/>
+      <c r="AY105" s="59"/>
+      <c r="AZ105" s="59"/>
+      <c r="BA105" s="59"/>
+      <c r="BB105" s="59"/>
+      <c r="BC105" s="59"/>
+      <c r="BD105" s="59"/>
+      <c r="BE105" s="59"/>
+      <c r="BF105" s="59"/>
+      <c r="BG105" s="59"/>
+      <c r="BH105" s="59"/>
+      <c r="BI105" s="59"/>
+      <c r="BJ105" s="59"/>
+      <c r="BK105" s="59"/>
+      <c r="BL105" s="59"/>
+      <c r="BM105" s="59"/>
+      <c r="BN105" s="59"/>
+      <c r="BO105" s="59"/>
+      <c r="BP105" s="59"/>
+      <c r="BQ105" s="59"/>
+      <c r="BR105" s="59"/>
+      <c r="BS105" s="59"/>
+      <c r="BT105" s="59"/>
+      <c r="BU105" s="59"/>
+      <c r="BV105" s="59"/>
+      <c r="BW105" s="59"/>
+      <c r="BX105" s="59"/>
+      <c r="BY105" s="59"/>
+      <c r="BZ105" s="59"/>
+      <c r="CA105" s="59"/>
+      <c r="CB105" s="59"/>
+      <c r="CC105" s="59"/>
+      <c r="CD105" s="59"/>
+      <c r="CE105" s="59"/>
+      <c r="CF105" s="59"/>
+      <c r="CG105" s="59"/>
+      <c r="CH105" s="59"/>
+      <c r="CI105" s="59"/>
+      <c r="CJ105" s="59"/>
+      <c r="CK105" s="59"/>
+      <c r="CL105" s="59"/>
+      <c r="CM105" s="59"/>
+      <c r="CN105" s="59"/>
+      <c r="CO105" s="59"/>
+      <c r="CP105" s="59"/>
+      <c r="CQ105" s="59"/>
+      <c r="CR105" s="59"/>
+      <c r="CS105" s="59"/>
+      <c r="CT105" s="59"/>
+      <c r="CU105" s="59"/>
+      <c r="CV105" s="59"/>
+      <c r="CW105" s="59"/>
+      <c r="CX105" s="59"/>
+      <c r="CY105" s="59"/>
+      <c r="CZ105" s="59"/>
+      <c r="DA105" s="59"/>
+      <c r="DB105" s="59"/>
+      <c r="DC105" s="59"/>
+      <c r="DD105" s="59"/>
+      <c r="DE105" s="59"/>
+      <c r="DF105" s="59"/>
+      <c r="DG105" s="59"/>
+      <c r="DH105" s="59"/>
+      <c r="DI105" s="59"/>
+      <c r="DJ105" s="59"/>
+      <c r="DK105" s="59"/>
+      <c r="DL105" s="59"/>
+      <c r="DM105" s="59"/>
+      <c r="DN105" s="59"/>
+      <c r="DO105" s="59"/>
+      <c r="DP105" s="59"/>
+      <c r="DQ105" s="59"/>
+      <c r="DR105" s="59"/>
+      <c r="DS105" s="59"/>
+      <c r="DT105" s="59"/>
+      <c r="DU105" s="59"/>
+      <c r="DV105" s="59"/>
+      <c r="DW105" s="59"/>
+      <c r="DX105" s="59"/>
+      <c r="DY105" s="59"/>
+      <c r="DZ105" s="59"/>
+      <c r="EA105" s="59"/>
+      <c r="EB105" s="59"/>
+      <c r="EC105" s="59"/>
+      <c r="ED105" s="59"/>
+      <c r="EE105" s="59"/>
+      <c r="EF105" s="59"/>
+      <c r="EG105" s="59"/>
+      <c r="EH105" s="59"/>
+      <c r="EI105" s="59"/>
+      <c r="EJ105" s="59"/>
+      <c r="EK105" s="59"/>
+      <c r="EL105" s="59"/>
+      <c r="EM105" s="59"/>
+      <c r="EN105" s="59"/>
+      <c r="EO105" s="59"/>
+      <c r="EP105" s="59"/>
+      <c r="EQ105" s="59"/>
+      <c r="ER105" s="59"/>
+      <c r="ES105" s="59"/>
+      <c r="ET105" s="59"/>
+      <c r="EU105" s="59"/>
+      <c r="EV105" s="59"/>
+      <c r="EW105" s="59"/>
+      <c r="EX105" s="59"/>
+      <c r="EY105" s="59"/>
+      <c r="EZ105" s="59"/>
+      <c r="FA105" s="59"/>
+      <c r="FB105" s="59"/>
+      <c r="FC105" s="59"/>
+      <c r="FD105" s="59"/>
+      <c r="FE105" s="59"/>
+      <c r="FF105" s="59"/>
+      <c r="FG105" s="59"/>
+      <c r="FH105" s="59"/>
+      <c r="FI105" s="59"/>
+      <c r="FJ105" s="59"/>
+      <c r="FK105" s="59"/>
+      <c r="FL105" s="59"/>
+      <c r="FM105" s="59"/>
+      <c r="FN105" s="59"/>
+      <c r="FO105" s="59"/>
+      <c r="FP105" s="59"/>
+      <c r="FQ105" s="59"/>
+      <c r="FR105" s="59"/>
+      <c r="FS105" s="59"/>
+      <c r="FT105" s="59"/>
+      <c r="FU105" s="59"/>
+      <c r="FV105" s="59"/>
+      <c r="FW105" s="59"/>
+      <c r="FX105" s="59"/>
+      <c r="FY105" s="59"/>
+      <c r="FZ105" s="59"/>
+      <c r="GA105" s="59"/>
+      <c r="GB105" s="59"/>
+      <c r="GC105" s="59"/>
+      <c r="GD105" s="59"/>
+      <c r="GE105" s="59"/>
+      <c r="GF105" s="59"/>
+      <c r="GG105" s="59"/>
+      <c r="GH105" s="59"/>
+      <c r="GI105" s="59"/>
+      <c r="GJ105" s="59"/>
+      <c r="GK105" s="59"/>
+      <c r="GL105" s="59"/>
+      <c r="GM105" s="59"/>
+      <c r="GN105" s="59"/>
+      <c r="GO105" s="59"/>
+      <c r="GP105" s="59"/>
+      <c r="GQ105" s="59"/>
+      <c r="GR105" s="59"/>
+      <c r="GS105" s="59"/>
+      <c r="GT105" s="59"/>
+      <c r="GU105" s="59"/>
+      <c r="GV105" s="59"/>
+      <c r="GW105" s="59"/>
+      <c r="GX105" s="59"/>
+      <c r="GY105" s="59"/>
+      <c r="GZ105" s="59"/>
+      <c r="HA105" s="59"/>
+      <c r="HB105" s="59"/>
+      <c r="HC105" s="59"/>
+      <c r="HD105" s="59"/>
+      <c r="HE105" s="59"/>
+      <c r="HF105" s="59"/>
+      <c r="HG105" s="59"/>
+      <c r="HH105" s="59"/>
+      <c r="HI105" s="59"/>
+      <c r="HJ105" s="59"/>
+      <c r="HK105" s="59"/>
+      <c r="HL105" s="59"/>
+      <c r="HM105" s="59"/>
+      <c r="HN105" s="59"/>
+      <c r="HO105" s="59"/>
+      <c r="HP105" s="59"/>
+      <c r="HQ105" s="59"/>
+      <c r="HR105" s="59"/>
+      <c r="HS105" s="59"/>
+      <c r="HT105" s="59"/>
+      <c r="HU105" s="59"/>
+      <c r="HV105" s="59"/>
+      <c r="HW105" s="59"/>
+      <c r="HX105" s="59"/>
+      <c r="HY105" s="59"/>
+      <c r="HZ105" s="59"/>
+      <c r="IA105" s="59"/>
+      <c r="IB105" s="59"/>
+      <c r="IC105" s="59"/>
+      <c r="ID105" s="59"/>
+      <c r="IE105" s="59"/>
+      <c r="IF105" s="59"/>
+      <c r="IG105" s="59"/>
+      <c r="IH105" s="59"/>
+      <c r="II105" s="59"/>
+      <c r="IJ105" s="59"/>
+      <c r="IK105" s="59"/>
+      <c r="IL105" s="59"/>
+      <c r="IM105" s="59"/>
+      <c r="IN105" s="59"/>
+      <c r="IO105" s="59"/>
+      <c r="IP105" s="59"/>
+      <c r="IQ105" s="59"/>
+      <c r="IR105" s="59"/>
+      <c r="IS105" s="59"/>
+      <c r="IT105" s="59"/>
+      <c r="IU105" s="59"/>
+      <c r="IV105" s="59"/>
+      <c r="IW105" s="59"/>
+      <c r="IX105" s="59"/>
+      <c r="IY105" s="59"/>
+      <c r="IZ105" s="59"/>
+      <c r="JA105" s="59"/>
+      <c r="JB105" s="59"/>
+      <c r="JC105" s="59"/>
+      <c r="JD105" s="59"/>
+      <c r="JE105" s="59"/>
+      <c r="JF105" s="59"/>
+      <c r="JG105" s="59"/>
+      <c r="JH105" s="59"/>
+      <c r="JI105" s="59"/>
+      <c r="JJ105" s="59"/>
+      <c r="JK105" s="59"/>
+      <c r="JL105" s="59"/>
+      <c r="JM105" s="59"/>
+      <c r="JN105" s="59"/>
+      <c r="JO105" s="59"/>
+      <c r="JP105" s="59"/>
+      <c r="JQ105" s="59"/>
+      <c r="JR105" s="59"/>
+      <c r="JS105" s="59"/>
+      <c r="JT105" s="59"/>
+      <c r="JU105" s="59"/>
+      <c r="JV105" s="59"/>
+      <c r="JW105" s="59"/>
+      <c r="JX105" s="59"/>
+      <c r="JY105" s="59"/>
+      <c r="JZ105" s="59"/>
+      <c r="KA105" s="59"/>
+      <c r="KB105" s="59"/>
+      <c r="KC105" s="59"/>
+      <c r="KD105" s="59"/>
+      <c r="KE105" s="59"/>
+      <c r="KF105" s="59"/>
+      <c r="KG105" s="59"/>
+      <c r="KH105" s="59"/>
+      <c r="KI105" s="59"/>
+      <c r="KJ105" s="59"/>
+      <c r="KK105" s="59"/>
+      <c r="KL105" s="59"/>
+      <c r="KM105" s="59"/>
+      <c r="KN105" s="59"/>
+      <c r="KO105" s="59"/>
+      <c r="KP105" s="59"/>
+      <c r="KQ105" s="59"/>
+      <c r="KR105" s="59"/>
+      <c r="KS105" s="59"/>
+      <c r="KT105" s="59"/>
+      <c r="KU105" s="59"/>
+      <c r="KV105" s="59"/>
+      <c r="KW105" s="59"/>
+      <c r="KX105" s="59"/>
+      <c r="KY105" s="59"/>
+      <c r="KZ105" s="59"/>
+      <c r="LA105" s="59"/>
+      <c r="LB105" s="59"/>
+      <c r="LC105" s="59"/>
+      <c r="LD105" s="59"/>
+      <c r="LE105" s="59"/>
+      <c r="LF105" s="59"/>
+      <c r="LG105" s="59"/>
+      <c r="LH105" s="59"/>
+      <c r="LI105" s="59"/>
+      <c r="LJ105" s="59"/>
+      <c r="LK105" s="59"/>
+      <c r="LL105" s="59"/>
+      <c r="LM105" s="59"/>
+      <c r="LN105" s="59"/>
+      <c r="LO105" s="59"/>
+      <c r="LP105" s="59"/>
+      <c r="LQ105" s="59"/>
+      <c r="LR105" s="59"/>
+      <c r="LS105" s="59"/>
+      <c r="LT105" s="59"/>
+      <c r="LU105" s="59"/>
+      <c r="LV105" s="59"/>
+      <c r="LW105" s="59"/>
+      <c r="LX105" s="59"/>
+      <c r="LY105" s="59"/>
+      <c r="LZ105" s="59"/>
+      <c r="MA105" s="59"/>
+      <c r="MB105" s="59"/>
+      <c r="MC105" s="59"/>
+      <c r="MD105" s="59"/>
+      <c r="ME105" s="59"/>
+      <c r="MF105" s="59"/>
+      <c r="MG105" s="59"/>
+      <c r="MH105" s="59"/>
+      <c r="MI105" s="59"/>
+      <c r="MJ105" s="59"/>
+      <c r="MK105" s="59"/>
+      <c r="ML105" s="59"/>
+      <c r="MM105" s="59"/>
+      <c r="MN105" s="59"/>
+      <c r="MO105" s="59"/>
+      <c r="MP105" s="59"/>
+      <c r="MQ105" s="59"/>
+      <c r="MR105" s="59"/>
+      <c r="MS105" s="59"/>
+      <c r="MT105" s="59"/>
+      <c r="MU105" s="59"/>
+      <c r="MV105" s="59"/>
+      <c r="MW105" s="59"/>
+      <c r="MX105" s="59"/>
+      <c r="MY105" s="59"/>
+      <c r="MZ105" s="59"/>
+      <c r="NA105" s="59"/>
+      <c r="NB105" s="59"/>
+      <c r="NC105" s="59"/>
+      <c r="ND105" s="59"/>
+      <c r="NE105" s="59"/>
+      <c r="NF105" s="59"/>
+      <c r="NG105" s="59"/>
+      <c r="NH105" s="59"/>
+      <c r="NI105" s="59"/>
+      <c r="NJ105" s="59"/>
+      <c r="NK105" s="59"/>
+      <c r="NL105" s="59"/>
+      <c r="NM105" s="59"/>
+      <c r="NN105" s="59"/>
+      <c r="NO105" s="59"/>
+      <c r="NP105" s="59"/>
+      <c r="NQ105" s="59"/>
+      <c r="NR105" s="59"/>
+      <c r="NS105" s="59"/>
+      <c r="NT105" s="59"/>
+      <c r="NU105" s="59"/>
+      <c r="NV105" s="59"/>
+      <c r="NW105" s="59"/>
+      <c r="NX105" s="59"/>
+      <c r="NY105" s="59"/>
+      <c r="NZ105" s="59"/>
+      <c r="OA105" s="59"/>
+      <c r="OB105" s="59"/>
+      <c r="OC105" s="59"/>
+      <c r="OD105" s="59"/>
+      <c r="OE105" s="59"/>
+      <c r="OF105" s="59"/>
+      <c r="OG105" s="59"/>
+      <c r="OH105" s="59"/>
+      <c r="OI105" s="59"/>
+      <c r="OJ105" s="59"/>
+      <c r="OK105" s="59"/>
+      <c r="OL105" s="59"/>
+      <c r="OM105" s="59"/>
+      <c r="ON105" s="59"/>
+      <c r="OO105" s="59"/>
+      <c r="OP105" s="59"/>
+      <c r="OQ105" s="59"/>
+      <c r="OR105" s="59"/>
+      <c r="OS105" s="59"/>
+      <c r="OT105" s="59"/>
+      <c r="OU105" s="59"/>
+      <c r="OV105" s="59"/>
+      <c r="OW105" s="59"/>
+      <c r="OX105" s="59"/>
+      <c r="OY105" s="59"/>
+      <c r="OZ105" s="59"/>
+      <c r="PA105" s="59"/>
+      <c r="PB105" s="71"/>
+    </row>
+    <row r="106" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B106" s="49">
+        <f t="shared" si="98"/>
+        <v>92</v>
+      </c>
+      <c r="C106" s="82"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="84"/>
+      <c r="F106" s="82"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="86"/>
+      <c r="I106" s="87"/>
+      <c r="J106" s="87"/>
+      <c r="K106" s="88"/>
+      <c r="L106" s="89"/>
+      <c r="M106" s="58"/>
+      <c r="N106" s="59"/>
+      <c r="O106" s="59"/>
+      <c r="P106" s="59"/>
+      <c r="Q106" s="59"/>
+      <c r="R106" s="59"/>
+      <c r="S106" s="59"/>
+      <c r="T106" s="59"/>
+      <c r="U106" s="59"/>
+      <c r="V106" s="59"/>
+      <c r="W106" s="59"/>
+      <c r="X106" s="59"/>
+      <c r="Y106" s="59"/>
+      <c r="Z106" s="59"/>
+      <c r="AA106" s="59"/>
+      <c r="AB106" s="59"/>
+      <c r="AC106" s="59"/>
+      <c r="AD106" s="59"/>
+      <c r="AE106" s="59"/>
+      <c r="AF106" s="59"/>
+      <c r="AG106" s="59"/>
+      <c r="AH106" s="59"/>
+      <c r="AI106" s="59"/>
+      <c r="AJ106" s="59"/>
+      <c r="AK106" s="59"/>
+      <c r="AL106" s="59"/>
+      <c r="AM106" s="59"/>
+      <c r="AN106" s="59"/>
+      <c r="AO106" s="59"/>
+      <c r="AP106" s="59"/>
+      <c r="AQ106" s="59"/>
+      <c r="AR106" s="59"/>
+      <c r="AS106" s="59"/>
+      <c r="AT106" s="59"/>
+      <c r="AU106" s="59"/>
+      <c r="AV106" s="59"/>
+      <c r="AW106" s="59"/>
+      <c r="AX106" s="59"/>
+      <c r="AY106" s="59"/>
+      <c r="AZ106" s="59"/>
+      <c r="BA106" s="59"/>
+      <c r="BB106" s="59"/>
+      <c r="BC106" s="59"/>
+      <c r="BD106" s="59"/>
+      <c r="BE106" s="59"/>
+      <c r="BF106" s="59"/>
+      <c r="BG106" s="59"/>
+      <c r="BH106" s="59"/>
+      <c r="BI106" s="59"/>
+      <c r="BJ106" s="59"/>
+      <c r="BK106" s="59"/>
+      <c r="BL106" s="59"/>
+      <c r="BM106" s="59"/>
+      <c r="BN106" s="59"/>
+      <c r="BO106" s="59"/>
+      <c r="BP106" s="59"/>
+      <c r="BQ106" s="59"/>
+      <c r="BR106" s="59"/>
+      <c r="BS106" s="59"/>
+      <c r="BT106" s="59"/>
+      <c r="BU106" s="59"/>
+      <c r="BV106" s="59"/>
+      <c r="BW106" s="59"/>
+      <c r="BX106" s="59"/>
+      <c r="BY106" s="59"/>
+      <c r="BZ106" s="59"/>
+      <c r="CA106" s="59"/>
+      <c r="CB106" s="59"/>
+      <c r="CC106" s="59"/>
+      <c r="CD106" s="59"/>
+      <c r="CE106" s="59"/>
+      <c r="CF106" s="59"/>
+      <c r="CG106" s="59"/>
+      <c r="CH106" s="59"/>
+      <c r="CI106" s="59"/>
+      <c r="CJ106" s="59"/>
+      <c r="CK106" s="59"/>
+      <c r="CL106" s="59"/>
+      <c r="CM106" s="59"/>
+      <c r="CN106" s="59"/>
+      <c r="CO106" s="59"/>
+      <c r="CP106" s="59"/>
+      <c r="CQ106" s="59"/>
+      <c r="CR106" s="59"/>
+      <c r="CS106" s="59"/>
+      <c r="CT106" s="59"/>
+      <c r="CU106" s="59"/>
+      <c r="CV106" s="59"/>
+      <c r="CW106" s="59"/>
+      <c r="CX106" s="59"/>
+      <c r="CY106" s="59"/>
+      <c r="CZ106" s="59"/>
+      <c r="DA106" s="59"/>
+      <c r="DB106" s="59"/>
+      <c r="DC106" s="59"/>
+      <c r="DD106" s="59"/>
+      <c r="DE106" s="59"/>
+      <c r="DF106" s="59"/>
+      <c r="DG106" s="59"/>
+      <c r="DH106" s="59"/>
+      <c r="DI106" s="59"/>
+      <c r="DJ106" s="59"/>
+      <c r="DK106" s="59"/>
+      <c r="DL106" s="59"/>
+      <c r="DM106" s="59"/>
+      <c r="DN106" s="59"/>
+      <c r="DO106" s="59"/>
+      <c r="DP106" s="59"/>
+      <c r="DQ106" s="59"/>
+      <c r="DR106" s="59"/>
+      <c r="DS106" s="59"/>
+      <c r="DT106" s="59"/>
+      <c r="DU106" s="59"/>
+      <c r="DV106" s="59"/>
+      <c r="DW106" s="59"/>
+      <c r="DX106" s="59"/>
+      <c r="DY106" s="59"/>
+      <c r="DZ106" s="59"/>
+      <c r="EA106" s="59"/>
+      <c r="EB106" s="59"/>
+      <c r="EC106" s="59"/>
+      <c r="ED106" s="59"/>
+      <c r="EE106" s="59"/>
+      <c r="EF106" s="59"/>
+      <c r="EG106" s="59"/>
+      <c r="EH106" s="59"/>
+      <c r="EI106" s="59"/>
+      <c r="EJ106" s="59"/>
+      <c r="EK106" s="59"/>
+      <c r="EL106" s="59"/>
+      <c r="EM106" s="59"/>
+      <c r="EN106" s="59"/>
+      <c r="EO106" s="59"/>
+      <c r="EP106" s="59"/>
+      <c r="EQ106" s="59"/>
+      <c r="ER106" s="59"/>
+      <c r="ES106" s="59"/>
+      <c r="ET106" s="59"/>
+      <c r="EU106" s="59"/>
+      <c r="EV106" s="59"/>
+      <c r="EW106" s="59"/>
+      <c r="EX106" s="59"/>
+      <c r="EY106" s="59"/>
+      <c r="EZ106" s="59"/>
+      <c r="FA106" s="59"/>
+      <c r="FB106" s="59"/>
+      <c r="FC106" s="59"/>
+      <c r="FD106" s="59"/>
+      <c r="FE106" s="59"/>
+      <c r="FF106" s="59"/>
+      <c r="FG106" s="59"/>
+      <c r="FH106" s="59"/>
+      <c r="FI106" s="59"/>
+      <c r="FJ106" s="59"/>
+      <c r="FK106" s="59"/>
+      <c r="FL106" s="59"/>
+      <c r="FM106" s="59"/>
+      <c r="FN106" s="59"/>
+      <c r="FO106" s="59"/>
+      <c r="FP106" s="59"/>
+      <c r="FQ106" s="59"/>
+      <c r="FR106" s="59"/>
+      <c r="FS106" s="59"/>
+      <c r="FT106" s="59"/>
+      <c r="FU106" s="59"/>
+      <c r="FV106" s="59"/>
+      <c r="FW106" s="59"/>
+      <c r="FX106" s="59"/>
+      <c r="FY106" s="59"/>
+      <c r="FZ106" s="59"/>
+      <c r="GA106" s="59"/>
+      <c r="GB106" s="59"/>
+      <c r="GC106" s="59"/>
+      <c r="GD106" s="59"/>
+      <c r="GE106" s="59"/>
+      <c r="GF106" s="59"/>
+      <c r="GG106" s="59"/>
+      <c r="GH106" s="59"/>
+      <c r="GI106" s="59"/>
+      <c r="GJ106" s="59"/>
+      <c r="GK106" s="59"/>
+      <c r="GL106" s="59"/>
+      <c r="GM106" s="59"/>
+      <c r="GN106" s="59"/>
+      <c r="GO106" s="59"/>
+      <c r="GP106" s="59"/>
+      <c r="GQ106" s="59"/>
+      <c r="GR106" s="59"/>
+      <c r="GS106" s="59"/>
+      <c r="GT106" s="59"/>
+      <c r="GU106" s="59"/>
+      <c r="GV106" s="59"/>
+      <c r="GW106" s="59"/>
+      <c r="GX106" s="59"/>
+      <c r="GY106" s="59"/>
+      <c r="GZ106" s="59"/>
+      <c r="HA106" s="59"/>
+      <c r="HB106" s="59"/>
+      <c r="HC106" s="59"/>
+      <c r="HD106" s="59"/>
+      <c r="HE106" s="59"/>
+      <c r="HF106" s="59"/>
+      <c r="HG106" s="59"/>
+      <c r="HH106" s="59"/>
+      <c r="HI106" s="59"/>
+      <c r="HJ106" s="59"/>
+      <c r="HK106" s="59"/>
+      <c r="HL106" s="59"/>
+      <c r="HM106" s="59"/>
+      <c r="HN106" s="59"/>
+      <c r="HO106" s="59"/>
+      <c r="HP106" s="59"/>
+      <c r="HQ106" s="59"/>
+      <c r="HR106" s="59"/>
+      <c r="HS106" s="59"/>
+      <c r="HT106" s="59"/>
+      <c r="HU106" s="59"/>
+      <c r="HV106" s="59"/>
+      <c r="HW106" s="59"/>
+      <c r="HX106" s="59"/>
+      <c r="HY106" s="59"/>
+      <c r="HZ106" s="59"/>
+      <c r="IA106" s="59"/>
+      <c r="IB106" s="59"/>
+      <c r="IC106" s="59"/>
+      <c r="ID106" s="59"/>
+      <c r="IE106" s="59"/>
+      <c r="IF106" s="59"/>
+      <c r="IG106" s="59"/>
+      <c r="IH106" s="59"/>
+      <c r="II106" s="59"/>
+      <c r="IJ106" s="59"/>
+      <c r="IK106" s="59"/>
+      <c r="IL106" s="59"/>
+      <c r="IM106" s="59"/>
+      <c r="IN106" s="59"/>
+      <c r="IO106" s="59"/>
+      <c r="IP106" s="59"/>
+      <c r="IQ106" s="59"/>
+      <c r="IR106" s="59"/>
+      <c r="IS106" s="59"/>
+      <c r="IT106" s="59"/>
+      <c r="IU106" s="59"/>
+      <c r="IV106" s="59"/>
+      <c r="IW106" s="59"/>
+      <c r="IX106" s="59"/>
+      <c r="IY106" s="59"/>
+      <c r="IZ106" s="59"/>
+      <c r="JA106" s="59"/>
+      <c r="JB106" s="59"/>
+      <c r="JC106" s="59"/>
+      <c r="JD106" s="59"/>
+      <c r="JE106" s="59"/>
+      <c r="JF106" s="59"/>
+      <c r="JG106" s="59"/>
+      <c r="JH106" s="59"/>
+      <c r="JI106" s="59"/>
+      <c r="JJ106" s="59"/>
+      <c r="JK106" s="59"/>
+      <c r="JL106" s="59"/>
+      <c r="JM106" s="59"/>
+      <c r="JN106" s="59"/>
+      <c r="JO106" s="59"/>
+      <c r="JP106" s="59"/>
+      <c r="JQ106" s="59"/>
+      <c r="JR106" s="59"/>
+      <c r="JS106" s="59"/>
+      <c r="JT106" s="59"/>
+      <c r="JU106" s="59"/>
+      <c r="JV106" s="59"/>
+      <c r="JW106" s="59"/>
+      <c r="JX106" s="59"/>
+      <c r="JY106" s="59"/>
+      <c r="JZ106" s="59"/>
+      <c r="KA106" s="59"/>
+      <c r="KB106" s="59"/>
+      <c r="KC106" s="59"/>
+      <c r="KD106" s="59"/>
+      <c r="KE106" s="59"/>
+      <c r="KF106" s="59"/>
+      <c r="KG106" s="59"/>
+      <c r="KH106" s="59"/>
+      <c r="KI106" s="59"/>
+      <c r="KJ106" s="59"/>
+      <c r="KK106" s="59"/>
+      <c r="KL106" s="59"/>
+      <c r="KM106" s="59"/>
+      <c r="KN106" s="59"/>
+      <c r="KO106" s="59"/>
+      <c r="KP106" s="59"/>
+      <c r="KQ106" s="59"/>
+      <c r="KR106" s="59"/>
+      <c r="KS106" s="59"/>
+      <c r="KT106" s="59"/>
+      <c r="KU106" s="59"/>
+      <c r="KV106" s="59"/>
+      <c r="KW106" s="59"/>
+      <c r="KX106" s="59"/>
+      <c r="KY106" s="59"/>
+      <c r="KZ106" s="59"/>
+      <c r="LA106" s="59"/>
+      <c r="LB106" s="59"/>
+      <c r="LC106" s="59"/>
+      <c r="LD106" s="59"/>
+      <c r="LE106" s="59"/>
+      <c r="LF106" s="59"/>
+      <c r="LG106" s="59"/>
+      <c r="LH106" s="59"/>
+      <c r="LI106" s="59"/>
+      <c r="LJ106" s="59"/>
+      <c r="LK106" s="59"/>
+      <c r="LL106" s="59"/>
+      <c r="LM106" s="59"/>
+      <c r="LN106" s="59"/>
+      <c r="LO106" s="59"/>
+      <c r="LP106" s="59"/>
+      <c r="LQ106" s="59"/>
+      <c r="LR106" s="59"/>
+      <c r="LS106" s="59"/>
+      <c r="LT106" s="59"/>
+      <c r="LU106" s="59"/>
+      <c r="LV106" s="59"/>
+      <c r="LW106" s="59"/>
+      <c r="LX106" s="59"/>
+      <c r="LY106" s="59"/>
+      <c r="LZ106" s="59"/>
+      <c r="MA106" s="59"/>
+      <c r="MB106" s="59"/>
+      <c r="MC106" s="59"/>
+      <c r="MD106" s="59"/>
+      <c r="ME106" s="59"/>
+      <c r="MF106" s="59"/>
+      <c r="MG106" s="59"/>
+      <c r="MH106" s="59"/>
+      <c r="MI106" s="59"/>
+      <c r="MJ106" s="59"/>
+      <c r="MK106" s="59"/>
+      <c r="ML106" s="59"/>
+      <c r="MM106" s="59"/>
+      <c r="MN106" s="59"/>
+      <c r="MO106" s="59"/>
+      <c r="MP106" s="59"/>
+      <c r="MQ106" s="59"/>
+      <c r="MR106" s="59"/>
+      <c r="MS106" s="59"/>
+      <c r="MT106" s="59"/>
+      <c r="MU106" s="59"/>
+      <c r="MV106" s="59"/>
+      <c r="MW106" s="59"/>
+      <c r="MX106" s="59"/>
+      <c r="MY106" s="59"/>
+      <c r="MZ106" s="59"/>
+      <c r="NA106" s="59"/>
+      <c r="NB106" s="59"/>
+      <c r="NC106" s="59"/>
+      <c r="ND106" s="59"/>
+      <c r="NE106" s="59"/>
+      <c r="NF106" s="59"/>
+      <c r="NG106" s="59"/>
+      <c r="NH106" s="59"/>
+      <c r="NI106" s="59"/>
+      <c r="NJ106" s="59"/>
+      <c r="NK106" s="59"/>
+      <c r="NL106" s="59"/>
+      <c r="NM106" s="59"/>
+      <c r="NN106" s="59"/>
+      <c r="NO106" s="59"/>
+      <c r="NP106" s="59"/>
+      <c r="NQ106" s="59"/>
+      <c r="NR106" s="59"/>
+      <c r="NS106" s="59"/>
+      <c r="NT106" s="59"/>
+      <c r="NU106" s="59"/>
+      <c r="NV106" s="59"/>
+      <c r="NW106" s="59"/>
+      <c r="NX106" s="59"/>
+      <c r="NY106" s="59"/>
+      <c r="NZ106" s="59"/>
+      <c r="OA106" s="59"/>
+      <c r="OB106" s="59"/>
+      <c r="OC106" s="59"/>
+      <c r="OD106" s="59"/>
+      <c r="OE106" s="59"/>
+      <c r="OF106" s="59"/>
+      <c r="OG106" s="59"/>
+      <c r="OH106" s="59"/>
+      <c r="OI106" s="59"/>
+      <c r="OJ106" s="59"/>
+      <c r="OK106" s="59"/>
+      <c r="OL106" s="59"/>
+      <c r="OM106" s="59"/>
+      <c r="ON106" s="59"/>
+      <c r="OO106" s="59"/>
+      <c r="OP106" s="59"/>
+      <c r="OQ106" s="59"/>
+      <c r="OR106" s="59"/>
+      <c r="OS106" s="59"/>
+      <c r="OT106" s="59"/>
+      <c r="OU106" s="59"/>
+      <c r="OV106" s="59"/>
+      <c r="OW106" s="59"/>
+      <c r="OX106" s="59"/>
+      <c r="OY106" s="59"/>
+      <c r="OZ106" s="59"/>
+      <c r="PA106" s="59"/>
+      <c r="PB106" s="71"/>
+    </row>
+    <row r="107" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B107" s="49">
+        <f t="shared" si="98"/>
+        <v>93</v>
+      </c>
+      <c r="C107" s="82"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="84"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="85" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="H107" s="86"/>
+      <c r="I107" s="87"/>
+      <c r="J107" s="87"/>
+      <c r="K107" s="88"/>
+      <c r="L107" s="89"/>
+      <c r="M107" s="58"/>
+      <c r="N107" s="59"/>
+      <c r="O107" s="59"/>
+      <c r="P107" s="59"/>
+      <c r="Q107" s="59"/>
+      <c r="R107" s="59"/>
+      <c r="S107" s="59"/>
+      <c r="T107" s="59"/>
+      <c r="U107" s="59"/>
+      <c r="V107" s="59"/>
+      <c r="W107" s="59"/>
+      <c r="X107" s="59"/>
+      <c r="Y107" s="59"/>
+      <c r="Z107" s="59"/>
+      <c r="AA107" s="59"/>
+      <c r="AB107" s="59"/>
+      <c r="AC107" s="59"/>
+      <c r="AD107" s="59"/>
+      <c r="AE107" s="59"/>
+      <c r="AF107" s="59"/>
+      <c r="AG107" s="59"/>
+      <c r="AH107" s="59"/>
+      <c r="AI107" s="59"/>
+      <c r="AJ107" s="59"/>
+      <c r="AK107" s="59"/>
+      <c r="AL107" s="59"/>
+      <c r="AM107" s="59"/>
+      <c r="AN107" s="59"/>
+      <c r="AO107" s="59"/>
+      <c r="AP107" s="59"/>
+      <c r="AQ107" s="59"/>
+      <c r="AR107" s="59"/>
+      <c r="AS107" s="59"/>
+      <c r="AT107" s="59"/>
+      <c r="AU107" s="59"/>
+      <c r="AV107" s="59"/>
+      <c r="AW107" s="59"/>
+      <c r="AX107" s="59"/>
+      <c r="AY107" s="59"/>
+      <c r="AZ107" s="59"/>
+      <c r="BA107" s="59"/>
+      <c r="BB107" s="59"/>
+      <c r="BC107" s="59"/>
+      <c r="BD107" s="59"/>
+      <c r="BE107" s="59"/>
+      <c r="BF107" s="59"/>
+      <c r="BG107" s="59"/>
+      <c r="BH107" s="59"/>
+      <c r="BI107" s="59"/>
+      <c r="BJ107" s="59"/>
+      <c r="BK107" s="59"/>
+      <c r="BL107" s="59"/>
+      <c r="BM107" s="59"/>
+      <c r="BN107" s="59"/>
+      <c r="BO107" s="59"/>
+      <c r="BP107" s="59"/>
+      <c r="BQ107" s="59"/>
+      <c r="BR107" s="59"/>
+      <c r="BS107" s="59"/>
+      <c r="BT107" s="59"/>
+      <c r="BU107" s="59"/>
+      <c r="BV107" s="59"/>
+      <c r="BW107" s="59"/>
+      <c r="BX107" s="59"/>
+      <c r="BY107" s="59"/>
+      <c r="BZ107" s="59"/>
+      <c r="CA107" s="59"/>
+      <c r="CB107" s="59"/>
+      <c r="CC107" s="59"/>
+      <c r="CD107" s="59"/>
+      <c r="CE107" s="59"/>
+      <c r="CF107" s="59"/>
+      <c r="CG107" s="59"/>
+      <c r="CH107" s="59"/>
+      <c r="CI107" s="59"/>
+      <c r="CJ107" s="59"/>
+      <c r="CK107" s="59"/>
+      <c r="CL107" s="59"/>
+      <c r="CM107" s="59"/>
+      <c r="CN107" s="59"/>
+      <c r="CO107" s="59"/>
+      <c r="CP107" s="59"/>
+      <c r="CQ107" s="59"/>
+      <c r="CR107" s="59"/>
+      <c r="CS107" s="59"/>
+      <c r="CT107" s="59"/>
+      <c r="CU107" s="59"/>
+      <c r="CV107" s="59"/>
+      <c r="CW107" s="59"/>
+      <c r="CX107" s="59"/>
+      <c r="CY107" s="59"/>
+      <c r="CZ107" s="59"/>
+      <c r="DA107" s="59"/>
+      <c r="DB107" s="59"/>
+      <c r="DC107" s="59"/>
+      <c r="DD107" s="59"/>
+      <c r="DE107" s="59"/>
+      <c r="DF107" s="59"/>
+      <c r="DG107" s="59"/>
+      <c r="DH107" s="59"/>
+      <c r="DI107" s="59"/>
+      <c r="DJ107" s="59"/>
+      <c r="DK107" s="59"/>
+      <c r="DL107" s="59"/>
+      <c r="DM107" s="59"/>
+      <c r="DN107" s="59"/>
+      <c r="DO107" s="59"/>
+      <c r="DP107" s="59"/>
+      <c r="DQ107" s="59"/>
+      <c r="DR107" s="59"/>
+      <c r="DS107" s="59"/>
+      <c r="DT107" s="59"/>
+      <c r="DU107" s="59"/>
+      <c r="DV107" s="59"/>
+      <c r="DW107" s="59"/>
+      <c r="DX107" s="59"/>
+      <c r="DY107" s="59"/>
+      <c r="DZ107" s="59"/>
+      <c r="EA107" s="59"/>
+      <c r="EB107" s="59"/>
+      <c r="EC107" s="59"/>
+      <c r="ED107" s="59"/>
+      <c r="EE107" s="59"/>
+      <c r="EF107" s="59"/>
+      <c r="EG107" s="59"/>
+      <c r="EH107" s="59"/>
+      <c r="EI107" s="59"/>
+      <c r="EJ107" s="59"/>
+      <c r="EK107" s="59"/>
+      <c r="EL107" s="59"/>
+      <c r="EM107" s="59"/>
+      <c r="EN107" s="59"/>
+      <c r="EO107" s="59"/>
+      <c r="EP107" s="59"/>
+      <c r="EQ107" s="59"/>
+      <c r="ER107" s="59"/>
+      <c r="ES107" s="59"/>
+      <c r="ET107" s="59"/>
+      <c r="EU107" s="59"/>
+      <c r="EV107" s="59"/>
+      <c r="EW107" s="59"/>
+      <c r="EX107" s="59"/>
+      <c r="EY107" s="59"/>
+      <c r="EZ107" s="59"/>
+      <c r="FA107" s="59"/>
+      <c r="FB107" s="59"/>
+      <c r="FC107" s="59"/>
+      <c r="FD107" s="59"/>
+      <c r="FE107" s="59"/>
+      <c r="FF107" s="59"/>
+      <c r="FG107" s="59"/>
+      <c r="FH107" s="59"/>
+      <c r="FI107" s="59"/>
+      <c r="FJ107" s="59"/>
+      <c r="FK107" s="59"/>
+      <c r="FL107" s="59"/>
+      <c r="FM107" s="59"/>
+      <c r="FN107" s="59"/>
+      <c r="FO107" s="59"/>
+      <c r="FP107" s="59"/>
+      <c r="FQ107" s="59"/>
+      <c r="FR107" s="59"/>
+      <c r="FS107" s="59"/>
+      <c r="FT107" s="59"/>
+      <c r="FU107" s="59"/>
+      <c r="FV107" s="59"/>
+      <c r="FW107" s="59"/>
+      <c r="FX107" s="59"/>
+      <c r="FY107" s="59"/>
+      <c r="FZ107" s="59"/>
+      <c r="GA107" s="59"/>
+      <c r="GB107" s="59"/>
+      <c r="GC107" s="59"/>
+      <c r="GD107" s="59"/>
+      <c r="GE107" s="59"/>
+      <c r="GF107" s="59"/>
+      <c r="GG107" s="59"/>
+      <c r="GH107" s="59"/>
+      <c r="GI107" s="59"/>
+      <c r="GJ107" s="59"/>
+      <c r="GK107" s="59"/>
+      <c r="GL107" s="59"/>
+      <c r="GM107" s="59"/>
+      <c r="GN107" s="59"/>
+      <c r="GO107" s="59"/>
+      <c r="GP107" s="59"/>
+      <c r="GQ107" s="59"/>
+      <c r="GR107" s="59"/>
+      <c r="GS107" s="59"/>
+      <c r="GT107" s="59"/>
+      <c r="GU107" s="59"/>
+      <c r="GV107" s="59"/>
+      <c r="GW107" s="59"/>
+      <c r="GX107" s="59"/>
+      <c r="GY107" s="59"/>
+      <c r="GZ107" s="59"/>
+      <c r="HA107" s="59"/>
+      <c r="HB107" s="59"/>
+      <c r="HC107" s="59"/>
+      <c r="HD107" s="59"/>
+      <c r="HE107" s="59"/>
+      <c r="HF107" s="59"/>
+      <c r="HG107" s="59"/>
+      <c r="HH107" s="59"/>
+      <c r="HI107" s="59"/>
+      <c r="HJ107" s="59"/>
+      <c r="HK107" s="59"/>
+      <c r="HL107" s="59"/>
+      <c r="HM107" s="59"/>
+      <c r="HN107" s="59"/>
+      <c r="HO107" s="59"/>
+      <c r="HP107" s="59"/>
+      <c r="HQ107" s="59"/>
+      <c r="HR107" s="59"/>
+      <c r="HS107" s="59"/>
+      <c r="HT107" s="59"/>
+      <c r="HU107" s="59"/>
+      <c r="HV107" s="59"/>
+      <c r="HW107" s="59"/>
+      <c r="HX107" s="59"/>
+      <c r="HY107" s="59"/>
+      <c r="HZ107" s="59"/>
+      <c r="IA107" s="59"/>
+      <c r="IB107" s="59"/>
+      <c r="IC107" s="59"/>
+      <c r="ID107" s="59"/>
+      <c r="IE107" s="59"/>
+      <c r="IF107" s="59"/>
+      <c r="IG107" s="59"/>
+      <c r="IH107" s="59"/>
+      <c r="II107" s="59"/>
+      <c r="IJ107" s="59"/>
+      <c r="IK107" s="59"/>
+      <c r="IL107" s="59"/>
+      <c r="IM107" s="59"/>
+      <c r="IN107" s="59"/>
+      <c r="IO107" s="59"/>
+      <c r="IP107" s="59"/>
+      <c r="IQ107" s="59"/>
+      <c r="IR107" s="59"/>
+      <c r="IS107" s="59"/>
+      <c r="IT107" s="59"/>
+      <c r="IU107" s="59"/>
+      <c r="IV107" s="59"/>
+      <c r="IW107" s="59"/>
+      <c r="IX107" s="59"/>
+      <c r="IY107" s="59"/>
+      <c r="IZ107" s="59"/>
+      <c r="JA107" s="59"/>
+      <c r="JB107" s="59"/>
+      <c r="JC107" s="59"/>
+      <c r="JD107" s="59"/>
+      <c r="JE107" s="59"/>
+      <c r="JF107" s="59"/>
+      <c r="JG107" s="59"/>
+      <c r="JH107" s="59"/>
+      <c r="JI107" s="59"/>
+      <c r="JJ107" s="59"/>
+      <c r="JK107" s="59"/>
+      <c r="JL107" s="59"/>
+      <c r="JM107" s="59"/>
+      <c r="JN107" s="59"/>
+      <c r="JO107" s="59"/>
+      <c r="JP107" s="59"/>
+      <c r="JQ107" s="59"/>
+      <c r="JR107" s="59"/>
+      <c r="JS107" s="59"/>
+      <c r="JT107" s="59"/>
+      <c r="JU107" s="59"/>
+      <c r="JV107" s="59"/>
+      <c r="JW107" s="59"/>
+      <c r="JX107" s="59"/>
+      <c r="JY107" s="59"/>
+      <c r="JZ107" s="59"/>
+      <c r="KA107" s="59"/>
+      <c r="KB107" s="59"/>
+      <c r="KC107" s="59"/>
+      <c r="KD107" s="59"/>
+      <c r="KE107" s="59"/>
+      <c r="KF107" s="59"/>
+      <c r="KG107" s="59"/>
+      <c r="KH107" s="59"/>
+      <c r="KI107" s="59"/>
+      <c r="KJ107" s="59"/>
+      <c r="KK107" s="59"/>
+      <c r="KL107" s="59"/>
+      <c r="KM107" s="59"/>
+      <c r="KN107" s="59"/>
+      <c r="KO107" s="59"/>
+      <c r="KP107" s="59"/>
+      <c r="KQ107" s="59"/>
+      <c r="KR107" s="59"/>
+      <c r="KS107" s="59"/>
+      <c r="KT107" s="59"/>
+      <c r="KU107" s="59"/>
+      <c r="KV107" s="59"/>
+      <c r="KW107" s="59"/>
+      <c r="KX107" s="59"/>
+      <c r="KY107" s="59"/>
+      <c r="KZ107" s="59"/>
+      <c r="LA107" s="59"/>
+      <c r="LB107" s="59"/>
+      <c r="LC107" s="59"/>
+      <c r="LD107" s="59"/>
+      <c r="LE107" s="59"/>
+      <c r="LF107" s="59"/>
+      <c r="LG107" s="59"/>
+      <c r="LH107" s="59"/>
+      <c r="LI107" s="59"/>
+      <c r="LJ107" s="59"/>
+      <c r="LK107" s="59"/>
+      <c r="LL107" s="59"/>
+      <c r="LM107" s="59"/>
+      <c r="LN107" s="59"/>
+      <c r="LO107" s="59"/>
+      <c r="LP107" s="59"/>
+      <c r="LQ107" s="59"/>
+      <c r="LR107" s="59"/>
+      <c r="LS107" s="59"/>
+      <c r="LT107" s="59"/>
+      <c r="LU107" s="59"/>
+      <c r="LV107" s="59"/>
+      <c r="LW107" s="59"/>
+      <c r="LX107" s="59"/>
+      <c r="LY107" s="59"/>
+      <c r="LZ107" s="59"/>
+      <c r="MA107" s="59"/>
+      <c r="MB107" s="59"/>
+      <c r="MC107" s="59"/>
+      <c r="MD107" s="59"/>
+      <c r="ME107" s="59"/>
+      <c r="MF107" s="59"/>
+      <c r="MG107" s="59"/>
+      <c r="MH107" s="59"/>
+      <c r="MI107" s="59"/>
+      <c r="MJ107" s="59"/>
+      <c r="MK107" s="59"/>
+      <c r="ML107" s="59"/>
+      <c r="MM107" s="59"/>
+      <c r="MN107" s="59"/>
+      <c r="MO107" s="59"/>
+      <c r="MP107" s="59"/>
+      <c r="MQ107" s="59"/>
+      <c r="MR107" s="59"/>
+      <c r="MS107" s="59"/>
+      <c r="MT107" s="59"/>
+      <c r="MU107" s="59"/>
+      <c r="MV107" s="59"/>
+      <c r="MW107" s="59"/>
+      <c r="MX107" s="59"/>
+      <c r="MY107" s="59"/>
+      <c r="MZ107" s="59"/>
+      <c r="NA107" s="59"/>
+      <c r="NB107" s="59"/>
+      <c r="NC107" s="59"/>
+      <c r="ND107" s="59"/>
+      <c r="NE107" s="59"/>
+      <c r="NF107" s="59"/>
+      <c r="NG107" s="59"/>
+      <c r="NH107" s="59"/>
+      <c r="NI107" s="59"/>
+      <c r="NJ107" s="59"/>
+      <c r="NK107" s="59"/>
+      <c r="NL107" s="59"/>
+      <c r="NM107" s="59"/>
+      <c r="NN107" s="59"/>
+      <c r="NO107" s="59"/>
+      <c r="NP107" s="59"/>
+      <c r="NQ107" s="59"/>
+      <c r="NR107" s="59"/>
+      <c r="NS107" s="59"/>
+      <c r="NT107" s="59"/>
+      <c r="NU107" s="59"/>
+      <c r="NV107" s="59"/>
+      <c r="NW107" s="59"/>
+      <c r="NX107" s="59"/>
+      <c r="NY107" s="59"/>
+      <c r="NZ107" s="59"/>
+      <c r="OA107" s="59"/>
+      <c r="OB107" s="59"/>
+      <c r="OC107" s="59"/>
+      <c r="OD107" s="59"/>
+      <c r="OE107" s="59"/>
+      <c r="OF107" s="59"/>
+      <c r="OG107" s="59"/>
+      <c r="OH107" s="59"/>
+      <c r="OI107" s="59"/>
+      <c r="OJ107" s="59"/>
+      <c r="OK107" s="59"/>
+      <c r="OL107" s="59"/>
+      <c r="OM107" s="59"/>
+      <c r="ON107" s="59"/>
+      <c r="OO107" s="59"/>
+      <c r="OP107" s="59"/>
+      <c r="OQ107" s="59"/>
+      <c r="OR107" s="59"/>
+      <c r="OS107" s="59"/>
+      <c r="OT107" s="59"/>
+      <c r="OU107" s="59"/>
+      <c r="OV107" s="59"/>
+      <c r="OW107" s="59"/>
+      <c r="OX107" s="59"/>
+      <c r="OY107" s="59"/>
+      <c r="OZ107" s="59"/>
+      <c r="PA107" s="59"/>
+      <c r="PB107" s="71"/>
+    </row>
+    <row r="108" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="M108" s="90"/>
+      <c r="N108" s="90"/>
+      <c r="O108" s="90"/>
+      <c r="P108" s="91"/>
+      <c r="Q108" s="91"/>
+      <c r="R108" s="91"/>
+      <c r="S108" s="91"/>
+      <c r="T108" s="91"/>
+      <c r="U108" s="91"/>
+      <c r="V108" s="91"/>
+      <c r="W108" s="91"/>
+      <c r="X108" s="91"/>
+      <c r="Y108" s="91"/>
+      <c r="Z108" s="91"/>
+      <c r="AA108" s="91"/>
+      <c r="AB108" s="91"/>
+      <c r="AC108" s="91"/>
+      <c r="AD108" s="91"/>
+      <c r="AE108" s="91"/>
+      <c r="AF108" s="91"/>
+      <c r="AG108" s="91"/>
+      <c r="AH108" s="91"/>
+      <c r="AI108" s="91"/>
+      <c r="AJ108" s="91"/>
+      <c r="AK108" s="91"/>
+      <c r="AL108" s="91"/>
+      <c r="AM108" s="91"/>
+      <c r="AN108" s="91"/>
+      <c r="AO108" s="91"/>
+      <c r="AP108" s="91"/>
+      <c r="AQ108" s="91"/>
+      <c r="AR108" s="91"/>
+      <c r="AS108" s="91"/>
+      <c r="AT108" s="91"/>
+      <c r="AU108" s="91"/>
+      <c r="AV108" s="91"/>
+      <c r="AW108" s="91"/>
+      <c r="AX108" s="91"/>
+      <c r="AY108" s="91"/>
+      <c r="AZ108" s="91"/>
+      <c r="BA108" s="91"/>
+      <c r="BB108" s="91"/>
+      <c r="BC108" s="91"/>
+      <c r="BD108" s="91"/>
+      <c r="BE108" s="91"/>
+      <c r="BF108" s="91"/>
+      <c r="BG108" s="91"/>
+      <c r="BH108" s="91"/>
+      <c r="BI108" s="91"/>
+      <c r="BJ108" s="91"/>
+      <c r="BK108" s="91"/>
+      <c r="BL108" s="91"/>
+      <c r="BM108" s="91"/>
+      <c r="BN108" s="91"/>
+      <c r="BO108" s="91"/>
+      <c r="BP108" s="91"/>
+      <c r="BQ108" s="91"/>
+      <c r="BR108" s="91"/>
+      <c r="BS108" s="91"/>
+      <c r="BT108" s="91"/>
+      <c r="BU108" s="91"/>
+      <c r="BV108" s="91"/>
+      <c r="BW108" s="91"/>
+      <c r="BX108" s="91"/>
+      <c r="BY108" s="91"/>
+      <c r="BZ108" s="91"/>
+      <c r="CA108" s="91"/>
+      <c r="CB108" s="91"/>
+      <c r="CC108" s="91"/>
+      <c r="CD108" s="91"/>
+      <c r="CE108" s="91"/>
+      <c r="CF108" s="91"/>
+      <c r="CG108" s="91"/>
+      <c r="CH108" s="91"/>
+      <c r="CI108" s="91"/>
+      <c r="CJ108" s="91"/>
+      <c r="CK108" s="91"/>
+      <c r="CL108" s="91"/>
+      <c r="CM108" s="91"/>
+      <c r="CN108" s="91"/>
+      <c r="CO108" s="91"/>
+      <c r="CP108" s="91"/>
+      <c r="CQ108" s="91"/>
+      <c r="CR108" s="91"/>
+      <c r="CS108" s="91"/>
+      <c r="CT108" s="91"/>
+      <c r="CU108" s="91"/>
+      <c r="CV108" s="91"/>
+      <c r="CW108" s="91"/>
+      <c r="CX108" s="91"/>
+      <c r="CY108" s="91"/>
+      <c r="CZ108" s="91"/>
+      <c r="DA108" s="91"/>
+      <c r="DB108" s="91"/>
+      <c r="DC108" s="91"/>
+      <c r="DD108" s="91"/>
+      <c r="DE108" s="91"/>
+      <c r="DF108" s="91"/>
+      <c r="DG108" s="91"/>
+      <c r="DH108" s="91"/>
+      <c r="DI108" s="91"/>
+      <c r="DJ108" s="91"/>
+      <c r="DK108" s="91"/>
+      <c r="DL108" s="91"/>
+      <c r="DM108" s="91"/>
+      <c r="DN108" s="91"/>
+      <c r="DO108" s="91"/>
+      <c r="DP108" s="91"/>
+      <c r="DQ108" s="91"/>
+      <c r="DR108" s="91"/>
+      <c r="DS108" s="91"/>
+      <c r="DT108" s="91"/>
+      <c r="DU108" s="91"/>
+      <c r="DV108" s="91"/>
+      <c r="DW108" s="91"/>
+      <c r="DX108" s="91"/>
+    </row>
+    <row r="109" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="M109" s="92"/>
+      <c r="N109" s="92"/>
+      <c r="O109" s="92"/>
+      <c r="P109" s="93"/>
+      <c r="Q109" s="93"/>
+      <c r="R109" s="93"/>
+      <c r="S109" s="93"/>
+      <c r="T109" s="93"/>
+      <c r="U109" s="93"/>
+      <c r="V109" s="93"/>
+      <c r="W109" s="93"/>
+      <c r="X109" s="93"/>
+      <c r="Y109" s="93"/>
+      <c r="Z109" s="93"/>
+      <c r="AA109" s="93"/>
+      <c r="AB109" s="93"/>
+      <c r="AC109" s="93"/>
+      <c r="AD109" s="93"/>
+      <c r="AE109" s="93"/>
+      <c r="AF109" s="93"/>
+      <c r="AG109" s="93"/>
+      <c r="AH109" s="93"/>
+      <c r="AI109" s="93"/>
+      <c r="AJ109" s="93"/>
+      <c r="AK109" s="93"/>
+      <c r="AL109" s="93"/>
+      <c r="AM109" s="93"/>
+      <c r="AN109" s="93"/>
+      <c r="AO109" s="93"/>
+      <c r="AP109" s="93"/>
+      <c r="AQ109" s="93"/>
+      <c r="AR109" s="93"/>
+      <c r="AS109" s="93"/>
+      <c r="AT109" s="93"/>
+      <c r="AU109" s="93"/>
+      <c r="AV109" s="93"/>
+      <c r="AW109" s="93"/>
+      <c r="AX109" s="93"/>
+      <c r="AY109" s="93"/>
+      <c r="AZ109" s="93"/>
+      <c r="BA109" s="93"/>
+      <c r="BB109" s="93"/>
+      <c r="BC109" s="93"/>
+      <c r="BD109" s="93"/>
+      <c r="BE109" s="93"/>
+      <c r="BF109" s="93"/>
+      <c r="BG109" s="93"/>
+      <c r="BH109" s="93"/>
+      <c r="BI109" s="93"/>
+      <c r="BJ109" s="93"/>
+      <c r="BK109" s="93"/>
+      <c r="BL109" s="93"/>
+      <c r="BM109" s="93"/>
+      <c r="BN109" s="93"/>
+      <c r="BO109" s="93"/>
+      <c r="BP109" s="93"/>
+      <c r="BQ109" s="93"/>
+      <c r="BR109" s="93"/>
+      <c r="BS109" s="93"/>
+      <c r="BT109" s="93"/>
+      <c r="BU109" s="93"/>
+      <c r="BV109" s="93"/>
+      <c r="BW109" s="93"/>
+      <c r="BX109" s="93"/>
+      <c r="BY109" s="93"/>
+      <c r="BZ109" s="93"/>
+      <c r="CA109" s="93"/>
+      <c r="CB109" s="93"/>
+      <c r="CC109" s="93"/>
+      <c r="CD109" s="93"/>
+      <c r="CE109" s="93"/>
+      <c r="CF109" s="93"/>
+      <c r="CG109" s="93"/>
+      <c r="CH109" s="93"/>
+      <c r="CI109" s="93"/>
+      <c r="CJ109" s="93"/>
+      <c r="CK109" s="93"/>
+      <c r="CL109" s="93"/>
+      <c r="CM109" s="93"/>
+      <c r="CN109" s="93"/>
+      <c r="CO109" s="93"/>
+      <c r="CP109" s="93"/>
+      <c r="CQ109" s="93"/>
+      <c r="CR109" s="93"/>
+      <c r="CS109" s="93"/>
+      <c r="CT109" s="93"/>
+      <c r="CU109" s="93"/>
+      <c r="CV109" s="93"/>
+      <c r="CW109" s="93"/>
+      <c r="CX109" s="93"/>
+      <c r="CY109" s="93"/>
+      <c r="CZ109" s="93"/>
+      <c r="DA109" s="93"/>
+      <c r="DB109" s="93"/>
+      <c r="DC109" s="93"/>
+      <c r="DD109" s="93"/>
+      <c r="DE109" s="93"/>
+      <c r="DF109" s="93"/>
+      <c r="DG109" s="93"/>
+      <c r="DH109" s="93"/>
+      <c r="DI109" s="93"/>
+      <c r="DJ109" s="93"/>
+      <c r="DK109" s="93"/>
+      <c r="DL109" s="93"/>
+      <c r="DM109" s="93"/>
+      <c r="DN109" s="93"/>
+      <c r="DO109" s="93"/>
+      <c r="DP109" s="93"/>
+      <c r="DQ109" s="93"/>
+      <c r="DR109" s="93"/>
+      <c r="DS109" s="93"/>
+      <c r="DT109" s="93"/>
+      <c r="DU109" s="93"/>
+      <c r="DV109" s="93"/>
+      <c r="DW109" s="93"/>
+      <c r="DX109" s="93"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="133">
-    <mergeCell ref="OA9:OG9"/>
-    <mergeCell ref="KN9:KT9"/>
-    <mergeCell ref="IX9:JD9"/>
-    <mergeCell ref="IQ9:IW9"/>
-    <mergeCell ref="IJ9:IP9"/>
-    <mergeCell ref="IC9:II9"/>
-    <mergeCell ref="HV9:IB9"/>
-    <mergeCell ref="HO9:HU9"/>
-    <mergeCell ref="HH9:HN9"/>
-    <mergeCell ref="JE9:JK9"/>
-    <mergeCell ref="JL9:JR9"/>
-    <mergeCell ref="JS9:JY9"/>
-    <mergeCell ref="JZ9:KF9"/>
-    <mergeCell ref="KG9:KM9"/>
-    <mergeCell ref="MY9:NE9"/>
+    <mergeCell ref="IQ10:IW10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="FD10:FJ10"/>
+    <mergeCell ref="CE10:CK10"/>
+    <mergeCell ref="CL10:CR10"/>
+    <mergeCell ref="CS10:CY10"/>
+    <mergeCell ref="CZ10:DF10"/>
+    <mergeCell ref="DG10:DM10"/>
+    <mergeCell ref="DN10:DT10"/>
+    <mergeCell ref="BQ10:BW10"/>
+    <mergeCell ref="BX10:CD10"/>
+    <mergeCell ref="AO10:AU10"/>
+    <mergeCell ref="AV10:BB10"/>
+    <mergeCell ref="BC10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="DU10:EA10"/>
+    <mergeCell ref="EB10:EH10"/>
+    <mergeCell ref="EI10:EO10"/>
+    <mergeCell ref="EP10:EV10"/>
+    <mergeCell ref="EW10:FC10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="JS10:JY10"/>
+    <mergeCell ref="JZ10:KF10"/>
+    <mergeCell ref="HA10:HG10"/>
+    <mergeCell ref="HH10:HN10"/>
+    <mergeCell ref="HO10:HU10"/>
+    <mergeCell ref="HV10:IB10"/>
+    <mergeCell ref="IC10:II10"/>
+    <mergeCell ref="IJ10:IP10"/>
+    <mergeCell ref="FK10:FQ10"/>
+    <mergeCell ref="FR10:FX10"/>
+    <mergeCell ref="FY10:GE10"/>
+    <mergeCell ref="GF10:GL10"/>
+    <mergeCell ref="GM10:GS10"/>
+    <mergeCell ref="GT10:GZ10"/>
+    <mergeCell ref="JL10:JR10"/>
+    <mergeCell ref="JE10:JK10"/>
+    <mergeCell ref="IX10:JD10"/>
+    <mergeCell ref="HA9:HG9"/>
+    <mergeCell ref="GT9:GZ9"/>
+    <mergeCell ref="GM9:GS9"/>
+    <mergeCell ref="GF9:GL9"/>
+    <mergeCell ref="FY9:GE9"/>
+    <mergeCell ref="FR9:FX9"/>
+    <mergeCell ref="FK9:FQ9"/>
+    <mergeCell ref="MK9:MQ9"/>
+    <mergeCell ref="MR9:MX9"/>
+    <mergeCell ref="KU9:LA9"/>
+    <mergeCell ref="LB9:LH9"/>
+    <mergeCell ref="LI9:LO9"/>
+    <mergeCell ref="LP9:LV9"/>
+    <mergeCell ref="LW9:MC9"/>
+    <mergeCell ref="MD9:MJ9"/>
+    <mergeCell ref="EW9:FC9"/>
+    <mergeCell ref="FD9:FJ9"/>
+    <mergeCell ref="CS9:CY9"/>
+    <mergeCell ref="CZ9:DF9"/>
+    <mergeCell ref="DG9:DM9"/>
+    <mergeCell ref="DN9:DT9"/>
+    <mergeCell ref="DU9:EA9"/>
+    <mergeCell ref="EB9:EH9"/>
+    <mergeCell ref="EI9:EO9"/>
+    <mergeCell ref="EP9:EV9"/>
+    <mergeCell ref="OV9:PB9"/>
+    <mergeCell ref="NF9:NL9"/>
+    <mergeCell ref="NM9:NS9"/>
+    <mergeCell ref="NT9:NZ9"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="BC9:BI9"/>
+    <mergeCell ref="BJ9:BP9"/>
+    <mergeCell ref="BQ9:BW9"/>
+    <mergeCell ref="BX9:CD9"/>
+    <mergeCell ref="CE9:CK9"/>
+    <mergeCell ref="CL9:CR9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:AU9"/>
+    <mergeCell ref="AV9:BB9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I9"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="B4:D4"/>
@@ -48604,1033 +51550,1036 @@
     <mergeCell ref="KG10:KM10"/>
     <mergeCell ref="OO9:OU9"/>
     <mergeCell ref="OH9:ON9"/>
-    <mergeCell ref="OV9:PB9"/>
-    <mergeCell ref="NF9:NL9"/>
-    <mergeCell ref="NM9:NS9"/>
-    <mergeCell ref="NT9:NZ9"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="BC9:BI9"/>
-    <mergeCell ref="BJ9:BP9"/>
-    <mergeCell ref="BQ9:BW9"/>
-    <mergeCell ref="BX9:CD9"/>
-    <mergeCell ref="CE9:CK9"/>
-    <mergeCell ref="CL9:CR9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:AU9"/>
-    <mergeCell ref="AV9:BB9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="EW9:FC9"/>
-    <mergeCell ref="FD9:FJ9"/>
-    <mergeCell ref="CS9:CY9"/>
-    <mergeCell ref="CZ9:DF9"/>
-    <mergeCell ref="DG9:DM9"/>
-    <mergeCell ref="DN9:DT9"/>
-    <mergeCell ref="DU9:EA9"/>
-    <mergeCell ref="EB9:EH9"/>
-    <mergeCell ref="EI9:EO9"/>
-    <mergeCell ref="EP9:EV9"/>
-    <mergeCell ref="HA9:HG9"/>
-    <mergeCell ref="GT9:GZ9"/>
-    <mergeCell ref="GM9:GS9"/>
-    <mergeCell ref="GF9:GL9"/>
-    <mergeCell ref="FY9:GE9"/>
-    <mergeCell ref="FR9:FX9"/>
-    <mergeCell ref="FK9:FQ9"/>
-    <mergeCell ref="MK9:MQ9"/>
-    <mergeCell ref="MR9:MX9"/>
-    <mergeCell ref="KU9:LA9"/>
-    <mergeCell ref="LB9:LH9"/>
-    <mergeCell ref="LI9:LO9"/>
-    <mergeCell ref="LP9:LV9"/>
-    <mergeCell ref="LW9:MC9"/>
-    <mergeCell ref="MD9:MJ9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="JS10:JY10"/>
-    <mergeCell ref="JZ10:KF10"/>
-    <mergeCell ref="HA10:HG10"/>
-    <mergeCell ref="HH10:HN10"/>
-    <mergeCell ref="HO10:HU10"/>
-    <mergeCell ref="HV10:IB10"/>
-    <mergeCell ref="IC10:II10"/>
-    <mergeCell ref="IJ10:IP10"/>
-    <mergeCell ref="FK10:FQ10"/>
-    <mergeCell ref="FR10:FX10"/>
-    <mergeCell ref="FY10:GE10"/>
-    <mergeCell ref="GF10:GL10"/>
-    <mergeCell ref="GM10:GS10"/>
-    <mergeCell ref="GT10:GZ10"/>
-    <mergeCell ref="JL10:JR10"/>
-    <mergeCell ref="JE10:JK10"/>
-    <mergeCell ref="IX10:JD10"/>
-    <mergeCell ref="IQ10:IW10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="FD10:FJ10"/>
-    <mergeCell ref="CE10:CK10"/>
-    <mergeCell ref="CL10:CR10"/>
-    <mergeCell ref="CS10:CY10"/>
-    <mergeCell ref="CZ10:DF10"/>
-    <mergeCell ref="DG10:DM10"/>
-    <mergeCell ref="DN10:DT10"/>
-    <mergeCell ref="BQ10:BW10"/>
-    <mergeCell ref="BX10:CD10"/>
-    <mergeCell ref="AO10:AU10"/>
-    <mergeCell ref="AV10:BB10"/>
-    <mergeCell ref="BC10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="DU10:EA10"/>
-    <mergeCell ref="EB10:EH10"/>
-    <mergeCell ref="EI10:EO10"/>
-    <mergeCell ref="EP10:EV10"/>
-    <mergeCell ref="EW10:FC10"/>
+    <mergeCell ref="OA9:OG9"/>
+    <mergeCell ref="KN9:KT9"/>
+    <mergeCell ref="IX9:JD9"/>
+    <mergeCell ref="IQ9:IW9"/>
+    <mergeCell ref="IJ9:IP9"/>
+    <mergeCell ref="IC9:II9"/>
+    <mergeCell ref="HV9:IB9"/>
+    <mergeCell ref="HO9:HU9"/>
+    <mergeCell ref="HH9:HN9"/>
+    <mergeCell ref="JE9:JK9"/>
+    <mergeCell ref="JL9:JR9"/>
+    <mergeCell ref="JS9:JY9"/>
+    <mergeCell ref="JZ9:KF9"/>
+    <mergeCell ref="KG9:KM9"/>
+    <mergeCell ref="MY9:NE9"/>
   </mergeCells>
   <conditionalFormatting sqref="M9:PB9">
-    <cfRule type="expression" dxfId="203" priority="642">
+    <cfRule type="expression" dxfId="221" priority="660">
       <formula>OR(TEXT(M9,"MMMM")="Februar",TEXT(M9,"MMMM")="April",TEXT(M9,"MMMM")="Juni",TEXT(M9,"MMMM")="August",TEXT(M9,"MMMM")="Oktober",TEXT(M9,"MMMM")="Dezember")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M68:PB90 M28:PB28 M30:PB32 M39:PB66 M93:PB101 M34:PB37">
-    <cfRule type="expression" dxfId="202" priority="635">
+  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M71:PB96 M28:PB28 M30:PB32 M39:PB69 M99:PB107 M34:PB37">
+    <cfRule type="expression" dxfId="220" priority="653">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:PI13">
-    <cfRule type="expression" dxfId="201" priority="638">
+    <cfRule type="expression" dxfId="219" priority="656">
       <formula>AND(M$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="640">
+    <cfRule type="expression" dxfId="218" priority="658">
       <formula>AND(M$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:U13 V13:PB13">
-    <cfRule type="expression" dxfId="199" priority="639">
+    <cfRule type="expression" dxfId="217" priority="657">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:X13">
-    <cfRule type="expression" dxfId="198" priority="636">
+    <cfRule type="expression" dxfId="216" priority="654">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="637">
+    <cfRule type="expression" dxfId="215" priority="655">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB101">
-    <cfRule type="expression" dxfId="196" priority="622">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB107">
+    <cfRule type="expression" dxfId="214" priority="640">
       <formula>AND($I15=M$13,$J15&lt;&gt;"F",$I15&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="627">
+    <cfRule type="expression" dxfId="213" priority="645">
       <formula>AND($I15=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="631">
+    <cfRule type="expression" dxfId="212" priority="649">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="634">
+    <cfRule type="expression" dxfId="211" priority="652">
       <formula>AND($G15&lt;&gt;"",AND(M$13&gt;=$E15,M$13&lt;=$G15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB101">
-    <cfRule type="expression" dxfId="192" priority="632">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB107">
+    <cfRule type="expression" dxfId="210" priority="650">
       <formula>AND($H15&gt;0,AND(M$13&gt;=$E15,M$13&lt;=$E15+($G15-$E15)*$H15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M68:PB90 M28:PB28 M30:PB32 M39:PB66 M93:PB101 M34:PB37">
-    <cfRule type="expression" dxfId="191" priority="643">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M71:PB96 M28:PB28 M30:PB32 M39:PB69 M99:PB107 M34:PB37">
+    <cfRule type="expression" dxfId="209" priority="661">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M68:PB90 M28:PB28 M30:PB32 M39:PB66 M34:PB37 M93:PB101">
-    <cfRule type="expression" dxfId="190" priority="630">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M71:PB96 M28:PB28 M30:PB32 M39:PB69 M34:PB37 M99:PB107">
+    <cfRule type="expression" dxfId="208" priority="648">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M68:PB90 M28:PB28 M30:PB32 M39:PB66 M93:PB101 M34:PB37">
-    <cfRule type="expression" dxfId="189" priority="641">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M71:PB96 M28:PB28 M30:PB32 M39:PB69 M99:PB107 M34:PB37">
+    <cfRule type="expression" dxfId="207" priority="659">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J18 I20:J26 I68:J68 I28:J28 I30:J32 I39:J39 I48:J66 I34:J37 I93:J101">
-    <cfRule type="expression" dxfId="188" priority="623">
+  <conditionalFormatting sqref="I15:J18 I20:J26 I71:J71 I28:J28 I30:J32 I39:J39 I48:J69 I34:J37 I99:J107">
+    <cfRule type="expression" dxfId="206" priority="641">
       <formula>AND($J15="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="624">
+    <cfRule type="expression" dxfId="205" priority="642">
       <formula>AND($I15&lt;&gt;"",AND($I15&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="186" priority="628">
+    <cfRule type="expression" dxfId="204" priority="646">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="629">
+    <cfRule type="expression" dxfId="203" priority="647">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:R13">
-    <cfRule type="expression" dxfId="184" priority="625">
+    <cfRule type="expression" dxfId="202" priority="643">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="626">
+    <cfRule type="expression" dxfId="201" priority="644">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L18 C68:L68 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C65:F66 H65:L66 G65:G67 C49:F50 H48:L50 C93:L101 C48:D48 F48 C51:L64">
-    <cfRule type="expression" dxfId="182" priority="633">
+  <conditionalFormatting sqref="C15:L18 C71:L71 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C68:F69 H68:L69 G68:G70 C49:F50 H48:L50 C99:L107 C48:D48 F48 C51:L67">
+    <cfRule type="expression" dxfId="200" priority="651">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="181" priority="547">
+    <cfRule type="expression" dxfId="199" priority="565">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="180" priority="538">
+    <cfRule type="expression" dxfId="198" priority="556">
       <formula>AND($I19=M$13,$J19&lt;&gt;"F",$I19&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="541">
+    <cfRule type="expression" dxfId="197" priority="559">
       <formula>AND($I19=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="543">
+    <cfRule type="expression" dxfId="196" priority="561">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="546">
+    <cfRule type="expression" dxfId="195" priority="564">
       <formula>AND($G19&lt;&gt;"",AND(M$13&gt;=$E19,M$13&lt;=$G19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="176" priority="544">
+    <cfRule type="expression" dxfId="194" priority="562">
       <formula>AND($H19&gt;0,AND(M$13&gt;=$E19,M$13&lt;=$E19+($G19-$E19)*$H19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="175" priority="549">
+    <cfRule type="expression" dxfId="193" priority="567">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="174" priority="542">
+    <cfRule type="expression" dxfId="192" priority="560">
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="173" priority="548">
+    <cfRule type="expression" dxfId="191" priority="566">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J19">
-    <cfRule type="expression" dxfId="172" priority="539">
+    <cfRule type="expression" dxfId="190" priority="557">
       <formula>AND($J19="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="540">
+    <cfRule type="expression" dxfId="189" priority="558">
       <formula>AND($I19&lt;&gt;"",AND($I19&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:L19">
-    <cfRule type="expression" dxfId="170" priority="545">
+    <cfRule type="expression" dxfId="188" priority="563">
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M92:PB92">
-    <cfRule type="expression" dxfId="169" priority="337">
+  <conditionalFormatting sqref="M98:PB98">
+    <cfRule type="expression" dxfId="187" priority="355">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M92:PB92">
-    <cfRule type="expression" dxfId="168" priority="339">
+  <conditionalFormatting sqref="M98:PB98">
+    <cfRule type="expression" dxfId="186" priority="357">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M92:PB92">
-    <cfRule type="expression" dxfId="167" priority="332">
-      <formula>OR($C92="X",$C92="x")</formula>
+  <conditionalFormatting sqref="M98:PB98">
+    <cfRule type="expression" dxfId="185" priority="350">
+      <formula>OR($C98="X",$C98="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M92:PB92">
-    <cfRule type="expression" dxfId="166" priority="338">
+  <conditionalFormatting sqref="M98:PB98">
+    <cfRule type="expression" dxfId="184" priority="356">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I92:J92">
-    <cfRule type="expression" dxfId="165" priority="329">
-      <formula>AND($J92="F")</formula>
+  <conditionalFormatting sqref="I98:J98">
+    <cfRule type="expression" dxfId="183" priority="347">
+      <formula>AND($J98="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="164" priority="330">
-      <formula>AND($I92&lt;&gt;"",AND($I92&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="182" priority="348">
+      <formula>AND($I98&lt;&gt;"",AND($I98&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92 F92:L92">
-    <cfRule type="expression" dxfId="163" priority="335">
-      <formula>OR($C92="X",$C92="x")</formula>
+  <conditionalFormatting sqref="C98 F98:L98">
+    <cfRule type="expression" dxfId="181" priority="353">
+      <formula>OR($C98="X",$C98="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92">
-    <cfRule type="expression" dxfId="162" priority="327">
-      <formula>OR($C92="X",$C92="x")</formula>
+  <conditionalFormatting sqref="E98">
+    <cfRule type="expression" dxfId="180" priority="345">
+      <formula>OR($C98="X",$C98="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M91:PB91">
-    <cfRule type="expression" dxfId="161" priority="323">
+  <conditionalFormatting sqref="M97:PB97">
+    <cfRule type="expression" dxfId="179" priority="341">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M91:PB91">
-    <cfRule type="expression" dxfId="160" priority="325">
+  <conditionalFormatting sqref="M97:PB97">
+    <cfRule type="expression" dxfId="178" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M91:PB91">
-    <cfRule type="expression" dxfId="159" priority="318">
-      <formula>OR($C91="X",$C91="x")</formula>
+  <conditionalFormatting sqref="M97:PB97">
+    <cfRule type="expression" dxfId="177" priority="336">
+      <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M91:PB91">
-    <cfRule type="expression" dxfId="158" priority="324">
+  <conditionalFormatting sqref="M97:PB97">
+    <cfRule type="expression" dxfId="176" priority="342">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I91:J91">
-    <cfRule type="expression" dxfId="157" priority="315">
-      <formula>AND($J91="F")</formula>
+  <conditionalFormatting sqref="I97:J97">
+    <cfRule type="expression" dxfId="175" priority="333">
+      <formula>AND($J97="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="316">
-      <formula>AND($I91&lt;&gt;"",AND($I91&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="174" priority="334">
+      <formula>AND($I97&lt;&gt;"",AND($I97&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91 F91:L91">
-    <cfRule type="expression" dxfId="155" priority="321">
-      <formula>OR($C91="X",$C91="x")</formula>
+  <conditionalFormatting sqref="C97 F97:L97">
+    <cfRule type="expression" dxfId="173" priority="339">
+      <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="154" priority="313">
-      <formula>OR($C91="X",$C91="x")</formula>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="expression" dxfId="172" priority="331">
+      <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="153" priority="277">
-      <formula>OR($C91="X",$C91="x")</formula>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="expression" dxfId="171" priority="295">
+      <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92">
-    <cfRule type="expression" dxfId="152" priority="278">
-      <formula>OR($C92="X",$C92="x")</formula>
+  <conditionalFormatting sqref="D98">
+    <cfRule type="expression" dxfId="170" priority="296">
+      <formula>OR($C98="X",$C98="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M67:PB67">
-    <cfRule type="expression" dxfId="151" priority="274">
+  <conditionalFormatting sqref="M70:PB70">
+    <cfRule type="expression" dxfId="169" priority="292">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M67:PB67">
-    <cfRule type="expression" dxfId="150" priority="276">
+  <conditionalFormatting sqref="M70:PB70">
+    <cfRule type="expression" dxfId="168" priority="294">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M67:PB67">
-    <cfRule type="expression" dxfId="149" priority="269">
-      <formula>OR($C67="X",$C67="x")</formula>
+  <conditionalFormatting sqref="M70:PB70">
+    <cfRule type="expression" dxfId="167" priority="287">
+      <formula>OR($C70="X",$C70="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M67:PB67">
-    <cfRule type="expression" dxfId="148" priority="275">
+  <conditionalFormatting sqref="M70:PB70">
+    <cfRule type="expression" dxfId="166" priority="293">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:J67">
-    <cfRule type="expression" dxfId="147" priority="266">
-      <formula>AND($J67="F")</formula>
+  <conditionalFormatting sqref="I70:J70">
+    <cfRule type="expression" dxfId="165" priority="284">
+      <formula>AND($J70="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="267">
-      <formula>AND($I67&lt;&gt;"",AND($I67&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="164" priority="285">
+      <formula>AND($I70&lt;&gt;"",AND($I70&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C67:F67 H67:L67">
-    <cfRule type="expression" dxfId="145" priority="272">
-      <formula>OR($C67="X",$C67="x")</formula>
+  <conditionalFormatting sqref="C70:F70 H70:L70">
+    <cfRule type="expression" dxfId="163" priority="290">
+      <formula>OR($C70="X",$C70="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="144" priority="238">
+    <cfRule type="expression" dxfId="162" priority="256">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="143" priority="229">
+    <cfRule type="expression" dxfId="161" priority="247">
       <formula>AND($I29=M$13,$J29&lt;&gt;"F",$I29&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="232">
+    <cfRule type="expression" dxfId="160" priority="250">
       <formula>AND($I29=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="234">
+    <cfRule type="expression" dxfId="159" priority="252">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="237">
+    <cfRule type="expression" dxfId="158" priority="255">
       <formula>AND($G29&lt;&gt;"",AND(M$13&gt;=$E29,M$13&lt;=$G29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="139" priority="235">
+    <cfRule type="expression" dxfId="157" priority="253">
       <formula>AND($H29&gt;0,AND(M$13&gt;=$E29,M$13&lt;=$E29+($G29-$E29)*$H29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="138" priority="240">
+    <cfRule type="expression" dxfId="156" priority="258">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="137" priority="233">
+    <cfRule type="expression" dxfId="155" priority="251">
       <formula>OR($C29="X",$C29="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="136" priority="239">
+    <cfRule type="expression" dxfId="154" priority="257">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J29">
-    <cfRule type="expression" dxfId="135" priority="230">
+    <cfRule type="expression" dxfId="153" priority="248">
       <formula>AND($J29="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="231">
+    <cfRule type="expression" dxfId="152" priority="249">
       <formula>AND($I29&lt;&gt;"",AND($I29&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:L29">
-    <cfRule type="expression" dxfId="133" priority="236">
+    <cfRule type="expression" dxfId="151" priority="254">
       <formula>OR($C29="X",$C29="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="132" priority="214">
+    <cfRule type="expression" dxfId="150" priority="232">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="131" priority="216">
+    <cfRule type="expression" dxfId="149" priority="234">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="130" priority="209">
+    <cfRule type="expression" dxfId="148" priority="227">
       <formula>OR($C38="X",$C38="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="129" priority="215">
+    <cfRule type="expression" dxfId="147" priority="233">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J38">
-    <cfRule type="expression" dxfId="128" priority="206">
+    <cfRule type="expression" dxfId="146" priority="224">
       <formula>AND($J38="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="207">
+    <cfRule type="expression" dxfId="145" priority="225">
       <formula>AND($I38&lt;&gt;"",AND($I38&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F38 H38:L38">
-    <cfRule type="expression" dxfId="126" priority="212">
+    <cfRule type="expression" dxfId="144" priority="230">
       <formula>OR($C38="X",$C38="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="125" priority="202">
+    <cfRule type="expression" dxfId="143" priority="220">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="124" priority="193">
+    <cfRule type="expression" dxfId="142" priority="211">
       <formula>AND($I27=M$13,$J27&lt;&gt;"F",$I27&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="196">
+    <cfRule type="expression" dxfId="141" priority="214">
       <formula>AND($I27=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="198">
+    <cfRule type="expression" dxfId="140" priority="216">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="201">
+    <cfRule type="expression" dxfId="139" priority="219">
       <formula>AND($G27&lt;&gt;"",AND(M$13&gt;=$E27,M$13&lt;=$G27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="120" priority="199">
+    <cfRule type="expression" dxfId="138" priority="217">
       <formula>AND($H27&gt;0,AND(M$13&gt;=$E27,M$13&lt;=$E27+($G27-$E27)*$H27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="119" priority="204">
+    <cfRule type="expression" dxfId="137" priority="222">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="118" priority="197">
+    <cfRule type="expression" dxfId="136" priority="215">
       <formula>OR($C27="X",$C27="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="117" priority="203">
+    <cfRule type="expression" dxfId="135" priority="221">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J27">
-    <cfRule type="expression" dxfId="116" priority="194">
+    <cfRule type="expression" dxfId="134" priority="212">
       <formula>AND($J27="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="195">
+    <cfRule type="expression" dxfId="133" priority="213">
       <formula>AND($I27&lt;&gt;"",AND($I27&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:L27">
-    <cfRule type="expression" dxfId="114" priority="200">
+    <cfRule type="expression" dxfId="132" priority="218">
       <formula>OR($C27="X",$C27="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="113" priority="122">
+    <cfRule type="expression" dxfId="131" priority="140">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="112" priority="113">
+    <cfRule type="expression" dxfId="130" priority="131">
       <formula>AND($I33=M$13,$J33&lt;&gt;"F",$I33&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="116">
+    <cfRule type="expression" dxfId="129" priority="134">
       <formula>AND($I33=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="118">
+    <cfRule type="expression" dxfId="128" priority="136">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="121">
+    <cfRule type="expression" dxfId="127" priority="139">
       <formula>AND($G33&lt;&gt;"",AND(M$13&gt;=$E33,M$13&lt;=$G33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="108" priority="119">
+    <cfRule type="expression" dxfId="126" priority="137">
       <formula>AND($H33&gt;0,AND(M$13&gt;=$E33,M$13&lt;=$E33+($G33-$E33)*$H33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="107" priority="124">
+    <cfRule type="expression" dxfId="125" priority="142">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="106" priority="117">
+    <cfRule type="expression" dxfId="124" priority="135">
       <formula>OR($C33="X",$C33="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="105" priority="123">
+    <cfRule type="expression" dxfId="123" priority="141">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:J33">
-    <cfRule type="expression" dxfId="104" priority="114">
+    <cfRule type="expression" dxfId="122" priority="132">
       <formula>AND($J33="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="115">
+    <cfRule type="expression" dxfId="121" priority="133">
       <formula>AND($I33&lt;&gt;"",AND($I33&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:L33">
-    <cfRule type="expression" dxfId="102" priority="120">
+    <cfRule type="expression" dxfId="120" priority="138">
       <formula>OR($C33="X",$C33="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="expression" dxfId="101" priority="110">
+    <cfRule type="expression" dxfId="119" priority="128">
       <formula>AND($J40="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="111">
+    <cfRule type="expression" dxfId="118" priority="129">
       <formula>AND($I40&lt;&gt;"",AND($I40&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:L40 G49:G50 G42:G43">
-    <cfRule type="expression" dxfId="99" priority="112">
+  <conditionalFormatting sqref="C40:L40 G42:G43 G49:G50">
+    <cfRule type="expression" dxfId="117" priority="130">
       <formula>OR($C40="X",$C40="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J41">
-    <cfRule type="expression" dxfId="98" priority="107">
+    <cfRule type="expression" dxfId="116" priority="125">
       <formula>AND($J41="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="108">
+    <cfRule type="expression" dxfId="115" priority="126">
       <formula>AND($I41&lt;&gt;"",AND($I41&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:L41 G44:G48">
-    <cfRule type="expression" dxfId="96" priority="109">
+    <cfRule type="expression" dxfId="114" priority="127">
       <formula>OR($C41="X",$C41="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:J70">
-    <cfRule type="expression" dxfId="95" priority="104">
-      <formula>AND($J69="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="105">
-      <formula>AND($I69&lt;&gt;"",AND($I69&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C69:C70 F69:L70 G71:G73 G75:G87">
-    <cfRule type="expression" dxfId="93" priority="106">
-      <formula>OR($C69="X",$C69="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69:E70">
-    <cfRule type="expression" dxfId="92" priority="103">
-      <formula>OR($C69="X",$C69="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D70">
-    <cfRule type="expression" dxfId="91" priority="102">
-      <formula>OR($C69="X",$C69="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I73:J73 I90:J90 I75:J88">
-    <cfRule type="expression" dxfId="90" priority="99">
-      <formula>AND($J73="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="100">
-      <formula>AND($I73&lt;&gt;"",AND($I73&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C73 F90:L90 C90 G89 F88:L88 F87 H73:L73 H75:L87 C75:C88">
-    <cfRule type="expression" dxfId="88" priority="101">
-      <formula>OR($C73="X",$C73="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E87:E88 E90">
-    <cfRule type="expression" dxfId="87" priority="98">
-      <formula>OR($C87="X",$C87="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I72:J72">
-    <cfRule type="expression" dxfId="86" priority="95">
+  <conditionalFormatting sqref="I72:J73">
+    <cfRule type="expression" dxfId="113" priority="122">
       <formula>AND($J72="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="96">
+    <cfRule type="expression" dxfId="112" priority="123">
       <formula>AND($I72&lt;&gt;"",AND($I72&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C72 F72 H72:L72">
-    <cfRule type="expression" dxfId="84" priority="97">
+  <conditionalFormatting sqref="C72:C73 F72:L73 G74:G76 G78:G90">
+    <cfRule type="expression" dxfId="111" priority="124">
       <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E72">
-    <cfRule type="expression" dxfId="83" priority="94">
+  <conditionalFormatting sqref="E72:E73">
+    <cfRule type="expression" dxfId="110" priority="121">
       <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D73 D90 D75:D88">
-    <cfRule type="expression" dxfId="82" priority="93">
-      <formula>OR($C73="X",$C73="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="81" priority="92">
+  <conditionalFormatting sqref="D72:D73">
+    <cfRule type="expression" dxfId="109" priority="120">
       <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="80" priority="87">
-      <formula>OR($C71="X",$C71="x")</formula>
+  <conditionalFormatting sqref="I76:J76 I94:J94 I78:J91">
+    <cfRule type="expression" dxfId="108" priority="117">
+      <formula>AND($J76="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="118">
+      <formula>AND($I76&lt;&gt;"",AND($I76&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:J71">
-    <cfRule type="expression" dxfId="79" priority="89">
-      <formula>AND($J71="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="90">
-      <formula>AND($I71&lt;&gt;"",AND($I71&lt;TODAY()))</formula>
+  <conditionalFormatting sqref="C76 F94:L94 C94 F91:L91 F90 H76:L76 H78:L90 C78:C91 G92:G93">
+    <cfRule type="expression" dxfId="106" priority="119">
+      <formula>OR($C76="X",$C76="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71 F71 H71:L71">
-    <cfRule type="expression" dxfId="77" priority="91">
-      <formula>OR($C71="X",$C71="x")</formula>
+  <conditionalFormatting sqref="E90:E91 E94">
+    <cfRule type="expression" dxfId="105" priority="116">
+      <formula>OR($C90="X",$C90="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E71">
-    <cfRule type="expression" dxfId="76" priority="88">
-      <formula>OR($C71="X",$C71="x")</formula>
+  <conditionalFormatting sqref="I75:J75">
+    <cfRule type="expression" dxfId="104" priority="113">
+      <formula>AND($J75="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="114">
+      <formula>AND($I75&lt;&gt;"",AND($I75&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I88:J88 I92:J92 I90:J90">
-    <cfRule type="expression" dxfId="75" priority="84">
+  <conditionalFormatting sqref="C75 F75 H75:L75">
+    <cfRule type="expression" dxfId="102" priority="115">
+      <formula>OR($C75="X",$C75="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E75">
+    <cfRule type="expression" dxfId="101" priority="112">
+      <formula>OR($C75="X",$C75="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D76 D94 D78:D91">
+    <cfRule type="expression" dxfId="100" priority="111">
+      <formula>OR($C76="X",$C76="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D75">
+    <cfRule type="expression" dxfId="99" priority="110">
+      <formula>OR($C75="X",$C75="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74">
+    <cfRule type="expression" dxfId="98" priority="105">
+      <formula>OR($C74="X",$C74="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74:J74">
+    <cfRule type="expression" dxfId="97" priority="107">
+      <formula>AND($J74="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="108">
+      <formula>AND($I74&lt;&gt;"",AND($I74&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C74 F74 H74:L74">
+    <cfRule type="expression" dxfId="95" priority="109">
+      <formula>OR($C74="X",$C74="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74">
+    <cfRule type="expression" dxfId="94" priority="106">
+      <formula>OR($C74="X",$C74="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91:J91 I98:J98 I94:J94">
+    <cfRule type="expression" dxfId="93" priority="102">
+      <formula>AND($J91="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="103">
+      <formula>AND($I91&lt;&gt;"",AND($I91&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:L98 C91:L91 C94:L94 G92:G93">
+    <cfRule type="expression" dxfId="91" priority="104">
+      <formula>OR($C91="X",$C91="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I90:J90">
+    <cfRule type="expression" dxfId="90" priority="99">
+      <formula>AND($J90="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="89" priority="100">
+      <formula>AND($I90&lt;&gt;"",AND($I90&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90 F90 H90:L90">
+    <cfRule type="expression" dxfId="88" priority="101">
+      <formula>OR($C90="X",$C90="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="expression" dxfId="87" priority="98">
+      <formula>OR($C90="X",$C90="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89:J89">
+    <cfRule type="expression" dxfId="86" priority="95">
+      <formula>AND($J89="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="96">
+      <formula>AND($I89&lt;&gt;"",AND($I89&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C89 H89:L89">
+    <cfRule type="expression" dxfId="84" priority="97">
+      <formula>OR($C89="X",$C89="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I88:J88">
+    <cfRule type="expression" dxfId="83" priority="91">
       <formula>AND($J88="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="85">
+    <cfRule type="expression" dxfId="82" priority="92">
       <formula>AND($I88&lt;&gt;"",AND($I88&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:L92 C88:L88 C90:L90 G89">
-    <cfRule type="expression" dxfId="73" priority="86">
+  <conditionalFormatting sqref="C88 H88:L88">
+    <cfRule type="expression" dxfId="81" priority="93">
       <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:J87">
-    <cfRule type="expression" dxfId="72" priority="81">
-      <formula>AND($J87="F")</formula>
+  <conditionalFormatting sqref="I78:J87">
+    <cfRule type="expression" dxfId="80" priority="87">
+      <formula>AND($J78="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="82">
-      <formula>AND($I87&lt;&gt;"",AND($I87&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="79" priority="88">
+      <formula>AND($I78&lt;&gt;"",AND($I78&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87 F87 H87:L87">
-    <cfRule type="expression" dxfId="70" priority="83">
+  <conditionalFormatting sqref="C78:C87 H78:L87">
+    <cfRule type="expression" dxfId="78" priority="89">
+      <formula>OR($C78="X",$C78="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D88">
+    <cfRule type="expression" dxfId="77" priority="80">
+      <formula>OR($C88="X",$C88="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80:H82">
+    <cfRule type="expression" dxfId="76" priority="58">
+      <formula>OR($C80="X",$C80="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="expression" dxfId="75" priority="81">
+      <formula>OR($C90="X",$C90="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D89">
+    <cfRule type="expression" dxfId="74" priority="79">
+      <formula>OR($C89="X",$C89="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78:D87">
+    <cfRule type="expression" dxfId="73" priority="78">
+      <formula>OR($C78="X",$C78="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I97:J97">
+    <cfRule type="expression" dxfId="72" priority="74">
+      <formula>AND($J97="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="75">
+      <formula>AND($I97&lt;&gt;"",AND($I97&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C97 F97:L97">
+    <cfRule type="expression" dxfId="70" priority="76">
+      <formula>OR($C97="X",$C97="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97">
+    <cfRule type="expression" dxfId="69" priority="73">
+      <formula>OR($C97="X",$C97="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97">
+    <cfRule type="expression" dxfId="68" priority="72">
+      <formula>OR($C97="X",$C97="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I92:J93">
+    <cfRule type="expression" dxfId="67" priority="69">
+      <formula>AND($J92="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="66" priority="70">
+      <formula>AND($I92&lt;&gt;"",AND($I92&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C93 F92:F93 H92:L93">
+    <cfRule type="expression" dxfId="65" priority="71">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:E93">
+    <cfRule type="expression" dxfId="64" priority="68">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:D93">
+    <cfRule type="expression" dxfId="63" priority="67">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I92:J93">
+    <cfRule type="expression" dxfId="62" priority="64">
+      <formula>AND($J92="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="65">
+      <formula>AND($I92&lt;&gt;"",AND($I92&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92:C93 F92:F93 H92:L93">
+    <cfRule type="expression" dxfId="60" priority="66">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:E93">
+    <cfRule type="expression" dxfId="59" priority="63">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D92:D93">
+    <cfRule type="expression" dxfId="58" priority="62">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42:J47">
+    <cfRule type="expression" dxfId="57" priority="59">
+      <formula>AND($J42="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="60">
+      <formula>AND($I42&lt;&gt;"",AND($I42&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42:L47 C42:F47">
+    <cfRule type="expression" dxfId="55" priority="61">
+      <formula>OR($C42="X",$C42="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="expression" dxfId="54" priority="57">
+      <formula>OR($C83="X",$C83="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" dxfId="53" priority="56">
+      <formula>OR($C84="X",$C84="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="expression" dxfId="52" priority="55">
+      <formula>OR($C84="X",$C84="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F76">
+    <cfRule type="expression" dxfId="51" priority="54">
+      <formula>OR($C76="X",$C76="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="expression" dxfId="50" priority="53">
+      <formula>OR($C76="X",$C76="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F78">
+    <cfRule type="expression" dxfId="49" priority="52">
+      <formula>OR($C78="X",$C78="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E78">
+    <cfRule type="expression" dxfId="48" priority="51">
+      <formula>OR($C78="X",$C78="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F79">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>OR($C79="X",$C79="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>OR($C79="X",$C79="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>OR($C83="X",$C83="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>OR($C83="X",$C83="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80:F82">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>OR($C80="X",$C80="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E80:E82">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>OR($C80="X",$C80="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>OR($C84="X",$C84="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E84">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>OR($C84="X",$C84="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F86">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>OR($C86="X",$C86="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>OR($C86="X",$C86="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>OR($C85="X",$C85="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E85">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>OR($C85="X",$C85="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="expression" dxfId="35" priority="36">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="69" priority="80">
+    <cfRule type="expression" dxfId="34" priority="35">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:J86">
-    <cfRule type="expression" dxfId="68" priority="77">
-      <formula>AND($J86="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="78">
-      <formula>AND($I86&lt;&gt;"",AND($I86&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86 H86:L86">
-    <cfRule type="expression" dxfId="66" priority="79">
-      <formula>OR($C86="X",$C86="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I85:J85">
-    <cfRule type="expression" dxfId="65" priority="73">
-      <formula>AND($J85="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="74">
-      <formula>AND($I85&lt;&gt;"",AND($I85&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85 H85:L85">
-    <cfRule type="expression" dxfId="63" priority="75">
-      <formula>OR($C85="X",$C85="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75:J84">
-    <cfRule type="expression" dxfId="62" priority="69">
-      <formula>AND($J75="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="70">
-      <formula>AND($I75&lt;&gt;"",AND($I75&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75:C84 H75:L84">
-    <cfRule type="expression" dxfId="60" priority="71">
-      <formula>OR($C75="X",$C75="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="expression" dxfId="59" priority="62">
-      <formula>OR($C85="X",$C85="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77:H79">
-    <cfRule type="expression" dxfId="58" priority="40">
-      <formula>OR($C77="X",$C77="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="expression" dxfId="57" priority="63">
-      <formula>OR($C87="X",$C87="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D86">
-    <cfRule type="expression" dxfId="56" priority="61">
-      <formula>OR($C86="X",$C86="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75:D84">
-    <cfRule type="expression" dxfId="55" priority="60">
-      <formula>OR($C75="X",$C75="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91:J91">
-    <cfRule type="expression" dxfId="54" priority="56">
-      <formula>AND($J91="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="53" priority="57">
-      <formula>AND($I91&lt;&gt;"",AND($I91&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91 F91:L91">
-    <cfRule type="expression" dxfId="52" priority="58">
-      <formula>OR($C91="X",$C91="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91">
-    <cfRule type="expression" dxfId="51" priority="55">
-      <formula>OR($C91="X",$C91="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D91">
-    <cfRule type="expression" dxfId="50" priority="54">
-      <formula>OR($C91="X",$C91="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89:J89">
-    <cfRule type="expression" dxfId="49" priority="51">
-      <formula>AND($J89="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="52">
-      <formula>AND($I89&lt;&gt;"",AND($I89&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89 F89 H89:L89">
-    <cfRule type="expression" dxfId="47" priority="53">
+  <conditionalFormatting sqref="F89">
+    <cfRule type="expression" dxfId="33" priority="34">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="46" priority="50">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="45" priority="49">
-      <formula>OR($C89="X",$C89="x")</formula>
+  <conditionalFormatting sqref="F88">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I89:J89">
-    <cfRule type="expression" dxfId="44" priority="46">
-      <formula>AND($J89="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="47">
-      <formula>AND($I89&lt;&gt;"",AND($I89&lt;TODAY()))</formula>
+  <conditionalFormatting sqref="E88">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C89 F89 H89:L89">
-    <cfRule type="expression" dxfId="42" priority="48">
-      <formula>OR($C89="X",$C89="x")</formula>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>OR($C48="X",$C48="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="41" priority="45">
-      <formula>OR($C89="X",$C89="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="40" priority="44">
-      <formula>OR($C89="X",$C89="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I42:J47">
-    <cfRule type="expression" dxfId="39" priority="41">
-      <formula>AND($J42="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="42">
-      <formula>AND($I42&lt;&gt;"",AND($I42&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42:L47 C42:F47">
-    <cfRule type="expression" dxfId="37" priority="43">
-      <formula>OR($C42="X",$C42="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="expression" dxfId="36" priority="39">
-      <formula>OR($C80="X",$C80="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="35" priority="38">
-      <formula>OR($C81="X",$C81="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="expression" dxfId="34" priority="37">
-      <formula>OR($C81="X",$C81="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F73">
-    <cfRule type="expression" dxfId="33" priority="36">
-      <formula>OR($C73="X",$C73="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E73">
-    <cfRule type="expression" dxfId="32" priority="35">
-      <formula>OR($C73="X",$C73="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F75">
-    <cfRule type="expression" dxfId="31" priority="34">
-      <formula>OR($C75="X",$C75="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="30" priority="33">
-      <formula>OR($C75="X",$C75="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>OR($C76="X",$C76="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+  <conditionalFormatting sqref="G77">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>OR($C76="X",$C76="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>OR($C80="X",$C80="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>OR($C80="X",$C80="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F77:F79">
-    <cfRule type="expression" dxfId="25" priority="26">
       <formula>OR($C77="X",$C77="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77:E79">
+  <conditionalFormatting sqref="I77:J77">
+    <cfRule type="expression" dxfId="27" priority="26">
+      <formula>AND($J77="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>AND($I77&lt;&gt;"",AND($I77&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77:L77 C77">
+    <cfRule type="expression" dxfId="25" priority="28">
+      <formula>OR($C77="X",$C77="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
     <cfRule type="expression" dxfId="24" priority="25">
       <formula>OR($C77="X",$C77="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F81">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>OR($C81="X",$C81="x")</formula>
+  <conditionalFormatting sqref="I77:J77">
+    <cfRule type="expression" dxfId="23" priority="22">
+      <formula>AND($J77="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>AND($I77&lt;&gt;"",AND($I77&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E81">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>OR($C81="X",$C81="x")</formula>
+  <conditionalFormatting sqref="C77 H77:L77">
+    <cfRule type="expression" dxfId="21" priority="24">
+      <formula>OR($C77="X",$C77="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>OR($C83="X",$C83="x")</formula>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>OR($C77="X",$C77="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>OR($C83="X",$C83="x")</formula>
+  <conditionalFormatting sqref="F77">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>OR($C77="X",$C77="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F82">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>OR($C82="X",$C82="x")</formula>
+  <conditionalFormatting sqref="E77">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>OR($C77="X",$C77="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>OR($C82="X",$C82="x")</formula>
+  <conditionalFormatting sqref="I96:J96">
+    <cfRule type="expression" dxfId="17" priority="16">
+      <formula>AND($J96="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>AND($I96&lt;&gt;"",AND($I96&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>OR($C84="X",$C84="x")</formula>
+  <conditionalFormatting sqref="C96 F96 H96:L96">
+    <cfRule type="expression" dxfId="15" priority="18">
+      <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>OR($C84="X",$C84="x")</formula>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>OR($C86="X",$C86="x")</formula>
+  <conditionalFormatting sqref="I95:J95">
+    <cfRule type="expression" dxfId="13" priority="12">
+      <formula>AND($J95="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>AND($I95&lt;&gt;"",AND($I95&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>OR($C86="X",$C86="x")</formula>
+  <conditionalFormatting sqref="C95 F95:L95 G96">
+    <cfRule type="expression" dxfId="11" priority="14">
+      <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>OR($C85="X",$C85="x")</formula>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>OR($C85="X",$C85="x")</formula>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>OR($C48="X",$C48="x")</formula>
+  <conditionalFormatting sqref="D96">
+    <cfRule type="expression" dxfId="8" priority="10">
+      <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G74">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>OR($C74="X",$C74="x")</formula>
+  <conditionalFormatting sqref="I96:J96">
+    <cfRule type="expression" dxfId="7" priority="6">
+      <formula>AND($J96="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>AND($I96&lt;&gt;"",AND($I96&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:J74">
-    <cfRule type="expression" dxfId="9" priority="8">
-      <formula>AND($J74="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>AND($I74&lt;&gt;"",AND($I74&lt;TODAY()))</formula>
+  <conditionalFormatting sqref="C96:F96 H96:L96">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74:L74 C74">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>OR($C74="X",$C74="x")</formula>
+  <conditionalFormatting sqref="I95:J95">
+    <cfRule type="expression" dxfId="4" priority="3">
+      <formula>AND($J95="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($I95&lt;&gt;"",AND($I95&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>OR($C74="X",$C74="x")</formula>
+  <conditionalFormatting sqref="C95 F95:L95 G96">
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:J74">
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>AND($J74="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>AND($I74&lt;&gt;"",AND($I74&lt;TODAY()))</formula>
+  <conditionalFormatting sqref="E95">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74 H74:L74">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>OR($C74="X",$C74="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>OR($C74="X",$C74="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F74">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>OR($C74="X",$C74="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
+  <conditionalFormatting sqref="D95">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($C74="X",$C74="x")</formula>
+      <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="53" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="45" fitToWidth="0" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
+++ b/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="119">
   <si>
     <t>Pos.</t>
   </si>
@@ -407,9 +407,6 @@
     <t>Backup/Version Control System einbinden</t>
   </si>
   <si>
-    <t>Gerätezeiträume reservieren</t>
-  </si>
-  <si>
     <t>Testspezifikationen definieren</t>
   </si>
   <si>
@@ -505,9 +502,6 @@
     <t>Literaturverzeichnis, Glossar</t>
   </si>
   <si>
-    <t>Software erstellen</t>
-  </si>
-  <si>
     <t>Hardware &amp; Sofware zusammenfügen</t>
   </si>
   <si>
@@ -556,16 +550,10 @@
     <t>Kapitel Reflektion</t>
   </si>
   <si>
-    <t>Verbindungsboard layouten</t>
-  </si>
-  <si>
     <t>Eigenständigkeitserkärung einfügen</t>
   </si>
   <si>
     <t>mechanische Komponenten herstellen</t>
-  </si>
-  <si>
-    <t>Encoder erstellen</t>
   </si>
   <si>
     <t>Gehäuse zusammenbauen</t>
@@ -586,16 +574,40 @@
     <t>Gerätedemonstation vorbereiten</t>
   </si>
   <si>
-    <t>Motoransteuerung implementieren</t>
-  </si>
-  <si>
-    <t>Motor hinzufügen</t>
-  </si>
-  <si>
     <t>Variante 2: Plattform erarbeiten /abgbr.</t>
   </si>
   <si>
     <t>Überarbeitung nach Zwischenpräsentation</t>
+  </si>
+  <si>
+    <t>Motoransteuerung/Encoder implementieren</t>
+  </si>
+  <si>
+    <t>DC Motor hinzufügen</t>
+  </si>
+  <si>
+    <t>Überarbeitung Zwischenpräsentation</t>
+  </si>
+  <si>
+    <t>Software Motor machen</t>
+  </si>
+  <si>
+    <t>Software-Enocder erstellen</t>
+  </si>
+  <si>
+    <t>Software Mapping</t>
+  </si>
+  <si>
+    <t>Motorentreiber erstellen</t>
+  </si>
+  <si>
+    <t>Kabelverbindungen erstellen</t>
+  </si>
+  <si>
+    <t>Speisungen erstellen</t>
+  </si>
+  <si>
+    <t>Wechsel auf Schrittmotor</t>
   </si>
 </sst>
 </file>
@@ -606,7 +618,7 @@
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="d/m/"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,8 +877,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,6 +981,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1515,7 +1548,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1816,10 +1849,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1865,6 +1894,134 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="30" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="15" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="15" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="15" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="35" fillId="15" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="13" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="13" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="13" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="13" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="16" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="16" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="16" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="16" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="16" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1874,22 +2031,14 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1907,24 +2056,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1976,65 +2107,28 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="15" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="31" fillId="15" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="15" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="15" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="15" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4510,13 +4604,13 @@
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:PB109"/>
+  <dimension ref="A1:PB116"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="12" ySplit="14" topLeftCell="BE30" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="12" ySplit="14" topLeftCell="M33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4539,47 +4633,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="147" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
+      <c r="B2" s="148"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
       <c r="J2" s="6"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="168" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="s">
+      <c r="C3" s="169"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
+      <c r="F3" s="171"/>
+      <c r="G3" s="171"/>
+      <c r="H3" s="171"/>
+      <c r="I3" s="172"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11" t="s">
@@ -4595,18 +4689,18 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119" t="s">
+      <c r="C4" s="150"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="152" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="153"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
@@ -4617,18 +4711,18 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119" t="s">
+      <c r="C5" s="150"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="152" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="153"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="13" t="s">
@@ -4639,18 +4733,18 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="127" t="s">
+      <c r="C6" s="150"/>
+      <c r="D6" s="151"/>
+      <c r="E6" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="154"/>
+      <c r="I6" s="155"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
@@ -4658,1232 +4752,1232 @@
       </c>
     </row>
     <row r="7" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="156" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="159" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="160"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="2:418" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="161"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="161"/>
+      <c r="I8" s="162"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
       <c r="L8" s="20"/>
       <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="141" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="146"/>
+      <c r="C9" s="142"/>
       <c r="D9" s="22">
         <f ca="1">TODAY()</f>
-        <v>43052</v>
-      </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
+        <v>43069</v>
+      </c>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="164"/>
       <c r="J9" s="17"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="126" t="str">
+      <c r="M9" s="146" t="str">
         <f>TEXT(P13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="126" t="str">
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="145"/>
+      <c r="T9" s="146" t="str">
         <f>TEXT(W13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="126" t="str">
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="144"/>
+      <c r="X9" s="144"/>
+      <c r="Y9" s="144"/>
+      <c r="Z9" s="145"/>
+      <c r="AA9" s="146" t="str">
         <f t="shared" ref="AA9" si="0">TEXT(AD13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="126" t="str">
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="145"/>
+      <c r="AH9" s="146" t="str">
         <f t="shared" ref="AH9" si="1">TEXT(AK13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="109"/>
-      <c r="AN9" s="110"/>
-      <c r="AO9" s="126" t="str">
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="144"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="144"/>
+      <c r="AN9" s="145"/>
+      <c r="AO9" s="146" t="str">
         <f t="shared" ref="AO9" si="2">TEXT(AR13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AP9" s="109"/>
-      <c r="AQ9" s="109"/>
-      <c r="AR9" s="109"/>
-      <c r="AS9" s="109"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="110"/>
-      <c r="AV9" s="126" t="str">
+      <c r="AP9" s="144"/>
+      <c r="AQ9" s="144"/>
+      <c r="AR9" s="144"/>
+      <c r="AS9" s="144"/>
+      <c r="AT9" s="144"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="146" t="str">
         <f t="shared" ref="AV9" si="3">TEXT(AY13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AW9" s="109"/>
-      <c r="AX9" s="109"/>
-      <c r="AY9" s="109"/>
-      <c r="AZ9" s="109"/>
-      <c r="BA9" s="109"/>
-      <c r="BB9" s="110"/>
-      <c r="BC9" s="126" t="str">
+      <c r="AW9" s="144"/>
+      <c r="AX9" s="144"/>
+      <c r="AY9" s="144"/>
+      <c r="AZ9" s="144"/>
+      <c r="BA9" s="144"/>
+      <c r="BB9" s="145"/>
+      <c r="BC9" s="146" t="str">
         <f t="shared" ref="BC9" si="4">TEXT(BF13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BD9" s="109"/>
-      <c r="BE9" s="109"/>
-      <c r="BF9" s="109"/>
-      <c r="BG9" s="109"/>
-      <c r="BH9" s="109"/>
-      <c r="BI9" s="110"/>
-      <c r="BJ9" s="126" t="str">
+      <c r="BD9" s="144"/>
+      <c r="BE9" s="144"/>
+      <c r="BF9" s="144"/>
+      <c r="BG9" s="144"/>
+      <c r="BH9" s="144"/>
+      <c r="BI9" s="145"/>
+      <c r="BJ9" s="146" t="str">
         <f t="shared" ref="BJ9" si="5">TEXT(BM13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BK9" s="109"/>
-      <c r="BL9" s="109"/>
-      <c r="BM9" s="109"/>
-      <c r="BN9" s="109"/>
-      <c r="BO9" s="109"/>
-      <c r="BP9" s="110"/>
-      <c r="BQ9" s="126" t="str">
+      <c r="BK9" s="144"/>
+      <c r="BL9" s="144"/>
+      <c r="BM9" s="144"/>
+      <c r="BN9" s="144"/>
+      <c r="BO9" s="144"/>
+      <c r="BP9" s="145"/>
+      <c r="BQ9" s="146" t="str">
         <f t="shared" ref="BQ9" si="6">TEXT(BT13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BR9" s="109"/>
-      <c r="BS9" s="109"/>
-      <c r="BT9" s="109"/>
-      <c r="BU9" s="109"/>
-      <c r="BV9" s="109"/>
-      <c r="BW9" s="110"/>
-      <c r="BX9" s="126" t="str">
+      <c r="BR9" s="144"/>
+      <c r="BS9" s="144"/>
+      <c r="BT9" s="144"/>
+      <c r="BU9" s="144"/>
+      <c r="BV9" s="144"/>
+      <c r="BW9" s="145"/>
+      <c r="BX9" s="146" t="str">
         <f t="shared" ref="BX9" si="7">TEXT(CA13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BY9" s="109"/>
-      <c r="BZ9" s="109"/>
-      <c r="CA9" s="109"/>
-      <c r="CB9" s="109"/>
-      <c r="CC9" s="109"/>
-      <c r="CD9" s="110"/>
-      <c r="CE9" s="126" t="str">
+      <c r="BY9" s="144"/>
+      <c r="BZ9" s="144"/>
+      <c r="CA9" s="144"/>
+      <c r="CB9" s="144"/>
+      <c r="CC9" s="144"/>
+      <c r="CD9" s="145"/>
+      <c r="CE9" s="146" t="str">
         <f t="shared" ref="CE9" si="8">TEXT(CH13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="CF9" s="109"/>
-      <c r="CG9" s="109"/>
-      <c r="CH9" s="109"/>
-      <c r="CI9" s="109"/>
-      <c r="CJ9" s="109"/>
-      <c r="CK9" s="110"/>
-      <c r="CL9" s="126" t="str">
+      <c r="CF9" s="144"/>
+      <c r="CG9" s="144"/>
+      <c r="CH9" s="144"/>
+      <c r="CI9" s="144"/>
+      <c r="CJ9" s="144"/>
+      <c r="CK9" s="145"/>
+      <c r="CL9" s="146" t="str">
         <f t="shared" ref="CL9" si="9">TEXT(CO13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CM9" s="109"/>
-      <c r="CN9" s="109"/>
-      <c r="CO9" s="109"/>
-      <c r="CP9" s="109"/>
-      <c r="CQ9" s="109"/>
-      <c r="CR9" s="110"/>
-      <c r="CS9" s="126" t="str">
+      <c r="CM9" s="144"/>
+      <c r="CN9" s="144"/>
+      <c r="CO9" s="144"/>
+      <c r="CP9" s="144"/>
+      <c r="CQ9" s="144"/>
+      <c r="CR9" s="145"/>
+      <c r="CS9" s="146" t="str">
         <f t="shared" ref="CS9" si="10">TEXT(CV13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CT9" s="109"/>
-      <c r="CU9" s="109"/>
-      <c r="CV9" s="109"/>
-      <c r="CW9" s="109"/>
-      <c r="CX9" s="109"/>
-      <c r="CY9" s="110"/>
-      <c r="CZ9" s="126" t="str">
+      <c r="CT9" s="144"/>
+      <c r="CU9" s="144"/>
+      <c r="CV9" s="144"/>
+      <c r="CW9" s="144"/>
+      <c r="CX9" s="144"/>
+      <c r="CY9" s="145"/>
+      <c r="CZ9" s="146" t="str">
         <f t="shared" ref="CZ9" si="11">TEXT(DC13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DA9" s="109"/>
-      <c r="DB9" s="109"/>
-      <c r="DC9" s="109"/>
-      <c r="DD9" s="109"/>
-      <c r="DE9" s="109"/>
-      <c r="DF9" s="110"/>
-      <c r="DG9" s="126" t="str">
+      <c r="DA9" s="144"/>
+      <c r="DB9" s="144"/>
+      <c r="DC9" s="144"/>
+      <c r="DD9" s="144"/>
+      <c r="DE9" s="144"/>
+      <c r="DF9" s="145"/>
+      <c r="DG9" s="146" t="str">
         <f t="shared" ref="DG9" si="12">TEXT(DJ13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DH9" s="109"/>
-      <c r="DI9" s="109"/>
-      <c r="DJ9" s="109"/>
-      <c r="DK9" s="109"/>
-      <c r="DL9" s="109"/>
-      <c r="DM9" s="110"/>
-      <c r="DN9" s="126" t="str">
+      <c r="DH9" s="144"/>
+      <c r="DI9" s="144"/>
+      <c r="DJ9" s="144"/>
+      <c r="DK9" s="144"/>
+      <c r="DL9" s="144"/>
+      <c r="DM9" s="145"/>
+      <c r="DN9" s="146" t="str">
         <f t="shared" ref="DN9" si="13">TEXT(DQ13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DO9" s="109"/>
-      <c r="DP9" s="109"/>
-      <c r="DQ9" s="109"/>
-      <c r="DR9" s="109"/>
-      <c r="DS9" s="109"/>
-      <c r="DT9" s="110"/>
-      <c r="DU9" s="126" t="str">
+      <c r="DO9" s="144"/>
+      <c r="DP9" s="144"/>
+      <c r="DQ9" s="144"/>
+      <c r="DR9" s="144"/>
+      <c r="DS9" s="144"/>
+      <c r="DT9" s="145"/>
+      <c r="DU9" s="146" t="str">
         <f t="shared" ref="DU9" si="14">TEXT(DX13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DV9" s="109"/>
-      <c r="DW9" s="109"/>
-      <c r="DX9" s="109"/>
-      <c r="DY9" s="109"/>
-      <c r="DZ9" s="109"/>
-      <c r="EA9" s="110"/>
-      <c r="EB9" s="126" t="str">
+      <c r="DV9" s="144"/>
+      <c r="DW9" s="144"/>
+      <c r="DX9" s="144"/>
+      <c r="DY9" s="144"/>
+      <c r="DZ9" s="144"/>
+      <c r="EA9" s="145"/>
+      <c r="EB9" s="146" t="str">
         <f t="shared" ref="EB9" si="15">TEXT(EE13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EC9" s="109"/>
-      <c r="ED9" s="109"/>
-      <c r="EE9" s="109"/>
-      <c r="EF9" s="109"/>
-      <c r="EG9" s="109"/>
-      <c r="EH9" s="110"/>
-      <c r="EI9" s="126" t="str">
+      <c r="EC9" s="144"/>
+      <c r="ED9" s="144"/>
+      <c r="EE9" s="144"/>
+      <c r="EF9" s="144"/>
+      <c r="EG9" s="144"/>
+      <c r="EH9" s="145"/>
+      <c r="EI9" s="146" t="str">
         <f t="shared" ref="EI9" si="16">TEXT(EL13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EJ9" s="109"/>
-      <c r="EK9" s="109"/>
-      <c r="EL9" s="109"/>
-      <c r="EM9" s="109"/>
-      <c r="EN9" s="109"/>
-      <c r="EO9" s="110"/>
-      <c r="EP9" s="126" t="str">
+      <c r="EJ9" s="144"/>
+      <c r="EK9" s="144"/>
+      <c r="EL9" s="144"/>
+      <c r="EM9" s="144"/>
+      <c r="EN9" s="144"/>
+      <c r="EO9" s="145"/>
+      <c r="EP9" s="146" t="str">
         <f t="shared" ref="EP9" si="17">TEXT(ES13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EQ9" s="109"/>
-      <c r="ER9" s="109"/>
-      <c r="ES9" s="109"/>
-      <c r="ET9" s="109"/>
-      <c r="EU9" s="109"/>
-      <c r="EV9" s="110"/>
-      <c r="EW9" s="126" t="str">
+      <c r="EQ9" s="144"/>
+      <c r="ER9" s="144"/>
+      <c r="ES9" s="144"/>
+      <c r="ET9" s="144"/>
+      <c r="EU9" s="144"/>
+      <c r="EV9" s="145"/>
+      <c r="EW9" s="146" t="str">
         <f t="shared" ref="EW9" si="18">TEXT(EZ13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EX9" s="109"/>
-      <c r="EY9" s="109"/>
-      <c r="EZ9" s="109"/>
-      <c r="FA9" s="109"/>
-      <c r="FB9" s="109"/>
-      <c r="FC9" s="110"/>
-      <c r="FD9" s="126" t="str">
+      <c r="EX9" s="144"/>
+      <c r="EY9" s="144"/>
+      <c r="EZ9" s="144"/>
+      <c r="FA9" s="144"/>
+      <c r="FB9" s="144"/>
+      <c r="FC9" s="145"/>
+      <c r="FD9" s="146" t="str">
         <f t="shared" ref="FD9" si="19">TEXT(FG13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FE9" s="109"/>
-      <c r="FF9" s="109"/>
-      <c r="FG9" s="109"/>
-      <c r="FH9" s="109"/>
-      <c r="FI9" s="109"/>
-      <c r="FJ9" s="110"/>
-      <c r="FK9" s="108" t="str">
+      <c r="FE9" s="144"/>
+      <c r="FF9" s="144"/>
+      <c r="FG9" s="144"/>
+      <c r="FH9" s="144"/>
+      <c r="FI9" s="144"/>
+      <c r="FJ9" s="145"/>
+      <c r="FK9" s="143" t="str">
         <f t="shared" ref="FK9" si="20">TEXT(FN13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FL9" s="109"/>
-      <c r="FM9" s="109"/>
-      <c r="FN9" s="109"/>
-      <c r="FO9" s="109"/>
-      <c r="FP9" s="109"/>
-      <c r="FQ9" s="110"/>
-      <c r="FR9" s="108" t="str">
+      <c r="FL9" s="144"/>
+      <c r="FM9" s="144"/>
+      <c r="FN9" s="144"/>
+      <c r="FO9" s="144"/>
+      <c r="FP9" s="144"/>
+      <c r="FQ9" s="145"/>
+      <c r="FR9" s="143" t="str">
         <f t="shared" ref="FR9" si="21">TEXT(FU13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FS9" s="109"/>
-      <c r="FT9" s="109"/>
-      <c r="FU9" s="109"/>
-      <c r="FV9" s="109"/>
-      <c r="FW9" s="109"/>
-      <c r="FX9" s="110"/>
-      <c r="FY9" s="108" t="str">
+      <c r="FS9" s="144"/>
+      <c r="FT9" s="144"/>
+      <c r="FU9" s="144"/>
+      <c r="FV9" s="144"/>
+      <c r="FW9" s="144"/>
+      <c r="FX9" s="145"/>
+      <c r="FY9" s="143" t="str">
         <f t="shared" ref="FY9" si="22">TEXT(GB13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FZ9" s="109"/>
-      <c r="GA9" s="109"/>
-      <c r="GB9" s="109"/>
-      <c r="GC9" s="109"/>
-      <c r="GD9" s="109"/>
-      <c r="GE9" s="110"/>
-      <c r="GF9" s="108" t="str">
+      <c r="FZ9" s="144"/>
+      <c r="GA9" s="144"/>
+      <c r="GB9" s="144"/>
+      <c r="GC9" s="144"/>
+      <c r="GD9" s="144"/>
+      <c r="GE9" s="145"/>
+      <c r="GF9" s="143" t="str">
         <f t="shared" ref="GF9" si="23">TEXT(GI13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GG9" s="109"/>
-      <c r="GH9" s="109"/>
-      <c r="GI9" s="109"/>
-      <c r="GJ9" s="109"/>
-      <c r="GK9" s="109"/>
-      <c r="GL9" s="110"/>
-      <c r="GM9" s="108" t="str">
+      <c r="GG9" s="144"/>
+      <c r="GH9" s="144"/>
+      <c r="GI9" s="144"/>
+      <c r="GJ9" s="144"/>
+      <c r="GK9" s="144"/>
+      <c r="GL9" s="145"/>
+      <c r="GM9" s="143" t="str">
         <f t="shared" ref="GM9" si="24">TEXT(GP13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GN9" s="109"/>
-      <c r="GO9" s="109"/>
-      <c r="GP9" s="109"/>
-      <c r="GQ9" s="109"/>
-      <c r="GR9" s="109"/>
-      <c r="GS9" s="110"/>
-      <c r="GT9" s="108" t="str">
+      <c r="GN9" s="144"/>
+      <c r="GO9" s="144"/>
+      <c r="GP9" s="144"/>
+      <c r="GQ9" s="144"/>
+      <c r="GR9" s="144"/>
+      <c r="GS9" s="145"/>
+      <c r="GT9" s="143" t="str">
         <f t="shared" ref="GT9" si="25">TEXT(GW13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GU9" s="109"/>
-      <c r="GV9" s="109"/>
-      <c r="GW9" s="109"/>
-      <c r="GX9" s="109"/>
-      <c r="GY9" s="109"/>
-      <c r="GZ9" s="110"/>
-      <c r="HA9" s="108" t="str">
+      <c r="GU9" s="144"/>
+      <c r="GV9" s="144"/>
+      <c r="GW9" s="144"/>
+      <c r="GX9" s="144"/>
+      <c r="GY9" s="144"/>
+      <c r="GZ9" s="145"/>
+      <c r="HA9" s="143" t="str">
         <f t="shared" ref="HA9" si="26">TEXT(HD13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HB9" s="109"/>
-      <c r="HC9" s="109"/>
-      <c r="HD9" s="109"/>
-      <c r="HE9" s="109"/>
-      <c r="HF9" s="109"/>
-      <c r="HG9" s="110"/>
-      <c r="HH9" s="108" t="str">
+      <c r="HB9" s="144"/>
+      <c r="HC9" s="144"/>
+      <c r="HD9" s="144"/>
+      <c r="HE9" s="144"/>
+      <c r="HF9" s="144"/>
+      <c r="HG9" s="145"/>
+      <c r="HH9" s="143" t="str">
         <f t="shared" ref="HH9" si="27">TEXT(HK13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HI9" s="109"/>
-      <c r="HJ9" s="109"/>
-      <c r="HK9" s="109"/>
-      <c r="HL9" s="109"/>
-      <c r="HM9" s="109"/>
-      <c r="HN9" s="110"/>
-      <c r="HO9" s="108" t="str">
+      <c r="HI9" s="144"/>
+      <c r="HJ9" s="144"/>
+      <c r="HK9" s="144"/>
+      <c r="HL9" s="144"/>
+      <c r="HM9" s="144"/>
+      <c r="HN9" s="145"/>
+      <c r="HO9" s="143" t="str">
         <f t="shared" ref="HO9" si="28">TEXT(HR13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HP9" s="109"/>
-      <c r="HQ9" s="109"/>
-      <c r="HR9" s="109"/>
-      <c r="HS9" s="109"/>
-      <c r="HT9" s="109"/>
-      <c r="HU9" s="110"/>
-      <c r="HV9" s="108" t="str">
+      <c r="HP9" s="144"/>
+      <c r="HQ9" s="144"/>
+      <c r="HR9" s="144"/>
+      <c r="HS9" s="144"/>
+      <c r="HT9" s="144"/>
+      <c r="HU9" s="145"/>
+      <c r="HV9" s="143" t="str">
         <f t="shared" ref="HV9" si="29">TEXT(HY13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HW9" s="109"/>
-      <c r="HX9" s="109"/>
-      <c r="HY9" s="109"/>
-      <c r="HZ9" s="109"/>
-      <c r="IA9" s="109"/>
-      <c r="IB9" s="110"/>
-      <c r="IC9" s="108" t="str">
+      <c r="HW9" s="144"/>
+      <c r="HX9" s="144"/>
+      <c r="HY9" s="144"/>
+      <c r="HZ9" s="144"/>
+      <c r="IA9" s="144"/>
+      <c r="IB9" s="145"/>
+      <c r="IC9" s="143" t="str">
         <f t="shared" ref="IC9" si="30">TEXT(IF13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="ID9" s="109"/>
-      <c r="IE9" s="109"/>
-      <c r="IF9" s="109"/>
-      <c r="IG9" s="109"/>
-      <c r="IH9" s="109"/>
-      <c r="II9" s="110"/>
-      <c r="IJ9" s="108" t="str">
+      <c r="ID9" s="144"/>
+      <c r="IE9" s="144"/>
+      <c r="IF9" s="144"/>
+      <c r="IG9" s="144"/>
+      <c r="IH9" s="144"/>
+      <c r="II9" s="145"/>
+      <c r="IJ9" s="143" t="str">
         <f t="shared" ref="IJ9" si="31">TEXT(IM13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IK9" s="109"/>
-      <c r="IL9" s="109"/>
-      <c r="IM9" s="109"/>
-      <c r="IN9" s="109"/>
-      <c r="IO9" s="109"/>
-      <c r="IP9" s="110"/>
-      <c r="IQ9" s="108" t="str">
+      <c r="IK9" s="144"/>
+      <c r="IL9" s="144"/>
+      <c r="IM9" s="144"/>
+      <c r="IN9" s="144"/>
+      <c r="IO9" s="144"/>
+      <c r="IP9" s="145"/>
+      <c r="IQ9" s="143" t="str">
         <f t="shared" ref="IQ9" si="32">TEXT(IT13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IR9" s="109"/>
-      <c r="IS9" s="109"/>
-      <c r="IT9" s="109"/>
-      <c r="IU9" s="109"/>
-      <c r="IV9" s="109"/>
-      <c r="IW9" s="110"/>
-      <c r="IX9" s="108" t="str">
+      <c r="IR9" s="144"/>
+      <c r="IS9" s="144"/>
+      <c r="IT9" s="144"/>
+      <c r="IU9" s="144"/>
+      <c r="IV9" s="144"/>
+      <c r="IW9" s="145"/>
+      <c r="IX9" s="143" t="str">
         <f t="shared" ref="IX9" si="33">TEXT(JA13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IY9" s="109"/>
-      <c r="IZ9" s="109"/>
-      <c r="JA9" s="109"/>
-      <c r="JB9" s="109"/>
-      <c r="JC9" s="109"/>
-      <c r="JD9" s="110"/>
-      <c r="JE9" s="108" t="str">
+      <c r="IY9" s="144"/>
+      <c r="IZ9" s="144"/>
+      <c r="JA9" s="144"/>
+      <c r="JB9" s="144"/>
+      <c r="JC9" s="144"/>
+      <c r="JD9" s="145"/>
+      <c r="JE9" s="143" t="str">
         <f t="shared" ref="JE9" si="34">TEXT(JH13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="JF9" s="109"/>
-      <c r="JG9" s="109"/>
-      <c r="JH9" s="109"/>
-      <c r="JI9" s="109"/>
-      <c r="JJ9" s="109"/>
-      <c r="JK9" s="110"/>
-      <c r="JL9" s="108" t="str">
+      <c r="JF9" s="144"/>
+      <c r="JG9" s="144"/>
+      <c r="JH9" s="144"/>
+      <c r="JI9" s="144"/>
+      <c r="JJ9" s="144"/>
+      <c r="JK9" s="145"/>
+      <c r="JL9" s="143" t="str">
         <f t="shared" ref="JL9" si="35">TEXT(JO13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JM9" s="109"/>
-      <c r="JN9" s="109"/>
-      <c r="JO9" s="109"/>
-      <c r="JP9" s="109"/>
-      <c r="JQ9" s="109"/>
-      <c r="JR9" s="110"/>
-      <c r="JS9" s="108" t="str">
+      <c r="JM9" s="144"/>
+      <c r="JN9" s="144"/>
+      <c r="JO9" s="144"/>
+      <c r="JP9" s="144"/>
+      <c r="JQ9" s="144"/>
+      <c r="JR9" s="145"/>
+      <c r="JS9" s="143" t="str">
         <f t="shared" ref="JS9" si="36">TEXT(JV13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JT9" s="109"/>
-      <c r="JU9" s="109"/>
-      <c r="JV9" s="109"/>
-      <c r="JW9" s="109"/>
-      <c r="JX9" s="109"/>
-      <c r="JY9" s="110"/>
-      <c r="JZ9" s="108" t="str">
+      <c r="JT9" s="144"/>
+      <c r="JU9" s="144"/>
+      <c r="JV9" s="144"/>
+      <c r="JW9" s="144"/>
+      <c r="JX9" s="144"/>
+      <c r="JY9" s="145"/>
+      <c r="JZ9" s="143" t="str">
         <f t="shared" ref="JZ9" si="37">TEXT(KC13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KA9" s="109"/>
-      <c r="KB9" s="109"/>
-      <c r="KC9" s="109"/>
-      <c r="KD9" s="109"/>
-      <c r="KE9" s="109"/>
-      <c r="KF9" s="110"/>
-      <c r="KG9" s="108" t="str">
+      <c r="KA9" s="144"/>
+      <c r="KB9" s="144"/>
+      <c r="KC9" s="144"/>
+      <c r="KD9" s="144"/>
+      <c r="KE9" s="144"/>
+      <c r="KF9" s="145"/>
+      <c r="KG9" s="143" t="str">
         <f t="shared" ref="KG9" si="38">TEXT(KJ13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KH9" s="109"/>
-      <c r="KI9" s="109"/>
-      <c r="KJ9" s="109"/>
-      <c r="KK9" s="109"/>
-      <c r="KL9" s="109"/>
-      <c r="KM9" s="110"/>
-      <c r="KN9" s="108" t="str">
+      <c r="KH9" s="144"/>
+      <c r="KI9" s="144"/>
+      <c r="KJ9" s="144"/>
+      <c r="KK9" s="144"/>
+      <c r="KL9" s="144"/>
+      <c r="KM9" s="145"/>
+      <c r="KN9" s="143" t="str">
         <f t="shared" ref="KN9" si="39">TEXT(KQ13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KO9" s="109"/>
-      <c r="KP9" s="109"/>
-      <c r="KQ9" s="109"/>
-      <c r="KR9" s="109"/>
-      <c r="KS9" s="109"/>
-      <c r="KT9" s="110"/>
-      <c r="KU9" s="108" t="str">
+      <c r="KO9" s="144"/>
+      <c r="KP9" s="144"/>
+      <c r="KQ9" s="144"/>
+      <c r="KR9" s="144"/>
+      <c r="KS9" s="144"/>
+      <c r="KT9" s="145"/>
+      <c r="KU9" s="143" t="str">
         <f t="shared" ref="KU9" si="40">TEXT(KX13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KV9" s="109"/>
-      <c r="KW9" s="109"/>
-      <c r="KX9" s="109"/>
-      <c r="KY9" s="109"/>
-      <c r="KZ9" s="109"/>
-      <c r="LA9" s="110"/>
-      <c r="LB9" s="108" t="str">
+      <c r="KV9" s="144"/>
+      <c r="KW9" s="144"/>
+      <c r="KX9" s="144"/>
+      <c r="KY9" s="144"/>
+      <c r="KZ9" s="144"/>
+      <c r="LA9" s="145"/>
+      <c r="LB9" s="143" t="str">
         <f t="shared" ref="LB9" si="41">TEXT(LE13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LC9" s="109"/>
-      <c r="LD9" s="109"/>
-      <c r="LE9" s="109"/>
-      <c r="LF9" s="109"/>
-      <c r="LG9" s="109"/>
-      <c r="LH9" s="110"/>
-      <c r="LI9" s="108" t="str">
+      <c r="LC9" s="144"/>
+      <c r="LD9" s="144"/>
+      <c r="LE9" s="144"/>
+      <c r="LF9" s="144"/>
+      <c r="LG9" s="144"/>
+      <c r="LH9" s="145"/>
+      <c r="LI9" s="143" t="str">
         <f t="shared" ref="LI9" si="42">TEXT(LL13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LJ9" s="109"/>
-      <c r="LK9" s="109"/>
-      <c r="LL9" s="109"/>
-      <c r="LM9" s="109"/>
-      <c r="LN9" s="109"/>
-      <c r="LO9" s="110"/>
-      <c r="LP9" s="108" t="str">
+      <c r="LJ9" s="144"/>
+      <c r="LK9" s="144"/>
+      <c r="LL9" s="144"/>
+      <c r="LM9" s="144"/>
+      <c r="LN9" s="144"/>
+      <c r="LO9" s="145"/>
+      <c r="LP9" s="143" t="str">
         <f t="shared" ref="LP9" si="43">TEXT(LS13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LQ9" s="109"/>
-      <c r="LR9" s="109"/>
-      <c r="LS9" s="109"/>
-      <c r="LT9" s="109"/>
-      <c r="LU9" s="109"/>
-      <c r="LV9" s="110"/>
-      <c r="LW9" s="108" t="str">
+      <c r="LQ9" s="144"/>
+      <c r="LR9" s="144"/>
+      <c r="LS9" s="144"/>
+      <c r="LT9" s="144"/>
+      <c r="LU9" s="144"/>
+      <c r="LV9" s="145"/>
+      <c r="LW9" s="143" t="str">
         <f t="shared" ref="LW9" si="44">TEXT(LZ13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LX9" s="109"/>
-      <c r="LY9" s="109"/>
-      <c r="LZ9" s="109"/>
-      <c r="MA9" s="109"/>
-      <c r="MB9" s="109"/>
-      <c r="MC9" s="110"/>
-      <c r="MD9" s="108" t="str">
+      <c r="LX9" s="144"/>
+      <c r="LY9" s="144"/>
+      <c r="LZ9" s="144"/>
+      <c r="MA9" s="144"/>
+      <c r="MB9" s="144"/>
+      <c r="MC9" s="145"/>
+      <c r="MD9" s="143" t="str">
         <f t="shared" ref="MD9" si="45">TEXT(MG13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ME9" s="109"/>
-      <c r="MF9" s="109"/>
-      <c r="MG9" s="109"/>
-      <c r="MH9" s="109"/>
-      <c r="MI9" s="109"/>
-      <c r="MJ9" s="110"/>
-      <c r="MK9" s="108" t="str">
+      <c r="ME9" s="144"/>
+      <c r="MF9" s="144"/>
+      <c r="MG9" s="144"/>
+      <c r="MH9" s="144"/>
+      <c r="MI9" s="144"/>
+      <c r="MJ9" s="145"/>
+      <c r="MK9" s="143" t="str">
         <f t="shared" ref="MK9" si="46">TEXT(MN13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ML9" s="109"/>
-      <c r="MM9" s="109"/>
-      <c r="MN9" s="109"/>
-      <c r="MO9" s="109"/>
-      <c r="MP9" s="109"/>
-      <c r="MQ9" s="110"/>
-      <c r="MR9" s="108" t="str">
+      <c r="ML9" s="144"/>
+      <c r="MM9" s="144"/>
+      <c r="MN9" s="144"/>
+      <c r="MO9" s="144"/>
+      <c r="MP9" s="144"/>
+      <c r="MQ9" s="145"/>
+      <c r="MR9" s="143" t="str">
         <f t="shared" ref="MR9" si="47">TEXT(MU13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="MS9" s="109"/>
-      <c r="MT9" s="109"/>
-      <c r="MU9" s="109"/>
-      <c r="MV9" s="109"/>
-      <c r="MW9" s="109"/>
-      <c r="MX9" s="110"/>
-      <c r="MY9" s="108" t="str">
+      <c r="MS9" s="144"/>
+      <c r="MT9" s="144"/>
+      <c r="MU9" s="144"/>
+      <c r="MV9" s="144"/>
+      <c r="MW9" s="144"/>
+      <c r="MX9" s="145"/>
+      <c r="MY9" s="143" t="str">
         <f t="shared" ref="MY9" si="48">TEXT(NB13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="MZ9" s="109"/>
-      <c r="NA9" s="109"/>
-      <c r="NB9" s="109"/>
-      <c r="NC9" s="109"/>
-      <c r="ND9" s="109"/>
-      <c r="NE9" s="110"/>
-      <c r="NF9" s="108" t="str">
+      <c r="MZ9" s="144"/>
+      <c r="NA9" s="144"/>
+      <c r="NB9" s="144"/>
+      <c r="NC9" s="144"/>
+      <c r="ND9" s="144"/>
+      <c r="NE9" s="145"/>
+      <c r="NF9" s="143" t="str">
         <f t="shared" ref="NF9" si="49">TEXT(NI13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NG9" s="109"/>
-      <c r="NH9" s="109"/>
-      <c r="NI9" s="109"/>
-      <c r="NJ9" s="109"/>
-      <c r="NK9" s="109"/>
-      <c r="NL9" s="110"/>
-      <c r="NM9" s="108" t="str">
+      <c r="NG9" s="144"/>
+      <c r="NH9" s="144"/>
+      <c r="NI9" s="144"/>
+      <c r="NJ9" s="144"/>
+      <c r="NK9" s="144"/>
+      <c r="NL9" s="145"/>
+      <c r="NM9" s="143" t="str">
         <f t="shared" ref="NM9" si="50">TEXT(NP13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NN9" s="109"/>
-      <c r="NO9" s="109"/>
-      <c r="NP9" s="109"/>
-      <c r="NQ9" s="109"/>
-      <c r="NR9" s="109"/>
-      <c r="NS9" s="110"/>
-      <c r="NT9" s="108" t="str">
+      <c r="NN9" s="144"/>
+      <c r="NO9" s="144"/>
+      <c r="NP9" s="144"/>
+      <c r="NQ9" s="144"/>
+      <c r="NR9" s="144"/>
+      <c r="NS9" s="145"/>
+      <c r="NT9" s="143" t="str">
         <f t="shared" ref="NT9" si="51">TEXT(NW13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NU9" s="109"/>
-      <c r="NV9" s="109"/>
-      <c r="NW9" s="109"/>
-      <c r="NX9" s="109"/>
-      <c r="NY9" s="109"/>
-      <c r="NZ9" s="110"/>
-      <c r="OA9" s="108" t="str">
+      <c r="NU9" s="144"/>
+      <c r="NV9" s="144"/>
+      <c r="NW9" s="144"/>
+      <c r="NX9" s="144"/>
+      <c r="NY9" s="144"/>
+      <c r="NZ9" s="145"/>
+      <c r="OA9" s="143" t="str">
         <f t="shared" ref="OA9" si="52">TEXT(OD13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OB9" s="109"/>
-      <c r="OC9" s="109"/>
-      <c r="OD9" s="109"/>
-      <c r="OE9" s="109"/>
-      <c r="OF9" s="109"/>
-      <c r="OG9" s="110"/>
-      <c r="OH9" s="108" t="str">
+      <c r="OB9" s="144"/>
+      <c r="OC9" s="144"/>
+      <c r="OD9" s="144"/>
+      <c r="OE9" s="144"/>
+      <c r="OF9" s="144"/>
+      <c r="OG9" s="145"/>
+      <c r="OH9" s="143" t="str">
         <f t="shared" ref="OH9" si="53">TEXT(OK13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OI9" s="109"/>
-      <c r="OJ9" s="109"/>
-      <c r="OK9" s="109"/>
-      <c r="OL9" s="109"/>
-      <c r="OM9" s="109"/>
-      <c r="ON9" s="110"/>
-      <c r="OO9" s="108" t="str">
+      <c r="OI9" s="144"/>
+      <c r="OJ9" s="144"/>
+      <c r="OK9" s="144"/>
+      <c r="OL9" s="144"/>
+      <c r="OM9" s="144"/>
+      <c r="ON9" s="145"/>
+      <c r="OO9" s="143" t="str">
         <f t="shared" ref="OO9" si="54">TEXT(OR13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OP9" s="109"/>
-      <c r="OQ9" s="109"/>
-      <c r="OR9" s="109"/>
-      <c r="OS9" s="109"/>
-      <c r="OT9" s="109"/>
-      <c r="OU9" s="110"/>
-      <c r="OV9" s="108" t="str">
+      <c r="OP9" s="144"/>
+      <c r="OQ9" s="144"/>
+      <c r="OR9" s="144"/>
+      <c r="OS9" s="144"/>
+      <c r="OT9" s="144"/>
+      <c r="OU9" s="145"/>
+      <c r="OV9" s="143" t="str">
         <f t="shared" ref="OV9" si="55">TEXT(OY13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OW9" s="109"/>
-      <c r="OX9" s="109"/>
-      <c r="OY9" s="109"/>
-      <c r="OZ9" s="109"/>
-      <c r="PA9" s="109"/>
-      <c r="PB9" s="110"/>
+      <c r="OW9" s="144"/>
+      <c r="OX9" s="144"/>
+      <c r="OY9" s="144"/>
+      <c r="OZ9" s="144"/>
+      <c r="PA9" s="144"/>
+      <c r="PB9" s="145"/>
     </row>
     <row r="10" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
       <c r="F10" s="25"/>
       <c r="G10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="142">
+      <c r="H10" s="138">
         <v>42996</v>
       </c>
-      <c r="I10" s="142"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="27"/>
       <c r="L10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="143">
+      <c r="M10" s="139">
         <f>WEEKNUM(P13,21)</f>
         <v>38</v>
       </c>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="121">
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="139"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="132">
         <f>WEEKNUM(W13,21)</f>
         <v>39</v>
       </c>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="144">
+      <c r="U10" s="133"/>
+      <c r="V10" s="133"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="133"/>
+      <c r="Y10" s="133"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="140">
         <f>WEEKNUM(AD13,21)</f>
         <v>40</v>
       </c>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="121">
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="140"/>
+      <c r="AD10" s="140"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="140"/>
+      <c r="AG10" s="140"/>
+      <c r="AH10" s="132">
         <f>WEEKNUM(AK13,21)</f>
         <v>41</v>
       </c>
-      <c r="AI10" s="122"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="122"/>
-      <c r="AN10" s="123"/>
-      <c r="AO10" s="121">
+      <c r="AI10" s="133"/>
+      <c r="AJ10" s="133"/>
+      <c r="AK10" s="133"/>
+      <c r="AL10" s="133"/>
+      <c r="AM10" s="133"/>
+      <c r="AN10" s="134"/>
+      <c r="AO10" s="132">
         <f>WEEKNUM(AR13,21)</f>
         <v>42</v>
       </c>
-      <c r="AP10" s="122"/>
-      <c r="AQ10" s="122"/>
-      <c r="AR10" s="122"/>
-      <c r="AS10" s="122"/>
-      <c r="AT10" s="122"/>
-      <c r="AU10" s="123"/>
-      <c r="AV10" s="121">
+      <c r="AP10" s="133"/>
+      <c r="AQ10" s="133"/>
+      <c r="AR10" s="133"/>
+      <c r="AS10" s="133"/>
+      <c r="AT10" s="133"/>
+      <c r="AU10" s="134"/>
+      <c r="AV10" s="132">
         <f>WEEKNUM(AY13,21)</f>
         <v>43</v>
       </c>
-      <c r="AW10" s="122"/>
-      <c r="AX10" s="122"/>
-      <c r="AY10" s="122"/>
-      <c r="AZ10" s="122"/>
-      <c r="BA10" s="122"/>
-      <c r="BB10" s="123"/>
-      <c r="BC10" s="121">
+      <c r="AW10" s="133"/>
+      <c r="AX10" s="133"/>
+      <c r="AY10" s="133"/>
+      <c r="AZ10" s="133"/>
+      <c r="BA10" s="133"/>
+      <c r="BB10" s="134"/>
+      <c r="BC10" s="132">
         <f>WEEKNUM(BF13,21)</f>
         <v>44</v>
       </c>
-      <c r="BD10" s="122"/>
-      <c r="BE10" s="122"/>
-      <c r="BF10" s="122"/>
-      <c r="BG10" s="122"/>
-      <c r="BH10" s="122"/>
-      <c r="BI10" s="123"/>
-      <c r="BJ10" s="121">
+      <c r="BD10" s="133"/>
+      <c r="BE10" s="133"/>
+      <c r="BF10" s="133"/>
+      <c r="BG10" s="133"/>
+      <c r="BH10" s="133"/>
+      <c r="BI10" s="134"/>
+      <c r="BJ10" s="132">
         <f>WEEKNUM(BM13,21)</f>
         <v>45</v>
       </c>
-      <c r="BK10" s="122"/>
-      <c r="BL10" s="122"/>
-      <c r="BM10" s="122"/>
-      <c r="BN10" s="122"/>
-      <c r="BO10" s="122"/>
-      <c r="BP10" s="123"/>
-      <c r="BQ10" s="121">
+      <c r="BK10" s="133"/>
+      <c r="BL10" s="133"/>
+      <c r="BM10" s="133"/>
+      <c r="BN10" s="133"/>
+      <c r="BO10" s="133"/>
+      <c r="BP10" s="134"/>
+      <c r="BQ10" s="132">
         <f>WEEKNUM(BT13,21)</f>
         <v>46</v>
       </c>
-      <c r="BR10" s="122"/>
-      <c r="BS10" s="122"/>
-      <c r="BT10" s="122"/>
-      <c r="BU10" s="122"/>
-      <c r="BV10" s="122"/>
-      <c r="BW10" s="123"/>
-      <c r="BX10" s="121">
+      <c r="BR10" s="133"/>
+      <c r="BS10" s="133"/>
+      <c r="BT10" s="133"/>
+      <c r="BU10" s="133"/>
+      <c r="BV10" s="133"/>
+      <c r="BW10" s="134"/>
+      <c r="BX10" s="132">
         <f>WEEKNUM(CA13,21)</f>
         <v>47</v>
       </c>
-      <c r="BY10" s="122"/>
-      <c r="BZ10" s="122"/>
-      <c r="CA10" s="122"/>
-      <c r="CB10" s="122"/>
-      <c r="CC10" s="122"/>
-      <c r="CD10" s="123"/>
-      <c r="CE10" s="121">
+      <c r="BY10" s="133"/>
+      <c r="BZ10" s="133"/>
+      <c r="CA10" s="133"/>
+      <c r="CB10" s="133"/>
+      <c r="CC10" s="133"/>
+      <c r="CD10" s="134"/>
+      <c r="CE10" s="132">
         <f>WEEKNUM(CH13,21)</f>
         <v>48</v>
       </c>
-      <c r="CF10" s="122"/>
-      <c r="CG10" s="122"/>
-      <c r="CH10" s="122"/>
-      <c r="CI10" s="122"/>
-      <c r="CJ10" s="122"/>
-      <c r="CK10" s="123"/>
-      <c r="CL10" s="121">
+      <c r="CF10" s="133"/>
+      <c r="CG10" s="133"/>
+      <c r="CH10" s="133"/>
+      <c r="CI10" s="133"/>
+      <c r="CJ10" s="133"/>
+      <c r="CK10" s="134"/>
+      <c r="CL10" s="132">
         <f>WEEKNUM(CO13,21)</f>
         <v>49</v>
       </c>
-      <c r="CM10" s="122"/>
-      <c r="CN10" s="122"/>
-      <c r="CO10" s="122"/>
-      <c r="CP10" s="122"/>
-      <c r="CQ10" s="122"/>
-      <c r="CR10" s="123"/>
-      <c r="CS10" s="121">
+      <c r="CM10" s="133"/>
+      <c r="CN10" s="133"/>
+      <c r="CO10" s="133"/>
+      <c r="CP10" s="133"/>
+      <c r="CQ10" s="133"/>
+      <c r="CR10" s="134"/>
+      <c r="CS10" s="132">
         <f>WEEKNUM(CV13,21)</f>
         <v>50</v>
       </c>
-      <c r="CT10" s="122"/>
-      <c r="CU10" s="122"/>
-      <c r="CV10" s="122"/>
-      <c r="CW10" s="122"/>
-      <c r="CX10" s="122"/>
-      <c r="CY10" s="123"/>
-      <c r="CZ10" s="121">
+      <c r="CT10" s="133"/>
+      <c r="CU10" s="133"/>
+      <c r="CV10" s="133"/>
+      <c r="CW10" s="133"/>
+      <c r="CX10" s="133"/>
+      <c r="CY10" s="134"/>
+      <c r="CZ10" s="132">
         <f>WEEKNUM(DC13,21)</f>
         <v>51</v>
       </c>
-      <c r="DA10" s="122"/>
-      <c r="DB10" s="122"/>
-      <c r="DC10" s="122"/>
-      <c r="DD10" s="122"/>
-      <c r="DE10" s="122"/>
-      <c r="DF10" s="123"/>
-      <c r="DG10" s="121">
+      <c r="DA10" s="133"/>
+      <c r="DB10" s="133"/>
+      <c r="DC10" s="133"/>
+      <c r="DD10" s="133"/>
+      <c r="DE10" s="133"/>
+      <c r="DF10" s="134"/>
+      <c r="DG10" s="132">
         <f>WEEKNUM(DJ13,21)</f>
         <v>52</v>
       </c>
-      <c r="DH10" s="122"/>
-      <c r="DI10" s="122"/>
-      <c r="DJ10" s="122"/>
-      <c r="DK10" s="122"/>
-      <c r="DL10" s="122"/>
-      <c r="DM10" s="123"/>
-      <c r="DN10" s="121">
+      <c r="DH10" s="133"/>
+      <c r="DI10" s="133"/>
+      <c r="DJ10" s="133"/>
+      <c r="DK10" s="133"/>
+      <c r="DL10" s="133"/>
+      <c r="DM10" s="134"/>
+      <c r="DN10" s="132">
         <f>WEEKNUM(DQ13,21)</f>
         <v>1</v>
       </c>
-      <c r="DO10" s="122"/>
-      <c r="DP10" s="122"/>
-      <c r="DQ10" s="122"/>
-      <c r="DR10" s="122"/>
-      <c r="DS10" s="122"/>
-      <c r="DT10" s="123"/>
-      <c r="DU10" s="121">
+      <c r="DO10" s="133"/>
+      <c r="DP10" s="133"/>
+      <c r="DQ10" s="133"/>
+      <c r="DR10" s="133"/>
+      <c r="DS10" s="133"/>
+      <c r="DT10" s="134"/>
+      <c r="DU10" s="132">
         <f>WEEKNUM(DX13,21)</f>
         <v>2</v>
       </c>
-      <c r="DV10" s="122"/>
-      <c r="DW10" s="122"/>
-      <c r="DX10" s="122"/>
-      <c r="DY10" s="122"/>
-      <c r="DZ10" s="122"/>
-      <c r="EA10" s="123"/>
-      <c r="EB10" s="121">
+      <c r="DV10" s="133"/>
+      <c r="DW10" s="133"/>
+      <c r="DX10" s="133"/>
+      <c r="DY10" s="133"/>
+      <c r="DZ10" s="133"/>
+      <c r="EA10" s="134"/>
+      <c r="EB10" s="132">
         <f>WEEKNUM(EE13,21)</f>
         <v>3</v>
       </c>
-      <c r="EC10" s="122"/>
-      <c r="ED10" s="122"/>
-      <c r="EE10" s="122"/>
-      <c r="EF10" s="122"/>
-      <c r="EG10" s="122"/>
-      <c r="EH10" s="123"/>
-      <c r="EI10" s="121">
+      <c r="EC10" s="133"/>
+      <c r="ED10" s="133"/>
+      <c r="EE10" s="133"/>
+      <c r="EF10" s="133"/>
+      <c r="EG10" s="133"/>
+      <c r="EH10" s="134"/>
+      <c r="EI10" s="132">
         <f>WEEKNUM(EL13,21)</f>
         <v>4</v>
       </c>
-      <c r="EJ10" s="122"/>
-      <c r="EK10" s="122"/>
-      <c r="EL10" s="122"/>
-      <c r="EM10" s="122"/>
-      <c r="EN10" s="122"/>
-      <c r="EO10" s="123"/>
-      <c r="EP10" s="121">
+      <c r="EJ10" s="133"/>
+      <c r="EK10" s="133"/>
+      <c r="EL10" s="133"/>
+      <c r="EM10" s="133"/>
+      <c r="EN10" s="133"/>
+      <c r="EO10" s="134"/>
+      <c r="EP10" s="132">
         <f>WEEKNUM(ES13,21)</f>
         <v>5</v>
       </c>
-      <c r="EQ10" s="122"/>
-      <c r="ER10" s="122"/>
-      <c r="ES10" s="122"/>
-      <c r="ET10" s="122"/>
-      <c r="EU10" s="122"/>
-      <c r="EV10" s="123"/>
-      <c r="EW10" s="121">
+      <c r="EQ10" s="133"/>
+      <c r="ER10" s="133"/>
+      <c r="ES10" s="133"/>
+      <c r="ET10" s="133"/>
+      <c r="EU10" s="133"/>
+      <c r="EV10" s="134"/>
+      <c r="EW10" s="132">
         <f>WEEKNUM(EZ13,21)</f>
         <v>6</v>
       </c>
-      <c r="EX10" s="122"/>
-      <c r="EY10" s="122"/>
-      <c r="EZ10" s="122"/>
-      <c r="FA10" s="122"/>
-      <c r="FB10" s="122"/>
-      <c r="FC10" s="123"/>
-      <c r="FD10" s="121">
+      <c r="EX10" s="133"/>
+      <c r="EY10" s="133"/>
+      <c r="EZ10" s="133"/>
+      <c r="FA10" s="133"/>
+      <c r="FB10" s="133"/>
+      <c r="FC10" s="134"/>
+      <c r="FD10" s="132">
         <f>WEEKNUM(FG13,21)</f>
         <v>7</v>
       </c>
-      <c r="FE10" s="122"/>
-      <c r="FF10" s="122"/>
-      <c r="FG10" s="122"/>
-      <c r="FH10" s="122"/>
-      <c r="FI10" s="122"/>
-      <c r="FJ10" s="123"/>
-      <c r="FK10" s="121">
+      <c r="FE10" s="133"/>
+      <c r="FF10" s="133"/>
+      <c r="FG10" s="133"/>
+      <c r="FH10" s="133"/>
+      <c r="FI10" s="133"/>
+      <c r="FJ10" s="134"/>
+      <c r="FK10" s="132">
         <f>WEEKNUM(FN13,21)</f>
         <v>8</v>
       </c>
-      <c r="FL10" s="122"/>
-      <c r="FM10" s="122"/>
-      <c r="FN10" s="122"/>
-      <c r="FO10" s="122"/>
-      <c r="FP10" s="122"/>
-      <c r="FQ10" s="123"/>
-      <c r="FR10" s="121">
+      <c r="FL10" s="133"/>
+      <c r="FM10" s="133"/>
+      <c r="FN10" s="133"/>
+      <c r="FO10" s="133"/>
+      <c r="FP10" s="133"/>
+      <c r="FQ10" s="134"/>
+      <c r="FR10" s="132">
         <f>WEEKNUM(FU13,21)</f>
         <v>9</v>
       </c>
-      <c r="FS10" s="122"/>
-      <c r="FT10" s="122"/>
-      <c r="FU10" s="122"/>
-      <c r="FV10" s="122"/>
-      <c r="FW10" s="122"/>
-      <c r="FX10" s="123"/>
-      <c r="FY10" s="121">
+      <c r="FS10" s="133"/>
+      <c r="FT10" s="133"/>
+      <c r="FU10" s="133"/>
+      <c r="FV10" s="133"/>
+      <c r="FW10" s="133"/>
+      <c r="FX10" s="134"/>
+      <c r="FY10" s="132">
         <f>WEEKNUM(GB13,21)</f>
         <v>10</v>
       </c>
-      <c r="FZ10" s="122"/>
-      <c r="GA10" s="122"/>
-      <c r="GB10" s="122"/>
-      <c r="GC10" s="122"/>
-      <c r="GD10" s="122"/>
-      <c r="GE10" s="123"/>
-      <c r="GF10" s="121">
+      <c r="FZ10" s="133"/>
+      <c r="GA10" s="133"/>
+      <c r="GB10" s="133"/>
+      <c r="GC10" s="133"/>
+      <c r="GD10" s="133"/>
+      <c r="GE10" s="134"/>
+      <c r="GF10" s="132">
         <f>WEEKNUM(GI13,21)</f>
         <v>11</v>
       </c>
-      <c r="GG10" s="122"/>
-      <c r="GH10" s="122"/>
-      <c r="GI10" s="122"/>
-      <c r="GJ10" s="122"/>
-      <c r="GK10" s="122"/>
-      <c r="GL10" s="123"/>
-      <c r="GM10" s="121">
+      <c r="GG10" s="133"/>
+      <c r="GH10" s="133"/>
+      <c r="GI10" s="133"/>
+      <c r="GJ10" s="133"/>
+      <c r="GK10" s="133"/>
+      <c r="GL10" s="134"/>
+      <c r="GM10" s="132">
         <f>WEEKNUM(GP13,21)</f>
         <v>12</v>
       </c>
-      <c r="GN10" s="122"/>
-      <c r="GO10" s="122"/>
-      <c r="GP10" s="122"/>
-      <c r="GQ10" s="122"/>
-      <c r="GR10" s="122"/>
-      <c r="GS10" s="123"/>
-      <c r="GT10" s="121">
+      <c r="GN10" s="133"/>
+      <c r="GO10" s="133"/>
+      <c r="GP10" s="133"/>
+      <c r="GQ10" s="133"/>
+      <c r="GR10" s="133"/>
+      <c r="GS10" s="134"/>
+      <c r="GT10" s="132">
         <f>WEEKNUM(GW13,21)</f>
         <v>13</v>
       </c>
-      <c r="GU10" s="122"/>
-      <c r="GV10" s="122"/>
-      <c r="GW10" s="122"/>
-      <c r="GX10" s="122"/>
-      <c r="GY10" s="122"/>
-      <c r="GZ10" s="123"/>
-      <c r="HA10" s="121">
+      <c r="GU10" s="133"/>
+      <c r="GV10" s="133"/>
+      <c r="GW10" s="133"/>
+      <c r="GX10" s="133"/>
+      <c r="GY10" s="133"/>
+      <c r="GZ10" s="134"/>
+      <c r="HA10" s="132">
         <f>WEEKNUM(HD13,21)</f>
         <v>14</v>
       </c>
-      <c r="HB10" s="122"/>
-      <c r="HC10" s="122"/>
-      <c r="HD10" s="122"/>
-      <c r="HE10" s="122"/>
-      <c r="HF10" s="122"/>
-      <c r="HG10" s="123"/>
-      <c r="HH10" s="121">
+      <c r="HB10" s="133"/>
+      <c r="HC10" s="133"/>
+      <c r="HD10" s="133"/>
+      <c r="HE10" s="133"/>
+      <c r="HF10" s="133"/>
+      <c r="HG10" s="134"/>
+      <c r="HH10" s="132">
         <f>WEEKNUM(HK13,21)</f>
         <v>15</v>
       </c>
-      <c r="HI10" s="122"/>
-      <c r="HJ10" s="122"/>
-      <c r="HK10" s="122"/>
-      <c r="HL10" s="122"/>
-      <c r="HM10" s="122"/>
-      <c r="HN10" s="123"/>
-      <c r="HO10" s="121">
+      <c r="HI10" s="133"/>
+      <c r="HJ10" s="133"/>
+      <c r="HK10" s="133"/>
+      <c r="HL10" s="133"/>
+      <c r="HM10" s="133"/>
+      <c r="HN10" s="134"/>
+      <c r="HO10" s="132">
         <f>WEEKNUM(HR13,21)</f>
         <v>16</v>
       </c>
-      <c r="HP10" s="122"/>
-      <c r="HQ10" s="122"/>
-      <c r="HR10" s="122"/>
-      <c r="HS10" s="122"/>
-      <c r="HT10" s="122"/>
-      <c r="HU10" s="123"/>
-      <c r="HV10" s="121">
+      <c r="HP10" s="133"/>
+      <c r="HQ10" s="133"/>
+      <c r="HR10" s="133"/>
+      <c r="HS10" s="133"/>
+      <c r="HT10" s="133"/>
+      <c r="HU10" s="134"/>
+      <c r="HV10" s="132">
         <f t="shared" ref="HV10" si="56">WEEKNUM(HY13,21)</f>
         <v>17</v>
       </c>
-      <c r="HW10" s="122"/>
-      <c r="HX10" s="122"/>
-      <c r="HY10" s="122"/>
-      <c r="HZ10" s="122"/>
-      <c r="IA10" s="122"/>
-      <c r="IB10" s="123"/>
-      <c r="IC10" s="121">
+      <c r="HW10" s="133"/>
+      <c r="HX10" s="133"/>
+      <c r="HY10" s="133"/>
+      <c r="HZ10" s="133"/>
+      <c r="IA10" s="133"/>
+      <c r="IB10" s="134"/>
+      <c r="IC10" s="132">
         <f t="shared" ref="IC10" si="57">WEEKNUM(IF13,21)</f>
         <v>18</v>
       </c>
-      <c r="ID10" s="122"/>
-      <c r="IE10" s="122"/>
-      <c r="IF10" s="122"/>
-      <c r="IG10" s="122"/>
-      <c r="IH10" s="122"/>
-      <c r="II10" s="123"/>
-      <c r="IJ10" s="121">
+      <c r="ID10" s="133"/>
+      <c r="IE10" s="133"/>
+      <c r="IF10" s="133"/>
+      <c r="IG10" s="133"/>
+      <c r="IH10" s="133"/>
+      <c r="II10" s="134"/>
+      <c r="IJ10" s="132">
         <f t="shared" ref="IJ10" si="58">WEEKNUM(IM13,21)</f>
         <v>19</v>
       </c>
-      <c r="IK10" s="122"/>
-      <c r="IL10" s="122"/>
-      <c r="IM10" s="122"/>
-      <c r="IN10" s="122"/>
-      <c r="IO10" s="122"/>
-      <c r="IP10" s="123"/>
-      <c r="IQ10" s="121">
+      <c r="IK10" s="133"/>
+      <c r="IL10" s="133"/>
+      <c r="IM10" s="133"/>
+      <c r="IN10" s="133"/>
+      <c r="IO10" s="133"/>
+      <c r="IP10" s="134"/>
+      <c r="IQ10" s="132">
         <f t="shared" ref="IQ10" si="59">WEEKNUM(IT13,21)</f>
         <v>20</v>
       </c>
-      <c r="IR10" s="122"/>
-      <c r="IS10" s="122"/>
-      <c r="IT10" s="122"/>
-      <c r="IU10" s="122"/>
-      <c r="IV10" s="122"/>
-      <c r="IW10" s="123"/>
-      <c r="IX10" s="121">
+      <c r="IR10" s="133"/>
+      <c r="IS10" s="133"/>
+      <c r="IT10" s="133"/>
+      <c r="IU10" s="133"/>
+      <c r="IV10" s="133"/>
+      <c r="IW10" s="134"/>
+      <c r="IX10" s="132">
         <f t="shared" ref="IX10" si="60">WEEKNUM(JA13,21)</f>
         <v>21</v>
       </c>
-      <c r="IY10" s="122"/>
-      <c r="IZ10" s="122"/>
-      <c r="JA10" s="122"/>
-      <c r="JB10" s="122"/>
-      <c r="JC10" s="122"/>
-      <c r="JD10" s="123"/>
-      <c r="JE10" s="121">
+      <c r="IY10" s="133"/>
+      <c r="IZ10" s="133"/>
+      <c r="JA10" s="133"/>
+      <c r="JB10" s="133"/>
+      <c r="JC10" s="133"/>
+      <c r="JD10" s="134"/>
+      <c r="JE10" s="132">
         <f t="shared" ref="JE10" si="61">WEEKNUM(JH13,21)</f>
         <v>22</v>
       </c>
-      <c r="JF10" s="122"/>
-      <c r="JG10" s="122"/>
-      <c r="JH10" s="122"/>
-      <c r="JI10" s="122"/>
-      <c r="JJ10" s="122"/>
-      <c r="JK10" s="123"/>
-      <c r="JL10" s="121">
+      <c r="JF10" s="133"/>
+      <c r="JG10" s="133"/>
+      <c r="JH10" s="133"/>
+      <c r="JI10" s="133"/>
+      <c r="JJ10" s="133"/>
+      <c r="JK10" s="134"/>
+      <c r="JL10" s="132">
         <f t="shared" ref="JL10" si="62">WEEKNUM(JO13,21)</f>
         <v>23</v>
       </c>
-      <c r="JM10" s="122"/>
-      <c r="JN10" s="122"/>
-      <c r="JO10" s="122"/>
-      <c r="JP10" s="122"/>
-      <c r="JQ10" s="122"/>
-      <c r="JR10" s="123"/>
-      <c r="JS10" s="121">
+      <c r="JM10" s="133"/>
+      <c r="JN10" s="133"/>
+      <c r="JO10" s="133"/>
+      <c r="JP10" s="133"/>
+      <c r="JQ10" s="133"/>
+      <c r="JR10" s="134"/>
+      <c r="JS10" s="132">
         <f t="shared" ref="JS10" si="63">WEEKNUM(JV13,21)</f>
         <v>24</v>
       </c>
-      <c r="JT10" s="122"/>
-      <c r="JU10" s="122"/>
-      <c r="JV10" s="122"/>
-      <c r="JW10" s="122"/>
-      <c r="JX10" s="122"/>
-      <c r="JY10" s="123"/>
-      <c r="JZ10" s="121">
+      <c r="JT10" s="133"/>
+      <c r="JU10" s="133"/>
+      <c r="JV10" s="133"/>
+      <c r="JW10" s="133"/>
+      <c r="JX10" s="133"/>
+      <c r="JY10" s="134"/>
+      <c r="JZ10" s="132">
         <f t="shared" ref="JZ10" si="64">WEEKNUM(KC13,21)</f>
         <v>25</v>
       </c>
-      <c r="KA10" s="122"/>
-      <c r="KB10" s="122"/>
-      <c r="KC10" s="122"/>
-      <c r="KD10" s="122"/>
-      <c r="KE10" s="122"/>
-      <c r="KF10" s="123"/>
-      <c r="KG10" s="121">
+      <c r="KA10" s="133"/>
+      <c r="KB10" s="133"/>
+      <c r="KC10" s="133"/>
+      <c r="KD10" s="133"/>
+      <c r="KE10" s="133"/>
+      <c r="KF10" s="134"/>
+      <c r="KG10" s="132">
         <f t="shared" ref="KG10" si="65">WEEKNUM(KJ13,21)</f>
         <v>26</v>
       </c>
-      <c r="KH10" s="122"/>
-      <c r="KI10" s="122"/>
-      <c r="KJ10" s="122"/>
-      <c r="KK10" s="122"/>
-      <c r="KL10" s="122"/>
-      <c r="KM10" s="123"/>
-      <c r="KN10" s="121">
+      <c r="KH10" s="133"/>
+      <c r="KI10" s="133"/>
+      <c r="KJ10" s="133"/>
+      <c r="KK10" s="133"/>
+      <c r="KL10" s="133"/>
+      <c r="KM10" s="134"/>
+      <c r="KN10" s="132">
         <f t="shared" ref="KN10" si="66">WEEKNUM(KQ13,21)</f>
         <v>27</v>
       </c>
-      <c r="KO10" s="122"/>
-      <c r="KP10" s="122"/>
-      <c r="KQ10" s="122"/>
-      <c r="KR10" s="122"/>
-      <c r="KS10" s="122"/>
-      <c r="KT10" s="123"/>
-      <c r="KU10" s="121">
+      <c r="KO10" s="133"/>
+      <c r="KP10" s="133"/>
+      <c r="KQ10" s="133"/>
+      <c r="KR10" s="133"/>
+      <c r="KS10" s="133"/>
+      <c r="KT10" s="134"/>
+      <c r="KU10" s="132">
         <f t="shared" ref="KU10" si="67">WEEKNUM(KX13,21)</f>
         <v>28</v>
       </c>
-      <c r="KV10" s="122"/>
-      <c r="KW10" s="122"/>
-      <c r="KX10" s="122"/>
-      <c r="KY10" s="122"/>
-      <c r="KZ10" s="122"/>
-      <c r="LA10" s="123"/>
-      <c r="LB10" s="121">
+      <c r="KV10" s="133"/>
+      <c r="KW10" s="133"/>
+      <c r="KX10" s="133"/>
+      <c r="KY10" s="133"/>
+      <c r="KZ10" s="133"/>
+      <c r="LA10" s="134"/>
+      <c r="LB10" s="132">
         <f t="shared" ref="LB10" si="68">WEEKNUM(LE13,21)</f>
         <v>29</v>
       </c>
-      <c r="LC10" s="122"/>
-      <c r="LD10" s="122"/>
-      <c r="LE10" s="122"/>
-      <c r="LF10" s="122"/>
-      <c r="LG10" s="122"/>
-      <c r="LH10" s="123"/>
-      <c r="LI10" s="121">
+      <c r="LC10" s="133"/>
+      <c r="LD10" s="133"/>
+      <c r="LE10" s="133"/>
+      <c r="LF10" s="133"/>
+      <c r="LG10" s="133"/>
+      <c r="LH10" s="134"/>
+      <c r="LI10" s="132">
         <f t="shared" ref="LI10" si="69">WEEKNUM(LL13,21)</f>
         <v>30</v>
       </c>
-      <c r="LJ10" s="122"/>
-      <c r="LK10" s="122"/>
-      <c r="LL10" s="122"/>
-      <c r="LM10" s="122"/>
-      <c r="LN10" s="122"/>
-      <c r="LO10" s="123"/>
-      <c r="LP10" s="121">
+      <c r="LJ10" s="133"/>
+      <c r="LK10" s="133"/>
+      <c r="LL10" s="133"/>
+      <c r="LM10" s="133"/>
+      <c r="LN10" s="133"/>
+      <c r="LO10" s="134"/>
+      <c r="LP10" s="132">
         <f t="shared" ref="LP10" si="70">WEEKNUM(LS13,21)</f>
         <v>31</v>
       </c>
-      <c r="LQ10" s="122"/>
-      <c r="LR10" s="122"/>
-      <c r="LS10" s="122"/>
-      <c r="LT10" s="122"/>
-      <c r="LU10" s="122"/>
-      <c r="LV10" s="123"/>
-      <c r="LW10" s="121">
+      <c r="LQ10" s="133"/>
+      <c r="LR10" s="133"/>
+      <c r="LS10" s="133"/>
+      <c r="LT10" s="133"/>
+      <c r="LU10" s="133"/>
+      <c r="LV10" s="134"/>
+      <c r="LW10" s="132">
         <f t="shared" ref="LW10" si="71">WEEKNUM(LZ13,21)</f>
         <v>32</v>
       </c>
-      <c r="LX10" s="122"/>
-      <c r="LY10" s="122"/>
-      <c r="LZ10" s="122"/>
-      <c r="MA10" s="122"/>
-      <c r="MB10" s="122"/>
-      <c r="MC10" s="123"/>
-      <c r="MD10" s="121">
+      <c r="LX10" s="133"/>
+      <c r="LY10" s="133"/>
+      <c r="LZ10" s="133"/>
+      <c r="MA10" s="133"/>
+      <c r="MB10" s="133"/>
+      <c r="MC10" s="134"/>
+      <c r="MD10" s="132">
         <f t="shared" ref="MD10" si="72">WEEKNUM(MG13,21)</f>
         <v>33</v>
       </c>
-      <c r="ME10" s="122"/>
-      <c r="MF10" s="122"/>
-      <c r="MG10" s="122"/>
-      <c r="MH10" s="122"/>
-      <c r="MI10" s="122"/>
-      <c r="MJ10" s="123"/>
-      <c r="MK10" s="121">
+      <c r="ME10" s="133"/>
+      <c r="MF10" s="133"/>
+      <c r="MG10" s="133"/>
+      <c r="MH10" s="133"/>
+      <c r="MI10" s="133"/>
+      <c r="MJ10" s="134"/>
+      <c r="MK10" s="132">
         <f t="shared" ref="MK10" si="73">WEEKNUM(MN13,21)</f>
         <v>34</v>
       </c>
-      <c r="ML10" s="122"/>
-      <c r="MM10" s="122"/>
-      <c r="MN10" s="122"/>
-      <c r="MO10" s="122"/>
-      <c r="MP10" s="122"/>
-      <c r="MQ10" s="123"/>
-      <c r="MR10" s="121">
+      <c r="ML10" s="133"/>
+      <c r="MM10" s="133"/>
+      <c r="MN10" s="133"/>
+      <c r="MO10" s="133"/>
+      <c r="MP10" s="133"/>
+      <c r="MQ10" s="134"/>
+      <c r="MR10" s="132">
         <f t="shared" ref="MR10" si="74">WEEKNUM(MU13,21)</f>
         <v>35</v>
       </c>
-      <c r="MS10" s="122"/>
-      <c r="MT10" s="122"/>
-      <c r="MU10" s="122"/>
-      <c r="MV10" s="122"/>
-      <c r="MW10" s="122"/>
-      <c r="MX10" s="123"/>
-      <c r="MY10" s="121">
+      <c r="MS10" s="133"/>
+      <c r="MT10" s="133"/>
+      <c r="MU10" s="133"/>
+      <c r="MV10" s="133"/>
+      <c r="MW10" s="133"/>
+      <c r="MX10" s="134"/>
+      <c r="MY10" s="132">
         <f t="shared" ref="MY10" si="75">WEEKNUM(NB13,21)</f>
         <v>36</v>
       </c>
-      <c r="MZ10" s="122"/>
-      <c r="NA10" s="122"/>
-      <c r="NB10" s="122"/>
-      <c r="NC10" s="122"/>
-      <c r="ND10" s="122"/>
-      <c r="NE10" s="123"/>
-      <c r="NF10" s="121">
+      <c r="MZ10" s="133"/>
+      <c r="NA10" s="133"/>
+      <c r="NB10" s="133"/>
+      <c r="NC10" s="133"/>
+      <c r="ND10" s="133"/>
+      <c r="NE10" s="134"/>
+      <c r="NF10" s="132">
         <f t="shared" ref="NF10" si="76">WEEKNUM(NI13,21)</f>
         <v>37</v>
       </c>
-      <c r="NG10" s="122"/>
-      <c r="NH10" s="122"/>
-      <c r="NI10" s="122"/>
-      <c r="NJ10" s="122"/>
-      <c r="NK10" s="122"/>
-      <c r="NL10" s="123"/>
-      <c r="NM10" s="121">
+      <c r="NG10" s="133"/>
+      <c r="NH10" s="133"/>
+      <c r="NI10" s="133"/>
+      <c r="NJ10" s="133"/>
+      <c r="NK10" s="133"/>
+      <c r="NL10" s="134"/>
+      <c r="NM10" s="132">
         <f t="shared" ref="NM10" si="77">WEEKNUM(NP13,21)</f>
         <v>38</v>
       </c>
-      <c r="NN10" s="122"/>
-      <c r="NO10" s="122"/>
-      <c r="NP10" s="122"/>
-      <c r="NQ10" s="122"/>
-      <c r="NR10" s="122"/>
-      <c r="NS10" s="123"/>
-      <c r="NT10" s="121">
+      <c r="NN10" s="133"/>
+      <c r="NO10" s="133"/>
+      <c r="NP10" s="133"/>
+      <c r="NQ10" s="133"/>
+      <c r="NR10" s="133"/>
+      <c r="NS10" s="134"/>
+      <c r="NT10" s="132">
         <f t="shared" ref="NT10" si="78">WEEKNUM(NW13,21)</f>
         <v>39</v>
       </c>
-      <c r="NU10" s="122"/>
-      <c r="NV10" s="122"/>
-      <c r="NW10" s="122"/>
-      <c r="NX10" s="122"/>
-      <c r="NY10" s="122"/>
-      <c r="NZ10" s="123"/>
-      <c r="OA10" s="121">
+      <c r="NU10" s="133"/>
+      <c r="NV10" s="133"/>
+      <c r="NW10" s="133"/>
+      <c r="NX10" s="133"/>
+      <c r="NY10" s="133"/>
+      <c r="NZ10" s="134"/>
+      <c r="OA10" s="132">
         <f t="shared" ref="OA10" si="79">WEEKNUM(OD13,21)</f>
         <v>40</v>
       </c>
-      <c r="OB10" s="122"/>
-      <c r="OC10" s="122"/>
-      <c r="OD10" s="122"/>
-      <c r="OE10" s="122"/>
-      <c r="OF10" s="122"/>
-      <c r="OG10" s="123"/>
-      <c r="OH10" s="121">
+      <c r="OB10" s="133"/>
+      <c r="OC10" s="133"/>
+      <c r="OD10" s="133"/>
+      <c r="OE10" s="133"/>
+      <c r="OF10" s="133"/>
+      <c r="OG10" s="134"/>
+      <c r="OH10" s="132">
         <f t="shared" ref="OH10" si="80">WEEKNUM(OK13,21)</f>
         <v>41</v>
       </c>
-      <c r="OI10" s="122"/>
-      <c r="OJ10" s="122"/>
-      <c r="OK10" s="122"/>
-      <c r="OL10" s="122"/>
-      <c r="OM10" s="122"/>
-      <c r="ON10" s="123"/>
-      <c r="OO10" s="121">
+      <c r="OI10" s="133"/>
+      <c r="OJ10" s="133"/>
+      <c r="OK10" s="133"/>
+      <c r="OL10" s="133"/>
+      <c r="OM10" s="133"/>
+      <c r="ON10" s="134"/>
+      <c r="OO10" s="132">
         <f t="shared" ref="OO10" si="81">WEEKNUM(OR13,21)</f>
         <v>42</v>
       </c>
-      <c r="OP10" s="122"/>
-      <c r="OQ10" s="122"/>
-      <c r="OR10" s="122"/>
-      <c r="OS10" s="122"/>
-      <c r="OT10" s="122"/>
-      <c r="OU10" s="123"/>
-      <c r="OV10" s="121">
+      <c r="OP10" s="133"/>
+      <c r="OQ10" s="133"/>
+      <c r="OR10" s="133"/>
+      <c r="OS10" s="133"/>
+      <c r="OT10" s="133"/>
+      <c r="OU10" s="134"/>
+      <c r="OV10" s="132">
         <f t="shared" ref="OV10" si="82">WEEKNUM(OY13,21)</f>
         <v>43</v>
       </c>
-      <c r="OW10" s="122"/>
-      <c r="OX10" s="122"/>
-      <c r="OY10" s="122"/>
-      <c r="OZ10" s="122"/>
-      <c r="PA10" s="122"/>
-      <c r="PB10" s="123"/>
+      <c r="OW10" s="133"/>
+      <c r="OX10" s="133"/>
+      <c r="OY10" s="133"/>
+      <c r="OZ10" s="133"/>
+      <c r="PA10" s="133"/>
+      <c r="PB10" s="134"/>
     </row>
     <row r="11" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="29"/>
@@ -5892,8 +5986,8 @@
       <c r="G11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
+      <c r="H11" s="135"/>
+      <c r="I11" s="135"/>
       <c r="J11" s="33"/>
       <c r="L11" s="28" t="s">
         <v>17</v>
@@ -7122,8 +7216,8 @@
       <c r="C12" s="30"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
       <c r="J12" s="38"/>
       <c r="L12" s="39" t="s">
         <v>2</v>
@@ -8754,8 +8848,8 @@
       </c>
     </row>
     <row r="13" spans="2:418" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="106" t="s">
-        <v>106</v>
+      <c r="B13" s="105" t="s">
+        <v>102</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -10410,7 +10504,7 @@
         <v>Endet nach [Tagen]</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>12</v>
@@ -10850,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="53">
-        <f t="shared" ref="G15:G107" si="97">IF(F15&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E15,1)=7,E15+2,IF(WEEKDAY(E15,1)=1,E15+1,E15)),F15-1),E15+F15-1),"")</f>
+        <f t="shared" ref="G15:G114" si="97">IF(F15&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E15,1)=7,E15+2,IF(WEEKDAY(E15,1)=1,E15+1,E15)),F15-1),E15+F15-1),"")</f>
         <v>42753</v>
       </c>
       <c r="H15" s="54">
@@ -11277,7 +11371,7 @@
     </row>
     <row r="16" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B16" s="49">
-        <f t="shared" ref="B16:B107" si="98">ROW()-15+1</f>
+        <f t="shared" ref="B16:B114" si="98">ROW()-15+1</f>
         <v>2</v>
       </c>
       <c r="C16" s="62"/>
@@ -11753,17 +11847,17 @@
         <f>SUM(L18:L24)</f>
         <v>12</v>
       </c>
-      <c r="M17" s="95"/>
-      <c r="N17" s="96"/>
-      <c r="O17" s="96"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
       <c r="X17" s="59"/>
       <c r="Y17" s="59"/>
       <c r="Z17" s="59"/>
@@ -14792,7 +14886,7 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="75">
         <v>43012</v>
@@ -15257,7 +15351,7 @@
       </c>
       <c r="L25" s="68">
         <f>SUM(L26:L38)</f>
-        <v>29.5</v>
+        <v>36.5</v>
       </c>
       <c r="M25" s="58"/>
       <c r="N25" s="59"/>
@@ -16112,7 +16206,7 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="75">
         <v>43007</v>
@@ -16550,7 +16644,7 @@
       </c>
       <c r="C28" s="73"/>
       <c r="D28" s="74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" s="75">
         <v>43005</v>
@@ -16988,7 +17082,7 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E29" s="75">
         <v>43006</v>
@@ -17447,7 +17541,7 @@
         <v>3</v>
       </c>
       <c r="L30" s="80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M30" s="58"/>
       <c r="N30" s="59"/>
@@ -17864,7 +17958,7 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="74" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" s="75">
         <v>43012</v>
@@ -18302,7 +18396,7 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" s="75">
         <v>43012</v>
@@ -18739,7 +18833,7 @@
       </c>
       <c r="C33" s="62"/>
       <c r="D33" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E33" s="64">
         <v>43012</v>
@@ -19181,7 +19275,7 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E34" s="75">
         <v>43013</v>
@@ -19619,7 +19713,7 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="74" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" s="75">
         <v>43013</v>
@@ -19640,7 +19734,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="80">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M35" s="58"/>
       <c r="N35" s="59"/>
@@ -20057,7 +20151,7 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" s="75">
         <v>43017</v>
@@ -20495,7 +20589,7 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="74" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E37" s="75">
         <v>43019</v>
@@ -20932,7 +21026,7 @@
       </c>
       <c r="C38" s="73"/>
       <c r="D38" s="74" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E38" s="75">
         <v>43021</v>
@@ -20953,7 +21047,7 @@
         <v>3</v>
       </c>
       <c r="L38" s="80">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M38" s="58"/>
       <c r="N38" s="59"/>
@@ -21369,7 +21463,7 @@
       </c>
       <c r="C39" s="62"/>
       <c r="D39" s="63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E39" s="64">
         <v>43019</v>
@@ -21416,7 +21510,7 @@
       <c r="AA39" s="59"/>
       <c r="AB39" s="59"/>
       <c r="AC39" s="59"/>
-      <c r="AD39" s="107"/>
+      <c r="AD39" s="106"/>
       <c r="AE39" s="72"/>
       <c r="AF39" s="72"/>
       <c r="AG39" s="72"/>
@@ -21813,7 +21907,7 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="74" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E40" s="75">
         <v>43019</v>
@@ -22249,8 +22343,8 @@
         <v>27</v>
       </c>
       <c r="C41" s="73"/>
-      <c r="D41" s="94" t="s">
-        <v>113</v>
+      <c r="D41" s="74" t="s">
+        <v>107</v>
       </c>
       <c r="E41" s="75">
         <v>43019</v>
@@ -22687,7 +22781,7 @@
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E42" s="64">
         <v>43024</v>
@@ -23127,29 +23221,29 @@
         <f t="shared" si="103"/>
         <v>29</v>
       </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="99" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="100">
+      <c r="C43" s="97"/>
+      <c r="D43" s="98" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="99">
         <v>43026</v>
       </c>
-      <c r="F43" s="98">
+      <c r="F43" s="97">
         <v>10</v>
       </c>
-      <c r="G43" s="101">
+      <c r="G43" s="100">
         <f t="shared" si="104"/>
         <v>43035</v>
       </c>
-      <c r="H43" s="102">
+      <c r="H43" s="101">
         <v>1</v>
       </c>
-      <c r="I43" s="103"/>
-      <c r="J43" s="103"/>
-      <c r="K43" s="104">
+      <c r="I43" s="102"/>
+      <c r="J43" s="102"/>
+      <c r="K43" s="103">
         <v>4</v>
       </c>
-      <c r="L43" s="105">
+      <c r="L43" s="104">
         <v>5</v>
       </c>
       <c r="M43" s="58"/>
@@ -23566,7 +23660,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E44" s="75">
         <v>43026</v>
@@ -24003,7 +24097,7 @@
       </c>
       <c r="C45" s="73"/>
       <c r="D45" s="74" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E45" s="75">
         <v>43035</v>
@@ -24440,7 +24534,7 @@
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E46" s="75">
         <v>43028</v>
@@ -24877,7 +24971,7 @@
       </c>
       <c r="C47" s="73"/>
       <c r="D47" s="74" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E47" s="75">
         <v>43031</v>
@@ -25314,7 +25408,7 @@
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E48" s="75">
         <v>43039</v>
@@ -25751,7 +25845,7 @@
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="75">
         <v>43035</v>
@@ -26186,7 +26280,7 @@
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="74" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E50" s="75">
         <v>43041</v>
@@ -27513,8 +27607,8 @@
         <v>43079</v>
       </c>
       <c r="H53" s="65">
-        <f>100*AVERAGE(H54:H64)%</f>
-        <v>0.25</v>
+        <f>100*AVERAGE(H54:H70)%</f>
+        <v>0.6142857142857141</v>
       </c>
       <c r="I53" s="66">
         <v>43072</v>
@@ -27524,8 +27618,8 @@
         <v>50</v>
       </c>
       <c r="L53" s="68">
-        <f>SUM(L54:L64)</f>
-        <v>13</v>
+        <f>SUM(L54:L70)</f>
+        <v>57.5</v>
       </c>
       <c r="M53" s="58"/>
       <c r="N53" s="59"/>
@@ -27941,25 +28035,25 @@
       </c>
       <c r="C54" s="73"/>
       <c r="D54" s="74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" s="75">
         <v>43044</v>
       </c>
       <c r="F54" s="73">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G54" s="76">
-        <f t="shared" ref="G54:G64" si="105">IF(F54&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E54,1)=7,E54+2,IF(WEEKDAY(E54,1)=1,E54+1,E54)),F54-1),E54+F54-1),"")</f>
-        <v>43048</v>
+        <f t="shared" ref="G54:G69" si="105">IF(F54&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E54,1)=7,E54+2,IF(WEEKDAY(E54,1)=1,E54+1,E54)),F54-1),E54+F54-1),"")</f>
+        <v>43051</v>
       </c>
       <c r="H54" s="77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I54" s="78"/>
       <c r="J54" s="78"/>
       <c r="K54" s="79"/>
-      <c r="L54" s="97">
+      <c r="L54" s="80">
         <v>2</v>
       </c>
       <c r="M54" s="58"/>
@@ -28376,7 +28470,7 @@
       </c>
       <c r="C55" s="73"/>
       <c r="D55" s="74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E55" s="75">
         <v>43041</v>
@@ -28396,7 +28490,7 @@
       <c r="K55" s="79">
         <v>5</v>
       </c>
-      <c r="L55" s="97">
+      <c r="L55" s="80">
         <v>5</v>
       </c>
       <c r="M55" s="58"/>
@@ -28813,7 +28907,7 @@
       </c>
       <c r="C56" s="73"/>
       <c r="D56" s="74" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E56" s="75">
         <v>43048</v>
@@ -28833,8 +28927,8 @@
       <c r="K56" s="79">
         <v>4</v>
       </c>
-      <c r="L56" s="97">
-        <v>3</v>
+      <c r="L56" s="80">
+        <v>4</v>
       </c>
       <c r="M56" s="58"/>
       <c r="N56" s="59"/>
@@ -29244,24 +29338,29 @@
       <c r="PB56" s="71"/>
     </row>
     <row r="57" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B57" s="149">
+      <c r="B57" s="108">
         <v>43</v>
       </c>
-      <c r="C57" s="150"/>
-      <c r="D57" s="151" t="s">
-        <v>114</v>
-      </c>
-      <c r="E57" s="152"/>
-      <c r="F57" s="150"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="154"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="156">
-        <v>10</v>
-      </c>
-      <c r="L57" s="157">
-        <v>3</v>
+      <c r="C57" s="109"/>
+      <c r="D57" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" s="111"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="107" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="H57" s="112">
+        <v>1</v>
+      </c>
+      <c r="I57" s="113"/>
+      <c r="J57" s="113"/>
+      <c r="K57" s="114">
+        <v>5</v>
+      </c>
+      <c r="L57" s="115">
+        <v>4</v>
       </c>
       <c r="M57" s="58"/>
       <c r="N57" s="59"/>
@@ -29677,18 +29776,25 @@
       </c>
       <c r="C58" s="73"/>
       <c r="D58" s="74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E58" s="75"/>
       <c r="F58" s="73"/>
-      <c r="G58" s="76"/>
+      <c r="G58" s="76" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
       <c r="H58" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" s="78"/>
       <c r="J58" s="78"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="97"/>
+      <c r="K58" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="L58" s="80">
+        <v>0.5</v>
+      </c>
       <c r="M58" s="58"/>
       <c r="N58" s="59"/>
       <c r="O58" s="59"/>
@@ -30103,18 +30209,25 @@
       </c>
       <c r="C59" s="73"/>
       <c r="D59" s="74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E59" s="75"/>
       <c r="F59" s="73"/>
-      <c r="G59" s="76"/>
+      <c r="G59" s="76" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
       <c r="H59" s="77">
         <v>0</v>
       </c>
       <c r="I59" s="78"/>
       <c r="J59" s="78"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="80"/>
+      <c r="K59" s="79">
+        <v>3</v>
+      </c>
+      <c r="L59" s="80">
+        <v>2</v>
+      </c>
       <c r="M59" s="58"/>
       <c r="N59" s="59"/>
       <c r="O59" s="59"/>
@@ -30523,24 +30636,31 @@
       <c r="PB59" s="71"/>
     </row>
     <row r="60" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B60" s="49">
+      <c r="B60" s="173">
         <f t="shared" si="98"/>
         <v>46</v>
       </c>
-      <c r="C60" s="73"/>
-      <c r="D60" s="74" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="75"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="77">
-        <v>0</v>
-      </c>
-      <c r="I60" s="78"/>
-      <c r="J60" s="78"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="80"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="117" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60" s="118"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="119" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="H60" s="120">
+        <v>0.2</v>
+      </c>
+      <c r="I60" s="121"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="122">
+        <v>4</v>
+      </c>
+      <c r="L60" s="96">
+        <v>10</v>
+      </c>
       <c r="M60" s="58"/>
       <c r="N60" s="59"/>
       <c r="O60" s="59"/>
@@ -30949,29 +31069,22 @@
       <c r="PB60" s="71"/>
     </row>
     <row r="61" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B61" s="49">
-        <f>ROW()-15+1</f>
+      <c r="B61" s="173">
+        <f t="shared" si="98"/>
         <v>47</v>
       </c>
       <c r="C61" s="73"/>
-      <c r="D61" s="74" t="s">
-        <v>104</v>
-      </c>
+      <c r="D61" s="74"/>
       <c r="E61" s="75"/>
       <c r="F61" s="73"/>
-      <c r="G61" s="76" t="str">
-        <f t="shared" si="105"/>
-        <v/>
-      </c>
-      <c r="H61" s="77">
-        <v>0</v>
-      </c>
+      <c r="G61" s="76"/>
+      <c r="H61" s="77"/>
       <c r="I61" s="78"/>
       <c r="J61" s="78"/>
       <c r="K61" s="79"/>
       <c r="L61" s="80"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="59"/>
+      <c r="M61" s="174"/>
+      <c r="N61" s="106"/>
       <c r="O61" s="59"/>
       <c r="P61" s="59"/>
       <c r="Q61" s="59"/>
@@ -31378,24 +31491,22 @@
       <c r="PB61" s="71"/>
     </row>
     <row r="62" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B62" s="49">
+      <c r="B62" s="173">
         <f t="shared" si="98"/>
         <v>48</v>
       </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="E62" s="75"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="77">
-        <v>0</v>
-      </c>
-      <c r="I62" s="78"/>
-      <c r="J62" s="78"/>
-      <c r="K62" s="79"/>
-      <c r="L62" s="80"/>
+      <c r="C62" s="116"/>
+      <c r="D62" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E62" s="118"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="119"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="121"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="96"/>
       <c r="M62" s="58"/>
       <c r="N62" s="59"/>
       <c r="O62" s="59"/>
@@ -31804,22 +31915,22 @@
       <c r="PB62" s="71"/>
     </row>
     <row r="63" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B63" s="49">
+      <c r="B63" s="173">
         <f t="shared" si="98"/>
         <v>49</v>
       </c>
       <c r="C63" s="73"/>
       <c r="D63" s="74" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E63" s="75"/>
       <c r="F63" s="73"/>
       <c r="G63" s="76" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="H63" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="78"/>
       <c r="J63" s="78"/>
@@ -32233,13 +32344,13 @@
       <c r="PB63" s="71"/>
     </row>
     <row r="64" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B64" s="49">
+      <c r="B64" s="173">
         <f t="shared" si="98"/>
         <v>50</v>
       </c>
       <c r="C64" s="73"/>
       <c r="D64" s="74" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="E64" s="75"/>
       <c r="F64" s="73"/>
@@ -32248,12 +32359,16 @@
         <v/>
       </c>
       <c r="H64" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="78"/>
       <c r="J64" s="78"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="80"/>
+      <c r="K64" s="79">
+        <v>2</v>
+      </c>
+      <c r="L64" s="80">
+        <v>2</v>
+      </c>
       <c r="M64" s="58"/>
       <c r="N64" s="59"/>
       <c r="O64" s="59"/>
@@ -32661,39 +32776,28 @@
       <c r="PA64" s="59"/>
       <c r="PB64" s="71"/>
     </row>
-    <row r="65" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B65" s="49">
+    <row r="65" spans="1:418" x14ac:dyDescent="0.4">
+      <c r="B65" s="173">
         <f t="shared" si="98"/>
         <v>51</v>
       </c>
-      <c r="C65" s="62"/>
-      <c r="D65" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="64">
-        <v>43073</v>
-      </c>
-      <c r="F65" s="62">
-        <v>16</v>
-      </c>
-      <c r="G65" s="53">
-        <f t="shared" si="97"/>
-        <v>43088</v>
-      </c>
-      <c r="H65" s="65">
-        <v>0</v>
-      </c>
-      <c r="I65" s="66">
-        <v>43089</v>
-      </c>
-      <c r="J65" s="66"/>
-      <c r="K65" s="67">
-        <v>20</v>
-      </c>
-      <c r="L65" s="68">
-        <f>SUM(L66:L70)</f>
-        <v>0</v>
-      </c>
+      <c r="C65" s="73"/>
+      <c r="D65" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="75"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="76" t="str">
+        <f t="shared" si="105"/>
+        <v/>
+      </c>
+      <c r="H65" s="77">
+        <v>1</v>
+      </c>
+      <c r="I65" s="78"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="79"/>
+      <c r="L65" s="80"/>
       <c r="M65" s="58"/>
       <c r="N65" s="59"/>
       <c r="O65" s="59"/>
@@ -33101,28 +33205,17 @@
       <c r="PA65" s="59"/>
       <c r="PB65" s="71"/>
     </row>
-    <row r="66" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B66" s="49">
+    <row r="66" spans="1:418" x14ac:dyDescent="0.4">
+      <c r="B66" s="173">
         <f t="shared" si="98"/>
         <v>52</v>
       </c>
       <c r="C66" s="73"/>
-      <c r="D66" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="E66" s="75">
-        <v>43073</v>
-      </c>
-      <c r="F66" s="73">
-        <v>10</v>
-      </c>
-      <c r="G66" s="76">
-        <f t="shared" ref="G66:G70" si="106">IF(F66&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E66,1)=7,E66+2,IF(WEEKDAY(E66,1)=1,E66+1,E66)),F66-1),E66+F66-1),"")</f>
-        <v>43082</v>
-      </c>
-      <c r="H66" s="77">
-        <v>0</v>
-      </c>
+      <c r="D66" s="74"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="77"/>
       <c r="I66" s="78"/>
       <c r="J66" s="78"/>
       <c r="K66" s="79"/>
@@ -33534,24 +33627,18 @@
       <c r="PA66" s="59"/>
       <c r="PB66" s="71"/>
     </row>
-    <row r="67" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B67" s="49">
+    <row r="67" spans="1:418" x14ac:dyDescent="0.4">
+      <c r="B67" s="173">
         <f t="shared" si="98"/>
         <v>53</v>
       </c>
       <c r="C67" s="73"/>
-      <c r="D67" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="E67" s="75">
-        <v>43073</v>
-      </c>
-      <c r="F67" s="73">
-        <v>10</v>
-      </c>
-      <c r="G67" s="76">
-        <f t="shared" si="106"/>
-        <v>43082</v>
+      <c r="D67" s="74"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="76" t="str">
+        <f t="shared" si="97"/>
+        <v/>
       </c>
       <c r="H67" s="77">
         <v>0</v>
@@ -33967,32 +34054,37 @@
       <c r="PA67" s="59"/>
       <c r="PB67" s="71"/>
     </row>
-    <row r="68" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B68" s="49">
+    <row r="68" spans="1:418" x14ac:dyDescent="0.4">
+      <c r="A68" s="131"/>
+      <c r="B68" s="173">
         <f t="shared" si="98"/>
         <v>54</v>
       </c>
-      <c r="C68" s="73"/>
-      <c r="D68" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="E68" s="75">
-        <v>43073</v>
-      </c>
-      <c r="F68" s="73">
-        <v>10</v>
-      </c>
-      <c r="G68" s="76">
-        <f t="shared" si="106"/>
-        <v>43082</v>
-      </c>
-      <c r="H68" s="77">
-        <v>0</v>
-      </c>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="80"/>
+      <c r="C68" s="116"/>
+      <c r="D68" s="117" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="118">
+        <v>43052</v>
+      </c>
+      <c r="F68" s="116">
+        <v>18</v>
+      </c>
+      <c r="G68" s="119">
+        <f t="shared" si="105"/>
+        <v>43069</v>
+      </c>
+      <c r="H68" s="120">
+        <v>0.2</v>
+      </c>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="122">
+        <v>15</v>
+      </c>
+      <c r="L68" s="96">
+        <v>27</v>
+      </c>
       <c r="M68" s="58"/>
       <c r="N68" s="59"/>
       <c r="O68" s="59"/>
@@ -34400,32 +34492,36 @@
       <c r="PA68" s="59"/>
       <c r="PB68" s="71"/>
     </row>
-    <row r="69" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B69" s="49">
+    <row r="69" spans="1:418" x14ac:dyDescent="0.4">
+      <c r="B69" s="173">
         <f t="shared" si="98"/>
         <v>55</v>
       </c>
       <c r="C69" s="73"/>
       <c r="D69" s="74" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="E69" s="75">
-        <v>43082</v>
+        <v>43069</v>
       </c>
       <c r="F69" s="73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G69" s="76">
-        <f t="shared" si="106"/>
-        <v>43083</v>
+        <f t="shared" si="105"/>
+        <v>43071</v>
       </c>
       <c r="H69" s="77">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I69" s="78"/>
       <c r="J69" s="78"/>
-      <c r="K69" s="79"/>
-      <c r="L69" s="80"/>
+      <c r="K69" s="79">
+        <v>2</v>
+      </c>
+      <c r="L69" s="80">
+        <v>1</v>
+      </c>
       <c r="M69" s="58"/>
       <c r="N69" s="59"/>
       <c r="O69" s="59"/>
@@ -34833,31 +34929,28 @@
       <c r="PA69" s="59"/>
       <c r="PB69" s="71"/>
     </row>
-    <row r="70" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B70" s="49">
-        <f t="shared" si="98"/>
-        <v>56</v>
+    <row r="70" spans="1:418" x14ac:dyDescent="0.4">
+      <c r="B70" s="173">
+        <v>49</v>
       </c>
       <c r="C70" s="73"/>
       <c r="D70" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="E70" s="75">
-        <v>43087</v>
-      </c>
-      <c r="F70" s="73">
-        <v>2</v>
-      </c>
-      <c r="G70" s="76">
-        <f t="shared" si="106"/>
-        <v>43088</v>
+        <v>83</v>
+      </c>
+      <c r="E70" s="75"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="76" t="str">
+        <f t="shared" si="97"/>
+        <v/>
       </c>
       <c r="H70" s="77">
         <v>0</v>
       </c>
       <c r="I70" s="78"/>
       <c r="J70" s="78"/>
-      <c r="K70" s="79"/>
+      <c r="K70" s="79">
+        <v>10</v>
+      </c>
       <c r="L70" s="80"/>
       <c r="M70" s="58"/>
       <c r="N70" s="59"/>
@@ -35266,39 +35359,38 @@
       <c r="PA70" s="59"/>
       <c r="PB70" s="71"/>
     </row>
-    <row r="71" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B71" s="49">
-        <f>ROW()-15+1</f>
+        <f t="shared" si="98"/>
         <v>57</v>
       </c>
       <c r="C71" s="62"/>
       <c r="D71" s="63" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E71" s="64">
-        <v>42998</v>
+        <v>43073</v>
       </c>
       <c r="F71" s="62">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="G71" s="53">
         <f t="shared" si="97"/>
-        <v>43091</v>
+        <v>43088</v>
       </c>
       <c r="H71" s="65">
-        <f>100*AVERAGE(H72:H90)%</f>
-        <v>0.4263157894736842</v>
+        <v>0</v>
       </c>
       <c r="I71" s="66">
-        <v>43091</v>
+        <v>43089</v>
       </c>
       <c r="J71" s="66"/>
       <c r="K71" s="67">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L71" s="68">
-        <f>SUM(L72:L90)</f>
-        <v>31.5</v>
+        <f>SUM(L72:L76)</f>
+        <v>0</v>
       </c>
       <c r="M71" s="58"/>
       <c r="N71" s="59"/>
@@ -35707,36 +35799,32 @@
       <c r="PA71" s="59"/>
       <c r="PB71" s="71"/>
     </row>
-    <row r="72" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B72" s="49">
         <f t="shared" si="98"/>
         <v>58</v>
       </c>
       <c r="C72" s="73"/>
       <c r="D72" s="74" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E72" s="75">
-        <v>43014</v>
+        <v>43073</v>
       </c>
       <c r="F72" s="73">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G72" s="76">
-        <f>IF(F72&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E72+2,IF(WEEKDAY(E72,1)=1,E72+1,E72)),F72-1),E72+F72-1),"")</f>
-        <v>43033</v>
+        <f t="shared" ref="G72:G76" si="106">IF(F72&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E72,1)=7,E72+2,IF(WEEKDAY(E72,1)=1,E72+1,E72)),F72-1),E72+F72-1),"")</f>
+        <v>43082</v>
       </c>
       <c r="H72" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" s="78"/>
       <c r="J72" s="78"/>
-      <c r="K72" s="79">
-        <v>8</v>
-      </c>
-      <c r="L72" s="80">
-        <v>6</v>
-      </c>
+      <c r="K72" s="79"/>
+      <c r="L72" s="80"/>
       <c r="M72" s="58"/>
       <c r="N72" s="59"/>
       <c r="O72" s="59"/>
@@ -36144,33 +36232,32 @@
       <c r="PA72" s="59"/>
       <c r="PB72" s="71"/>
     </row>
-    <row r="73" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B73" s="49">
         <f t="shared" si="98"/>
         <v>59</v>
       </c>
       <c r="C73" s="73"/>
       <c r="D73" s="74" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E73" s="75">
-        <v>43009</v>
+        <v>43073</v>
       </c>
       <c r="F73" s="73">
-        <v>1</v>
-      </c>
-      <c r="G73" s="76"/>
+        <v>10</v>
+      </c>
+      <c r="G73" s="76">
+        <f t="shared" si="106"/>
+        <v>43082</v>
+      </c>
       <c r="H73" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" s="78"/>
       <c r="J73" s="78"/>
-      <c r="K73" s="79">
-        <v>0.5</v>
-      </c>
-      <c r="L73" s="80">
-        <v>0.5</v>
-      </c>
+      <c r="K73" s="79"/>
+      <c r="L73" s="80"/>
       <c r="M73" s="58"/>
       <c r="N73" s="59"/>
       <c r="O73" s="59"/>
@@ -36578,36 +36665,32 @@
       <c r="PA73" s="59"/>
       <c r="PB73" s="71"/>
     </row>
-    <row r="74" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B74" s="49">
         <f t="shared" si="98"/>
         <v>60</v>
       </c>
       <c r="C74" s="73"/>
       <c r="D74" s="74" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E74" s="75">
-        <v>43014</v>
+        <v>43073</v>
       </c>
       <c r="F74" s="73">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G74" s="76">
-        <f>IF(F74&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E74+2,IF(WEEKDAY(E74,1)=1,E74+1,E74)),F74-1),E74+F74-1),"")</f>
-        <v>43019</v>
+        <f t="shared" si="106"/>
+        <v>43082</v>
       </c>
       <c r="H74" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="78"/>
       <c r="J74" s="78"/>
-      <c r="K74" s="79">
-        <v>1</v>
-      </c>
-      <c r="L74" s="80">
-        <v>1</v>
-      </c>
+      <c r="K74" s="79"/>
+      <c r="L74" s="80"/>
       <c r="M74" s="58"/>
       <c r="N74" s="59"/>
       <c r="O74" s="59"/>
@@ -37015,35 +37098,32 @@
       <c r="PA74" s="59"/>
       <c r="PB74" s="71"/>
     </row>
-    <row r="75" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B75" s="49">
         <f t="shared" si="98"/>
         <v>61</v>
       </c>
       <c r="C75" s="73"/>
       <c r="D75" s="74" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="E75" s="75">
-        <v>43019</v>
+        <v>43082</v>
       </c>
       <c r="F75" s="73">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G75" s="76">
-        <v>43027</v>
+        <f t="shared" si="106"/>
+        <v>43083</v>
       </c>
       <c r="H75" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="78"/>
       <c r="J75" s="78"/>
-      <c r="K75" s="79">
-        <v>1</v>
-      </c>
-      <c r="L75" s="80">
-        <v>1.5</v>
-      </c>
+      <c r="K75" s="79"/>
+      <c r="L75" s="80"/>
       <c r="M75" s="58"/>
       <c r="N75" s="59"/>
       <c r="O75" s="59"/>
@@ -37451,32 +37531,32 @@
       <c r="PA75" s="59"/>
       <c r="PB75" s="71"/>
     </row>
-    <row r="76" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B76" s="49">
         <f t="shared" si="98"/>
         <v>62</v>
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="E76" s="75"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="76" t="str">
-        <f>IF(F76&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E76+2,IF(WEEKDAY(E76,1)=1,E76+1,E76)),F76-1),E76+F76-1),"")</f>
-        <v/>
+        <v>57</v>
+      </c>
+      <c r="E76" s="75">
+        <v>43087</v>
+      </c>
+      <c r="F76" s="73">
+        <v>2</v>
+      </c>
+      <c r="G76" s="76">
+        <f t="shared" si="106"/>
+        <v>43088</v>
       </c>
       <c r="H76" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" s="78"/>
       <c r="J76" s="78"/>
-      <c r="K76" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="L76" s="80">
-        <v>1.5</v>
-      </c>
+      <c r="K76" s="79"/>
+      <c r="L76" s="80"/>
       <c r="M76" s="58"/>
       <c r="N76" s="59"/>
       <c r="O76" s="59"/>
@@ -37884,35 +37964,39 @@
       <c r="PA76" s="59"/>
       <c r="PB76" s="71"/>
     </row>
-    <row r="77" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B77" s="49">
-        <f t="shared" si="98"/>
+        <f>ROW()-15+1</f>
         <v>63</v>
       </c>
-      <c r="C77" s="73"/>
-      <c r="D77" s="74" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="75">
-        <v>43017</v>
-      </c>
-      <c r="F77" s="73">
-        <v>14</v>
-      </c>
-      <c r="G77" s="76">
-        <f>IF(F77&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E77+2,IF(WEEKDAY(E77,1)=1,E77+1,E77)),F77-1),E77+F77-1),"")</f>
-        <v>43030</v>
-      </c>
-      <c r="H77" s="77">
-        <v>1</v>
-      </c>
-      <c r="I77" s="78"/>
-      <c r="J77" s="78"/>
-      <c r="K77" s="79">
-        <v>6</v>
-      </c>
-      <c r="L77" s="80">
-        <v>9</v>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="64">
+        <v>42998</v>
+      </c>
+      <c r="F77" s="62">
+        <v>94</v>
+      </c>
+      <c r="G77" s="53">
+        <f t="shared" si="97"/>
+        <v>43091</v>
+      </c>
+      <c r="H77" s="65">
+        <f>100*AVERAGE(H78:H97)%</f>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="I77" s="66">
+        <v>43091</v>
+      </c>
+      <c r="J77" s="66"/>
+      <c r="K77" s="67">
+        <v>60</v>
+      </c>
+      <c r="L77" s="68">
+        <f>SUM(L78:L97)</f>
+        <v>49.5</v>
       </c>
       <c r="M77" s="58"/>
       <c r="N77" s="59"/>
@@ -38321,24 +38405,24 @@
       <c r="PA77" s="59"/>
       <c r="PB77" s="71"/>
     </row>
-    <row r="78" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B78" s="49">
         <f t="shared" si="98"/>
         <v>64</v>
       </c>
       <c r="C78" s="73"/>
       <c r="D78" s="74" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="E78" s="75">
-        <v>43036</v>
+        <v>43014</v>
       </c>
       <c r="F78" s="73">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G78" s="76">
         <f>IF(F78&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E78+2,IF(WEEKDAY(E78,1)=1,E78+1,E78)),F78-1),E78+F78-1),"")</f>
-        <v>43042</v>
+        <v>43033</v>
       </c>
       <c r="H78" s="77">
         <v>1</v>
@@ -38346,10 +38430,10 @@
       <c r="I78" s="78"/>
       <c r="J78" s="78"/>
       <c r="K78" s="79">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="L78" s="80">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M78" s="58"/>
       <c r="N78" s="59"/>
@@ -38758,35 +38842,32 @@
       <c r="PA78" s="59"/>
       <c r="PB78" s="71"/>
     </row>
-    <row r="79" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B79" s="49">
         <f t="shared" si="98"/>
         <v>65</v>
       </c>
       <c r="C79" s="73"/>
       <c r="D79" s="74" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E79" s="75">
-        <v>43038</v>
+        <v>43009</v>
       </c>
       <c r="F79" s="73">
-        <v>12</v>
-      </c>
-      <c r="G79" s="76">
-        <f>IF(F79&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E79+2,IF(WEEKDAY(E79,1)=1,E79+1,E79)),F79-1),E79+F79-1),"")</f>
-        <v>43049</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G79" s="76"/>
       <c r="H79" s="77">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I79" s="78"/>
       <c r="J79" s="78"/>
       <c r="K79" s="79">
-        <v>10</v>
-      </c>
-      <c r="L79" s="97">
-        <v>8</v>
+        <v>0.5</v>
+      </c>
+      <c r="L79" s="80">
+        <v>0.5</v>
       </c>
       <c r="M79" s="58"/>
       <c r="N79" s="59"/>
@@ -39195,35 +39276,35 @@
       <c r="PA79" s="59"/>
       <c r="PB79" s="71"/>
     </row>
-    <row r="80" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="49">
         <f t="shared" si="98"/>
         <v>66</v>
       </c>
       <c r="C80" s="73"/>
       <c r="D80" s="74" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="E80" s="75">
-        <v>43044</v>
+        <v>43014</v>
       </c>
       <c r="F80" s="73">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="G80" s="76">
         <f>IF(F80&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E80+2,IF(WEEKDAY(E80,1)=1,E80+1,E80)),F80-1),E80+F80-1),"")</f>
-        <v>43073</v>
+        <v>43019</v>
       </c>
       <c r="H80" s="77">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I80" s="78"/>
       <c r="J80" s="78"/>
       <c r="K80" s="79">
-        <v>20</v>
-      </c>
-      <c r="L80" s="97">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L80" s="80">
+        <v>1</v>
       </c>
       <c r="M80" s="58"/>
       <c r="N80" s="59"/>
@@ -39639,20 +39720,28 @@
       </c>
       <c r="C81" s="73"/>
       <c r="D81" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" s="75"/>
-      <c r="F81" s="73"/>
-      <c r="G81" s="76"/>
+        <v>63</v>
+      </c>
+      <c r="E81" s="75">
+        <v>43019</v>
+      </c>
+      <c r="F81" s="73">
+        <v>6</v>
+      </c>
+      <c r="G81" s="76">
+        <v>43027</v>
+      </c>
       <c r="H81" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="78"/>
       <c r="J81" s="78"/>
       <c r="K81" s="79">
-        <v>10</v>
-      </c>
-      <c r="L81" s="80"/>
+        <v>1</v>
+      </c>
+      <c r="L81" s="80">
+        <v>1.5</v>
+      </c>
       <c r="M81" s="58"/>
       <c r="N81" s="59"/>
       <c r="O81" s="59"/>
@@ -40067,20 +40156,25 @@
       </c>
       <c r="C82" s="73"/>
       <c r="D82" s="74" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="E82" s="75"/>
       <c r="F82" s="73"/>
-      <c r="G82" s="76"/>
+      <c r="G82" s="76" t="str">
+        <f>IF(F82&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E82+2,IF(WEEKDAY(E82,1)=1,E82+1,E82)),F82-1),E82+F82-1),"")</f>
+        <v/>
+      </c>
       <c r="H82" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="78"/>
       <c r="J82" s="78"/>
       <c r="K82" s="79">
-        <v>5</v>
-      </c>
-      <c r="L82" s="80"/>
+        <v>1.5</v>
+      </c>
+      <c r="L82" s="80">
+        <v>1.5</v>
+      </c>
       <c r="M82" s="58"/>
       <c r="N82" s="59"/>
       <c r="O82" s="59"/>
@@ -40495,23 +40589,29 @@
       </c>
       <c r="C83" s="73"/>
       <c r="D83" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="E83" s="75"/>
-      <c r="F83" s="73"/>
-      <c r="G83" s="76" t="str">
+        <v>91</v>
+      </c>
+      <c r="E83" s="75">
+        <v>43017</v>
+      </c>
+      <c r="F83" s="73">
+        <v>14</v>
+      </c>
+      <c r="G83" s="76">
         <f>IF(F83&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E83+2,IF(WEEKDAY(E83,1)=1,E83+1,E83)),F83-1),E83+F83-1),"")</f>
-        <v/>
+        <v>43030</v>
       </c>
       <c r="H83" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" s="78"/>
       <c r="J83" s="78"/>
       <c r="K83" s="79">
         <v>6</v>
       </c>
-      <c r="L83" s="80"/>
+      <c r="L83" s="80">
+        <v>9</v>
+      </c>
       <c r="M83" s="58"/>
       <c r="N83" s="59"/>
       <c r="O83" s="59"/>
@@ -40926,23 +41026,29 @@
       </c>
       <c r="C84" s="73"/>
       <c r="D84" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="E84" s="75"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="76" t="str">
+        <v>45</v>
+      </c>
+      <c r="E84" s="75">
+        <v>43036</v>
+      </c>
+      <c r="F84" s="73">
+        <v>7</v>
+      </c>
+      <c r="G84" s="76">
         <f>IF(F84&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E84+2,IF(WEEKDAY(E84,1)=1,E84+1,E84)),F84-1),E84+F84-1),"")</f>
-        <v/>
+        <v>43042</v>
       </c>
       <c r="H84" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" s="78"/>
       <c r="J84" s="78"/>
       <c r="K84" s="79">
-        <v>6</v>
-      </c>
-      <c r="L84" s="80"/>
+        <v>1.5</v>
+      </c>
+      <c r="L84" s="80">
+        <v>2</v>
+      </c>
       <c r="M84" s="58"/>
       <c r="N84" s="59"/>
       <c r="O84" s="59"/>
@@ -41357,23 +41463,29 @@
       </c>
       <c r="C85" s="73"/>
       <c r="D85" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="E85" s="75"/>
-      <c r="F85" s="73"/>
-      <c r="G85" s="76" t="str">
+        <v>92</v>
+      </c>
+      <c r="E85" s="75">
+        <v>43038</v>
+      </c>
+      <c r="F85" s="73">
+        <v>12</v>
+      </c>
+      <c r="G85" s="76">
         <f>IF(F85&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E85+2,IF(WEEKDAY(E85,1)=1,E85+1,E85)),F85-1),E85+F85-1),"")</f>
-        <v/>
+        <v>43049</v>
       </c>
       <c r="H85" s="77">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I85" s="78"/>
       <c r="J85" s="78"/>
       <c r="K85" s="79">
-        <v>2</v>
-      </c>
-      <c r="L85" s="80"/>
+        <v>10</v>
+      </c>
+      <c r="L85" s="80">
+        <v>12</v>
+      </c>
       <c r="M85" s="58"/>
       <c r="N85" s="59"/>
       <c r="O85" s="59"/>
@@ -41782,29 +41894,32 @@
       <c r="PB85" s="71"/>
     </row>
     <row r="86" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B86" s="49">
-        <f t="shared" si="98"/>
-        <v>72</v>
-      </c>
-      <c r="C86" s="73"/>
-      <c r="D86" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="E86" s="75"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="76" t="str">
+      <c r="B86" s="49"/>
+      <c r="C86" s="123"/>
+      <c r="D86" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="125">
+        <v>43050</v>
+      </c>
+      <c r="F86" s="123">
+        <v>10</v>
+      </c>
+      <c r="G86" s="126">
         <f>IF(F86&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E86+2,IF(WEEKDAY(E86,1)=1,E86+1,E86)),F86-1),E86+F86-1),"")</f>
-        <v/>
-      </c>
-      <c r="H86" s="77">
-        <v>0</v>
-      </c>
-      <c r="I86" s="78"/>
-      <c r="J86" s="78"/>
-      <c r="K86" s="79">
+        <v>43059</v>
+      </c>
+      <c r="H86" s="127">
         <v>1</v>
       </c>
-      <c r="L86" s="80"/>
+      <c r="I86" s="128"/>
+      <c r="J86" s="128"/>
+      <c r="K86" s="129">
+        <v>3</v>
+      </c>
+      <c r="L86" s="130">
+        <v>6</v>
+      </c>
       <c r="M86" s="58"/>
       <c r="N86" s="59"/>
       <c r="O86" s="59"/>
@@ -42219,23 +42334,29 @@
       </c>
       <c r="C87" s="73"/>
       <c r="D87" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="E87" s="75"/>
-      <c r="F87" s="73"/>
-      <c r="G87" s="76" t="str">
+        <v>93</v>
+      </c>
+      <c r="E87" s="75">
+        <v>43044</v>
+      </c>
+      <c r="F87" s="73">
+        <v>30</v>
+      </c>
+      <c r="G87" s="76">
         <f>IF(F87&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E87+2,IF(WEEKDAY(E87,1)=1,E87+1,E87)),F87-1),E87+F87-1),"")</f>
-        <v/>
+        <v>43073</v>
       </c>
       <c r="H87" s="77">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I87" s="78"/>
       <c r="J87" s="78"/>
       <c r="K87" s="79">
-        <v>2</v>
-      </c>
-      <c r="L87" s="80"/>
+        <v>20</v>
+      </c>
+      <c r="L87" s="80">
+        <v>10</v>
+      </c>
       <c r="M87" s="58"/>
       <c r="N87" s="59"/>
       <c r="O87" s="59"/>
@@ -42650,21 +42771,18 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="74" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="E88" s="75"/>
       <c r="F88" s="73"/>
-      <c r="G88" s="76" t="str">
-        <f>IF(F88&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E88+2,IF(WEEKDAY(E88,1)=1,E88+1,E88)),F88-1),E88+F88-1),"")</f>
-        <v/>
-      </c>
+      <c r="G88" s="76"/>
       <c r="H88" s="77">
         <v>0</v>
       </c>
       <c r="I88" s="78"/>
       <c r="J88" s="78"/>
       <c r="K88" s="79">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L88" s="80"/>
       <c r="M88" s="58"/>
@@ -43081,21 +43199,18 @@
       </c>
       <c r="C89" s="73"/>
       <c r="D89" s="74" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E89" s="75"/>
       <c r="F89" s="73"/>
-      <c r="G89" s="76" t="str">
-        <f>IF(F89&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E89+2,IF(WEEKDAY(E89,1)=1,E89+1,E89)),F89-1),E89+F89-1),"")</f>
-        <v/>
-      </c>
+      <c r="G89" s="76"/>
       <c r="H89" s="77">
         <v>0</v>
       </c>
       <c r="I89" s="78"/>
       <c r="J89" s="78"/>
       <c r="K89" s="79">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L89" s="80"/>
       <c r="M89" s="58"/>
@@ -43512,7 +43627,7 @@
       </c>
       <c r="C90" s="73"/>
       <c r="D90" s="74" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E90" s="75"/>
       <c r="F90" s="73"/>
@@ -43526,7 +43641,7 @@
       <c r="I90" s="78"/>
       <c r="J90" s="78"/>
       <c r="K90" s="79">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L90" s="80"/>
       <c r="M90" s="58"/>
@@ -43941,31 +44056,25 @@
         <f t="shared" si="98"/>
         <v>77</v>
       </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="63" t="s">
-        <v>109</v>
-      </c>
-      <c r="E91" s="64">
-        <v>43109</v>
-      </c>
-      <c r="F91" s="62">
-        <v>1</v>
-      </c>
-      <c r="G91" s="53">
-        <f t="shared" ref="G91:G94" si="107">IF(F91&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E91,1)=7,E91+2,IF(WEEKDAY(E91,1)=1,E91+1,E91)),F91-1),E91+F91-1),"")</f>
-        <v>43109</v>
-      </c>
-      <c r="H91" s="65">
+      <c r="C91" s="73"/>
+      <c r="D91" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="75"/>
+      <c r="F91" s="73"/>
+      <c r="G91" s="76" t="str">
+        <f>IF(F91&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E91+2,IF(WEEKDAY(E91,1)=1,E91+1,E91)),F91-1),E91+F91-1),"")</f>
+        <v/>
+      </c>
+      <c r="H91" s="77">
         <v>0</v>
       </c>
-      <c r="I91" s="66">
-        <v>43109</v>
-      </c>
-      <c r="J91" s="66"/>
-      <c r="K91" s="67">
-        <v>10</v>
-      </c>
-      <c r="L91" s="68"/>
+      <c r="I91" s="78"/>
+      <c r="J91" s="78"/>
+      <c r="K91" s="79">
+        <v>6</v>
+      </c>
+      <c r="L91" s="80"/>
       <c r="M91" s="58"/>
       <c r="N91" s="59"/>
       <c r="O91" s="59"/>
@@ -44375,21 +44484,18 @@
     </row>
     <row r="92" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B92" s="49">
-        <v>75</v>
+        <f t="shared" si="98"/>
+        <v>78</v>
       </c>
       <c r="C92" s="73"/>
       <c r="D92" s="74" t="s">
-        <v>76</v>
-      </c>
-      <c r="E92" s="75">
-        <v>43101</v>
-      </c>
-      <c r="F92" s="73">
-        <v>9</v>
-      </c>
-      <c r="G92" s="76">
-        <f t="shared" si="107"/>
-        <v>43109</v>
+        <v>78</v>
+      </c>
+      <c r="E92" s="75"/>
+      <c r="F92" s="73"/>
+      <c r="G92" s="76" t="str">
+        <f>IF(F92&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E92+2,IF(WEEKDAY(E92,1)=1,E92+1,E92)),F92-1),E92+F92-1),"")</f>
+        <v/>
       </c>
       <c r="H92" s="77">
         <v>0</v>
@@ -44397,7 +44503,7 @@
       <c r="I92" s="78"/>
       <c r="J92" s="78"/>
       <c r="K92" s="79">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L92" s="80"/>
       <c r="M92" s="58"/>
@@ -44809,21 +44915,18 @@
     </row>
     <row r="93" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B93" s="49">
-        <v>76</v>
+        <f t="shared" si="98"/>
+        <v>79</v>
       </c>
       <c r="C93" s="73"/>
       <c r="D93" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" s="75">
-        <v>43104</v>
-      </c>
-      <c r="F93" s="73">
-        <v>5</v>
-      </c>
-      <c r="G93" s="76">
-        <f t="shared" si="107"/>
-        <v>43108</v>
+        <v>81</v>
+      </c>
+      <c r="E93" s="75"/>
+      <c r="F93" s="73"/>
+      <c r="G93" s="76" t="str">
+        <f>IF(F93&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E93+2,IF(WEEKDAY(E93,1)=1,E93+1,E93)),F93-1),E93+F93-1),"")</f>
+        <v/>
       </c>
       <c r="H93" s="77">
         <v>0</v>
@@ -44831,7 +44934,7 @@
       <c r="I93" s="78"/>
       <c r="J93" s="78"/>
       <c r="K93" s="79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L93" s="80"/>
       <c r="M93" s="58"/>
@@ -45246,31 +45349,25 @@
         <f t="shared" si="98"/>
         <v>80</v>
       </c>
-      <c r="C94" s="62"/>
-      <c r="D94" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="E94" s="64">
-        <v>43130</v>
-      </c>
-      <c r="F94" s="62">
-        <v>1</v>
-      </c>
-      <c r="G94" s="53">
-        <f t="shared" si="107"/>
-        <v>43130</v>
-      </c>
-      <c r="H94" s="65">
-        <v>0</v>
-      </c>
-      <c r="I94" s="66">
-        <v>43130</v>
-      </c>
-      <c r="J94" s="66"/>
-      <c r="K94" s="67">
-        <v>6</v>
-      </c>
-      <c r="L94" s="68"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E94" s="75"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="76" t="str">
+        <f>IF(F94&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E94+2,IF(WEEKDAY(E94,1)=1,E94+1,E94)),F94-1),E94+F94-1),"")</f>
+        <v/>
+      </c>
+      <c r="H94" s="77">
+        <v>0.5</v>
+      </c>
+      <c r="I94" s="78"/>
+      <c r="J94" s="78"/>
+      <c r="K94" s="79">
+        <v>2</v>
+      </c>
+      <c r="L94" s="80"/>
       <c r="M94" s="58"/>
       <c r="N94" s="59"/>
       <c r="O94" s="59"/>
@@ -45685,17 +45782,13 @@
       </c>
       <c r="C95" s="73"/>
       <c r="D95" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="E95" s="75">
-        <v>43120</v>
-      </c>
-      <c r="F95" s="73">
-        <v>8</v>
-      </c>
-      <c r="G95" s="76">
-        <f t="shared" ref="G95:G96" si="108">IF(F95&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E95,1)=7,E95+2,IF(WEEKDAY(E95,1)=1,E95+1,E95)),F95-1),E95+F95-1),"")</f>
-        <v>43127</v>
+        <v>50</v>
+      </c>
+      <c r="E95" s="75"/>
+      <c r="F95" s="73"/>
+      <c r="G95" s="76" t="str">
+        <f>IF(F95&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E95+2,IF(WEEKDAY(E95,1)=1,E95+1,E95)),F95-1),E95+F95-1),"")</f>
+        <v/>
       </c>
       <c r="H95" s="77">
         <v>0</v>
@@ -46118,29 +46211,25 @@
         <f t="shared" si="98"/>
         <v>82</v>
       </c>
-      <c r="C96" s="82"/>
-      <c r="D96" s="83" t="s">
-        <v>67</v>
-      </c>
-      <c r="E96" s="84">
-        <v>43128</v>
-      </c>
-      <c r="F96" s="82">
-        <v>1</v>
-      </c>
-      <c r="G96" s="76">
-        <f t="shared" si="108"/>
-        <v>43128</v>
-      </c>
-      <c r="H96" s="86">
+      <c r="C96" s="73"/>
+      <c r="D96" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="75"/>
+      <c r="F96" s="73"/>
+      <c r="G96" s="76" t="str">
+        <f>IF(F96&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E96+2,IF(WEEKDAY(E96,1)=1,E96+1,E96)),F96-1),E96+F96-1),"")</f>
+        <v/>
+      </c>
+      <c r="H96" s="77">
         <v>0</v>
       </c>
-      <c r="I96" s="87"/>
-      <c r="J96" s="87"/>
-      <c r="K96" s="88">
-        <v>1</v>
-      </c>
-      <c r="L96" s="89"/>
+      <c r="I96" s="78"/>
+      <c r="J96" s="78"/>
+      <c r="K96" s="79">
+        <v>0.5</v>
+      </c>
+      <c r="L96" s="80"/>
       <c r="M96" s="58"/>
       <c r="N96" s="59"/>
       <c r="O96" s="59"/>
@@ -46554,14 +46643,23 @@
         <v>83</v>
       </c>
       <c r="C97" s="73"/>
-      <c r="D97" s="74"/>
+      <c r="D97" s="74" t="s">
+        <v>48</v>
+      </c>
       <c r="E97" s="75"/>
       <c r="F97" s="73"/>
-      <c r="G97" s="76"/>
-      <c r="H97" s="77"/>
+      <c r="G97" s="76" t="str">
+        <f>IF(F97&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E97+2,IF(WEEKDAY(E97,1)=1,E97+1,E97)),F97-1),E97+F97-1),"")</f>
+        <v/>
+      </c>
+      <c r="H97" s="77">
+        <v>0</v>
+      </c>
       <c r="I97" s="78"/>
       <c r="J97" s="78"/>
-      <c r="K97" s="79"/>
+      <c r="K97" s="79">
+        <v>1</v>
+      </c>
       <c r="L97" s="80"/>
       <c r="M97" s="58"/>
       <c r="N97" s="59"/>
@@ -46975,16 +47073,31 @@
         <f t="shared" si="98"/>
         <v>84</v>
       </c>
-      <c r="C98" s="82"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="86"/>
-      <c r="I98" s="87"/>
-      <c r="J98" s="87"/>
-      <c r="K98" s="88"/>
-      <c r="L98" s="89"/>
+      <c r="C98" s="62"/>
+      <c r="D98" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98" s="64">
+        <v>43109</v>
+      </c>
+      <c r="F98" s="62">
+        <v>1</v>
+      </c>
+      <c r="G98" s="53">
+        <f t="shared" ref="G98:G101" si="107">IF(F98&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E98,1)=7,E98+2,IF(WEEKDAY(E98,1)=1,E98+1,E98)),F98-1),E98+F98-1),"")</f>
+        <v>43109</v>
+      </c>
+      <c r="H98" s="65">
+        <v>0</v>
+      </c>
+      <c r="I98" s="66">
+        <v>43109</v>
+      </c>
+      <c r="J98" s="66"/>
+      <c r="K98" s="67">
+        <v>10</v>
+      </c>
+      <c r="L98" s="68"/>
       <c r="M98" s="58"/>
       <c r="N98" s="59"/>
       <c r="O98" s="59"/>
@@ -47394,19 +47507,31 @@
     </row>
     <row r="99" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B99" s="49">
-        <f t="shared" si="98"/>
-        <v>85</v>
-      </c>
-      <c r="C99" s="82"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="86"/>
-      <c r="I99" s="87"/>
-      <c r="J99" s="87"/>
-      <c r="K99" s="88"/>
-      <c r="L99" s="89"/>
+        <v>75</v>
+      </c>
+      <c r="C99" s="73"/>
+      <c r="D99" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E99" s="75">
+        <v>43101</v>
+      </c>
+      <c r="F99" s="73">
+        <v>9</v>
+      </c>
+      <c r="G99" s="76">
+        <f t="shared" si="107"/>
+        <v>43109</v>
+      </c>
+      <c r="H99" s="77">
+        <v>0</v>
+      </c>
+      <c r="I99" s="78"/>
+      <c r="J99" s="78"/>
+      <c r="K99" s="79">
+        <v>8</v>
+      </c>
+      <c r="L99" s="80"/>
       <c r="M99" s="58"/>
       <c r="N99" s="59"/>
       <c r="O99" s="59"/>
@@ -47816,19 +47941,31 @@
     </row>
     <row r="100" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B100" s="49">
-        <f t="shared" si="98"/>
-        <v>86</v>
-      </c>
-      <c r="C100" s="82"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="86"/>
-      <c r="I100" s="87"/>
-      <c r="J100" s="87"/>
-      <c r="K100" s="88"/>
-      <c r="L100" s="89"/>
+        <v>76</v>
+      </c>
+      <c r="C100" s="73"/>
+      <c r="D100" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="E100" s="75">
+        <v>43104</v>
+      </c>
+      <c r="F100" s="73">
+        <v>5</v>
+      </c>
+      <c r="G100" s="76">
+        <f t="shared" si="107"/>
+        <v>43108</v>
+      </c>
+      <c r="H100" s="77">
+        <v>0</v>
+      </c>
+      <c r="I100" s="78"/>
+      <c r="J100" s="78"/>
+      <c r="K100" s="79">
+        <v>2</v>
+      </c>
+      <c r="L100" s="80"/>
       <c r="M100" s="58"/>
       <c r="N100" s="59"/>
       <c r="O100" s="59"/>
@@ -48241,16 +48378,31 @@
         <f t="shared" si="98"/>
         <v>87</v>
       </c>
-      <c r="C101" s="82"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="84"/>
-      <c r="F101" s="82"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="86"/>
-      <c r="I101" s="87"/>
-      <c r="J101" s="87"/>
-      <c r="K101" s="88"/>
-      <c r="L101" s="89"/>
+      <c r="C101" s="62"/>
+      <c r="D101" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="E101" s="64">
+        <v>43130</v>
+      </c>
+      <c r="F101" s="62">
+        <v>1</v>
+      </c>
+      <c r="G101" s="53">
+        <f t="shared" si="107"/>
+        <v>43130</v>
+      </c>
+      <c r="H101" s="65">
+        <v>0</v>
+      </c>
+      <c r="I101" s="66">
+        <v>43130</v>
+      </c>
+      <c r="J101" s="66"/>
+      <c r="K101" s="67">
+        <v>6</v>
+      </c>
+      <c r="L101" s="68"/>
       <c r="M101" s="58"/>
       <c r="N101" s="59"/>
       <c r="O101" s="59"/>
@@ -48663,16 +48815,29 @@
         <f t="shared" si="98"/>
         <v>88</v>
       </c>
-      <c r="C102" s="82"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="84"/>
-      <c r="F102" s="82"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="86"/>
-      <c r="I102" s="87"/>
-      <c r="J102" s="87"/>
-      <c r="K102" s="88"/>
-      <c r="L102" s="89"/>
+      <c r="C102" s="73"/>
+      <c r="D102" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E102" s="75">
+        <v>43120</v>
+      </c>
+      <c r="F102" s="73">
+        <v>8</v>
+      </c>
+      <c r="G102" s="76">
+        <f t="shared" ref="G102:G103" si="108">IF(F102&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E102,1)=7,E102+2,IF(WEEKDAY(E102,1)=1,E102+1,E102)),F102-1),E102+F102-1),"")</f>
+        <v>43127</v>
+      </c>
+      <c r="H102" s="77">
+        <v>0</v>
+      </c>
+      <c r="I102" s="78"/>
+      <c r="J102" s="78"/>
+      <c r="K102" s="79">
+        <v>5</v>
+      </c>
+      <c r="L102" s="80"/>
       <c r="M102" s="58"/>
       <c r="N102" s="59"/>
       <c r="O102" s="59"/>
@@ -49086,14 +49251,27 @@
         <v>89</v>
       </c>
       <c r="C103" s="82"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="82"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="86"/>
+      <c r="D103" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" s="84">
+        <v>43128</v>
+      </c>
+      <c r="F103" s="82">
+        <v>1</v>
+      </c>
+      <c r="G103" s="76">
+        <f t="shared" si="108"/>
+        <v>43128</v>
+      </c>
+      <c r="H103" s="86">
+        <v>0</v>
+      </c>
       <c r="I103" s="87"/>
       <c r="J103" s="87"/>
-      <c r="K103" s="88"/>
+      <c r="K103" s="88">
+        <v>1</v>
+      </c>
       <c r="L103" s="89"/>
       <c r="M103" s="58"/>
       <c r="N103" s="59"/>
@@ -49507,16 +49685,16 @@
         <f t="shared" si="98"/>
         <v>90</v>
       </c>
-      <c r="C104" s="82"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="84"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="86"/>
-      <c r="I104" s="87"/>
-      <c r="J104" s="87"/>
-      <c r="K104" s="88"/>
-      <c r="L104" s="89"/>
+      <c r="C104" s="73"/>
+      <c r="D104" s="74"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="73"/>
+      <c r="G104" s="76"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="78"/>
+      <c r="J104" s="78"/>
+      <c r="K104" s="79"/>
+      <c r="L104" s="80"/>
       <c r="M104" s="58"/>
       <c r="N104" s="59"/>
       <c r="O104" s="59"/>
@@ -50777,10 +50955,7 @@
       <c r="D107" s="83"/>
       <c r="E107" s="84"/>
       <c r="F107" s="82"/>
-      <c r="G107" s="85" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
+      <c r="G107" s="85"/>
       <c r="H107" s="86"/>
       <c r="I107" s="87"/>
       <c r="J107" s="87"/>
@@ -51194,265 +51369,3289 @@
       <c r="PB107" s="71"/>
     </row>
     <row r="108" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="M108" s="90"/>
-      <c r="N108" s="90"/>
-      <c r="O108" s="90"/>
-      <c r="P108" s="91"/>
-      <c r="Q108" s="91"/>
-      <c r="R108" s="91"/>
-      <c r="S108" s="91"/>
-      <c r="T108" s="91"/>
-      <c r="U108" s="91"/>
-      <c r="V108" s="91"/>
-      <c r="W108" s="91"/>
-      <c r="X108" s="91"/>
-      <c r="Y108" s="91"/>
-      <c r="Z108" s="91"/>
-      <c r="AA108" s="91"/>
-      <c r="AB108" s="91"/>
-      <c r="AC108" s="91"/>
-      <c r="AD108" s="91"/>
-      <c r="AE108" s="91"/>
-      <c r="AF108" s="91"/>
-      <c r="AG108" s="91"/>
-      <c r="AH108" s="91"/>
-      <c r="AI108" s="91"/>
-      <c r="AJ108" s="91"/>
-      <c r="AK108" s="91"/>
-      <c r="AL108" s="91"/>
-      <c r="AM108" s="91"/>
-      <c r="AN108" s="91"/>
-      <c r="AO108" s="91"/>
-      <c r="AP108" s="91"/>
-      <c r="AQ108" s="91"/>
-      <c r="AR108" s="91"/>
-      <c r="AS108" s="91"/>
-      <c r="AT108" s="91"/>
-      <c r="AU108" s="91"/>
-      <c r="AV108" s="91"/>
-      <c r="AW108" s="91"/>
-      <c r="AX108" s="91"/>
-      <c r="AY108" s="91"/>
-      <c r="AZ108" s="91"/>
-      <c r="BA108" s="91"/>
-      <c r="BB108" s="91"/>
-      <c r="BC108" s="91"/>
-      <c r="BD108" s="91"/>
-      <c r="BE108" s="91"/>
-      <c r="BF108" s="91"/>
-      <c r="BG108" s="91"/>
-      <c r="BH108" s="91"/>
-      <c r="BI108" s="91"/>
-      <c r="BJ108" s="91"/>
-      <c r="BK108" s="91"/>
-      <c r="BL108" s="91"/>
-      <c r="BM108" s="91"/>
-      <c r="BN108" s="91"/>
-      <c r="BO108" s="91"/>
-      <c r="BP108" s="91"/>
-      <c r="BQ108" s="91"/>
-      <c r="BR108" s="91"/>
-      <c r="BS108" s="91"/>
-      <c r="BT108" s="91"/>
-      <c r="BU108" s="91"/>
-      <c r="BV108" s="91"/>
-      <c r="BW108" s="91"/>
-      <c r="BX108" s="91"/>
-      <c r="BY108" s="91"/>
-      <c r="BZ108" s="91"/>
-      <c r="CA108" s="91"/>
-      <c r="CB108" s="91"/>
-      <c r="CC108" s="91"/>
-      <c r="CD108" s="91"/>
-      <c r="CE108" s="91"/>
-      <c r="CF108" s="91"/>
-      <c r="CG108" s="91"/>
-      <c r="CH108" s="91"/>
-      <c r="CI108" s="91"/>
-      <c r="CJ108" s="91"/>
-      <c r="CK108" s="91"/>
-      <c r="CL108" s="91"/>
-      <c r="CM108" s="91"/>
-      <c r="CN108" s="91"/>
-      <c r="CO108" s="91"/>
-      <c r="CP108" s="91"/>
-      <c r="CQ108" s="91"/>
-      <c r="CR108" s="91"/>
-      <c r="CS108" s="91"/>
-      <c r="CT108" s="91"/>
-      <c r="CU108" s="91"/>
-      <c r="CV108" s="91"/>
-      <c r="CW108" s="91"/>
-      <c r="CX108" s="91"/>
-      <c r="CY108" s="91"/>
-      <c r="CZ108" s="91"/>
-      <c r="DA108" s="91"/>
-      <c r="DB108" s="91"/>
-      <c r="DC108" s="91"/>
-      <c r="DD108" s="91"/>
-      <c r="DE108" s="91"/>
-      <c r="DF108" s="91"/>
-      <c r="DG108" s="91"/>
-      <c r="DH108" s="91"/>
-      <c r="DI108" s="91"/>
-      <c r="DJ108" s="91"/>
-      <c r="DK108" s="91"/>
-      <c r="DL108" s="91"/>
-      <c r="DM108" s="91"/>
-      <c r="DN108" s="91"/>
-      <c r="DO108" s="91"/>
-      <c r="DP108" s="91"/>
-      <c r="DQ108" s="91"/>
-      <c r="DR108" s="91"/>
-      <c r="DS108" s="91"/>
-      <c r="DT108" s="91"/>
-      <c r="DU108" s="91"/>
-      <c r="DV108" s="91"/>
-      <c r="DW108" s="91"/>
-      <c r="DX108" s="91"/>
+      <c r="B108" s="49">
+        <f t="shared" si="98"/>
+        <v>94</v>
+      </c>
+      <c r="C108" s="82"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="84"/>
+      <c r="F108" s="82"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="86"/>
+      <c r="I108" s="87"/>
+      <c r="J108" s="87"/>
+      <c r="K108" s="88"/>
+      <c r="L108" s="89"/>
+      <c r="M108" s="58"/>
+      <c r="N108" s="59"/>
+      <c r="O108" s="59"/>
+      <c r="P108" s="59"/>
+      <c r="Q108" s="59"/>
+      <c r="R108" s="59"/>
+      <c r="S108" s="59"/>
+      <c r="T108" s="59"/>
+      <c r="U108" s="59"/>
+      <c r="V108" s="59"/>
+      <c r="W108" s="59"/>
+      <c r="X108" s="59"/>
+      <c r="Y108" s="59"/>
+      <c r="Z108" s="59"/>
+      <c r="AA108" s="59"/>
+      <c r="AB108" s="59"/>
+      <c r="AC108" s="59"/>
+      <c r="AD108" s="59"/>
+      <c r="AE108" s="59"/>
+      <c r="AF108" s="59"/>
+      <c r="AG108" s="59"/>
+      <c r="AH108" s="59"/>
+      <c r="AI108" s="59"/>
+      <c r="AJ108" s="59"/>
+      <c r="AK108" s="59"/>
+      <c r="AL108" s="59"/>
+      <c r="AM108" s="59"/>
+      <c r="AN108" s="59"/>
+      <c r="AO108" s="59"/>
+      <c r="AP108" s="59"/>
+      <c r="AQ108" s="59"/>
+      <c r="AR108" s="59"/>
+      <c r="AS108" s="59"/>
+      <c r="AT108" s="59"/>
+      <c r="AU108" s="59"/>
+      <c r="AV108" s="59"/>
+      <c r="AW108" s="59"/>
+      <c r="AX108" s="59"/>
+      <c r="AY108" s="59"/>
+      <c r="AZ108" s="59"/>
+      <c r="BA108" s="59"/>
+      <c r="BB108" s="59"/>
+      <c r="BC108" s="59"/>
+      <c r="BD108" s="59"/>
+      <c r="BE108" s="59"/>
+      <c r="BF108" s="59"/>
+      <c r="BG108" s="59"/>
+      <c r="BH108" s="59"/>
+      <c r="BI108" s="59"/>
+      <c r="BJ108" s="59"/>
+      <c r="BK108" s="59"/>
+      <c r="BL108" s="59"/>
+      <c r="BM108" s="59"/>
+      <c r="BN108" s="59"/>
+      <c r="BO108" s="59"/>
+      <c r="BP108" s="59"/>
+      <c r="BQ108" s="59"/>
+      <c r="BR108" s="59"/>
+      <c r="BS108" s="59"/>
+      <c r="BT108" s="59"/>
+      <c r="BU108" s="59"/>
+      <c r="BV108" s="59"/>
+      <c r="BW108" s="59"/>
+      <c r="BX108" s="59"/>
+      <c r="BY108" s="59"/>
+      <c r="BZ108" s="59"/>
+      <c r="CA108" s="59"/>
+      <c r="CB108" s="59"/>
+      <c r="CC108" s="59"/>
+      <c r="CD108" s="59"/>
+      <c r="CE108" s="59"/>
+      <c r="CF108" s="59"/>
+      <c r="CG108" s="59"/>
+      <c r="CH108" s="59"/>
+      <c r="CI108" s="59"/>
+      <c r="CJ108" s="59"/>
+      <c r="CK108" s="59"/>
+      <c r="CL108" s="59"/>
+      <c r="CM108" s="59"/>
+      <c r="CN108" s="59"/>
+      <c r="CO108" s="59"/>
+      <c r="CP108" s="59"/>
+      <c r="CQ108" s="59"/>
+      <c r="CR108" s="59"/>
+      <c r="CS108" s="59"/>
+      <c r="CT108" s="59"/>
+      <c r="CU108" s="59"/>
+      <c r="CV108" s="59"/>
+      <c r="CW108" s="59"/>
+      <c r="CX108" s="59"/>
+      <c r="CY108" s="59"/>
+      <c r="CZ108" s="59"/>
+      <c r="DA108" s="59"/>
+      <c r="DB108" s="59"/>
+      <c r="DC108" s="59"/>
+      <c r="DD108" s="59"/>
+      <c r="DE108" s="59"/>
+      <c r="DF108" s="59"/>
+      <c r="DG108" s="59"/>
+      <c r="DH108" s="59"/>
+      <c r="DI108" s="59"/>
+      <c r="DJ108" s="59"/>
+      <c r="DK108" s="59"/>
+      <c r="DL108" s="59"/>
+      <c r="DM108" s="59"/>
+      <c r="DN108" s="59"/>
+      <c r="DO108" s="59"/>
+      <c r="DP108" s="59"/>
+      <c r="DQ108" s="59"/>
+      <c r="DR108" s="59"/>
+      <c r="DS108" s="59"/>
+      <c r="DT108" s="59"/>
+      <c r="DU108" s="59"/>
+      <c r="DV108" s="59"/>
+      <c r="DW108" s="59"/>
+      <c r="DX108" s="59"/>
+      <c r="DY108" s="59"/>
+      <c r="DZ108" s="59"/>
+      <c r="EA108" s="59"/>
+      <c r="EB108" s="59"/>
+      <c r="EC108" s="59"/>
+      <c r="ED108" s="59"/>
+      <c r="EE108" s="59"/>
+      <c r="EF108" s="59"/>
+      <c r="EG108" s="59"/>
+      <c r="EH108" s="59"/>
+      <c r="EI108" s="59"/>
+      <c r="EJ108" s="59"/>
+      <c r="EK108" s="59"/>
+      <c r="EL108" s="59"/>
+      <c r="EM108" s="59"/>
+      <c r="EN108" s="59"/>
+      <c r="EO108" s="59"/>
+      <c r="EP108" s="59"/>
+      <c r="EQ108" s="59"/>
+      <c r="ER108" s="59"/>
+      <c r="ES108" s="59"/>
+      <c r="ET108" s="59"/>
+      <c r="EU108" s="59"/>
+      <c r="EV108" s="59"/>
+      <c r="EW108" s="59"/>
+      <c r="EX108" s="59"/>
+      <c r="EY108" s="59"/>
+      <c r="EZ108" s="59"/>
+      <c r="FA108" s="59"/>
+      <c r="FB108" s="59"/>
+      <c r="FC108" s="59"/>
+      <c r="FD108" s="59"/>
+      <c r="FE108" s="59"/>
+      <c r="FF108" s="59"/>
+      <c r="FG108" s="59"/>
+      <c r="FH108" s="59"/>
+      <c r="FI108" s="59"/>
+      <c r="FJ108" s="59"/>
+      <c r="FK108" s="59"/>
+      <c r="FL108" s="59"/>
+      <c r="FM108" s="59"/>
+      <c r="FN108" s="59"/>
+      <c r="FO108" s="59"/>
+      <c r="FP108" s="59"/>
+      <c r="FQ108" s="59"/>
+      <c r="FR108" s="59"/>
+      <c r="FS108" s="59"/>
+      <c r="FT108" s="59"/>
+      <c r="FU108" s="59"/>
+      <c r="FV108" s="59"/>
+      <c r="FW108" s="59"/>
+      <c r="FX108" s="59"/>
+      <c r="FY108" s="59"/>
+      <c r="FZ108" s="59"/>
+      <c r="GA108" s="59"/>
+      <c r="GB108" s="59"/>
+      <c r="GC108" s="59"/>
+      <c r="GD108" s="59"/>
+      <c r="GE108" s="59"/>
+      <c r="GF108" s="59"/>
+      <c r="GG108" s="59"/>
+      <c r="GH108" s="59"/>
+      <c r="GI108" s="59"/>
+      <c r="GJ108" s="59"/>
+      <c r="GK108" s="59"/>
+      <c r="GL108" s="59"/>
+      <c r="GM108" s="59"/>
+      <c r="GN108" s="59"/>
+      <c r="GO108" s="59"/>
+      <c r="GP108" s="59"/>
+      <c r="GQ108" s="59"/>
+      <c r="GR108" s="59"/>
+      <c r="GS108" s="59"/>
+      <c r="GT108" s="59"/>
+      <c r="GU108" s="59"/>
+      <c r="GV108" s="59"/>
+      <c r="GW108" s="59"/>
+      <c r="GX108" s="59"/>
+      <c r="GY108" s="59"/>
+      <c r="GZ108" s="59"/>
+      <c r="HA108" s="59"/>
+      <c r="HB108" s="59"/>
+      <c r="HC108" s="59"/>
+      <c r="HD108" s="59"/>
+      <c r="HE108" s="59"/>
+      <c r="HF108" s="59"/>
+      <c r="HG108" s="59"/>
+      <c r="HH108" s="59"/>
+      <c r="HI108" s="59"/>
+      <c r="HJ108" s="59"/>
+      <c r="HK108" s="59"/>
+      <c r="HL108" s="59"/>
+      <c r="HM108" s="59"/>
+      <c r="HN108" s="59"/>
+      <c r="HO108" s="59"/>
+      <c r="HP108" s="59"/>
+      <c r="HQ108" s="59"/>
+      <c r="HR108" s="59"/>
+      <c r="HS108" s="59"/>
+      <c r="HT108" s="59"/>
+      <c r="HU108" s="59"/>
+      <c r="HV108" s="59"/>
+      <c r="HW108" s="59"/>
+      <c r="HX108" s="59"/>
+      <c r="HY108" s="59"/>
+      <c r="HZ108" s="59"/>
+      <c r="IA108" s="59"/>
+      <c r="IB108" s="59"/>
+      <c r="IC108" s="59"/>
+      <c r="ID108" s="59"/>
+      <c r="IE108" s="59"/>
+      <c r="IF108" s="59"/>
+      <c r="IG108" s="59"/>
+      <c r="IH108" s="59"/>
+      <c r="II108" s="59"/>
+      <c r="IJ108" s="59"/>
+      <c r="IK108" s="59"/>
+      <c r="IL108" s="59"/>
+      <c r="IM108" s="59"/>
+      <c r="IN108" s="59"/>
+      <c r="IO108" s="59"/>
+      <c r="IP108" s="59"/>
+      <c r="IQ108" s="59"/>
+      <c r="IR108" s="59"/>
+      <c r="IS108" s="59"/>
+      <c r="IT108" s="59"/>
+      <c r="IU108" s="59"/>
+      <c r="IV108" s="59"/>
+      <c r="IW108" s="59"/>
+      <c r="IX108" s="59"/>
+      <c r="IY108" s="59"/>
+      <c r="IZ108" s="59"/>
+      <c r="JA108" s="59"/>
+      <c r="JB108" s="59"/>
+      <c r="JC108" s="59"/>
+      <c r="JD108" s="59"/>
+      <c r="JE108" s="59"/>
+      <c r="JF108" s="59"/>
+      <c r="JG108" s="59"/>
+      <c r="JH108" s="59"/>
+      <c r="JI108" s="59"/>
+      <c r="JJ108" s="59"/>
+      <c r="JK108" s="59"/>
+      <c r="JL108" s="59"/>
+      <c r="JM108" s="59"/>
+      <c r="JN108" s="59"/>
+      <c r="JO108" s="59"/>
+      <c r="JP108" s="59"/>
+      <c r="JQ108" s="59"/>
+      <c r="JR108" s="59"/>
+      <c r="JS108" s="59"/>
+      <c r="JT108" s="59"/>
+      <c r="JU108" s="59"/>
+      <c r="JV108" s="59"/>
+      <c r="JW108" s="59"/>
+      <c r="JX108" s="59"/>
+      <c r="JY108" s="59"/>
+      <c r="JZ108" s="59"/>
+      <c r="KA108" s="59"/>
+      <c r="KB108" s="59"/>
+      <c r="KC108" s="59"/>
+      <c r="KD108" s="59"/>
+      <c r="KE108" s="59"/>
+      <c r="KF108" s="59"/>
+      <c r="KG108" s="59"/>
+      <c r="KH108" s="59"/>
+      <c r="KI108" s="59"/>
+      <c r="KJ108" s="59"/>
+      <c r="KK108" s="59"/>
+      <c r="KL108" s="59"/>
+      <c r="KM108" s="59"/>
+      <c r="KN108" s="59"/>
+      <c r="KO108" s="59"/>
+      <c r="KP108" s="59"/>
+      <c r="KQ108" s="59"/>
+      <c r="KR108" s="59"/>
+      <c r="KS108" s="59"/>
+      <c r="KT108" s="59"/>
+      <c r="KU108" s="59"/>
+      <c r="KV108" s="59"/>
+      <c r="KW108" s="59"/>
+      <c r="KX108" s="59"/>
+      <c r="KY108" s="59"/>
+      <c r="KZ108" s="59"/>
+      <c r="LA108" s="59"/>
+      <c r="LB108" s="59"/>
+      <c r="LC108" s="59"/>
+      <c r="LD108" s="59"/>
+      <c r="LE108" s="59"/>
+      <c r="LF108" s="59"/>
+      <c r="LG108" s="59"/>
+      <c r="LH108" s="59"/>
+      <c r="LI108" s="59"/>
+      <c r="LJ108" s="59"/>
+      <c r="LK108" s="59"/>
+      <c r="LL108" s="59"/>
+      <c r="LM108" s="59"/>
+      <c r="LN108" s="59"/>
+      <c r="LO108" s="59"/>
+      <c r="LP108" s="59"/>
+      <c r="LQ108" s="59"/>
+      <c r="LR108" s="59"/>
+      <c r="LS108" s="59"/>
+      <c r="LT108" s="59"/>
+      <c r="LU108" s="59"/>
+      <c r="LV108" s="59"/>
+      <c r="LW108" s="59"/>
+      <c r="LX108" s="59"/>
+      <c r="LY108" s="59"/>
+      <c r="LZ108" s="59"/>
+      <c r="MA108" s="59"/>
+      <c r="MB108" s="59"/>
+      <c r="MC108" s="59"/>
+      <c r="MD108" s="59"/>
+      <c r="ME108" s="59"/>
+      <c r="MF108" s="59"/>
+      <c r="MG108" s="59"/>
+      <c r="MH108" s="59"/>
+      <c r="MI108" s="59"/>
+      <c r="MJ108" s="59"/>
+      <c r="MK108" s="59"/>
+      <c r="ML108" s="59"/>
+      <c r="MM108" s="59"/>
+      <c r="MN108" s="59"/>
+      <c r="MO108" s="59"/>
+      <c r="MP108" s="59"/>
+      <c r="MQ108" s="59"/>
+      <c r="MR108" s="59"/>
+      <c r="MS108" s="59"/>
+      <c r="MT108" s="59"/>
+      <c r="MU108" s="59"/>
+      <c r="MV108" s="59"/>
+      <c r="MW108" s="59"/>
+      <c r="MX108" s="59"/>
+      <c r="MY108" s="59"/>
+      <c r="MZ108" s="59"/>
+      <c r="NA108" s="59"/>
+      <c r="NB108" s="59"/>
+      <c r="NC108" s="59"/>
+      <c r="ND108" s="59"/>
+      <c r="NE108" s="59"/>
+      <c r="NF108" s="59"/>
+      <c r="NG108" s="59"/>
+      <c r="NH108" s="59"/>
+      <c r="NI108" s="59"/>
+      <c r="NJ108" s="59"/>
+      <c r="NK108" s="59"/>
+      <c r="NL108" s="59"/>
+      <c r="NM108" s="59"/>
+      <c r="NN108" s="59"/>
+      <c r="NO108" s="59"/>
+      <c r="NP108" s="59"/>
+      <c r="NQ108" s="59"/>
+      <c r="NR108" s="59"/>
+      <c r="NS108" s="59"/>
+      <c r="NT108" s="59"/>
+      <c r="NU108" s="59"/>
+      <c r="NV108" s="59"/>
+      <c r="NW108" s="59"/>
+      <c r="NX108" s="59"/>
+      <c r="NY108" s="59"/>
+      <c r="NZ108" s="59"/>
+      <c r="OA108" s="59"/>
+      <c r="OB108" s="59"/>
+      <c r="OC108" s="59"/>
+      <c r="OD108" s="59"/>
+      <c r="OE108" s="59"/>
+      <c r="OF108" s="59"/>
+      <c r="OG108" s="59"/>
+      <c r="OH108" s="59"/>
+      <c r="OI108" s="59"/>
+      <c r="OJ108" s="59"/>
+      <c r="OK108" s="59"/>
+      <c r="OL108" s="59"/>
+      <c r="OM108" s="59"/>
+      <c r="ON108" s="59"/>
+      <c r="OO108" s="59"/>
+      <c r="OP108" s="59"/>
+      <c r="OQ108" s="59"/>
+      <c r="OR108" s="59"/>
+      <c r="OS108" s="59"/>
+      <c r="OT108" s="59"/>
+      <c r="OU108" s="59"/>
+      <c r="OV108" s="59"/>
+      <c r="OW108" s="59"/>
+      <c r="OX108" s="59"/>
+      <c r="OY108" s="59"/>
+      <c r="OZ108" s="59"/>
+      <c r="PA108" s="59"/>
+      <c r="PB108" s="71"/>
     </row>
     <row r="109" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="M109" s="92"/>
-      <c r="N109" s="92"/>
-      <c r="O109" s="92"/>
-      <c r="P109" s="93"/>
-      <c r="Q109" s="93"/>
-      <c r="R109" s="93"/>
-      <c r="S109" s="93"/>
-      <c r="T109" s="93"/>
-      <c r="U109" s="93"/>
-      <c r="V109" s="93"/>
-      <c r="W109" s="93"/>
-      <c r="X109" s="93"/>
-      <c r="Y109" s="93"/>
-      <c r="Z109" s="93"/>
-      <c r="AA109" s="93"/>
-      <c r="AB109" s="93"/>
-      <c r="AC109" s="93"/>
-      <c r="AD109" s="93"/>
-      <c r="AE109" s="93"/>
-      <c r="AF109" s="93"/>
-      <c r="AG109" s="93"/>
-      <c r="AH109" s="93"/>
-      <c r="AI109" s="93"/>
-      <c r="AJ109" s="93"/>
-      <c r="AK109" s="93"/>
-      <c r="AL109" s="93"/>
-      <c r="AM109" s="93"/>
-      <c r="AN109" s="93"/>
-      <c r="AO109" s="93"/>
-      <c r="AP109" s="93"/>
-      <c r="AQ109" s="93"/>
-      <c r="AR109" s="93"/>
-      <c r="AS109" s="93"/>
-      <c r="AT109" s="93"/>
-      <c r="AU109" s="93"/>
-      <c r="AV109" s="93"/>
-      <c r="AW109" s="93"/>
-      <c r="AX109" s="93"/>
-      <c r="AY109" s="93"/>
-      <c r="AZ109" s="93"/>
-      <c r="BA109" s="93"/>
-      <c r="BB109" s="93"/>
-      <c r="BC109" s="93"/>
-      <c r="BD109" s="93"/>
-      <c r="BE109" s="93"/>
-      <c r="BF109" s="93"/>
-      <c r="BG109" s="93"/>
-      <c r="BH109" s="93"/>
-      <c r="BI109" s="93"/>
-      <c r="BJ109" s="93"/>
-      <c r="BK109" s="93"/>
-      <c r="BL109" s="93"/>
-      <c r="BM109" s="93"/>
-      <c r="BN109" s="93"/>
-      <c r="BO109" s="93"/>
-      <c r="BP109" s="93"/>
-      <c r="BQ109" s="93"/>
-      <c r="BR109" s="93"/>
-      <c r="BS109" s="93"/>
-      <c r="BT109" s="93"/>
-      <c r="BU109" s="93"/>
-      <c r="BV109" s="93"/>
-      <c r="BW109" s="93"/>
-      <c r="BX109" s="93"/>
-      <c r="BY109" s="93"/>
-      <c r="BZ109" s="93"/>
-      <c r="CA109" s="93"/>
-      <c r="CB109" s="93"/>
-      <c r="CC109" s="93"/>
-      <c r="CD109" s="93"/>
-      <c r="CE109" s="93"/>
-      <c r="CF109" s="93"/>
-      <c r="CG109" s="93"/>
-      <c r="CH109" s="93"/>
-      <c r="CI109" s="93"/>
-      <c r="CJ109" s="93"/>
-      <c r="CK109" s="93"/>
-      <c r="CL109" s="93"/>
-      <c r="CM109" s="93"/>
-      <c r="CN109" s="93"/>
-      <c r="CO109" s="93"/>
-      <c r="CP109" s="93"/>
-      <c r="CQ109" s="93"/>
-      <c r="CR109" s="93"/>
-      <c r="CS109" s="93"/>
-      <c r="CT109" s="93"/>
-      <c r="CU109" s="93"/>
-      <c r="CV109" s="93"/>
-      <c r="CW109" s="93"/>
-      <c r="CX109" s="93"/>
-      <c r="CY109" s="93"/>
-      <c r="CZ109" s="93"/>
-      <c r="DA109" s="93"/>
-      <c r="DB109" s="93"/>
-      <c r="DC109" s="93"/>
-      <c r="DD109" s="93"/>
-      <c r="DE109" s="93"/>
-      <c r="DF109" s="93"/>
-      <c r="DG109" s="93"/>
-      <c r="DH109" s="93"/>
-      <c r="DI109" s="93"/>
-      <c r="DJ109" s="93"/>
-      <c r="DK109" s="93"/>
-      <c r="DL109" s="93"/>
-      <c r="DM109" s="93"/>
-      <c r="DN109" s="93"/>
-      <c r="DO109" s="93"/>
-      <c r="DP109" s="93"/>
-      <c r="DQ109" s="93"/>
-      <c r="DR109" s="93"/>
-      <c r="DS109" s="93"/>
-      <c r="DT109" s="93"/>
-      <c r="DU109" s="93"/>
-      <c r="DV109" s="93"/>
-      <c r="DW109" s="93"/>
-      <c r="DX109" s="93"/>
+      <c r="B109" s="49">
+        <f t="shared" si="98"/>
+        <v>95</v>
+      </c>
+      <c r="C109" s="82"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="82"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="86"/>
+      <c r="I109" s="87"/>
+      <c r="J109" s="87"/>
+      <c r="K109" s="88"/>
+      <c r="L109" s="89"/>
+      <c r="M109" s="58"/>
+      <c r="N109" s="59"/>
+      <c r="O109" s="59"/>
+      <c r="P109" s="59"/>
+      <c r="Q109" s="59"/>
+      <c r="R109" s="59"/>
+      <c r="S109" s="59"/>
+      <c r="T109" s="59"/>
+      <c r="U109" s="59"/>
+      <c r="V109" s="59"/>
+      <c r="W109" s="59"/>
+      <c r="X109" s="59"/>
+      <c r="Y109" s="59"/>
+      <c r="Z109" s="59"/>
+      <c r="AA109" s="59"/>
+      <c r="AB109" s="59"/>
+      <c r="AC109" s="59"/>
+      <c r="AD109" s="59"/>
+      <c r="AE109" s="59"/>
+      <c r="AF109" s="59"/>
+      <c r="AG109" s="59"/>
+      <c r="AH109" s="59"/>
+      <c r="AI109" s="59"/>
+      <c r="AJ109" s="59"/>
+      <c r="AK109" s="59"/>
+      <c r="AL109" s="59"/>
+      <c r="AM109" s="59"/>
+      <c r="AN109" s="59"/>
+      <c r="AO109" s="59"/>
+      <c r="AP109" s="59"/>
+      <c r="AQ109" s="59"/>
+      <c r="AR109" s="59"/>
+      <c r="AS109" s="59"/>
+      <c r="AT109" s="59"/>
+      <c r="AU109" s="59"/>
+      <c r="AV109" s="59"/>
+      <c r="AW109" s="59"/>
+      <c r="AX109" s="59"/>
+      <c r="AY109" s="59"/>
+      <c r="AZ109" s="59"/>
+      <c r="BA109" s="59"/>
+      <c r="BB109" s="59"/>
+      <c r="BC109" s="59"/>
+      <c r="BD109" s="59"/>
+      <c r="BE109" s="59"/>
+      <c r="BF109" s="59"/>
+      <c r="BG109" s="59"/>
+      <c r="BH109" s="59"/>
+      <c r="BI109" s="59"/>
+      <c r="BJ109" s="59"/>
+      <c r="BK109" s="59"/>
+      <c r="BL109" s="59"/>
+      <c r="BM109" s="59"/>
+      <c r="BN109" s="59"/>
+      <c r="BO109" s="59"/>
+      <c r="BP109" s="59"/>
+      <c r="BQ109" s="59"/>
+      <c r="BR109" s="59"/>
+      <c r="BS109" s="59"/>
+      <c r="BT109" s="59"/>
+      <c r="BU109" s="59"/>
+      <c r="BV109" s="59"/>
+      <c r="BW109" s="59"/>
+      <c r="BX109" s="59"/>
+      <c r="BY109" s="59"/>
+      <c r="BZ109" s="59"/>
+      <c r="CA109" s="59"/>
+      <c r="CB109" s="59"/>
+      <c r="CC109" s="59"/>
+      <c r="CD109" s="59"/>
+      <c r="CE109" s="59"/>
+      <c r="CF109" s="59"/>
+      <c r="CG109" s="59"/>
+      <c r="CH109" s="59"/>
+      <c r="CI109" s="59"/>
+      <c r="CJ109" s="59"/>
+      <c r="CK109" s="59"/>
+      <c r="CL109" s="59"/>
+      <c r="CM109" s="59"/>
+      <c r="CN109" s="59"/>
+      <c r="CO109" s="59"/>
+      <c r="CP109" s="59"/>
+      <c r="CQ109" s="59"/>
+      <c r="CR109" s="59"/>
+      <c r="CS109" s="59"/>
+      <c r="CT109" s="59"/>
+      <c r="CU109" s="59"/>
+      <c r="CV109" s="59"/>
+      <c r="CW109" s="59"/>
+      <c r="CX109" s="59"/>
+      <c r="CY109" s="59"/>
+      <c r="CZ109" s="59"/>
+      <c r="DA109" s="59"/>
+      <c r="DB109" s="59"/>
+      <c r="DC109" s="59"/>
+      <c r="DD109" s="59"/>
+      <c r="DE109" s="59"/>
+      <c r="DF109" s="59"/>
+      <c r="DG109" s="59"/>
+      <c r="DH109" s="59"/>
+      <c r="DI109" s="59"/>
+      <c r="DJ109" s="59"/>
+      <c r="DK109" s="59"/>
+      <c r="DL109" s="59"/>
+      <c r="DM109" s="59"/>
+      <c r="DN109" s="59"/>
+      <c r="DO109" s="59"/>
+      <c r="DP109" s="59"/>
+      <c r="DQ109" s="59"/>
+      <c r="DR109" s="59"/>
+      <c r="DS109" s="59"/>
+      <c r="DT109" s="59"/>
+      <c r="DU109" s="59"/>
+      <c r="DV109" s="59"/>
+      <c r="DW109" s="59"/>
+      <c r="DX109" s="59"/>
+      <c r="DY109" s="59"/>
+      <c r="DZ109" s="59"/>
+      <c r="EA109" s="59"/>
+      <c r="EB109" s="59"/>
+      <c r="EC109" s="59"/>
+      <c r="ED109" s="59"/>
+      <c r="EE109" s="59"/>
+      <c r="EF109" s="59"/>
+      <c r="EG109" s="59"/>
+      <c r="EH109" s="59"/>
+      <c r="EI109" s="59"/>
+      <c r="EJ109" s="59"/>
+      <c r="EK109" s="59"/>
+      <c r="EL109" s="59"/>
+      <c r="EM109" s="59"/>
+      <c r="EN109" s="59"/>
+      <c r="EO109" s="59"/>
+      <c r="EP109" s="59"/>
+      <c r="EQ109" s="59"/>
+      <c r="ER109" s="59"/>
+      <c r="ES109" s="59"/>
+      <c r="ET109" s="59"/>
+      <c r="EU109" s="59"/>
+      <c r="EV109" s="59"/>
+      <c r="EW109" s="59"/>
+      <c r="EX109" s="59"/>
+      <c r="EY109" s="59"/>
+      <c r="EZ109" s="59"/>
+      <c r="FA109" s="59"/>
+      <c r="FB109" s="59"/>
+      <c r="FC109" s="59"/>
+      <c r="FD109" s="59"/>
+      <c r="FE109" s="59"/>
+      <c r="FF109" s="59"/>
+      <c r="FG109" s="59"/>
+      <c r="FH109" s="59"/>
+      <c r="FI109" s="59"/>
+      <c r="FJ109" s="59"/>
+      <c r="FK109" s="59"/>
+      <c r="FL109" s="59"/>
+      <c r="FM109" s="59"/>
+      <c r="FN109" s="59"/>
+      <c r="FO109" s="59"/>
+      <c r="FP109" s="59"/>
+      <c r="FQ109" s="59"/>
+      <c r="FR109" s="59"/>
+      <c r="FS109" s="59"/>
+      <c r="FT109" s="59"/>
+      <c r="FU109" s="59"/>
+      <c r="FV109" s="59"/>
+      <c r="FW109" s="59"/>
+      <c r="FX109" s="59"/>
+      <c r="FY109" s="59"/>
+      <c r="FZ109" s="59"/>
+      <c r="GA109" s="59"/>
+      <c r="GB109" s="59"/>
+      <c r="GC109" s="59"/>
+      <c r="GD109" s="59"/>
+      <c r="GE109" s="59"/>
+      <c r="GF109" s="59"/>
+      <c r="GG109" s="59"/>
+      <c r="GH109" s="59"/>
+      <c r="GI109" s="59"/>
+      <c r="GJ109" s="59"/>
+      <c r="GK109" s="59"/>
+      <c r="GL109" s="59"/>
+      <c r="GM109" s="59"/>
+      <c r="GN109" s="59"/>
+      <c r="GO109" s="59"/>
+      <c r="GP109" s="59"/>
+      <c r="GQ109" s="59"/>
+      <c r="GR109" s="59"/>
+      <c r="GS109" s="59"/>
+      <c r="GT109" s="59"/>
+      <c r="GU109" s="59"/>
+      <c r="GV109" s="59"/>
+      <c r="GW109" s="59"/>
+      <c r="GX109" s="59"/>
+      <c r="GY109" s="59"/>
+      <c r="GZ109" s="59"/>
+      <c r="HA109" s="59"/>
+      <c r="HB109" s="59"/>
+      <c r="HC109" s="59"/>
+      <c r="HD109" s="59"/>
+      <c r="HE109" s="59"/>
+      <c r="HF109" s="59"/>
+      <c r="HG109" s="59"/>
+      <c r="HH109" s="59"/>
+      <c r="HI109" s="59"/>
+      <c r="HJ109" s="59"/>
+      <c r="HK109" s="59"/>
+      <c r="HL109" s="59"/>
+      <c r="HM109" s="59"/>
+      <c r="HN109" s="59"/>
+      <c r="HO109" s="59"/>
+      <c r="HP109" s="59"/>
+      <c r="HQ109" s="59"/>
+      <c r="HR109" s="59"/>
+      <c r="HS109" s="59"/>
+      <c r="HT109" s="59"/>
+      <c r="HU109" s="59"/>
+      <c r="HV109" s="59"/>
+      <c r="HW109" s="59"/>
+      <c r="HX109" s="59"/>
+      <c r="HY109" s="59"/>
+      <c r="HZ109" s="59"/>
+      <c r="IA109" s="59"/>
+      <c r="IB109" s="59"/>
+      <c r="IC109" s="59"/>
+      <c r="ID109" s="59"/>
+      <c r="IE109" s="59"/>
+      <c r="IF109" s="59"/>
+      <c r="IG109" s="59"/>
+      <c r="IH109" s="59"/>
+      <c r="II109" s="59"/>
+      <c r="IJ109" s="59"/>
+      <c r="IK109" s="59"/>
+      <c r="IL109" s="59"/>
+      <c r="IM109" s="59"/>
+      <c r="IN109" s="59"/>
+      <c r="IO109" s="59"/>
+      <c r="IP109" s="59"/>
+      <c r="IQ109" s="59"/>
+      <c r="IR109" s="59"/>
+      <c r="IS109" s="59"/>
+      <c r="IT109" s="59"/>
+      <c r="IU109" s="59"/>
+      <c r="IV109" s="59"/>
+      <c r="IW109" s="59"/>
+      <c r="IX109" s="59"/>
+      <c r="IY109" s="59"/>
+      <c r="IZ109" s="59"/>
+      <c r="JA109" s="59"/>
+      <c r="JB109" s="59"/>
+      <c r="JC109" s="59"/>
+      <c r="JD109" s="59"/>
+      <c r="JE109" s="59"/>
+      <c r="JF109" s="59"/>
+      <c r="JG109" s="59"/>
+      <c r="JH109" s="59"/>
+      <c r="JI109" s="59"/>
+      <c r="JJ109" s="59"/>
+      <c r="JK109" s="59"/>
+      <c r="JL109" s="59"/>
+      <c r="JM109" s="59"/>
+      <c r="JN109" s="59"/>
+      <c r="JO109" s="59"/>
+      <c r="JP109" s="59"/>
+      <c r="JQ109" s="59"/>
+      <c r="JR109" s="59"/>
+      <c r="JS109" s="59"/>
+      <c r="JT109" s="59"/>
+      <c r="JU109" s="59"/>
+      <c r="JV109" s="59"/>
+      <c r="JW109" s="59"/>
+      <c r="JX109" s="59"/>
+      <c r="JY109" s="59"/>
+      <c r="JZ109" s="59"/>
+      <c r="KA109" s="59"/>
+      <c r="KB109" s="59"/>
+      <c r="KC109" s="59"/>
+      <c r="KD109" s="59"/>
+      <c r="KE109" s="59"/>
+      <c r="KF109" s="59"/>
+      <c r="KG109" s="59"/>
+      <c r="KH109" s="59"/>
+      <c r="KI109" s="59"/>
+      <c r="KJ109" s="59"/>
+      <c r="KK109" s="59"/>
+      <c r="KL109" s="59"/>
+      <c r="KM109" s="59"/>
+      <c r="KN109" s="59"/>
+      <c r="KO109" s="59"/>
+      <c r="KP109" s="59"/>
+      <c r="KQ109" s="59"/>
+      <c r="KR109" s="59"/>
+      <c r="KS109" s="59"/>
+      <c r="KT109" s="59"/>
+      <c r="KU109" s="59"/>
+      <c r="KV109" s="59"/>
+      <c r="KW109" s="59"/>
+      <c r="KX109" s="59"/>
+      <c r="KY109" s="59"/>
+      <c r="KZ109" s="59"/>
+      <c r="LA109" s="59"/>
+      <c r="LB109" s="59"/>
+      <c r="LC109" s="59"/>
+      <c r="LD109" s="59"/>
+      <c r="LE109" s="59"/>
+      <c r="LF109" s="59"/>
+      <c r="LG109" s="59"/>
+      <c r="LH109" s="59"/>
+      <c r="LI109" s="59"/>
+      <c r="LJ109" s="59"/>
+      <c r="LK109" s="59"/>
+      <c r="LL109" s="59"/>
+      <c r="LM109" s="59"/>
+      <c r="LN109" s="59"/>
+      <c r="LO109" s="59"/>
+      <c r="LP109" s="59"/>
+      <c r="LQ109" s="59"/>
+      <c r="LR109" s="59"/>
+      <c r="LS109" s="59"/>
+      <c r="LT109" s="59"/>
+      <c r="LU109" s="59"/>
+      <c r="LV109" s="59"/>
+      <c r="LW109" s="59"/>
+      <c r="LX109" s="59"/>
+      <c r="LY109" s="59"/>
+      <c r="LZ109" s="59"/>
+      <c r="MA109" s="59"/>
+      <c r="MB109" s="59"/>
+      <c r="MC109" s="59"/>
+      <c r="MD109" s="59"/>
+      <c r="ME109" s="59"/>
+      <c r="MF109" s="59"/>
+      <c r="MG109" s="59"/>
+      <c r="MH109" s="59"/>
+      <c r="MI109" s="59"/>
+      <c r="MJ109" s="59"/>
+      <c r="MK109" s="59"/>
+      <c r="ML109" s="59"/>
+      <c r="MM109" s="59"/>
+      <c r="MN109" s="59"/>
+      <c r="MO109" s="59"/>
+      <c r="MP109" s="59"/>
+      <c r="MQ109" s="59"/>
+      <c r="MR109" s="59"/>
+      <c r="MS109" s="59"/>
+      <c r="MT109" s="59"/>
+      <c r="MU109" s="59"/>
+      <c r="MV109" s="59"/>
+      <c r="MW109" s="59"/>
+      <c r="MX109" s="59"/>
+      <c r="MY109" s="59"/>
+      <c r="MZ109" s="59"/>
+      <c r="NA109" s="59"/>
+      <c r="NB109" s="59"/>
+      <c r="NC109" s="59"/>
+      <c r="ND109" s="59"/>
+      <c r="NE109" s="59"/>
+      <c r="NF109" s="59"/>
+      <c r="NG109" s="59"/>
+      <c r="NH109" s="59"/>
+      <c r="NI109" s="59"/>
+      <c r="NJ109" s="59"/>
+      <c r="NK109" s="59"/>
+      <c r="NL109" s="59"/>
+      <c r="NM109" s="59"/>
+      <c r="NN109" s="59"/>
+      <c r="NO109" s="59"/>
+      <c r="NP109" s="59"/>
+      <c r="NQ109" s="59"/>
+      <c r="NR109" s="59"/>
+      <c r="NS109" s="59"/>
+      <c r="NT109" s="59"/>
+      <c r="NU109" s="59"/>
+      <c r="NV109" s="59"/>
+      <c r="NW109" s="59"/>
+      <c r="NX109" s="59"/>
+      <c r="NY109" s="59"/>
+      <c r="NZ109" s="59"/>
+      <c r="OA109" s="59"/>
+      <c r="OB109" s="59"/>
+      <c r="OC109" s="59"/>
+      <c r="OD109" s="59"/>
+      <c r="OE109" s="59"/>
+      <c r="OF109" s="59"/>
+      <c r="OG109" s="59"/>
+      <c r="OH109" s="59"/>
+      <c r="OI109" s="59"/>
+      <c r="OJ109" s="59"/>
+      <c r="OK109" s="59"/>
+      <c r="OL109" s="59"/>
+      <c r="OM109" s="59"/>
+      <c r="ON109" s="59"/>
+      <c r="OO109" s="59"/>
+      <c r="OP109" s="59"/>
+      <c r="OQ109" s="59"/>
+      <c r="OR109" s="59"/>
+      <c r="OS109" s="59"/>
+      <c r="OT109" s="59"/>
+      <c r="OU109" s="59"/>
+      <c r="OV109" s="59"/>
+      <c r="OW109" s="59"/>
+      <c r="OX109" s="59"/>
+      <c r="OY109" s="59"/>
+      <c r="OZ109" s="59"/>
+      <c r="PA109" s="59"/>
+      <c r="PB109" s="71"/>
+    </row>
+    <row r="110" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B110" s="49">
+        <f t="shared" si="98"/>
+        <v>96</v>
+      </c>
+      <c r="C110" s="82"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="84"/>
+      <c r="F110" s="82"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="86"/>
+      <c r="I110" s="87"/>
+      <c r="J110" s="87"/>
+      <c r="K110" s="88"/>
+      <c r="L110" s="89"/>
+      <c r="M110" s="58"/>
+      <c r="N110" s="59"/>
+      <c r="O110" s="59"/>
+      <c r="P110" s="59"/>
+      <c r="Q110" s="59"/>
+      <c r="R110" s="59"/>
+      <c r="S110" s="59"/>
+      <c r="T110" s="59"/>
+      <c r="U110" s="59"/>
+      <c r="V110" s="59"/>
+      <c r="W110" s="59"/>
+      <c r="X110" s="59"/>
+      <c r="Y110" s="59"/>
+      <c r="Z110" s="59"/>
+      <c r="AA110" s="59"/>
+      <c r="AB110" s="59"/>
+      <c r="AC110" s="59"/>
+      <c r="AD110" s="59"/>
+      <c r="AE110" s="59"/>
+      <c r="AF110" s="59"/>
+      <c r="AG110" s="59"/>
+      <c r="AH110" s="59"/>
+      <c r="AI110" s="59"/>
+      <c r="AJ110" s="59"/>
+      <c r="AK110" s="59"/>
+      <c r="AL110" s="59"/>
+      <c r="AM110" s="59"/>
+      <c r="AN110" s="59"/>
+      <c r="AO110" s="59"/>
+      <c r="AP110" s="59"/>
+      <c r="AQ110" s="59"/>
+      <c r="AR110" s="59"/>
+      <c r="AS110" s="59"/>
+      <c r="AT110" s="59"/>
+      <c r="AU110" s="59"/>
+      <c r="AV110" s="59"/>
+      <c r="AW110" s="59"/>
+      <c r="AX110" s="59"/>
+      <c r="AY110" s="59"/>
+      <c r="AZ110" s="59"/>
+      <c r="BA110" s="59"/>
+      <c r="BB110" s="59"/>
+      <c r="BC110" s="59"/>
+      <c r="BD110" s="59"/>
+      <c r="BE110" s="59"/>
+      <c r="BF110" s="59"/>
+      <c r="BG110" s="59"/>
+      <c r="BH110" s="59"/>
+      <c r="BI110" s="59"/>
+      <c r="BJ110" s="59"/>
+      <c r="BK110" s="59"/>
+      <c r="BL110" s="59"/>
+      <c r="BM110" s="59"/>
+      <c r="BN110" s="59"/>
+      <c r="BO110" s="59"/>
+      <c r="BP110" s="59"/>
+      <c r="BQ110" s="59"/>
+      <c r="BR110" s="59"/>
+      <c r="BS110" s="59"/>
+      <c r="BT110" s="59"/>
+      <c r="BU110" s="59"/>
+      <c r="BV110" s="59"/>
+      <c r="BW110" s="59"/>
+      <c r="BX110" s="59"/>
+      <c r="BY110" s="59"/>
+      <c r="BZ110" s="59"/>
+      <c r="CA110" s="59"/>
+      <c r="CB110" s="59"/>
+      <c r="CC110" s="59"/>
+      <c r="CD110" s="59"/>
+      <c r="CE110" s="59"/>
+      <c r="CF110" s="59"/>
+      <c r="CG110" s="59"/>
+      <c r="CH110" s="59"/>
+      <c r="CI110" s="59"/>
+      <c r="CJ110" s="59"/>
+      <c r="CK110" s="59"/>
+      <c r="CL110" s="59"/>
+      <c r="CM110" s="59"/>
+      <c r="CN110" s="59"/>
+      <c r="CO110" s="59"/>
+      <c r="CP110" s="59"/>
+      <c r="CQ110" s="59"/>
+      <c r="CR110" s="59"/>
+      <c r="CS110" s="59"/>
+      <c r="CT110" s="59"/>
+      <c r="CU110" s="59"/>
+      <c r="CV110" s="59"/>
+      <c r="CW110" s="59"/>
+      <c r="CX110" s="59"/>
+      <c r="CY110" s="59"/>
+      <c r="CZ110" s="59"/>
+      <c r="DA110" s="59"/>
+      <c r="DB110" s="59"/>
+      <c r="DC110" s="59"/>
+      <c r="DD110" s="59"/>
+      <c r="DE110" s="59"/>
+      <c r="DF110" s="59"/>
+      <c r="DG110" s="59"/>
+      <c r="DH110" s="59"/>
+      <c r="DI110" s="59"/>
+      <c r="DJ110" s="59"/>
+      <c r="DK110" s="59"/>
+      <c r="DL110" s="59"/>
+      <c r="DM110" s="59"/>
+      <c r="DN110" s="59"/>
+      <c r="DO110" s="59"/>
+      <c r="DP110" s="59"/>
+      <c r="DQ110" s="59"/>
+      <c r="DR110" s="59"/>
+      <c r="DS110" s="59"/>
+      <c r="DT110" s="59"/>
+      <c r="DU110" s="59"/>
+      <c r="DV110" s="59"/>
+      <c r="DW110" s="59"/>
+      <c r="DX110" s="59"/>
+      <c r="DY110" s="59"/>
+      <c r="DZ110" s="59"/>
+      <c r="EA110" s="59"/>
+      <c r="EB110" s="59"/>
+      <c r="EC110" s="59"/>
+      <c r="ED110" s="59"/>
+      <c r="EE110" s="59"/>
+      <c r="EF110" s="59"/>
+      <c r="EG110" s="59"/>
+      <c r="EH110" s="59"/>
+      <c r="EI110" s="59"/>
+      <c r="EJ110" s="59"/>
+      <c r="EK110" s="59"/>
+      <c r="EL110" s="59"/>
+      <c r="EM110" s="59"/>
+      <c r="EN110" s="59"/>
+      <c r="EO110" s="59"/>
+      <c r="EP110" s="59"/>
+      <c r="EQ110" s="59"/>
+      <c r="ER110" s="59"/>
+      <c r="ES110" s="59"/>
+      <c r="ET110" s="59"/>
+      <c r="EU110" s="59"/>
+      <c r="EV110" s="59"/>
+      <c r="EW110" s="59"/>
+      <c r="EX110" s="59"/>
+      <c r="EY110" s="59"/>
+      <c r="EZ110" s="59"/>
+      <c r="FA110" s="59"/>
+      <c r="FB110" s="59"/>
+      <c r="FC110" s="59"/>
+      <c r="FD110" s="59"/>
+      <c r="FE110" s="59"/>
+      <c r="FF110" s="59"/>
+      <c r="FG110" s="59"/>
+      <c r="FH110" s="59"/>
+      <c r="FI110" s="59"/>
+      <c r="FJ110" s="59"/>
+      <c r="FK110" s="59"/>
+      <c r="FL110" s="59"/>
+      <c r="FM110" s="59"/>
+      <c r="FN110" s="59"/>
+      <c r="FO110" s="59"/>
+      <c r="FP110" s="59"/>
+      <c r="FQ110" s="59"/>
+      <c r="FR110" s="59"/>
+      <c r="FS110" s="59"/>
+      <c r="FT110" s="59"/>
+      <c r="FU110" s="59"/>
+      <c r="FV110" s="59"/>
+      <c r="FW110" s="59"/>
+      <c r="FX110" s="59"/>
+      <c r="FY110" s="59"/>
+      <c r="FZ110" s="59"/>
+      <c r="GA110" s="59"/>
+      <c r="GB110" s="59"/>
+      <c r="GC110" s="59"/>
+      <c r="GD110" s="59"/>
+      <c r="GE110" s="59"/>
+      <c r="GF110" s="59"/>
+      <c r="GG110" s="59"/>
+      <c r="GH110" s="59"/>
+      <c r="GI110" s="59"/>
+      <c r="GJ110" s="59"/>
+      <c r="GK110" s="59"/>
+      <c r="GL110" s="59"/>
+      <c r="GM110" s="59"/>
+      <c r="GN110" s="59"/>
+      <c r="GO110" s="59"/>
+      <c r="GP110" s="59"/>
+      <c r="GQ110" s="59"/>
+      <c r="GR110" s="59"/>
+      <c r="GS110" s="59"/>
+      <c r="GT110" s="59"/>
+      <c r="GU110" s="59"/>
+      <c r="GV110" s="59"/>
+      <c r="GW110" s="59"/>
+      <c r="GX110" s="59"/>
+      <c r="GY110" s="59"/>
+      <c r="GZ110" s="59"/>
+      <c r="HA110" s="59"/>
+      <c r="HB110" s="59"/>
+      <c r="HC110" s="59"/>
+      <c r="HD110" s="59"/>
+      <c r="HE110" s="59"/>
+      <c r="HF110" s="59"/>
+      <c r="HG110" s="59"/>
+      <c r="HH110" s="59"/>
+      <c r="HI110" s="59"/>
+      <c r="HJ110" s="59"/>
+      <c r="HK110" s="59"/>
+      <c r="HL110" s="59"/>
+      <c r="HM110" s="59"/>
+      <c r="HN110" s="59"/>
+      <c r="HO110" s="59"/>
+      <c r="HP110" s="59"/>
+      <c r="HQ110" s="59"/>
+      <c r="HR110" s="59"/>
+      <c r="HS110" s="59"/>
+      <c r="HT110" s="59"/>
+      <c r="HU110" s="59"/>
+      <c r="HV110" s="59"/>
+      <c r="HW110" s="59"/>
+      <c r="HX110" s="59"/>
+      <c r="HY110" s="59"/>
+      <c r="HZ110" s="59"/>
+      <c r="IA110" s="59"/>
+      <c r="IB110" s="59"/>
+      <c r="IC110" s="59"/>
+      <c r="ID110" s="59"/>
+      <c r="IE110" s="59"/>
+      <c r="IF110" s="59"/>
+      <c r="IG110" s="59"/>
+      <c r="IH110" s="59"/>
+      <c r="II110" s="59"/>
+      <c r="IJ110" s="59"/>
+      <c r="IK110" s="59"/>
+      <c r="IL110" s="59"/>
+      <c r="IM110" s="59"/>
+      <c r="IN110" s="59"/>
+      <c r="IO110" s="59"/>
+      <c r="IP110" s="59"/>
+      <c r="IQ110" s="59"/>
+      <c r="IR110" s="59"/>
+      <c r="IS110" s="59"/>
+      <c r="IT110" s="59"/>
+      <c r="IU110" s="59"/>
+      <c r="IV110" s="59"/>
+      <c r="IW110" s="59"/>
+      <c r="IX110" s="59"/>
+      <c r="IY110" s="59"/>
+      <c r="IZ110" s="59"/>
+      <c r="JA110" s="59"/>
+      <c r="JB110" s="59"/>
+      <c r="JC110" s="59"/>
+      <c r="JD110" s="59"/>
+      <c r="JE110" s="59"/>
+      <c r="JF110" s="59"/>
+      <c r="JG110" s="59"/>
+      <c r="JH110" s="59"/>
+      <c r="JI110" s="59"/>
+      <c r="JJ110" s="59"/>
+      <c r="JK110" s="59"/>
+      <c r="JL110" s="59"/>
+      <c r="JM110" s="59"/>
+      <c r="JN110" s="59"/>
+      <c r="JO110" s="59"/>
+      <c r="JP110" s="59"/>
+      <c r="JQ110" s="59"/>
+      <c r="JR110" s="59"/>
+      <c r="JS110" s="59"/>
+      <c r="JT110" s="59"/>
+      <c r="JU110" s="59"/>
+      <c r="JV110" s="59"/>
+      <c r="JW110" s="59"/>
+      <c r="JX110" s="59"/>
+      <c r="JY110" s="59"/>
+      <c r="JZ110" s="59"/>
+      <c r="KA110" s="59"/>
+      <c r="KB110" s="59"/>
+      <c r="KC110" s="59"/>
+      <c r="KD110" s="59"/>
+      <c r="KE110" s="59"/>
+      <c r="KF110" s="59"/>
+      <c r="KG110" s="59"/>
+      <c r="KH110" s="59"/>
+      <c r="KI110" s="59"/>
+      <c r="KJ110" s="59"/>
+      <c r="KK110" s="59"/>
+      <c r="KL110" s="59"/>
+      <c r="KM110" s="59"/>
+      <c r="KN110" s="59"/>
+      <c r="KO110" s="59"/>
+      <c r="KP110" s="59"/>
+      <c r="KQ110" s="59"/>
+      <c r="KR110" s="59"/>
+      <c r="KS110" s="59"/>
+      <c r="KT110" s="59"/>
+      <c r="KU110" s="59"/>
+      <c r="KV110" s="59"/>
+      <c r="KW110" s="59"/>
+      <c r="KX110" s="59"/>
+      <c r="KY110" s="59"/>
+      <c r="KZ110" s="59"/>
+      <c r="LA110" s="59"/>
+      <c r="LB110" s="59"/>
+      <c r="LC110" s="59"/>
+      <c r="LD110" s="59"/>
+      <c r="LE110" s="59"/>
+      <c r="LF110" s="59"/>
+      <c r="LG110" s="59"/>
+      <c r="LH110" s="59"/>
+      <c r="LI110" s="59"/>
+      <c r="LJ110" s="59"/>
+      <c r="LK110" s="59"/>
+      <c r="LL110" s="59"/>
+      <c r="LM110" s="59"/>
+      <c r="LN110" s="59"/>
+      <c r="LO110" s="59"/>
+      <c r="LP110" s="59"/>
+      <c r="LQ110" s="59"/>
+      <c r="LR110" s="59"/>
+      <c r="LS110" s="59"/>
+      <c r="LT110" s="59"/>
+      <c r="LU110" s="59"/>
+      <c r="LV110" s="59"/>
+      <c r="LW110" s="59"/>
+      <c r="LX110" s="59"/>
+      <c r="LY110" s="59"/>
+      <c r="LZ110" s="59"/>
+      <c r="MA110" s="59"/>
+      <c r="MB110" s="59"/>
+      <c r="MC110" s="59"/>
+      <c r="MD110" s="59"/>
+      <c r="ME110" s="59"/>
+      <c r="MF110" s="59"/>
+      <c r="MG110" s="59"/>
+      <c r="MH110" s="59"/>
+      <c r="MI110" s="59"/>
+      <c r="MJ110" s="59"/>
+      <c r="MK110" s="59"/>
+      <c r="ML110" s="59"/>
+      <c r="MM110" s="59"/>
+      <c r="MN110" s="59"/>
+      <c r="MO110" s="59"/>
+      <c r="MP110" s="59"/>
+      <c r="MQ110" s="59"/>
+      <c r="MR110" s="59"/>
+      <c r="MS110" s="59"/>
+      <c r="MT110" s="59"/>
+      <c r="MU110" s="59"/>
+      <c r="MV110" s="59"/>
+      <c r="MW110" s="59"/>
+      <c r="MX110" s="59"/>
+      <c r="MY110" s="59"/>
+      <c r="MZ110" s="59"/>
+      <c r="NA110" s="59"/>
+      <c r="NB110" s="59"/>
+      <c r="NC110" s="59"/>
+      <c r="ND110" s="59"/>
+      <c r="NE110" s="59"/>
+      <c r="NF110" s="59"/>
+      <c r="NG110" s="59"/>
+      <c r="NH110" s="59"/>
+      <c r="NI110" s="59"/>
+      <c r="NJ110" s="59"/>
+      <c r="NK110" s="59"/>
+      <c r="NL110" s="59"/>
+      <c r="NM110" s="59"/>
+      <c r="NN110" s="59"/>
+      <c r="NO110" s="59"/>
+      <c r="NP110" s="59"/>
+      <c r="NQ110" s="59"/>
+      <c r="NR110" s="59"/>
+      <c r="NS110" s="59"/>
+      <c r="NT110" s="59"/>
+      <c r="NU110" s="59"/>
+      <c r="NV110" s="59"/>
+      <c r="NW110" s="59"/>
+      <c r="NX110" s="59"/>
+      <c r="NY110" s="59"/>
+      <c r="NZ110" s="59"/>
+      <c r="OA110" s="59"/>
+      <c r="OB110" s="59"/>
+      <c r="OC110" s="59"/>
+      <c r="OD110" s="59"/>
+      <c r="OE110" s="59"/>
+      <c r="OF110" s="59"/>
+      <c r="OG110" s="59"/>
+      <c r="OH110" s="59"/>
+      <c r="OI110" s="59"/>
+      <c r="OJ110" s="59"/>
+      <c r="OK110" s="59"/>
+      <c r="OL110" s="59"/>
+      <c r="OM110" s="59"/>
+      <c r="ON110" s="59"/>
+      <c r="OO110" s="59"/>
+      <c r="OP110" s="59"/>
+      <c r="OQ110" s="59"/>
+      <c r="OR110" s="59"/>
+      <c r="OS110" s="59"/>
+      <c r="OT110" s="59"/>
+      <c r="OU110" s="59"/>
+      <c r="OV110" s="59"/>
+      <c r="OW110" s="59"/>
+      <c r="OX110" s="59"/>
+      <c r="OY110" s="59"/>
+      <c r="OZ110" s="59"/>
+      <c r="PA110" s="59"/>
+      <c r="PB110" s="71"/>
+    </row>
+    <row r="111" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B111" s="49">
+        <f t="shared" si="98"/>
+        <v>97</v>
+      </c>
+      <c r="C111" s="82"/>
+      <c r="D111" s="83"/>
+      <c r="E111" s="84"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="86"/>
+      <c r="I111" s="87"/>
+      <c r="J111" s="87"/>
+      <c r="K111" s="88"/>
+      <c r="L111" s="89"/>
+      <c r="M111" s="58"/>
+      <c r="N111" s="59"/>
+      <c r="O111" s="59"/>
+      <c r="P111" s="59"/>
+      <c r="Q111" s="59"/>
+      <c r="R111" s="59"/>
+      <c r="S111" s="59"/>
+      <c r="T111" s="59"/>
+      <c r="U111" s="59"/>
+      <c r="V111" s="59"/>
+      <c r="W111" s="59"/>
+      <c r="X111" s="59"/>
+      <c r="Y111" s="59"/>
+      <c r="Z111" s="59"/>
+      <c r="AA111" s="59"/>
+      <c r="AB111" s="59"/>
+      <c r="AC111" s="59"/>
+      <c r="AD111" s="59"/>
+      <c r="AE111" s="59"/>
+      <c r="AF111" s="59"/>
+      <c r="AG111" s="59"/>
+      <c r="AH111" s="59"/>
+      <c r="AI111" s="59"/>
+      <c r="AJ111" s="59"/>
+      <c r="AK111" s="59"/>
+      <c r="AL111" s="59"/>
+      <c r="AM111" s="59"/>
+      <c r="AN111" s="59"/>
+      <c r="AO111" s="59"/>
+      <c r="AP111" s="59"/>
+      <c r="AQ111" s="59"/>
+      <c r="AR111" s="59"/>
+      <c r="AS111" s="59"/>
+      <c r="AT111" s="59"/>
+      <c r="AU111" s="59"/>
+      <c r="AV111" s="59"/>
+      <c r="AW111" s="59"/>
+      <c r="AX111" s="59"/>
+      <c r="AY111" s="59"/>
+      <c r="AZ111" s="59"/>
+      <c r="BA111" s="59"/>
+      <c r="BB111" s="59"/>
+      <c r="BC111" s="59"/>
+      <c r="BD111" s="59"/>
+      <c r="BE111" s="59"/>
+      <c r="BF111" s="59"/>
+      <c r="BG111" s="59"/>
+      <c r="BH111" s="59"/>
+      <c r="BI111" s="59"/>
+      <c r="BJ111" s="59"/>
+      <c r="BK111" s="59"/>
+      <c r="BL111" s="59"/>
+      <c r="BM111" s="59"/>
+      <c r="BN111" s="59"/>
+      <c r="BO111" s="59"/>
+      <c r="BP111" s="59"/>
+      <c r="BQ111" s="59"/>
+      <c r="BR111" s="59"/>
+      <c r="BS111" s="59"/>
+      <c r="BT111" s="59"/>
+      <c r="BU111" s="59"/>
+      <c r="BV111" s="59"/>
+      <c r="BW111" s="59"/>
+      <c r="BX111" s="59"/>
+      <c r="BY111" s="59"/>
+      <c r="BZ111" s="59"/>
+      <c r="CA111" s="59"/>
+      <c r="CB111" s="59"/>
+      <c r="CC111" s="59"/>
+      <c r="CD111" s="59"/>
+      <c r="CE111" s="59"/>
+      <c r="CF111" s="59"/>
+      <c r="CG111" s="59"/>
+      <c r="CH111" s="59"/>
+      <c r="CI111" s="59"/>
+      <c r="CJ111" s="59"/>
+      <c r="CK111" s="59"/>
+      <c r="CL111" s="59"/>
+      <c r="CM111" s="59"/>
+      <c r="CN111" s="59"/>
+      <c r="CO111" s="59"/>
+      <c r="CP111" s="59"/>
+      <c r="CQ111" s="59"/>
+      <c r="CR111" s="59"/>
+      <c r="CS111" s="59"/>
+      <c r="CT111" s="59"/>
+      <c r="CU111" s="59"/>
+      <c r="CV111" s="59"/>
+      <c r="CW111" s="59"/>
+      <c r="CX111" s="59"/>
+      <c r="CY111" s="59"/>
+      <c r="CZ111" s="59"/>
+      <c r="DA111" s="59"/>
+      <c r="DB111" s="59"/>
+      <c r="DC111" s="59"/>
+      <c r="DD111" s="59"/>
+      <c r="DE111" s="59"/>
+      <c r="DF111" s="59"/>
+      <c r="DG111" s="59"/>
+      <c r="DH111" s="59"/>
+      <c r="DI111" s="59"/>
+      <c r="DJ111" s="59"/>
+      <c r="DK111" s="59"/>
+      <c r="DL111" s="59"/>
+      <c r="DM111" s="59"/>
+      <c r="DN111" s="59"/>
+      <c r="DO111" s="59"/>
+      <c r="DP111" s="59"/>
+      <c r="DQ111" s="59"/>
+      <c r="DR111" s="59"/>
+      <c r="DS111" s="59"/>
+      <c r="DT111" s="59"/>
+      <c r="DU111" s="59"/>
+      <c r="DV111" s="59"/>
+      <c r="DW111" s="59"/>
+      <c r="DX111" s="59"/>
+      <c r="DY111" s="59"/>
+      <c r="DZ111" s="59"/>
+      <c r="EA111" s="59"/>
+      <c r="EB111" s="59"/>
+      <c r="EC111" s="59"/>
+      <c r="ED111" s="59"/>
+      <c r="EE111" s="59"/>
+      <c r="EF111" s="59"/>
+      <c r="EG111" s="59"/>
+      <c r="EH111" s="59"/>
+      <c r="EI111" s="59"/>
+      <c r="EJ111" s="59"/>
+      <c r="EK111" s="59"/>
+      <c r="EL111" s="59"/>
+      <c r="EM111" s="59"/>
+      <c r="EN111" s="59"/>
+      <c r="EO111" s="59"/>
+      <c r="EP111" s="59"/>
+      <c r="EQ111" s="59"/>
+      <c r="ER111" s="59"/>
+      <c r="ES111" s="59"/>
+      <c r="ET111" s="59"/>
+      <c r="EU111" s="59"/>
+      <c r="EV111" s="59"/>
+      <c r="EW111" s="59"/>
+      <c r="EX111" s="59"/>
+      <c r="EY111" s="59"/>
+      <c r="EZ111" s="59"/>
+      <c r="FA111" s="59"/>
+      <c r="FB111" s="59"/>
+      <c r="FC111" s="59"/>
+      <c r="FD111" s="59"/>
+      <c r="FE111" s="59"/>
+      <c r="FF111" s="59"/>
+      <c r="FG111" s="59"/>
+      <c r="FH111" s="59"/>
+      <c r="FI111" s="59"/>
+      <c r="FJ111" s="59"/>
+      <c r="FK111" s="59"/>
+      <c r="FL111" s="59"/>
+      <c r="FM111" s="59"/>
+      <c r="FN111" s="59"/>
+      <c r="FO111" s="59"/>
+      <c r="FP111" s="59"/>
+      <c r="FQ111" s="59"/>
+      <c r="FR111" s="59"/>
+      <c r="FS111" s="59"/>
+      <c r="FT111" s="59"/>
+      <c r="FU111" s="59"/>
+      <c r="FV111" s="59"/>
+      <c r="FW111" s="59"/>
+      <c r="FX111" s="59"/>
+      <c r="FY111" s="59"/>
+      <c r="FZ111" s="59"/>
+      <c r="GA111" s="59"/>
+      <c r="GB111" s="59"/>
+      <c r="GC111" s="59"/>
+      <c r="GD111" s="59"/>
+      <c r="GE111" s="59"/>
+      <c r="GF111" s="59"/>
+      <c r="GG111" s="59"/>
+      <c r="GH111" s="59"/>
+      <c r="GI111" s="59"/>
+      <c r="GJ111" s="59"/>
+      <c r="GK111" s="59"/>
+      <c r="GL111" s="59"/>
+      <c r="GM111" s="59"/>
+      <c r="GN111" s="59"/>
+      <c r="GO111" s="59"/>
+      <c r="GP111" s="59"/>
+      <c r="GQ111" s="59"/>
+      <c r="GR111" s="59"/>
+      <c r="GS111" s="59"/>
+      <c r="GT111" s="59"/>
+      <c r="GU111" s="59"/>
+      <c r="GV111" s="59"/>
+      <c r="GW111" s="59"/>
+      <c r="GX111" s="59"/>
+      <c r="GY111" s="59"/>
+      <c r="GZ111" s="59"/>
+      <c r="HA111" s="59"/>
+      <c r="HB111" s="59"/>
+      <c r="HC111" s="59"/>
+      <c r="HD111" s="59"/>
+      <c r="HE111" s="59"/>
+      <c r="HF111" s="59"/>
+      <c r="HG111" s="59"/>
+      <c r="HH111" s="59"/>
+      <c r="HI111" s="59"/>
+      <c r="HJ111" s="59"/>
+      <c r="HK111" s="59"/>
+      <c r="HL111" s="59"/>
+      <c r="HM111" s="59"/>
+      <c r="HN111" s="59"/>
+      <c r="HO111" s="59"/>
+      <c r="HP111" s="59"/>
+      <c r="HQ111" s="59"/>
+      <c r="HR111" s="59"/>
+      <c r="HS111" s="59"/>
+      <c r="HT111" s="59"/>
+      <c r="HU111" s="59"/>
+      <c r="HV111" s="59"/>
+      <c r="HW111" s="59"/>
+      <c r="HX111" s="59"/>
+      <c r="HY111" s="59"/>
+      <c r="HZ111" s="59"/>
+      <c r="IA111" s="59"/>
+      <c r="IB111" s="59"/>
+      <c r="IC111" s="59"/>
+      <c r="ID111" s="59"/>
+      <c r="IE111" s="59"/>
+      <c r="IF111" s="59"/>
+      <c r="IG111" s="59"/>
+      <c r="IH111" s="59"/>
+      <c r="II111" s="59"/>
+      <c r="IJ111" s="59"/>
+      <c r="IK111" s="59"/>
+      <c r="IL111" s="59"/>
+      <c r="IM111" s="59"/>
+      <c r="IN111" s="59"/>
+      <c r="IO111" s="59"/>
+      <c r="IP111" s="59"/>
+      <c r="IQ111" s="59"/>
+      <c r="IR111" s="59"/>
+      <c r="IS111" s="59"/>
+      <c r="IT111" s="59"/>
+      <c r="IU111" s="59"/>
+      <c r="IV111" s="59"/>
+      <c r="IW111" s="59"/>
+      <c r="IX111" s="59"/>
+      <c r="IY111" s="59"/>
+      <c r="IZ111" s="59"/>
+      <c r="JA111" s="59"/>
+      <c r="JB111" s="59"/>
+      <c r="JC111" s="59"/>
+      <c r="JD111" s="59"/>
+      <c r="JE111" s="59"/>
+      <c r="JF111" s="59"/>
+      <c r="JG111" s="59"/>
+      <c r="JH111" s="59"/>
+      <c r="JI111" s="59"/>
+      <c r="JJ111" s="59"/>
+      <c r="JK111" s="59"/>
+      <c r="JL111" s="59"/>
+      <c r="JM111" s="59"/>
+      <c r="JN111" s="59"/>
+      <c r="JO111" s="59"/>
+      <c r="JP111" s="59"/>
+      <c r="JQ111" s="59"/>
+      <c r="JR111" s="59"/>
+      <c r="JS111" s="59"/>
+      <c r="JT111" s="59"/>
+      <c r="JU111" s="59"/>
+      <c r="JV111" s="59"/>
+      <c r="JW111" s="59"/>
+      <c r="JX111" s="59"/>
+      <c r="JY111" s="59"/>
+      <c r="JZ111" s="59"/>
+      <c r="KA111" s="59"/>
+      <c r="KB111" s="59"/>
+      <c r="KC111" s="59"/>
+      <c r="KD111" s="59"/>
+      <c r="KE111" s="59"/>
+      <c r="KF111" s="59"/>
+      <c r="KG111" s="59"/>
+      <c r="KH111" s="59"/>
+      <c r="KI111" s="59"/>
+      <c r="KJ111" s="59"/>
+      <c r="KK111" s="59"/>
+      <c r="KL111" s="59"/>
+      <c r="KM111" s="59"/>
+      <c r="KN111" s="59"/>
+      <c r="KO111" s="59"/>
+      <c r="KP111" s="59"/>
+      <c r="KQ111" s="59"/>
+      <c r="KR111" s="59"/>
+      <c r="KS111" s="59"/>
+      <c r="KT111" s="59"/>
+      <c r="KU111" s="59"/>
+      <c r="KV111" s="59"/>
+      <c r="KW111" s="59"/>
+      <c r="KX111" s="59"/>
+      <c r="KY111" s="59"/>
+      <c r="KZ111" s="59"/>
+      <c r="LA111" s="59"/>
+      <c r="LB111" s="59"/>
+      <c r="LC111" s="59"/>
+      <c r="LD111" s="59"/>
+      <c r="LE111" s="59"/>
+      <c r="LF111" s="59"/>
+      <c r="LG111" s="59"/>
+      <c r="LH111" s="59"/>
+      <c r="LI111" s="59"/>
+      <c r="LJ111" s="59"/>
+      <c r="LK111" s="59"/>
+      <c r="LL111" s="59"/>
+      <c r="LM111" s="59"/>
+      <c r="LN111" s="59"/>
+      <c r="LO111" s="59"/>
+      <c r="LP111" s="59"/>
+      <c r="LQ111" s="59"/>
+      <c r="LR111" s="59"/>
+      <c r="LS111" s="59"/>
+      <c r="LT111" s="59"/>
+      <c r="LU111" s="59"/>
+      <c r="LV111" s="59"/>
+      <c r="LW111" s="59"/>
+      <c r="LX111" s="59"/>
+      <c r="LY111" s="59"/>
+      <c r="LZ111" s="59"/>
+      <c r="MA111" s="59"/>
+      <c r="MB111" s="59"/>
+      <c r="MC111" s="59"/>
+      <c r="MD111" s="59"/>
+      <c r="ME111" s="59"/>
+      <c r="MF111" s="59"/>
+      <c r="MG111" s="59"/>
+      <c r="MH111" s="59"/>
+      <c r="MI111" s="59"/>
+      <c r="MJ111" s="59"/>
+      <c r="MK111" s="59"/>
+      <c r="ML111" s="59"/>
+      <c r="MM111" s="59"/>
+      <c r="MN111" s="59"/>
+      <c r="MO111" s="59"/>
+      <c r="MP111" s="59"/>
+      <c r="MQ111" s="59"/>
+      <c r="MR111" s="59"/>
+      <c r="MS111" s="59"/>
+      <c r="MT111" s="59"/>
+      <c r="MU111" s="59"/>
+      <c r="MV111" s="59"/>
+      <c r="MW111" s="59"/>
+      <c r="MX111" s="59"/>
+      <c r="MY111" s="59"/>
+      <c r="MZ111" s="59"/>
+      <c r="NA111" s="59"/>
+      <c r="NB111" s="59"/>
+      <c r="NC111" s="59"/>
+      <c r="ND111" s="59"/>
+      <c r="NE111" s="59"/>
+      <c r="NF111" s="59"/>
+      <c r="NG111" s="59"/>
+      <c r="NH111" s="59"/>
+      <c r="NI111" s="59"/>
+      <c r="NJ111" s="59"/>
+      <c r="NK111" s="59"/>
+      <c r="NL111" s="59"/>
+      <c r="NM111" s="59"/>
+      <c r="NN111" s="59"/>
+      <c r="NO111" s="59"/>
+      <c r="NP111" s="59"/>
+      <c r="NQ111" s="59"/>
+      <c r="NR111" s="59"/>
+      <c r="NS111" s="59"/>
+      <c r="NT111" s="59"/>
+      <c r="NU111" s="59"/>
+      <c r="NV111" s="59"/>
+      <c r="NW111" s="59"/>
+      <c r="NX111" s="59"/>
+      <c r="NY111" s="59"/>
+      <c r="NZ111" s="59"/>
+      <c r="OA111" s="59"/>
+      <c r="OB111" s="59"/>
+      <c r="OC111" s="59"/>
+      <c r="OD111" s="59"/>
+      <c r="OE111" s="59"/>
+      <c r="OF111" s="59"/>
+      <c r="OG111" s="59"/>
+      <c r="OH111" s="59"/>
+      <c r="OI111" s="59"/>
+      <c r="OJ111" s="59"/>
+      <c r="OK111" s="59"/>
+      <c r="OL111" s="59"/>
+      <c r="OM111" s="59"/>
+      <c r="ON111" s="59"/>
+      <c r="OO111" s="59"/>
+      <c r="OP111" s="59"/>
+      <c r="OQ111" s="59"/>
+      <c r="OR111" s="59"/>
+      <c r="OS111" s="59"/>
+      <c r="OT111" s="59"/>
+      <c r="OU111" s="59"/>
+      <c r="OV111" s="59"/>
+      <c r="OW111" s="59"/>
+      <c r="OX111" s="59"/>
+      <c r="OY111" s="59"/>
+      <c r="OZ111" s="59"/>
+      <c r="PA111" s="59"/>
+      <c r="PB111" s="71"/>
+    </row>
+    <row r="112" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B112" s="49">
+        <f t="shared" si="98"/>
+        <v>98</v>
+      </c>
+      <c r="C112" s="82"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="84"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="86"/>
+      <c r="I112" s="87"/>
+      <c r="J112" s="87"/>
+      <c r="K112" s="88"/>
+      <c r="L112" s="89"/>
+      <c r="M112" s="58"/>
+      <c r="N112" s="59"/>
+      <c r="O112" s="59"/>
+      <c r="P112" s="59"/>
+      <c r="Q112" s="59"/>
+      <c r="R112" s="59"/>
+      <c r="S112" s="59"/>
+      <c r="T112" s="59"/>
+      <c r="U112" s="59"/>
+      <c r="V112" s="59"/>
+      <c r="W112" s="59"/>
+      <c r="X112" s="59"/>
+      <c r="Y112" s="59"/>
+      <c r="Z112" s="59"/>
+      <c r="AA112" s="59"/>
+      <c r="AB112" s="59"/>
+      <c r="AC112" s="59"/>
+      <c r="AD112" s="59"/>
+      <c r="AE112" s="59"/>
+      <c r="AF112" s="59"/>
+      <c r="AG112" s="59"/>
+      <c r="AH112" s="59"/>
+      <c r="AI112" s="59"/>
+      <c r="AJ112" s="59"/>
+      <c r="AK112" s="59"/>
+      <c r="AL112" s="59"/>
+      <c r="AM112" s="59"/>
+      <c r="AN112" s="59"/>
+      <c r="AO112" s="59"/>
+      <c r="AP112" s="59"/>
+      <c r="AQ112" s="59"/>
+      <c r="AR112" s="59"/>
+      <c r="AS112" s="59"/>
+      <c r="AT112" s="59"/>
+      <c r="AU112" s="59"/>
+      <c r="AV112" s="59"/>
+      <c r="AW112" s="59"/>
+      <c r="AX112" s="59"/>
+      <c r="AY112" s="59"/>
+      <c r="AZ112" s="59"/>
+      <c r="BA112" s="59"/>
+      <c r="BB112" s="59"/>
+      <c r="BC112" s="59"/>
+      <c r="BD112" s="59"/>
+      <c r="BE112" s="59"/>
+      <c r="BF112" s="59"/>
+      <c r="BG112" s="59"/>
+      <c r="BH112" s="59"/>
+      <c r="BI112" s="59"/>
+      <c r="BJ112" s="59"/>
+      <c r="BK112" s="59"/>
+      <c r="BL112" s="59"/>
+      <c r="BM112" s="59"/>
+      <c r="BN112" s="59"/>
+      <c r="BO112" s="59"/>
+      <c r="BP112" s="59"/>
+      <c r="BQ112" s="59"/>
+      <c r="BR112" s="59"/>
+      <c r="BS112" s="59"/>
+      <c r="BT112" s="59"/>
+      <c r="BU112" s="59"/>
+      <c r="BV112" s="59"/>
+      <c r="BW112" s="59"/>
+      <c r="BX112" s="59"/>
+      <c r="BY112" s="59"/>
+      <c r="BZ112" s="59"/>
+      <c r="CA112" s="59"/>
+      <c r="CB112" s="59"/>
+      <c r="CC112" s="59"/>
+      <c r="CD112" s="59"/>
+      <c r="CE112" s="59"/>
+      <c r="CF112" s="59"/>
+      <c r="CG112" s="59"/>
+      <c r="CH112" s="59"/>
+      <c r="CI112" s="59"/>
+      <c r="CJ112" s="59"/>
+      <c r="CK112" s="59"/>
+      <c r="CL112" s="59"/>
+      <c r="CM112" s="59"/>
+      <c r="CN112" s="59"/>
+      <c r="CO112" s="59"/>
+      <c r="CP112" s="59"/>
+      <c r="CQ112" s="59"/>
+      <c r="CR112" s="59"/>
+      <c r="CS112" s="59"/>
+      <c r="CT112" s="59"/>
+      <c r="CU112" s="59"/>
+      <c r="CV112" s="59"/>
+      <c r="CW112" s="59"/>
+      <c r="CX112" s="59"/>
+      <c r="CY112" s="59"/>
+      <c r="CZ112" s="59"/>
+      <c r="DA112" s="59"/>
+      <c r="DB112" s="59"/>
+      <c r="DC112" s="59"/>
+      <c r="DD112" s="59"/>
+      <c r="DE112" s="59"/>
+      <c r="DF112" s="59"/>
+      <c r="DG112" s="59"/>
+      <c r="DH112" s="59"/>
+      <c r="DI112" s="59"/>
+      <c r="DJ112" s="59"/>
+      <c r="DK112" s="59"/>
+      <c r="DL112" s="59"/>
+      <c r="DM112" s="59"/>
+      <c r="DN112" s="59"/>
+      <c r="DO112" s="59"/>
+      <c r="DP112" s="59"/>
+      <c r="DQ112" s="59"/>
+      <c r="DR112" s="59"/>
+      <c r="DS112" s="59"/>
+      <c r="DT112" s="59"/>
+      <c r="DU112" s="59"/>
+      <c r="DV112" s="59"/>
+      <c r="DW112" s="59"/>
+      <c r="DX112" s="59"/>
+      <c r="DY112" s="59"/>
+      <c r="DZ112" s="59"/>
+      <c r="EA112" s="59"/>
+      <c r="EB112" s="59"/>
+      <c r="EC112" s="59"/>
+      <c r="ED112" s="59"/>
+      <c r="EE112" s="59"/>
+      <c r="EF112" s="59"/>
+      <c r="EG112" s="59"/>
+      <c r="EH112" s="59"/>
+      <c r="EI112" s="59"/>
+      <c r="EJ112" s="59"/>
+      <c r="EK112" s="59"/>
+      <c r="EL112" s="59"/>
+      <c r="EM112" s="59"/>
+      <c r="EN112" s="59"/>
+      <c r="EO112" s="59"/>
+      <c r="EP112" s="59"/>
+      <c r="EQ112" s="59"/>
+      <c r="ER112" s="59"/>
+      <c r="ES112" s="59"/>
+      <c r="ET112" s="59"/>
+      <c r="EU112" s="59"/>
+      <c r="EV112" s="59"/>
+      <c r="EW112" s="59"/>
+      <c r="EX112" s="59"/>
+      <c r="EY112" s="59"/>
+      <c r="EZ112" s="59"/>
+      <c r="FA112" s="59"/>
+      <c r="FB112" s="59"/>
+      <c r="FC112" s="59"/>
+      <c r="FD112" s="59"/>
+      <c r="FE112" s="59"/>
+      <c r="FF112" s="59"/>
+      <c r="FG112" s="59"/>
+      <c r="FH112" s="59"/>
+      <c r="FI112" s="59"/>
+      <c r="FJ112" s="59"/>
+      <c r="FK112" s="59"/>
+      <c r="FL112" s="59"/>
+      <c r="FM112" s="59"/>
+      <c r="FN112" s="59"/>
+      <c r="FO112" s="59"/>
+      <c r="FP112" s="59"/>
+      <c r="FQ112" s="59"/>
+      <c r="FR112" s="59"/>
+      <c r="FS112" s="59"/>
+      <c r="FT112" s="59"/>
+      <c r="FU112" s="59"/>
+      <c r="FV112" s="59"/>
+      <c r="FW112" s="59"/>
+      <c r="FX112" s="59"/>
+      <c r="FY112" s="59"/>
+      <c r="FZ112" s="59"/>
+      <c r="GA112" s="59"/>
+      <c r="GB112" s="59"/>
+      <c r="GC112" s="59"/>
+      <c r="GD112" s="59"/>
+      <c r="GE112" s="59"/>
+      <c r="GF112" s="59"/>
+      <c r="GG112" s="59"/>
+      <c r="GH112" s="59"/>
+      <c r="GI112" s="59"/>
+      <c r="GJ112" s="59"/>
+      <c r="GK112" s="59"/>
+      <c r="GL112" s="59"/>
+      <c r="GM112" s="59"/>
+      <c r="GN112" s="59"/>
+      <c r="GO112" s="59"/>
+      <c r="GP112" s="59"/>
+      <c r="GQ112" s="59"/>
+      <c r="GR112" s="59"/>
+      <c r="GS112" s="59"/>
+      <c r="GT112" s="59"/>
+      <c r="GU112" s="59"/>
+      <c r="GV112" s="59"/>
+      <c r="GW112" s="59"/>
+      <c r="GX112" s="59"/>
+      <c r="GY112" s="59"/>
+      <c r="GZ112" s="59"/>
+      <c r="HA112" s="59"/>
+      <c r="HB112" s="59"/>
+      <c r="HC112" s="59"/>
+      <c r="HD112" s="59"/>
+      <c r="HE112" s="59"/>
+      <c r="HF112" s="59"/>
+      <c r="HG112" s="59"/>
+      <c r="HH112" s="59"/>
+      <c r="HI112" s="59"/>
+      <c r="HJ112" s="59"/>
+      <c r="HK112" s="59"/>
+      <c r="HL112" s="59"/>
+      <c r="HM112" s="59"/>
+      <c r="HN112" s="59"/>
+      <c r="HO112" s="59"/>
+      <c r="HP112" s="59"/>
+      <c r="HQ112" s="59"/>
+      <c r="HR112" s="59"/>
+      <c r="HS112" s="59"/>
+      <c r="HT112" s="59"/>
+      <c r="HU112" s="59"/>
+      <c r="HV112" s="59"/>
+      <c r="HW112" s="59"/>
+      <c r="HX112" s="59"/>
+      <c r="HY112" s="59"/>
+      <c r="HZ112" s="59"/>
+      <c r="IA112" s="59"/>
+      <c r="IB112" s="59"/>
+      <c r="IC112" s="59"/>
+      <c r="ID112" s="59"/>
+      <c r="IE112" s="59"/>
+      <c r="IF112" s="59"/>
+      <c r="IG112" s="59"/>
+      <c r="IH112" s="59"/>
+      <c r="II112" s="59"/>
+      <c r="IJ112" s="59"/>
+      <c r="IK112" s="59"/>
+      <c r="IL112" s="59"/>
+      <c r="IM112" s="59"/>
+      <c r="IN112" s="59"/>
+      <c r="IO112" s="59"/>
+      <c r="IP112" s="59"/>
+      <c r="IQ112" s="59"/>
+      <c r="IR112" s="59"/>
+      <c r="IS112" s="59"/>
+      <c r="IT112" s="59"/>
+      <c r="IU112" s="59"/>
+      <c r="IV112" s="59"/>
+      <c r="IW112" s="59"/>
+      <c r="IX112" s="59"/>
+      <c r="IY112" s="59"/>
+      <c r="IZ112" s="59"/>
+      <c r="JA112" s="59"/>
+      <c r="JB112" s="59"/>
+      <c r="JC112" s="59"/>
+      <c r="JD112" s="59"/>
+      <c r="JE112" s="59"/>
+      <c r="JF112" s="59"/>
+      <c r="JG112" s="59"/>
+      <c r="JH112" s="59"/>
+      <c r="JI112" s="59"/>
+      <c r="JJ112" s="59"/>
+      <c r="JK112" s="59"/>
+      <c r="JL112" s="59"/>
+      <c r="JM112" s="59"/>
+      <c r="JN112" s="59"/>
+      <c r="JO112" s="59"/>
+      <c r="JP112" s="59"/>
+      <c r="JQ112" s="59"/>
+      <c r="JR112" s="59"/>
+      <c r="JS112" s="59"/>
+      <c r="JT112" s="59"/>
+      <c r="JU112" s="59"/>
+      <c r="JV112" s="59"/>
+      <c r="JW112" s="59"/>
+      <c r="JX112" s="59"/>
+      <c r="JY112" s="59"/>
+      <c r="JZ112" s="59"/>
+      <c r="KA112" s="59"/>
+      <c r="KB112" s="59"/>
+      <c r="KC112" s="59"/>
+      <c r="KD112" s="59"/>
+      <c r="KE112" s="59"/>
+      <c r="KF112" s="59"/>
+      <c r="KG112" s="59"/>
+      <c r="KH112" s="59"/>
+      <c r="KI112" s="59"/>
+      <c r="KJ112" s="59"/>
+      <c r="KK112" s="59"/>
+      <c r="KL112" s="59"/>
+      <c r="KM112" s="59"/>
+      <c r="KN112" s="59"/>
+      <c r="KO112" s="59"/>
+      <c r="KP112" s="59"/>
+      <c r="KQ112" s="59"/>
+      <c r="KR112" s="59"/>
+      <c r="KS112" s="59"/>
+      <c r="KT112" s="59"/>
+      <c r="KU112" s="59"/>
+      <c r="KV112" s="59"/>
+      <c r="KW112" s="59"/>
+      <c r="KX112" s="59"/>
+      <c r="KY112" s="59"/>
+      <c r="KZ112" s="59"/>
+      <c r="LA112" s="59"/>
+      <c r="LB112" s="59"/>
+      <c r="LC112" s="59"/>
+      <c r="LD112" s="59"/>
+      <c r="LE112" s="59"/>
+      <c r="LF112" s="59"/>
+      <c r="LG112" s="59"/>
+      <c r="LH112" s="59"/>
+      <c r="LI112" s="59"/>
+      <c r="LJ112" s="59"/>
+      <c r="LK112" s="59"/>
+      <c r="LL112" s="59"/>
+      <c r="LM112" s="59"/>
+      <c r="LN112" s="59"/>
+      <c r="LO112" s="59"/>
+      <c r="LP112" s="59"/>
+      <c r="LQ112" s="59"/>
+      <c r="LR112" s="59"/>
+      <c r="LS112" s="59"/>
+      <c r="LT112" s="59"/>
+      <c r="LU112" s="59"/>
+      <c r="LV112" s="59"/>
+      <c r="LW112" s="59"/>
+      <c r="LX112" s="59"/>
+      <c r="LY112" s="59"/>
+      <c r="LZ112" s="59"/>
+      <c r="MA112" s="59"/>
+      <c r="MB112" s="59"/>
+      <c r="MC112" s="59"/>
+      <c r="MD112" s="59"/>
+      <c r="ME112" s="59"/>
+      <c r="MF112" s="59"/>
+      <c r="MG112" s="59"/>
+      <c r="MH112" s="59"/>
+      <c r="MI112" s="59"/>
+      <c r="MJ112" s="59"/>
+      <c r="MK112" s="59"/>
+      <c r="ML112" s="59"/>
+      <c r="MM112" s="59"/>
+      <c r="MN112" s="59"/>
+      <c r="MO112" s="59"/>
+      <c r="MP112" s="59"/>
+      <c r="MQ112" s="59"/>
+      <c r="MR112" s="59"/>
+      <c r="MS112" s="59"/>
+      <c r="MT112" s="59"/>
+      <c r="MU112" s="59"/>
+      <c r="MV112" s="59"/>
+      <c r="MW112" s="59"/>
+      <c r="MX112" s="59"/>
+      <c r="MY112" s="59"/>
+      <c r="MZ112" s="59"/>
+      <c r="NA112" s="59"/>
+      <c r="NB112" s="59"/>
+      <c r="NC112" s="59"/>
+      <c r="ND112" s="59"/>
+      <c r="NE112" s="59"/>
+      <c r="NF112" s="59"/>
+      <c r="NG112" s="59"/>
+      <c r="NH112" s="59"/>
+      <c r="NI112" s="59"/>
+      <c r="NJ112" s="59"/>
+      <c r="NK112" s="59"/>
+      <c r="NL112" s="59"/>
+      <c r="NM112" s="59"/>
+      <c r="NN112" s="59"/>
+      <c r="NO112" s="59"/>
+      <c r="NP112" s="59"/>
+      <c r="NQ112" s="59"/>
+      <c r="NR112" s="59"/>
+      <c r="NS112" s="59"/>
+      <c r="NT112" s="59"/>
+      <c r="NU112" s="59"/>
+      <c r="NV112" s="59"/>
+      <c r="NW112" s="59"/>
+      <c r="NX112" s="59"/>
+      <c r="NY112" s="59"/>
+      <c r="NZ112" s="59"/>
+      <c r="OA112" s="59"/>
+      <c r="OB112" s="59"/>
+      <c r="OC112" s="59"/>
+      <c r="OD112" s="59"/>
+      <c r="OE112" s="59"/>
+      <c r="OF112" s="59"/>
+      <c r="OG112" s="59"/>
+      <c r="OH112" s="59"/>
+      <c r="OI112" s="59"/>
+      <c r="OJ112" s="59"/>
+      <c r="OK112" s="59"/>
+      <c r="OL112" s="59"/>
+      <c r="OM112" s="59"/>
+      <c r="ON112" s="59"/>
+      <c r="OO112" s="59"/>
+      <c r="OP112" s="59"/>
+      <c r="OQ112" s="59"/>
+      <c r="OR112" s="59"/>
+      <c r="OS112" s="59"/>
+      <c r="OT112" s="59"/>
+      <c r="OU112" s="59"/>
+      <c r="OV112" s="59"/>
+      <c r="OW112" s="59"/>
+      <c r="OX112" s="59"/>
+      <c r="OY112" s="59"/>
+      <c r="OZ112" s="59"/>
+      <c r="PA112" s="59"/>
+      <c r="PB112" s="71"/>
+    </row>
+    <row r="113" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B113" s="49">
+        <f t="shared" si="98"/>
+        <v>99</v>
+      </c>
+      <c r="C113" s="82"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="84"/>
+      <c r="F113" s="82"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="86"/>
+      <c r="I113" s="87"/>
+      <c r="J113" s="87"/>
+      <c r="K113" s="88"/>
+      <c r="L113" s="89"/>
+      <c r="M113" s="58"/>
+      <c r="N113" s="59"/>
+      <c r="O113" s="59"/>
+      <c r="P113" s="59"/>
+      <c r="Q113" s="59"/>
+      <c r="R113" s="59"/>
+      <c r="S113" s="59"/>
+      <c r="T113" s="59"/>
+      <c r="U113" s="59"/>
+      <c r="V113" s="59"/>
+      <c r="W113" s="59"/>
+      <c r="X113" s="59"/>
+      <c r="Y113" s="59"/>
+      <c r="Z113" s="59"/>
+      <c r="AA113" s="59"/>
+      <c r="AB113" s="59"/>
+      <c r="AC113" s="59"/>
+      <c r="AD113" s="59"/>
+      <c r="AE113" s="59"/>
+      <c r="AF113" s="59"/>
+      <c r="AG113" s="59"/>
+      <c r="AH113" s="59"/>
+      <c r="AI113" s="59"/>
+      <c r="AJ113" s="59"/>
+      <c r="AK113" s="59"/>
+      <c r="AL113" s="59"/>
+      <c r="AM113" s="59"/>
+      <c r="AN113" s="59"/>
+      <c r="AO113" s="59"/>
+      <c r="AP113" s="59"/>
+      <c r="AQ113" s="59"/>
+      <c r="AR113" s="59"/>
+      <c r="AS113" s="59"/>
+      <c r="AT113" s="59"/>
+      <c r="AU113" s="59"/>
+      <c r="AV113" s="59"/>
+      <c r="AW113" s="59"/>
+      <c r="AX113" s="59"/>
+      <c r="AY113" s="59"/>
+      <c r="AZ113" s="59"/>
+      <c r="BA113" s="59"/>
+      <c r="BB113" s="59"/>
+      <c r="BC113" s="59"/>
+      <c r="BD113" s="59"/>
+      <c r="BE113" s="59"/>
+      <c r="BF113" s="59"/>
+      <c r="BG113" s="59"/>
+      <c r="BH113" s="59"/>
+      <c r="BI113" s="59"/>
+      <c r="BJ113" s="59"/>
+      <c r="BK113" s="59"/>
+      <c r="BL113" s="59"/>
+      <c r="BM113" s="59"/>
+      <c r="BN113" s="59"/>
+      <c r="BO113" s="59"/>
+      <c r="BP113" s="59"/>
+      <c r="BQ113" s="59"/>
+      <c r="BR113" s="59"/>
+      <c r="BS113" s="59"/>
+      <c r="BT113" s="59"/>
+      <c r="BU113" s="59"/>
+      <c r="BV113" s="59"/>
+      <c r="BW113" s="59"/>
+      <c r="BX113" s="59"/>
+      <c r="BY113" s="59"/>
+      <c r="BZ113" s="59"/>
+      <c r="CA113" s="59"/>
+      <c r="CB113" s="59"/>
+      <c r="CC113" s="59"/>
+      <c r="CD113" s="59"/>
+      <c r="CE113" s="59"/>
+      <c r="CF113" s="59"/>
+      <c r="CG113" s="59"/>
+      <c r="CH113" s="59"/>
+      <c r="CI113" s="59"/>
+      <c r="CJ113" s="59"/>
+      <c r="CK113" s="59"/>
+      <c r="CL113" s="59"/>
+      <c r="CM113" s="59"/>
+      <c r="CN113" s="59"/>
+      <c r="CO113" s="59"/>
+      <c r="CP113" s="59"/>
+      <c r="CQ113" s="59"/>
+      <c r="CR113" s="59"/>
+      <c r="CS113" s="59"/>
+      <c r="CT113" s="59"/>
+      <c r="CU113" s="59"/>
+      <c r="CV113" s="59"/>
+      <c r="CW113" s="59"/>
+      <c r="CX113" s="59"/>
+      <c r="CY113" s="59"/>
+      <c r="CZ113" s="59"/>
+      <c r="DA113" s="59"/>
+      <c r="DB113" s="59"/>
+      <c r="DC113" s="59"/>
+      <c r="DD113" s="59"/>
+      <c r="DE113" s="59"/>
+      <c r="DF113" s="59"/>
+      <c r="DG113" s="59"/>
+      <c r="DH113" s="59"/>
+      <c r="DI113" s="59"/>
+      <c r="DJ113" s="59"/>
+      <c r="DK113" s="59"/>
+      <c r="DL113" s="59"/>
+      <c r="DM113" s="59"/>
+      <c r="DN113" s="59"/>
+      <c r="DO113" s="59"/>
+      <c r="DP113" s="59"/>
+      <c r="DQ113" s="59"/>
+      <c r="DR113" s="59"/>
+      <c r="DS113" s="59"/>
+      <c r="DT113" s="59"/>
+      <c r="DU113" s="59"/>
+      <c r="DV113" s="59"/>
+      <c r="DW113" s="59"/>
+      <c r="DX113" s="59"/>
+      <c r="DY113" s="59"/>
+      <c r="DZ113" s="59"/>
+      <c r="EA113" s="59"/>
+      <c r="EB113" s="59"/>
+      <c r="EC113" s="59"/>
+      <c r="ED113" s="59"/>
+      <c r="EE113" s="59"/>
+      <c r="EF113" s="59"/>
+      <c r="EG113" s="59"/>
+      <c r="EH113" s="59"/>
+      <c r="EI113" s="59"/>
+      <c r="EJ113" s="59"/>
+      <c r="EK113" s="59"/>
+      <c r="EL113" s="59"/>
+      <c r="EM113" s="59"/>
+      <c r="EN113" s="59"/>
+      <c r="EO113" s="59"/>
+      <c r="EP113" s="59"/>
+      <c r="EQ113" s="59"/>
+      <c r="ER113" s="59"/>
+      <c r="ES113" s="59"/>
+      <c r="ET113" s="59"/>
+      <c r="EU113" s="59"/>
+      <c r="EV113" s="59"/>
+      <c r="EW113" s="59"/>
+      <c r="EX113" s="59"/>
+      <c r="EY113" s="59"/>
+      <c r="EZ113" s="59"/>
+      <c r="FA113" s="59"/>
+      <c r="FB113" s="59"/>
+      <c r="FC113" s="59"/>
+      <c r="FD113" s="59"/>
+      <c r="FE113" s="59"/>
+      <c r="FF113" s="59"/>
+      <c r="FG113" s="59"/>
+      <c r="FH113" s="59"/>
+      <c r="FI113" s="59"/>
+      <c r="FJ113" s="59"/>
+      <c r="FK113" s="59"/>
+      <c r="FL113" s="59"/>
+      <c r="FM113" s="59"/>
+      <c r="FN113" s="59"/>
+      <c r="FO113" s="59"/>
+      <c r="FP113" s="59"/>
+      <c r="FQ113" s="59"/>
+      <c r="FR113" s="59"/>
+      <c r="FS113" s="59"/>
+      <c r="FT113" s="59"/>
+      <c r="FU113" s="59"/>
+      <c r="FV113" s="59"/>
+      <c r="FW113" s="59"/>
+      <c r="FX113" s="59"/>
+      <c r="FY113" s="59"/>
+      <c r="FZ113" s="59"/>
+      <c r="GA113" s="59"/>
+      <c r="GB113" s="59"/>
+      <c r="GC113" s="59"/>
+      <c r="GD113" s="59"/>
+      <c r="GE113" s="59"/>
+      <c r="GF113" s="59"/>
+      <c r="GG113" s="59"/>
+      <c r="GH113" s="59"/>
+      <c r="GI113" s="59"/>
+      <c r="GJ113" s="59"/>
+      <c r="GK113" s="59"/>
+      <c r="GL113" s="59"/>
+      <c r="GM113" s="59"/>
+      <c r="GN113" s="59"/>
+      <c r="GO113" s="59"/>
+      <c r="GP113" s="59"/>
+      <c r="GQ113" s="59"/>
+      <c r="GR113" s="59"/>
+      <c r="GS113" s="59"/>
+      <c r="GT113" s="59"/>
+      <c r="GU113" s="59"/>
+      <c r="GV113" s="59"/>
+      <c r="GW113" s="59"/>
+      <c r="GX113" s="59"/>
+      <c r="GY113" s="59"/>
+      <c r="GZ113" s="59"/>
+      <c r="HA113" s="59"/>
+      <c r="HB113" s="59"/>
+      <c r="HC113" s="59"/>
+      <c r="HD113" s="59"/>
+      <c r="HE113" s="59"/>
+      <c r="HF113" s="59"/>
+      <c r="HG113" s="59"/>
+      <c r="HH113" s="59"/>
+      <c r="HI113" s="59"/>
+      <c r="HJ113" s="59"/>
+      <c r="HK113" s="59"/>
+      <c r="HL113" s="59"/>
+      <c r="HM113" s="59"/>
+      <c r="HN113" s="59"/>
+      <c r="HO113" s="59"/>
+      <c r="HP113" s="59"/>
+      <c r="HQ113" s="59"/>
+      <c r="HR113" s="59"/>
+      <c r="HS113" s="59"/>
+      <c r="HT113" s="59"/>
+      <c r="HU113" s="59"/>
+      <c r="HV113" s="59"/>
+      <c r="HW113" s="59"/>
+      <c r="HX113" s="59"/>
+      <c r="HY113" s="59"/>
+      <c r="HZ113" s="59"/>
+      <c r="IA113" s="59"/>
+      <c r="IB113" s="59"/>
+      <c r="IC113" s="59"/>
+      <c r="ID113" s="59"/>
+      <c r="IE113" s="59"/>
+      <c r="IF113" s="59"/>
+      <c r="IG113" s="59"/>
+      <c r="IH113" s="59"/>
+      <c r="II113" s="59"/>
+      <c r="IJ113" s="59"/>
+      <c r="IK113" s="59"/>
+      <c r="IL113" s="59"/>
+      <c r="IM113" s="59"/>
+      <c r="IN113" s="59"/>
+      <c r="IO113" s="59"/>
+      <c r="IP113" s="59"/>
+      <c r="IQ113" s="59"/>
+      <c r="IR113" s="59"/>
+      <c r="IS113" s="59"/>
+      <c r="IT113" s="59"/>
+      <c r="IU113" s="59"/>
+      <c r="IV113" s="59"/>
+      <c r="IW113" s="59"/>
+      <c r="IX113" s="59"/>
+      <c r="IY113" s="59"/>
+      <c r="IZ113" s="59"/>
+      <c r="JA113" s="59"/>
+      <c r="JB113" s="59"/>
+      <c r="JC113" s="59"/>
+      <c r="JD113" s="59"/>
+      <c r="JE113" s="59"/>
+      <c r="JF113" s="59"/>
+      <c r="JG113" s="59"/>
+      <c r="JH113" s="59"/>
+      <c r="JI113" s="59"/>
+      <c r="JJ113" s="59"/>
+      <c r="JK113" s="59"/>
+      <c r="JL113" s="59"/>
+      <c r="JM113" s="59"/>
+      <c r="JN113" s="59"/>
+      <c r="JO113" s="59"/>
+      <c r="JP113" s="59"/>
+      <c r="JQ113" s="59"/>
+      <c r="JR113" s="59"/>
+      <c r="JS113" s="59"/>
+      <c r="JT113" s="59"/>
+      <c r="JU113" s="59"/>
+      <c r="JV113" s="59"/>
+      <c r="JW113" s="59"/>
+      <c r="JX113" s="59"/>
+      <c r="JY113" s="59"/>
+      <c r="JZ113" s="59"/>
+      <c r="KA113" s="59"/>
+      <c r="KB113" s="59"/>
+      <c r="KC113" s="59"/>
+      <c r="KD113" s="59"/>
+      <c r="KE113" s="59"/>
+      <c r="KF113" s="59"/>
+      <c r="KG113" s="59"/>
+      <c r="KH113" s="59"/>
+      <c r="KI113" s="59"/>
+      <c r="KJ113" s="59"/>
+      <c r="KK113" s="59"/>
+      <c r="KL113" s="59"/>
+      <c r="KM113" s="59"/>
+      <c r="KN113" s="59"/>
+      <c r="KO113" s="59"/>
+      <c r="KP113" s="59"/>
+      <c r="KQ113" s="59"/>
+      <c r="KR113" s="59"/>
+      <c r="KS113" s="59"/>
+      <c r="KT113" s="59"/>
+      <c r="KU113" s="59"/>
+      <c r="KV113" s="59"/>
+      <c r="KW113" s="59"/>
+      <c r="KX113" s="59"/>
+      <c r="KY113" s="59"/>
+      <c r="KZ113" s="59"/>
+      <c r="LA113" s="59"/>
+      <c r="LB113" s="59"/>
+      <c r="LC113" s="59"/>
+      <c r="LD113" s="59"/>
+      <c r="LE113" s="59"/>
+      <c r="LF113" s="59"/>
+      <c r="LG113" s="59"/>
+      <c r="LH113" s="59"/>
+      <c r="LI113" s="59"/>
+      <c r="LJ113" s="59"/>
+      <c r="LK113" s="59"/>
+      <c r="LL113" s="59"/>
+      <c r="LM113" s="59"/>
+      <c r="LN113" s="59"/>
+      <c r="LO113" s="59"/>
+      <c r="LP113" s="59"/>
+      <c r="LQ113" s="59"/>
+      <c r="LR113" s="59"/>
+      <c r="LS113" s="59"/>
+      <c r="LT113" s="59"/>
+      <c r="LU113" s="59"/>
+      <c r="LV113" s="59"/>
+      <c r="LW113" s="59"/>
+      <c r="LX113" s="59"/>
+      <c r="LY113" s="59"/>
+      <c r="LZ113" s="59"/>
+      <c r="MA113" s="59"/>
+      <c r="MB113" s="59"/>
+      <c r="MC113" s="59"/>
+      <c r="MD113" s="59"/>
+      <c r="ME113" s="59"/>
+      <c r="MF113" s="59"/>
+      <c r="MG113" s="59"/>
+      <c r="MH113" s="59"/>
+      <c r="MI113" s="59"/>
+      <c r="MJ113" s="59"/>
+      <c r="MK113" s="59"/>
+      <c r="ML113" s="59"/>
+      <c r="MM113" s="59"/>
+      <c r="MN113" s="59"/>
+      <c r="MO113" s="59"/>
+      <c r="MP113" s="59"/>
+      <c r="MQ113" s="59"/>
+      <c r="MR113" s="59"/>
+      <c r="MS113" s="59"/>
+      <c r="MT113" s="59"/>
+      <c r="MU113" s="59"/>
+      <c r="MV113" s="59"/>
+      <c r="MW113" s="59"/>
+      <c r="MX113" s="59"/>
+      <c r="MY113" s="59"/>
+      <c r="MZ113" s="59"/>
+      <c r="NA113" s="59"/>
+      <c r="NB113" s="59"/>
+      <c r="NC113" s="59"/>
+      <c r="ND113" s="59"/>
+      <c r="NE113" s="59"/>
+      <c r="NF113" s="59"/>
+      <c r="NG113" s="59"/>
+      <c r="NH113" s="59"/>
+      <c r="NI113" s="59"/>
+      <c r="NJ113" s="59"/>
+      <c r="NK113" s="59"/>
+      <c r="NL113" s="59"/>
+      <c r="NM113" s="59"/>
+      <c r="NN113" s="59"/>
+      <c r="NO113" s="59"/>
+      <c r="NP113" s="59"/>
+      <c r="NQ113" s="59"/>
+      <c r="NR113" s="59"/>
+      <c r="NS113" s="59"/>
+      <c r="NT113" s="59"/>
+      <c r="NU113" s="59"/>
+      <c r="NV113" s="59"/>
+      <c r="NW113" s="59"/>
+      <c r="NX113" s="59"/>
+      <c r="NY113" s="59"/>
+      <c r="NZ113" s="59"/>
+      <c r="OA113" s="59"/>
+      <c r="OB113" s="59"/>
+      <c r="OC113" s="59"/>
+      <c r="OD113" s="59"/>
+      <c r="OE113" s="59"/>
+      <c r="OF113" s="59"/>
+      <c r="OG113" s="59"/>
+      <c r="OH113" s="59"/>
+      <c r="OI113" s="59"/>
+      <c r="OJ113" s="59"/>
+      <c r="OK113" s="59"/>
+      <c r="OL113" s="59"/>
+      <c r="OM113" s="59"/>
+      <c r="ON113" s="59"/>
+      <c r="OO113" s="59"/>
+      <c r="OP113" s="59"/>
+      <c r="OQ113" s="59"/>
+      <c r="OR113" s="59"/>
+      <c r="OS113" s="59"/>
+      <c r="OT113" s="59"/>
+      <c r="OU113" s="59"/>
+      <c r="OV113" s="59"/>
+      <c r="OW113" s="59"/>
+      <c r="OX113" s="59"/>
+      <c r="OY113" s="59"/>
+      <c r="OZ113" s="59"/>
+      <c r="PA113" s="59"/>
+      <c r="PB113" s="71"/>
+    </row>
+    <row r="114" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B114" s="49">
+        <f t="shared" si="98"/>
+        <v>100</v>
+      </c>
+      <c r="C114" s="82"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="84"/>
+      <c r="F114" s="82"/>
+      <c r="G114" s="85" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="H114" s="86"/>
+      <c r="I114" s="87"/>
+      <c r="J114" s="87"/>
+      <c r="K114" s="88"/>
+      <c r="L114" s="89"/>
+      <c r="M114" s="58"/>
+      <c r="N114" s="59"/>
+      <c r="O114" s="59"/>
+      <c r="P114" s="59"/>
+      <c r="Q114" s="59"/>
+      <c r="R114" s="59"/>
+      <c r="S114" s="59"/>
+      <c r="T114" s="59"/>
+      <c r="U114" s="59"/>
+      <c r="V114" s="59"/>
+      <c r="W114" s="59"/>
+      <c r="X114" s="59"/>
+      <c r="Y114" s="59"/>
+      <c r="Z114" s="59"/>
+      <c r="AA114" s="59"/>
+      <c r="AB114" s="59"/>
+      <c r="AC114" s="59"/>
+      <c r="AD114" s="59"/>
+      <c r="AE114" s="59"/>
+      <c r="AF114" s="59"/>
+      <c r="AG114" s="59"/>
+      <c r="AH114" s="59"/>
+      <c r="AI114" s="59"/>
+      <c r="AJ114" s="59"/>
+      <c r="AK114" s="59"/>
+      <c r="AL114" s="59"/>
+      <c r="AM114" s="59"/>
+      <c r="AN114" s="59"/>
+      <c r="AO114" s="59"/>
+      <c r="AP114" s="59"/>
+      <c r="AQ114" s="59"/>
+      <c r="AR114" s="59"/>
+      <c r="AS114" s="59"/>
+      <c r="AT114" s="59"/>
+      <c r="AU114" s="59"/>
+      <c r="AV114" s="59"/>
+      <c r="AW114" s="59"/>
+      <c r="AX114" s="59"/>
+      <c r="AY114" s="59"/>
+      <c r="AZ114" s="59"/>
+      <c r="BA114" s="59"/>
+      <c r="BB114" s="59"/>
+      <c r="BC114" s="59"/>
+      <c r="BD114" s="59"/>
+      <c r="BE114" s="59"/>
+      <c r="BF114" s="59"/>
+      <c r="BG114" s="59"/>
+      <c r="BH114" s="59"/>
+      <c r="BI114" s="59"/>
+      <c r="BJ114" s="59"/>
+      <c r="BK114" s="59"/>
+      <c r="BL114" s="59"/>
+      <c r="BM114" s="59"/>
+      <c r="BN114" s="59"/>
+      <c r="BO114" s="59"/>
+      <c r="BP114" s="59"/>
+      <c r="BQ114" s="59"/>
+      <c r="BR114" s="59"/>
+      <c r="BS114" s="59"/>
+      <c r="BT114" s="59"/>
+      <c r="BU114" s="59"/>
+      <c r="BV114" s="59"/>
+      <c r="BW114" s="59"/>
+      <c r="BX114" s="59"/>
+      <c r="BY114" s="59"/>
+      <c r="BZ114" s="59"/>
+      <c r="CA114" s="59"/>
+      <c r="CB114" s="59"/>
+      <c r="CC114" s="59"/>
+      <c r="CD114" s="59"/>
+      <c r="CE114" s="59"/>
+      <c r="CF114" s="59"/>
+      <c r="CG114" s="59"/>
+      <c r="CH114" s="59"/>
+      <c r="CI114" s="59"/>
+      <c r="CJ114" s="59"/>
+      <c r="CK114" s="59"/>
+      <c r="CL114" s="59"/>
+      <c r="CM114" s="59"/>
+      <c r="CN114" s="59"/>
+      <c r="CO114" s="59"/>
+      <c r="CP114" s="59"/>
+      <c r="CQ114" s="59"/>
+      <c r="CR114" s="59"/>
+      <c r="CS114" s="59"/>
+      <c r="CT114" s="59"/>
+      <c r="CU114" s="59"/>
+      <c r="CV114" s="59"/>
+      <c r="CW114" s="59"/>
+      <c r="CX114" s="59"/>
+      <c r="CY114" s="59"/>
+      <c r="CZ114" s="59"/>
+      <c r="DA114" s="59"/>
+      <c r="DB114" s="59"/>
+      <c r="DC114" s="59"/>
+      <c r="DD114" s="59"/>
+      <c r="DE114" s="59"/>
+      <c r="DF114" s="59"/>
+      <c r="DG114" s="59"/>
+      <c r="DH114" s="59"/>
+      <c r="DI114" s="59"/>
+      <c r="DJ114" s="59"/>
+      <c r="DK114" s="59"/>
+      <c r="DL114" s="59"/>
+      <c r="DM114" s="59"/>
+      <c r="DN114" s="59"/>
+      <c r="DO114" s="59"/>
+      <c r="DP114" s="59"/>
+      <c r="DQ114" s="59"/>
+      <c r="DR114" s="59"/>
+      <c r="DS114" s="59"/>
+      <c r="DT114" s="59"/>
+      <c r="DU114" s="59"/>
+      <c r="DV114" s="59"/>
+      <c r="DW114" s="59"/>
+      <c r="DX114" s="59"/>
+      <c r="DY114" s="59"/>
+      <c r="DZ114" s="59"/>
+      <c r="EA114" s="59"/>
+      <c r="EB114" s="59"/>
+      <c r="EC114" s="59"/>
+      <c r="ED114" s="59"/>
+      <c r="EE114" s="59"/>
+      <c r="EF114" s="59"/>
+      <c r="EG114" s="59"/>
+      <c r="EH114" s="59"/>
+      <c r="EI114" s="59"/>
+      <c r="EJ114" s="59"/>
+      <c r="EK114" s="59"/>
+      <c r="EL114" s="59"/>
+      <c r="EM114" s="59"/>
+      <c r="EN114" s="59"/>
+      <c r="EO114" s="59"/>
+      <c r="EP114" s="59"/>
+      <c r="EQ114" s="59"/>
+      <c r="ER114" s="59"/>
+      <c r="ES114" s="59"/>
+      <c r="ET114" s="59"/>
+      <c r="EU114" s="59"/>
+      <c r="EV114" s="59"/>
+      <c r="EW114" s="59"/>
+      <c r="EX114" s="59"/>
+      <c r="EY114" s="59"/>
+      <c r="EZ114" s="59"/>
+      <c r="FA114" s="59"/>
+      <c r="FB114" s="59"/>
+      <c r="FC114" s="59"/>
+      <c r="FD114" s="59"/>
+      <c r="FE114" s="59"/>
+      <c r="FF114" s="59"/>
+      <c r="FG114" s="59"/>
+      <c r="FH114" s="59"/>
+      <c r="FI114" s="59"/>
+      <c r="FJ114" s="59"/>
+      <c r="FK114" s="59"/>
+      <c r="FL114" s="59"/>
+      <c r="FM114" s="59"/>
+      <c r="FN114" s="59"/>
+      <c r="FO114" s="59"/>
+      <c r="FP114" s="59"/>
+      <c r="FQ114" s="59"/>
+      <c r="FR114" s="59"/>
+      <c r="FS114" s="59"/>
+      <c r="FT114" s="59"/>
+      <c r="FU114" s="59"/>
+      <c r="FV114" s="59"/>
+      <c r="FW114" s="59"/>
+      <c r="FX114" s="59"/>
+      <c r="FY114" s="59"/>
+      <c r="FZ114" s="59"/>
+      <c r="GA114" s="59"/>
+      <c r="GB114" s="59"/>
+      <c r="GC114" s="59"/>
+      <c r="GD114" s="59"/>
+      <c r="GE114" s="59"/>
+      <c r="GF114" s="59"/>
+      <c r="GG114" s="59"/>
+      <c r="GH114" s="59"/>
+      <c r="GI114" s="59"/>
+      <c r="GJ114" s="59"/>
+      <c r="GK114" s="59"/>
+      <c r="GL114" s="59"/>
+      <c r="GM114" s="59"/>
+      <c r="GN114" s="59"/>
+      <c r="GO114" s="59"/>
+      <c r="GP114" s="59"/>
+      <c r="GQ114" s="59"/>
+      <c r="GR114" s="59"/>
+      <c r="GS114" s="59"/>
+      <c r="GT114" s="59"/>
+      <c r="GU114" s="59"/>
+      <c r="GV114" s="59"/>
+      <c r="GW114" s="59"/>
+      <c r="GX114" s="59"/>
+      <c r="GY114" s="59"/>
+      <c r="GZ114" s="59"/>
+      <c r="HA114" s="59"/>
+      <c r="HB114" s="59"/>
+      <c r="HC114" s="59"/>
+      <c r="HD114" s="59"/>
+      <c r="HE114" s="59"/>
+      <c r="HF114" s="59"/>
+      <c r="HG114" s="59"/>
+      <c r="HH114" s="59"/>
+      <c r="HI114" s="59"/>
+      <c r="HJ114" s="59"/>
+      <c r="HK114" s="59"/>
+      <c r="HL114" s="59"/>
+      <c r="HM114" s="59"/>
+      <c r="HN114" s="59"/>
+      <c r="HO114" s="59"/>
+      <c r="HP114" s="59"/>
+      <c r="HQ114" s="59"/>
+      <c r="HR114" s="59"/>
+      <c r="HS114" s="59"/>
+      <c r="HT114" s="59"/>
+      <c r="HU114" s="59"/>
+      <c r="HV114" s="59"/>
+      <c r="HW114" s="59"/>
+      <c r="HX114" s="59"/>
+      <c r="HY114" s="59"/>
+      <c r="HZ114" s="59"/>
+      <c r="IA114" s="59"/>
+      <c r="IB114" s="59"/>
+      <c r="IC114" s="59"/>
+      <c r="ID114" s="59"/>
+      <c r="IE114" s="59"/>
+      <c r="IF114" s="59"/>
+      <c r="IG114" s="59"/>
+      <c r="IH114" s="59"/>
+      <c r="II114" s="59"/>
+      <c r="IJ114" s="59"/>
+      <c r="IK114" s="59"/>
+      <c r="IL114" s="59"/>
+      <c r="IM114" s="59"/>
+      <c r="IN114" s="59"/>
+      <c r="IO114" s="59"/>
+      <c r="IP114" s="59"/>
+      <c r="IQ114" s="59"/>
+      <c r="IR114" s="59"/>
+      <c r="IS114" s="59"/>
+      <c r="IT114" s="59"/>
+      <c r="IU114" s="59"/>
+      <c r="IV114" s="59"/>
+      <c r="IW114" s="59"/>
+      <c r="IX114" s="59"/>
+      <c r="IY114" s="59"/>
+      <c r="IZ114" s="59"/>
+      <c r="JA114" s="59"/>
+      <c r="JB114" s="59"/>
+      <c r="JC114" s="59"/>
+      <c r="JD114" s="59"/>
+      <c r="JE114" s="59"/>
+      <c r="JF114" s="59"/>
+      <c r="JG114" s="59"/>
+      <c r="JH114" s="59"/>
+      <c r="JI114" s="59"/>
+      <c r="JJ114" s="59"/>
+      <c r="JK114" s="59"/>
+      <c r="JL114" s="59"/>
+      <c r="JM114" s="59"/>
+      <c r="JN114" s="59"/>
+      <c r="JO114" s="59"/>
+      <c r="JP114" s="59"/>
+      <c r="JQ114" s="59"/>
+      <c r="JR114" s="59"/>
+      <c r="JS114" s="59"/>
+      <c r="JT114" s="59"/>
+      <c r="JU114" s="59"/>
+      <c r="JV114" s="59"/>
+      <c r="JW114" s="59"/>
+      <c r="JX114" s="59"/>
+      <c r="JY114" s="59"/>
+      <c r="JZ114" s="59"/>
+      <c r="KA114" s="59"/>
+      <c r="KB114" s="59"/>
+      <c r="KC114" s="59"/>
+      <c r="KD114" s="59"/>
+      <c r="KE114" s="59"/>
+      <c r="KF114" s="59"/>
+      <c r="KG114" s="59"/>
+      <c r="KH114" s="59"/>
+      <c r="KI114" s="59"/>
+      <c r="KJ114" s="59"/>
+      <c r="KK114" s="59"/>
+      <c r="KL114" s="59"/>
+      <c r="KM114" s="59"/>
+      <c r="KN114" s="59"/>
+      <c r="KO114" s="59"/>
+      <c r="KP114" s="59"/>
+      <c r="KQ114" s="59"/>
+      <c r="KR114" s="59"/>
+      <c r="KS114" s="59"/>
+      <c r="KT114" s="59"/>
+      <c r="KU114" s="59"/>
+      <c r="KV114" s="59"/>
+      <c r="KW114" s="59"/>
+      <c r="KX114" s="59"/>
+      <c r="KY114" s="59"/>
+      <c r="KZ114" s="59"/>
+      <c r="LA114" s="59"/>
+      <c r="LB114" s="59"/>
+      <c r="LC114" s="59"/>
+      <c r="LD114" s="59"/>
+      <c r="LE114" s="59"/>
+      <c r="LF114" s="59"/>
+      <c r="LG114" s="59"/>
+      <c r="LH114" s="59"/>
+      <c r="LI114" s="59"/>
+      <c r="LJ114" s="59"/>
+      <c r="LK114" s="59"/>
+      <c r="LL114" s="59"/>
+      <c r="LM114" s="59"/>
+      <c r="LN114" s="59"/>
+      <c r="LO114" s="59"/>
+      <c r="LP114" s="59"/>
+      <c r="LQ114" s="59"/>
+      <c r="LR114" s="59"/>
+      <c r="LS114" s="59"/>
+      <c r="LT114" s="59"/>
+      <c r="LU114" s="59"/>
+      <c r="LV114" s="59"/>
+      <c r="LW114" s="59"/>
+      <c r="LX114" s="59"/>
+      <c r="LY114" s="59"/>
+      <c r="LZ114" s="59"/>
+      <c r="MA114" s="59"/>
+      <c r="MB114" s="59"/>
+      <c r="MC114" s="59"/>
+      <c r="MD114" s="59"/>
+      <c r="ME114" s="59"/>
+      <c r="MF114" s="59"/>
+      <c r="MG114" s="59"/>
+      <c r="MH114" s="59"/>
+      <c r="MI114" s="59"/>
+      <c r="MJ114" s="59"/>
+      <c r="MK114" s="59"/>
+      <c r="ML114" s="59"/>
+      <c r="MM114" s="59"/>
+      <c r="MN114" s="59"/>
+      <c r="MO114" s="59"/>
+      <c r="MP114" s="59"/>
+      <c r="MQ114" s="59"/>
+      <c r="MR114" s="59"/>
+      <c r="MS114" s="59"/>
+      <c r="MT114" s="59"/>
+      <c r="MU114" s="59"/>
+      <c r="MV114" s="59"/>
+      <c r="MW114" s="59"/>
+      <c r="MX114" s="59"/>
+      <c r="MY114" s="59"/>
+      <c r="MZ114" s="59"/>
+      <c r="NA114" s="59"/>
+      <c r="NB114" s="59"/>
+      <c r="NC114" s="59"/>
+      <c r="ND114" s="59"/>
+      <c r="NE114" s="59"/>
+      <c r="NF114" s="59"/>
+      <c r="NG114" s="59"/>
+      <c r="NH114" s="59"/>
+      <c r="NI114" s="59"/>
+      <c r="NJ114" s="59"/>
+      <c r="NK114" s="59"/>
+      <c r="NL114" s="59"/>
+      <c r="NM114" s="59"/>
+      <c r="NN114" s="59"/>
+      <c r="NO114" s="59"/>
+      <c r="NP114" s="59"/>
+      <c r="NQ114" s="59"/>
+      <c r="NR114" s="59"/>
+      <c r="NS114" s="59"/>
+      <c r="NT114" s="59"/>
+      <c r="NU114" s="59"/>
+      <c r="NV114" s="59"/>
+      <c r="NW114" s="59"/>
+      <c r="NX114" s="59"/>
+      <c r="NY114" s="59"/>
+      <c r="NZ114" s="59"/>
+      <c r="OA114" s="59"/>
+      <c r="OB114" s="59"/>
+      <c r="OC114" s="59"/>
+      <c r="OD114" s="59"/>
+      <c r="OE114" s="59"/>
+      <c r="OF114" s="59"/>
+      <c r="OG114" s="59"/>
+      <c r="OH114" s="59"/>
+      <c r="OI114" s="59"/>
+      <c r="OJ114" s="59"/>
+      <c r="OK114" s="59"/>
+      <c r="OL114" s="59"/>
+      <c r="OM114" s="59"/>
+      <c r="ON114" s="59"/>
+      <c r="OO114" s="59"/>
+      <c r="OP114" s="59"/>
+      <c r="OQ114" s="59"/>
+      <c r="OR114" s="59"/>
+      <c r="OS114" s="59"/>
+      <c r="OT114" s="59"/>
+      <c r="OU114" s="59"/>
+      <c r="OV114" s="59"/>
+      <c r="OW114" s="59"/>
+      <c r="OX114" s="59"/>
+      <c r="OY114" s="59"/>
+      <c r="OZ114" s="59"/>
+      <c r="PA114" s="59"/>
+      <c r="PB114" s="71"/>
+    </row>
+    <row r="115" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="M115" s="90"/>
+      <c r="N115" s="90"/>
+      <c r="O115" s="90"/>
+      <c r="P115" s="91"/>
+      <c r="Q115" s="91"/>
+      <c r="R115" s="91"/>
+      <c r="S115" s="91"/>
+      <c r="T115" s="91"/>
+      <c r="U115" s="91"/>
+      <c r="V115" s="91"/>
+      <c r="W115" s="91"/>
+      <c r="X115" s="91"/>
+      <c r="Y115" s="91"/>
+      <c r="Z115" s="91"/>
+      <c r="AA115" s="91"/>
+      <c r="AB115" s="91"/>
+      <c r="AC115" s="91"/>
+      <c r="AD115" s="91"/>
+      <c r="AE115" s="91"/>
+      <c r="AF115" s="91"/>
+      <c r="AG115" s="91"/>
+      <c r="AH115" s="91"/>
+      <c r="AI115" s="91"/>
+      <c r="AJ115" s="91"/>
+      <c r="AK115" s="91"/>
+      <c r="AL115" s="91"/>
+      <c r="AM115" s="91"/>
+      <c r="AN115" s="91"/>
+      <c r="AO115" s="91"/>
+      <c r="AP115" s="91"/>
+      <c r="AQ115" s="91"/>
+      <c r="AR115" s="91"/>
+      <c r="AS115" s="91"/>
+      <c r="AT115" s="91"/>
+      <c r="AU115" s="91"/>
+      <c r="AV115" s="91"/>
+      <c r="AW115" s="91"/>
+      <c r="AX115" s="91"/>
+      <c r="AY115" s="91"/>
+      <c r="AZ115" s="91"/>
+      <c r="BA115" s="91"/>
+      <c r="BB115" s="91"/>
+      <c r="BC115" s="91"/>
+      <c r="BD115" s="91"/>
+      <c r="BE115" s="91"/>
+      <c r="BF115" s="91"/>
+      <c r="BG115" s="91"/>
+      <c r="BH115" s="91"/>
+      <c r="BI115" s="91"/>
+      <c r="BJ115" s="91"/>
+      <c r="BK115" s="91"/>
+      <c r="BL115" s="91"/>
+      <c r="BM115" s="91"/>
+      <c r="BN115" s="91"/>
+      <c r="BO115" s="91"/>
+      <c r="BP115" s="91"/>
+      <c r="BQ115" s="91"/>
+      <c r="BR115" s="91"/>
+      <c r="BS115" s="91"/>
+      <c r="BT115" s="91"/>
+      <c r="BU115" s="91"/>
+      <c r="BV115" s="91"/>
+      <c r="BW115" s="91"/>
+      <c r="BX115" s="91"/>
+      <c r="BY115" s="91"/>
+      <c r="BZ115" s="91"/>
+      <c r="CA115" s="91"/>
+      <c r="CB115" s="91"/>
+      <c r="CC115" s="91"/>
+      <c r="CD115" s="91"/>
+      <c r="CE115" s="91"/>
+      <c r="CF115" s="91"/>
+      <c r="CG115" s="91"/>
+      <c r="CH115" s="91"/>
+      <c r="CI115" s="91"/>
+      <c r="CJ115" s="91"/>
+      <c r="CK115" s="91"/>
+      <c r="CL115" s="91"/>
+      <c r="CM115" s="91"/>
+      <c r="CN115" s="91"/>
+      <c r="CO115" s="91"/>
+      <c r="CP115" s="91"/>
+      <c r="CQ115" s="91"/>
+      <c r="CR115" s="91"/>
+      <c r="CS115" s="91"/>
+      <c r="CT115" s="91"/>
+      <c r="CU115" s="91"/>
+      <c r="CV115" s="91"/>
+      <c r="CW115" s="91"/>
+      <c r="CX115" s="91"/>
+      <c r="CY115" s="91"/>
+      <c r="CZ115" s="91"/>
+      <c r="DA115" s="91"/>
+      <c r="DB115" s="91"/>
+      <c r="DC115" s="91"/>
+      <c r="DD115" s="91"/>
+      <c r="DE115" s="91"/>
+      <c r="DF115" s="91"/>
+      <c r="DG115" s="91"/>
+      <c r="DH115" s="91"/>
+      <c r="DI115" s="91"/>
+      <c r="DJ115" s="91"/>
+      <c r="DK115" s="91"/>
+      <c r="DL115" s="91"/>
+      <c r="DM115" s="91"/>
+      <c r="DN115" s="91"/>
+      <c r="DO115" s="91"/>
+      <c r="DP115" s="91"/>
+      <c r="DQ115" s="91"/>
+      <c r="DR115" s="91"/>
+      <c r="DS115" s="91"/>
+      <c r="DT115" s="91"/>
+      <c r="DU115" s="91"/>
+      <c r="DV115" s="91"/>
+      <c r="DW115" s="91"/>
+      <c r="DX115" s="91"/>
+    </row>
+    <row r="116" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="M116" s="92"/>
+      <c r="N116" s="92"/>
+      <c r="O116" s="92"/>
+      <c r="P116" s="93"/>
+      <c r="Q116" s="93"/>
+      <c r="R116" s="93"/>
+      <c r="S116" s="93"/>
+      <c r="T116" s="93"/>
+      <c r="U116" s="93"/>
+      <c r="V116" s="93"/>
+      <c r="W116" s="93"/>
+      <c r="X116" s="93"/>
+      <c r="Y116" s="93"/>
+      <c r="Z116" s="93"/>
+      <c r="AA116" s="93"/>
+      <c r="AB116" s="93"/>
+      <c r="AC116" s="93"/>
+      <c r="AD116" s="93"/>
+      <c r="AE116" s="93"/>
+      <c r="AF116" s="93"/>
+      <c r="AG116" s="93"/>
+      <c r="AH116" s="93"/>
+      <c r="AI116" s="93"/>
+      <c r="AJ116" s="93"/>
+      <c r="AK116" s="93"/>
+      <c r="AL116" s="93"/>
+      <c r="AM116" s="93"/>
+      <c r="AN116" s="93"/>
+      <c r="AO116" s="93"/>
+      <c r="AP116" s="93"/>
+      <c r="AQ116" s="93"/>
+      <c r="AR116" s="93"/>
+      <c r="AS116" s="93"/>
+      <c r="AT116" s="93"/>
+      <c r="AU116" s="93"/>
+      <c r="AV116" s="93"/>
+      <c r="AW116" s="93"/>
+      <c r="AX116" s="93"/>
+      <c r="AY116" s="93"/>
+      <c r="AZ116" s="93"/>
+      <c r="BA116" s="93"/>
+      <c r="BB116" s="93"/>
+      <c r="BC116" s="93"/>
+      <c r="BD116" s="93"/>
+      <c r="BE116" s="93"/>
+      <c r="BF116" s="93"/>
+      <c r="BG116" s="93"/>
+      <c r="BH116" s="93"/>
+      <c r="BI116" s="93"/>
+      <c r="BJ116" s="93"/>
+      <c r="BK116" s="93"/>
+      <c r="BL116" s="93"/>
+      <c r="BM116" s="93"/>
+      <c r="BN116" s="93"/>
+      <c r="BO116" s="93"/>
+      <c r="BP116" s="93"/>
+      <c r="BQ116" s="93"/>
+      <c r="BR116" s="93"/>
+      <c r="BS116" s="93"/>
+      <c r="BT116" s="93"/>
+      <c r="BU116" s="93"/>
+      <c r="BV116" s="93"/>
+      <c r="BW116" s="93"/>
+      <c r="BX116" s="93"/>
+      <c r="BY116" s="93"/>
+      <c r="BZ116" s="93"/>
+      <c r="CA116" s="93"/>
+      <c r="CB116" s="93"/>
+      <c r="CC116" s="93"/>
+      <c r="CD116" s="93"/>
+      <c r="CE116" s="93"/>
+      <c r="CF116" s="93"/>
+      <c r="CG116" s="93"/>
+      <c r="CH116" s="93"/>
+      <c r="CI116" s="93"/>
+      <c r="CJ116" s="93"/>
+      <c r="CK116" s="93"/>
+      <c r="CL116" s="93"/>
+      <c r="CM116" s="93"/>
+      <c r="CN116" s="93"/>
+      <c r="CO116" s="93"/>
+      <c r="CP116" s="93"/>
+      <c r="CQ116" s="93"/>
+      <c r="CR116" s="93"/>
+      <c r="CS116" s="93"/>
+      <c r="CT116" s="93"/>
+      <c r="CU116" s="93"/>
+      <c r="CV116" s="93"/>
+      <c r="CW116" s="93"/>
+      <c r="CX116" s="93"/>
+      <c r="CY116" s="93"/>
+      <c r="CZ116" s="93"/>
+      <c r="DA116" s="93"/>
+      <c r="DB116" s="93"/>
+      <c r="DC116" s="93"/>
+      <c r="DD116" s="93"/>
+      <c r="DE116" s="93"/>
+      <c r="DF116" s="93"/>
+      <c r="DG116" s="93"/>
+      <c r="DH116" s="93"/>
+      <c r="DI116" s="93"/>
+      <c r="DJ116" s="93"/>
+      <c r="DK116" s="93"/>
+      <c r="DL116" s="93"/>
+      <c r="DM116" s="93"/>
+      <c r="DN116" s="93"/>
+      <c r="DO116" s="93"/>
+      <c r="DP116" s="93"/>
+      <c r="DQ116" s="93"/>
+      <c r="DR116" s="93"/>
+      <c r="DS116" s="93"/>
+      <c r="DT116" s="93"/>
+      <c r="DU116" s="93"/>
+      <c r="DV116" s="93"/>
+      <c r="DW116" s="93"/>
+      <c r="DX116" s="93"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="133">
-    <mergeCell ref="IQ10:IW10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="FD10:FJ10"/>
-    <mergeCell ref="CE10:CK10"/>
-    <mergeCell ref="CL10:CR10"/>
-    <mergeCell ref="CS10:CY10"/>
-    <mergeCell ref="CZ10:DF10"/>
-    <mergeCell ref="DG10:DM10"/>
-    <mergeCell ref="DN10:DT10"/>
-    <mergeCell ref="BQ10:BW10"/>
-    <mergeCell ref="BX10:CD10"/>
-    <mergeCell ref="AO10:AU10"/>
-    <mergeCell ref="AV10:BB10"/>
-    <mergeCell ref="BC10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="DU10:EA10"/>
-    <mergeCell ref="EB10:EH10"/>
-    <mergeCell ref="EI10:EO10"/>
-    <mergeCell ref="EP10:EV10"/>
-    <mergeCell ref="EW10:FC10"/>
+    <mergeCell ref="OA9:OG9"/>
+    <mergeCell ref="KN9:KT9"/>
+    <mergeCell ref="IX9:JD9"/>
+    <mergeCell ref="IQ9:IW9"/>
+    <mergeCell ref="IJ9:IP9"/>
+    <mergeCell ref="IC9:II9"/>
+    <mergeCell ref="HV9:IB9"/>
+    <mergeCell ref="HO9:HU9"/>
+    <mergeCell ref="HH9:HN9"/>
+    <mergeCell ref="JE9:JK9"/>
+    <mergeCell ref="JL9:JR9"/>
+    <mergeCell ref="JS9:JY9"/>
+    <mergeCell ref="JZ9:KF9"/>
+    <mergeCell ref="KG9:KM9"/>
+    <mergeCell ref="MY9:NE9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="OV10:PB10"/>
+    <mergeCell ref="OO10:OU10"/>
+    <mergeCell ref="OH10:ON10"/>
+    <mergeCell ref="OA10:OG10"/>
+    <mergeCell ref="NT10:NZ10"/>
+    <mergeCell ref="NM10:NS10"/>
+    <mergeCell ref="NF10:NL10"/>
+    <mergeCell ref="MY10:NE10"/>
+    <mergeCell ref="MR10:MX10"/>
+    <mergeCell ref="MK10:MQ10"/>
+    <mergeCell ref="MD10:MJ10"/>
+    <mergeCell ref="LW10:MC10"/>
+    <mergeCell ref="LP10:LV10"/>
+    <mergeCell ref="LI10:LO10"/>
+    <mergeCell ref="LB10:LH10"/>
+    <mergeCell ref="KU10:LA10"/>
+    <mergeCell ref="KN10:KT10"/>
+    <mergeCell ref="KG10:KM10"/>
+    <mergeCell ref="OO9:OU9"/>
+    <mergeCell ref="OH9:ON9"/>
+    <mergeCell ref="OV9:PB9"/>
+    <mergeCell ref="NF9:NL9"/>
+    <mergeCell ref="NM9:NS9"/>
+    <mergeCell ref="NT9:NZ9"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="BC9:BI9"/>
+    <mergeCell ref="BJ9:BP9"/>
+    <mergeCell ref="BQ9:BW9"/>
+    <mergeCell ref="BX9:CD9"/>
+    <mergeCell ref="CE9:CK9"/>
+    <mergeCell ref="CL9:CR9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:AU9"/>
+    <mergeCell ref="AV9:BB9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="EW9:FC9"/>
+    <mergeCell ref="FD9:FJ9"/>
+    <mergeCell ref="CS9:CY9"/>
+    <mergeCell ref="CZ9:DF9"/>
+    <mergeCell ref="DG9:DM9"/>
+    <mergeCell ref="DN9:DT9"/>
+    <mergeCell ref="DU9:EA9"/>
+    <mergeCell ref="EB9:EH9"/>
+    <mergeCell ref="EI9:EO9"/>
+    <mergeCell ref="EP9:EV9"/>
+    <mergeCell ref="HA9:HG9"/>
+    <mergeCell ref="GT9:GZ9"/>
+    <mergeCell ref="GM9:GS9"/>
+    <mergeCell ref="GF9:GL9"/>
+    <mergeCell ref="FY9:GE9"/>
+    <mergeCell ref="FR9:FX9"/>
+    <mergeCell ref="FK9:FQ9"/>
+    <mergeCell ref="MK9:MQ9"/>
+    <mergeCell ref="MR9:MX9"/>
+    <mergeCell ref="KU9:LA9"/>
+    <mergeCell ref="LB9:LH9"/>
+    <mergeCell ref="LI9:LO9"/>
+    <mergeCell ref="LP9:LV9"/>
+    <mergeCell ref="LW9:MC9"/>
+    <mergeCell ref="MD9:MJ9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="M10:S10"/>
@@ -51477,101 +54676,34 @@
     <mergeCell ref="JL10:JR10"/>
     <mergeCell ref="JE10:JK10"/>
     <mergeCell ref="IX10:JD10"/>
-    <mergeCell ref="HA9:HG9"/>
-    <mergeCell ref="GT9:GZ9"/>
-    <mergeCell ref="GM9:GS9"/>
-    <mergeCell ref="GF9:GL9"/>
-    <mergeCell ref="FY9:GE9"/>
-    <mergeCell ref="FR9:FX9"/>
-    <mergeCell ref="FK9:FQ9"/>
-    <mergeCell ref="MK9:MQ9"/>
-    <mergeCell ref="MR9:MX9"/>
-    <mergeCell ref="KU9:LA9"/>
-    <mergeCell ref="LB9:LH9"/>
-    <mergeCell ref="LI9:LO9"/>
-    <mergeCell ref="LP9:LV9"/>
-    <mergeCell ref="LW9:MC9"/>
-    <mergeCell ref="MD9:MJ9"/>
-    <mergeCell ref="EW9:FC9"/>
-    <mergeCell ref="FD9:FJ9"/>
-    <mergeCell ref="CS9:CY9"/>
-    <mergeCell ref="CZ9:DF9"/>
-    <mergeCell ref="DG9:DM9"/>
-    <mergeCell ref="DN9:DT9"/>
-    <mergeCell ref="DU9:EA9"/>
-    <mergeCell ref="EB9:EH9"/>
-    <mergeCell ref="EI9:EO9"/>
-    <mergeCell ref="EP9:EV9"/>
-    <mergeCell ref="OV9:PB9"/>
-    <mergeCell ref="NF9:NL9"/>
-    <mergeCell ref="NM9:NS9"/>
-    <mergeCell ref="NT9:NZ9"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="BC9:BI9"/>
-    <mergeCell ref="BJ9:BP9"/>
-    <mergeCell ref="BQ9:BW9"/>
-    <mergeCell ref="BX9:CD9"/>
-    <mergeCell ref="CE9:CK9"/>
-    <mergeCell ref="CL9:CR9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:AU9"/>
-    <mergeCell ref="AV9:BB9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="OV10:PB10"/>
-    <mergeCell ref="OO10:OU10"/>
-    <mergeCell ref="OH10:ON10"/>
-    <mergeCell ref="OA10:OG10"/>
-    <mergeCell ref="NT10:NZ10"/>
-    <mergeCell ref="NM10:NS10"/>
-    <mergeCell ref="NF10:NL10"/>
-    <mergeCell ref="MY10:NE10"/>
-    <mergeCell ref="MR10:MX10"/>
-    <mergeCell ref="MK10:MQ10"/>
-    <mergeCell ref="MD10:MJ10"/>
-    <mergeCell ref="LW10:MC10"/>
-    <mergeCell ref="LP10:LV10"/>
-    <mergeCell ref="LI10:LO10"/>
-    <mergeCell ref="LB10:LH10"/>
-    <mergeCell ref="KU10:LA10"/>
-    <mergeCell ref="KN10:KT10"/>
-    <mergeCell ref="KG10:KM10"/>
-    <mergeCell ref="OO9:OU9"/>
-    <mergeCell ref="OH9:ON9"/>
-    <mergeCell ref="OA9:OG9"/>
-    <mergeCell ref="KN9:KT9"/>
-    <mergeCell ref="IX9:JD9"/>
-    <mergeCell ref="IQ9:IW9"/>
-    <mergeCell ref="IJ9:IP9"/>
-    <mergeCell ref="IC9:II9"/>
-    <mergeCell ref="HV9:IB9"/>
-    <mergeCell ref="HO9:HU9"/>
-    <mergeCell ref="HH9:HN9"/>
-    <mergeCell ref="JE9:JK9"/>
-    <mergeCell ref="JL9:JR9"/>
-    <mergeCell ref="JS9:JY9"/>
-    <mergeCell ref="JZ9:KF9"/>
-    <mergeCell ref="KG9:KM9"/>
-    <mergeCell ref="MY9:NE9"/>
+    <mergeCell ref="IQ10:IW10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="FD10:FJ10"/>
+    <mergeCell ref="CE10:CK10"/>
+    <mergeCell ref="CL10:CR10"/>
+    <mergeCell ref="CS10:CY10"/>
+    <mergeCell ref="CZ10:DF10"/>
+    <mergeCell ref="DG10:DM10"/>
+    <mergeCell ref="DN10:DT10"/>
+    <mergeCell ref="BQ10:BW10"/>
+    <mergeCell ref="BX10:CD10"/>
+    <mergeCell ref="AO10:AU10"/>
+    <mergeCell ref="AV10:BB10"/>
+    <mergeCell ref="BC10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="DU10:EA10"/>
+    <mergeCell ref="EB10:EH10"/>
+    <mergeCell ref="EI10:EO10"/>
+    <mergeCell ref="EP10:EV10"/>
+    <mergeCell ref="EW10:FC10"/>
   </mergeCells>
   <conditionalFormatting sqref="M9:PB9">
     <cfRule type="expression" dxfId="221" priority="660">
       <formula>OR(TEXT(M9,"MMMM")="Februar",TEXT(M9,"MMMM")="April",TEXT(M9,"MMMM")="Juni",TEXT(M9,"MMMM")="August",TEXT(M9,"MMMM")="Oktober",TEXT(M9,"MMMM")="Dezember")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M71:PB96 M28:PB28 M30:PB32 M39:PB69 M99:PB107 M34:PB37">
+  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M77:PB103 M28:PB28 M30:PB32 M106:PB114 M34:PB37 M39:PB75">
     <cfRule type="expression" dxfId="220" priority="653">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
@@ -51597,7 +54729,7 @@
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB107">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB114">
     <cfRule type="expression" dxfId="214" priority="640">
       <formula>AND($I15=M$13,$J15&lt;&gt;"F",$I15&lt;TODAY())</formula>
     </cfRule>
@@ -51611,27 +54743,27 @@
       <formula>AND($G15&lt;&gt;"",AND(M$13&gt;=$E15,M$13&lt;=$G15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB107">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB114">
     <cfRule type="expression" dxfId="210" priority="650">
       <formula>AND($H15&gt;0,AND(M$13&gt;=$E15,M$13&lt;=$E15+($G15-$E15)*$H15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M71:PB96 M28:PB28 M30:PB32 M39:PB69 M99:PB107 M34:PB37">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M77:PB103 M28:PB28 M30:PB32 M106:PB114 M34:PB37 M39:PB75">
     <cfRule type="expression" dxfId="209" priority="661">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M71:PB96 M28:PB28 M30:PB32 M39:PB69 M34:PB37 M99:PB107">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M77:PB103 M28:PB28 M30:PB32 M34:PB37 M106:PB114 M39:PB75">
     <cfRule type="expression" dxfId="208" priority="648">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M71:PB96 M28:PB28 M30:PB32 M39:PB69 M99:PB107 M34:PB37">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M77:PB103 M28:PB28 M30:PB32 M106:PB114 M34:PB37 M39:PB75">
     <cfRule type="expression" dxfId="207" priority="659">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J18 I20:J26 I71:J71 I28:J28 I30:J32 I39:J39 I48:J69 I34:J37 I99:J107">
+  <conditionalFormatting sqref="I15:J18 I20:J26 I77:J77 I28:J28 I30:J32 I39:J39 I34:J37 I106:J114 I48:J75">
     <cfRule type="expression" dxfId="206" priority="641">
       <formula>AND($J15="F")</formula>
     </cfRule>
@@ -51655,7 +54787,7 @@
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L18 C71:L71 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C68:F69 H68:L69 G68:G70 C49:F50 H48:L50 C99:L107 C48:D48 F48 C51:L67">
+  <conditionalFormatting sqref="C15:L18 C77:L77 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C74:F75 H74:L75 G74:G76 C49:F50 H48:L50 C106:L114 C48:D48 F48 C51:L73">
     <cfRule type="expression" dxfId="200" priority="651">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
@@ -51712,123 +54844,123 @@
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M98:PB98">
+  <conditionalFormatting sqref="M105:PB105">
     <cfRule type="expression" dxfId="187" priority="355">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M98:PB98">
+  <conditionalFormatting sqref="M105:PB105">
     <cfRule type="expression" dxfId="186" priority="357">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M98:PB98">
+  <conditionalFormatting sqref="M105:PB105">
     <cfRule type="expression" dxfId="185" priority="350">
-      <formula>OR($C98="X",$C98="x")</formula>
+      <formula>OR($C105="X",$C105="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M98:PB98">
+  <conditionalFormatting sqref="M105:PB105">
     <cfRule type="expression" dxfId="184" priority="356">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I98:J98">
+  <conditionalFormatting sqref="I105:J105">
     <cfRule type="expression" dxfId="183" priority="347">
-      <formula>AND($J98="F")</formula>
+      <formula>AND($J105="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="182" priority="348">
-      <formula>AND($I98&lt;&gt;"",AND($I98&lt;TODAY()))</formula>
+      <formula>AND($I105&lt;&gt;"",AND($I105&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98 F98:L98">
+  <conditionalFormatting sqref="C105 F105:L105">
     <cfRule type="expression" dxfId="181" priority="353">
-      <formula>OR($C98="X",$C98="x")</formula>
+      <formula>OR($C105="X",$C105="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
+  <conditionalFormatting sqref="E105">
     <cfRule type="expression" dxfId="180" priority="345">
-      <formula>OR($C98="X",$C98="x")</formula>
+      <formula>OR($C105="X",$C105="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M97:PB97">
+  <conditionalFormatting sqref="M104:PB104">
     <cfRule type="expression" dxfId="179" priority="341">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M97:PB97">
+  <conditionalFormatting sqref="M104:PB104">
     <cfRule type="expression" dxfId="178" priority="343">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M97:PB97">
+  <conditionalFormatting sqref="M104:PB104">
     <cfRule type="expression" dxfId="177" priority="336">
-      <formula>OR($C97="X",$C97="x")</formula>
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M97:PB97">
+  <conditionalFormatting sqref="M104:PB104">
     <cfRule type="expression" dxfId="176" priority="342">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I97:J97">
+  <conditionalFormatting sqref="I104:J104">
     <cfRule type="expression" dxfId="175" priority="333">
-      <formula>AND($J97="F")</formula>
+      <formula>AND($J104="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="174" priority="334">
-      <formula>AND($I97&lt;&gt;"",AND($I97&lt;TODAY()))</formula>
+      <formula>AND($I104&lt;&gt;"",AND($I104&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C97 F97:L97">
+  <conditionalFormatting sqref="C104 F104:L104">
     <cfRule type="expression" dxfId="173" priority="339">
-      <formula>OR($C97="X",$C97="x")</formula>
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E97">
+  <conditionalFormatting sqref="E104">
     <cfRule type="expression" dxfId="172" priority="331">
-      <formula>OR($C97="X",$C97="x")</formula>
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D97">
+  <conditionalFormatting sqref="D104">
     <cfRule type="expression" dxfId="171" priority="295">
-      <formula>OR($C97="X",$C97="x")</formula>
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
+  <conditionalFormatting sqref="D105">
     <cfRule type="expression" dxfId="170" priority="296">
-      <formula>OR($C98="X",$C98="x")</formula>
+      <formula>OR($C105="X",$C105="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M70:PB70">
+  <conditionalFormatting sqref="M76:PB76">
     <cfRule type="expression" dxfId="169" priority="292">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M70:PB70">
+  <conditionalFormatting sqref="M76:PB76">
     <cfRule type="expression" dxfId="168" priority="294">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M70:PB70">
+  <conditionalFormatting sqref="M76:PB76">
     <cfRule type="expression" dxfId="167" priority="287">
-      <formula>OR($C70="X",$C70="x")</formula>
+      <formula>OR($C76="X",$C76="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M70:PB70">
+  <conditionalFormatting sqref="M76:PB76">
     <cfRule type="expression" dxfId="166" priority="293">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I70:J70">
+  <conditionalFormatting sqref="I76:J76">
     <cfRule type="expression" dxfId="165" priority="284">
-      <formula>AND($J70="F")</formula>
+      <formula>AND($J76="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="164" priority="285">
-      <formula>AND($I70&lt;&gt;"",AND($I70&lt;TODAY()))</formula>
+      <formula>AND($I76&lt;&gt;"",AND($I76&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70:F70 H70:L70">
+  <conditionalFormatting sqref="C76:F76 H76:L76">
     <cfRule type="expression" dxfId="163" priority="290">
-      <formula>OR($C70="X",$C70="x")</formula>
+      <formula>OR($C76="X",$C76="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
@@ -52046,260 +55178,260 @@
       <formula>OR($C41="X",$C41="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I72:J73">
+  <conditionalFormatting sqref="I78:J79">
     <cfRule type="expression" dxfId="113" priority="122">
-      <formula>AND($J72="F")</formula>
+      <formula>AND($J78="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="112" priority="123">
-      <formula>AND($I72&lt;&gt;"",AND($I72&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72:C73 F72:L73 G74:G76 G78:G90">
-    <cfRule type="expression" dxfId="111" priority="124">
-      <formula>OR($C72="X",$C72="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E72:E73">
-    <cfRule type="expression" dxfId="110" priority="121">
-      <formula>OR($C72="X",$C72="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72:D73">
-    <cfRule type="expression" dxfId="109" priority="120">
-      <formula>OR($C72="X",$C72="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I76:J76 I94:J94 I78:J91">
-    <cfRule type="expression" dxfId="108" priority="117">
-      <formula>AND($J76="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="118">
-      <formula>AND($I76&lt;&gt;"",AND($I76&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76 F94:L94 C94 F91:L91 F90 H76:L76 H78:L90 C78:C91 G92:G93">
-    <cfRule type="expression" dxfId="106" priority="119">
-      <formula>OR($C76="X",$C76="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E91 E94">
-    <cfRule type="expression" dxfId="105" priority="116">
-      <formula>OR($C90="X",$C90="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I75:J75">
-    <cfRule type="expression" dxfId="104" priority="113">
-      <formula>AND($J75="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="114">
-      <formula>AND($I75&lt;&gt;"",AND($I75&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75 F75 H75:L75">
-    <cfRule type="expression" dxfId="102" priority="115">
-      <formula>OR($C75="X",$C75="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E75">
-    <cfRule type="expression" dxfId="101" priority="112">
-      <formula>OR($C75="X",$C75="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D76 D94 D78:D91">
-    <cfRule type="expression" dxfId="100" priority="111">
-      <formula>OR($C76="X",$C76="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D75">
-    <cfRule type="expression" dxfId="99" priority="110">
-      <formula>OR($C75="X",$C75="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
-    <cfRule type="expression" dxfId="98" priority="105">
-      <formula>OR($C74="X",$C74="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I74:J74">
-    <cfRule type="expression" dxfId="97" priority="107">
-      <formula>AND($J74="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="108">
-      <formula>AND($I74&lt;&gt;"",AND($I74&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74 F74 H74:L74">
-    <cfRule type="expression" dxfId="95" priority="109">
-      <formula>OR($C74="X",$C74="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74">
-    <cfRule type="expression" dxfId="94" priority="106">
-      <formula>OR($C74="X",$C74="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91:J91 I98:J98 I94:J94">
-    <cfRule type="expression" dxfId="93" priority="102">
-      <formula>AND($J91="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="103">
-      <formula>AND($I91&lt;&gt;"",AND($I91&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:L98 C91:L91 C94:L94 G92:G93">
-    <cfRule type="expression" dxfId="91" priority="104">
-      <formula>OR($C91="X",$C91="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I90:J90">
-    <cfRule type="expression" dxfId="90" priority="99">
-      <formula>AND($J90="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="89" priority="100">
-      <formula>AND($I90&lt;&gt;"",AND($I90&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90 F90 H90:L90">
-    <cfRule type="expression" dxfId="88" priority="101">
-      <formula>OR($C90="X",$C90="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90">
-    <cfRule type="expression" dxfId="87" priority="98">
-      <formula>OR($C90="X",$C90="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I89:J89">
-    <cfRule type="expression" dxfId="86" priority="95">
-      <formula>AND($J89="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="96">
-      <formula>AND($I89&lt;&gt;"",AND($I89&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89 H89:L89">
-    <cfRule type="expression" dxfId="84" priority="97">
-      <formula>OR($C89="X",$C89="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I88:J88">
-    <cfRule type="expression" dxfId="83" priority="91">
-      <formula>AND($J88="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="92">
-      <formula>AND($I88&lt;&gt;"",AND($I88&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88 H88:L88">
-    <cfRule type="expression" dxfId="81" priority="93">
-      <formula>OR($C88="X",$C88="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I78:J87">
-    <cfRule type="expression" dxfId="80" priority="87">
-      <formula>AND($J78="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="88">
       <formula>AND($I78&lt;&gt;"",AND($I78&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C78:C87 H78:L87">
-    <cfRule type="expression" dxfId="78" priority="89">
+  <conditionalFormatting sqref="C78:C79 F78:L79 G80:G82 G84:G97">
+    <cfRule type="expression" dxfId="111" priority="124">
       <formula>OR($C78="X",$C78="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="77" priority="80">
-      <formula>OR($C88="X",$C88="x")</formula>
+  <conditionalFormatting sqref="E78:E79">
+    <cfRule type="expression" dxfId="110" priority="121">
+      <formula>OR($C78="X",$C78="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80:H82">
-    <cfRule type="expression" dxfId="76" priority="58">
+  <conditionalFormatting sqref="D78:D79">
+    <cfRule type="expression" dxfId="109" priority="120">
+      <formula>OR($C78="X",$C78="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I82:J82 I101:J101 I84:J98">
+    <cfRule type="expression" dxfId="108" priority="117">
+      <formula>AND($J82="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="118">
+      <formula>AND($I82&lt;&gt;"",AND($I82&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82 F101:L101 C101 F98:L98 F97 H82:L82 H84:L97 C84:C98 G99:G100">
+    <cfRule type="expression" dxfId="106" priority="119">
+      <formula>OR($C82="X",$C82="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E97:E98 E101">
+    <cfRule type="expression" dxfId="105" priority="116">
+      <formula>OR($C97="X",$C97="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I81:J81">
+    <cfRule type="expression" dxfId="104" priority="113">
+      <formula>AND($J81="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="114">
+      <formula>AND($I81&lt;&gt;"",AND($I81&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81 F81 H81:L81">
+    <cfRule type="expression" dxfId="102" priority="115">
+      <formula>OR($C81="X",$C81="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="expression" dxfId="101" priority="112">
+      <formula>OR($C81="X",$C81="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82 D101 D84:D98">
+    <cfRule type="expression" dxfId="100" priority="111">
+      <formula>OR($C82="X",$C82="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D81">
+    <cfRule type="expression" dxfId="99" priority="110">
+      <formula>OR($C81="X",$C81="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80">
+    <cfRule type="expression" dxfId="98" priority="105">
       <formula>OR($C80="X",$C80="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D90">
-    <cfRule type="expression" dxfId="75" priority="81">
-      <formula>OR($C90="X",$C90="x")</formula>
+  <conditionalFormatting sqref="I80:J80">
+    <cfRule type="expression" dxfId="97" priority="107">
+      <formula>AND($J80="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="108">
+      <formula>AND($I80&lt;&gt;"",AND($I80&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D89">
-    <cfRule type="expression" dxfId="74" priority="79">
-      <formula>OR($C89="X",$C89="x")</formula>
+  <conditionalFormatting sqref="C80 F80 H80:L80">
+    <cfRule type="expression" dxfId="95" priority="109">
+      <formula>OR($C80="X",$C80="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D78:D87">
-    <cfRule type="expression" dxfId="73" priority="78">
-      <formula>OR($C78="X",$C78="x")</formula>
+  <conditionalFormatting sqref="E80">
+    <cfRule type="expression" dxfId="94" priority="106">
+      <formula>OR($C80="X",$C80="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I98:J98 I105:J105 I101:J101">
+    <cfRule type="expression" dxfId="93" priority="102">
+      <formula>AND($J98="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="103">
+      <formula>AND($I98&lt;&gt;"",AND($I98&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105:L105 C98:L98 C101:L101 G99:G100">
+    <cfRule type="expression" dxfId="91" priority="104">
+      <formula>OR($C98="X",$C98="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97:J97">
-    <cfRule type="expression" dxfId="72" priority="74">
+    <cfRule type="expression" dxfId="90" priority="99">
       <formula>AND($J97="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="75">
+    <cfRule type="expression" dxfId="89" priority="100">
       <formula>AND($I97&lt;&gt;"",AND($I97&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C97 F97:L97">
-    <cfRule type="expression" dxfId="70" priority="76">
+  <conditionalFormatting sqref="C97 F97 H97:L97">
+    <cfRule type="expression" dxfId="88" priority="101">
       <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="69" priority="73">
+    <cfRule type="expression" dxfId="87" priority="98">
       <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I96:J96">
+    <cfRule type="expression" dxfId="86" priority="95">
+      <formula>AND($J96="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="96">
+      <formula>AND($I96&lt;&gt;"",AND($I96&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96 H96:L96">
+    <cfRule type="expression" dxfId="84" priority="97">
+      <formula>OR($C96="X",$C96="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I95:J95">
+    <cfRule type="expression" dxfId="83" priority="91">
+      <formula>AND($J95="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="92">
+      <formula>AND($I95&lt;&gt;"",AND($I95&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95 H95:L95">
+    <cfRule type="expression" dxfId="81" priority="93">
+      <formula>OR($C95="X",$C95="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I84:J94">
+    <cfRule type="expression" dxfId="80" priority="87">
+      <formula>AND($J84="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="88">
+      <formula>AND($I84&lt;&gt;"",AND($I84&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84:C94 H84:L94">
+    <cfRule type="expression" dxfId="78" priority="89">
+      <formula>OR($C84="X",$C84="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D95">
+    <cfRule type="expression" dxfId="77" priority="80">
+      <formula>OR($C95="X",$C95="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:H89">
+    <cfRule type="expression" dxfId="76" priority="58">
+      <formula>OR($C87="X",$C87="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="expression" dxfId="68" priority="72">
+    <cfRule type="expression" dxfId="75" priority="81">
       <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I92:J93">
+  <conditionalFormatting sqref="D96">
+    <cfRule type="expression" dxfId="74" priority="79">
+      <formula>OR($C96="X",$C96="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84:D94">
+    <cfRule type="expression" dxfId="73" priority="78">
+      <formula>OR($C84="X",$C84="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I104:J104">
+    <cfRule type="expression" dxfId="72" priority="74">
+      <formula>AND($J104="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="75">
+      <formula>AND($I104&lt;&gt;"",AND($I104&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104 F104:L104">
+    <cfRule type="expression" dxfId="70" priority="76">
+      <formula>OR($C104="X",$C104="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E104">
+    <cfRule type="expression" dxfId="69" priority="73">
+      <formula>OR($C104="X",$C104="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104">
+    <cfRule type="expression" dxfId="68" priority="72">
+      <formula>OR($C104="X",$C104="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I99:J100">
     <cfRule type="expression" dxfId="67" priority="69">
-      <formula>AND($J92="F")</formula>
+      <formula>AND($J99="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="66" priority="70">
-      <formula>AND($I92&lt;&gt;"",AND($I92&lt;TODAY()))</formula>
+      <formula>AND($I99&lt;&gt;"",AND($I99&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C93 F92:F93 H92:L93">
+  <conditionalFormatting sqref="C99:C100 F99:F100 H99:L100">
     <cfRule type="expression" dxfId="65" priority="71">
-      <formula>OR($C92="X",$C92="x")</formula>
+      <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92:E93">
+  <conditionalFormatting sqref="E99:E100">
     <cfRule type="expression" dxfId="64" priority="68">
-      <formula>OR($C92="X",$C92="x")</formula>
+      <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D93">
+  <conditionalFormatting sqref="D99:D100">
     <cfRule type="expression" dxfId="63" priority="67">
-      <formula>OR($C92="X",$C92="x")</formula>
+      <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I92:J93">
+  <conditionalFormatting sqref="I99:J100">
     <cfRule type="expression" dxfId="62" priority="64">
-      <formula>AND($J92="F")</formula>
+      <formula>AND($J99="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="61" priority="65">
-      <formula>AND($I92&lt;&gt;"",AND($I92&lt;TODAY()))</formula>
+      <formula>AND($I99&lt;&gt;"",AND($I99&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C92:C93 F92:F93 H92:L93">
+  <conditionalFormatting sqref="C99:C100 F99:F100 H99:L100">
     <cfRule type="expression" dxfId="60" priority="66">
-      <formula>OR($C92="X",$C92="x")</formula>
+      <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E92:E93">
+  <conditionalFormatting sqref="E99:E100">
     <cfRule type="expression" dxfId="59" priority="63">
-      <formula>OR($C92="X",$C92="x")</formula>
+      <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D92:D93">
+  <conditionalFormatting sqref="D99:D100">
     <cfRule type="expression" dxfId="58" priority="62">
-      <formula>OR($C92="X",$C92="x")</formula>
+      <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:J47">
@@ -52315,129 +55447,129 @@
       <formula>OR($C42="X",$C42="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H90">
     <cfRule type="expression" dxfId="54" priority="57">
-      <formula>OR($C83="X",$C83="x")</formula>
+      <formula>OR($C90="X",$C90="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H91">
     <cfRule type="expression" dxfId="53" priority="56">
-      <formula>OR($C84="X",$C84="x")</formula>
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H91">
     <cfRule type="expression" dxfId="52" priority="55">
-      <formula>OR($C84="X",$C84="x")</formula>
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F76">
+  <conditionalFormatting sqref="F82">
     <cfRule type="expression" dxfId="51" priority="54">
-      <formula>OR($C76="X",$C76="x")</formula>
+      <formula>OR($C82="X",$C82="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
+  <conditionalFormatting sqref="E82">
     <cfRule type="expression" dxfId="50" priority="53">
-      <formula>OR($C76="X",$C76="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F78">
-    <cfRule type="expression" dxfId="49" priority="52">
-      <formula>OR($C78="X",$C78="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E78">
-    <cfRule type="expression" dxfId="48" priority="51">
-      <formula>OR($C78="X",$C78="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F79">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>OR($C79="X",$C79="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E79">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>OR($C79="X",$C79="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>OR($C83="X",$C83="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="expression" dxfId="44" priority="45">
-      <formula>OR($C83="X",$C83="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80:F82">
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>OR($C80="X",$C80="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80:E82">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>OR($C80="X",$C80="x")</formula>
+      <formula>OR($C82="X",$C82="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="expression" dxfId="41" priority="42">
+    <cfRule type="expression" dxfId="49" priority="52">
       <formula>OR($C84="X",$C84="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="40" priority="41">
+    <cfRule type="expression" dxfId="48" priority="51">
       <formula>OR($C84="X",$C84="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>OR($C86="X",$C86="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="38" priority="39">
-      <formula>OR($C86="X",$C86="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85">
-    <cfRule type="expression" dxfId="37" priority="38">
+  <conditionalFormatting sqref="F85:F86">
+    <cfRule type="expression" dxfId="47" priority="48">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="36" priority="37">
+  <conditionalFormatting sqref="E85:E86">
+    <cfRule type="expression" dxfId="46" priority="47">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="expression" dxfId="35" priority="36">
+  <conditionalFormatting sqref="F90">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>OR($C90="X",$C90="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>OR($C90="X",$C90="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87:F89">
+    <cfRule type="expression" dxfId="43" priority="44">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="34" priority="35">
+  <conditionalFormatting sqref="E87:E89">
+    <cfRule type="expression" dxfId="42" priority="43">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F89">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>OR($C89="X",$C89="x")</formula>
+  <conditionalFormatting sqref="F91">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>OR($C89="X",$C89="x")</formula>
+  <conditionalFormatting sqref="E91">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>OR($C91="X",$C91="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>OR($C88="X",$C88="x")</formula>
+  <conditionalFormatting sqref="F93">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>OR($C93="X",$C93="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
+  <conditionalFormatting sqref="E93">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>OR($C93="X",$C93="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F94">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>OR($C94="X",$C94="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E94">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>OR($C94="X",$C94="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>OR($C96="X",$C96="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>OR($C96="X",$C96="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F95">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>OR($C95="X",$C95="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E95">
     <cfRule type="expression" dxfId="30" priority="31">
-      <formula>OR($C88="X",$C88="x")</formula>
+      <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
@@ -52445,137 +55577,137 @@
       <formula>OR($C48="X",$C48="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G77">
+  <conditionalFormatting sqref="G83">
     <cfRule type="expression" dxfId="28" priority="29">
-      <formula>OR($C77="X",$C77="x")</formula>
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77:J77">
+  <conditionalFormatting sqref="I83:J83">
     <cfRule type="expression" dxfId="27" priority="26">
-      <formula>AND($J77="F")</formula>
+      <formula>AND($J83="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="26" priority="27">
-      <formula>AND($I77&lt;&gt;"",AND($I77&lt;TODAY()))</formula>
+      <formula>AND($I83&lt;&gt;"",AND($I83&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77:L77 C77">
+  <conditionalFormatting sqref="H83:L83 C83">
     <cfRule type="expression" dxfId="25" priority="28">
-      <formula>OR($C77="X",$C77="x")</formula>
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="D83">
     <cfRule type="expression" dxfId="24" priority="25">
-      <formula>OR($C77="X",$C77="x")</formula>
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I77:J77">
+  <conditionalFormatting sqref="I83:J83">
     <cfRule type="expression" dxfId="23" priority="22">
-      <formula>AND($J77="F")</formula>
+      <formula>AND($J83="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="22" priority="23">
-      <formula>AND($I77&lt;&gt;"",AND($I77&lt;TODAY()))</formula>
+      <formula>AND($I83&lt;&gt;"",AND($I83&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C77 H77:L77">
+  <conditionalFormatting sqref="C83 H83:L83">
     <cfRule type="expression" dxfId="21" priority="24">
-      <formula>OR($C77="X",$C77="x")</formula>
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="D83">
     <cfRule type="expression" dxfId="20" priority="21">
-      <formula>OR($C77="X",$C77="x")</formula>
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
+  <conditionalFormatting sqref="F83">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>OR($C77="X",$C77="x")</formula>
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E77">
+  <conditionalFormatting sqref="E83">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>OR($C77="X",$C77="x")</formula>
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96:J96">
+  <conditionalFormatting sqref="I103:J103">
     <cfRule type="expression" dxfId="17" priority="16">
-      <formula>AND($J96="F")</formula>
+      <formula>AND($J103="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>AND($I96&lt;&gt;"",AND($I96&lt;TODAY()))</formula>
+      <formula>AND($I103&lt;&gt;"",AND($I103&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96 F96 H96:L96">
+  <conditionalFormatting sqref="C103 F103 H103:L103">
     <cfRule type="expression" dxfId="15" priority="18">
-      <formula>OR($C96="X",$C96="x")</formula>
+      <formula>OR($C103="X",$C103="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E103">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>OR($C96="X",$C96="x")</formula>
+      <formula>OR($C103="X",$C103="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:J95">
+  <conditionalFormatting sqref="I102:J102">
     <cfRule type="expression" dxfId="13" priority="12">
-      <formula>AND($J95="F")</formula>
+      <formula>AND($J102="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>AND($I95&lt;&gt;"",AND($I95&lt;TODAY()))</formula>
+      <formula>AND($I102&lt;&gt;"",AND($I102&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95 F95:L95 G96">
+  <conditionalFormatting sqref="C102 F102:L102 G103">
     <cfRule type="expression" dxfId="11" priority="14">
-      <formula>OR($C95="X",$C95="x")</formula>
+      <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E102">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>OR($C95="X",$C95="x")</formula>
+      <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
+  <conditionalFormatting sqref="D102">
     <cfRule type="expression" dxfId="9" priority="9">
-      <formula>OR($C95="X",$C95="x")</formula>
+      <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D96">
+  <conditionalFormatting sqref="D103">
     <cfRule type="expression" dxfId="8" priority="10">
-      <formula>OR($C96="X",$C96="x")</formula>
+      <formula>OR($C103="X",$C103="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I96:J96">
+  <conditionalFormatting sqref="I103:J103">
     <cfRule type="expression" dxfId="7" priority="6">
-      <formula>AND($J96="F")</formula>
+      <formula>AND($J103="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND($I96&lt;&gt;"",AND($I96&lt;TODAY()))</formula>
+      <formula>AND($I103&lt;&gt;"",AND($I103&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96:F96 H96:L96">
+  <conditionalFormatting sqref="C103:F103 H103:L103">
     <cfRule type="expression" dxfId="5" priority="8">
-      <formula>OR($C96="X",$C96="x")</formula>
+      <formula>OR($C103="X",$C103="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I95:J95">
+  <conditionalFormatting sqref="I102:J102">
     <cfRule type="expression" dxfId="4" priority="3">
-      <formula>AND($J95="F")</formula>
+      <formula>AND($J102="F")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND($I95&lt;&gt;"",AND($I95&lt;TODAY()))</formula>
+      <formula>AND($I102&lt;&gt;"",AND($I102&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C95 F95:L95 G96">
+  <conditionalFormatting sqref="C102 F102:L102 G103">
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>OR($C95="X",$C95="x")</formula>
+      <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E95">
+  <conditionalFormatting sqref="E102">
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>OR($C95="X",$C95="x")</formula>
+      <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D95">
+  <conditionalFormatting sqref="D102">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($C95="X",$C95="x")</formula>
+      <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
+++ b/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="123">
   <si>
     <t>Pos.</t>
   </si>
@@ -410,9 +410,6 @@
     <t>Recherche: 3D Mapping, Point Clouds,  BLAM</t>
   </si>
   <si>
-    <t>Recherche: IMM, RSS, ETH Referenzen</t>
-  </si>
-  <si>
     <t>HW-Analyse: Velodyne VLP 16</t>
   </si>
   <si>
@@ -443,9 +440,6 @@
   </si>
   <si>
     <t>Poster drucken lassen</t>
-  </si>
-  <si>
-    <t>Besrepchung mit Dr. Björn Jensen</t>
   </si>
   <si>
     <t>Recherche Strom/Datenübertragung drehbar</t>
@@ -617,6 +611,15 @@
   </si>
   <si>
     <t>V4.0</t>
+  </si>
+  <si>
+    <t>Motorentreiber vorbereiten</t>
+  </si>
+  <si>
+    <t>QRE 1113 Messaufbau</t>
+  </si>
+  <si>
+    <t>Recherche: IMM, Hector, ETH Referenzen</t>
   </si>
 </sst>
 </file>
@@ -887,7 +890,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,6 +984,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFD55D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,7 +1551,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1890,143 +1899,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="29" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2107,13 +1979,186 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="17" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="17" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="12" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="12" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="2" builtinId="8"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="280">
+  <dxfs count="282">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4840,11 +4885,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0000"/>
       <color rgb="FFFFD55D"/>
       <color rgb="FFFFF8E5"/>
       <color rgb="FFFF0101"/>
       <color rgb="FFFF3300"/>
-      <color rgb="FFFF0000"/>
       <color rgb="FF71AF47"/>
       <color rgb="FFDEDEDE"/>
       <color rgb="FFD98FC6"/>
@@ -5164,13 +5209,13 @@
     <tabColor theme="5" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:PB120"/>
+  <dimension ref="A1:PB121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="12" ySplit="14" topLeftCell="BP68" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <pane xSplit="12" ySplit="14" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:D10"/>
+      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5193,47 +5238,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
+      <c r="I2" s="146"/>
       <c r="J2" s="6"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="111" t="s">
+      <c r="B3" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="s">
+      <c r="C3" s="167"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="115"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="170"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11" t="s">
@@ -5249,18 +5294,18 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="116" t="s">
+      <c r="B4" s="147" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="119" t="s">
+      <c r="C4" s="148"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="120"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="151"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
@@ -5271,18 +5316,18 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="119" t="s">
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="120"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="151"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="13" t="s">
@@ -5293,18 +5338,18 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="117"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="127" t="s">
+      <c r="C6" s="148"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="153"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
@@ -5312,1232 +5357,1232 @@
       </c>
     </row>
     <row r="7" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="131"/>
-      <c r="E7" s="132" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="133"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="157" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="157"/>
+      <c r="G7" s="157"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="2:418" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="138"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="134"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="135"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="160"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
       <c r="L8" s="20"/>
       <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="145" t="s">
+      <c r="B9" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="146"/>
+      <c r="C9" s="140"/>
       <c r="D9" s="22">
         <f ca="1">TODAY()</f>
-        <v>43078</v>
-      </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="137"/>
+        <v>43082</v>
+      </c>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="162"/>
       <c r="J9" s="17"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="126" t="str">
+      <c r="M9" s="144" t="str">
         <f>TEXT(P13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="126" t="str">
+      <c r="N9" s="142"/>
+      <c r="O9" s="142"/>
+      <c r="P9" s="142"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="144" t="str">
         <f>TEXT(W13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="126" t="str">
+      <c r="U9" s="142"/>
+      <c r="V9" s="142"/>
+      <c r="W9" s="142"/>
+      <c r="X9" s="142"/>
+      <c r="Y9" s="142"/>
+      <c r="Z9" s="143"/>
+      <c r="AA9" s="144" t="str">
         <f t="shared" ref="AA9" si="0">TEXT(AD13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="109"/>
-      <c r="AD9" s="109"/>
-      <c r="AE9" s="109"/>
-      <c r="AF9" s="109"/>
-      <c r="AG9" s="110"/>
-      <c r="AH9" s="126" t="str">
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="142"/>
+      <c r="AD9" s="142"/>
+      <c r="AE9" s="142"/>
+      <c r="AF9" s="142"/>
+      <c r="AG9" s="143"/>
+      <c r="AH9" s="144" t="str">
         <f t="shared" ref="AH9" si="1">TEXT(AK13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AI9" s="109"/>
-      <c r="AJ9" s="109"/>
-      <c r="AK9" s="109"/>
-      <c r="AL9" s="109"/>
-      <c r="AM9" s="109"/>
-      <c r="AN9" s="110"/>
-      <c r="AO9" s="126" t="str">
+      <c r="AI9" s="142"/>
+      <c r="AJ9" s="142"/>
+      <c r="AK9" s="142"/>
+      <c r="AL9" s="142"/>
+      <c r="AM9" s="142"/>
+      <c r="AN9" s="143"/>
+      <c r="AO9" s="144" t="str">
         <f t="shared" ref="AO9" si="2">TEXT(AR13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AP9" s="109"/>
-      <c r="AQ9" s="109"/>
-      <c r="AR9" s="109"/>
-      <c r="AS9" s="109"/>
-      <c r="AT9" s="109"/>
-      <c r="AU9" s="110"/>
-      <c r="AV9" s="126" t="str">
+      <c r="AP9" s="142"/>
+      <c r="AQ9" s="142"/>
+      <c r="AR9" s="142"/>
+      <c r="AS9" s="142"/>
+      <c r="AT9" s="142"/>
+      <c r="AU9" s="143"/>
+      <c r="AV9" s="144" t="str">
         <f t="shared" ref="AV9" si="3">TEXT(AY13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AW9" s="109"/>
-      <c r="AX9" s="109"/>
-      <c r="AY9" s="109"/>
-      <c r="AZ9" s="109"/>
-      <c r="BA9" s="109"/>
-      <c r="BB9" s="110"/>
-      <c r="BC9" s="126" t="str">
+      <c r="AW9" s="142"/>
+      <c r="AX9" s="142"/>
+      <c r="AY9" s="142"/>
+      <c r="AZ9" s="142"/>
+      <c r="BA9" s="142"/>
+      <c r="BB9" s="143"/>
+      <c r="BC9" s="144" t="str">
         <f t="shared" ref="BC9" si="4">TEXT(BF13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BD9" s="109"/>
-      <c r="BE9" s="109"/>
-      <c r="BF9" s="109"/>
-      <c r="BG9" s="109"/>
-      <c r="BH9" s="109"/>
-      <c r="BI9" s="110"/>
-      <c r="BJ9" s="126" t="str">
+      <c r="BD9" s="142"/>
+      <c r="BE9" s="142"/>
+      <c r="BF9" s="142"/>
+      <c r="BG9" s="142"/>
+      <c r="BH9" s="142"/>
+      <c r="BI9" s="143"/>
+      <c r="BJ9" s="144" t="str">
         <f t="shared" ref="BJ9" si="5">TEXT(BM13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BK9" s="109"/>
-      <c r="BL9" s="109"/>
-      <c r="BM9" s="109"/>
-      <c r="BN9" s="109"/>
-      <c r="BO9" s="109"/>
-      <c r="BP9" s="110"/>
-      <c r="BQ9" s="126" t="str">
+      <c r="BK9" s="142"/>
+      <c r="BL9" s="142"/>
+      <c r="BM9" s="142"/>
+      <c r="BN9" s="142"/>
+      <c r="BO9" s="142"/>
+      <c r="BP9" s="143"/>
+      <c r="BQ9" s="144" t="str">
         <f t="shared" ref="BQ9" si="6">TEXT(BT13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BR9" s="109"/>
-      <c r="BS9" s="109"/>
-      <c r="BT9" s="109"/>
-      <c r="BU9" s="109"/>
-      <c r="BV9" s="109"/>
-      <c r="BW9" s="110"/>
-      <c r="BX9" s="126" t="str">
+      <c r="BR9" s="142"/>
+      <c r="BS9" s="142"/>
+      <c r="BT9" s="142"/>
+      <c r="BU9" s="142"/>
+      <c r="BV9" s="142"/>
+      <c r="BW9" s="143"/>
+      <c r="BX9" s="144" t="str">
         <f t="shared" ref="BX9" si="7">TEXT(CA13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BY9" s="109"/>
-      <c r="BZ9" s="109"/>
-      <c r="CA9" s="109"/>
-      <c r="CB9" s="109"/>
-      <c r="CC9" s="109"/>
-      <c r="CD9" s="110"/>
-      <c r="CE9" s="126" t="str">
+      <c r="BY9" s="142"/>
+      <c r="BZ9" s="142"/>
+      <c r="CA9" s="142"/>
+      <c r="CB9" s="142"/>
+      <c r="CC9" s="142"/>
+      <c r="CD9" s="143"/>
+      <c r="CE9" s="144" t="str">
         <f t="shared" ref="CE9" si="8">TEXT(CH13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="CF9" s="109"/>
-      <c r="CG9" s="109"/>
-      <c r="CH9" s="109"/>
-      <c r="CI9" s="109"/>
-      <c r="CJ9" s="109"/>
-      <c r="CK9" s="110"/>
-      <c r="CL9" s="126" t="str">
+      <c r="CF9" s="142"/>
+      <c r="CG9" s="142"/>
+      <c r="CH9" s="142"/>
+      <c r="CI9" s="142"/>
+      <c r="CJ9" s="142"/>
+      <c r="CK9" s="143"/>
+      <c r="CL9" s="144" t="str">
         <f t="shared" ref="CL9" si="9">TEXT(CO13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CM9" s="109"/>
-      <c r="CN9" s="109"/>
-      <c r="CO9" s="109"/>
-      <c r="CP9" s="109"/>
-      <c r="CQ9" s="109"/>
-      <c r="CR9" s="110"/>
-      <c r="CS9" s="126" t="str">
+      <c r="CM9" s="142"/>
+      <c r="CN9" s="142"/>
+      <c r="CO9" s="142"/>
+      <c r="CP9" s="142"/>
+      <c r="CQ9" s="142"/>
+      <c r="CR9" s="143"/>
+      <c r="CS9" s="144" t="str">
         <f t="shared" ref="CS9" si="10">TEXT(CV13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CT9" s="109"/>
-      <c r="CU9" s="109"/>
-      <c r="CV9" s="109"/>
-      <c r="CW9" s="109"/>
-      <c r="CX9" s="109"/>
-      <c r="CY9" s="110"/>
-      <c r="CZ9" s="126" t="str">
+      <c r="CT9" s="142"/>
+      <c r="CU9" s="142"/>
+      <c r="CV9" s="142"/>
+      <c r="CW9" s="142"/>
+      <c r="CX9" s="142"/>
+      <c r="CY9" s="143"/>
+      <c r="CZ9" s="144" t="str">
         <f t="shared" ref="CZ9" si="11">TEXT(DC13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DA9" s="109"/>
-      <c r="DB9" s="109"/>
-      <c r="DC9" s="109"/>
-      <c r="DD9" s="109"/>
-      <c r="DE9" s="109"/>
-      <c r="DF9" s="110"/>
-      <c r="DG9" s="126" t="str">
+      <c r="DA9" s="142"/>
+      <c r="DB9" s="142"/>
+      <c r="DC9" s="142"/>
+      <c r="DD9" s="142"/>
+      <c r="DE9" s="142"/>
+      <c r="DF9" s="143"/>
+      <c r="DG9" s="144" t="str">
         <f t="shared" ref="DG9" si="12">TEXT(DJ13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DH9" s="109"/>
-      <c r="DI9" s="109"/>
-      <c r="DJ9" s="109"/>
-      <c r="DK9" s="109"/>
-      <c r="DL9" s="109"/>
-      <c r="DM9" s="110"/>
-      <c r="DN9" s="126" t="str">
+      <c r="DH9" s="142"/>
+      <c r="DI9" s="142"/>
+      <c r="DJ9" s="142"/>
+      <c r="DK9" s="142"/>
+      <c r="DL9" s="142"/>
+      <c r="DM9" s="143"/>
+      <c r="DN9" s="144" t="str">
         <f t="shared" ref="DN9" si="13">TEXT(DQ13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DO9" s="109"/>
-      <c r="DP9" s="109"/>
-      <c r="DQ9" s="109"/>
-      <c r="DR9" s="109"/>
-      <c r="DS9" s="109"/>
-      <c r="DT9" s="110"/>
-      <c r="DU9" s="126" t="str">
+      <c r="DO9" s="142"/>
+      <c r="DP9" s="142"/>
+      <c r="DQ9" s="142"/>
+      <c r="DR9" s="142"/>
+      <c r="DS9" s="142"/>
+      <c r="DT9" s="143"/>
+      <c r="DU9" s="144" t="str">
         <f t="shared" ref="DU9" si="14">TEXT(DX13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DV9" s="109"/>
-      <c r="DW9" s="109"/>
-      <c r="DX9" s="109"/>
-      <c r="DY9" s="109"/>
-      <c r="DZ9" s="109"/>
-      <c r="EA9" s="110"/>
-      <c r="EB9" s="126" t="str">
+      <c r="DV9" s="142"/>
+      <c r="DW9" s="142"/>
+      <c r="DX9" s="142"/>
+      <c r="DY9" s="142"/>
+      <c r="DZ9" s="142"/>
+      <c r="EA9" s="143"/>
+      <c r="EB9" s="144" t="str">
         <f t="shared" ref="EB9" si="15">TEXT(EE13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EC9" s="109"/>
-      <c r="ED9" s="109"/>
-      <c r="EE9" s="109"/>
-      <c r="EF9" s="109"/>
-      <c r="EG9" s="109"/>
-      <c r="EH9" s="110"/>
-      <c r="EI9" s="126" t="str">
+      <c r="EC9" s="142"/>
+      <c r="ED9" s="142"/>
+      <c r="EE9" s="142"/>
+      <c r="EF9" s="142"/>
+      <c r="EG9" s="142"/>
+      <c r="EH9" s="143"/>
+      <c r="EI9" s="144" t="str">
         <f t="shared" ref="EI9" si="16">TEXT(EL13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EJ9" s="109"/>
-      <c r="EK9" s="109"/>
-      <c r="EL9" s="109"/>
-      <c r="EM9" s="109"/>
-      <c r="EN9" s="109"/>
-      <c r="EO9" s="110"/>
-      <c r="EP9" s="126" t="str">
+      <c r="EJ9" s="142"/>
+      <c r="EK9" s="142"/>
+      <c r="EL9" s="142"/>
+      <c r="EM9" s="142"/>
+      <c r="EN9" s="142"/>
+      <c r="EO9" s="143"/>
+      <c r="EP9" s="144" t="str">
         <f t="shared" ref="EP9" si="17">TEXT(ES13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EQ9" s="109"/>
-      <c r="ER9" s="109"/>
-      <c r="ES9" s="109"/>
-      <c r="ET9" s="109"/>
-      <c r="EU9" s="109"/>
-      <c r="EV9" s="110"/>
-      <c r="EW9" s="126" t="str">
+      <c r="EQ9" s="142"/>
+      <c r="ER9" s="142"/>
+      <c r="ES9" s="142"/>
+      <c r="ET9" s="142"/>
+      <c r="EU9" s="142"/>
+      <c r="EV9" s="143"/>
+      <c r="EW9" s="144" t="str">
         <f t="shared" ref="EW9" si="18">TEXT(EZ13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EX9" s="109"/>
-      <c r="EY9" s="109"/>
-      <c r="EZ9" s="109"/>
-      <c r="FA9" s="109"/>
-      <c r="FB9" s="109"/>
-      <c r="FC9" s="110"/>
-      <c r="FD9" s="126" t="str">
+      <c r="EX9" s="142"/>
+      <c r="EY9" s="142"/>
+      <c r="EZ9" s="142"/>
+      <c r="FA9" s="142"/>
+      <c r="FB9" s="142"/>
+      <c r="FC9" s="143"/>
+      <c r="FD9" s="144" t="str">
         <f t="shared" ref="FD9" si="19">TEXT(FG13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FE9" s="109"/>
-      <c r="FF9" s="109"/>
-      <c r="FG9" s="109"/>
-      <c r="FH9" s="109"/>
-      <c r="FI9" s="109"/>
-      <c r="FJ9" s="110"/>
-      <c r="FK9" s="108" t="str">
+      <c r="FE9" s="142"/>
+      <c r="FF9" s="142"/>
+      <c r="FG9" s="142"/>
+      <c r="FH9" s="142"/>
+      <c r="FI9" s="142"/>
+      <c r="FJ9" s="143"/>
+      <c r="FK9" s="141" t="str">
         <f t="shared" ref="FK9" si="20">TEXT(FN13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FL9" s="109"/>
-      <c r="FM9" s="109"/>
-      <c r="FN9" s="109"/>
-      <c r="FO9" s="109"/>
-      <c r="FP9" s="109"/>
-      <c r="FQ9" s="110"/>
-      <c r="FR9" s="108" t="str">
+      <c r="FL9" s="142"/>
+      <c r="FM9" s="142"/>
+      <c r="FN9" s="142"/>
+      <c r="FO9" s="142"/>
+      <c r="FP9" s="142"/>
+      <c r="FQ9" s="143"/>
+      <c r="FR9" s="141" t="str">
         <f t="shared" ref="FR9" si="21">TEXT(FU13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FS9" s="109"/>
-      <c r="FT9" s="109"/>
-      <c r="FU9" s="109"/>
-      <c r="FV9" s="109"/>
-      <c r="FW9" s="109"/>
-      <c r="FX9" s="110"/>
-      <c r="FY9" s="108" t="str">
+      <c r="FS9" s="142"/>
+      <c r="FT9" s="142"/>
+      <c r="FU9" s="142"/>
+      <c r="FV9" s="142"/>
+      <c r="FW9" s="142"/>
+      <c r="FX9" s="143"/>
+      <c r="FY9" s="141" t="str">
         <f t="shared" ref="FY9" si="22">TEXT(GB13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FZ9" s="109"/>
-      <c r="GA9" s="109"/>
-      <c r="GB9" s="109"/>
-      <c r="GC9" s="109"/>
-      <c r="GD9" s="109"/>
-      <c r="GE9" s="110"/>
-      <c r="GF9" s="108" t="str">
+      <c r="FZ9" s="142"/>
+      <c r="GA9" s="142"/>
+      <c r="GB9" s="142"/>
+      <c r="GC9" s="142"/>
+      <c r="GD9" s="142"/>
+      <c r="GE9" s="143"/>
+      <c r="GF9" s="141" t="str">
         <f t="shared" ref="GF9" si="23">TEXT(GI13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GG9" s="109"/>
-      <c r="GH9" s="109"/>
-      <c r="GI9" s="109"/>
-      <c r="GJ9" s="109"/>
-      <c r="GK9" s="109"/>
-      <c r="GL9" s="110"/>
-      <c r="GM9" s="108" t="str">
+      <c r="GG9" s="142"/>
+      <c r="GH9" s="142"/>
+      <c r="GI9" s="142"/>
+      <c r="GJ9" s="142"/>
+      <c r="GK9" s="142"/>
+      <c r="GL9" s="143"/>
+      <c r="GM9" s="141" t="str">
         <f t="shared" ref="GM9" si="24">TEXT(GP13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GN9" s="109"/>
-      <c r="GO9" s="109"/>
-      <c r="GP9" s="109"/>
-      <c r="GQ9" s="109"/>
-      <c r="GR9" s="109"/>
-      <c r="GS9" s="110"/>
-      <c r="GT9" s="108" t="str">
+      <c r="GN9" s="142"/>
+      <c r="GO9" s="142"/>
+      <c r="GP9" s="142"/>
+      <c r="GQ9" s="142"/>
+      <c r="GR9" s="142"/>
+      <c r="GS9" s="143"/>
+      <c r="GT9" s="141" t="str">
         <f t="shared" ref="GT9" si="25">TEXT(GW13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GU9" s="109"/>
-      <c r="GV9" s="109"/>
-      <c r="GW9" s="109"/>
-      <c r="GX9" s="109"/>
-      <c r="GY9" s="109"/>
-      <c r="GZ9" s="110"/>
-      <c r="HA9" s="108" t="str">
+      <c r="GU9" s="142"/>
+      <c r="GV9" s="142"/>
+      <c r="GW9" s="142"/>
+      <c r="GX9" s="142"/>
+      <c r="GY9" s="142"/>
+      <c r="GZ9" s="143"/>
+      <c r="HA9" s="141" t="str">
         <f t="shared" ref="HA9" si="26">TEXT(HD13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HB9" s="109"/>
-      <c r="HC9" s="109"/>
-      <c r="HD9" s="109"/>
-      <c r="HE9" s="109"/>
-      <c r="HF9" s="109"/>
-      <c r="HG9" s="110"/>
-      <c r="HH9" s="108" t="str">
+      <c r="HB9" s="142"/>
+      <c r="HC9" s="142"/>
+      <c r="HD9" s="142"/>
+      <c r="HE9" s="142"/>
+      <c r="HF9" s="142"/>
+      <c r="HG9" s="143"/>
+      <c r="HH9" s="141" t="str">
         <f t="shared" ref="HH9" si="27">TEXT(HK13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HI9" s="109"/>
-      <c r="HJ9" s="109"/>
-      <c r="HK9" s="109"/>
-      <c r="HL9" s="109"/>
-      <c r="HM9" s="109"/>
-      <c r="HN9" s="110"/>
-      <c r="HO9" s="108" t="str">
+      <c r="HI9" s="142"/>
+      <c r="HJ9" s="142"/>
+      <c r="HK9" s="142"/>
+      <c r="HL9" s="142"/>
+      <c r="HM9" s="142"/>
+      <c r="HN9" s="143"/>
+      <c r="HO9" s="141" t="str">
         <f t="shared" ref="HO9" si="28">TEXT(HR13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HP9" s="109"/>
-      <c r="HQ9" s="109"/>
-      <c r="HR9" s="109"/>
-      <c r="HS9" s="109"/>
-      <c r="HT9" s="109"/>
-      <c r="HU9" s="110"/>
-      <c r="HV9" s="108" t="str">
+      <c r="HP9" s="142"/>
+      <c r="HQ9" s="142"/>
+      <c r="HR9" s="142"/>
+      <c r="HS9" s="142"/>
+      <c r="HT9" s="142"/>
+      <c r="HU9" s="143"/>
+      <c r="HV9" s="141" t="str">
         <f t="shared" ref="HV9" si="29">TEXT(HY13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HW9" s="109"/>
-      <c r="HX9" s="109"/>
-      <c r="HY9" s="109"/>
-      <c r="HZ9" s="109"/>
-      <c r="IA9" s="109"/>
-      <c r="IB9" s="110"/>
-      <c r="IC9" s="108" t="str">
+      <c r="HW9" s="142"/>
+      <c r="HX9" s="142"/>
+      <c r="HY9" s="142"/>
+      <c r="HZ9" s="142"/>
+      <c r="IA9" s="142"/>
+      <c r="IB9" s="143"/>
+      <c r="IC9" s="141" t="str">
         <f t="shared" ref="IC9" si="30">TEXT(IF13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="ID9" s="109"/>
-      <c r="IE9" s="109"/>
-      <c r="IF9" s="109"/>
-      <c r="IG9" s="109"/>
-      <c r="IH9" s="109"/>
-      <c r="II9" s="110"/>
-      <c r="IJ9" s="108" t="str">
+      <c r="ID9" s="142"/>
+      <c r="IE9" s="142"/>
+      <c r="IF9" s="142"/>
+      <c r="IG9" s="142"/>
+      <c r="IH9" s="142"/>
+      <c r="II9" s="143"/>
+      <c r="IJ9" s="141" t="str">
         <f t="shared" ref="IJ9" si="31">TEXT(IM13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IK9" s="109"/>
-      <c r="IL9" s="109"/>
-      <c r="IM9" s="109"/>
-      <c r="IN9" s="109"/>
-      <c r="IO9" s="109"/>
-      <c r="IP9" s="110"/>
-      <c r="IQ9" s="108" t="str">
+      <c r="IK9" s="142"/>
+      <c r="IL9" s="142"/>
+      <c r="IM9" s="142"/>
+      <c r="IN9" s="142"/>
+      <c r="IO9" s="142"/>
+      <c r="IP9" s="143"/>
+      <c r="IQ9" s="141" t="str">
         <f t="shared" ref="IQ9" si="32">TEXT(IT13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IR9" s="109"/>
-      <c r="IS9" s="109"/>
-      <c r="IT9" s="109"/>
-      <c r="IU9" s="109"/>
-      <c r="IV9" s="109"/>
-      <c r="IW9" s="110"/>
-      <c r="IX9" s="108" t="str">
+      <c r="IR9" s="142"/>
+      <c r="IS9" s="142"/>
+      <c r="IT9" s="142"/>
+      <c r="IU9" s="142"/>
+      <c r="IV9" s="142"/>
+      <c r="IW9" s="143"/>
+      <c r="IX9" s="141" t="str">
         <f t="shared" ref="IX9" si="33">TEXT(JA13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IY9" s="109"/>
-      <c r="IZ9" s="109"/>
-      <c r="JA9" s="109"/>
-      <c r="JB9" s="109"/>
-      <c r="JC9" s="109"/>
-      <c r="JD9" s="110"/>
-      <c r="JE9" s="108" t="str">
+      <c r="IY9" s="142"/>
+      <c r="IZ9" s="142"/>
+      <c r="JA9" s="142"/>
+      <c r="JB9" s="142"/>
+      <c r="JC9" s="142"/>
+      <c r="JD9" s="143"/>
+      <c r="JE9" s="141" t="str">
         <f t="shared" ref="JE9" si="34">TEXT(JH13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="JF9" s="109"/>
-      <c r="JG9" s="109"/>
-      <c r="JH9" s="109"/>
-      <c r="JI9" s="109"/>
-      <c r="JJ9" s="109"/>
-      <c r="JK9" s="110"/>
-      <c r="JL9" s="108" t="str">
+      <c r="JF9" s="142"/>
+      <c r="JG9" s="142"/>
+      <c r="JH9" s="142"/>
+      <c r="JI9" s="142"/>
+      <c r="JJ9" s="142"/>
+      <c r="JK9" s="143"/>
+      <c r="JL9" s="141" t="str">
         <f t="shared" ref="JL9" si="35">TEXT(JO13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JM9" s="109"/>
-      <c r="JN9" s="109"/>
-      <c r="JO9" s="109"/>
-      <c r="JP9" s="109"/>
-      <c r="JQ9" s="109"/>
-      <c r="JR9" s="110"/>
-      <c r="JS9" s="108" t="str">
+      <c r="JM9" s="142"/>
+      <c r="JN9" s="142"/>
+      <c r="JO9" s="142"/>
+      <c r="JP9" s="142"/>
+      <c r="JQ9" s="142"/>
+      <c r="JR9" s="143"/>
+      <c r="JS9" s="141" t="str">
         <f t="shared" ref="JS9" si="36">TEXT(JV13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JT9" s="109"/>
-      <c r="JU9" s="109"/>
-      <c r="JV9" s="109"/>
-      <c r="JW9" s="109"/>
-      <c r="JX9" s="109"/>
-      <c r="JY9" s="110"/>
-      <c r="JZ9" s="108" t="str">
+      <c r="JT9" s="142"/>
+      <c r="JU9" s="142"/>
+      <c r="JV9" s="142"/>
+      <c r="JW9" s="142"/>
+      <c r="JX9" s="142"/>
+      <c r="JY9" s="143"/>
+      <c r="JZ9" s="141" t="str">
         <f t="shared" ref="JZ9" si="37">TEXT(KC13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KA9" s="109"/>
-      <c r="KB9" s="109"/>
-      <c r="KC9" s="109"/>
-      <c r="KD9" s="109"/>
-      <c r="KE9" s="109"/>
-      <c r="KF9" s="110"/>
-      <c r="KG9" s="108" t="str">
+      <c r="KA9" s="142"/>
+      <c r="KB9" s="142"/>
+      <c r="KC9" s="142"/>
+      <c r="KD9" s="142"/>
+      <c r="KE9" s="142"/>
+      <c r="KF9" s="143"/>
+      <c r="KG9" s="141" t="str">
         <f t="shared" ref="KG9" si="38">TEXT(KJ13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KH9" s="109"/>
-      <c r="KI9" s="109"/>
-      <c r="KJ9" s="109"/>
-      <c r="KK9" s="109"/>
-      <c r="KL9" s="109"/>
-      <c r="KM9" s="110"/>
-      <c r="KN9" s="108" t="str">
+      <c r="KH9" s="142"/>
+      <c r="KI9" s="142"/>
+      <c r="KJ9" s="142"/>
+      <c r="KK9" s="142"/>
+      <c r="KL9" s="142"/>
+      <c r="KM9" s="143"/>
+      <c r="KN9" s="141" t="str">
         <f t="shared" ref="KN9" si="39">TEXT(KQ13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KO9" s="109"/>
-      <c r="KP9" s="109"/>
-      <c r="KQ9" s="109"/>
-      <c r="KR9" s="109"/>
-      <c r="KS9" s="109"/>
-      <c r="KT9" s="110"/>
-      <c r="KU9" s="108" t="str">
+      <c r="KO9" s="142"/>
+      <c r="KP9" s="142"/>
+      <c r="KQ9" s="142"/>
+      <c r="KR9" s="142"/>
+      <c r="KS9" s="142"/>
+      <c r="KT9" s="143"/>
+      <c r="KU9" s="141" t="str">
         <f t="shared" ref="KU9" si="40">TEXT(KX13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KV9" s="109"/>
-      <c r="KW9" s="109"/>
-      <c r="KX9" s="109"/>
-      <c r="KY9" s="109"/>
-      <c r="KZ9" s="109"/>
-      <c r="LA9" s="110"/>
-      <c r="LB9" s="108" t="str">
+      <c r="KV9" s="142"/>
+      <c r="KW9" s="142"/>
+      <c r="KX9" s="142"/>
+      <c r="KY9" s="142"/>
+      <c r="KZ9" s="142"/>
+      <c r="LA9" s="143"/>
+      <c r="LB9" s="141" t="str">
         <f t="shared" ref="LB9" si="41">TEXT(LE13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LC9" s="109"/>
-      <c r="LD9" s="109"/>
-      <c r="LE9" s="109"/>
-      <c r="LF9" s="109"/>
-      <c r="LG9" s="109"/>
-      <c r="LH9" s="110"/>
-      <c r="LI9" s="108" t="str">
+      <c r="LC9" s="142"/>
+      <c r="LD9" s="142"/>
+      <c r="LE9" s="142"/>
+      <c r="LF9" s="142"/>
+      <c r="LG9" s="142"/>
+      <c r="LH9" s="143"/>
+      <c r="LI9" s="141" t="str">
         <f t="shared" ref="LI9" si="42">TEXT(LL13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LJ9" s="109"/>
-      <c r="LK9" s="109"/>
-      <c r="LL9" s="109"/>
-      <c r="LM9" s="109"/>
-      <c r="LN9" s="109"/>
-      <c r="LO9" s="110"/>
-      <c r="LP9" s="108" t="str">
+      <c r="LJ9" s="142"/>
+      <c r="LK9" s="142"/>
+      <c r="LL9" s="142"/>
+      <c r="LM9" s="142"/>
+      <c r="LN9" s="142"/>
+      <c r="LO9" s="143"/>
+      <c r="LP9" s="141" t="str">
         <f t="shared" ref="LP9" si="43">TEXT(LS13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LQ9" s="109"/>
-      <c r="LR9" s="109"/>
-      <c r="LS9" s="109"/>
-      <c r="LT9" s="109"/>
-      <c r="LU9" s="109"/>
-      <c r="LV9" s="110"/>
-      <c r="LW9" s="108" t="str">
+      <c r="LQ9" s="142"/>
+      <c r="LR9" s="142"/>
+      <c r="LS9" s="142"/>
+      <c r="LT9" s="142"/>
+      <c r="LU9" s="142"/>
+      <c r="LV9" s="143"/>
+      <c r="LW9" s="141" t="str">
         <f t="shared" ref="LW9" si="44">TEXT(LZ13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LX9" s="109"/>
-      <c r="LY9" s="109"/>
-      <c r="LZ9" s="109"/>
-      <c r="MA9" s="109"/>
-      <c r="MB9" s="109"/>
-      <c r="MC9" s="110"/>
-      <c r="MD9" s="108" t="str">
+      <c r="LX9" s="142"/>
+      <c r="LY9" s="142"/>
+      <c r="LZ9" s="142"/>
+      <c r="MA9" s="142"/>
+      <c r="MB9" s="142"/>
+      <c r="MC9" s="143"/>
+      <c r="MD9" s="141" t="str">
         <f t="shared" ref="MD9" si="45">TEXT(MG13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ME9" s="109"/>
-      <c r="MF9" s="109"/>
-      <c r="MG9" s="109"/>
-      <c r="MH9" s="109"/>
-      <c r="MI9" s="109"/>
-      <c r="MJ9" s="110"/>
-      <c r="MK9" s="108" t="str">
+      <c r="ME9" s="142"/>
+      <c r="MF9" s="142"/>
+      <c r="MG9" s="142"/>
+      <c r="MH9" s="142"/>
+      <c r="MI9" s="142"/>
+      <c r="MJ9" s="143"/>
+      <c r="MK9" s="141" t="str">
         <f t="shared" ref="MK9" si="46">TEXT(MN13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ML9" s="109"/>
-      <c r="MM9" s="109"/>
-      <c r="MN9" s="109"/>
-      <c r="MO9" s="109"/>
-      <c r="MP9" s="109"/>
-      <c r="MQ9" s="110"/>
-      <c r="MR9" s="108" t="str">
+      <c r="ML9" s="142"/>
+      <c r="MM9" s="142"/>
+      <c r="MN9" s="142"/>
+      <c r="MO9" s="142"/>
+      <c r="MP9" s="142"/>
+      <c r="MQ9" s="143"/>
+      <c r="MR9" s="141" t="str">
         <f t="shared" ref="MR9" si="47">TEXT(MU13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="MS9" s="109"/>
-      <c r="MT9" s="109"/>
-      <c r="MU9" s="109"/>
-      <c r="MV9" s="109"/>
-      <c r="MW9" s="109"/>
-      <c r="MX9" s="110"/>
-      <c r="MY9" s="108" t="str">
+      <c r="MS9" s="142"/>
+      <c r="MT9" s="142"/>
+      <c r="MU9" s="142"/>
+      <c r="MV9" s="142"/>
+      <c r="MW9" s="142"/>
+      <c r="MX9" s="143"/>
+      <c r="MY9" s="141" t="str">
         <f t="shared" ref="MY9" si="48">TEXT(NB13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="MZ9" s="109"/>
-      <c r="NA9" s="109"/>
-      <c r="NB9" s="109"/>
-      <c r="NC9" s="109"/>
-      <c r="ND9" s="109"/>
-      <c r="NE9" s="110"/>
-      <c r="NF9" s="108" t="str">
+      <c r="MZ9" s="142"/>
+      <c r="NA9" s="142"/>
+      <c r="NB9" s="142"/>
+      <c r="NC9" s="142"/>
+      <c r="ND9" s="142"/>
+      <c r="NE9" s="143"/>
+      <c r="NF9" s="141" t="str">
         <f t="shared" ref="NF9" si="49">TEXT(NI13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NG9" s="109"/>
-      <c r="NH9" s="109"/>
-      <c r="NI9" s="109"/>
-      <c r="NJ9" s="109"/>
-      <c r="NK9" s="109"/>
-      <c r="NL9" s="110"/>
-      <c r="NM9" s="108" t="str">
+      <c r="NG9" s="142"/>
+      <c r="NH9" s="142"/>
+      <c r="NI9" s="142"/>
+      <c r="NJ9" s="142"/>
+      <c r="NK9" s="142"/>
+      <c r="NL9" s="143"/>
+      <c r="NM9" s="141" t="str">
         <f t="shared" ref="NM9" si="50">TEXT(NP13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NN9" s="109"/>
-      <c r="NO9" s="109"/>
-      <c r="NP9" s="109"/>
-      <c r="NQ9" s="109"/>
-      <c r="NR9" s="109"/>
-      <c r="NS9" s="110"/>
-      <c r="NT9" s="108" t="str">
+      <c r="NN9" s="142"/>
+      <c r="NO9" s="142"/>
+      <c r="NP9" s="142"/>
+      <c r="NQ9" s="142"/>
+      <c r="NR9" s="142"/>
+      <c r="NS9" s="143"/>
+      <c r="NT9" s="141" t="str">
         <f t="shared" ref="NT9" si="51">TEXT(NW13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NU9" s="109"/>
-      <c r="NV9" s="109"/>
-      <c r="NW9" s="109"/>
-      <c r="NX9" s="109"/>
-      <c r="NY9" s="109"/>
-      <c r="NZ9" s="110"/>
-      <c r="OA9" s="108" t="str">
+      <c r="NU9" s="142"/>
+      <c r="NV9" s="142"/>
+      <c r="NW9" s="142"/>
+      <c r="NX9" s="142"/>
+      <c r="NY9" s="142"/>
+      <c r="NZ9" s="143"/>
+      <c r="OA9" s="141" t="str">
         <f t="shared" ref="OA9" si="52">TEXT(OD13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OB9" s="109"/>
-      <c r="OC9" s="109"/>
-      <c r="OD9" s="109"/>
-      <c r="OE9" s="109"/>
-      <c r="OF9" s="109"/>
-      <c r="OG9" s="110"/>
-      <c r="OH9" s="108" t="str">
+      <c r="OB9" s="142"/>
+      <c r="OC9" s="142"/>
+      <c r="OD9" s="142"/>
+      <c r="OE9" s="142"/>
+      <c r="OF9" s="142"/>
+      <c r="OG9" s="143"/>
+      <c r="OH9" s="141" t="str">
         <f t="shared" ref="OH9" si="53">TEXT(OK13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OI9" s="109"/>
-      <c r="OJ9" s="109"/>
-      <c r="OK9" s="109"/>
-      <c r="OL9" s="109"/>
-      <c r="OM9" s="109"/>
-      <c r="ON9" s="110"/>
-      <c r="OO9" s="108" t="str">
+      <c r="OI9" s="142"/>
+      <c r="OJ9" s="142"/>
+      <c r="OK9" s="142"/>
+      <c r="OL9" s="142"/>
+      <c r="OM9" s="142"/>
+      <c r="ON9" s="143"/>
+      <c r="OO9" s="141" t="str">
         <f t="shared" ref="OO9" si="54">TEXT(OR13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OP9" s="109"/>
-      <c r="OQ9" s="109"/>
-      <c r="OR9" s="109"/>
-      <c r="OS9" s="109"/>
-      <c r="OT9" s="109"/>
-      <c r="OU9" s="110"/>
-      <c r="OV9" s="108" t="str">
+      <c r="OP9" s="142"/>
+      <c r="OQ9" s="142"/>
+      <c r="OR9" s="142"/>
+      <c r="OS9" s="142"/>
+      <c r="OT9" s="142"/>
+      <c r="OU9" s="143"/>
+      <c r="OV9" s="141" t="str">
         <f t="shared" ref="OV9" si="55">TEXT(OY13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OW9" s="109"/>
-      <c r="OX9" s="109"/>
-      <c r="OY9" s="109"/>
-      <c r="OZ9" s="109"/>
-      <c r="PA9" s="109"/>
-      <c r="PB9" s="110"/>
+      <c r="OW9" s="142"/>
+      <c r="OX9" s="142"/>
+      <c r="OY9" s="142"/>
+      <c r="OZ9" s="142"/>
+      <c r="PA9" s="142"/>
+      <c r="PB9" s="143"/>
     </row>
     <row r="10" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
       <c r="F10" s="25"/>
       <c r="G10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="142">
+      <c r="H10" s="136">
         <v>42996</v>
       </c>
-      <c r="I10" s="142"/>
+      <c r="I10" s="136"/>
       <c r="J10" s="27"/>
       <c r="L10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="143">
+      <c r="M10" s="137">
         <f>WEEKNUM(P13,21)</f>
         <v>38</v>
       </c>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="121">
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="130">
         <f>WEEKNUM(W13,21)</f>
         <v>39</v>
       </c>
-      <c r="U10" s="122"/>
-      <c r="V10" s="122"/>
-      <c r="W10" s="122"/>
-      <c r="X10" s="122"/>
-      <c r="Y10" s="122"/>
-      <c r="Z10" s="123"/>
-      <c r="AA10" s="144">
+      <c r="U10" s="131"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="131"/>
+      <c r="X10" s="131"/>
+      <c r="Y10" s="131"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="138">
         <f>WEEKNUM(AD13,21)</f>
         <v>40</v>
       </c>
-      <c r="AB10" s="144"/>
-      <c r="AC10" s="144"/>
-      <c r="AD10" s="144"/>
-      <c r="AE10" s="144"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="144"/>
-      <c r="AH10" s="121">
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="138"/>
+      <c r="AE10" s="138"/>
+      <c r="AF10" s="138"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="130">
         <f>WEEKNUM(AK13,21)</f>
         <v>41</v>
       </c>
-      <c r="AI10" s="122"/>
-      <c r="AJ10" s="122"/>
-      <c r="AK10" s="122"/>
-      <c r="AL10" s="122"/>
-      <c r="AM10" s="122"/>
-      <c r="AN10" s="123"/>
-      <c r="AO10" s="121">
+      <c r="AI10" s="131"/>
+      <c r="AJ10" s="131"/>
+      <c r="AK10" s="131"/>
+      <c r="AL10" s="131"/>
+      <c r="AM10" s="131"/>
+      <c r="AN10" s="132"/>
+      <c r="AO10" s="130">
         <f>WEEKNUM(AR13,21)</f>
         <v>42</v>
       </c>
-      <c r="AP10" s="122"/>
-      <c r="AQ10" s="122"/>
-      <c r="AR10" s="122"/>
-      <c r="AS10" s="122"/>
-      <c r="AT10" s="122"/>
-      <c r="AU10" s="123"/>
-      <c r="AV10" s="121">
+      <c r="AP10" s="131"/>
+      <c r="AQ10" s="131"/>
+      <c r="AR10" s="131"/>
+      <c r="AS10" s="131"/>
+      <c r="AT10" s="131"/>
+      <c r="AU10" s="132"/>
+      <c r="AV10" s="130">
         <f>WEEKNUM(AY13,21)</f>
         <v>43</v>
       </c>
-      <c r="AW10" s="122"/>
-      <c r="AX10" s="122"/>
-      <c r="AY10" s="122"/>
-      <c r="AZ10" s="122"/>
-      <c r="BA10" s="122"/>
-      <c r="BB10" s="123"/>
-      <c r="BC10" s="121">
+      <c r="AW10" s="131"/>
+      <c r="AX10" s="131"/>
+      <c r="AY10" s="131"/>
+      <c r="AZ10" s="131"/>
+      <c r="BA10" s="131"/>
+      <c r="BB10" s="132"/>
+      <c r="BC10" s="130">
         <f>WEEKNUM(BF13,21)</f>
         <v>44</v>
       </c>
-      <c r="BD10" s="122"/>
-      <c r="BE10" s="122"/>
-      <c r="BF10" s="122"/>
-      <c r="BG10" s="122"/>
-      <c r="BH10" s="122"/>
-      <c r="BI10" s="123"/>
-      <c r="BJ10" s="121">
+      <c r="BD10" s="131"/>
+      <c r="BE10" s="131"/>
+      <c r="BF10" s="131"/>
+      <c r="BG10" s="131"/>
+      <c r="BH10" s="131"/>
+      <c r="BI10" s="132"/>
+      <c r="BJ10" s="130">
         <f>WEEKNUM(BM13,21)</f>
         <v>45</v>
       </c>
-      <c r="BK10" s="122"/>
-      <c r="BL10" s="122"/>
-      <c r="BM10" s="122"/>
-      <c r="BN10" s="122"/>
-      <c r="BO10" s="122"/>
-      <c r="BP10" s="123"/>
-      <c r="BQ10" s="121">
+      <c r="BK10" s="131"/>
+      <c r="BL10" s="131"/>
+      <c r="BM10" s="131"/>
+      <c r="BN10" s="131"/>
+      <c r="BO10" s="131"/>
+      <c r="BP10" s="132"/>
+      <c r="BQ10" s="130">
         <f>WEEKNUM(BT13,21)</f>
         <v>46</v>
       </c>
-      <c r="BR10" s="122"/>
-      <c r="BS10" s="122"/>
-      <c r="BT10" s="122"/>
-      <c r="BU10" s="122"/>
-      <c r="BV10" s="122"/>
-      <c r="BW10" s="123"/>
-      <c r="BX10" s="121">
+      <c r="BR10" s="131"/>
+      <c r="BS10" s="131"/>
+      <c r="BT10" s="131"/>
+      <c r="BU10" s="131"/>
+      <c r="BV10" s="131"/>
+      <c r="BW10" s="132"/>
+      <c r="BX10" s="130">
         <f>WEEKNUM(CA13,21)</f>
         <v>47</v>
       </c>
-      <c r="BY10" s="122"/>
-      <c r="BZ10" s="122"/>
-      <c r="CA10" s="122"/>
-      <c r="CB10" s="122"/>
-      <c r="CC10" s="122"/>
-      <c r="CD10" s="123"/>
-      <c r="CE10" s="121">
+      <c r="BY10" s="131"/>
+      <c r="BZ10" s="131"/>
+      <c r="CA10" s="131"/>
+      <c r="CB10" s="131"/>
+      <c r="CC10" s="131"/>
+      <c r="CD10" s="132"/>
+      <c r="CE10" s="130">
         <f>WEEKNUM(CH13,21)</f>
         <v>48</v>
       </c>
-      <c r="CF10" s="122"/>
-      <c r="CG10" s="122"/>
-      <c r="CH10" s="122"/>
-      <c r="CI10" s="122"/>
-      <c r="CJ10" s="122"/>
-      <c r="CK10" s="123"/>
-      <c r="CL10" s="121">
+      <c r="CF10" s="131"/>
+      <c r="CG10" s="131"/>
+      <c r="CH10" s="131"/>
+      <c r="CI10" s="131"/>
+      <c r="CJ10" s="131"/>
+      <c r="CK10" s="132"/>
+      <c r="CL10" s="130">
         <f>WEEKNUM(CO13,21)</f>
         <v>49</v>
       </c>
-      <c r="CM10" s="122"/>
-      <c r="CN10" s="122"/>
-      <c r="CO10" s="122"/>
-      <c r="CP10" s="122"/>
-      <c r="CQ10" s="122"/>
-      <c r="CR10" s="123"/>
-      <c r="CS10" s="121">
+      <c r="CM10" s="131"/>
+      <c r="CN10" s="131"/>
+      <c r="CO10" s="131"/>
+      <c r="CP10" s="131"/>
+      <c r="CQ10" s="131"/>
+      <c r="CR10" s="132"/>
+      <c r="CS10" s="130">
         <f>WEEKNUM(CV13,21)</f>
         <v>50</v>
       </c>
-      <c r="CT10" s="122"/>
-      <c r="CU10" s="122"/>
-      <c r="CV10" s="122"/>
-      <c r="CW10" s="122"/>
-      <c r="CX10" s="122"/>
-      <c r="CY10" s="123"/>
-      <c r="CZ10" s="121">
+      <c r="CT10" s="131"/>
+      <c r="CU10" s="131"/>
+      <c r="CV10" s="131"/>
+      <c r="CW10" s="131"/>
+      <c r="CX10" s="131"/>
+      <c r="CY10" s="132"/>
+      <c r="CZ10" s="130">
         <f>WEEKNUM(DC13,21)</f>
         <v>51</v>
       </c>
-      <c r="DA10" s="122"/>
-      <c r="DB10" s="122"/>
-      <c r="DC10" s="122"/>
-      <c r="DD10" s="122"/>
-      <c r="DE10" s="122"/>
-      <c r="DF10" s="123"/>
-      <c r="DG10" s="121">
+      <c r="DA10" s="131"/>
+      <c r="DB10" s="131"/>
+      <c r="DC10" s="131"/>
+      <c r="DD10" s="131"/>
+      <c r="DE10" s="131"/>
+      <c r="DF10" s="132"/>
+      <c r="DG10" s="130">
         <f>WEEKNUM(DJ13,21)</f>
         <v>52</v>
       </c>
-      <c r="DH10" s="122"/>
-      <c r="DI10" s="122"/>
-      <c r="DJ10" s="122"/>
-      <c r="DK10" s="122"/>
-      <c r="DL10" s="122"/>
-      <c r="DM10" s="123"/>
-      <c r="DN10" s="121">
+      <c r="DH10" s="131"/>
+      <c r="DI10" s="131"/>
+      <c r="DJ10" s="131"/>
+      <c r="DK10" s="131"/>
+      <c r="DL10" s="131"/>
+      <c r="DM10" s="132"/>
+      <c r="DN10" s="130">
         <f>WEEKNUM(DQ13,21)</f>
         <v>1</v>
       </c>
-      <c r="DO10" s="122"/>
-      <c r="DP10" s="122"/>
-      <c r="DQ10" s="122"/>
-      <c r="DR10" s="122"/>
-      <c r="DS10" s="122"/>
-      <c r="DT10" s="123"/>
-      <c r="DU10" s="121">
+      <c r="DO10" s="131"/>
+      <c r="DP10" s="131"/>
+      <c r="DQ10" s="131"/>
+      <c r="DR10" s="131"/>
+      <c r="DS10" s="131"/>
+      <c r="DT10" s="132"/>
+      <c r="DU10" s="130">
         <f>WEEKNUM(DX13,21)</f>
         <v>2</v>
       </c>
-      <c r="DV10" s="122"/>
-      <c r="DW10" s="122"/>
-      <c r="DX10" s="122"/>
-      <c r="DY10" s="122"/>
-      <c r="DZ10" s="122"/>
-      <c r="EA10" s="123"/>
-      <c r="EB10" s="121">
+      <c r="DV10" s="131"/>
+      <c r="DW10" s="131"/>
+      <c r="DX10" s="131"/>
+      <c r="DY10" s="131"/>
+      <c r="DZ10" s="131"/>
+      <c r="EA10" s="132"/>
+      <c r="EB10" s="130">
         <f>WEEKNUM(EE13,21)</f>
         <v>3</v>
       </c>
-      <c r="EC10" s="122"/>
-      <c r="ED10" s="122"/>
-      <c r="EE10" s="122"/>
-      <c r="EF10" s="122"/>
-      <c r="EG10" s="122"/>
-      <c r="EH10" s="123"/>
-      <c r="EI10" s="121">
+      <c r="EC10" s="131"/>
+      <c r="ED10" s="131"/>
+      <c r="EE10" s="131"/>
+      <c r="EF10" s="131"/>
+      <c r="EG10" s="131"/>
+      <c r="EH10" s="132"/>
+      <c r="EI10" s="130">
         <f>WEEKNUM(EL13,21)</f>
         <v>4</v>
       </c>
-      <c r="EJ10" s="122"/>
-      <c r="EK10" s="122"/>
-      <c r="EL10" s="122"/>
-      <c r="EM10" s="122"/>
-      <c r="EN10" s="122"/>
-      <c r="EO10" s="123"/>
-      <c r="EP10" s="121">
+      <c r="EJ10" s="131"/>
+      <c r="EK10" s="131"/>
+      <c r="EL10" s="131"/>
+      <c r="EM10" s="131"/>
+      <c r="EN10" s="131"/>
+      <c r="EO10" s="132"/>
+      <c r="EP10" s="130">
         <f>WEEKNUM(ES13,21)</f>
         <v>5</v>
       </c>
-      <c r="EQ10" s="122"/>
-      <c r="ER10" s="122"/>
-      <c r="ES10" s="122"/>
-      <c r="ET10" s="122"/>
-      <c r="EU10" s="122"/>
-      <c r="EV10" s="123"/>
-      <c r="EW10" s="121">
+      <c r="EQ10" s="131"/>
+      <c r="ER10" s="131"/>
+      <c r="ES10" s="131"/>
+      <c r="ET10" s="131"/>
+      <c r="EU10" s="131"/>
+      <c r="EV10" s="132"/>
+      <c r="EW10" s="130">
         <f>WEEKNUM(EZ13,21)</f>
         <v>6</v>
       </c>
-      <c r="EX10" s="122"/>
-      <c r="EY10" s="122"/>
-      <c r="EZ10" s="122"/>
-      <c r="FA10" s="122"/>
-      <c r="FB10" s="122"/>
-      <c r="FC10" s="123"/>
-      <c r="FD10" s="121">
+      <c r="EX10" s="131"/>
+      <c r="EY10" s="131"/>
+      <c r="EZ10" s="131"/>
+      <c r="FA10" s="131"/>
+      <c r="FB10" s="131"/>
+      <c r="FC10" s="132"/>
+      <c r="FD10" s="130">
         <f>WEEKNUM(FG13,21)</f>
         <v>7</v>
       </c>
-      <c r="FE10" s="122"/>
-      <c r="FF10" s="122"/>
-      <c r="FG10" s="122"/>
-      <c r="FH10" s="122"/>
-      <c r="FI10" s="122"/>
-      <c r="FJ10" s="123"/>
-      <c r="FK10" s="121">
+      <c r="FE10" s="131"/>
+      <c r="FF10" s="131"/>
+      <c r="FG10" s="131"/>
+      <c r="FH10" s="131"/>
+      <c r="FI10" s="131"/>
+      <c r="FJ10" s="132"/>
+      <c r="FK10" s="130">
         <f>WEEKNUM(FN13,21)</f>
         <v>8</v>
       </c>
-      <c r="FL10" s="122"/>
-      <c r="FM10" s="122"/>
-      <c r="FN10" s="122"/>
-      <c r="FO10" s="122"/>
-      <c r="FP10" s="122"/>
-      <c r="FQ10" s="123"/>
-      <c r="FR10" s="121">
+      <c r="FL10" s="131"/>
+      <c r="FM10" s="131"/>
+      <c r="FN10" s="131"/>
+      <c r="FO10" s="131"/>
+      <c r="FP10" s="131"/>
+      <c r="FQ10" s="132"/>
+      <c r="FR10" s="130">
         <f>WEEKNUM(FU13,21)</f>
         <v>9</v>
       </c>
-      <c r="FS10" s="122"/>
-      <c r="FT10" s="122"/>
-      <c r="FU10" s="122"/>
-      <c r="FV10" s="122"/>
-      <c r="FW10" s="122"/>
-      <c r="FX10" s="123"/>
-      <c r="FY10" s="121">
+      <c r="FS10" s="131"/>
+      <c r="FT10" s="131"/>
+      <c r="FU10" s="131"/>
+      <c r="FV10" s="131"/>
+      <c r="FW10" s="131"/>
+      <c r="FX10" s="132"/>
+      <c r="FY10" s="130">
         <f>WEEKNUM(GB13,21)</f>
         <v>10</v>
       </c>
-      <c r="FZ10" s="122"/>
-      <c r="GA10" s="122"/>
-      <c r="GB10" s="122"/>
-      <c r="GC10" s="122"/>
-      <c r="GD10" s="122"/>
-      <c r="GE10" s="123"/>
-      <c r="GF10" s="121">
+      <c r="FZ10" s="131"/>
+      <c r="GA10" s="131"/>
+      <c r="GB10" s="131"/>
+      <c r="GC10" s="131"/>
+      <c r="GD10" s="131"/>
+      <c r="GE10" s="132"/>
+      <c r="GF10" s="130">
         <f>WEEKNUM(GI13,21)</f>
         <v>11</v>
       </c>
-      <c r="GG10" s="122"/>
-      <c r="GH10" s="122"/>
-      <c r="GI10" s="122"/>
-      <c r="GJ10" s="122"/>
-      <c r="GK10" s="122"/>
-      <c r="GL10" s="123"/>
-      <c r="GM10" s="121">
+      <c r="GG10" s="131"/>
+      <c r="GH10" s="131"/>
+      <c r="GI10" s="131"/>
+      <c r="GJ10" s="131"/>
+      <c r="GK10" s="131"/>
+      <c r="GL10" s="132"/>
+      <c r="GM10" s="130">
         <f>WEEKNUM(GP13,21)</f>
         <v>12</v>
       </c>
-      <c r="GN10" s="122"/>
-      <c r="GO10" s="122"/>
-      <c r="GP10" s="122"/>
-      <c r="GQ10" s="122"/>
-      <c r="GR10" s="122"/>
-      <c r="GS10" s="123"/>
-      <c r="GT10" s="121">
+      <c r="GN10" s="131"/>
+      <c r="GO10" s="131"/>
+      <c r="GP10" s="131"/>
+      <c r="GQ10" s="131"/>
+      <c r="GR10" s="131"/>
+      <c r="GS10" s="132"/>
+      <c r="GT10" s="130">
         <f>WEEKNUM(GW13,21)</f>
         <v>13</v>
       </c>
-      <c r="GU10" s="122"/>
-      <c r="GV10" s="122"/>
-      <c r="GW10" s="122"/>
-      <c r="GX10" s="122"/>
-      <c r="GY10" s="122"/>
-      <c r="GZ10" s="123"/>
-      <c r="HA10" s="121">
+      <c r="GU10" s="131"/>
+      <c r="GV10" s="131"/>
+      <c r="GW10" s="131"/>
+      <c r="GX10" s="131"/>
+      <c r="GY10" s="131"/>
+      <c r="GZ10" s="132"/>
+      <c r="HA10" s="130">
         <f>WEEKNUM(HD13,21)</f>
         <v>14</v>
       </c>
-      <c r="HB10" s="122"/>
-      <c r="HC10" s="122"/>
-      <c r="HD10" s="122"/>
-      <c r="HE10" s="122"/>
-      <c r="HF10" s="122"/>
-      <c r="HG10" s="123"/>
-      <c r="HH10" s="121">
+      <c r="HB10" s="131"/>
+      <c r="HC10" s="131"/>
+      <c r="HD10" s="131"/>
+      <c r="HE10" s="131"/>
+      <c r="HF10" s="131"/>
+      <c r="HG10" s="132"/>
+      <c r="HH10" s="130">
         <f>WEEKNUM(HK13,21)</f>
         <v>15</v>
       </c>
-      <c r="HI10" s="122"/>
-      <c r="HJ10" s="122"/>
-      <c r="HK10" s="122"/>
-      <c r="HL10" s="122"/>
-      <c r="HM10" s="122"/>
-      <c r="HN10" s="123"/>
-      <c r="HO10" s="121">
+      <c r="HI10" s="131"/>
+      <c r="HJ10" s="131"/>
+      <c r="HK10" s="131"/>
+      <c r="HL10" s="131"/>
+      <c r="HM10" s="131"/>
+      <c r="HN10" s="132"/>
+      <c r="HO10" s="130">
         <f>WEEKNUM(HR13,21)</f>
         <v>16</v>
       </c>
-      <c r="HP10" s="122"/>
-      <c r="HQ10" s="122"/>
-      <c r="HR10" s="122"/>
-      <c r="HS10" s="122"/>
-      <c r="HT10" s="122"/>
-      <c r="HU10" s="123"/>
-      <c r="HV10" s="121">
+      <c r="HP10" s="131"/>
+      <c r="HQ10" s="131"/>
+      <c r="HR10" s="131"/>
+      <c r="HS10" s="131"/>
+      <c r="HT10" s="131"/>
+      <c r="HU10" s="132"/>
+      <c r="HV10" s="130">
         <f t="shared" ref="HV10" si="56">WEEKNUM(HY13,21)</f>
         <v>17</v>
       </c>
-      <c r="HW10" s="122"/>
-      <c r="HX10" s="122"/>
-      <c r="HY10" s="122"/>
-      <c r="HZ10" s="122"/>
-      <c r="IA10" s="122"/>
-      <c r="IB10" s="123"/>
-      <c r="IC10" s="121">
+      <c r="HW10" s="131"/>
+      <c r="HX10" s="131"/>
+      <c r="HY10" s="131"/>
+      <c r="HZ10" s="131"/>
+      <c r="IA10" s="131"/>
+      <c r="IB10" s="132"/>
+      <c r="IC10" s="130">
         <f t="shared" ref="IC10" si="57">WEEKNUM(IF13,21)</f>
         <v>18</v>
       </c>
-      <c r="ID10" s="122"/>
-      <c r="IE10" s="122"/>
-      <c r="IF10" s="122"/>
-      <c r="IG10" s="122"/>
-      <c r="IH10" s="122"/>
-      <c r="II10" s="123"/>
-      <c r="IJ10" s="121">
+      <c r="ID10" s="131"/>
+      <c r="IE10" s="131"/>
+      <c r="IF10" s="131"/>
+      <c r="IG10" s="131"/>
+      <c r="IH10" s="131"/>
+      <c r="II10" s="132"/>
+      <c r="IJ10" s="130">
         <f t="shared" ref="IJ10" si="58">WEEKNUM(IM13,21)</f>
         <v>19</v>
       </c>
-      <c r="IK10" s="122"/>
-      <c r="IL10" s="122"/>
-      <c r="IM10" s="122"/>
-      <c r="IN10" s="122"/>
-      <c r="IO10" s="122"/>
-      <c r="IP10" s="123"/>
-      <c r="IQ10" s="121">
+      <c r="IK10" s="131"/>
+      <c r="IL10" s="131"/>
+      <c r="IM10" s="131"/>
+      <c r="IN10" s="131"/>
+      <c r="IO10" s="131"/>
+      <c r="IP10" s="132"/>
+      <c r="IQ10" s="130">
         <f t="shared" ref="IQ10" si="59">WEEKNUM(IT13,21)</f>
         <v>20</v>
       </c>
-      <c r="IR10" s="122"/>
-      <c r="IS10" s="122"/>
-      <c r="IT10" s="122"/>
-      <c r="IU10" s="122"/>
-      <c r="IV10" s="122"/>
-      <c r="IW10" s="123"/>
-      <c r="IX10" s="121">
+      <c r="IR10" s="131"/>
+      <c r="IS10" s="131"/>
+      <c r="IT10" s="131"/>
+      <c r="IU10" s="131"/>
+      <c r="IV10" s="131"/>
+      <c r="IW10" s="132"/>
+      <c r="IX10" s="130">
         <f t="shared" ref="IX10" si="60">WEEKNUM(JA13,21)</f>
         <v>21</v>
       </c>
-      <c r="IY10" s="122"/>
-      <c r="IZ10" s="122"/>
-      <c r="JA10" s="122"/>
-      <c r="JB10" s="122"/>
-      <c r="JC10" s="122"/>
-      <c r="JD10" s="123"/>
-      <c r="JE10" s="121">
+      <c r="IY10" s="131"/>
+      <c r="IZ10" s="131"/>
+      <c r="JA10" s="131"/>
+      <c r="JB10" s="131"/>
+      <c r="JC10" s="131"/>
+      <c r="JD10" s="132"/>
+      <c r="JE10" s="130">
         <f t="shared" ref="JE10" si="61">WEEKNUM(JH13,21)</f>
         <v>22</v>
       </c>
-      <c r="JF10" s="122"/>
-      <c r="JG10" s="122"/>
-      <c r="JH10" s="122"/>
-      <c r="JI10" s="122"/>
-      <c r="JJ10" s="122"/>
-      <c r="JK10" s="123"/>
-      <c r="JL10" s="121">
+      <c r="JF10" s="131"/>
+      <c r="JG10" s="131"/>
+      <c r="JH10" s="131"/>
+      <c r="JI10" s="131"/>
+      <c r="JJ10" s="131"/>
+      <c r="JK10" s="132"/>
+      <c r="JL10" s="130">
         <f t="shared" ref="JL10" si="62">WEEKNUM(JO13,21)</f>
         <v>23</v>
       </c>
-      <c r="JM10" s="122"/>
-      <c r="JN10" s="122"/>
-      <c r="JO10" s="122"/>
-      <c r="JP10" s="122"/>
-      <c r="JQ10" s="122"/>
-      <c r="JR10" s="123"/>
-      <c r="JS10" s="121">
+      <c r="JM10" s="131"/>
+      <c r="JN10" s="131"/>
+      <c r="JO10" s="131"/>
+      <c r="JP10" s="131"/>
+      <c r="JQ10" s="131"/>
+      <c r="JR10" s="132"/>
+      <c r="JS10" s="130">
         <f t="shared" ref="JS10" si="63">WEEKNUM(JV13,21)</f>
         <v>24</v>
       </c>
-      <c r="JT10" s="122"/>
-      <c r="JU10" s="122"/>
-      <c r="JV10" s="122"/>
-      <c r="JW10" s="122"/>
-      <c r="JX10" s="122"/>
-      <c r="JY10" s="123"/>
-      <c r="JZ10" s="121">
+      <c r="JT10" s="131"/>
+      <c r="JU10" s="131"/>
+      <c r="JV10" s="131"/>
+      <c r="JW10" s="131"/>
+      <c r="JX10" s="131"/>
+      <c r="JY10" s="132"/>
+      <c r="JZ10" s="130">
         <f t="shared" ref="JZ10" si="64">WEEKNUM(KC13,21)</f>
         <v>25</v>
       </c>
-      <c r="KA10" s="122"/>
-      <c r="KB10" s="122"/>
-      <c r="KC10" s="122"/>
-      <c r="KD10" s="122"/>
-      <c r="KE10" s="122"/>
-      <c r="KF10" s="123"/>
-      <c r="KG10" s="121">
+      <c r="KA10" s="131"/>
+      <c r="KB10" s="131"/>
+      <c r="KC10" s="131"/>
+      <c r="KD10" s="131"/>
+      <c r="KE10" s="131"/>
+      <c r="KF10" s="132"/>
+      <c r="KG10" s="130">
         <f t="shared" ref="KG10" si="65">WEEKNUM(KJ13,21)</f>
         <v>26</v>
       </c>
-      <c r="KH10" s="122"/>
-      <c r="KI10" s="122"/>
-      <c r="KJ10" s="122"/>
-      <c r="KK10" s="122"/>
-      <c r="KL10" s="122"/>
-      <c r="KM10" s="123"/>
-      <c r="KN10" s="121">
+      <c r="KH10" s="131"/>
+      <c r="KI10" s="131"/>
+      <c r="KJ10" s="131"/>
+      <c r="KK10" s="131"/>
+      <c r="KL10" s="131"/>
+      <c r="KM10" s="132"/>
+      <c r="KN10" s="130">
         <f t="shared" ref="KN10" si="66">WEEKNUM(KQ13,21)</f>
         <v>27</v>
       </c>
-      <c r="KO10" s="122"/>
-      <c r="KP10" s="122"/>
-      <c r="KQ10" s="122"/>
-      <c r="KR10" s="122"/>
-      <c r="KS10" s="122"/>
-      <c r="KT10" s="123"/>
-      <c r="KU10" s="121">
+      <c r="KO10" s="131"/>
+      <c r="KP10" s="131"/>
+      <c r="KQ10" s="131"/>
+      <c r="KR10" s="131"/>
+      <c r="KS10" s="131"/>
+      <c r="KT10" s="132"/>
+      <c r="KU10" s="130">
         <f t="shared" ref="KU10" si="67">WEEKNUM(KX13,21)</f>
         <v>28</v>
       </c>
-      <c r="KV10" s="122"/>
-      <c r="KW10" s="122"/>
-      <c r="KX10" s="122"/>
-      <c r="KY10" s="122"/>
-      <c r="KZ10" s="122"/>
-      <c r="LA10" s="123"/>
-      <c r="LB10" s="121">
+      <c r="KV10" s="131"/>
+      <c r="KW10" s="131"/>
+      <c r="KX10" s="131"/>
+      <c r="KY10" s="131"/>
+      <c r="KZ10" s="131"/>
+      <c r="LA10" s="132"/>
+      <c r="LB10" s="130">
         <f t="shared" ref="LB10" si="68">WEEKNUM(LE13,21)</f>
         <v>29</v>
       </c>
-      <c r="LC10" s="122"/>
-      <c r="LD10" s="122"/>
-      <c r="LE10" s="122"/>
-      <c r="LF10" s="122"/>
-      <c r="LG10" s="122"/>
-      <c r="LH10" s="123"/>
-      <c r="LI10" s="121">
+      <c r="LC10" s="131"/>
+      <c r="LD10" s="131"/>
+      <c r="LE10" s="131"/>
+      <c r="LF10" s="131"/>
+      <c r="LG10" s="131"/>
+      <c r="LH10" s="132"/>
+      <c r="LI10" s="130">
         <f t="shared" ref="LI10" si="69">WEEKNUM(LL13,21)</f>
         <v>30</v>
       </c>
-      <c r="LJ10" s="122"/>
-      <c r="LK10" s="122"/>
-      <c r="LL10" s="122"/>
-      <c r="LM10" s="122"/>
-      <c r="LN10" s="122"/>
-      <c r="LO10" s="123"/>
-      <c r="LP10" s="121">
+      <c r="LJ10" s="131"/>
+      <c r="LK10" s="131"/>
+      <c r="LL10" s="131"/>
+      <c r="LM10" s="131"/>
+      <c r="LN10" s="131"/>
+      <c r="LO10" s="132"/>
+      <c r="LP10" s="130">
         <f t="shared" ref="LP10" si="70">WEEKNUM(LS13,21)</f>
         <v>31</v>
       </c>
-      <c r="LQ10" s="122"/>
-      <c r="LR10" s="122"/>
-      <c r="LS10" s="122"/>
-      <c r="LT10" s="122"/>
-      <c r="LU10" s="122"/>
-      <c r="LV10" s="123"/>
-      <c r="LW10" s="121">
+      <c r="LQ10" s="131"/>
+      <c r="LR10" s="131"/>
+      <c r="LS10" s="131"/>
+      <c r="LT10" s="131"/>
+      <c r="LU10" s="131"/>
+      <c r="LV10" s="132"/>
+      <c r="LW10" s="130">
         <f t="shared" ref="LW10" si="71">WEEKNUM(LZ13,21)</f>
         <v>32</v>
       </c>
-      <c r="LX10" s="122"/>
-      <c r="LY10" s="122"/>
-      <c r="LZ10" s="122"/>
-      <c r="MA10" s="122"/>
-      <c r="MB10" s="122"/>
-      <c r="MC10" s="123"/>
-      <c r="MD10" s="121">
+      <c r="LX10" s="131"/>
+      <c r="LY10" s="131"/>
+      <c r="LZ10" s="131"/>
+      <c r="MA10" s="131"/>
+      <c r="MB10" s="131"/>
+      <c r="MC10" s="132"/>
+      <c r="MD10" s="130">
         <f t="shared" ref="MD10" si="72">WEEKNUM(MG13,21)</f>
         <v>33</v>
       </c>
-      <c r="ME10" s="122"/>
-      <c r="MF10" s="122"/>
-      <c r="MG10" s="122"/>
-      <c r="MH10" s="122"/>
-      <c r="MI10" s="122"/>
-      <c r="MJ10" s="123"/>
-      <c r="MK10" s="121">
+      <c r="ME10" s="131"/>
+      <c r="MF10" s="131"/>
+      <c r="MG10" s="131"/>
+      <c r="MH10" s="131"/>
+      <c r="MI10" s="131"/>
+      <c r="MJ10" s="132"/>
+      <c r="MK10" s="130">
         <f t="shared" ref="MK10" si="73">WEEKNUM(MN13,21)</f>
         <v>34</v>
       </c>
-      <c r="ML10" s="122"/>
-      <c r="MM10" s="122"/>
-      <c r="MN10" s="122"/>
-      <c r="MO10" s="122"/>
-      <c r="MP10" s="122"/>
-      <c r="MQ10" s="123"/>
-      <c r="MR10" s="121">
+      <c r="ML10" s="131"/>
+      <c r="MM10" s="131"/>
+      <c r="MN10" s="131"/>
+      <c r="MO10" s="131"/>
+      <c r="MP10" s="131"/>
+      <c r="MQ10" s="132"/>
+      <c r="MR10" s="130">
         <f t="shared" ref="MR10" si="74">WEEKNUM(MU13,21)</f>
         <v>35</v>
       </c>
-      <c r="MS10" s="122"/>
-      <c r="MT10" s="122"/>
-      <c r="MU10" s="122"/>
-      <c r="MV10" s="122"/>
-      <c r="MW10" s="122"/>
-      <c r="MX10" s="123"/>
-      <c r="MY10" s="121">
+      <c r="MS10" s="131"/>
+      <c r="MT10" s="131"/>
+      <c r="MU10" s="131"/>
+      <c r="MV10" s="131"/>
+      <c r="MW10" s="131"/>
+      <c r="MX10" s="132"/>
+      <c r="MY10" s="130">
         <f t="shared" ref="MY10" si="75">WEEKNUM(NB13,21)</f>
         <v>36</v>
       </c>
-      <c r="MZ10" s="122"/>
-      <c r="NA10" s="122"/>
-      <c r="NB10" s="122"/>
-      <c r="NC10" s="122"/>
-      <c r="ND10" s="122"/>
-      <c r="NE10" s="123"/>
-      <c r="NF10" s="121">
+      <c r="MZ10" s="131"/>
+      <c r="NA10" s="131"/>
+      <c r="NB10" s="131"/>
+      <c r="NC10" s="131"/>
+      <c r="ND10" s="131"/>
+      <c r="NE10" s="132"/>
+      <c r="NF10" s="130">
         <f t="shared" ref="NF10" si="76">WEEKNUM(NI13,21)</f>
         <v>37</v>
       </c>
-      <c r="NG10" s="122"/>
-      <c r="NH10" s="122"/>
-      <c r="NI10" s="122"/>
-      <c r="NJ10" s="122"/>
-      <c r="NK10" s="122"/>
-      <c r="NL10" s="123"/>
-      <c r="NM10" s="121">
+      <c r="NG10" s="131"/>
+      <c r="NH10" s="131"/>
+      <c r="NI10" s="131"/>
+      <c r="NJ10" s="131"/>
+      <c r="NK10" s="131"/>
+      <c r="NL10" s="132"/>
+      <c r="NM10" s="130">
         <f t="shared" ref="NM10" si="77">WEEKNUM(NP13,21)</f>
         <v>38</v>
       </c>
-      <c r="NN10" s="122"/>
-      <c r="NO10" s="122"/>
-      <c r="NP10" s="122"/>
-      <c r="NQ10" s="122"/>
-      <c r="NR10" s="122"/>
-      <c r="NS10" s="123"/>
-      <c r="NT10" s="121">
+      <c r="NN10" s="131"/>
+      <c r="NO10" s="131"/>
+      <c r="NP10" s="131"/>
+      <c r="NQ10" s="131"/>
+      <c r="NR10" s="131"/>
+      <c r="NS10" s="132"/>
+      <c r="NT10" s="130">
         <f t="shared" ref="NT10" si="78">WEEKNUM(NW13,21)</f>
         <v>39</v>
       </c>
-      <c r="NU10" s="122"/>
-      <c r="NV10" s="122"/>
-      <c r="NW10" s="122"/>
-      <c r="NX10" s="122"/>
-      <c r="NY10" s="122"/>
-      <c r="NZ10" s="123"/>
-      <c r="OA10" s="121">
+      <c r="NU10" s="131"/>
+      <c r="NV10" s="131"/>
+      <c r="NW10" s="131"/>
+      <c r="NX10" s="131"/>
+      <c r="NY10" s="131"/>
+      <c r="NZ10" s="132"/>
+      <c r="OA10" s="130">
         <f t="shared" ref="OA10" si="79">WEEKNUM(OD13,21)</f>
         <v>40</v>
       </c>
-      <c r="OB10" s="122"/>
-      <c r="OC10" s="122"/>
-      <c r="OD10" s="122"/>
-      <c r="OE10" s="122"/>
-      <c r="OF10" s="122"/>
-      <c r="OG10" s="123"/>
-      <c r="OH10" s="121">
+      <c r="OB10" s="131"/>
+      <c r="OC10" s="131"/>
+      <c r="OD10" s="131"/>
+      <c r="OE10" s="131"/>
+      <c r="OF10" s="131"/>
+      <c r="OG10" s="132"/>
+      <c r="OH10" s="130">
         <f t="shared" ref="OH10" si="80">WEEKNUM(OK13,21)</f>
         <v>41</v>
       </c>
-      <c r="OI10" s="122"/>
-      <c r="OJ10" s="122"/>
-      <c r="OK10" s="122"/>
-      <c r="OL10" s="122"/>
-      <c r="OM10" s="122"/>
-      <c r="ON10" s="123"/>
-      <c r="OO10" s="121">
+      <c r="OI10" s="131"/>
+      <c r="OJ10" s="131"/>
+      <c r="OK10" s="131"/>
+      <c r="OL10" s="131"/>
+      <c r="OM10" s="131"/>
+      <c r="ON10" s="132"/>
+      <c r="OO10" s="130">
         <f t="shared" ref="OO10" si="81">WEEKNUM(OR13,21)</f>
         <v>42</v>
       </c>
-      <c r="OP10" s="122"/>
-      <c r="OQ10" s="122"/>
-      <c r="OR10" s="122"/>
-      <c r="OS10" s="122"/>
-      <c r="OT10" s="122"/>
-      <c r="OU10" s="123"/>
-      <c r="OV10" s="121">
+      <c r="OP10" s="131"/>
+      <c r="OQ10" s="131"/>
+      <c r="OR10" s="131"/>
+      <c r="OS10" s="131"/>
+      <c r="OT10" s="131"/>
+      <c r="OU10" s="132"/>
+      <c r="OV10" s="130">
         <f t="shared" ref="OV10" si="82">WEEKNUM(OY13,21)</f>
         <v>43</v>
       </c>
-      <c r="OW10" s="122"/>
-      <c r="OX10" s="122"/>
-      <c r="OY10" s="122"/>
-      <c r="OZ10" s="122"/>
-      <c r="PA10" s="122"/>
-      <c r="PB10" s="123"/>
+      <c r="OW10" s="131"/>
+      <c r="OX10" s="131"/>
+      <c r="OY10" s="131"/>
+      <c r="OZ10" s="131"/>
+      <c r="PA10" s="131"/>
+      <c r="PB10" s="132"/>
     </row>
     <row r="11" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="29"/>
@@ -6546,8 +6591,8 @@
       <c r="G11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
       <c r="J11" s="33"/>
       <c r="L11" s="28" t="s">
         <v>17</v>
@@ -7776,8 +7821,8 @@
       <c r="C12" s="30"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
       <c r="J12" s="38"/>
       <c r="L12" s="39" t="s">
         <v>2</v>
@@ -9409,7 +9454,7 @@
     </row>
     <row r="13" spans="2:418" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B13" s="104" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -11064,7 +11109,7 @@
         <v>Endet nach [Tagen]</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="45" t="s">
         <v>12</v>
@@ -11504,7 +11549,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="53">
-        <f t="shared" ref="G15:G117" si="97">IF(F15&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E15,1)=7,E15+2,IF(WEEKDAY(E15,1)=1,E15+1,E15)),F15-1),E15+F15-1),"")</f>
+        <f t="shared" ref="G15:G118" si="97">IF(F15&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E15,1)=7,E15+2,IF(WEEKDAY(E15,1)=1,E15+1,E15)),F15-1),E15+F15-1),"")</f>
         <v>42753</v>
       </c>
       <c r="H15" s="54">
@@ -11931,7 +11976,7 @@
     </row>
     <row r="16" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B16" s="49">
-        <f t="shared" ref="B16:B117" si="98">ROW()-15+1</f>
+        <f t="shared" ref="B16:B118" si="98">ROW()-15+1</f>
         <v>2</v>
       </c>
       <c r="C16" s="62"/>
@@ -15446,7 +15491,7 @@
       </c>
       <c r="C24" s="73"/>
       <c r="D24" s="74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E24" s="75">
         <v>43012</v>
@@ -16766,7 +16811,7 @@
       </c>
       <c r="C27" s="73"/>
       <c r="D27" s="74" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="E27" s="75">
         <v>43007</v>
@@ -17642,7 +17687,7 @@
       </c>
       <c r="C29" s="73"/>
       <c r="D29" s="74" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E29" s="75">
         <v>43006</v>
@@ -18097,10 +18142,10 @@
       </c>
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
-      <c r="K30" s="79">
+      <c r="K30" s="173">
         <v>3</v>
       </c>
-      <c r="L30" s="80">
+      <c r="L30" s="174">
         <v>8</v>
       </c>
       <c r="M30" s="58"/>
@@ -18518,7 +18563,7 @@
       </c>
       <c r="C31" s="73"/>
       <c r="D31" s="74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" s="75">
         <v>43012</v>
@@ -18956,7 +19001,7 @@
       </c>
       <c r="C32" s="73"/>
       <c r="D32" s="74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E32" s="75">
         <v>43012</v>
@@ -19391,29 +19436,29 @@
         <f t="shared" ref="B33:B38" si="102">ROW()-15+1</f>
         <v>19</v>
       </c>
-      <c r="C33" s="151"/>
-      <c r="D33" s="152" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="153">
+      <c r="C33" s="110"/>
+      <c r="D33" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="112">
         <v>43012</v>
       </c>
-      <c r="F33" s="151">
+      <c r="F33" s="110">
         <v>1</v>
       </c>
-      <c r="G33" s="154">
+      <c r="G33" s="113">
         <f>IF(F33&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E33,1)=7,E33+2,IF(WEEKDAY(E33,1)=1,E33+1,E33)),F33-1),E33+F33-1),"")</f>
         <v>43012</v>
       </c>
-      <c r="H33" s="155">
+      <c r="H33" s="114">
         <v>1</v>
       </c>
-      <c r="I33" s="156"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="157">
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="116">
         <v>1</v>
       </c>
-      <c r="L33" s="158">
+      <c r="L33" s="117">
         <v>1</v>
       </c>
       <c r="M33" s="58"/>
@@ -19831,7 +19876,7 @@
       </c>
       <c r="C34" s="73"/>
       <c r="D34" s="74" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E34" s="75">
         <v>43013</v>
@@ -20269,7 +20314,7 @@
       </c>
       <c r="C35" s="73"/>
       <c r="D35" s="74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35" s="75">
         <v>43013</v>
@@ -20286,10 +20331,10 @@
       </c>
       <c r="I35" s="78"/>
       <c r="J35" s="78"/>
-      <c r="K35" s="79">
+      <c r="K35" s="173">
         <v>2</v>
       </c>
-      <c r="L35" s="80">
+      <c r="L35" s="174">
         <v>5</v>
       </c>
       <c r="M35" s="58"/>
@@ -20707,7 +20752,7 @@
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E36" s="75">
         <v>43017</v>
@@ -21145,7 +21190,7 @@
       </c>
       <c r="C37" s="73"/>
       <c r="D37" s="74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E37" s="75">
         <v>43019</v>
@@ -22014,12 +22059,12 @@
     </row>
     <row r="39" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B39" s="49">
-        <f t="shared" ref="B39:B50" si="103">ROW()-15+1</f>
+        <f t="shared" ref="B39:B51" si="103">ROW()-15+1</f>
         <v>25</v>
       </c>
       <c r="C39" s="62"/>
       <c r="D39" s="63" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E39" s="64">
         <v>43019</v>
@@ -22032,7 +22077,7 @@
         <v>43044</v>
       </c>
       <c r="H39" s="65">
-        <f>100*AVERAGE(H40:H50)%</f>
+        <f>100*AVERAGE(H40:H51)%</f>
         <v>1</v>
       </c>
       <c r="I39" s="66">
@@ -22042,12 +22087,12 @@
         <v>19</v>
       </c>
       <c r="K39" s="67">
-        <f>SUM(K40:K50)</f>
-        <v>29.5</v>
+        <f>SUM(K40:K51)</f>
+        <v>31.5</v>
       </c>
       <c r="L39" s="68">
-        <f>SUM(L40:L50)</f>
-        <v>26.5</v>
+        <f>SUM(L40:L51)</f>
+        <v>28.5</v>
       </c>
       <c r="M39" s="58"/>
       <c r="N39" s="59"/>
@@ -22463,7 +22508,7 @@
       </c>
       <c r="C40" s="73"/>
       <c r="D40" s="74" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" s="75">
         <v>43019</v>
@@ -22900,7 +22945,7 @@
       </c>
       <c r="C41" s="73"/>
       <c r="D41" s="74" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E41" s="75">
         <v>43019</v>
@@ -22917,10 +22962,10 @@
       </c>
       <c r="I41" s="78"/>
       <c r="J41" s="78"/>
-      <c r="K41" s="79">
+      <c r="K41" s="171">
         <v>7</v>
       </c>
-      <c r="L41" s="80">
+      <c r="L41" s="172">
         <v>2</v>
       </c>
       <c r="M41" s="58"/>
@@ -23337,7 +23382,7 @@
       </c>
       <c r="C42" s="62"/>
       <c r="D42" s="63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E42" s="64">
         <v>43024</v>
@@ -23346,7 +23391,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="53">
-        <f t="shared" ref="G42:G49" si="104">IF(F42&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E42,1)=7,E42+2,IF(WEEKDAY(E42,1)=1,E42+1,E42)),F42-1),E42+F42-1),"")</f>
+        <f t="shared" ref="G42:G50" si="104">IF(F42&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E42,1)=7,E42+2,IF(WEEKDAY(E42,1)=1,E42+1,E42)),F42-1),E42+F42-1),"")</f>
         <v>43024</v>
       </c>
       <c r="H42" s="65">
@@ -23779,7 +23824,7 @@
       </c>
       <c r="C43" s="96"/>
       <c r="D43" s="97" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E43" s="98">
         <v>43026</v>
@@ -24216,7 +24261,7 @@
       </c>
       <c r="C44" s="73"/>
       <c r="D44" s="74" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E44" s="75">
         <v>43026</v>
@@ -24647,35 +24692,35 @@
       <c r="PB44" s="71"/>
     </row>
     <row r="45" spans="1:418" x14ac:dyDescent="0.4">
-      <c r="A45" s="149"/>
-      <c r="B45" s="150">
+      <c r="A45" s="108"/>
+      <c r="B45" s="109">
         <f t="shared" si="98"/>
         <v>31</v>
       </c>
-      <c r="C45" s="151"/>
-      <c r="D45" s="152" t="s">
-        <v>117</v>
-      </c>
-      <c r="E45" s="153">
+      <c r="C45" s="110"/>
+      <c r="D45" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="112">
         <v>43027</v>
       </c>
-      <c r="F45" s="151">
+      <c r="F45" s="110">
         <v>1</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="113">
         <f t="shared" si="104"/>
         <v>43027</v>
       </c>
-      <c r="H45" s="155">
+      <c r="H45" s="114">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I45" s="156"/>
-      <c r="J45" s="156"/>
-      <c r="K45" s="157">
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="116">
         <v>0.5</v>
       </c>
-      <c r="L45" s="158">
+      <c r="L45" s="117">
         <v>0.5</v>
       </c>
       <c r="M45" s="58"/>
@@ -25092,7 +25137,7 @@
       </c>
       <c r="C46" s="73"/>
       <c r="D46" s="74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E46" s="75">
         <v>43035</v>
@@ -25529,7 +25574,7 @@
       </c>
       <c r="C47" s="73"/>
       <c r="D47" s="74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E47" s="75">
         <v>43028</v>
@@ -25961,22 +26006,21 @@
     </row>
     <row r="48" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B48" s="49">
-        <f t="shared" si="103"/>
         <v>34</v>
       </c>
       <c r="C48" s="73"/>
       <c r="D48" s="74" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="E48" s="75">
-        <v>43031</v>
+        <v>43030</v>
       </c>
       <c r="F48" s="73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48" s="76">
         <f t="shared" si="104"/>
-        <v>43033</v>
+        <v>43030</v>
       </c>
       <c r="H48" s="77">
         <v>1</v>
@@ -25987,7 +26031,7 @@
         <v>2</v>
       </c>
       <c r="L48" s="80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M48" s="58"/>
       <c r="N48" s="59"/>
@@ -26396,24 +26440,24 @@
       <c r="PA48" s="59"/>
       <c r="PB48" s="71"/>
     </row>
-    <row r="49" spans="2:418" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B49" s="49">
         <f t="shared" si="103"/>
         <v>35</v>
       </c>
       <c r="C49" s="73"/>
       <c r="D49" s="74" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E49" s="75">
-        <v>43039</v>
+        <v>43031</v>
       </c>
       <c r="F49" s="73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="76">
         <f t="shared" si="104"/>
-        <v>43039</v>
+        <v>43033</v>
       </c>
       <c r="H49" s="77">
         <v>1</v>
@@ -26421,10 +26465,10 @@
       <c r="I49" s="78"/>
       <c r="J49" s="78"/>
       <c r="K49" s="79">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L49" s="80">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="M49" s="58"/>
       <c r="N49" s="59"/>
@@ -26840,15 +26884,16 @@
       </c>
       <c r="C50" s="73"/>
       <c r="D50" s="74" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E50" s="75">
-        <v>43035</v>
+        <v>43039</v>
       </c>
       <c r="F50" s="73">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G50" s="76">
+        <f t="shared" si="104"/>
         <v>43039</v>
       </c>
       <c r="H50" s="77">
@@ -26857,10 +26902,10 @@
       <c r="I50" s="78"/>
       <c r="J50" s="78"/>
       <c r="K50" s="79">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="L50" s="80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M50" s="58"/>
       <c r="N50" s="59"/>
@@ -27271,20 +27316,21 @@
     </row>
     <row r="51" spans="2:418" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="49">
-        <v>36</v>
+        <f t="shared" si="103"/>
+        <v>37</v>
       </c>
       <c r="C51" s="73"/>
       <c r="D51" s="74" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E51" s="75">
-        <v>43041</v>
+        <v>43035</v>
       </c>
       <c r="F51" s="73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" s="76">
-        <v>43040</v>
+        <v>43039</v>
       </c>
       <c r="H51" s="77">
         <v>1</v>
@@ -27292,10 +27338,10 @@
       <c r="I51" s="78"/>
       <c r="J51" s="78"/>
       <c r="K51" s="79">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="L51" s="80">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M51" s="58"/>
       <c r="N51" s="59"/>
@@ -27704,39 +27750,33 @@
       <c r="PA51" s="59"/>
       <c r="PB51" s="71"/>
     </row>
-    <row r="52" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:418" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B52" s="49">
-        <f t="shared" si="98"/>
-        <v>38</v>
-      </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="64">
-        <v>43047</v>
-      </c>
-      <c r="F52" s="62">
+        <v>36</v>
+      </c>
+      <c r="C52" s="73"/>
+      <c r="D52" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E52" s="75">
+        <v>43041</v>
+      </c>
+      <c r="F52" s="73">
+        <v>3</v>
+      </c>
+      <c r="G52" s="76">
+        <v>43040</v>
+      </c>
+      <c r="H52" s="77">
         <v>1</v>
       </c>
-      <c r="G52" s="53">
-        <f t="shared" si="97"/>
-        <v>43047</v>
-      </c>
-      <c r="H52" s="65">
-        <v>0</v>
-      </c>
-      <c r="I52" s="66">
-        <v>43047</v>
-      </c>
-      <c r="J52" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="67">
+      <c r="I52" s="78"/>
+      <c r="J52" s="78"/>
+      <c r="K52" s="79">
+        <v>4</v>
+      </c>
+      <c r="L52" s="80">
         <v>5</v>
-      </c>
-      <c r="L52" s="68">
-        <v>7</v>
       </c>
       <c r="M52" s="58"/>
       <c r="N52" s="59"/>
@@ -28150,29 +28190,33 @@
         <f t="shared" si="98"/>
         <v>39</v>
       </c>
-      <c r="C53" s="73"/>
-      <c r="D53" s="74" t="s">
-        <v>39</v>
-      </c>
-      <c r="E53" s="75">
-        <v>43040</v>
-      </c>
-      <c r="F53" s="73">
-        <v>7</v>
-      </c>
-      <c r="G53" s="76">
+      <c r="C53" s="62"/>
+      <c r="D53" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="64">
+        <v>43047</v>
+      </c>
+      <c r="F53" s="62">
+        <v>1</v>
+      </c>
+      <c r="G53" s="53">
         <f t="shared" si="97"/>
-        <v>43046</v>
-      </c>
-      <c r="H53" s="77">
-        <v>1</v>
-      </c>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
-      <c r="K53" s="79">
+        <v>43047</v>
+      </c>
+      <c r="H53" s="65">
+        <v>0</v>
+      </c>
+      <c r="I53" s="66">
+        <v>43047</v>
+      </c>
+      <c r="J53" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="67">
         <v>5</v>
       </c>
-      <c r="L53" s="80">
+      <c r="L53" s="68">
         <v>7</v>
       </c>
       <c r="M53" s="58"/>
@@ -28587,37 +28631,30 @@
         <f t="shared" si="98"/>
         <v>40</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="64">
+      <c r="C54" s="73"/>
+      <c r="D54" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="75">
         <v>43040</v>
       </c>
-      <c r="F54" s="62">
-        <v>40</v>
-      </c>
-      <c r="G54" s="53">
-        <f>IF(F54&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E54,1)=7,E54+2,IF(WEEKDAY(E54,1)=1,E54+1,E54)),F54-1),E54+F54-1),"")</f>
-        <v>43079</v>
-      </c>
-      <c r="H54" s="65">
-        <f>100*AVERAGE(H56:H76)%</f>
+      <c r="F54" s="73">
+        <v>7</v>
+      </c>
+      <c r="G54" s="76">
+        <f t="shared" si="97"/>
+        <v>43046</v>
+      </c>
+      <c r="H54" s="77">
         <v>1</v>
       </c>
-      <c r="I54" s="66">
-        <v>43079</v>
-      </c>
-      <c r="J54" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="67" t="e">
-        <f ca="1">SUMM(K56:K70)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L54" s="68">
-        <f>SUM(L56:L76)</f>
-        <v>80</v>
+      <c r="I54" s="78"/>
+      <c r="J54" s="78"/>
+      <c r="K54" s="79">
+        <v>5</v>
+      </c>
+      <c r="L54" s="80">
+        <v>7</v>
       </c>
       <c r="M54" s="58"/>
       <c r="N54" s="59"/>
@@ -29031,31 +29068,37 @@
         <f t="shared" si="98"/>
         <v>41</v>
       </c>
-      <c r="C55" s="151"/>
-      <c r="D55" s="152" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="153">
-        <v>43041</v>
-      </c>
-      <c r="F55" s="151">
+      <c r="C55" s="62"/>
+      <c r="D55" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="64">
+        <v>43040</v>
+      </c>
+      <c r="F55" s="62">
+        <v>40</v>
+      </c>
+      <c r="G55" s="53">
+        <f>IF(F55&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E55,1)=7,E55+2,IF(WEEKDAY(E55,1)=1,E55+1,E55)),F55-1),E55+F55-1),"")</f>
+        <v>43079</v>
+      </c>
+      <c r="H55" s="65">
+        <f>100*AVERAGE(H57:H77)%</f>
         <v>1</v>
       </c>
-      <c r="G55" s="154">
-        <f t="shared" ref="G55" si="105">IF(F55&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E55,1)=7,E55+2,IF(WEEKDAY(E55,1)=1,E55+1,E55)),F55-1),E55+F55-1),"")</f>
-        <v>43041</v>
-      </c>
-      <c r="H55" s="155">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="I55" s="156"/>
-      <c r="J55" s="156"/>
-      <c r="K55" s="157">
-        <v>0.25</v>
-      </c>
-      <c r="L55" s="158">
-        <v>0.25</v>
+      <c r="I55" s="66">
+        <v>43079</v>
+      </c>
+      <c r="J55" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="67" t="e">
+        <f ca="1">SUMM(K56:K77)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L55" s="68">
+        <f>SUM(L57:L77)</f>
+        <v>80</v>
       </c>
       <c r="M55" s="58"/>
       <c r="N55" s="59"/>
@@ -29469,30 +29512,31 @@
         <f t="shared" si="98"/>
         <v>42</v>
       </c>
-      <c r="C56" s="73"/>
-      <c r="D56" s="74" t="s">
-        <v>74</v>
-      </c>
-      <c r="E56" s="75">
-        <v>43044</v>
-      </c>
-      <c r="F56" s="73">
-        <v>8</v>
-      </c>
-      <c r="G56" s="76">
-        <f t="shared" ref="G56:G75" si="106">IF(F56&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E56,1)=7,E56+2,IF(WEEKDAY(E56,1)=1,E56+1,E56)),F56-1),E56+F56-1),"")</f>
-        <v>43051</v>
-      </c>
-      <c r="H56" s="77">
+      <c r="C56" s="110"/>
+      <c r="D56" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" s="112">
+        <v>43041</v>
+      </c>
+      <c r="F56" s="110">
         <v>1</v>
       </c>
-      <c r="I56" s="78"/>
-      <c r="J56" s="78"/>
-      <c r="K56" s="79">
+      <c r="G56" s="113">
+        <f t="shared" ref="G56" si="105">IF(F56&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E56,1)=7,E56+2,IF(WEEKDAY(E56,1)=1,E56+1,E56)),F56-1),E56+F56-1),"")</f>
+        <v>43041</v>
+      </c>
+      <c r="H56" s="114">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="L56" s="80">
-        <v>2</v>
+      <c r="I56" s="115"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="116">
+        <v>0.25</v>
+      </c>
+      <c r="L56" s="117">
+        <v>0.25</v>
       </c>
       <c r="M56" s="58"/>
       <c r="N56" s="59"/>
@@ -29908,28 +29952,28 @@
       </c>
       <c r="C57" s="73"/>
       <c r="D57" s="74" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E57" s="75">
-        <v>43041</v>
+        <v>43044</v>
       </c>
       <c r="F57" s="73">
         <v>8</v>
       </c>
       <c r="G57" s="76">
-        <f t="shared" si="97"/>
-        <v>43048</v>
+        <f t="shared" ref="G57:G76" si="106">IF(F57&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E57,1)=7,E57+2,IF(WEEKDAY(E57,1)=1,E57+1,E57)),F57-1),E57+F57-1),"")</f>
+        <v>43051</v>
       </c>
       <c r="H57" s="77">
         <v>1</v>
       </c>
       <c r="I57" s="78"/>
       <c r="J57" s="78"/>
-      <c r="K57" s="159">
-        <v>5</v>
-      </c>
-      <c r="L57" s="160">
-        <v>8</v>
+      <c r="K57" s="79">
+        <v>1</v>
+      </c>
+      <c r="L57" s="80">
+        <v>2</v>
       </c>
       <c r="M57" s="58"/>
       <c r="N57" s="59"/>
@@ -30340,33 +30384,33 @@
     </row>
     <row r="58" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B58" s="49">
-        <f>ROW()-15+1</f>
+        <f t="shared" si="98"/>
         <v>44</v>
       </c>
       <c r="C58" s="73"/>
       <c r="D58" s="74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E58" s="75">
+        <v>43041</v>
+      </c>
+      <c r="F58" s="73">
+        <v>8</v>
+      </c>
+      <c r="G58" s="76">
+        <f t="shared" si="97"/>
         <v>43048</v>
-      </c>
-      <c r="F58" s="73">
-        <v>3</v>
-      </c>
-      <c r="G58" s="76">
-        <f t="shared" si="106"/>
-        <v>43050</v>
       </c>
       <c r="H58" s="77">
         <v>1</v>
       </c>
       <c r="I58" s="78"/>
       <c r="J58" s="78"/>
-      <c r="K58" s="79">
-        <v>4</v>
-      </c>
-      <c r="L58" s="80">
-        <v>4</v>
+      <c r="K58" s="118">
+        <v>5</v>
+      </c>
+      <c r="L58" s="119">
+        <v>8</v>
       </c>
       <c r="M58" s="58"/>
       <c r="N58" s="59"/>
@@ -30776,32 +30820,33 @@
       <c r="PB58" s="71"/>
     </row>
     <row r="59" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B59" s="107">
-        <v>43</v>
-      </c>
-      <c r="C59" s="163"/>
-      <c r="D59" s="164" t="s">
-        <v>103</v>
-      </c>
-      <c r="E59" s="165">
+      <c r="B59" s="49">
+        <f>ROW()-15+1</f>
+        <v>45</v>
+      </c>
+      <c r="C59" s="73"/>
+      <c r="D59" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="75">
         <v>43048</v>
       </c>
-      <c r="F59" s="163">
-        <v>5</v>
-      </c>
-      <c r="G59" s="166">
+      <c r="F59" s="73">
+        <v>3</v>
+      </c>
+      <c r="G59" s="76">
         <f t="shared" si="106"/>
-        <v>43052</v>
-      </c>
-      <c r="H59" s="167">
+        <v>43050</v>
+      </c>
+      <c r="H59" s="77">
         <v>1</v>
       </c>
-      <c r="I59" s="168"/>
-      <c r="J59" s="168"/>
-      <c r="K59" s="169">
-        <v>5</v>
-      </c>
-      <c r="L59" s="170">
+      <c r="I59" s="78"/>
+      <c r="J59" s="78"/>
+      <c r="K59" s="79">
+        <v>4</v>
+      </c>
+      <c r="L59" s="80">
         <v>4</v>
       </c>
       <c r="M59" s="58"/>
@@ -31212,35 +31257,33 @@
       <c r="PB59" s="71"/>
     </row>
     <row r="60" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B60" s="49">
-        <f t="shared" ref="B60" si="107">ROW()-15+1</f>
-        <v>46</v>
-      </c>
-      <c r="C60" s="151"/>
-      <c r="D60" s="152" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" s="153">
-        <v>43053</v>
-      </c>
-      <c r="F60" s="151">
+      <c r="B60" s="107">
+        <v>43</v>
+      </c>
+      <c r="C60" s="122"/>
+      <c r="D60" s="123" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="124">
+        <v>43048</v>
+      </c>
+      <c r="F60" s="122">
+        <v>5</v>
+      </c>
+      <c r="G60" s="125">
+        <f t="shared" si="106"/>
+        <v>43052</v>
+      </c>
+      <c r="H60" s="126">
         <v>1</v>
       </c>
-      <c r="G60" s="154">
-        <f t="shared" si="106"/>
-        <v>43053</v>
-      </c>
-      <c r="H60" s="155">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="I60" s="156"/>
-      <c r="J60" s="156"/>
-      <c r="K60" s="157">
-        <v>0.5</v>
-      </c>
-      <c r="L60" s="158">
-        <v>0.5</v>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="128">
+        <v>5</v>
+      </c>
+      <c r="L60" s="129">
+        <v>4</v>
       </c>
       <c r="M60" s="58"/>
       <c r="N60" s="59"/>
@@ -31651,33 +31694,34 @@
     </row>
     <row r="61" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B61" s="49">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="B61" si="107">ROW()-15+1</f>
         <v>47</v>
       </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="E61" s="75">
+      <c r="C61" s="110"/>
+      <c r="D61" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="112">
         <v>43053</v>
       </c>
-      <c r="F61" s="73">
-        <v>4</v>
-      </c>
-      <c r="G61" s="76">
+      <c r="F61" s="110">
+        <v>1</v>
+      </c>
+      <c r="G61" s="113">
         <f t="shared" si="106"/>
-        <v>43056</v>
-      </c>
-      <c r="H61" s="77">
+        <v>43053</v>
+      </c>
+      <c r="H61" s="114">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="I61" s="78"/>
-      <c r="J61" s="78"/>
-      <c r="K61" s="79">
-        <v>3</v>
-      </c>
-      <c r="L61" s="80">
-        <v>2</v>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="L61" s="117">
+        <v>0.5</v>
       </c>
       <c r="M61" s="58"/>
       <c r="N61" s="59"/>
@@ -32093,17 +32137,17 @@
       </c>
       <c r="C62" s="73"/>
       <c r="D62" s="74" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E62" s="75">
         <v>43053</v>
       </c>
       <c r="F62" s="73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G62" s="76">
         <f t="shared" si="106"/>
-        <v>43055</v>
+        <v>43056</v>
       </c>
       <c r="H62" s="77">
         <v>1</v>
@@ -32111,10 +32155,10 @@
       <c r="I62" s="78"/>
       <c r="J62" s="78"/>
       <c r="K62" s="79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L62" s="80">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M62" s="58"/>
       <c r="N62" s="59"/>
@@ -32524,31 +32568,34 @@
       <c r="PB62" s="71"/>
     </row>
     <row r="63" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B63" s="106">
+      <c r="B63" s="49">
         <f t="shared" si="98"/>
         <v>49</v>
       </c>
       <c r="C63" s="73"/>
       <c r="D63" s="74" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E63" s="75">
-        <v>43057</v>
+        <v>43053</v>
       </c>
       <c r="F63" s="73">
         <v>3</v>
       </c>
-      <c r="G63" s="76"/>
+      <c r="G63" s="76">
+        <f t="shared" si="106"/>
+        <v>43055</v>
+      </c>
       <c r="H63" s="77">
         <v>1</v>
       </c>
       <c r="I63" s="78"/>
       <c r="J63" s="78"/>
       <c r="K63" s="79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L63" s="80">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="M63" s="58"/>
       <c r="N63" s="59"/>
@@ -32967,14 +33014,14 @@
         <v>108</v>
       </c>
       <c r="E64" s="75">
-        <v>43062</v>
+        <v>43057</v>
       </c>
       <c r="F64" s="73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G64" s="76">
-        <f t="shared" si="97"/>
-        <v>43066</v>
+        <f t="shared" si="106"/>
+        <v>43059</v>
       </c>
       <c r="H64" s="77">
         <v>1</v>
@@ -32985,7 +33032,7 @@
         <v>2</v>
       </c>
       <c r="L64" s="80">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M64" s="58"/>
       <c r="N64" s="59"/>
@@ -33395,20 +33442,23 @@
       <c r="PB64" s="71"/>
     </row>
     <row r="65" spans="1:418" x14ac:dyDescent="0.4">
-      <c r="B65" s="106"/>
+      <c r="B65" s="106">
+        <f t="shared" si="98"/>
+        <v>51</v>
+      </c>
       <c r="C65" s="73"/>
       <c r="D65" s="74" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E65" s="75">
-        <v>43066</v>
+        <v>43062</v>
       </c>
       <c r="F65" s="73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G65" s="76">
         <f t="shared" si="97"/>
-        <v>43067</v>
+        <v>43066</v>
       </c>
       <c r="H65" s="77">
         <v>1</v>
@@ -33416,10 +33466,10 @@
       <c r="I65" s="78"/>
       <c r="J65" s="78"/>
       <c r="K65" s="79">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="L65" s="80">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="M65" s="58"/>
       <c r="N65" s="59"/>
@@ -33829,34 +33879,30 @@
       <c r="PB65" s="71"/>
     </row>
     <row r="66" spans="1:418" x14ac:dyDescent="0.4">
-      <c r="B66" s="49">
-        <f t="shared" ref="B66" si="108">ROW()-15+1</f>
-        <v>52</v>
-      </c>
-      <c r="C66" s="151"/>
-      <c r="D66" s="152" t="s">
-        <v>117</v>
-      </c>
-      <c r="E66" s="153">
-        <v>43063</v>
-      </c>
-      <c r="F66" s="151">
+      <c r="B66" s="106"/>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="75">
+        <v>43066</v>
+      </c>
+      <c r="F66" s="73">
+        <v>2</v>
+      </c>
+      <c r="G66" s="76">
+        <f t="shared" si="97"/>
+        <v>43067</v>
+      </c>
+      <c r="H66" s="77">
         <v>1</v>
       </c>
-      <c r="G66" s="154">
-        <f t="shared" ref="G66" si="109">IF(F66&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E66,1)=7,E66+2,IF(WEEKDAY(E66,1)=1,E66+1,E66)),F66-1),E66+F66-1),"")</f>
-        <v>43063</v>
-      </c>
-      <c r="H66" s="155">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="I66" s="156"/>
-      <c r="J66" s="156"/>
-      <c r="K66" s="157">
+      <c r="I66" s="78"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="79">
         <v>0.5</v>
       </c>
-      <c r="L66" s="158">
+      <c r="L66" s="80">
         <v>0.5</v>
       </c>
       <c r="M66" s="58"/>
@@ -34267,34 +34313,35 @@
       <c r="PB66" s="71"/>
     </row>
     <row r="67" spans="1:418" x14ac:dyDescent="0.4">
-      <c r="B67" s="106">
-        <f t="shared" si="98"/>
+      <c r="B67" s="49">
+        <f t="shared" ref="B67" si="108">ROW()-15+1</f>
         <v>53</v>
       </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="E67" s="75">
-        <v>43064</v>
-      </c>
-      <c r="F67" s="73">
+      <c r="C67" s="110"/>
+      <c r="D67" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" s="112">
+        <v>43063</v>
+      </c>
+      <c r="F67" s="110">
         <v>1</v>
       </c>
-      <c r="G67" s="76">
-        <f t="shared" si="106"/>
-        <v>43064</v>
-      </c>
-      <c r="H67" s="77">
+      <c r="G67" s="113">
+        <f t="shared" ref="G67" si="109">IF(F67&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E67,1)=7,E67+2,IF(WEEKDAY(E67,1)=1,E67+1,E67)),F67-1),E67+F67-1),"")</f>
+        <v>43063</v>
+      </c>
+      <c r="H67" s="114">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="79">
-        <v>2</v>
-      </c>
-      <c r="L67" s="80">
-        <v>2</v>
+      <c r="I67" s="115"/>
+      <c r="J67" s="115"/>
+      <c r="K67" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="L67" s="117">
+        <v>0.5</v>
       </c>
       <c r="M67" s="58"/>
       <c r="N67" s="59"/>
@@ -34710,17 +34757,17 @@
       </c>
       <c r="C68" s="73"/>
       <c r="D68" s="74" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E68" s="75">
-        <v>43066</v>
+        <v>43064</v>
       </c>
       <c r="F68" s="73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68" s="76">
         <f t="shared" si="106"/>
-        <v>43068</v>
+        <v>43064</v>
       </c>
       <c r="H68" s="77">
         <v>1</v>
@@ -34728,10 +34775,10 @@
       <c r="I68" s="78"/>
       <c r="J68" s="78"/>
       <c r="K68" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68" s="80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" s="58"/>
       <c r="N68" s="59"/>
@@ -35145,29 +35192,29 @@
         <f t="shared" si="98"/>
         <v>55</v>
       </c>
-      <c r="C69" s="163"/>
-      <c r="D69" s="164" t="s">
+      <c r="C69" s="73"/>
+      <c r="D69" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="E69" s="165">
+      <c r="E69" s="75">
         <v>43066</v>
       </c>
-      <c r="F69" s="163">
+      <c r="F69" s="73">
+        <v>3</v>
+      </c>
+      <c r="G69" s="76">
+        <f t="shared" si="106"/>
+        <v>43068</v>
+      </c>
+      <c r="H69" s="77">
         <v>1</v>
       </c>
-      <c r="G69" s="166">
-        <f t="shared" ref="G69" si="110">IF(F69&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E69,1)=7,E69+2,IF(WEEKDAY(E69,1)=1,E69+1,E69)),F69-1),E69+F69-1),"")</f>
-        <v>43066</v>
-      </c>
-      <c r="H69" s="167">
+      <c r="I69" s="78"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="79">
         <v>1</v>
       </c>
-      <c r="I69" s="168"/>
-      <c r="J69" s="168"/>
-      <c r="K69" s="169">
-        <v>2</v>
-      </c>
-      <c r="L69" s="170">
+      <c r="L69" s="80">
         <v>1</v>
       </c>
       <c r="M69" s="58"/>
@@ -35577,35 +35624,35 @@
       <c r="PA69" s="59"/>
       <c r="PB69" s="71"/>
     </row>
-    <row r="70" spans="1:418" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B70" s="106">
         <f t="shared" si="98"/>
         <v>56</v>
       </c>
-      <c r="C70" s="73"/>
-      <c r="D70" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="E70" s="75">
-        <v>43067</v>
-      </c>
-      <c r="F70" s="73">
+      <c r="C70" s="122"/>
+      <c r="D70" s="123" t="s">
+        <v>110</v>
+      </c>
+      <c r="E70" s="124">
+        <v>43066</v>
+      </c>
+      <c r="F70" s="122">
         <v>1</v>
       </c>
-      <c r="G70" s="76">
-        <f t="shared" si="97"/>
-        <v>43067</v>
-      </c>
-      <c r="H70" s="77">
+      <c r="G70" s="125">
+        <f t="shared" ref="G70" si="110">IF(F70&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E70,1)=7,E70+2,IF(WEEKDAY(E70,1)=1,E70+1,E70)),F70-1),E70+F70-1),"")</f>
+        <v>43066</v>
+      </c>
+      <c r="H70" s="126">
         <v>1</v>
       </c>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
-      <c r="K70" s="79">
-        <v>3</v>
-      </c>
-      <c r="L70" s="80">
-        <v>3</v>
+      <c r="I70" s="127"/>
+      <c r="J70" s="127"/>
+      <c r="K70" s="128">
+        <v>2</v>
+      </c>
+      <c r="L70" s="129">
+        <v>1</v>
       </c>
       <c r="M70" s="58"/>
       <c r="N70" s="59"/>
@@ -36014,14 +36061,14 @@
       <c r="PA70" s="59"/>
       <c r="PB70" s="71"/>
     </row>
-    <row r="71" spans="1:418" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:418" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B71" s="106">
         <f t="shared" si="98"/>
         <v>57</v>
       </c>
       <c r="C71" s="73"/>
       <c r="D71" s="74" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E71" s="75">
         <v>43067</v>
@@ -36039,10 +36086,10 @@
       <c r="I71" s="78"/>
       <c r="J71" s="78"/>
       <c r="K71" s="79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71" s="80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M71" s="58"/>
       <c r="N71" s="59"/>
@@ -36451,23 +36498,24 @@
       <c r="PA71" s="59"/>
       <c r="PB71" s="71"/>
     </row>
-    <row r="72" spans="1:418" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B72" s="106">
-        <v>62</v>
+        <f t="shared" si="98"/>
+        <v>58</v>
       </c>
       <c r="C72" s="73"/>
       <c r="D72" s="74" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E72" s="75">
-        <v>43068</v>
+        <v>43067</v>
       </c>
       <c r="F72" s="73">
         <v>1</v>
       </c>
       <c r="G72" s="76">
         <f t="shared" si="97"/>
-        <v>43068</v>
+        <v>43067</v>
       </c>
       <c r="H72" s="77">
         <v>1</v>
@@ -36478,7 +36526,7 @@
         <v>2</v>
       </c>
       <c r="L72" s="80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" s="58"/>
       <c r="N72" s="59"/>
@@ -36887,36 +36935,34 @@
       <c r="PA72" s="59"/>
       <c r="PB72" s="71"/>
     </row>
-    <row r="73" spans="1:418" x14ac:dyDescent="0.4">
-      <c r="B73" s="49">
-        <f t="shared" ref="B73" si="111">ROW()-15+1</f>
-        <v>59</v>
-      </c>
-      <c r="C73" s="151"/>
-      <c r="D73" s="152" t="s">
-        <v>117</v>
-      </c>
-      <c r="E73" s="153">
-        <v>43073</v>
-      </c>
-      <c r="F73" s="151">
+    <row r="73" spans="1:418" ht="16.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="106">
+        <v>62</v>
+      </c>
+      <c r="C73" s="73"/>
+      <c r="D73" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="75">
+        <v>43068</v>
+      </c>
+      <c r="F73" s="73">
         <v>1</v>
       </c>
-      <c r="G73" s="154">
-        <f t="shared" ref="G73" si="112">IF(F73&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E73,1)=7,E73+2,IF(WEEKDAY(E73,1)=1,E73+1,E73)),F73-1),E73+F73-1),"")</f>
-        <v>43073</v>
-      </c>
-      <c r="H73" s="155">
-        <f>1</f>
+      <c r="G73" s="76">
+        <f t="shared" si="97"/>
+        <v>43068</v>
+      </c>
+      <c r="H73" s="77">
         <v>1</v>
       </c>
-      <c r="I73" s="156"/>
-      <c r="J73" s="156"/>
-      <c r="K73" s="157">
-        <v>0.5</v>
-      </c>
-      <c r="L73" s="158">
-        <v>0.5</v>
+      <c r="I73" s="78"/>
+      <c r="J73" s="78"/>
+      <c r="K73" s="79">
+        <v>2</v>
+      </c>
+      <c r="L73" s="80">
+        <v>1</v>
       </c>
       <c r="M73" s="58"/>
       <c r="N73" s="59"/>
@@ -37326,35 +37372,35 @@
       <c r="PB73" s="71"/>
     </row>
     <row r="74" spans="1:418" x14ac:dyDescent="0.4">
-      <c r="A74" s="8"/>
-      <c r="B74" s="161">
-        <f t="shared" si="98"/>
+      <c r="B74" s="49">
+        <f t="shared" ref="B74" si="111">ROW()-15+1</f>
         <v>60</v>
       </c>
-      <c r="C74" s="82"/>
-      <c r="D74" s="83" t="s">
-        <v>119</v>
-      </c>
-      <c r="E74" s="84">
-        <v>43052</v>
-      </c>
-      <c r="F74" s="82">
-        <v>26</v>
-      </c>
-      <c r="G74" s="162">
-        <f t="shared" si="106"/>
-        <v>43077</v>
-      </c>
-      <c r="H74" s="86">
+      <c r="C74" s="110"/>
+      <c r="D74" s="111" t="s">
+        <v>115</v>
+      </c>
+      <c r="E74" s="112">
+        <v>43073</v>
+      </c>
+      <c r="F74" s="110">
         <v>1</v>
       </c>
-      <c r="I74" s="87"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="159">
-        <v>15</v>
-      </c>
-      <c r="L74" s="160">
-        <v>27</v>
+      <c r="G74" s="113">
+        <f t="shared" ref="G74" si="112">IF(F74&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E74,1)=7,E74+2,IF(WEEKDAY(E74,1)=1,E74+1,E74)),F74-1),E74+F74-1),"")</f>
+        <v>43073</v>
+      </c>
+      <c r="H74" s="114">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I74" s="115"/>
+      <c r="J74" s="115"/>
+      <c r="K74" s="116">
+        <v>0.5</v>
+      </c>
+      <c r="L74" s="117">
+        <v>0.5</v>
       </c>
       <c r="M74" s="58"/>
       <c r="N74" s="59"/>
@@ -37764,34 +37810,35 @@
       <c r="PB74" s="71"/>
     </row>
     <row r="75" spans="1:418" x14ac:dyDescent="0.4">
-      <c r="B75" s="106">
+      <c r="A75" s="8"/>
+      <c r="B75" s="120">
         <f t="shared" si="98"/>
         <v>61</v>
       </c>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="75">
-        <v>43069</v>
-      </c>
-      <c r="F75" s="73">
-        <v>10</v>
-      </c>
-      <c r="G75" s="76">
+      <c r="C75" s="82"/>
+      <c r="D75" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="E75" s="84">
+        <v>43052</v>
+      </c>
+      <c r="F75" s="82">
+        <v>26</v>
+      </c>
+      <c r="G75" s="121">
         <f t="shared" si="106"/>
-        <v>43078</v>
-      </c>
-      <c r="H75" s="77">
+        <v>43077</v>
+      </c>
+      <c r="H75" s="86">
         <v>1</v>
       </c>
-      <c r="I75" s="78"/>
-      <c r="J75" s="78"/>
-      <c r="K75" s="79">
-        <v>2</v>
-      </c>
-      <c r="L75" s="80">
-        <v>3</v>
+      <c r="I75" s="87"/>
+      <c r="J75" s="87"/>
+      <c r="K75" s="118">
+        <v>15</v>
+      </c>
+      <c r="L75" s="119">
+        <v>27</v>
       </c>
       <c r="M75" s="58"/>
       <c r="N75" s="59"/>
@@ -38202,21 +38249,22 @@
     </row>
     <row r="76" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B76" s="106">
-        <v>49</v>
+        <f t="shared" si="98"/>
+        <v>62</v>
       </c>
       <c r="C76" s="73"/>
       <c r="D76" s="74" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="E76" s="75">
-        <v>43071</v>
+        <v>43069</v>
       </c>
       <c r="F76" s="73">
         <v>10</v>
       </c>
       <c r="G76" s="76">
-        <f t="shared" si="97"/>
-        <v>43080</v>
+        <f t="shared" si="106"/>
+        <v>43078</v>
       </c>
       <c r="H76" s="77">
         <v>1</v>
@@ -38224,10 +38272,10 @@
       <c r="I76" s="78"/>
       <c r="J76" s="78"/>
       <c r="K76" s="79">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L76" s="80">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="M76" s="58"/>
       <c r="N76" s="59"/>
@@ -38637,40 +38685,33 @@
       <c r="PB76" s="71"/>
     </row>
     <row r="77" spans="1:418" x14ac:dyDescent="0.4">
-      <c r="B77" s="49">
-        <f t="shared" si="98"/>
-        <v>63</v>
-      </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="64">
-        <v>43078</v>
-      </c>
-      <c r="F77" s="62">
-        <v>6</v>
-      </c>
-      <c r="G77" s="53">
+      <c r="B77" s="106">
+        <v>49</v>
+      </c>
+      <c r="C77" s="73"/>
+      <c r="D77" s="74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E77" s="75">
+        <v>43071</v>
+      </c>
+      <c r="F77" s="73">
+        <v>10</v>
+      </c>
+      <c r="G77" s="76">
         <f t="shared" si="97"/>
-        <v>43083</v>
-      </c>
-      <c r="H77" s="65">
-        <f>100*AVERAGE(H78:H80)%</f>
+        <v>43080</v>
+      </c>
+      <c r="H77" s="77">
         <v>1</v>
       </c>
-      <c r="I77" s="66">
-        <v>43084</v>
-      </c>
-      <c r="J77" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K77" s="67">
-        <v>20</v>
-      </c>
-      <c r="L77" s="68">
-        <f>SUM(L78:L80)</f>
+      <c r="I77" s="78"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="79">
         <v>10</v>
+      </c>
+      <c r="L77" s="80">
+        <v>12</v>
       </c>
       <c r="M77" s="58"/>
       <c r="N77" s="59"/>
@@ -39084,30 +39125,36 @@
         <f t="shared" si="98"/>
         <v>64</v>
       </c>
-      <c r="C78" s="73"/>
-      <c r="D78" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E78" s="75">
+      <c r="C78" s="62"/>
+      <c r="D78" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E78" s="64">
         <v>43078</v>
       </c>
-      <c r="F78" s="73">
-        <v>5</v>
-      </c>
-      <c r="G78" s="76">
-        <f t="shared" ref="G78:G80" si="113">IF(F78&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E78,1)=7,E78+2,IF(WEEKDAY(E78,1)=1,E78+1,E78)),F78-1),E78+F78-1),"")</f>
-        <v>43082</v>
-      </c>
-      <c r="H78" s="77">
+      <c r="F78" s="62">
+        <v>6</v>
+      </c>
+      <c r="G78" s="53">
+        <f t="shared" si="97"/>
+        <v>43083</v>
+      </c>
+      <c r="H78" s="65">
+        <f>100*AVERAGE(H79:H81)%</f>
         <v>1</v>
       </c>
-      <c r="I78" s="78"/>
-      <c r="J78" s="78"/>
-      <c r="K78" s="79">
-        <v>4</v>
-      </c>
-      <c r="L78" s="80">
-        <v>5</v>
+      <c r="I78" s="66">
+        <v>43084</v>
+      </c>
+      <c r="J78" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K78" s="67">
+        <v>20</v>
+      </c>
+      <c r="L78" s="68">
+        <f>SUM(L79:L81)</f>
+        <v>10</v>
       </c>
       <c r="M78" s="58"/>
       <c r="N78" s="59"/>
@@ -39523,7 +39570,7 @@
       </c>
       <c r="C79" s="73"/>
       <c r="D79" s="74" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="E79" s="75">
         <v>43078</v>
@@ -39532,7 +39579,7 @@
         <v>5</v>
       </c>
       <c r="G79" s="76">
-        <f t="shared" si="113"/>
+        <f t="shared" ref="G79:G81" si="113">IF(F79&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E79,1)=7,E79+2,IF(WEEKDAY(E79,1)=1,E79+1,E79)),F79-1),E79+F79-1),"")</f>
         <v>43082</v>
       </c>
       <c r="H79" s="77">
@@ -39541,10 +39588,10 @@
       <c r="I79" s="78"/>
       <c r="J79" s="78"/>
       <c r="K79" s="79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L79" s="80">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M79" s="58"/>
       <c r="N79" s="59"/>
@@ -39960,17 +40007,17 @@
       </c>
       <c r="C80" s="73"/>
       <c r="D80" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E80" s="75">
-        <v>43082</v>
+        <v>43078</v>
       </c>
       <c r="F80" s="73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G80" s="76">
         <f t="shared" si="113"/>
-        <v>43083</v>
+        <v>43082</v>
       </c>
       <c r="H80" s="77">
         <v>1</v>
@@ -39978,10 +40025,10 @@
       <c r="I80" s="78"/>
       <c r="J80" s="78"/>
       <c r="K80" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80" s="80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M80" s="58"/>
       <c r="N80" s="59"/>
@@ -40392,39 +40439,33 @@
     </row>
     <row r="81" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B81" s="49">
-        <f>ROW()-15+1</f>
+        <f t="shared" si="98"/>
         <v>67</v>
       </c>
-      <c r="C81" s="62"/>
-      <c r="D81" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="E81" s="64">
-        <v>42998</v>
-      </c>
-      <c r="F81" s="62">
-        <v>94</v>
-      </c>
-      <c r="G81" s="53">
-        <f t="shared" si="97"/>
-        <v>43091</v>
-      </c>
-      <c r="H81" s="65">
-        <f>100*AVERAGE(H82:H101)%</f>
-        <v>0.92500000000000016</v>
-      </c>
-      <c r="I81" s="66">
-        <v>43091</v>
-      </c>
-      <c r="J81" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="K81" s="67">
-        <v>60</v>
-      </c>
-      <c r="L81" s="68">
-        <f>SUM(L82:L101)</f>
-        <v>88.5</v>
+      <c r="C81" s="73"/>
+      <c r="D81" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="75">
+        <v>43082</v>
+      </c>
+      <c r="F81" s="73">
+        <v>2</v>
+      </c>
+      <c r="G81" s="76">
+        <f t="shared" si="113"/>
+        <v>43083</v>
+      </c>
+      <c r="H81" s="77">
+        <v>1</v>
+      </c>
+      <c r="I81" s="78"/>
+      <c r="J81" s="78"/>
+      <c r="K81" s="79">
+        <v>1</v>
+      </c>
+      <c r="L81" s="80">
+        <v>3</v>
       </c>
       <c r="M81" s="58"/>
       <c r="N81" s="59"/>
@@ -40835,33 +40876,40 @@
     </row>
     <row r="82" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B82" s="49">
-        <f t="shared" si="98"/>
+        <f>ROW()-15+1</f>
         <v>68</v>
       </c>
-      <c r="C82" s="73"/>
-      <c r="D82" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" s="75">
-        <v>43014</v>
-      </c>
-      <c r="F82" s="73">
-        <v>20</v>
-      </c>
-      <c r="G82" s="76">
-        <f>IF(F82&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E82+2,IF(WEEKDAY(E82,1)=1,E82+1,E82)),F82-1),E82+F82-1),"")</f>
-        <v>43033</v>
-      </c>
-      <c r="H82" s="77">
-        <v>1</v>
-      </c>
-      <c r="I82" s="78"/>
-      <c r="J82" s="78"/>
-      <c r="K82" s="79">
-        <v>8</v>
-      </c>
-      <c r="L82" s="80">
-        <v>6</v>
+      <c r="C82" s="62"/>
+      <c r="D82" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="64">
+        <v>42998</v>
+      </c>
+      <c r="F82" s="62">
+        <v>94</v>
+      </c>
+      <c r="G82" s="53">
+        <f t="shared" si="97"/>
+        <v>43091</v>
+      </c>
+      <c r="H82" s="65">
+        <f>100*AVERAGE(H83:H102)%</f>
+        <v>0.95</v>
+      </c>
+      <c r="I82" s="66">
+        <v>43091</v>
+      </c>
+      <c r="J82" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="K82" s="67">
+        <f>SUM(K83:K102)</f>
+        <v>89</v>
+      </c>
+      <c r="L82" s="68">
+        <f>SUM(L83:L102)</f>
+        <v>93.5</v>
       </c>
       <c r="M82" s="58"/>
       <c r="N82" s="59"/>
@@ -41277,17 +41325,17 @@
       </c>
       <c r="C83" s="73"/>
       <c r="D83" s="74" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E83" s="75">
-        <v>43009</v>
+        <v>43014</v>
       </c>
       <c r="F83" s="73">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G83" s="76">
         <f>IF(F83&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E83+2,IF(WEEKDAY(E83,1)=1,E83+1,E83)),F83-1),E83+F83-1),"")</f>
-        <v>43009</v>
+        <v>43033</v>
       </c>
       <c r="H83" s="77">
         <v>1</v>
@@ -41295,10 +41343,10 @@
       <c r="I83" s="78"/>
       <c r="J83" s="78"/>
       <c r="K83" s="79">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="L83" s="80">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="M83" s="58"/>
       <c r="N83" s="59"/>
@@ -41707,24 +41755,24 @@
       <c r="PA83" s="59"/>
       <c r="PB83" s="71"/>
     </row>
-    <row r="84" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B84" s="49">
         <f t="shared" si="98"/>
         <v>70</v>
       </c>
       <c r="C84" s="73"/>
       <c r="D84" s="74" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E84" s="75">
-        <v>43014</v>
+        <v>43009</v>
       </c>
       <c r="F84" s="73">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G84" s="76">
         <f>IF(F84&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E84+2,IF(WEEKDAY(E84,1)=1,E84+1,E84)),F84-1),E84+F84-1),"")</f>
-        <v>43019</v>
+        <v>43009</v>
       </c>
       <c r="H84" s="77">
         <v>1</v>
@@ -41732,10 +41780,10 @@
       <c r="I84" s="78"/>
       <c r="J84" s="78"/>
       <c r="K84" s="79">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L84" s="80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M84" s="58"/>
       <c r="N84" s="59"/>
@@ -42144,24 +42192,24 @@
       <c r="PA84" s="59"/>
       <c r="PB84" s="71"/>
     </row>
-    <row r="85" spans="2:418" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="49">
         <f t="shared" si="98"/>
         <v>71</v>
       </c>
       <c r="C85" s="73"/>
       <c r="D85" s="74" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E85" s="75">
-        <v>43019</v>
+        <v>43014</v>
       </c>
       <c r="F85" s="73">
         <v>6</v>
       </c>
       <c r="G85" s="76">
         <f>IF(F85&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E85+2,IF(WEEKDAY(E85,1)=1,E85+1,E85)),F85-1),E85+F85-1),"")</f>
-        <v>43024</v>
+        <v>43019</v>
       </c>
       <c r="H85" s="77">
         <v>1</v>
@@ -42172,7 +42220,7 @@
         <v>1</v>
       </c>
       <c r="L85" s="80">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M85" s="58"/>
       <c r="N85" s="59"/>
@@ -42588,17 +42636,17 @@
       </c>
       <c r="C86" s="73"/>
       <c r="D86" s="74" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E86" s="75">
-        <v>43024</v>
+        <v>43019</v>
       </c>
       <c r="F86" s="73">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G86" s="76">
         <f>IF(F86&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E86+2,IF(WEEKDAY(E86,1)=1,E86+1,E86)),F86-1),E86+F86-1),"")</f>
-        <v>43026</v>
+        <v>43024</v>
       </c>
       <c r="H86" s="77">
         <v>1</v>
@@ -42606,7 +42654,7 @@
       <c r="I86" s="78"/>
       <c r="J86" s="78"/>
       <c r="K86" s="79">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L86" s="80">
         <v>1.5</v>
@@ -43025,28 +43073,28 @@
       </c>
       <c r="C87" s="73"/>
       <c r="D87" s="74" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="E87" s="75">
-        <v>43017</v>
+        <v>43024</v>
       </c>
       <c r="F87" s="73">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G87" s="76">
         <f>IF(F87&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E87+2,IF(WEEKDAY(E87,1)=1,E87+1,E87)),F87-1),E87+F87-1),"")</f>
-        <v>43030</v>
+        <v>43026</v>
       </c>
       <c r="H87" s="77">
         <v>1</v>
       </c>
       <c r="I87" s="78"/>
       <c r="J87" s="78"/>
-      <c r="K87" s="159">
-        <v>6</v>
-      </c>
-      <c r="L87" s="160">
-        <v>15</v>
+      <c r="K87" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="L87" s="80">
+        <v>1.5</v>
       </c>
       <c r="M87" s="58"/>
       <c r="N87" s="59"/>
@@ -43462,28 +43510,28 @@
       </c>
       <c r="C88" s="73"/>
       <c r="D88" s="74" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="E88" s="75">
-        <v>43036</v>
+        <v>43017</v>
       </c>
       <c r="F88" s="73">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G88" s="76">
         <f>IF(F88&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E88+2,IF(WEEKDAY(E88,1)=1,E88+1,E88)),F88-1),E88+F88-1),"")</f>
-        <v>43042</v>
+        <v>43030</v>
       </c>
       <c r="H88" s="77">
         <v>1</v>
       </c>
       <c r="I88" s="78"/>
       <c r="J88" s="78"/>
-      <c r="K88" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="L88" s="80">
-        <v>2</v>
+      <c r="K88" s="118">
+        <v>6</v>
+      </c>
+      <c r="L88" s="119">
+        <v>15</v>
       </c>
       <c r="M88" s="58"/>
       <c r="N88" s="59"/>
@@ -43899,17 +43947,17 @@
       </c>
       <c r="C89" s="73"/>
       <c r="D89" s="74" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E89" s="75">
-        <v>43038</v>
+        <v>43036</v>
       </c>
       <c r="F89" s="73">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G89" s="76">
         <f>IF(F89&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E89+2,IF(WEEKDAY(E89,1)=1,E89+1,E89)),F89-1),E89+F89-1),"")</f>
-        <v>43049</v>
+        <v>43042</v>
       </c>
       <c r="H89" s="77">
         <v>1</v>
@@ -43917,10 +43965,10 @@
       <c r="I89" s="78"/>
       <c r="J89" s="78"/>
       <c r="K89" s="79">
-        <v>10</v>
+        <v>1.5</v>
       </c>
       <c r="L89" s="80">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M89" s="58"/>
       <c r="N89" s="59"/>
@@ -44330,31 +44378,34 @@
       <c r="PB89" s="71"/>
     </row>
     <row r="90" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B90" s="49"/>
+      <c r="B90" s="49">
+        <f t="shared" si="98"/>
+        <v>76</v>
+      </c>
       <c r="C90" s="73"/>
       <c r="D90" s="74" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E90" s="75">
-        <v>43050</v>
+        <v>43038</v>
       </c>
       <c r="F90" s="73">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G90" s="76">
         <f>IF(F90&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E90+2,IF(WEEKDAY(E90,1)=1,E90+1,E90)),F90-1),E90+F90-1),"")</f>
-        <v>43059</v>
+        <v>43049</v>
       </c>
       <c r="H90" s="77">
         <v>1</v>
       </c>
       <c r="I90" s="78"/>
       <c r="J90" s="78"/>
-      <c r="K90" s="159">
-        <v>3</v>
-      </c>
-      <c r="L90" s="160">
-        <v>6</v>
+      <c r="K90" s="79">
+        <v>10</v>
+      </c>
+      <c r="L90" s="80">
+        <v>13</v>
       </c>
       <c r="M90" s="58"/>
       <c r="N90" s="59"/>
@@ -44764,34 +44815,31 @@
       <c r="PB90" s="71"/>
     </row>
     <row r="91" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="B91" s="49">
-        <f t="shared" si="98"/>
-        <v>77</v>
-      </c>
+      <c r="B91" s="49"/>
       <c r="C91" s="73"/>
       <c r="D91" s="74" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E91" s="75">
-        <v>43044</v>
+        <v>43050</v>
       </c>
       <c r="F91" s="73">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G91" s="76">
         <f>IF(F91&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E91+2,IF(WEEKDAY(E91,1)=1,E91+1,E91)),F91-1),E91+F91-1),"")</f>
-        <v>43079</v>
+        <v>43059</v>
       </c>
       <c r="H91" s="77">
         <v>1</v>
       </c>
       <c r="I91" s="78"/>
       <c r="J91" s="78"/>
-      <c r="K91" s="79">
-        <v>20</v>
-      </c>
-      <c r="L91" s="80">
-        <v>18</v>
+      <c r="K91" s="118">
+        <v>3</v>
+      </c>
+      <c r="L91" s="119">
+        <v>6</v>
       </c>
       <c r="M91" s="58"/>
       <c r="N91" s="59"/>
@@ -45207,17 +45255,17 @@
       </c>
       <c r="C92" s="73"/>
       <c r="D92" s="74" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E92" s="75">
-        <v>43080</v>
+        <v>43044</v>
       </c>
       <c r="F92" s="73">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G92" s="76">
         <f>IF(F92&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E92+2,IF(WEEKDAY(E92,1)=1,E92+1,E92)),F92-1),E92+F92-1),"")</f>
-        <v>43084</v>
+        <v>43079</v>
       </c>
       <c r="H92" s="77">
         <v>1</v>
@@ -45225,10 +45273,10 @@
       <c r="I92" s="78"/>
       <c r="J92" s="78"/>
       <c r="K92" s="79">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L92" s="80">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M92" s="58"/>
       <c r="N92" s="59"/>
@@ -45644,28 +45692,28 @@
       </c>
       <c r="C93" s="73"/>
       <c r="D93" s="74" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E93" s="75">
-        <v>43083</v>
+        <v>43080</v>
       </c>
       <c r="F93" s="73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G93" s="76">
         <f>IF(F93&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E93+2,IF(WEEKDAY(E93,1)=1,E93+1,E93)),F93-1),E93+F93-1),"")</f>
-        <v>43085</v>
+        <v>43084</v>
       </c>
       <c r="H93" s="77">
         <v>1</v>
       </c>
       <c r="I93" s="78"/>
       <c r="J93" s="78"/>
-      <c r="K93" s="79">
-        <v>8</v>
-      </c>
-      <c r="L93" s="80">
-        <v>6</v>
+      <c r="K93" s="171">
+        <v>10</v>
+      </c>
+      <c r="L93" s="172">
+        <v>5</v>
       </c>
       <c r="M93" s="58"/>
       <c r="N93" s="59"/>
@@ -46081,28 +46129,28 @@
       </c>
       <c r="C94" s="73"/>
       <c r="D94" s="74" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E94" s="75">
-        <v>43079</v>
+        <v>43083</v>
       </c>
       <c r="F94" s="73">
         <v>3</v>
       </c>
       <c r="G94" s="76">
         <f>IF(F94&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E94+2,IF(WEEKDAY(E94,1)=1,E94+1,E94)),F94-1),E94+F94-1),"")</f>
-        <v>43081</v>
+        <v>43085</v>
       </c>
       <c r="H94" s="77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I94" s="78"/>
       <c r="J94" s="78"/>
       <c r="K94" s="79">
+        <v>8</v>
+      </c>
+      <c r="L94" s="80">
         <v>6</v>
-      </c>
-      <c r="L94" s="80">
-        <v>3</v>
       </c>
       <c r="M94" s="58"/>
       <c r="N94" s="59"/>
@@ -46518,27 +46566,29 @@
       </c>
       <c r="C95" s="73"/>
       <c r="D95" s="74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E95" s="75">
-        <v>43082</v>
+        <v>43079</v>
       </c>
       <c r="F95" s="73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G95" s="76">
         <f>IF(F95&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E95+2,IF(WEEKDAY(E95,1)=1,E95+1,E95)),F95-1),E95+F95-1),"")</f>
-        <v>43086</v>
+        <v>43081</v>
       </c>
       <c r="H95" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" s="78"/>
       <c r="J95" s="78"/>
       <c r="K95" s="79">
         <v>6</v>
       </c>
-      <c r="L95" s="80"/>
+      <c r="L95" s="80">
+        <v>5</v>
+      </c>
       <c r="M95" s="58"/>
       <c r="N95" s="59"/>
       <c r="O95" s="59"/>
@@ -46953,28 +47003,28 @@
       </c>
       <c r="C96" s="73"/>
       <c r="D96" s="74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E96" s="75">
         <v>43082</v>
       </c>
       <c r="F96" s="73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G96" s="76">
         <f>IF(F96&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E96+2,IF(WEEKDAY(E96,1)=1,E96+1,E96)),F96-1),E96+F96-1),"")</f>
-        <v>43083</v>
+        <v>43086</v>
       </c>
       <c r="H96" s="77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="78"/>
       <c r="J96" s="78"/>
-      <c r="K96" s="79">
-        <v>2</v>
-      </c>
-      <c r="L96" s="80">
-        <v>2</v>
+      <c r="K96" s="171">
+        <v>6</v>
+      </c>
+      <c r="L96" s="172">
+        <v>3</v>
       </c>
       <c r="M96" s="58"/>
       <c r="N96" s="59"/>
@@ -47390,7 +47440,7 @@
       </c>
       <c r="C97" s="73"/>
       <c r="D97" s="74" t="s">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="E97" s="75">
         <v>43082</v>
@@ -47408,10 +47458,10 @@
       <c r="I97" s="78"/>
       <c r="J97" s="78"/>
       <c r="K97" s="79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L97" s="80">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="M97" s="58"/>
       <c r="N97" s="59"/>
@@ -47827,17 +47877,17 @@
       </c>
       <c r="C98" s="73"/>
       <c r="D98" s="74" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E98" s="75">
-        <v>43084</v>
+        <v>43082</v>
       </c>
       <c r="F98" s="73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="76">
         <f>IF(F98&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E98+2,IF(WEEKDAY(E98,1)=1,E98+1,E98)),F98-1),E98+F98-1),"")</f>
-        <v>43084</v>
+        <v>43083</v>
       </c>
       <c r="H98" s="77">
         <v>1</v>
@@ -47845,10 +47895,10 @@
       <c r="I98" s="78"/>
       <c r="J98" s="78"/>
       <c r="K98" s="79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L98" s="80">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M98" s="58"/>
       <c r="N98" s="59"/>
@@ -48264,17 +48314,17 @@
       </c>
       <c r="C99" s="73"/>
       <c r="D99" s="74" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="E99" s="75">
-        <v>43085</v>
+        <v>43084</v>
       </c>
       <c r="F99" s="73">
         <v>1</v>
       </c>
       <c r="G99" s="76">
         <f>IF(F99&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E99+2,IF(WEEKDAY(E99,1)=1,E99+1,E99)),F99-1),E99+F99-1),"")</f>
-        <v>43085</v>
+        <v>43084</v>
       </c>
       <c r="H99" s="77">
         <v>1</v>
@@ -48282,10 +48332,10 @@
       <c r="I99" s="78"/>
       <c r="J99" s="78"/>
       <c r="K99" s="79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L99" s="80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M99" s="58"/>
       <c r="N99" s="59"/>
@@ -48701,7 +48751,7 @@
       </c>
       <c r="C100" s="73"/>
       <c r="D100" s="74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E100" s="75">
         <v>43085</v>
@@ -48719,10 +48769,10 @@
       <c r="I100" s="78"/>
       <c r="J100" s="78"/>
       <c r="K100" s="79">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="L100" s="80">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="M100" s="58"/>
       <c r="N100" s="59"/>
@@ -49138,17 +49188,17 @@
       </c>
       <c r="C101" s="73"/>
       <c r="D101" s="74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E101" s="75">
-        <v>43088</v>
+        <v>43085</v>
       </c>
       <c r="F101" s="73">
         <v>1</v>
       </c>
       <c r="G101" s="76">
         <f>IF(F101&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E101+2,IF(WEEKDAY(E101,1)=1,E101+1,E101)),F101-1),E101+F101-1),"")</f>
-        <v>43088</v>
+        <v>43085</v>
       </c>
       <c r="H101" s="77">
         <v>1</v>
@@ -49156,10 +49206,10 @@
       <c r="I101" s="78"/>
       <c r="J101" s="78"/>
       <c r="K101" s="79">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L101" s="80">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M101" s="58"/>
       <c r="N101" s="59"/>
@@ -49573,32 +49623,30 @@
         <f t="shared" si="98"/>
         <v>88</v>
       </c>
-      <c r="C102" s="62"/>
-      <c r="D102" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="E102" s="64">
-        <v>43109</v>
-      </c>
-      <c r="F102" s="62">
+      <c r="C102" s="73"/>
+      <c r="D102" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="E102" s="75">
+        <v>43088</v>
+      </c>
+      <c r="F102" s="73">
         <v>1</v>
       </c>
-      <c r="G102" s="53">
-        <f t="shared" ref="G102:G105" si="114">IF(F102&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E102,1)=7,E102+2,IF(WEEKDAY(E102,1)=1,E102+1,E102)),F102-1),E102+F102-1),"")</f>
-        <v>43109</v>
-      </c>
-      <c r="H102" s="65">
-        <v>0</v>
-      </c>
-      <c r="I102" s="66">
-        <v>43109</v>
-      </c>
-      <c r="J102" s="66"/>
-      <c r="K102" s="67">
-        <v>10</v>
-      </c>
-      <c r="L102" s="68">
-        <v>0</v>
+      <c r="G102" s="76">
+        <f>IF(F102&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E102+2,IF(WEEKDAY(E102,1)=1,E102+1,E102)),F102-1),E102+F102-1),"")</f>
+        <v>43088</v>
+      </c>
+      <c r="H102" s="77">
+        <v>1</v>
+      </c>
+      <c r="I102" s="78"/>
+      <c r="J102" s="78"/>
+      <c r="K102" s="79">
+        <v>1</v>
+      </c>
+      <c r="L102" s="80">
+        <v>1</v>
       </c>
       <c r="M102" s="58"/>
       <c r="N102" s="59"/>
@@ -50009,31 +50057,34 @@
     </row>
     <row r="103" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B103" s="49">
-        <v>75</v>
-      </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="E103" s="75">
-        <v>43101</v>
-      </c>
-      <c r="F103" s="73">
-        <v>9</v>
-      </c>
-      <c r="G103" s="76">
-        <f t="shared" si="114"/>
+        <f t="shared" si="98"/>
+        <v>89</v>
+      </c>
+      <c r="C103" s="62"/>
+      <c r="D103" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" s="64">
         <v>43109</v>
       </c>
-      <c r="H103" s="77">
+      <c r="F103" s="62">
+        <v>1</v>
+      </c>
+      <c r="G103" s="53">
+        <f t="shared" ref="G103:G106" si="114">IF(F103&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E103,1)=7,E103+2,IF(WEEKDAY(E103,1)=1,E103+1,E103)),F103-1),E103+F103-1),"")</f>
+        <v>43109</v>
+      </c>
+      <c r="H103" s="65">
         <v>0</v>
       </c>
-      <c r="I103" s="78"/>
-      <c r="J103" s="78"/>
-      <c r="K103" s="79">
-        <v>8</v>
-      </c>
-      <c r="L103" s="80">
+      <c r="I103" s="66">
+        <v>43109</v>
+      </c>
+      <c r="J103" s="66"/>
+      <c r="K103" s="67">
+        <v>10</v>
+      </c>
+      <c r="L103" s="68">
         <v>0</v>
       </c>
       <c r="M103" s="58"/>
@@ -50445,21 +50496,21 @@
     </row>
     <row r="104" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B104" s="49">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C104" s="73"/>
       <c r="D104" s="74" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="E104" s="75">
-        <v>43104</v>
+        <v>43101</v>
       </c>
       <c r="F104" s="73">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G104" s="76">
         <f t="shared" si="114"/>
-        <v>43108</v>
+        <v>43109</v>
       </c>
       <c r="H104" s="77">
         <v>0</v>
@@ -50467,7 +50518,7 @@
       <c r="I104" s="78"/>
       <c r="J104" s="78"/>
       <c r="K104" s="79">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L104" s="80">
         <v>0</v>
@@ -50881,34 +50932,31 @@
     </row>
     <row r="105" spans="2:418" x14ac:dyDescent="0.4">
       <c r="B105" s="49">
-        <f t="shared" si="98"/>
-        <v>91</v>
-      </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="E105" s="64">
-        <v>43109</v>
-      </c>
-      <c r="F105" s="62">
-        <v>1</v>
-      </c>
-      <c r="G105" s="53">
+        <v>76</v>
+      </c>
+      <c r="C105" s="73"/>
+      <c r="D105" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E105" s="75">
+        <v>43104</v>
+      </c>
+      <c r="F105" s="73">
+        <v>5</v>
+      </c>
+      <c r="G105" s="76">
         <f t="shared" si="114"/>
-        <v>43109</v>
-      </c>
-      <c r="H105" s="65">
+        <v>43108</v>
+      </c>
+      <c r="H105" s="77">
         <v>0</v>
       </c>
-      <c r="I105" s="66">
-        <v>43109</v>
-      </c>
-      <c r="J105" s="66"/>
-      <c r="K105" s="67">
-        <v>6</v>
-      </c>
-      <c r="L105" s="68">
+      <c r="I105" s="78"/>
+      <c r="J105" s="78"/>
+      <c r="K105" s="79">
+        <v>2</v>
+      </c>
+      <c r="L105" s="80">
         <v>0</v>
       </c>
       <c r="M105" s="58"/>
@@ -51323,29 +51371,31 @@
         <f t="shared" si="98"/>
         <v>92</v>
       </c>
-      <c r="C106" s="73"/>
-      <c r="D106" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="E106" s="75">
-        <v>43101</v>
-      </c>
-      <c r="F106" s="73">
-        <v>8</v>
-      </c>
-      <c r="G106" s="76">
-        <f t="shared" ref="G106" si="115">IF(F106&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E106,1)=7,E106+2,IF(WEEKDAY(E106,1)=1,E106+1,E106)),F106-1),E106+F106-1),"")</f>
-        <v>43108</v>
-      </c>
-      <c r="H106" s="77">
+      <c r="C106" s="62"/>
+      <c r="D106" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106" s="64">
+        <v>43109</v>
+      </c>
+      <c r="F106" s="62">
+        <v>1</v>
+      </c>
+      <c r="G106" s="53">
+        <f t="shared" si="114"/>
+        <v>43109</v>
+      </c>
+      <c r="H106" s="65">
         <v>0</v>
       </c>
-      <c r="I106" s="78"/>
-      <c r="J106" s="78"/>
-      <c r="K106" s="79">
-        <v>5</v>
-      </c>
-      <c r="L106" s="80">
+      <c r="I106" s="66">
+        <v>43109</v>
+      </c>
+      <c r="J106" s="66"/>
+      <c r="K106" s="67">
+        <v>6</v>
+      </c>
+      <c r="L106" s="68">
         <v>0</v>
       </c>
       <c r="M106" s="58"/>
@@ -51762,16 +51812,29 @@
       </c>
       <c r="C107" s="73"/>
       <c r="D107" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="E107" s="75"/>
-      <c r="F107" s="73"/>
-      <c r="G107" s="76"/>
-      <c r="H107" s="77"/>
+        <v>60</v>
+      </c>
+      <c r="E107" s="75">
+        <v>43101</v>
+      </c>
+      <c r="F107" s="73">
+        <v>8</v>
+      </c>
+      <c r="G107" s="76">
+        <f t="shared" ref="G107:G108" si="115">IF(F107&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E107,1)=7,E107+2,IF(WEEKDAY(E107,1)=1,E107+1,E107)),F107-1),E107+F107-1),"")</f>
+        <v>43108</v>
+      </c>
+      <c r="H107" s="77">
+        <v>0</v>
+      </c>
       <c r="I107" s="78"/>
       <c r="J107" s="78"/>
-      <c r="K107" s="79"/>
-      <c r="L107" s="80"/>
+      <c r="K107" s="79">
+        <v>5</v>
+      </c>
+      <c r="L107" s="80">
+        <v>0</v>
+      </c>
       <c r="M107" s="58"/>
       <c r="N107" s="59"/>
       <c r="O107" s="59"/>
@@ -52184,16 +52247,25 @@
         <f t="shared" si="98"/>
         <v>94</v>
       </c>
-      <c r="C108" s="82"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="84"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="86"/>
-      <c r="I108" s="87"/>
-      <c r="J108" s="87"/>
-      <c r="K108" s="88"/>
-      <c r="L108" s="89"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="E108" s="76">
+        <v>42744</v>
+      </c>
+      <c r="F108" s="73">
+        <v>1</v>
+      </c>
+      <c r="G108" s="76">
+        <f t="shared" si="115"/>
+        <v>42744</v>
+      </c>
+      <c r="H108" s="77"/>
+      <c r="I108" s="78"/>
+      <c r="J108" s="78"/>
+      <c r="K108" s="79"/>
+      <c r="L108" s="80"/>
       <c r="M108" s="58"/>
       <c r="N108" s="59"/>
       <c r="O108" s="59"/>
@@ -55986,10 +56058,7 @@
       <c r="D117" s="83"/>
       <c r="E117" s="84"/>
       <c r="F117" s="82"/>
-      <c r="G117" s="85" t="str">
-        <f t="shared" si="97"/>
-        <v/>
-      </c>
+      <c r="G117" s="85"/>
       <c r="H117" s="86"/>
       <c r="I117" s="87"/>
       <c r="J117" s="87"/>
@@ -56403,6 +56472,23 @@
       <c r="PB117" s="71"/>
     </row>
     <row r="118" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="B118" s="49">
+        <f t="shared" si="98"/>
+        <v>104</v>
+      </c>
+      <c r="C118" s="82"/>
+      <c r="D118" s="83"/>
+      <c r="E118" s="84"/>
+      <c r="F118" s="82"/>
+      <c r="G118" s="85" t="str">
+        <f t="shared" si="97"/>
+        <v/>
+      </c>
+      <c r="H118" s="86"/>
+      <c r="I118" s="87"/>
+      <c r="J118" s="87"/>
+      <c r="K118" s="88"/>
+      <c r="L118" s="89"/>
       <c r="M118" s="58"/>
       <c r="N118" s="59"/>
       <c r="O118" s="59"/>
@@ -56811,265 +56897,740 @@
       <c r="PB118" s="71"/>
     </row>
     <row r="119" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="M119" s="90"/>
-      <c r="N119" s="90"/>
-      <c r="O119" s="90"/>
-      <c r="P119" s="91"/>
-      <c r="Q119" s="91"/>
-      <c r="R119" s="91"/>
-      <c r="S119" s="91"/>
-      <c r="T119" s="91"/>
-      <c r="U119" s="91"/>
-      <c r="V119" s="91"/>
-      <c r="W119" s="91"/>
-      <c r="X119" s="91"/>
-      <c r="Y119" s="91"/>
-      <c r="Z119" s="91"/>
-      <c r="AA119" s="91"/>
-      <c r="AB119" s="91"/>
-      <c r="AC119" s="91"/>
-      <c r="AD119" s="91"/>
-      <c r="AE119" s="91"/>
-      <c r="AF119" s="91"/>
-      <c r="AG119" s="91"/>
-      <c r="AH119" s="91"/>
-      <c r="AI119" s="91"/>
-      <c r="AJ119" s="91"/>
-      <c r="AK119" s="91"/>
-      <c r="AL119" s="91"/>
-      <c r="AM119" s="91"/>
-      <c r="AN119" s="91"/>
-      <c r="AO119" s="91"/>
-      <c r="AP119" s="91"/>
-      <c r="AQ119" s="91"/>
-      <c r="AR119" s="91"/>
-      <c r="AS119" s="91"/>
-      <c r="AT119" s="91"/>
-      <c r="AU119" s="91"/>
-      <c r="AV119" s="91"/>
-      <c r="AW119" s="91"/>
-      <c r="AX119" s="91"/>
-      <c r="AY119" s="91"/>
-      <c r="AZ119" s="91"/>
-      <c r="BA119" s="91"/>
-      <c r="BB119" s="91"/>
-      <c r="BC119" s="91"/>
-      <c r="BD119" s="91"/>
-      <c r="BE119" s="91"/>
-      <c r="BF119" s="91"/>
-      <c r="BG119" s="91"/>
-      <c r="BH119" s="91"/>
-      <c r="BI119" s="91"/>
-      <c r="BJ119" s="91"/>
-      <c r="BK119" s="91"/>
-      <c r="BL119" s="91"/>
-      <c r="BM119" s="91"/>
-      <c r="BN119" s="91"/>
-      <c r="BO119" s="91"/>
-      <c r="BP119" s="91"/>
-      <c r="BQ119" s="91"/>
-      <c r="BR119" s="91"/>
-      <c r="BS119" s="91"/>
-      <c r="BT119" s="91"/>
-      <c r="BU119" s="91"/>
-      <c r="BV119" s="91"/>
-      <c r="BW119" s="91"/>
-      <c r="BX119" s="91"/>
-      <c r="BY119" s="91"/>
-      <c r="BZ119" s="91"/>
-      <c r="CA119" s="91"/>
-      <c r="CB119" s="91"/>
-      <c r="CC119" s="91"/>
-      <c r="CD119" s="91"/>
-      <c r="CE119" s="91"/>
-      <c r="CF119" s="91"/>
-      <c r="CG119" s="91"/>
-      <c r="CH119" s="91"/>
-      <c r="CI119" s="91"/>
-      <c r="CJ119" s="91"/>
-      <c r="CK119" s="91"/>
-      <c r="CL119" s="91"/>
-      <c r="CM119" s="91"/>
-      <c r="CN119" s="91"/>
-      <c r="CO119" s="91"/>
-      <c r="CP119" s="91"/>
-      <c r="CQ119" s="91"/>
-      <c r="CR119" s="91"/>
-      <c r="CS119" s="91"/>
-      <c r="CT119" s="91"/>
-      <c r="CU119" s="91"/>
-      <c r="CV119" s="91"/>
-      <c r="CW119" s="91"/>
-      <c r="CX119" s="91"/>
-      <c r="CY119" s="91"/>
-      <c r="CZ119" s="91"/>
-      <c r="DA119" s="91"/>
-      <c r="DB119" s="91"/>
-      <c r="DC119" s="91"/>
-      <c r="DD119" s="91"/>
-      <c r="DE119" s="91"/>
-      <c r="DF119" s="91"/>
-      <c r="DG119" s="91"/>
-      <c r="DH119" s="91"/>
-      <c r="DI119" s="91"/>
-      <c r="DJ119" s="91"/>
-      <c r="DK119" s="91"/>
-      <c r="DL119" s="91"/>
-      <c r="DM119" s="91"/>
-      <c r="DN119" s="91"/>
-      <c r="DO119" s="91"/>
-      <c r="DP119" s="91"/>
-      <c r="DQ119" s="91"/>
-      <c r="DR119" s="91"/>
-      <c r="DS119" s="91"/>
-      <c r="DT119" s="91"/>
-      <c r="DU119" s="91"/>
-      <c r="DV119" s="91"/>
-      <c r="DW119" s="91"/>
-      <c r="DX119" s="91"/>
+      <c r="M119" s="58"/>
+      <c r="N119" s="59"/>
+      <c r="O119" s="59"/>
+      <c r="P119" s="59"/>
+      <c r="Q119" s="59"/>
+      <c r="R119" s="59"/>
+      <c r="S119" s="59"/>
+      <c r="T119" s="59"/>
+      <c r="U119" s="59"/>
+      <c r="V119" s="59"/>
+      <c r="W119" s="59"/>
+      <c r="X119" s="59"/>
+      <c r="Y119" s="59"/>
+      <c r="Z119" s="59"/>
+      <c r="AA119" s="59"/>
+      <c r="AB119" s="59"/>
+      <c r="AC119" s="59"/>
+      <c r="AD119" s="59"/>
+      <c r="AE119" s="59"/>
+      <c r="AF119" s="59"/>
+      <c r="AG119" s="59"/>
+      <c r="AH119" s="59"/>
+      <c r="AI119" s="59"/>
+      <c r="AJ119" s="59"/>
+      <c r="AK119" s="59"/>
+      <c r="AL119" s="59"/>
+      <c r="AM119" s="59"/>
+      <c r="AN119" s="59"/>
+      <c r="AO119" s="59"/>
+      <c r="AP119" s="59"/>
+      <c r="AQ119" s="59"/>
+      <c r="AR119" s="59"/>
+      <c r="AS119" s="59"/>
+      <c r="AT119" s="59"/>
+      <c r="AU119" s="59"/>
+      <c r="AV119" s="59"/>
+      <c r="AW119" s="59"/>
+      <c r="AX119" s="59"/>
+      <c r="AY119" s="59"/>
+      <c r="AZ119" s="59"/>
+      <c r="BA119" s="59"/>
+      <c r="BB119" s="59"/>
+      <c r="BC119" s="59"/>
+      <c r="BD119" s="59"/>
+      <c r="BE119" s="59"/>
+      <c r="BF119" s="59"/>
+      <c r="BG119" s="59"/>
+      <c r="BH119" s="59"/>
+      <c r="BI119" s="59"/>
+      <c r="BJ119" s="59"/>
+      <c r="BK119" s="59"/>
+      <c r="BL119" s="59"/>
+      <c r="BM119" s="59"/>
+      <c r="BN119" s="59"/>
+      <c r="BO119" s="59"/>
+      <c r="BP119" s="59"/>
+      <c r="BQ119" s="59"/>
+      <c r="BR119" s="59"/>
+      <c r="BS119" s="59"/>
+      <c r="BT119" s="59"/>
+      <c r="BU119" s="59"/>
+      <c r="BV119" s="59"/>
+      <c r="BW119" s="59"/>
+      <c r="BX119" s="59"/>
+      <c r="BY119" s="59"/>
+      <c r="BZ119" s="59"/>
+      <c r="CA119" s="59"/>
+      <c r="CB119" s="59"/>
+      <c r="CC119" s="59"/>
+      <c r="CD119" s="59"/>
+      <c r="CE119" s="59"/>
+      <c r="CF119" s="59"/>
+      <c r="CG119" s="59"/>
+      <c r="CH119" s="59"/>
+      <c r="CI119" s="59"/>
+      <c r="CJ119" s="59"/>
+      <c r="CK119" s="59"/>
+      <c r="CL119" s="59"/>
+      <c r="CM119" s="59"/>
+      <c r="CN119" s="59"/>
+      <c r="CO119" s="59"/>
+      <c r="CP119" s="59"/>
+      <c r="CQ119" s="59"/>
+      <c r="CR119" s="59"/>
+      <c r="CS119" s="59"/>
+      <c r="CT119" s="59"/>
+      <c r="CU119" s="59"/>
+      <c r="CV119" s="59"/>
+      <c r="CW119" s="59"/>
+      <c r="CX119" s="59"/>
+      <c r="CY119" s="59"/>
+      <c r="CZ119" s="59"/>
+      <c r="DA119" s="59"/>
+      <c r="DB119" s="59"/>
+      <c r="DC119" s="59"/>
+      <c r="DD119" s="59"/>
+      <c r="DE119" s="59"/>
+      <c r="DF119" s="59"/>
+      <c r="DG119" s="59"/>
+      <c r="DH119" s="59"/>
+      <c r="DI119" s="59"/>
+      <c r="DJ119" s="59"/>
+      <c r="DK119" s="59"/>
+      <c r="DL119" s="59"/>
+      <c r="DM119" s="59"/>
+      <c r="DN119" s="59"/>
+      <c r="DO119" s="59"/>
+      <c r="DP119" s="59"/>
+      <c r="DQ119" s="59"/>
+      <c r="DR119" s="59"/>
+      <c r="DS119" s="59"/>
+      <c r="DT119" s="59"/>
+      <c r="DU119" s="59"/>
+      <c r="DV119" s="59"/>
+      <c r="DW119" s="59"/>
+      <c r="DX119" s="59"/>
+      <c r="DY119" s="59"/>
+      <c r="DZ119" s="59"/>
+      <c r="EA119" s="59"/>
+      <c r="EB119" s="59"/>
+      <c r="EC119" s="59"/>
+      <c r="ED119" s="59"/>
+      <c r="EE119" s="59"/>
+      <c r="EF119" s="59"/>
+      <c r="EG119" s="59"/>
+      <c r="EH119" s="59"/>
+      <c r="EI119" s="59"/>
+      <c r="EJ119" s="59"/>
+      <c r="EK119" s="59"/>
+      <c r="EL119" s="59"/>
+      <c r="EM119" s="59"/>
+      <c r="EN119" s="59"/>
+      <c r="EO119" s="59"/>
+      <c r="EP119" s="59"/>
+      <c r="EQ119" s="59"/>
+      <c r="ER119" s="59"/>
+      <c r="ES119" s="59"/>
+      <c r="ET119" s="59"/>
+      <c r="EU119" s="59"/>
+      <c r="EV119" s="59"/>
+      <c r="EW119" s="59"/>
+      <c r="EX119" s="59"/>
+      <c r="EY119" s="59"/>
+      <c r="EZ119" s="59"/>
+      <c r="FA119" s="59"/>
+      <c r="FB119" s="59"/>
+      <c r="FC119" s="59"/>
+      <c r="FD119" s="59"/>
+      <c r="FE119" s="59"/>
+      <c r="FF119" s="59"/>
+      <c r="FG119" s="59"/>
+      <c r="FH119" s="59"/>
+      <c r="FI119" s="59"/>
+      <c r="FJ119" s="59"/>
+      <c r="FK119" s="59"/>
+      <c r="FL119" s="59"/>
+      <c r="FM119" s="59"/>
+      <c r="FN119" s="59"/>
+      <c r="FO119" s="59"/>
+      <c r="FP119" s="59"/>
+      <c r="FQ119" s="59"/>
+      <c r="FR119" s="59"/>
+      <c r="FS119" s="59"/>
+      <c r="FT119" s="59"/>
+      <c r="FU119" s="59"/>
+      <c r="FV119" s="59"/>
+      <c r="FW119" s="59"/>
+      <c r="FX119" s="59"/>
+      <c r="FY119" s="59"/>
+      <c r="FZ119" s="59"/>
+      <c r="GA119" s="59"/>
+      <c r="GB119" s="59"/>
+      <c r="GC119" s="59"/>
+      <c r="GD119" s="59"/>
+      <c r="GE119" s="59"/>
+      <c r="GF119" s="59"/>
+      <c r="GG119" s="59"/>
+      <c r="GH119" s="59"/>
+      <c r="GI119" s="59"/>
+      <c r="GJ119" s="59"/>
+      <c r="GK119" s="59"/>
+      <c r="GL119" s="59"/>
+      <c r="GM119" s="59"/>
+      <c r="GN119" s="59"/>
+      <c r="GO119" s="59"/>
+      <c r="GP119" s="59"/>
+      <c r="GQ119" s="59"/>
+      <c r="GR119" s="59"/>
+      <c r="GS119" s="59"/>
+      <c r="GT119" s="59"/>
+      <c r="GU119" s="59"/>
+      <c r="GV119" s="59"/>
+      <c r="GW119" s="59"/>
+      <c r="GX119" s="59"/>
+      <c r="GY119" s="59"/>
+      <c r="GZ119" s="59"/>
+      <c r="HA119" s="59"/>
+      <c r="HB119" s="59"/>
+      <c r="HC119" s="59"/>
+      <c r="HD119" s="59"/>
+      <c r="HE119" s="59"/>
+      <c r="HF119" s="59"/>
+      <c r="HG119" s="59"/>
+      <c r="HH119" s="59"/>
+      <c r="HI119" s="59"/>
+      <c r="HJ119" s="59"/>
+      <c r="HK119" s="59"/>
+      <c r="HL119" s="59"/>
+      <c r="HM119" s="59"/>
+      <c r="HN119" s="59"/>
+      <c r="HO119" s="59"/>
+      <c r="HP119" s="59"/>
+      <c r="HQ119" s="59"/>
+      <c r="HR119" s="59"/>
+      <c r="HS119" s="59"/>
+      <c r="HT119" s="59"/>
+      <c r="HU119" s="59"/>
+      <c r="HV119" s="59"/>
+      <c r="HW119" s="59"/>
+      <c r="HX119" s="59"/>
+      <c r="HY119" s="59"/>
+      <c r="HZ119" s="59"/>
+      <c r="IA119" s="59"/>
+      <c r="IB119" s="59"/>
+      <c r="IC119" s="59"/>
+      <c r="ID119" s="59"/>
+      <c r="IE119" s="59"/>
+      <c r="IF119" s="59"/>
+      <c r="IG119" s="59"/>
+      <c r="IH119" s="59"/>
+      <c r="II119" s="59"/>
+      <c r="IJ119" s="59"/>
+      <c r="IK119" s="59"/>
+      <c r="IL119" s="59"/>
+      <c r="IM119" s="59"/>
+      <c r="IN119" s="59"/>
+      <c r="IO119" s="59"/>
+      <c r="IP119" s="59"/>
+      <c r="IQ119" s="59"/>
+      <c r="IR119" s="59"/>
+      <c r="IS119" s="59"/>
+      <c r="IT119" s="59"/>
+      <c r="IU119" s="59"/>
+      <c r="IV119" s="59"/>
+      <c r="IW119" s="59"/>
+      <c r="IX119" s="59"/>
+      <c r="IY119" s="59"/>
+      <c r="IZ119" s="59"/>
+      <c r="JA119" s="59"/>
+      <c r="JB119" s="59"/>
+      <c r="JC119" s="59"/>
+      <c r="JD119" s="59"/>
+      <c r="JE119" s="59"/>
+      <c r="JF119" s="59"/>
+      <c r="JG119" s="59"/>
+      <c r="JH119" s="59"/>
+      <c r="JI119" s="59"/>
+      <c r="JJ119" s="59"/>
+      <c r="JK119" s="59"/>
+      <c r="JL119" s="59"/>
+      <c r="JM119" s="59"/>
+      <c r="JN119" s="59"/>
+      <c r="JO119" s="59"/>
+      <c r="JP119" s="59"/>
+      <c r="JQ119" s="59"/>
+      <c r="JR119" s="59"/>
+      <c r="JS119" s="59"/>
+      <c r="JT119" s="59"/>
+      <c r="JU119" s="59"/>
+      <c r="JV119" s="59"/>
+      <c r="JW119" s="59"/>
+      <c r="JX119" s="59"/>
+      <c r="JY119" s="59"/>
+      <c r="JZ119" s="59"/>
+      <c r="KA119" s="59"/>
+      <c r="KB119" s="59"/>
+      <c r="KC119" s="59"/>
+      <c r="KD119" s="59"/>
+      <c r="KE119" s="59"/>
+      <c r="KF119" s="59"/>
+      <c r="KG119" s="59"/>
+      <c r="KH119" s="59"/>
+      <c r="KI119" s="59"/>
+      <c r="KJ119" s="59"/>
+      <c r="KK119" s="59"/>
+      <c r="KL119" s="59"/>
+      <c r="KM119" s="59"/>
+      <c r="KN119" s="59"/>
+      <c r="KO119" s="59"/>
+      <c r="KP119" s="59"/>
+      <c r="KQ119" s="59"/>
+      <c r="KR119" s="59"/>
+      <c r="KS119" s="59"/>
+      <c r="KT119" s="59"/>
+      <c r="KU119" s="59"/>
+      <c r="KV119" s="59"/>
+      <c r="KW119" s="59"/>
+      <c r="KX119" s="59"/>
+      <c r="KY119" s="59"/>
+      <c r="KZ119" s="59"/>
+      <c r="LA119" s="59"/>
+      <c r="LB119" s="59"/>
+      <c r="LC119" s="59"/>
+      <c r="LD119" s="59"/>
+      <c r="LE119" s="59"/>
+      <c r="LF119" s="59"/>
+      <c r="LG119" s="59"/>
+      <c r="LH119" s="59"/>
+      <c r="LI119" s="59"/>
+      <c r="LJ119" s="59"/>
+      <c r="LK119" s="59"/>
+      <c r="LL119" s="59"/>
+      <c r="LM119" s="59"/>
+      <c r="LN119" s="59"/>
+      <c r="LO119" s="59"/>
+      <c r="LP119" s="59"/>
+      <c r="LQ119" s="59"/>
+      <c r="LR119" s="59"/>
+      <c r="LS119" s="59"/>
+      <c r="LT119" s="59"/>
+      <c r="LU119" s="59"/>
+      <c r="LV119" s="59"/>
+      <c r="LW119" s="59"/>
+      <c r="LX119" s="59"/>
+      <c r="LY119" s="59"/>
+      <c r="LZ119" s="59"/>
+      <c r="MA119" s="59"/>
+      <c r="MB119" s="59"/>
+      <c r="MC119" s="59"/>
+      <c r="MD119" s="59"/>
+      <c r="ME119" s="59"/>
+      <c r="MF119" s="59"/>
+      <c r="MG119" s="59"/>
+      <c r="MH119" s="59"/>
+      <c r="MI119" s="59"/>
+      <c r="MJ119" s="59"/>
+      <c r="MK119" s="59"/>
+      <c r="ML119" s="59"/>
+      <c r="MM119" s="59"/>
+      <c r="MN119" s="59"/>
+      <c r="MO119" s="59"/>
+      <c r="MP119" s="59"/>
+      <c r="MQ119" s="59"/>
+      <c r="MR119" s="59"/>
+      <c r="MS119" s="59"/>
+      <c r="MT119" s="59"/>
+      <c r="MU119" s="59"/>
+      <c r="MV119" s="59"/>
+      <c r="MW119" s="59"/>
+      <c r="MX119" s="59"/>
+      <c r="MY119" s="59"/>
+      <c r="MZ119" s="59"/>
+      <c r="NA119" s="59"/>
+      <c r="NB119" s="59"/>
+      <c r="NC119" s="59"/>
+      <c r="ND119" s="59"/>
+      <c r="NE119" s="59"/>
+      <c r="NF119" s="59"/>
+      <c r="NG119" s="59"/>
+      <c r="NH119" s="59"/>
+      <c r="NI119" s="59"/>
+      <c r="NJ119" s="59"/>
+      <c r="NK119" s="59"/>
+      <c r="NL119" s="59"/>
+      <c r="NM119" s="59"/>
+      <c r="NN119" s="59"/>
+      <c r="NO119" s="59"/>
+      <c r="NP119" s="59"/>
+      <c r="NQ119" s="59"/>
+      <c r="NR119" s="59"/>
+      <c r="NS119" s="59"/>
+      <c r="NT119" s="59"/>
+      <c r="NU119" s="59"/>
+      <c r="NV119" s="59"/>
+      <c r="NW119" s="59"/>
+      <c r="NX119" s="59"/>
+      <c r="NY119" s="59"/>
+      <c r="NZ119" s="59"/>
+      <c r="OA119" s="59"/>
+      <c r="OB119" s="59"/>
+      <c r="OC119" s="59"/>
+      <c r="OD119" s="59"/>
+      <c r="OE119" s="59"/>
+      <c r="OF119" s="59"/>
+      <c r="OG119" s="59"/>
+      <c r="OH119" s="59"/>
+      <c r="OI119" s="59"/>
+      <c r="OJ119" s="59"/>
+      <c r="OK119" s="59"/>
+      <c r="OL119" s="59"/>
+      <c r="OM119" s="59"/>
+      <c r="ON119" s="59"/>
+      <c r="OO119" s="59"/>
+      <c r="OP119" s="59"/>
+      <c r="OQ119" s="59"/>
+      <c r="OR119" s="59"/>
+      <c r="OS119" s="59"/>
+      <c r="OT119" s="59"/>
+      <c r="OU119" s="59"/>
+      <c r="OV119" s="59"/>
+      <c r="OW119" s="59"/>
+      <c r="OX119" s="59"/>
+      <c r="OY119" s="59"/>
+      <c r="OZ119" s="59"/>
+      <c r="PA119" s="59"/>
+      <c r="PB119" s="71"/>
     </row>
     <row r="120" spans="2:418" x14ac:dyDescent="0.4">
-      <c r="M120" s="92"/>
-      <c r="N120" s="92"/>
-      <c r="O120" s="92"/>
-      <c r="P120" s="93"/>
-      <c r="Q120" s="93"/>
-      <c r="R120" s="93"/>
-      <c r="S120" s="93"/>
-      <c r="T120" s="93"/>
-      <c r="U120" s="93"/>
-      <c r="V120" s="93"/>
-      <c r="W120" s="93"/>
-      <c r="X120" s="93"/>
-      <c r="Y120" s="93"/>
-      <c r="Z120" s="93"/>
-      <c r="AA120" s="93"/>
-      <c r="AB120" s="93"/>
-      <c r="AC120" s="93"/>
-      <c r="AD120" s="93"/>
-      <c r="AE120" s="93"/>
-      <c r="AF120" s="93"/>
-      <c r="AG120" s="93"/>
-      <c r="AH120" s="93"/>
-      <c r="AI120" s="93"/>
-      <c r="AJ120" s="93"/>
-      <c r="AK120" s="93"/>
-      <c r="AL120" s="93"/>
-      <c r="AM120" s="93"/>
-      <c r="AN120" s="93"/>
-      <c r="AO120" s="93"/>
-      <c r="AP120" s="93"/>
-      <c r="AQ120" s="93"/>
-      <c r="AR120" s="93"/>
-      <c r="AS120" s="93"/>
-      <c r="AT120" s="93"/>
-      <c r="AU120" s="93"/>
-      <c r="AV120" s="93"/>
-      <c r="AW120" s="93"/>
-      <c r="AX120" s="93"/>
-      <c r="AY120" s="93"/>
-      <c r="AZ120" s="93"/>
-      <c r="BA120" s="93"/>
-      <c r="BB120" s="93"/>
-      <c r="BC120" s="93"/>
-      <c r="BD120" s="93"/>
-      <c r="BE120" s="93"/>
-      <c r="BF120" s="93"/>
-      <c r="BG120" s="93"/>
-      <c r="BH120" s="93"/>
-      <c r="BI120" s="93"/>
-      <c r="BJ120" s="93"/>
-      <c r="BK120" s="93"/>
-      <c r="BL120" s="93"/>
-      <c r="BM120" s="93"/>
-      <c r="BN120" s="93"/>
-      <c r="BO120" s="93"/>
-      <c r="BP120" s="93"/>
-      <c r="BQ120" s="93"/>
-      <c r="BR120" s="93"/>
-      <c r="BS120" s="93"/>
-      <c r="BT120" s="93"/>
-      <c r="BU120" s="93"/>
-      <c r="BV120" s="93"/>
-      <c r="BW120" s="93"/>
-      <c r="BX120" s="93"/>
-      <c r="BY120" s="93"/>
-      <c r="BZ120" s="93"/>
-      <c r="CA120" s="93"/>
-      <c r="CB120" s="93"/>
-      <c r="CC120" s="93"/>
-      <c r="CD120" s="93"/>
-      <c r="CE120" s="93"/>
-      <c r="CF120" s="93"/>
-      <c r="CG120" s="93"/>
-      <c r="CH120" s="93"/>
-      <c r="CI120" s="93"/>
-      <c r="CJ120" s="93"/>
-      <c r="CK120" s="93"/>
-      <c r="CL120" s="93"/>
-      <c r="CM120" s="93"/>
-      <c r="CN120" s="93"/>
-      <c r="CO120" s="93"/>
-      <c r="CP120" s="93"/>
-      <c r="CQ120" s="93"/>
-      <c r="CR120" s="93"/>
-      <c r="CS120" s="93"/>
-      <c r="CT120" s="93"/>
-      <c r="CU120" s="93"/>
-      <c r="CV120" s="93"/>
-      <c r="CW120" s="93"/>
-      <c r="CX120" s="93"/>
-      <c r="CY120" s="93"/>
-      <c r="CZ120" s="93"/>
-      <c r="DA120" s="93"/>
-      <c r="DB120" s="93"/>
-      <c r="DC120" s="93"/>
-      <c r="DD120" s="93"/>
-      <c r="DE120" s="93"/>
-      <c r="DF120" s="93"/>
-      <c r="DG120" s="93"/>
-      <c r="DH120" s="93"/>
-      <c r="DI120" s="93"/>
-      <c r="DJ120" s="93"/>
-      <c r="DK120" s="93"/>
-      <c r="DL120" s="93"/>
-      <c r="DM120" s="93"/>
-      <c r="DN120" s="93"/>
-      <c r="DO120" s="93"/>
-      <c r="DP120" s="93"/>
-      <c r="DQ120" s="93"/>
-      <c r="DR120" s="93"/>
-      <c r="DS120" s="93"/>
-      <c r="DT120" s="93"/>
-      <c r="DU120" s="93"/>
-      <c r="DV120" s="93"/>
-      <c r="DW120" s="93"/>
-      <c r="DX120" s="93"/>
+      <c r="M120" s="90"/>
+      <c r="N120" s="90"/>
+      <c r="O120" s="90"/>
+      <c r="P120" s="91"/>
+      <c r="Q120" s="91"/>
+      <c r="R120" s="91"/>
+      <c r="S120" s="91"/>
+      <c r="T120" s="91"/>
+      <c r="U120" s="91"/>
+      <c r="V120" s="91"/>
+      <c r="W120" s="91"/>
+      <c r="X120" s="91"/>
+      <c r="Y120" s="91"/>
+      <c r="Z120" s="91"/>
+      <c r="AA120" s="91"/>
+      <c r="AB120" s="91"/>
+      <c r="AC120" s="91"/>
+      <c r="AD120" s="91"/>
+      <c r="AE120" s="91"/>
+      <c r="AF120" s="91"/>
+      <c r="AG120" s="91"/>
+      <c r="AH120" s="91"/>
+      <c r="AI120" s="91"/>
+      <c r="AJ120" s="91"/>
+      <c r="AK120" s="91"/>
+      <c r="AL120" s="91"/>
+      <c r="AM120" s="91"/>
+      <c r="AN120" s="91"/>
+      <c r="AO120" s="91"/>
+      <c r="AP120" s="91"/>
+      <c r="AQ120" s="91"/>
+      <c r="AR120" s="91"/>
+      <c r="AS120" s="91"/>
+      <c r="AT120" s="91"/>
+      <c r="AU120" s="91"/>
+      <c r="AV120" s="91"/>
+      <c r="AW120" s="91"/>
+      <c r="AX120" s="91"/>
+      <c r="AY120" s="91"/>
+      <c r="AZ120" s="91"/>
+      <c r="BA120" s="91"/>
+      <c r="BB120" s="91"/>
+      <c r="BC120" s="91"/>
+      <c r="BD120" s="91"/>
+      <c r="BE120" s="91"/>
+      <c r="BF120" s="91"/>
+      <c r="BG120" s="91"/>
+      <c r="BH120" s="91"/>
+      <c r="BI120" s="91"/>
+      <c r="BJ120" s="91"/>
+      <c r="BK120" s="91"/>
+      <c r="BL120" s="91"/>
+      <c r="BM120" s="91"/>
+      <c r="BN120" s="91"/>
+      <c r="BO120" s="91"/>
+      <c r="BP120" s="91"/>
+      <c r="BQ120" s="91"/>
+      <c r="BR120" s="91"/>
+      <c r="BS120" s="91"/>
+      <c r="BT120" s="91"/>
+      <c r="BU120" s="91"/>
+      <c r="BV120" s="91"/>
+      <c r="BW120" s="91"/>
+      <c r="BX120" s="91"/>
+      <c r="BY120" s="91"/>
+      <c r="BZ120" s="91"/>
+      <c r="CA120" s="91"/>
+      <c r="CB120" s="91"/>
+      <c r="CC120" s="91"/>
+      <c r="CD120" s="91"/>
+      <c r="CE120" s="91"/>
+      <c r="CF120" s="91"/>
+      <c r="CG120" s="91"/>
+      <c r="CH120" s="91"/>
+      <c r="CI120" s="91"/>
+      <c r="CJ120" s="91"/>
+      <c r="CK120" s="91"/>
+      <c r="CL120" s="91"/>
+      <c r="CM120" s="91"/>
+      <c r="CN120" s="91"/>
+      <c r="CO120" s="91"/>
+      <c r="CP120" s="91"/>
+      <c r="CQ120" s="91"/>
+      <c r="CR120" s="91"/>
+      <c r="CS120" s="91"/>
+      <c r="CT120" s="91"/>
+      <c r="CU120" s="91"/>
+      <c r="CV120" s="91"/>
+      <c r="CW120" s="91"/>
+      <c r="CX120" s="91"/>
+      <c r="CY120" s="91"/>
+      <c r="CZ120" s="91"/>
+      <c r="DA120" s="91"/>
+      <c r="DB120" s="91"/>
+      <c r="DC120" s="91"/>
+      <c r="DD120" s="91"/>
+      <c r="DE120" s="91"/>
+      <c r="DF120" s="91"/>
+      <c r="DG120" s="91"/>
+      <c r="DH120" s="91"/>
+      <c r="DI120" s="91"/>
+      <c r="DJ120" s="91"/>
+      <c r="DK120" s="91"/>
+      <c r="DL120" s="91"/>
+      <c r="DM120" s="91"/>
+      <c r="DN120" s="91"/>
+      <c r="DO120" s="91"/>
+      <c r="DP120" s="91"/>
+      <c r="DQ120" s="91"/>
+      <c r="DR120" s="91"/>
+      <c r="DS120" s="91"/>
+      <c r="DT120" s="91"/>
+      <c r="DU120" s="91"/>
+      <c r="DV120" s="91"/>
+      <c r="DW120" s="91"/>
+      <c r="DX120" s="91"/>
+    </row>
+    <row r="121" spans="2:418" x14ac:dyDescent="0.4">
+      <c r="M121" s="92"/>
+      <c r="N121" s="92"/>
+      <c r="O121" s="92"/>
+      <c r="P121" s="93"/>
+      <c r="Q121" s="93"/>
+      <c r="R121" s="93"/>
+      <c r="S121" s="93"/>
+      <c r="T121" s="93"/>
+      <c r="U121" s="93"/>
+      <c r="V121" s="93"/>
+      <c r="W121" s="93"/>
+      <c r="X121" s="93"/>
+      <c r="Y121" s="93"/>
+      <c r="Z121" s="93"/>
+      <c r="AA121" s="93"/>
+      <c r="AB121" s="93"/>
+      <c r="AC121" s="93"/>
+      <c r="AD121" s="93"/>
+      <c r="AE121" s="93"/>
+      <c r="AF121" s="93"/>
+      <c r="AG121" s="93"/>
+      <c r="AH121" s="93"/>
+      <c r="AI121" s="93"/>
+      <c r="AJ121" s="93"/>
+      <c r="AK121" s="93"/>
+      <c r="AL121" s="93"/>
+      <c r="AM121" s="93"/>
+      <c r="AN121" s="93"/>
+      <c r="AO121" s="93"/>
+      <c r="AP121" s="93"/>
+      <c r="AQ121" s="93"/>
+      <c r="AR121" s="93"/>
+      <c r="AS121" s="93"/>
+      <c r="AT121" s="93"/>
+      <c r="AU121" s="93"/>
+      <c r="AV121" s="93"/>
+      <c r="AW121" s="93"/>
+      <c r="AX121" s="93"/>
+      <c r="AY121" s="93"/>
+      <c r="AZ121" s="93"/>
+      <c r="BA121" s="93"/>
+      <c r="BB121" s="93"/>
+      <c r="BC121" s="93"/>
+      <c r="BD121" s="93"/>
+      <c r="BE121" s="93"/>
+      <c r="BF121" s="93"/>
+      <c r="BG121" s="93"/>
+      <c r="BH121" s="93"/>
+      <c r="BI121" s="93"/>
+      <c r="BJ121" s="93"/>
+      <c r="BK121" s="93"/>
+      <c r="BL121" s="93"/>
+      <c r="BM121" s="93"/>
+      <c r="BN121" s="93"/>
+      <c r="BO121" s="93"/>
+      <c r="BP121" s="93"/>
+      <c r="BQ121" s="93"/>
+      <c r="BR121" s="93"/>
+      <c r="BS121" s="93"/>
+      <c r="BT121" s="93"/>
+      <c r="BU121" s="93"/>
+      <c r="BV121" s="93"/>
+      <c r="BW121" s="93"/>
+      <c r="BX121" s="93"/>
+      <c r="BY121" s="93"/>
+      <c r="BZ121" s="93"/>
+      <c r="CA121" s="93"/>
+      <c r="CB121" s="93"/>
+      <c r="CC121" s="93"/>
+      <c r="CD121" s="93"/>
+      <c r="CE121" s="93"/>
+      <c r="CF121" s="93"/>
+      <c r="CG121" s="93"/>
+      <c r="CH121" s="93"/>
+      <c r="CI121" s="93"/>
+      <c r="CJ121" s="93"/>
+      <c r="CK121" s="93"/>
+      <c r="CL121" s="93"/>
+      <c r="CM121" s="93"/>
+      <c r="CN121" s="93"/>
+      <c r="CO121" s="93"/>
+      <c r="CP121" s="93"/>
+      <c r="CQ121" s="93"/>
+      <c r="CR121" s="93"/>
+      <c r="CS121" s="93"/>
+      <c r="CT121" s="93"/>
+      <c r="CU121" s="93"/>
+      <c r="CV121" s="93"/>
+      <c r="CW121" s="93"/>
+      <c r="CX121" s="93"/>
+      <c r="CY121" s="93"/>
+      <c r="CZ121" s="93"/>
+      <c r="DA121" s="93"/>
+      <c r="DB121" s="93"/>
+      <c r="DC121" s="93"/>
+      <c r="DD121" s="93"/>
+      <c r="DE121" s="93"/>
+      <c r="DF121" s="93"/>
+      <c r="DG121" s="93"/>
+      <c r="DH121" s="93"/>
+      <c r="DI121" s="93"/>
+      <c r="DJ121" s="93"/>
+      <c r="DK121" s="93"/>
+      <c r="DL121" s="93"/>
+      <c r="DM121" s="93"/>
+      <c r="DN121" s="93"/>
+      <c r="DO121" s="93"/>
+      <c r="DP121" s="93"/>
+      <c r="DQ121" s="93"/>
+      <c r="DR121" s="93"/>
+      <c r="DS121" s="93"/>
+      <c r="DT121" s="93"/>
+      <c r="DU121" s="93"/>
+      <c r="DV121" s="93"/>
+      <c r="DW121" s="93"/>
+      <c r="DX121" s="93"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="133">
-    <mergeCell ref="IQ10:IW10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="FD10:FJ10"/>
-    <mergeCell ref="CE10:CK10"/>
-    <mergeCell ref="CL10:CR10"/>
-    <mergeCell ref="CS10:CY10"/>
-    <mergeCell ref="CZ10:DF10"/>
-    <mergeCell ref="DG10:DM10"/>
-    <mergeCell ref="DN10:DT10"/>
-    <mergeCell ref="BQ10:BW10"/>
-    <mergeCell ref="BX10:CD10"/>
-    <mergeCell ref="AO10:AU10"/>
-    <mergeCell ref="AV10:BB10"/>
-    <mergeCell ref="BC10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="DU10:EA10"/>
-    <mergeCell ref="EB10:EH10"/>
-    <mergeCell ref="EI10:EO10"/>
-    <mergeCell ref="EP10:EV10"/>
-    <mergeCell ref="EW10:FC10"/>
+    <mergeCell ref="OA9:OG9"/>
+    <mergeCell ref="KN9:KT9"/>
+    <mergeCell ref="IX9:JD9"/>
+    <mergeCell ref="IQ9:IW9"/>
+    <mergeCell ref="IJ9:IP9"/>
+    <mergeCell ref="IC9:II9"/>
+    <mergeCell ref="HV9:IB9"/>
+    <mergeCell ref="HO9:HU9"/>
+    <mergeCell ref="HH9:HN9"/>
+    <mergeCell ref="JE9:JK9"/>
+    <mergeCell ref="JL9:JR9"/>
+    <mergeCell ref="JS9:JY9"/>
+    <mergeCell ref="JZ9:KF9"/>
+    <mergeCell ref="KG9:KM9"/>
+    <mergeCell ref="MY9:NE9"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="OV10:PB10"/>
+    <mergeCell ref="OO10:OU10"/>
+    <mergeCell ref="OH10:ON10"/>
+    <mergeCell ref="OA10:OG10"/>
+    <mergeCell ref="NT10:NZ10"/>
+    <mergeCell ref="NM10:NS10"/>
+    <mergeCell ref="NF10:NL10"/>
+    <mergeCell ref="MY10:NE10"/>
+    <mergeCell ref="MR10:MX10"/>
+    <mergeCell ref="MK10:MQ10"/>
+    <mergeCell ref="MD10:MJ10"/>
+    <mergeCell ref="LW10:MC10"/>
+    <mergeCell ref="LP10:LV10"/>
+    <mergeCell ref="LI10:LO10"/>
+    <mergeCell ref="LB10:LH10"/>
+    <mergeCell ref="KU10:LA10"/>
+    <mergeCell ref="KN10:KT10"/>
+    <mergeCell ref="KG10:KM10"/>
+    <mergeCell ref="OO9:OU9"/>
+    <mergeCell ref="OH9:ON9"/>
+    <mergeCell ref="OV9:PB9"/>
+    <mergeCell ref="NF9:NL9"/>
+    <mergeCell ref="NM9:NS9"/>
+    <mergeCell ref="NT9:NZ9"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="BC9:BI9"/>
+    <mergeCell ref="BJ9:BP9"/>
+    <mergeCell ref="BQ9:BW9"/>
+    <mergeCell ref="BX9:CD9"/>
+    <mergeCell ref="CE9:CK9"/>
+    <mergeCell ref="CL9:CR9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:AU9"/>
+    <mergeCell ref="AV9:BB9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I9"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="EW9:FC9"/>
+    <mergeCell ref="FD9:FJ9"/>
+    <mergeCell ref="CS9:CY9"/>
+    <mergeCell ref="CZ9:DF9"/>
+    <mergeCell ref="DG9:DM9"/>
+    <mergeCell ref="DN9:DT9"/>
+    <mergeCell ref="DU9:EA9"/>
+    <mergeCell ref="EB9:EH9"/>
+    <mergeCell ref="EI9:EO9"/>
+    <mergeCell ref="EP9:EV9"/>
+    <mergeCell ref="HA9:HG9"/>
+    <mergeCell ref="GT9:GZ9"/>
+    <mergeCell ref="GM9:GS9"/>
+    <mergeCell ref="GF9:GL9"/>
+    <mergeCell ref="FY9:GE9"/>
+    <mergeCell ref="FR9:FX9"/>
+    <mergeCell ref="FK9:FQ9"/>
+    <mergeCell ref="MK9:MQ9"/>
+    <mergeCell ref="MR9:MX9"/>
+    <mergeCell ref="KU9:LA9"/>
+    <mergeCell ref="LB9:LH9"/>
+    <mergeCell ref="LI9:LO9"/>
+    <mergeCell ref="LP9:LV9"/>
+    <mergeCell ref="LW9:MC9"/>
+    <mergeCell ref="MD9:MJ9"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="M10:S10"/>
@@ -57094,884 +57655,817 @@
     <mergeCell ref="JL10:JR10"/>
     <mergeCell ref="JE10:JK10"/>
     <mergeCell ref="IX10:JD10"/>
-    <mergeCell ref="HA9:HG9"/>
-    <mergeCell ref="GT9:GZ9"/>
-    <mergeCell ref="GM9:GS9"/>
-    <mergeCell ref="GF9:GL9"/>
-    <mergeCell ref="FY9:GE9"/>
-    <mergeCell ref="FR9:FX9"/>
-    <mergeCell ref="FK9:FQ9"/>
-    <mergeCell ref="MK9:MQ9"/>
-    <mergeCell ref="MR9:MX9"/>
-    <mergeCell ref="KU9:LA9"/>
-    <mergeCell ref="LB9:LH9"/>
-    <mergeCell ref="LI9:LO9"/>
-    <mergeCell ref="LP9:LV9"/>
-    <mergeCell ref="LW9:MC9"/>
-    <mergeCell ref="MD9:MJ9"/>
-    <mergeCell ref="EW9:FC9"/>
-    <mergeCell ref="FD9:FJ9"/>
-    <mergeCell ref="CS9:CY9"/>
-    <mergeCell ref="CZ9:DF9"/>
-    <mergeCell ref="DG9:DM9"/>
-    <mergeCell ref="DN9:DT9"/>
-    <mergeCell ref="DU9:EA9"/>
-    <mergeCell ref="EB9:EH9"/>
-    <mergeCell ref="EI9:EO9"/>
-    <mergeCell ref="EP9:EV9"/>
-    <mergeCell ref="OV9:PB9"/>
-    <mergeCell ref="NF9:NL9"/>
-    <mergeCell ref="NM9:NS9"/>
-    <mergeCell ref="NT9:NZ9"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="BC9:BI9"/>
-    <mergeCell ref="BJ9:BP9"/>
-    <mergeCell ref="BQ9:BW9"/>
-    <mergeCell ref="BX9:CD9"/>
-    <mergeCell ref="CE9:CK9"/>
-    <mergeCell ref="CL9:CR9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:AU9"/>
-    <mergeCell ref="AV9:BB9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="OV10:PB10"/>
-    <mergeCell ref="OO10:OU10"/>
-    <mergeCell ref="OH10:ON10"/>
-    <mergeCell ref="OA10:OG10"/>
-    <mergeCell ref="NT10:NZ10"/>
-    <mergeCell ref="NM10:NS10"/>
-    <mergeCell ref="NF10:NL10"/>
-    <mergeCell ref="MY10:NE10"/>
-    <mergeCell ref="MR10:MX10"/>
-    <mergeCell ref="MK10:MQ10"/>
-    <mergeCell ref="MD10:MJ10"/>
-    <mergeCell ref="LW10:MC10"/>
-    <mergeCell ref="LP10:LV10"/>
-    <mergeCell ref="LI10:LO10"/>
-    <mergeCell ref="LB10:LH10"/>
-    <mergeCell ref="KU10:LA10"/>
-    <mergeCell ref="KN10:KT10"/>
-    <mergeCell ref="KG10:KM10"/>
-    <mergeCell ref="OO9:OU9"/>
-    <mergeCell ref="OH9:ON9"/>
-    <mergeCell ref="OA9:OG9"/>
-    <mergeCell ref="KN9:KT9"/>
-    <mergeCell ref="IX9:JD9"/>
-    <mergeCell ref="IQ9:IW9"/>
-    <mergeCell ref="IJ9:IP9"/>
-    <mergeCell ref="IC9:II9"/>
-    <mergeCell ref="HV9:IB9"/>
-    <mergeCell ref="HO9:HU9"/>
-    <mergeCell ref="HH9:HN9"/>
-    <mergeCell ref="JE9:JK9"/>
-    <mergeCell ref="JL9:JR9"/>
-    <mergeCell ref="JS9:JY9"/>
-    <mergeCell ref="JZ9:KF9"/>
-    <mergeCell ref="KG9:KM9"/>
-    <mergeCell ref="MY9:NE9"/>
+    <mergeCell ref="IQ10:IW10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="FD10:FJ10"/>
+    <mergeCell ref="CE10:CK10"/>
+    <mergeCell ref="CL10:CR10"/>
+    <mergeCell ref="CS10:CY10"/>
+    <mergeCell ref="CZ10:DF10"/>
+    <mergeCell ref="DG10:DM10"/>
+    <mergeCell ref="DN10:DT10"/>
+    <mergeCell ref="BQ10:BW10"/>
+    <mergeCell ref="BX10:CD10"/>
+    <mergeCell ref="AO10:AU10"/>
+    <mergeCell ref="AV10:BB10"/>
+    <mergeCell ref="BC10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="DU10:EA10"/>
+    <mergeCell ref="EB10:EH10"/>
+    <mergeCell ref="EI10:EO10"/>
+    <mergeCell ref="EP10:EV10"/>
+    <mergeCell ref="EW10:FC10"/>
   </mergeCells>
   <conditionalFormatting sqref="M9:PB9">
-    <cfRule type="expression" dxfId="279" priority="776">
+    <cfRule type="expression" dxfId="281" priority="778">
       <formula>OR(TEXT(M9,"MMMM")="Februar",TEXT(M9,"MMMM")="April",TEXT(M9,"MMMM")="Juni",TEXT(M9,"MMMM")="August",TEXT(M9,"MMMM")="Oktober",TEXT(M9,"MMMM")="Dezember")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M28:PB28 M30:PB32 M110:PB118 M34:PB37 M39:PB44 M70:PB70 M67:PB68 M56:PB59 M46:PB54 M72:PB72 M74:PB107 M61:PB65">
-    <cfRule type="expression" dxfId="278" priority="769">
+  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M75:PB108 M62:PB66">
+    <cfRule type="expression" dxfId="280" priority="771">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:PI13">
-    <cfRule type="expression" dxfId="277" priority="772">
+    <cfRule type="expression" dxfId="279" priority="774">
       <formula>AND(M$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="774">
+    <cfRule type="expression" dxfId="278" priority="776">
       <formula>AND(M$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:U13 V13:PB13">
+    <cfRule type="expression" dxfId="277" priority="775">
+      <formula>AND(N$12="Sa")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:X13">
+    <cfRule type="expression" dxfId="276" priority="772">
+      <formula>AND(N$12="So")</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="275" priority="773">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N12:X13">
-    <cfRule type="expression" dxfId="274" priority="770">
-      <formula>AND(N$12="So")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="273" priority="771">
-      <formula>AND(N$12="Sa")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB44 M46:PB106">
-    <cfRule type="expression" dxfId="272" priority="756">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB44 M46:PB107">
+    <cfRule type="expression" dxfId="274" priority="758">
       <formula>AND($I15=M$13,$J15&lt;&gt;"F",$I15&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="761">
+    <cfRule type="expression" dxfId="273" priority="763">
       <formula>AND($I15=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="765">
+    <cfRule type="expression" dxfId="272" priority="767">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="768">
+    <cfRule type="expression" dxfId="271" priority="770">
       <formula>AND($G15&lt;&gt;"",AND(M$13&gt;=$E15,M$13&lt;=$G15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB44 M46:PB106">
-    <cfRule type="expression" dxfId="268" priority="766">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB44 M46:PB107">
+    <cfRule type="expression" dxfId="270" priority="768">
       <formula>AND($H15&gt;0,AND(M$13&gt;=$E15,M$13&lt;=$E15+($G15-$E15)*$H15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M110:PB118 M34:PB37 M39:PB44 M70:PB70 M67:PB68 M56:PB59 M46:PB54 M72:PB72 M74:PB107 M61:PB65">
-    <cfRule type="expression" dxfId="267" priority="777">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M75:PB108 M62:PB66">
+    <cfRule type="expression" dxfId="269" priority="779">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB37 M39:PB44 M70:PB70 M67:PB68 M56:PB59 M46:PB54 M72:PB72 M61:PB65 M74:PB106">
-    <cfRule type="expression" dxfId="266" priority="764">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M62:PB66 M75:PB107">
+    <cfRule type="expression" dxfId="268" priority="766">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M110:PB118 M34:PB37 M39:PB44 M70:PB70 M67:PB68 M56:PB59 M46:PB54 M72:PB72 M74:PB107 M61:PB65">
-    <cfRule type="expression" dxfId="265" priority="775">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M75:PB108 M62:PB66">
+    <cfRule type="expression" dxfId="267" priority="777">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J18 I20:J26 I28:J28 I30:J32 I39:J39 I34:J37 I109:J117 I70:J70 I67:J68 I56:J59 I46:J54 I72:J72 I74:J81 I61:J65">
-    <cfRule type="expression" dxfId="264" priority="757">
+  <conditionalFormatting sqref="I15:J18 I20:J26 I28:J28 I30:J32 I39:J39 I34:J37 I110:J118 I71:J71 I68:J69 I57:J60 I46:J55 I73:J73 I75:J82 I62:J66">
+    <cfRule type="expression" dxfId="266" priority="759">
       <formula>AND($J15="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="758">
+    <cfRule type="expression" dxfId="265" priority="760">
       <formula>AND($I15&lt;&gt;"",AND($I15&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="262" priority="762">
+    <cfRule type="expression" dxfId="264" priority="764">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="763">
+    <cfRule type="expression" dxfId="263" priority="765">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:R13">
-    <cfRule type="expression" dxfId="260" priority="759">
+    <cfRule type="expression" dxfId="262" priority="761">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="760">
+    <cfRule type="expression" dxfId="261" priority="762">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L18 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C50:F51 C109:L117 C49:D49 F49 C52:L54 E70:L70 C70 C74:L81 C67:L68 C56:L59 G46:G49 C46:F48 H46:L51 C72 E72:L72 C64:L65 C63:D63 G63:J63 C61:L62">
-    <cfRule type="expression" dxfId="258" priority="767">
+  <conditionalFormatting sqref="C15:L18 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C51:F52 C110:L118 C50:D50 F50 C53:L55 E71:L71 C71 C75:L82 C68:L69 C57:L60 C46:F49 H46:L52 C73 E73:L73 C65:L66 C64:D64 C62:L63 G46:G50 G64:J64">
+    <cfRule type="expression" dxfId="260" priority="769">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="257" priority="681">
+    <cfRule type="expression" dxfId="259" priority="683">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="256" priority="672">
+    <cfRule type="expression" dxfId="258" priority="674">
       <formula>AND($I19=M$13,$J19&lt;&gt;"F",$I19&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="675">
+    <cfRule type="expression" dxfId="257" priority="677">
       <formula>AND($I19=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="677">
+    <cfRule type="expression" dxfId="256" priority="679">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="680">
+    <cfRule type="expression" dxfId="255" priority="682">
       <formula>AND($G19&lt;&gt;"",AND(M$13&gt;=$E19,M$13&lt;=$G19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="252" priority="678">
+    <cfRule type="expression" dxfId="254" priority="680">
       <formula>AND($H19&gt;0,AND(M$13&gt;=$E19,M$13&lt;=$E19+($G19-$E19)*$H19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="251" priority="683">
+    <cfRule type="expression" dxfId="253" priority="685">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="250" priority="676">
+    <cfRule type="expression" dxfId="252" priority="678">
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="249" priority="682">
+    <cfRule type="expression" dxfId="251" priority="684">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J19">
-    <cfRule type="expression" dxfId="248" priority="673">
+    <cfRule type="expression" dxfId="250" priority="675">
       <formula>AND($J19="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="674">
+    <cfRule type="expression" dxfId="249" priority="676">
       <formula>AND($I19&lt;&gt;"",AND($I19&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:L19">
-    <cfRule type="expression" dxfId="246" priority="679">
+    <cfRule type="expression" dxfId="248" priority="681">
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M110:PB110">
+    <cfRule type="expression" dxfId="247" priority="473">
+      <formula>AND(M$13=TODAY())</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M110:PB110">
+    <cfRule type="expression" dxfId="246" priority="475">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M110:PB119">
+    <cfRule type="expression" dxfId="245" priority="468">
+      <formula>OR($C109="X",$C109="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M110:PB110">
+    <cfRule type="expression" dxfId="244" priority="474">
+      <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I109:J109">
+    <cfRule type="expression" dxfId="243" priority="465">
+      <formula>AND($J109="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="242" priority="466">
+      <formula>AND($I109&lt;&gt;"",AND($I109&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109 F109:L109">
+    <cfRule type="expression" dxfId="241" priority="471">
+      <formula>OR($C109="X",$C109="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E109">
+    <cfRule type="expression" dxfId="240" priority="463">
+      <formula>OR($C109="X",$C109="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="245" priority="471">
+    <cfRule type="expression" dxfId="239" priority="459">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="244" priority="473">
+    <cfRule type="expression" dxfId="238" priority="461">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M109:PB118">
-    <cfRule type="expression" dxfId="243" priority="466">
+  <conditionalFormatting sqref="M109:PB109">
+    <cfRule type="expression" dxfId="237" priority="454">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="242" priority="472">
+    <cfRule type="expression" dxfId="236" priority="460">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:J108">
-    <cfRule type="expression" dxfId="241" priority="463">
+    <cfRule type="expression" dxfId="235" priority="451">
       <formula>AND($J108="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="464">
+    <cfRule type="expression" dxfId="234" priority="452">
       <formula>AND($I108&lt;&gt;"",AND($I108&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108 F108:L108">
-    <cfRule type="expression" dxfId="239" priority="469">
+  <conditionalFormatting sqref="C108 F108 H108:L108">
+    <cfRule type="expression" dxfId="233" priority="457">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="expression" dxfId="238" priority="461">
+  <conditionalFormatting sqref="D108">
+    <cfRule type="expression" dxfId="231" priority="413">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M108:PB108">
-    <cfRule type="expression" dxfId="237" priority="457">
-      <formula>AND(M$13=TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M108:PB108">
-    <cfRule type="expression" dxfId="236" priority="459">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M108:PB108">
-    <cfRule type="expression" dxfId="235" priority="452">
-      <formula>OR($C107="X",$C107="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M108:PB108">
-    <cfRule type="expression" dxfId="234" priority="458">
-      <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I107:J107">
-    <cfRule type="expression" dxfId="233" priority="449">
-      <formula>AND($J107="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="232" priority="450">
-      <formula>AND($I107&lt;&gt;"",AND($I107&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107 F107:L107">
-    <cfRule type="expression" dxfId="231" priority="455">
-      <formula>OR($C107="X",$C107="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="230" priority="447">
-      <formula>OR($C107="X",$C107="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="229" priority="411">
-      <formula>OR($C107="X",$C107="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="expression" dxfId="228" priority="412">
-      <formula>OR($C108="X",$C108="x")</formula>
+  <conditionalFormatting sqref="D109">
+    <cfRule type="expression" dxfId="230" priority="414">
+      <formula>OR($C109="X",$C109="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="227" priority="372">
+    <cfRule type="expression" dxfId="229" priority="374">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="226" priority="363">
+    <cfRule type="expression" dxfId="228" priority="365">
       <formula>AND($I29=M$13,$J29&lt;&gt;"F",$I29&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="366">
+    <cfRule type="expression" dxfId="227" priority="368">
       <formula>AND($I29=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="368">
+    <cfRule type="expression" dxfId="226" priority="370">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="371">
+    <cfRule type="expression" dxfId="225" priority="373">
       <formula>AND($G29&lt;&gt;"",AND(M$13&gt;=$E29,M$13&lt;=$G29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="222" priority="369">
+    <cfRule type="expression" dxfId="224" priority="371">
       <formula>AND($H29&gt;0,AND(M$13&gt;=$E29,M$13&lt;=$E29+($G29-$E29)*$H29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="221" priority="374">
+    <cfRule type="expression" dxfId="223" priority="376">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="220" priority="367">
+    <cfRule type="expression" dxfId="222" priority="369">
       <formula>OR($C29="X",$C29="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="219" priority="373">
+    <cfRule type="expression" dxfId="221" priority="375">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J29">
-    <cfRule type="expression" dxfId="218" priority="364">
+    <cfRule type="expression" dxfId="220" priority="366">
       <formula>AND($J29="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="365">
+    <cfRule type="expression" dxfId="219" priority="367">
       <formula>AND($I29&lt;&gt;"",AND($I29&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:L29">
-    <cfRule type="expression" dxfId="216" priority="370">
+    <cfRule type="expression" dxfId="218" priority="372">
       <formula>OR($C29="X",$C29="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="215" priority="348">
+    <cfRule type="expression" dxfId="217" priority="350">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="214" priority="350">
+    <cfRule type="expression" dxfId="216" priority="352">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="213" priority="343">
+    <cfRule type="expression" dxfId="215" priority="345">
       <formula>OR($C38="X",$C38="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="212" priority="349">
+    <cfRule type="expression" dxfId="214" priority="351">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J38">
-    <cfRule type="expression" dxfId="211" priority="340">
+    <cfRule type="expression" dxfId="213" priority="342">
       <formula>AND($J38="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="341">
+    <cfRule type="expression" dxfId="212" priority="343">
       <formula>AND($I38&lt;&gt;"",AND($I38&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F38 H38:L38">
-    <cfRule type="expression" dxfId="209" priority="346">
+    <cfRule type="expression" dxfId="211" priority="348">
       <formula>OR($C38="X",$C38="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="208" priority="336">
+    <cfRule type="expression" dxfId="210" priority="338">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="207" priority="327">
+    <cfRule type="expression" dxfId="209" priority="329">
       <formula>AND($I27=M$13,$J27&lt;&gt;"F",$I27&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="330">
+    <cfRule type="expression" dxfId="208" priority="332">
       <formula>AND($I27=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="332">
+    <cfRule type="expression" dxfId="207" priority="334">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="335">
+    <cfRule type="expression" dxfId="206" priority="337">
       <formula>AND($G27&lt;&gt;"",AND(M$13&gt;=$E27,M$13&lt;=$G27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="203" priority="333">
+    <cfRule type="expression" dxfId="205" priority="335">
       <formula>AND($H27&gt;0,AND(M$13&gt;=$E27,M$13&lt;=$E27+($G27-$E27)*$H27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="202" priority="338">
+    <cfRule type="expression" dxfId="204" priority="340">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="201" priority="331">
+    <cfRule type="expression" dxfId="203" priority="333">
       <formula>OR($C27="X",$C27="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="200" priority="337">
+    <cfRule type="expression" dxfId="202" priority="339">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J27">
-    <cfRule type="expression" dxfId="199" priority="328">
+    <cfRule type="expression" dxfId="201" priority="330">
       <formula>AND($J27="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="329">
+    <cfRule type="expression" dxfId="200" priority="331">
       <formula>AND($I27&lt;&gt;"",AND($I27&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:L27">
-    <cfRule type="expression" dxfId="197" priority="334">
+    <cfRule type="expression" dxfId="199" priority="336">
       <formula>OR($C27="X",$C27="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="196" priority="256">
+    <cfRule type="expression" dxfId="198" priority="258">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="195" priority="247">
+    <cfRule type="expression" dxfId="197" priority="249">
       <formula>AND($I33=M$13,$J33&lt;&gt;"F",$I33&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="250">
+    <cfRule type="expression" dxfId="196" priority="252">
       <formula>AND($I33=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="252">
+    <cfRule type="expression" dxfId="195" priority="254">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="255">
+    <cfRule type="expression" dxfId="194" priority="257">
       <formula>AND($G33&lt;&gt;"",AND(M$13&gt;=$E33,M$13&lt;=$G33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="191" priority="253">
+    <cfRule type="expression" dxfId="193" priority="255">
       <formula>AND($H33&gt;0,AND(M$13&gt;=$E33,M$13&lt;=$E33+($G33-$E33)*$H33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="190" priority="258">
+    <cfRule type="expression" dxfId="192" priority="260">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="189" priority="251">
+    <cfRule type="expression" dxfId="191" priority="253">
       <formula>OR($C33="X",$C33="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="188" priority="257">
+    <cfRule type="expression" dxfId="190" priority="259">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:J33">
-    <cfRule type="expression" dxfId="187" priority="248">
+    <cfRule type="expression" dxfId="189" priority="250">
       <formula>AND($J33="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="249">
+    <cfRule type="expression" dxfId="188" priority="251">
       <formula>AND($I33&lt;&gt;"",AND($I33&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:L33">
-    <cfRule type="expression" dxfId="185" priority="254">
+    <cfRule type="expression" dxfId="187" priority="256">
       <formula>OR($C33="X",$C33="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="expression" dxfId="184" priority="244">
+    <cfRule type="expression" dxfId="186" priority="246">
       <formula>AND($J40="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="245">
+    <cfRule type="expression" dxfId="185" priority="247">
       <formula>AND($I40&lt;&gt;"",AND($I40&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:L40 G42:G43 G50:G51">
-    <cfRule type="expression" dxfId="182" priority="246">
+  <conditionalFormatting sqref="C40:L40 G42:G43 G51:G52">
+    <cfRule type="expression" dxfId="184" priority="248">
       <formula>OR($C40="X",$C40="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J41">
-    <cfRule type="expression" dxfId="181" priority="241">
+    <cfRule type="expression" dxfId="183" priority="243">
       <formula>AND($J41="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="242">
+    <cfRule type="expression" dxfId="182" priority="244">
       <formula>AND($I41&lt;&gt;"",AND($I41&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:L41 G44">
-    <cfRule type="expression" dxfId="179" priority="243">
+    <cfRule type="expression" dxfId="181" priority="245">
       <formula>OR($C41="X",$C41="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I82:J83">
-    <cfRule type="expression" dxfId="178" priority="238">
-      <formula>AND($J82="F")</formula>
+  <conditionalFormatting sqref="I83:J84">
+    <cfRule type="expression" dxfId="180" priority="240">
+      <formula>AND($J83="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="177" priority="239">
-      <formula>AND($I82&lt;&gt;"",AND($I82&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="179" priority="241">
+      <formula>AND($I83&lt;&gt;"",AND($I83&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C83 F82:L82 F83 H83:L83 G83:G101">
-    <cfRule type="expression" dxfId="176" priority="240">
-      <formula>OR($C82="X",$C82="x")</formula>
+  <conditionalFormatting sqref="C83:C84 F83:L83 F84 H84:L84 G84:G102">
+    <cfRule type="expression" dxfId="178" priority="242">
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E82:E83">
-    <cfRule type="expression" dxfId="175" priority="237">
-      <formula>OR($C82="X",$C82="x")</formula>
+  <conditionalFormatting sqref="E83:E84">
+    <cfRule type="expression" dxfId="177" priority="239">
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D82:D83">
-    <cfRule type="expression" dxfId="174" priority="236">
-      <formula>OR($C82="X",$C82="x")</formula>
+  <conditionalFormatting sqref="D83:D84">
+    <cfRule type="expression" dxfId="176" priority="238">
+      <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:J86 I105:J105 I88:J102">
-    <cfRule type="expression" dxfId="173" priority="233">
+  <conditionalFormatting sqref="I87:J87 I106:J106 I89:J103">
+    <cfRule type="expression" dxfId="175" priority="235">
+      <formula>AND($J87="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="236">
+      <formula>AND($I87&lt;&gt;"",AND($I87&lt;TODAY()))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C87 F106:L106 C106 F103:L103 F102 H87:L87 H89:L102 C89:C103 G104:G105">
+    <cfRule type="expression" dxfId="173" priority="237">
+      <formula>OR($C87="X",$C87="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102:E103 E106">
+    <cfRule type="expression" dxfId="172" priority="234">
+      <formula>OR($C102="X",$C102="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I86:J86">
+    <cfRule type="expression" dxfId="171" priority="231">
       <formula>AND($J86="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="234">
+    <cfRule type="expression" dxfId="170" priority="232">
       <formula>AND($I86&lt;&gt;"",AND($I86&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C86 F105:L105 C105 F102:L102 F101 H86:L86 H88:L101 C88:C102 G103:G104">
-    <cfRule type="expression" dxfId="171" priority="235">
+  <conditionalFormatting sqref="C86 F86 H86:L86">
+    <cfRule type="expression" dxfId="169" priority="233">
       <formula>OR($C86="X",$C86="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E101:E102 E105">
-    <cfRule type="expression" dxfId="170" priority="232">
-      <formula>OR($C101="X",$C101="x")</formula>
+  <conditionalFormatting sqref="E86">
+    <cfRule type="expression" dxfId="168" priority="230">
+      <formula>OR($C86="X",$C86="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87 D106 D89:D103">
+    <cfRule type="expression" dxfId="167" priority="229">
+      <formula>OR($C87="X",$C87="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D86">
+    <cfRule type="expression" dxfId="166" priority="228">
+      <formula>OR($C86="X",$C86="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85">
+    <cfRule type="expression" dxfId="165" priority="223">
+      <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:J85">
-    <cfRule type="expression" dxfId="169" priority="229">
+    <cfRule type="expression" dxfId="164" priority="225">
       <formula>AND($J85="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="230">
+    <cfRule type="expression" dxfId="163" priority="226">
       <formula>AND($I85&lt;&gt;"",AND($I85&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85 F85 H85:L85">
-    <cfRule type="expression" dxfId="167" priority="231">
+    <cfRule type="expression" dxfId="162" priority="227">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="166" priority="228">
+    <cfRule type="expression" dxfId="161" priority="224">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D86 D105 D88:D102">
-    <cfRule type="expression" dxfId="165" priority="227">
-      <formula>OR($C86="X",$C86="x")</formula>
+  <conditionalFormatting sqref="I103:J103 I109:J109 I106:J106">
+    <cfRule type="expression" dxfId="160" priority="220">
+      <formula>AND($J103="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="221">
+      <formula>AND($I103&lt;&gt;"",AND($I103&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D85">
-    <cfRule type="expression" dxfId="164" priority="226">
-      <formula>OR($C85="X",$C85="x")</formula>
+  <conditionalFormatting sqref="C109:L109 C103:L103 C106:L106 G104:G105">
+    <cfRule type="expression" dxfId="158" priority="222">
+      <formula>OR($C103="X",$C103="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D84">
-    <cfRule type="expression" dxfId="163" priority="221">
-      <formula>OR($C84="X",$C84="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I84:J84">
-    <cfRule type="expression" dxfId="162" priority="223">
-      <formula>AND($J84="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="161" priority="224">
-      <formula>AND($I84&lt;&gt;"",AND($I84&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84 F84 H84:L84">
-    <cfRule type="expression" dxfId="160" priority="225">
-      <formula>OR($C84="X",$C84="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E84">
-    <cfRule type="expression" dxfId="159" priority="222">
-      <formula>OR($C84="X",$C84="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I102:J102 I108:J108 I105:J105">
-    <cfRule type="expression" dxfId="158" priority="218">
+  <conditionalFormatting sqref="I102:J102">
+    <cfRule type="expression" dxfId="157" priority="217">
       <formula>AND($J102="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="219">
+    <cfRule type="expression" dxfId="156" priority="218">
       <formula>AND($I102&lt;&gt;"",AND($I102&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108:L108 C102:L102 C105:L105 G103:G104">
-    <cfRule type="expression" dxfId="156" priority="220">
+  <conditionalFormatting sqref="C102 F102 H102:L102">
+    <cfRule type="expression" dxfId="155" priority="219">
+      <formula>OR($C102="X",$C102="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="expression" dxfId="154" priority="216">
       <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:J101">
-    <cfRule type="expression" dxfId="155" priority="215">
+    <cfRule type="expression" dxfId="153" priority="213">
       <formula>AND($J101="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="216">
+    <cfRule type="expression" dxfId="152" priority="214">
       <formula>AND($I101&lt;&gt;"",AND($I101&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C101 F101 H101:L101">
-    <cfRule type="expression" dxfId="153" priority="217">
-      <formula>OR($C101="X",$C101="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="152" priority="214">
+  <conditionalFormatting sqref="C101 H101:L101">
+    <cfRule type="expression" dxfId="151" priority="215">
       <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:J100">
-    <cfRule type="expression" dxfId="151" priority="211">
+    <cfRule type="expression" dxfId="150" priority="209">
       <formula>AND($J100="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="212">
+    <cfRule type="expression" dxfId="149" priority="210">
       <formula>AND($I100&lt;&gt;"",AND($I100&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100 H100:L100">
-    <cfRule type="expression" dxfId="149" priority="213">
+    <cfRule type="expression" dxfId="148" priority="211">
       <formula>OR($C100="X",$C100="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I99:J99">
-    <cfRule type="expression" dxfId="148" priority="207">
-      <formula>AND($J99="F")</formula>
+  <conditionalFormatting sqref="I89:J99">
+    <cfRule type="expression" dxfId="147" priority="205">
+      <formula>AND($J89="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="208">
-      <formula>AND($I99&lt;&gt;"",AND($I99&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="146" priority="206">
+      <formula>AND($I89&lt;&gt;"",AND($I89&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C99 H99:L99">
-    <cfRule type="expression" dxfId="146" priority="209">
-      <formula>OR($C99="X",$C99="x")</formula>
+  <conditionalFormatting sqref="C89:C99 H89:L99">
+    <cfRule type="expression" dxfId="145" priority="207">
+      <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I88:J98">
-    <cfRule type="expression" dxfId="145" priority="203">
-      <formula>AND($J88="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="144" priority="204">
-      <formula>AND($I88&lt;&gt;"",AND($I88&lt;TODAY()))</formula>
+  <conditionalFormatting sqref="D100">
+    <cfRule type="expression" dxfId="144" priority="198">
+      <formula>OR($C100="X",$C100="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C88:C98 H88:L98">
-    <cfRule type="expression" dxfId="143" priority="205">
-      <formula>OR($C88="X",$C88="x")</formula>
+  <conditionalFormatting sqref="H92:H94">
+    <cfRule type="expression" dxfId="143" priority="176">
+      <formula>OR($C92="X",$C92="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D99">
-    <cfRule type="expression" dxfId="142" priority="196">
-      <formula>OR($C99="X",$C99="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H91:H93">
-    <cfRule type="expression" dxfId="141" priority="174">
-      <formula>OR($C91="X",$C91="x")</formula>
+  <conditionalFormatting sqref="D102">
+    <cfRule type="expression" dxfId="142" priority="199">
+      <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="140" priority="197">
+    <cfRule type="expression" dxfId="141" priority="197">
       <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D100">
-    <cfRule type="expression" dxfId="139" priority="195">
-      <formula>OR($C100="X",$C100="x")</formula>
+  <conditionalFormatting sqref="D89:D99">
+    <cfRule type="expression" dxfId="140" priority="196">
+      <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D88:D98">
-    <cfRule type="expression" dxfId="138" priority="194">
-      <formula>OR($C88="X",$C88="x")</formula>
+  <conditionalFormatting sqref="I108:J108">
+    <cfRule type="expression" dxfId="139" priority="192">
+      <formula>AND($J108="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="138" priority="193">
+      <formula>AND($I108&lt;&gt;"",AND($I108&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I107:J107">
-    <cfRule type="expression" dxfId="137" priority="190">
-      <formula>AND($J107="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="191">
-      <formula>AND($I107&lt;&gt;"",AND($I107&lt;TODAY()))</formula>
+  <conditionalFormatting sqref="C108 F108 H108:L108">
+    <cfRule type="expression" dxfId="137" priority="194">
+      <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C107 F107:L107">
-    <cfRule type="expression" dxfId="135" priority="192">
-      <formula>OR($C107="X",$C107="x")</formula>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="expression" dxfId="135" priority="190">
+      <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="134" priority="189">
-      <formula>OR($C107="X",$C107="x")</formula>
+  <conditionalFormatting sqref="I104:J105">
+    <cfRule type="expression" dxfId="134" priority="187">
+      <formula>AND($J104="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="133" priority="188">
+      <formula>AND($I104&lt;&gt;"",AND($I104&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="133" priority="188">
-      <formula>OR($C107="X",$C107="x")</formula>
+  <conditionalFormatting sqref="C104:C105 F104:F105 H104:L105">
+    <cfRule type="expression" dxfId="132" priority="189">
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:J104">
-    <cfRule type="expression" dxfId="132" priority="185">
-      <formula>AND($J103="F")</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E104:E105">
     <cfRule type="expression" dxfId="131" priority="186">
-      <formula>AND($I103&lt;&gt;"",AND($I103&lt;TODAY()))</formula>
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:C104 F103:F104 H103:L104">
-    <cfRule type="expression" dxfId="130" priority="187">
-      <formula>OR($C103="X",$C103="x")</formula>
+  <conditionalFormatting sqref="D104:D105">
+    <cfRule type="expression" dxfId="130" priority="185">
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103:E104">
-    <cfRule type="expression" dxfId="129" priority="184">
-      <formula>OR($C103="X",$C103="x")</formula>
+  <conditionalFormatting sqref="I104:J105">
+    <cfRule type="expression" dxfId="129" priority="182">
+      <formula>AND($J104="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="183">
+      <formula>AND($I104&lt;&gt;"",AND($I104&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D103:D104">
-    <cfRule type="expression" dxfId="128" priority="183">
-      <formula>OR($C103="X",$C103="x")</formula>
+  <conditionalFormatting sqref="C104:C105 F104:F105 H104:L105">
+    <cfRule type="expression" dxfId="127" priority="184">
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I103:J104">
-    <cfRule type="expression" dxfId="127" priority="180">
-      <formula>AND($J103="F")</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E104:E105">
     <cfRule type="expression" dxfId="126" priority="181">
-      <formula>AND($I103&lt;&gt;"",AND($I103&lt;TODAY()))</formula>
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103:C104 F103:F104 H103:L104">
-    <cfRule type="expression" dxfId="125" priority="182">
-      <formula>OR($C103="X",$C103="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E103:E104">
-    <cfRule type="expression" dxfId="124" priority="179">
-      <formula>OR($C103="X",$C103="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D103:D104">
-    <cfRule type="expression" dxfId="123" priority="178">
-      <formula>OR($C103="X",$C103="x")</formula>
+  <conditionalFormatting sqref="D104:D105">
+    <cfRule type="expression" dxfId="125" priority="180">
+      <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:J44">
-    <cfRule type="expression" dxfId="122" priority="175">
+    <cfRule type="expression" dxfId="124" priority="177">
       <formula>AND($J42="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="176">
+    <cfRule type="expression" dxfId="123" priority="178">
       <formula>AND($I42&lt;&gt;"",AND($I42&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L44 C42:F44">
-    <cfRule type="expression" dxfId="120" priority="177">
+    <cfRule type="expression" dxfId="122" priority="179">
       <formula>OR($C42="X",$C42="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H94">
-    <cfRule type="expression" dxfId="119" priority="173">
-      <formula>OR($C94="X",$C94="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="expression" dxfId="118" priority="172">
+    <cfRule type="expression" dxfId="121" priority="175">
       <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H95">
-    <cfRule type="expression" dxfId="117" priority="171">
-      <formula>OR($C95="X",$C95="x")</formula>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="expression" dxfId="120" priority="174">
+      <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F86">
-    <cfRule type="expression" dxfId="116" priority="170">
-      <formula>OR($C86="X",$C86="x")</formula>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="expression" dxfId="119" priority="173">
+      <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="115" priority="169">
-      <formula>OR($C86="X",$C86="x")</formula>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="expression" dxfId="118" priority="172">
+      <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="114" priority="168">
-      <formula>OR($C88="X",$C88="x")</formula>
+  <conditionalFormatting sqref="E87">
+    <cfRule type="expression" dxfId="117" priority="171">
+      <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="113" priority="167">
-      <formula>OR($C88="X",$C88="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89:F90">
-    <cfRule type="expression" dxfId="112" priority="164">
+  <conditionalFormatting sqref="F89">
+    <cfRule type="expression" dxfId="116" priority="170">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E89:E90">
-    <cfRule type="expression" dxfId="111" priority="163">
+  <conditionalFormatting sqref="E89">
+    <cfRule type="expression" dxfId="115" priority="169">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F94">
-    <cfRule type="expression" dxfId="110" priority="162">
-      <formula>OR($C94="X",$C94="x")</formula>
+  <conditionalFormatting sqref="F90:F91">
+    <cfRule type="expression" dxfId="114" priority="166">
+      <formula>OR($C90="X",$C90="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E94">
-    <cfRule type="expression" dxfId="109" priority="161">
-      <formula>OR($C94="X",$C94="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F91:F93">
-    <cfRule type="expression" dxfId="108" priority="160">
-      <formula>OR($C91="X",$C91="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E91:E93">
-    <cfRule type="expression" dxfId="107" priority="159">
-      <formula>OR($C91="X",$C91="x")</formula>
+  <conditionalFormatting sqref="E90:E91">
+    <cfRule type="expression" dxfId="113" priority="165">
+      <formula>OR($C90="X",$C90="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="expression" dxfId="106" priority="158">
+    <cfRule type="expression" dxfId="112" priority="164">
       <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
+    <cfRule type="expression" dxfId="111" priority="163">
+      <formula>OR($C95="X",$C95="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F92:F94">
+    <cfRule type="expression" dxfId="110" priority="162">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E92:E94">
+    <cfRule type="expression" dxfId="109" priority="161">
+      <formula>OR($C92="X",$C92="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F96">
+    <cfRule type="expression" dxfId="108" priority="160">
+      <formula>OR($C96="X",$C96="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E96">
+    <cfRule type="expression" dxfId="107" priority="159">
+      <formula>OR($C96="X",$C96="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F98">
+    <cfRule type="expression" dxfId="106" priority="158">
+      <formula>OR($C98="X",$C98="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E98">
     <cfRule type="expression" dxfId="105" priority="157">
-      <formula>OR($C95="X",$C95="x")</formula>
+      <formula>OR($C98="X",$C98="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
@@ -57984,24 +58478,24 @@
       <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F96">
+  <conditionalFormatting sqref="F99">
     <cfRule type="expression" dxfId="102" priority="154">
-      <formula>OR($C96="X",$C96="x")</formula>
+      <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E96">
+  <conditionalFormatting sqref="E99">
     <cfRule type="expression" dxfId="101" priority="153">
-      <formula>OR($C96="X",$C96="x")</formula>
+      <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F98">
+  <conditionalFormatting sqref="F101">
     <cfRule type="expression" dxfId="100" priority="152">
-      <formula>OR($C98="X",$C98="x")</formula>
+      <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E98">
+  <conditionalFormatting sqref="E101">
     <cfRule type="expression" dxfId="99" priority="151">
-      <formula>OR($C98="X",$C98="x")</formula>
+      <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
@@ -58014,449 +58508,449 @@
       <formula>OR($C100="X",$C100="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F99">
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="96" priority="148">
-      <formula>OR($C99="X",$C99="x")</formula>
+      <formula>OR($C50="X",$C50="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="95" priority="147">
-      <formula>OR($C99="X",$C99="x")</formula>
+  <conditionalFormatting sqref="I88:J88">
+    <cfRule type="expression" dxfId="95" priority="144">
+      <formula>AND($J88="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="145">
+      <formula>AND($I88&lt;&gt;"",AND($I88&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49">
-    <cfRule type="expression" dxfId="94" priority="146">
-      <formula>OR($C49="X",$C49="x")</formula>
+  <conditionalFormatting sqref="H88:L88 C88">
+    <cfRule type="expression" dxfId="93" priority="146">
+      <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:J87">
-    <cfRule type="expression" dxfId="93" priority="142">
-      <formula>AND($J87="F")</formula>
-    </cfRule>
+  <conditionalFormatting sqref="D88">
     <cfRule type="expression" dxfId="92" priority="143">
-      <formula>AND($I87&lt;&gt;"",AND($I87&lt;TODAY()))</formula>
+      <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87:L87 C87">
-    <cfRule type="expression" dxfId="91" priority="144">
-      <formula>OR($C87="X",$C87="x")</formula>
+  <conditionalFormatting sqref="I88:J88">
+    <cfRule type="expression" dxfId="91" priority="140">
+      <formula>AND($J88="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="141">
+      <formula>AND($I88&lt;&gt;"",AND($I88&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="expression" dxfId="90" priority="141">
-      <formula>OR($C87="X",$C87="x")</formula>
+  <conditionalFormatting sqref="C88 H88:L88">
+    <cfRule type="expression" dxfId="89" priority="142">
+      <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I87:J87">
-    <cfRule type="expression" dxfId="89" priority="138">
-      <formula>AND($J87="F")</formula>
-    </cfRule>
+  <conditionalFormatting sqref="D88">
     <cfRule type="expression" dxfId="88" priority="139">
-      <formula>AND($I87&lt;&gt;"",AND($I87&lt;TODAY()))</formula>
+      <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87 H87:L87">
-    <cfRule type="expression" dxfId="87" priority="140">
-      <formula>OR($C87="X",$C87="x")</formula>
+  <conditionalFormatting sqref="F88">
+    <cfRule type="expression" dxfId="87" priority="138">
+      <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
+  <conditionalFormatting sqref="E88">
     <cfRule type="expression" dxfId="86" priority="137">
-      <formula>OR($C87="X",$C87="x")</formula>
+      <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="expression" dxfId="85" priority="136">
-      <formula>OR($C87="X",$C87="x")</formula>
+  <conditionalFormatting sqref="I107:J107">
+    <cfRule type="expression" dxfId="85" priority="130">
+      <formula>AND($J107="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="131">
+      <formula>AND($I107&lt;&gt;"",AND($I107&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="84" priority="135">
-      <formula>OR($C87="X",$C87="x")</formula>
+  <conditionalFormatting sqref="C107 F107:L107 G108">
+    <cfRule type="expression" dxfId="83" priority="132">
+      <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I106:J106">
-    <cfRule type="expression" dxfId="83" priority="128">
-      <formula>AND($J106="F")</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E107">
     <cfRule type="expression" dxfId="82" priority="129">
-      <formula>AND($I106&lt;&gt;"",AND($I106&lt;TODAY()))</formula>
+      <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106 F106:L106">
-    <cfRule type="expression" dxfId="81" priority="130">
-      <formula>OR($C106="X",$C106="x")</formula>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="expression" dxfId="81" priority="127">
+      <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="80" priority="127">
-      <formula>OR($C106="X",$C106="x")</formula>
+  <conditionalFormatting sqref="I107:J107">
+    <cfRule type="expression" dxfId="80" priority="121">
+      <formula>AND($J107="F")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="122">
+      <formula>AND($I107&lt;&gt;"",AND($I107&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="79" priority="125">
-      <formula>OR($C106="X",$C106="x")</formula>
+  <conditionalFormatting sqref="C107 F107:L107 G108">
+    <cfRule type="expression" dxfId="78" priority="123">
+      <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I106:J106">
-    <cfRule type="expression" dxfId="78" priority="119">
-      <formula>AND($J106="F")</formula>
-    </cfRule>
+  <conditionalFormatting sqref="E107">
     <cfRule type="expression" dxfId="77" priority="120">
-      <formula>AND($I106&lt;&gt;"",AND($I106&lt;TODAY()))</formula>
+      <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106 F106:L106">
-    <cfRule type="expression" dxfId="76" priority="121">
-      <formula>OR($C106="X",$C106="x")</formula>
+  <conditionalFormatting sqref="D107">
+    <cfRule type="expression" dxfId="76" priority="119">
+      <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106">
-    <cfRule type="expression" dxfId="75" priority="118">
-      <formula>OR($C106="X",$C106="x")</formula>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="expression" dxfId="75" priority="781">
+      <formula>OR($C70="X",$C70="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D106">
-    <cfRule type="expression" dxfId="74" priority="117">
-      <formula>OR($C106="X",$C106="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D70">
-    <cfRule type="expression" dxfId="73" priority="779">
-      <formula>OR($C69="X",$C69="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M69:PB69">
-    <cfRule type="expression" dxfId="72" priority="114">
+  <conditionalFormatting sqref="M70:PB70">
+    <cfRule type="expression" dxfId="74" priority="116">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M69:PB69">
-    <cfRule type="expression" dxfId="71" priority="116">
+  <conditionalFormatting sqref="M70:PB70">
+    <cfRule type="expression" dxfId="73" priority="118">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M69:PB69">
-    <cfRule type="expression" dxfId="70" priority="109">
-      <formula>OR($C69="X",$C69="x")</formula>
+  <conditionalFormatting sqref="M70:PB70">
+    <cfRule type="expression" dxfId="72" priority="111">
+      <formula>OR($C70="X",$C70="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M69:PB69">
-    <cfRule type="expression" dxfId="69" priority="115">
+  <conditionalFormatting sqref="M70:PB70">
+    <cfRule type="expression" dxfId="71" priority="117">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I69:J69">
-    <cfRule type="expression" dxfId="68" priority="106">
-      <formula>AND($J69="F")</formula>
+  <conditionalFormatting sqref="I70:J70">
+    <cfRule type="expression" dxfId="70" priority="108">
+      <formula>AND($J70="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="107">
-      <formula>AND($I69&lt;&gt;"",AND($I69&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="69" priority="109">
+      <formula>AND($I70&lt;&gt;"",AND($I70&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69:L69">
-    <cfRule type="expression" dxfId="66" priority="112">
-      <formula>OR($C69="X",$C69="x")</formula>
+  <conditionalFormatting sqref="C70:L70">
+    <cfRule type="expression" dxfId="68" priority="114">
+      <formula>OR($C70="X",$C70="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M66:PB66">
-    <cfRule type="expression" dxfId="65" priority="77">
+  <conditionalFormatting sqref="M67:PB67">
+    <cfRule type="expression" dxfId="67" priority="79">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M66:PB66">
-    <cfRule type="expression" dxfId="64" priority="79">
+  <conditionalFormatting sqref="M67:PB67">
+    <cfRule type="expression" dxfId="66" priority="81">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M66:PB66">
-    <cfRule type="expression" dxfId="63" priority="73">
-      <formula>OR($C66="X",$C66="x")</formula>
+  <conditionalFormatting sqref="M67:PB67">
+    <cfRule type="expression" dxfId="65" priority="75">
+      <formula>OR($C67="X",$C67="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M66:PB66">
-    <cfRule type="expression" dxfId="62" priority="78">
+  <conditionalFormatting sqref="M67:PB67">
+    <cfRule type="expression" dxfId="64" priority="80">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G66">
-    <cfRule type="expression" dxfId="61" priority="70">
-      <formula>OR($C66="X",$C66="x")</formula>
+  <conditionalFormatting sqref="G67">
+    <cfRule type="expression" dxfId="63" priority="72">
+      <formula>OR($C67="X",$C67="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:J66">
-    <cfRule type="expression" dxfId="60" priority="67">
-      <formula>AND($J66="F")</formula>
+  <conditionalFormatting sqref="I67:J67">
+    <cfRule type="expression" dxfId="62" priority="69">
+      <formula>AND($J67="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="68">
-      <formula>AND($I66&lt;&gt;"",AND($I66&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="61" priority="70">
+      <formula>AND($I67&lt;&gt;"",AND($I67&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66:L66 C66:F66">
-    <cfRule type="expression" dxfId="58" priority="69">
-      <formula>OR($C66="X",$C66="x")</formula>
+  <conditionalFormatting sqref="H67:L67 C67:F67">
+    <cfRule type="expression" dxfId="60" priority="71">
+      <formula>OR($C67="X",$C67="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M60:PB60">
-    <cfRule type="expression" dxfId="57" priority="64">
+  <conditionalFormatting sqref="M61:PB61">
+    <cfRule type="expression" dxfId="59" priority="66">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M60:PB60">
-    <cfRule type="expression" dxfId="56" priority="66">
+  <conditionalFormatting sqref="M61:PB61">
+    <cfRule type="expression" dxfId="58" priority="68">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M60:PB60">
-    <cfRule type="expression" dxfId="55" priority="60">
-      <formula>OR($C60="X",$C60="x")</formula>
+  <conditionalFormatting sqref="M61:PB61">
+    <cfRule type="expression" dxfId="57" priority="62">
+      <formula>OR($C61="X",$C61="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M60:PB60">
-    <cfRule type="expression" dxfId="54" priority="65">
+  <conditionalFormatting sqref="M61:PB61">
+    <cfRule type="expression" dxfId="56" priority="67">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
-    <cfRule type="expression" dxfId="53" priority="57">
-      <formula>OR($C60="X",$C60="x")</formula>
+  <conditionalFormatting sqref="G61">
+    <cfRule type="expression" dxfId="55" priority="59">
+      <formula>OR($C61="X",$C61="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I60:J60">
-    <cfRule type="expression" dxfId="52" priority="54">
-      <formula>AND($J60="F")</formula>
+  <conditionalFormatting sqref="I61:J61">
+    <cfRule type="expression" dxfId="54" priority="56">
+      <formula>AND($J61="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="55">
-      <formula>AND($I60&lt;&gt;"",AND($I60&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="53" priority="57">
+      <formula>AND($I61&lt;&gt;"",AND($I61&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60:L60 C60:F60">
-    <cfRule type="expression" dxfId="50" priority="56">
-      <formula>OR($C60="X",$C60="x")</formula>
+  <conditionalFormatting sqref="H61:L61 C61:F61">
+    <cfRule type="expression" dxfId="52" priority="58">
+      <formula>OR($C61="X",$C61="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:PB55">
-    <cfRule type="expression" dxfId="49" priority="51">
+  <conditionalFormatting sqref="M56:PB56">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:PB55">
-    <cfRule type="expression" dxfId="48" priority="53">
+  <conditionalFormatting sqref="M56:PB56">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:PB55">
-    <cfRule type="expression" dxfId="47" priority="47">
-      <formula>OR($C55="X",$C55="x")</formula>
+  <conditionalFormatting sqref="M56:PB56">
+    <cfRule type="expression" dxfId="49" priority="49">
+      <formula>OR($C56="X",$C56="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M55:PB55">
-    <cfRule type="expression" dxfId="46" priority="52">
+  <conditionalFormatting sqref="M56:PB56">
+    <cfRule type="expression" dxfId="48" priority="54">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G55">
-    <cfRule type="expression" dxfId="45" priority="44">
-      <formula>OR($C55="X",$C55="x")</formula>
+  <conditionalFormatting sqref="G56">
+    <cfRule type="expression" dxfId="47" priority="46">
+      <formula>OR($C56="X",$C56="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:J55">
-    <cfRule type="expression" dxfId="44" priority="41">
-      <formula>AND($J55="F")</formula>
+  <conditionalFormatting sqref="I56:J56">
+    <cfRule type="expression" dxfId="46" priority="43">
+      <formula>AND($J56="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="42">
-      <formula>AND($I55&lt;&gt;"",AND($I55&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="45" priority="44">
+      <formula>AND($I56&lt;&gt;"",AND($I56&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55:L55 C55:F55">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>OR($C55="X",$C55="x")</formula>
+  <conditionalFormatting sqref="H56:L56 C56:F56">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>OR($C56="X",$C56="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="41" priority="38">
+    <cfRule type="expression" dxfId="43" priority="40">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="40" priority="32">
+    <cfRule type="expression" dxfId="42" priority="34">
       <formula>AND($I45=M$13,$J45&lt;&gt;"F",$I45&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="33">
+    <cfRule type="expression" dxfId="41" priority="35">
       <formula>AND($I45=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="35">
+    <cfRule type="expression" dxfId="40" priority="37">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="37">
+    <cfRule type="expression" dxfId="39" priority="39">
       <formula>AND($G45&lt;&gt;"",AND(M$13&gt;=$E45,M$13&lt;=$G45))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="38" priority="38">
       <formula>AND($H45&gt;0,AND(M$13&gt;=$E45,M$13&lt;=$E45+($G45-$E45)*$H45))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="35" priority="40">
+    <cfRule type="expression" dxfId="37" priority="42">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="34" priority="34">
+    <cfRule type="expression" dxfId="36" priority="36">
       <formula>OR($C45="X",$C45="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="35" priority="41">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="34" priority="33">
       <formula>OR($C45="X",$C45="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="expression" dxfId="31" priority="28">
+    <cfRule type="expression" dxfId="33" priority="30">
       <formula>AND($J45="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="29">
+    <cfRule type="expression" dxfId="32" priority="31">
       <formula>AND($I45&lt;&gt;"",AND($I45&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:L45 C45:F45">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="31" priority="32">
       <formula>OR($C45="X",$C45="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
-    <cfRule type="expression" dxfId="28" priority="781">
-      <formula>OR($C70="X",$C70="x")</formula>
+  <conditionalFormatting sqref="D73">
+    <cfRule type="expression" dxfId="30" priority="783">
+      <formula>OR($C71="X",$C71="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M71:PB71">
-    <cfRule type="expression" dxfId="27" priority="25">
+  <conditionalFormatting sqref="M72:PB72">
+    <cfRule type="expression" dxfId="29" priority="27">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M71:PB71">
-    <cfRule type="expression" dxfId="26" priority="27">
+  <conditionalFormatting sqref="M72:PB72">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M71:PB71">
-    <cfRule type="expression" dxfId="25" priority="20">
-      <formula>OR($C71="X",$C71="x")</formula>
+  <conditionalFormatting sqref="M72:PB72">
+    <cfRule type="expression" dxfId="27" priority="22">
+      <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M71:PB71">
-    <cfRule type="expression" dxfId="24" priority="26">
+  <conditionalFormatting sqref="M72:PB72">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I71:J71">
-    <cfRule type="expression" dxfId="23" priority="17">
-      <formula>AND($J71="F")</formula>
+  <conditionalFormatting sqref="I72:J72">
+    <cfRule type="expression" dxfId="25" priority="19">
+      <formula>AND($J72="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
-      <formula>AND($I71&lt;&gt;"",AND($I71&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="24" priority="20">
+      <formula>AND($I72&lt;&gt;"",AND($I72&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C71:L71">
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>OR($C71="X",$C71="x")</formula>
+  <conditionalFormatting sqref="C72:L72">
+    <cfRule type="expression" dxfId="23" priority="25">
+      <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M73:PB73">
-    <cfRule type="expression" dxfId="20" priority="8">
+  <conditionalFormatting sqref="M74:PB74">
+    <cfRule type="expression" dxfId="22" priority="10">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M73:PB73">
-    <cfRule type="expression" dxfId="19" priority="10">
+  <conditionalFormatting sqref="M74:PB74">
+    <cfRule type="expression" dxfId="21" priority="12">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M73:PB73">
-    <cfRule type="expression" dxfId="18" priority="7">
-      <formula>OR($C73="X",$C73="x")</formula>
+  <conditionalFormatting sqref="M74:PB74">
+    <cfRule type="expression" dxfId="20" priority="9">
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M73:PB73">
-    <cfRule type="expression" dxfId="17" priority="9">
+  <conditionalFormatting sqref="M74:PB74">
+    <cfRule type="expression" dxfId="19" priority="11">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G73">
-    <cfRule type="expression" dxfId="16" priority="6">
-      <formula>OR($C73="X",$C73="x")</formula>
+  <conditionalFormatting sqref="G74">
+    <cfRule type="expression" dxfId="18" priority="8">
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I73:J73">
-    <cfRule type="expression" dxfId="15" priority="3">
-      <formula>AND($J73="F")</formula>
+  <conditionalFormatting sqref="I74:J74">
+    <cfRule type="expression" dxfId="17" priority="5">
+      <formula>AND($J74="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4">
-      <formula>AND($I73&lt;&gt;"",AND($I73&lt;TODAY()))</formula>
+    <cfRule type="expression" dxfId="16" priority="6">
+      <formula>AND($I74&lt;&gt;"",AND($I74&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73:L73 C73:F73">
-    <cfRule type="expression" dxfId="13" priority="5">
-      <formula>OR($C73="X",$C73="x")</formula>
+  <conditionalFormatting sqref="H74:L74 C74:F74">
+    <cfRule type="expression" dxfId="15" priority="7">
+      <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E63:F63">
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>OR($C63="X",$C63="x")</formula>
+  <conditionalFormatting sqref="E64:F64">
+    <cfRule type="expression" dxfId="14" priority="4">
+      <formula>OR($C64="X",$C64="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K63:L63">
-    <cfRule type="expression" dxfId="11" priority="1">
-      <formula>OR($C63="X",$C63="x")</formula>
+  <conditionalFormatting sqref="K64:L64">
+    <cfRule type="expression" dxfId="13" priority="3">
+      <formula>OR($C64="X",$C64="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M108:PB118">
-    <cfRule type="expression" dxfId="10" priority="786">
-      <formula>AND($I107=M$13,$J107&lt;&gt;"F",$I107&lt;TODAY())</formula>
+  <conditionalFormatting sqref="M109:PB119">
+    <cfRule type="expression" dxfId="12" priority="788">
+      <formula>AND($I108=M$13,$J108&lt;&gt;"F",$I108&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="787">
-      <formula>AND($I107=M$13)</formula>
+    <cfRule type="expression" dxfId="11" priority="789">
+      <formula>AND($I108=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="788">
+    <cfRule type="expression" dxfId="10" priority="790">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="789">
-      <formula>AND($G107&lt;&gt;"",AND(M$13&gt;=$E107,M$13&lt;=$G107))</formula>
+    <cfRule type="expression" dxfId="9" priority="791">
+      <formula>AND($G108&lt;&gt;"",AND(M$13&gt;=$E108,M$13&lt;=$G108))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M107:PB107">
-    <cfRule type="expression" dxfId="6" priority="790">
+  <conditionalFormatting sqref="M108:PB108">
+    <cfRule type="expression" dxfId="8" priority="792">
       <formula>AND(#REF!=M$13,#REF!&lt;&gt;"F",#REF!&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="791">
+    <cfRule type="expression" dxfId="7" priority="793">
       <formula>AND(#REF!=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="792">
+    <cfRule type="expression" dxfId="6" priority="794">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="793">
+    <cfRule type="expression" dxfId="5" priority="795">
       <formula>AND(#REF!&lt;&gt;"",AND(M$13&gt;=#REF!,M$13&lt;=#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M108:PB118">
-    <cfRule type="expression" dxfId="2" priority="799">
-      <formula>AND($H107&gt;0,AND(M$13&gt;=$E107,M$13&lt;=$E107+($G107-$E107)*$H107))</formula>
+  <conditionalFormatting sqref="M109:PB119">
+    <cfRule type="expression" dxfId="4" priority="801">
+      <formula>AND($H108&gt;0,AND(M$13&gt;=$E108,M$13&lt;=$E108+($G108-$E108)*$H108))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M107:PB107">
-    <cfRule type="expression" dxfId="1" priority="800">
+  <conditionalFormatting sqref="M108:PB108">
+    <cfRule type="expression" dxfId="3" priority="802">
       <formula>AND(#REF!&gt;0,AND(M$13&gt;=#REF!,M$13&lt;=#REF!+(#REF!-#REF!)*#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M107:PB107">
-    <cfRule type="expression" dxfId="0" priority="803">
+  <conditionalFormatting sqref="M108:PB108">
+    <cfRule type="expression" dxfId="2" priority="805">
       <formula>OR(#REF!="X",#REF!="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>OR($C108="X",$C108="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
+++ b/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
@@ -1979,40 +1979,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="30" fillId="17" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="30" fillId="17" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="30" fillId="12" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="2" fontId="30" fillId="12" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2023,14 +2004,22 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -2048,6 +2037,24 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2099,38 +2106,31 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="17" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="17" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="30" fillId="12" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="30" fillId="12" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2138,7 +2138,7 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="282">
+  <dxfs count="280">
     <dxf>
       <font>
         <color theme="1"/>
@@ -3498,16 +3498,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF5B5B"/>
         </patternFill>
       </fill>
@@ -4408,16 +4398,6 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF5B5B"/>
         </patternFill>
       </fill>
@@ -5212,7 +5192,7 @@
   <dimension ref="A1:PB121"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane xSplit="12" ySplit="14" topLeftCell="M35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="14" topLeftCell="M20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
       <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
@@ -5238,47 +5218,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="145" t="s">
+      <c r="B1" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="150"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
       <c r="J2" s="6"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="167"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="169" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="170"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="141"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11" t="s">
@@ -5294,18 +5274,18 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="147" t="s">
+      <c r="B4" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="148"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="150" t="s">
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="151"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="146"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
@@ -5316,18 +5296,18 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="150" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="145" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="151"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="146"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="13" t="s">
@@ -5338,18 +5318,18 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="142" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="152" t="s">
+      <c r="C6" s="143"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="154"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
@@ -5357,1232 +5337,1232 @@
       </c>
     </row>
     <row r="7" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="154" t="s">
+      <c r="B7" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="156"/>
-      <c r="E7" s="157" t="s">
+      <c r="C7" s="156"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="158" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
-      <c r="I7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="159"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="2:418" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="163"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="165"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="160"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="161"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
       <c r="L8" s="20"/>
       <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="140"/>
+      <c r="C9" s="172"/>
       <c r="D9" s="22">
         <f ca="1">TODAY()</f>
-        <v>43082</v>
-      </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="162"/>
+        <v>43084</v>
+      </c>
+      <c r="E9" s="162"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="163"/>
       <c r="J9" s="17"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="144" t="str">
+      <c r="M9" s="152" t="str">
         <f>TEXT(P13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="N9" s="142"/>
-      <c r="O9" s="142"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="144" t="str">
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="135"/>
+      <c r="Q9" s="135"/>
+      <c r="R9" s="135"/>
+      <c r="S9" s="136"/>
+      <c r="T9" s="152" t="str">
         <f>TEXT(W13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="U9" s="142"/>
-      <c r="V9" s="142"/>
-      <c r="W9" s="142"/>
-      <c r="X9" s="142"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="143"/>
-      <c r="AA9" s="144" t="str">
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="136"/>
+      <c r="AA9" s="152" t="str">
         <f t="shared" ref="AA9" si="0">TEXT(AD13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AB9" s="142"/>
-      <c r="AC9" s="142"/>
-      <c r="AD9" s="142"/>
-      <c r="AE9" s="142"/>
-      <c r="AF9" s="142"/>
-      <c r="AG9" s="143"/>
-      <c r="AH9" s="144" t="str">
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="135"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="152" t="str">
         <f t="shared" ref="AH9" si="1">TEXT(AK13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AI9" s="142"/>
-      <c r="AJ9" s="142"/>
-      <c r="AK9" s="142"/>
-      <c r="AL9" s="142"/>
-      <c r="AM9" s="142"/>
-      <c r="AN9" s="143"/>
-      <c r="AO9" s="144" t="str">
+      <c r="AI9" s="135"/>
+      <c r="AJ9" s="135"/>
+      <c r="AK9" s="135"/>
+      <c r="AL9" s="135"/>
+      <c r="AM9" s="135"/>
+      <c r="AN9" s="136"/>
+      <c r="AO9" s="152" t="str">
         <f t="shared" ref="AO9" si="2">TEXT(AR13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AP9" s="142"/>
-      <c r="AQ9" s="142"/>
-      <c r="AR9" s="142"/>
-      <c r="AS9" s="142"/>
-      <c r="AT9" s="142"/>
-      <c r="AU9" s="143"/>
-      <c r="AV9" s="144" t="str">
+      <c r="AP9" s="135"/>
+      <c r="AQ9" s="135"/>
+      <c r="AR9" s="135"/>
+      <c r="AS9" s="135"/>
+      <c r="AT9" s="135"/>
+      <c r="AU9" s="136"/>
+      <c r="AV9" s="152" t="str">
         <f t="shared" ref="AV9" si="3">TEXT(AY13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AW9" s="142"/>
-      <c r="AX9" s="142"/>
-      <c r="AY9" s="142"/>
-      <c r="AZ9" s="142"/>
-      <c r="BA9" s="142"/>
-      <c r="BB9" s="143"/>
-      <c r="BC9" s="144" t="str">
+      <c r="AW9" s="135"/>
+      <c r="AX9" s="135"/>
+      <c r="AY9" s="135"/>
+      <c r="AZ9" s="135"/>
+      <c r="BA9" s="135"/>
+      <c r="BB9" s="136"/>
+      <c r="BC9" s="152" t="str">
         <f t="shared" ref="BC9" si="4">TEXT(BF13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BD9" s="142"/>
-      <c r="BE9" s="142"/>
-      <c r="BF9" s="142"/>
-      <c r="BG9" s="142"/>
-      <c r="BH9" s="142"/>
-      <c r="BI9" s="143"/>
-      <c r="BJ9" s="144" t="str">
+      <c r="BD9" s="135"/>
+      <c r="BE9" s="135"/>
+      <c r="BF9" s="135"/>
+      <c r="BG9" s="135"/>
+      <c r="BH9" s="135"/>
+      <c r="BI9" s="136"/>
+      <c r="BJ9" s="152" t="str">
         <f t="shared" ref="BJ9" si="5">TEXT(BM13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BK9" s="142"/>
-      <c r="BL9" s="142"/>
-      <c r="BM9" s="142"/>
-      <c r="BN9" s="142"/>
-      <c r="BO9" s="142"/>
-      <c r="BP9" s="143"/>
-      <c r="BQ9" s="144" t="str">
+      <c r="BK9" s="135"/>
+      <c r="BL9" s="135"/>
+      <c r="BM9" s="135"/>
+      <c r="BN9" s="135"/>
+      <c r="BO9" s="135"/>
+      <c r="BP9" s="136"/>
+      <c r="BQ9" s="152" t="str">
         <f t="shared" ref="BQ9" si="6">TEXT(BT13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BR9" s="142"/>
-      <c r="BS9" s="142"/>
-      <c r="BT9" s="142"/>
-      <c r="BU9" s="142"/>
-      <c r="BV9" s="142"/>
-      <c r="BW9" s="143"/>
-      <c r="BX9" s="144" t="str">
+      <c r="BR9" s="135"/>
+      <c r="BS9" s="135"/>
+      <c r="BT9" s="135"/>
+      <c r="BU9" s="135"/>
+      <c r="BV9" s="135"/>
+      <c r="BW9" s="136"/>
+      <c r="BX9" s="152" t="str">
         <f t="shared" ref="BX9" si="7">TEXT(CA13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BY9" s="142"/>
-      <c r="BZ9" s="142"/>
-      <c r="CA9" s="142"/>
-      <c r="CB9" s="142"/>
-      <c r="CC9" s="142"/>
-      <c r="CD9" s="143"/>
-      <c r="CE9" s="144" t="str">
+      <c r="BY9" s="135"/>
+      <c r="BZ9" s="135"/>
+      <c r="CA9" s="135"/>
+      <c r="CB9" s="135"/>
+      <c r="CC9" s="135"/>
+      <c r="CD9" s="136"/>
+      <c r="CE9" s="152" t="str">
         <f t="shared" ref="CE9" si="8">TEXT(CH13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="CF9" s="142"/>
-      <c r="CG9" s="142"/>
-      <c r="CH9" s="142"/>
-      <c r="CI9" s="142"/>
-      <c r="CJ9" s="142"/>
-      <c r="CK9" s="143"/>
-      <c r="CL9" s="144" t="str">
+      <c r="CF9" s="135"/>
+      <c r="CG9" s="135"/>
+      <c r="CH9" s="135"/>
+      <c r="CI9" s="135"/>
+      <c r="CJ9" s="135"/>
+      <c r="CK9" s="136"/>
+      <c r="CL9" s="152" t="str">
         <f t="shared" ref="CL9" si="9">TEXT(CO13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CM9" s="142"/>
-      <c r="CN9" s="142"/>
-      <c r="CO9" s="142"/>
-      <c r="CP9" s="142"/>
-      <c r="CQ9" s="142"/>
-      <c r="CR9" s="143"/>
-      <c r="CS9" s="144" t="str">
+      <c r="CM9" s="135"/>
+      <c r="CN9" s="135"/>
+      <c r="CO9" s="135"/>
+      <c r="CP9" s="135"/>
+      <c r="CQ9" s="135"/>
+      <c r="CR9" s="136"/>
+      <c r="CS9" s="152" t="str">
         <f t="shared" ref="CS9" si="10">TEXT(CV13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CT9" s="142"/>
-      <c r="CU9" s="142"/>
-      <c r="CV9" s="142"/>
-      <c r="CW9" s="142"/>
-      <c r="CX9" s="142"/>
-      <c r="CY9" s="143"/>
-      <c r="CZ9" s="144" t="str">
+      <c r="CT9" s="135"/>
+      <c r="CU9" s="135"/>
+      <c r="CV9" s="135"/>
+      <c r="CW9" s="135"/>
+      <c r="CX9" s="135"/>
+      <c r="CY9" s="136"/>
+      <c r="CZ9" s="152" t="str">
         <f t="shared" ref="CZ9" si="11">TEXT(DC13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DA9" s="142"/>
-      <c r="DB9" s="142"/>
-      <c r="DC9" s="142"/>
-      <c r="DD9" s="142"/>
-      <c r="DE9" s="142"/>
-      <c r="DF9" s="143"/>
-      <c r="DG9" s="144" t="str">
+      <c r="DA9" s="135"/>
+      <c r="DB9" s="135"/>
+      <c r="DC9" s="135"/>
+      <c r="DD9" s="135"/>
+      <c r="DE9" s="135"/>
+      <c r="DF9" s="136"/>
+      <c r="DG9" s="152" t="str">
         <f t="shared" ref="DG9" si="12">TEXT(DJ13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DH9" s="142"/>
-      <c r="DI9" s="142"/>
-      <c r="DJ9" s="142"/>
-      <c r="DK9" s="142"/>
-      <c r="DL9" s="142"/>
-      <c r="DM9" s="143"/>
-      <c r="DN9" s="144" t="str">
+      <c r="DH9" s="135"/>
+      <c r="DI9" s="135"/>
+      <c r="DJ9" s="135"/>
+      <c r="DK9" s="135"/>
+      <c r="DL9" s="135"/>
+      <c r="DM9" s="136"/>
+      <c r="DN9" s="152" t="str">
         <f t="shared" ref="DN9" si="13">TEXT(DQ13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DO9" s="142"/>
-      <c r="DP9" s="142"/>
-      <c r="DQ9" s="142"/>
-      <c r="DR9" s="142"/>
-      <c r="DS9" s="142"/>
-      <c r="DT9" s="143"/>
-      <c r="DU9" s="144" t="str">
+      <c r="DO9" s="135"/>
+      <c r="DP9" s="135"/>
+      <c r="DQ9" s="135"/>
+      <c r="DR9" s="135"/>
+      <c r="DS9" s="135"/>
+      <c r="DT9" s="136"/>
+      <c r="DU9" s="152" t="str">
         <f t="shared" ref="DU9" si="14">TEXT(DX13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DV9" s="142"/>
-      <c r="DW9" s="142"/>
-      <c r="DX9" s="142"/>
-      <c r="DY9" s="142"/>
-      <c r="DZ9" s="142"/>
-      <c r="EA9" s="143"/>
-      <c r="EB9" s="144" t="str">
+      <c r="DV9" s="135"/>
+      <c r="DW9" s="135"/>
+      <c r="DX9" s="135"/>
+      <c r="DY9" s="135"/>
+      <c r="DZ9" s="135"/>
+      <c r="EA9" s="136"/>
+      <c r="EB9" s="152" t="str">
         <f t="shared" ref="EB9" si="15">TEXT(EE13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EC9" s="142"/>
-      <c r="ED9" s="142"/>
-      <c r="EE9" s="142"/>
-      <c r="EF9" s="142"/>
-      <c r="EG9" s="142"/>
-      <c r="EH9" s="143"/>
-      <c r="EI9" s="144" t="str">
+      <c r="EC9" s="135"/>
+      <c r="ED9" s="135"/>
+      <c r="EE9" s="135"/>
+      <c r="EF9" s="135"/>
+      <c r="EG9" s="135"/>
+      <c r="EH9" s="136"/>
+      <c r="EI9" s="152" t="str">
         <f t="shared" ref="EI9" si="16">TEXT(EL13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EJ9" s="142"/>
-      <c r="EK9" s="142"/>
-      <c r="EL9" s="142"/>
-      <c r="EM9" s="142"/>
-      <c r="EN9" s="142"/>
-      <c r="EO9" s="143"/>
-      <c r="EP9" s="144" t="str">
+      <c r="EJ9" s="135"/>
+      <c r="EK9" s="135"/>
+      <c r="EL9" s="135"/>
+      <c r="EM9" s="135"/>
+      <c r="EN9" s="135"/>
+      <c r="EO9" s="136"/>
+      <c r="EP9" s="152" t="str">
         <f t="shared" ref="EP9" si="17">TEXT(ES13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EQ9" s="142"/>
-      <c r="ER9" s="142"/>
-      <c r="ES9" s="142"/>
-      <c r="ET9" s="142"/>
-      <c r="EU9" s="142"/>
-      <c r="EV9" s="143"/>
-      <c r="EW9" s="144" t="str">
+      <c r="EQ9" s="135"/>
+      <c r="ER9" s="135"/>
+      <c r="ES9" s="135"/>
+      <c r="ET9" s="135"/>
+      <c r="EU9" s="135"/>
+      <c r="EV9" s="136"/>
+      <c r="EW9" s="152" t="str">
         <f t="shared" ref="EW9" si="18">TEXT(EZ13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EX9" s="142"/>
-      <c r="EY9" s="142"/>
-      <c r="EZ9" s="142"/>
-      <c r="FA9" s="142"/>
-      <c r="FB9" s="142"/>
-      <c r="FC9" s="143"/>
-      <c r="FD9" s="144" t="str">
+      <c r="EX9" s="135"/>
+      <c r="EY9" s="135"/>
+      <c r="EZ9" s="135"/>
+      <c r="FA9" s="135"/>
+      <c r="FB9" s="135"/>
+      <c r="FC9" s="136"/>
+      <c r="FD9" s="152" t="str">
         <f t="shared" ref="FD9" si="19">TEXT(FG13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FE9" s="142"/>
-      <c r="FF9" s="142"/>
-      <c r="FG9" s="142"/>
-      <c r="FH9" s="142"/>
-      <c r="FI9" s="142"/>
-      <c r="FJ9" s="143"/>
-      <c r="FK9" s="141" t="str">
+      <c r="FE9" s="135"/>
+      <c r="FF9" s="135"/>
+      <c r="FG9" s="135"/>
+      <c r="FH9" s="135"/>
+      <c r="FI9" s="135"/>
+      <c r="FJ9" s="136"/>
+      <c r="FK9" s="134" t="str">
         <f t="shared" ref="FK9" si="20">TEXT(FN13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FL9" s="142"/>
-      <c r="FM9" s="142"/>
-      <c r="FN9" s="142"/>
-      <c r="FO9" s="142"/>
-      <c r="FP9" s="142"/>
-      <c r="FQ9" s="143"/>
-      <c r="FR9" s="141" t="str">
+      <c r="FL9" s="135"/>
+      <c r="FM9" s="135"/>
+      <c r="FN9" s="135"/>
+      <c r="FO9" s="135"/>
+      <c r="FP9" s="135"/>
+      <c r="FQ9" s="136"/>
+      <c r="FR9" s="134" t="str">
         <f t="shared" ref="FR9" si="21">TEXT(FU13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FS9" s="142"/>
-      <c r="FT9" s="142"/>
-      <c r="FU9" s="142"/>
-      <c r="FV9" s="142"/>
-      <c r="FW9" s="142"/>
-      <c r="FX9" s="143"/>
-      <c r="FY9" s="141" t="str">
+      <c r="FS9" s="135"/>
+      <c r="FT9" s="135"/>
+      <c r="FU9" s="135"/>
+      <c r="FV9" s="135"/>
+      <c r="FW9" s="135"/>
+      <c r="FX9" s="136"/>
+      <c r="FY9" s="134" t="str">
         <f t="shared" ref="FY9" si="22">TEXT(GB13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FZ9" s="142"/>
-      <c r="GA9" s="142"/>
-      <c r="GB9" s="142"/>
-      <c r="GC9" s="142"/>
-      <c r="GD9" s="142"/>
-      <c r="GE9" s="143"/>
-      <c r="GF9" s="141" t="str">
+      <c r="FZ9" s="135"/>
+      <c r="GA9" s="135"/>
+      <c r="GB9" s="135"/>
+      <c r="GC9" s="135"/>
+      <c r="GD9" s="135"/>
+      <c r="GE9" s="136"/>
+      <c r="GF9" s="134" t="str">
         <f t="shared" ref="GF9" si="23">TEXT(GI13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GG9" s="142"/>
-      <c r="GH9" s="142"/>
-      <c r="GI9" s="142"/>
-      <c r="GJ9" s="142"/>
-      <c r="GK9" s="142"/>
-      <c r="GL9" s="143"/>
-      <c r="GM9" s="141" t="str">
+      <c r="GG9" s="135"/>
+      <c r="GH9" s="135"/>
+      <c r="GI9" s="135"/>
+      <c r="GJ9" s="135"/>
+      <c r="GK9" s="135"/>
+      <c r="GL9" s="136"/>
+      <c r="GM9" s="134" t="str">
         <f t="shared" ref="GM9" si="24">TEXT(GP13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GN9" s="142"/>
-      <c r="GO9" s="142"/>
-      <c r="GP9" s="142"/>
-      <c r="GQ9" s="142"/>
-      <c r="GR9" s="142"/>
-      <c r="GS9" s="143"/>
-      <c r="GT9" s="141" t="str">
+      <c r="GN9" s="135"/>
+      <c r="GO9" s="135"/>
+      <c r="GP9" s="135"/>
+      <c r="GQ9" s="135"/>
+      <c r="GR9" s="135"/>
+      <c r="GS9" s="136"/>
+      <c r="GT9" s="134" t="str">
         <f t="shared" ref="GT9" si="25">TEXT(GW13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GU9" s="142"/>
-      <c r="GV9" s="142"/>
-      <c r="GW9" s="142"/>
-      <c r="GX9" s="142"/>
-      <c r="GY9" s="142"/>
-      <c r="GZ9" s="143"/>
-      <c r="HA9" s="141" t="str">
+      <c r="GU9" s="135"/>
+      <c r="GV9" s="135"/>
+      <c r="GW9" s="135"/>
+      <c r="GX9" s="135"/>
+      <c r="GY9" s="135"/>
+      <c r="GZ9" s="136"/>
+      <c r="HA9" s="134" t="str">
         <f t="shared" ref="HA9" si="26">TEXT(HD13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HB9" s="142"/>
-      <c r="HC9" s="142"/>
-      <c r="HD9" s="142"/>
-      <c r="HE9" s="142"/>
-      <c r="HF9" s="142"/>
-      <c r="HG9" s="143"/>
-      <c r="HH9" s="141" t="str">
+      <c r="HB9" s="135"/>
+      <c r="HC9" s="135"/>
+      <c r="HD9" s="135"/>
+      <c r="HE9" s="135"/>
+      <c r="HF9" s="135"/>
+      <c r="HG9" s="136"/>
+      <c r="HH9" s="134" t="str">
         <f t="shared" ref="HH9" si="27">TEXT(HK13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HI9" s="142"/>
-      <c r="HJ9" s="142"/>
-      <c r="HK9" s="142"/>
-      <c r="HL9" s="142"/>
-      <c r="HM9" s="142"/>
-      <c r="HN9" s="143"/>
-      <c r="HO9" s="141" t="str">
+      <c r="HI9" s="135"/>
+      <c r="HJ9" s="135"/>
+      <c r="HK9" s="135"/>
+      <c r="HL9" s="135"/>
+      <c r="HM9" s="135"/>
+      <c r="HN9" s="136"/>
+      <c r="HO9" s="134" t="str">
         <f t="shared" ref="HO9" si="28">TEXT(HR13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HP9" s="142"/>
-      <c r="HQ9" s="142"/>
-      <c r="HR9" s="142"/>
-      <c r="HS9" s="142"/>
-      <c r="HT9" s="142"/>
-      <c r="HU9" s="143"/>
-      <c r="HV9" s="141" t="str">
+      <c r="HP9" s="135"/>
+      <c r="HQ9" s="135"/>
+      <c r="HR9" s="135"/>
+      <c r="HS9" s="135"/>
+      <c r="HT9" s="135"/>
+      <c r="HU9" s="136"/>
+      <c r="HV9" s="134" t="str">
         <f t="shared" ref="HV9" si="29">TEXT(HY13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HW9" s="142"/>
-      <c r="HX9" s="142"/>
-      <c r="HY9" s="142"/>
-      <c r="HZ9" s="142"/>
-      <c r="IA9" s="142"/>
-      <c r="IB9" s="143"/>
-      <c r="IC9" s="141" t="str">
+      <c r="HW9" s="135"/>
+      <c r="HX9" s="135"/>
+      <c r="HY9" s="135"/>
+      <c r="HZ9" s="135"/>
+      <c r="IA9" s="135"/>
+      <c r="IB9" s="136"/>
+      <c r="IC9" s="134" t="str">
         <f t="shared" ref="IC9" si="30">TEXT(IF13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="ID9" s="142"/>
-      <c r="IE9" s="142"/>
-      <c r="IF9" s="142"/>
-      <c r="IG9" s="142"/>
-      <c r="IH9" s="142"/>
-      <c r="II9" s="143"/>
-      <c r="IJ9" s="141" t="str">
+      <c r="ID9" s="135"/>
+      <c r="IE9" s="135"/>
+      <c r="IF9" s="135"/>
+      <c r="IG9" s="135"/>
+      <c r="IH9" s="135"/>
+      <c r="II9" s="136"/>
+      <c r="IJ9" s="134" t="str">
         <f t="shared" ref="IJ9" si="31">TEXT(IM13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IK9" s="142"/>
-      <c r="IL9" s="142"/>
-      <c r="IM9" s="142"/>
-      <c r="IN9" s="142"/>
-      <c r="IO9" s="142"/>
-      <c r="IP9" s="143"/>
-      <c r="IQ9" s="141" t="str">
+      <c r="IK9" s="135"/>
+      <c r="IL9" s="135"/>
+      <c r="IM9" s="135"/>
+      <c r="IN9" s="135"/>
+      <c r="IO9" s="135"/>
+      <c r="IP9" s="136"/>
+      <c r="IQ9" s="134" t="str">
         <f t="shared" ref="IQ9" si="32">TEXT(IT13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IR9" s="142"/>
-      <c r="IS9" s="142"/>
-      <c r="IT9" s="142"/>
-      <c r="IU9" s="142"/>
-      <c r="IV9" s="142"/>
-      <c r="IW9" s="143"/>
-      <c r="IX9" s="141" t="str">
+      <c r="IR9" s="135"/>
+      <c r="IS9" s="135"/>
+      <c r="IT9" s="135"/>
+      <c r="IU9" s="135"/>
+      <c r="IV9" s="135"/>
+      <c r="IW9" s="136"/>
+      <c r="IX9" s="134" t="str">
         <f t="shared" ref="IX9" si="33">TEXT(JA13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IY9" s="142"/>
-      <c r="IZ9" s="142"/>
-      <c r="JA9" s="142"/>
-      <c r="JB9" s="142"/>
-      <c r="JC9" s="142"/>
-      <c r="JD9" s="143"/>
-      <c r="JE9" s="141" t="str">
+      <c r="IY9" s="135"/>
+      <c r="IZ9" s="135"/>
+      <c r="JA9" s="135"/>
+      <c r="JB9" s="135"/>
+      <c r="JC9" s="135"/>
+      <c r="JD9" s="136"/>
+      <c r="JE9" s="134" t="str">
         <f t="shared" ref="JE9" si="34">TEXT(JH13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="JF9" s="142"/>
-      <c r="JG9" s="142"/>
-      <c r="JH9" s="142"/>
-      <c r="JI9" s="142"/>
-      <c r="JJ9" s="142"/>
-      <c r="JK9" s="143"/>
-      <c r="JL9" s="141" t="str">
+      <c r="JF9" s="135"/>
+      <c r="JG9" s="135"/>
+      <c r="JH9" s="135"/>
+      <c r="JI9" s="135"/>
+      <c r="JJ9" s="135"/>
+      <c r="JK9" s="136"/>
+      <c r="JL9" s="134" t="str">
         <f t="shared" ref="JL9" si="35">TEXT(JO13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JM9" s="142"/>
-      <c r="JN9" s="142"/>
-      <c r="JO9" s="142"/>
-      <c r="JP9" s="142"/>
-      <c r="JQ9" s="142"/>
-      <c r="JR9" s="143"/>
-      <c r="JS9" s="141" t="str">
+      <c r="JM9" s="135"/>
+      <c r="JN9" s="135"/>
+      <c r="JO9" s="135"/>
+      <c r="JP9" s="135"/>
+      <c r="JQ9" s="135"/>
+      <c r="JR9" s="136"/>
+      <c r="JS9" s="134" t="str">
         <f t="shared" ref="JS9" si="36">TEXT(JV13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JT9" s="142"/>
-      <c r="JU9" s="142"/>
-      <c r="JV9" s="142"/>
-      <c r="JW9" s="142"/>
-      <c r="JX9" s="142"/>
-      <c r="JY9" s="143"/>
-      <c r="JZ9" s="141" t="str">
+      <c r="JT9" s="135"/>
+      <c r="JU9" s="135"/>
+      <c r="JV9" s="135"/>
+      <c r="JW9" s="135"/>
+      <c r="JX9" s="135"/>
+      <c r="JY9" s="136"/>
+      <c r="JZ9" s="134" t="str">
         <f t="shared" ref="JZ9" si="37">TEXT(KC13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KA9" s="142"/>
-      <c r="KB9" s="142"/>
-      <c r="KC9" s="142"/>
-      <c r="KD9" s="142"/>
-      <c r="KE9" s="142"/>
-      <c r="KF9" s="143"/>
-      <c r="KG9" s="141" t="str">
+      <c r="KA9" s="135"/>
+      <c r="KB9" s="135"/>
+      <c r="KC9" s="135"/>
+      <c r="KD9" s="135"/>
+      <c r="KE9" s="135"/>
+      <c r="KF9" s="136"/>
+      <c r="KG9" s="134" t="str">
         <f t="shared" ref="KG9" si="38">TEXT(KJ13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KH9" s="142"/>
-      <c r="KI9" s="142"/>
-      <c r="KJ9" s="142"/>
-      <c r="KK9" s="142"/>
-      <c r="KL9" s="142"/>
-      <c r="KM9" s="143"/>
-      <c r="KN9" s="141" t="str">
+      <c r="KH9" s="135"/>
+      <c r="KI9" s="135"/>
+      <c r="KJ9" s="135"/>
+      <c r="KK9" s="135"/>
+      <c r="KL9" s="135"/>
+      <c r="KM9" s="136"/>
+      <c r="KN9" s="134" t="str">
         <f t="shared" ref="KN9" si="39">TEXT(KQ13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KO9" s="142"/>
-      <c r="KP9" s="142"/>
-      <c r="KQ9" s="142"/>
-      <c r="KR9" s="142"/>
-      <c r="KS9" s="142"/>
-      <c r="KT9" s="143"/>
-      <c r="KU9" s="141" t="str">
+      <c r="KO9" s="135"/>
+      <c r="KP9" s="135"/>
+      <c r="KQ9" s="135"/>
+      <c r="KR9" s="135"/>
+      <c r="KS9" s="135"/>
+      <c r="KT9" s="136"/>
+      <c r="KU9" s="134" t="str">
         <f t="shared" ref="KU9" si="40">TEXT(KX13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KV9" s="142"/>
-      <c r="KW9" s="142"/>
-      <c r="KX9" s="142"/>
-      <c r="KY9" s="142"/>
-      <c r="KZ9" s="142"/>
-      <c r="LA9" s="143"/>
-      <c r="LB9" s="141" t="str">
+      <c r="KV9" s="135"/>
+      <c r="KW9" s="135"/>
+      <c r="KX9" s="135"/>
+      <c r="KY9" s="135"/>
+      <c r="KZ9" s="135"/>
+      <c r="LA9" s="136"/>
+      <c r="LB9" s="134" t="str">
         <f t="shared" ref="LB9" si="41">TEXT(LE13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LC9" s="142"/>
-      <c r="LD9" s="142"/>
-      <c r="LE9" s="142"/>
-      <c r="LF9" s="142"/>
-      <c r="LG9" s="142"/>
-      <c r="LH9" s="143"/>
-      <c r="LI9" s="141" t="str">
+      <c r="LC9" s="135"/>
+      <c r="LD9" s="135"/>
+      <c r="LE9" s="135"/>
+      <c r="LF9" s="135"/>
+      <c r="LG9" s="135"/>
+      <c r="LH9" s="136"/>
+      <c r="LI9" s="134" t="str">
         <f t="shared" ref="LI9" si="42">TEXT(LL13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LJ9" s="142"/>
-      <c r="LK9" s="142"/>
-      <c r="LL9" s="142"/>
-      <c r="LM9" s="142"/>
-      <c r="LN9" s="142"/>
-      <c r="LO9" s="143"/>
-      <c r="LP9" s="141" t="str">
+      <c r="LJ9" s="135"/>
+      <c r="LK9" s="135"/>
+      <c r="LL9" s="135"/>
+      <c r="LM9" s="135"/>
+      <c r="LN9" s="135"/>
+      <c r="LO9" s="136"/>
+      <c r="LP9" s="134" t="str">
         <f t="shared" ref="LP9" si="43">TEXT(LS13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LQ9" s="142"/>
-      <c r="LR9" s="142"/>
-      <c r="LS9" s="142"/>
-      <c r="LT9" s="142"/>
-      <c r="LU9" s="142"/>
-      <c r="LV9" s="143"/>
-      <c r="LW9" s="141" t="str">
+      <c r="LQ9" s="135"/>
+      <c r="LR9" s="135"/>
+      <c r="LS9" s="135"/>
+      <c r="LT9" s="135"/>
+      <c r="LU9" s="135"/>
+      <c r="LV9" s="136"/>
+      <c r="LW9" s="134" t="str">
         <f t="shared" ref="LW9" si="44">TEXT(LZ13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LX9" s="142"/>
-      <c r="LY9" s="142"/>
-      <c r="LZ9" s="142"/>
-      <c r="MA9" s="142"/>
-      <c r="MB9" s="142"/>
-      <c r="MC9" s="143"/>
-      <c r="MD9" s="141" t="str">
+      <c r="LX9" s="135"/>
+      <c r="LY9" s="135"/>
+      <c r="LZ9" s="135"/>
+      <c r="MA9" s="135"/>
+      <c r="MB9" s="135"/>
+      <c r="MC9" s="136"/>
+      <c r="MD9" s="134" t="str">
         <f t="shared" ref="MD9" si="45">TEXT(MG13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ME9" s="142"/>
-      <c r="MF9" s="142"/>
-      <c r="MG9" s="142"/>
-      <c r="MH9" s="142"/>
-      <c r="MI9" s="142"/>
-      <c r="MJ9" s="143"/>
-      <c r="MK9" s="141" t="str">
+      <c r="ME9" s="135"/>
+      <c r="MF9" s="135"/>
+      <c r="MG9" s="135"/>
+      <c r="MH9" s="135"/>
+      <c r="MI9" s="135"/>
+      <c r="MJ9" s="136"/>
+      <c r="MK9" s="134" t="str">
         <f t="shared" ref="MK9" si="46">TEXT(MN13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ML9" s="142"/>
-      <c r="MM9" s="142"/>
-      <c r="MN9" s="142"/>
-      <c r="MO9" s="142"/>
-      <c r="MP9" s="142"/>
-      <c r="MQ9" s="143"/>
-      <c r="MR9" s="141" t="str">
+      <c r="ML9" s="135"/>
+      <c r="MM9" s="135"/>
+      <c r="MN9" s="135"/>
+      <c r="MO9" s="135"/>
+      <c r="MP9" s="135"/>
+      <c r="MQ9" s="136"/>
+      <c r="MR9" s="134" t="str">
         <f t="shared" ref="MR9" si="47">TEXT(MU13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="MS9" s="142"/>
-      <c r="MT9" s="142"/>
-      <c r="MU9" s="142"/>
-      <c r="MV9" s="142"/>
-      <c r="MW9" s="142"/>
-      <c r="MX9" s="143"/>
-      <c r="MY9" s="141" t="str">
+      <c r="MS9" s="135"/>
+      <c r="MT9" s="135"/>
+      <c r="MU9" s="135"/>
+      <c r="MV9" s="135"/>
+      <c r="MW9" s="135"/>
+      <c r="MX9" s="136"/>
+      <c r="MY9" s="134" t="str">
         <f t="shared" ref="MY9" si="48">TEXT(NB13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="MZ9" s="142"/>
-      <c r="NA9" s="142"/>
-      <c r="NB9" s="142"/>
-      <c r="NC9" s="142"/>
-      <c r="ND9" s="142"/>
-      <c r="NE9" s="143"/>
-      <c r="NF9" s="141" t="str">
+      <c r="MZ9" s="135"/>
+      <c r="NA9" s="135"/>
+      <c r="NB9" s="135"/>
+      <c r="NC9" s="135"/>
+      <c r="ND9" s="135"/>
+      <c r="NE9" s="136"/>
+      <c r="NF9" s="134" t="str">
         <f t="shared" ref="NF9" si="49">TEXT(NI13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NG9" s="142"/>
-      <c r="NH9" s="142"/>
-      <c r="NI9" s="142"/>
-      <c r="NJ9" s="142"/>
-      <c r="NK9" s="142"/>
-      <c r="NL9" s="143"/>
-      <c r="NM9" s="141" t="str">
+      <c r="NG9" s="135"/>
+      <c r="NH9" s="135"/>
+      <c r="NI9" s="135"/>
+      <c r="NJ9" s="135"/>
+      <c r="NK9" s="135"/>
+      <c r="NL9" s="136"/>
+      <c r="NM9" s="134" t="str">
         <f t="shared" ref="NM9" si="50">TEXT(NP13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NN9" s="142"/>
-      <c r="NO9" s="142"/>
-      <c r="NP9" s="142"/>
-      <c r="NQ9" s="142"/>
-      <c r="NR9" s="142"/>
-      <c r="NS9" s="143"/>
-      <c r="NT9" s="141" t="str">
+      <c r="NN9" s="135"/>
+      <c r="NO9" s="135"/>
+      <c r="NP9" s="135"/>
+      <c r="NQ9" s="135"/>
+      <c r="NR9" s="135"/>
+      <c r="NS9" s="136"/>
+      <c r="NT9" s="134" t="str">
         <f t="shared" ref="NT9" si="51">TEXT(NW13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NU9" s="142"/>
-      <c r="NV9" s="142"/>
-      <c r="NW9" s="142"/>
-      <c r="NX9" s="142"/>
-      <c r="NY9" s="142"/>
-      <c r="NZ9" s="143"/>
-      <c r="OA9" s="141" t="str">
+      <c r="NU9" s="135"/>
+      <c r="NV9" s="135"/>
+      <c r="NW9" s="135"/>
+      <c r="NX9" s="135"/>
+      <c r="NY9" s="135"/>
+      <c r="NZ9" s="136"/>
+      <c r="OA9" s="134" t="str">
         <f t="shared" ref="OA9" si="52">TEXT(OD13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OB9" s="142"/>
-      <c r="OC9" s="142"/>
-      <c r="OD9" s="142"/>
-      <c r="OE9" s="142"/>
-      <c r="OF9" s="142"/>
-      <c r="OG9" s="143"/>
-      <c r="OH9" s="141" t="str">
+      <c r="OB9" s="135"/>
+      <c r="OC9" s="135"/>
+      <c r="OD9" s="135"/>
+      <c r="OE9" s="135"/>
+      <c r="OF9" s="135"/>
+      <c r="OG9" s="136"/>
+      <c r="OH9" s="134" t="str">
         <f t="shared" ref="OH9" si="53">TEXT(OK13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OI9" s="142"/>
-      <c r="OJ9" s="142"/>
-      <c r="OK9" s="142"/>
-      <c r="OL9" s="142"/>
-      <c r="OM9" s="142"/>
-      <c r="ON9" s="143"/>
-      <c r="OO9" s="141" t="str">
+      <c r="OI9" s="135"/>
+      <c r="OJ9" s="135"/>
+      <c r="OK9" s="135"/>
+      <c r="OL9" s="135"/>
+      <c r="OM9" s="135"/>
+      <c r="ON9" s="136"/>
+      <c r="OO9" s="134" t="str">
         <f t="shared" ref="OO9" si="54">TEXT(OR13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OP9" s="142"/>
-      <c r="OQ9" s="142"/>
-      <c r="OR9" s="142"/>
-      <c r="OS9" s="142"/>
-      <c r="OT9" s="142"/>
-      <c r="OU9" s="143"/>
-      <c r="OV9" s="141" t="str">
+      <c r="OP9" s="135"/>
+      <c r="OQ9" s="135"/>
+      <c r="OR9" s="135"/>
+      <c r="OS9" s="135"/>
+      <c r="OT9" s="135"/>
+      <c r="OU9" s="136"/>
+      <c r="OV9" s="134" t="str">
         <f t="shared" ref="OV9" si="55">TEXT(OY13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OW9" s="142"/>
-      <c r="OX9" s="142"/>
-      <c r="OY9" s="142"/>
-      <c r="OZ9" s="142"/>
-      <c r="PA9" s="142"/>
-      <c r="PB9" s="143"/>
+      <c r="OW9" s="135"/>
+      <c r="OX9" s="135"/>
+      <c r="OY9" s="135"/>
+      <c r="OZ9" s="135"/>
+      <c r="PA9" s="135"/>
+      <c r="PB9" s="136"/>
     </row>
     <row r="10" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="135"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="135"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
       <c r="F10" s="25"/>
       <c r="G10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="136">
+      <c r="H10" s="168">
         <v>42996</v>
       </c>
-      <c r="I10" s="136"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="27"/>
       <c r="L10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="137">
+      <c r="M10" s="169">
         <f>WEEKNUM(P13,21)</f>
         <v>38</v>
       </c>
-      <c r="N10" s="137"/>
-      <c r="O10" s="137"/>
-      <c r="P10" s="137"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="130">
+      <c r="N10" s="169"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="169"/>
+      <c r="Q10" s="169"/>
+      <c r="R10" s="169"/>
+      <c r="S10" s="169"/>
+      <c r="T10" s="147">
         <f>WEEKNUM(W13,21)</f>
         <v>39</v>
       </c>
-      <c r="U10" s="131"/>
-      <c r="V10" s="131"/>
-      <c r="W10" s="131"/>
-      <c r="X10" s="131"/>
-      <c r="Y10" s="131"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="138">
+      <c r="U10" s="148"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="148"/>
+      <c r="X10" s="148"/>
+      <c r="Y10" s="148"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="170">
         <f>WEEKNUM(AD13,21)</f>
         <v>40</v>
       </c>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="138"/>
-      <c r="AG10" s="138"/>
-      <c r="AH10" s="130">
+      <c r="AB10" s="170"/>
+      <c r="AC10" s="170"/>
+      <c r="AD10" s="170"/>
+      <c r="AE10" s="170"/>
+      <c r="AF10" s="170"/>
+      <c r="AG10" s="170"/>
+      <c r="AH10" s="147">
         <f>WEEKNUM(AK13,21)</f>
         <v>41</v>
       </c>
-      <c r="AI10" s="131"/>
-      <c r="AJ10" s="131"/>
-      <c r="AK10" s="131"/>
-      <c r="AL10" s="131"/>
-      <c r="AM10" s="131"/>
-      <c r="AN10" s="132"/>
-      <c r="AO10" s="130">
+      <c r="AI10" s="148"/>
+      <c r="AJ10" s="148"/>
+      <c r="AK10" s="148"/>
+      <c r="AL10" s="148"/>
+      <c r="AM10" s="148"/>
+      <c r="AN10" s="149"/>
+      <c r="AO10" s="147">
         <f>WEEKNUM(AR13,21)</f>
         <v>42</v>
       </c>
-      <c r="AP10" s="131"/>
-      <c r="AQ10" s="131"/>
-      <c r="AR10" s="131"/>
-      <c r="AS10" s="131"/>
-      <c r="AT10" s="131"/>
-      <c r="AU10" s="132"/>
-      <c r="AV10" s="130">
+      <c r="AP10" s="148"/>
+      <c r="AQ10" s="148"/>
+      <c r="AR10" s="148"/>
+      <c r="AS10" s="148"/>
+      <c r="AT10" s="148"/>
+      <c r="AU10" s="149"/>
+      <c r="AV10" s="147">
         <f>WEEKNUM(AY13,21)</f>
         <v>43</v>
       </c>
-      <c r="AW10" s="131"/>
-      <c r="AX10" s="131"/>
-      <c r="AY10" s="131"/>
-      <c r="AZ10" s="131"/>
-      <c r="BA10" s="131"/>
-      <c r="BB10" s="132"/>
-      <c r="BC10" s="130">
+      <c r="AW10" s="148"/>
+      <c r="AX10" s="148"/>
+      <c r="AY10" s="148"/>
+      <c r="AZ10" s="148"/>
+      <c r="BA10" s="148"/>
+      <c r="BB10" s="149"/>
+      <c r="BC10" s="147">
         <f>WEEKNUM(BF13,21)</f>
         <v>44</v>
       </c>
-      <c r="BD10" s="131"/>
-      <c r="BE10" s="131"/>
-      <c r="BF10" s="131"/>
-      <c r="BG10" s="131"/>
-      <c r="BH10" s="131"/>
-      <c r="BI10" s="132"/>
-      <c r="BJ10" s="130">
+      <c r="BD10" s="148"/>
+      <c r="BE10" s="148"/>
+      <c r="BF10" s="148"/>
+      <c r="BG10" s="148"/>
+      <c r="BH10" s="148"/>
+      <c r="BI10" s="149"/>
+      <c r="BJ10" s="147">
         <f>WEEKNUM(BM13,21)</f>
         <v>45</v>
       </c>
-      <c r="BK10" s="131"/>
-      <c r="BL10" s="131"/>
-      <c r="BM10" s="131"/>
-      <c r="BN10" s="131"/>
-      <c r="BO10" s="131"/>
-      <c r="BP10" s="132"/>
-      <c r="BQ10" s="130">
+      <c r="BK10" s="148"/>
+      <c r="BL10" s="148"/>
+      <c r="BM10" s="148"/>
+      <c r="BN10" s="148"/>
+      <c r="BO10" s="148"/>
+      <c r="BP10" s="149"/>
+      <c r="BQ10" s="147">
         <f>WEEKNUM(BT13,21)</f>
         <v>46</v>
       </c>
-      <c r="BR10" s="131"/>
-      <c r="BS10" s="131"/>
-      <c r="BT10" s="131"/>
-      <c r="BU10" s="131"/>
-      <c r="BV10" s="131"/>
-      <c r="BW10" s="132"/>
-      <c r="BX10" s="130">
+      <c r="BR10" s="148"/>
+      <c r="BS10" s="148"/>
+      <c r="BT10" s="148"/>
+      <c r="BU10" s="148"/>
+      <c r="BV10" s="148"/>
+      <c r="BW10" s="149"/>
+      <c r="BX10" s="147">
         <f>WEEKNUM(CA13,21)</f>
         <v>47</v>
       </c>
-      <c r="BY10" s="131"/>
-      <c r="BZ10" s="131"/>
-      <c r="CA10" s="131"/>
-      <c r="CB10" s="131"/>
-      <c r="CC10" s="131"/>
-      <c r="CD10" s="132"/>
-      <c r="CE10" s="130">
+      <c r="BY10" s="148"/>
+      <c r="BZ10" s="148"/>
+      <c r="CA10" s="148"/>
+      <c r="CB10" s="148"/>
+      <c r="CC10" s="148"/>
+      <c r="CD10" s="149"/>
+      <c r="CE10" s="147">
         <f>WEEKNUM(CH13,21)</f>
         <v>48</v>
       </c>
-      <c r="CF10" s="131"/>
-      <c r="CG10" s="131"/>
-      <c r="CH10" s="131"/>
-      <c r="CI10" s="131"/>
-      <c r="CJ10" s="131"/>
-      <c r="CK10" s="132"/>
-      <c r="CL10" s="130">
+      <c r="CF10" s="148"/>
+      <c r="CG10" s="148"/>
+      <c r="CH10" s="148"/>
+      <c r="CI10" s="148"/>
+      <c r="CJ10" s="148"/>
+      <c r="CK10" s="149"/>
+      <c r="CL10" s="147">
         <f>WEEKNUM(CO13,21)</f>
         <v>49</v>
       </c>
-      <c r="CM10" s="131"/>
-      <c r="CN10" s="131"/>
-      <c r="CO10" s="131"/>
-      <c r="CP10" s="131"/>
-      <c r="CQ10" s="131"/>
-      <c r="CR10" s="132"/>
-      <c r="CS10" s="130">
+      <c r="CM10" s="148"/>
+      <c r="CN10" s="148"/>
+      <c r="CO10" s="148"/>
+      <c r="CP10" s="148"/>
+      <c r="CQ10" s="148"/>
+      <c r="CR10" s="149"/>
+      <c r="CS10" s="147">
         <f>WEEKNUM(CV13,21)</f>
         <v>50</v>
       </c>
-      <c r="CT10" s="131"/>
-      <c r="CU10" s="131"/>
-      <c r="CV10" s="131"/>
-      <c r="CW10" s="131"/>
-      <c r="CX10" s="131"/>
-      <c r="CY10" s="132"/>
-      <c r="CZ10" s="130">
+      <c r="CT10" s="148"/>
+      <c r="CU10" s="148"/>
+      <c r="CV10" s="148"/>
+      <c r="CW10" s="148"/>
+      <c r="CX10" s="148"/>
+      <c r="CY10" s="149"/>
+      <c r="CZ10" s="147">
         <f>WEEKNUM(DC13,21)</f>
         <v>51</v>
       </c>
-      <c r="DA10" s="131"/>
-      <c r="DB10" s="131"/>
-      <c r="DC10" s="131"/>
-      <c r="DD10" s="131"/>
-      <c r="DE10" s="131"/>
-      <c r="DF10" s="132"/>
-      <c r="DG10" s="130">
+      <c r="DA10" s="148"/>
+      <c r="DB10" s="148"/>
+      <c r="DC10" s="148"/>
+      <c r="DD10" s="148"/>
+      <c r="DE10" s="148"/>
+      <c r="DF10" s="149"/>
+      <c r="DG10" s="147">
         <f>WEEKNUM(DJ13,21)</f>
         <v>52</v>
       </c>
-      <c r="DH10" s="131"/>
-      <c r="DI10" s="131"/>
-      <c r="DJ10" s="131"/>
-      <c r="DK10" s="131"/>
-      <c r="DL10" s="131"/>
-      <c r="DM10" s="132"/>
-      <c r="DN10" s="130">
+      <c r="DH10" s="148"/>
+      <c r="DI10" s="148"/>
+      <c r="DJ10" s="148"/>
+      <c r="DK10" s="148"/>
+      <c r="DL10" s="148"/>
+      <c r="DM10" s="149"/>
+      <c r="DN10" s="147">
         <f>WEEKNUM(DQ13,21)</f>
         <v>1</v>
       </c>
-      <c r="DO10" s="131"/>
-      <c r="DP10" s="131"/>
-      <c r="DQ10" s="131"/>
-      <c r="DR10" s="131"/>
-      <c r="DS10" s="131"/>
-      <c r="DT10" s="132"/>
-      <c r="DU10" s="130">
+      <c r="DO10" s="148"/>
+      <c r="DP10" s="148"/>
+      <c r="DQ10" s="148"/>
+      <c r="DR10" s="148"/>
+      <c r="DS10" s="148"/>
+      <c r="DT10" s="149"/>
+      <c r="DU10" s="147">
         <f>WEEKNUM(DX13,21)</f>
         <v>2</v>
       </c>
-      <c r="DV10" s="131"/>
-      <c r="DW10" s="131"/>
-      <c r="DX10" s="131"/>
-      <c r="DY10" s="131"/>
-      <c r="DZ10" s="131"/>
-      <c r="EA10" s="132"/>
-      <c r="EB10" s="130">
+      <c r="DV10" s="148"/>
+      <c r="DW10" s="148"/>
+      <c r="DX10" s="148"/>
+      <c r="DY10" s="148"/>
+      <c r="DZ10" s="148"/>
+      <c r="EA10" s="149"/>
+      <c r="EB10" s="147">
         <f>WEEKNUM(EE13,21)</f>
         <v>3</v>
       </c>
-      <c r="EC10" s="131"/>
-      <c r="ED10" s="131"/>
-      <c r="EE10" s="131"/>
-      <c r="EF10" s="131"/>
-      <c r="EG10" s="131"/>
-      <c r="EH10" s="132"/>
-      <c r="EI10" s="130">
+      <c r="EC10" s="148"/>
+      <c r="ED10" s="148"/>
+      <c r="EE10" s="148"/>
+      <c r="EF10" s="148"/>
+      <c r="EG10" s="148"/>
+      <c r="EH10" s="149"/>
+      <c r="EI10" s="147">
         <f>WEEKNUM(EL13,21)</f>
         <v>4</v>
       </c>
-      <c r="EJ10" s="131"/>
-      <c r="EK10" s="131"/>
-      <c r="EL10" s="131"/>
-      <c r="EM10" s="131"/>
-      <c r="EN10" s="131"/>
-      <c r="EO10" s="132"/>
-      <c r="EP10" s="130">
+      <c r="EJ10" s="148"/>
+      <c r="EK10" s="148"/>
+      <c r="EL10" s="148"/>
+      <c r="EM10" s="148"/>
+      <c r="EN10" s="148"/>
+      <c r="EO10" s="149"/>
+      <c r="EP10" s="147">
         <f>WEEKNUM(ES13,21)</f>
         <v>5</v>
       </c>
-      <c r="EQ10" s="131"/>
-      <c r="ER10" s="131"/>
-      <c r="ES10" s="131"/>
-      <c r="ET10" s="131"/>
-      <c r="EU10" s="131"/>
-      <c r="EV10" s="132"/>
-      <c r="EW10" s="130">
+      <c r="EQ10" s="148"/>
+      <c r="ER10" s="148"/>
+      <c r="ES10" s="148"/>
+      <c r="ET10" s="148"/>
+      <c r="EU10" s="148"/>
+      <c r="EV10" s="149"/>
+      <c r="EW10" s="147">
         <f>WEEKNUM(EZ13,21)</f>
         <v>6</v>
       </c>
-      <c r="EX10" s="131"/>
-      <c r="EY10" s="131"/>
-      <c r="EZ10" s="131"/>
-      <c r="FA10" s="131"/>
-      <c r="FB10" s="131"/>
-      <c r="FC10" s="132"/>
-      <c r="FD10" s="130">
+      <c r="EX10" s="148"/>
+      <c r="EY10" s="148"/>
+      <c r="EZ10" s="148"/>
+      <c r="FA10" s="148"/>
+      <c r="FB10" s="148"/>
+      <c r="FC10" s="149"/>
+      <c r="FD10" s="147">
         <f>WEEKNUM(FG13,21)</f>
         <v>7</v>
       </c>
-      <c r="FE10" s="131"/>
-      <c r="FF10" s="131"/>
-      <c r="FG10" s="131"/>
-      <c r="FH10" s="131"/>
-      <c r="FI10" s="131"/>
-      <c r="FJ10" s="132"/>
-      <c r="FK10" s="130">
+      <c r="FE10" s="148"/>
+      <c r="FF10" s="148"/>
+      <c r="FG10" s="148"/>
+      <c r="FH10" s="148"/>
+      <c r="FI10" s="148"/>
+      <c r="FJ10" s="149"/>
+      <c r="FK10" s="147">
         <f>WEEKNUM(FN13,21)</f>
         <v>8</v>
       </c>
-      <c r="FL10" s="131"/>
-      <c r="FM10" s="131"/>
-      <c r="FN10" s="131"/>
-      <c r="FO10" s="131"/>
-      <c r="FP10" s="131"/>
-      <c r="FQ10" s="132"/>
-      <c r="FR10" s="130">
+      <c r="FL10" s="148"/>
+      <c r="FM10" s="148"/>
+      <c r="FN10" s="148"/>
+      <c r="FO10" s="148"/>
+      <c r="FP10" s="148"/>
+      <c r="FQ10" s="149"/>
+      <c r="FR10" s="147">
         <f>WEEKNUM(FU13,21)</f>
         <v>9</v>
       </c>
-      <c r="FS10" s="131"/>
-      <c r="FT10" s="131"/>
-      <c r="FU10" s="131"/>
-      <c r="FV10" s="131"/>
-      <c r="FW10" s="131"/>
-      <c r="FX10" s="132"/>
-      <c r="FY10" s="130">
+      <c r="FS10" s="148"/>
+      <c r="FT10" s="148"/>
+      <c r="FU10" s="148"/>
+      <c r="FV10" s="148"/>
+      <c r="FW10" s="148"/>
+      <c r="FX10" s="149"/>
+      <c r="FY10" s="147">
         <f>WEEKNUM(GB13,21)</f>
         <v>10</v>
       </c>
-      <c r="FZ10" s="131"/>
-      <c r="GA10" s="131"/>
-      <c r="GB10" s="131"/>
-      <c r="GC10" s="131"/>
-      <c r="GD10" s="131"/>
-      <c r="GE10" s="132"/>
-      <c r="GF10" s="130">
+      <c r="FZ10" s="148"/>
+      <c r="GA10" s="148"/>
+      <c r="GB10" s="148"/>
+      <c r="GC10" s="148"/>
+      <c r="GD10" s="148"/>
+      <c r="GE10" s="149"/>
+      <c r="GF10" s="147">
         <f>WEEKNUM(GI13,21)</f>
         <v>11</v>
       </c>
-      <c r="GG10" s="131"/>
-      <c r="GH10" s="131"/>
-      <c r="GI10" s="131"/>
-      <c r="GJ10" s="131"/>
-      <c r="GK10" s="131"/>
-      <c r="GL10" s="132"/>
-      <c r="GM10" s="130">
+      <c r="GG10" s="148"/>
+      <c r="GH10" s="148"/>
+      <c r="GI10" s="148"/>
+      <c r="GJ10" s="148"/>
+      <c r="GK10" s="148"/>
+      <c r="GL10" s="149"/>
+      <c r="GM10" s="147">
         <f>WEEKNUM(GP13,21)</f>
         <v>12</v>
       </c>
-      <c r="GN10" s="131"/>
-      <c r="GO10" s="131"/>
-      <c r="GP10" s="131"/>
-      <c r="GQ10" s="131"/>
-      <c r="GR10" s="131"/>
-      <c r="GS10" s="132"/>
-      <c r="GT10" s="130">
+      <c r="GN10" s="148"/>
+      <c r="GO10" s="148"/>
+      <c r="GP10" s="148"/>
+      <c r="GQ10" s="148"/>
+      <c r="GR10" s="148"/>
+      <c r="GS10" s="149"/>
+      <c r="GT10" s="147">
         <f>WEEKNUM(GW13,21)</f>
         <v>13</v>
       </c>
-      <c r="GU10" s="131"/>
-      <c r="GV10" s="131"/>
-      <c r="GW10" s="131"/>
-      <c r="GX10" s="131"/>
-      <c r="GY10" s="131"/>
-      <c r="GZ10" s="132"/>
-      <c r="HA10" s="130">
+      <c r="GU10" s="148"/>
+      <c r="GV10" s="148"/>
+      <c r="GW10" s="148"/>
+      <c r="GX10" s="148"/>
+      <c r="GY10" s="148"/>
+      <c r="GZ10" s="149"/>
+      <c r="HA10" s="147">
         <f>WEEKNUM(HD13,21)</f>
         <v>14</v>
       </c>
-      <c r="HB10" s="131"/>
-      <c r="HC10" s="131"/>
-      <c r="HD10" s="131"/>
-      <c r="HE10" s="131"/>
-      <c r="HF10" s="131"/>
-      <c r="HG10" s="132"/>
-      <c r="HH10" s="130">
+      <c r="HB10" s="148"/>
+      <c r="HC10" s="148"/>
+      <c r="HD10" s="148"/>
+      <c r="HE10" s="148"/>
+      <c r="HF10" s="148"/>
+      <c r="HG10" s="149"/>
+      <c r="HH10" s="147">
         <f>WEEKNUM(HK13,21)</f>
         <v>15</v>
       </c>
-      <c r="HI10" s="131"/>
-      <c r="HJ10" s="131"/>
-      <c r="HK10" s="131"/>
-      <c r="HL10" s="131"/>
-      <c r="HM10" s="131"/>
-      <c r="HN10" s="132"/>
-      <c r="HO10" s="130">
+      <c r="HI10" s="148"/>
+      <c r="HJ10" s="148"/>
+      <c r="HK10" s="148"/>
+      <c r="HL10" s="148"/>
+      <c r="HM10" s="148"/>
+      <c r="HN10" s="149"/>
+      <c r="HO10" s="147">
         <f>WEEKNUM(HR13,21)</f>
         <v>16</v>
       </c>
-      <c r="HP10" s="131"/>
-      <c r="HQ10" s="131"/>
-      <c r="HR10" s="131"/>
-      <c r="HS10" s="131"/>
-      <c r="HT10" s="131"/>
-      <c r="HU10" s="132"/>
-      <c r="HV10" s="130">
+      <c r="HP10" s="148"/>
+      <c r="HQ10" s="148"/>
+      <c r="HR10" s="148"/>
+      <c r="HS10" s="148"/>
+      <c r="HT10" s="148"/>
+      <c r="HU10" s="149"/>
+      <c r="HV10" s="147">
         <f t="shared" ref="HV10" si="56">WEEKNUM(HY13,21)</f>
         <v>17</v>
       </c>
-      <c r="HW10" s="131"/>
-      <c r="HX10" s="131"/>
-      <c r="HY10" s="131"/>
-      <c r="HZ10" s="131"/>
-      <c r="IA10" s="131"/>
-      <c r="IB10" s="132"/>
-      <c r="IC10" s="130">
+      <c r="HW10" s="148"/>
+      <c r="HX10" s="148"/>
+      <c r="HY10" s="148"/>
+      <c r="HZ10" s="148"/>
+      <c r="IA10" s="148"/>
+      <c r="IB10" s="149"/>
+      <c r="IC10" s="147">
         <f t="shared" ref="IC10" si="57">WEEKNUM(IF13,21)</f>
         <v>18</v>
       </c>
-      <c r="ID10" s="131"/>
-      <c r="IE10" s="131"/>
-      <c r="IF10" s="131"/>
-      <c r="IG10" s="131"/>
-      <c r="IH10" s="131"/>
-      <c r="II10" s="132"/>
-      <c r="IJ10" s="130">
+      <c r="ID10" s="148"/>
+      <c r="IE10" s="148"/>
+      <c r="IF10" s="148"/>
+      <c r="IG10" s="148"/>
+      <c r="IH10" s="148"/>
+      <c r="II10" s="149"/>
+      <c r="IJ10" s="147">
         <f t="shared" ref="IJ10" si="58">WEEKNUM(IM13,21)</f>
         <v>19</v>
       </c>
-      <c r="IK10" s="131"/>
-      <c r="IL10" s="131"/>
-      <c r="IM10" s="131"/>
-      <c r="IN10" s="131"/>
-      <c r="IO10" s="131"/>
-      <c r="IP10" s="132"/>
-      <c r="IQ10" s="130">
+      <c r="IK10" s="148"/>
+      <c r="IL10" s="148"/>
+      <c r="IM10" s="148"/>
+      <c r="IN10" s="148"/>
+      <c r="IO10" s="148"/>
+      <c r="IP10" s="149"/>
+      <c r="IQ10" s="147">
         <f t="shared" ref="IQ10" si="59">WEEKNUM(IT13,21)</f>
         <v>20</v>
       </c>
-      <c r="IR10" s="131"/>
-      <c r="IS10" s="131"/>
-      <c r="IT10" s="131"/>
-      <c r="IU10" s="131"/>
-      <c r="IV10" s="131"/>
-      <c r="IW10" s="132"/>
-      <c r="IX10" s="130">
+      <c r="IR10" s="148"/>
+      <c r="IS10" s="148"/>
+      <c r="IT10" s="148"/>
+      <c r="IU10" s="148"/>
+      <c r="IV10" s="148"/>
+      <c r="IW10" s="149"/>
+      <c r="IX10" s="147">
         <f t="shared" ref="IX10" si="60">WEEKNUM(JA13,21)</f>
         <v>21</v>
       </c>
-      <c r="IY10" s="131"/>
-      <c r="IZ10" s="131"/>
-      <c r="JA10" s="131"/>
-      <c r="JB10" s="131"/>
-      <c r="JC10" s="131"/>
-      <c r="JD10" s="132"/>
-      <c r="JE10" s="130">
+      <c r="IY10" s="148"/>
+      <c r="IZ10" s="148"/>
+      <c r="JA10" s="148"/>
+      <c r="JB10" s="148"/>
+      <c r="JC10" s="148"/>
+      <c r="JD10" s="149"/>
+      <c r="JE10" s="147">
         <f t="shared" ref="JE10" si="61">WEEKNUM(JH13,21)</f>
         <v>22</v>
       </c>
-      <c r="JF10" s="131"/>
-      <c r="JG10" s="131"/>
-      <c r="JH10" s="131"/>
-      <c r="JI10" s="131"/>
-      <c r="JJ10" s="131"/>
-      <c r="JK10" s="132"/>
-      <c r="JL10" s="130">
+      <c r="JF10" s="148"/>
+      <c r="JG10" s="148"/>
+      <c r="JH10" s="148"/>
+      <c r="JI10" s="148"/>
+      <c r="JJ10" s="148"/>
+      <c r="JK10" s="149"/>
+      <c r="JL10" s="147">
         <f t="shared" ref="JL10" si="62">WEEKNUM(JO13,21)</f>
         <v>23</v>
       </c>
-      <c r="JM10" s="131"/>
-      <c r="JN10" s="131"/>
-      <c r="JO10" s="131"/>
-      <c r="JP10" s="131"/>
-      <c r="JQ10" s="131"/>
-      <c r="JR10" s="132"/>
-      <c r="JS10" s="130">
+      <c r="JM10" s="148"/>
+      <c r="JN10" s="148"/>
+      <c r="JO10" s="148"/>
+      <c r="JP10" s="148"/>
+      <c r="JQ10" s="148"/>
+      <c r="JR10" s="149"/>
+      <c r="JS10" s="147">
         <f t="shared" ref="JS10" si="63">WEEKNUM(JV13,21)</f>
         <v>24</v>
       </c>
-      <c r="JT10" s="131"/>
-      <c r="JU10" s="131"/>
-      <c r="JV10" s="131"/>
-      <c r="JW10" s="131"/>
-      <c r="JX10" s="131"/>
-      <c r="JY10" s="132"/>
-      <c r="JZ10" s="130">
+      <c r="JT10" s="148"/>
+      <c r="JU10" s="148"/>
+      <c r="JV10" s="148"/>
+      <c r="JW10" s="148"/>
+      <c r="JX10" s="148"/>
+      <c r="JY10" s="149"/>
+      <c r="JZ10" s="147">
         <f t="shared" ref="JZ10" si="64">WEEKNUM(KC13,21)</f>
         <v>25</v>
       </c>
-      <c r="KA10" s="131"/>
-      <c r="KB10" s="131"/>
-      <c r="KC10" s="131"/>
-      <c r="KD10" s="131"/>
-      <c r="KE10" s="131"/>
-      <c r="KF10" s="132"/>
-      <c r="KG10" s="130">
+      <c r="KA10" s="148"/>
+      <c r="KB10" s="148"/>
+      <c r="KC10" s="148"/>
+      <c r="KD10" s="148"/>
+      <c r="KE10" s="148"/>
+      <c r="KF10" s="149"/>
+      <c r="KG10" s="147">
         <f t="shared" ref="KG10" si="65">WEEKNUM(KJ13,21)</f>
         <v>26</v>
       </c>
-      <c r="KH10" s="131"/>
-      <c r="KI10" s="131"/>
-      <c r="KJ10" s="131"/>
-      <c r="KK10" s="131"/>
-      <c r="KL10" s="131"/>
-      <c r="KM10" s="132"/>
-      <c r="KN10" s="130">
+      <c r="KH10" s="148"/>
+      <c r="KI10" s="148"/>
+      <c r="KJ10" s="148"/>
+      <c r="KK10" s="148"/>
+      <c r="KL10" s="148"/>
+      <c r="KM10" s="149"/>
+      <c r="KN10" s="147">
         <f t="shared" ref="KN10" si="66">WEEKNUM(KQ13,21)</f>
         <v>27</v>
       </c>
-      <c r="KO10" s="131"/>
-      <c r="KP10" s="131"/>
-      <c r="KQ10" s="131"/>
-      <c r="KR10" s="131"/>
-      <c r="KS10" s="131"/>
-      <c r="KT10" s="132"/>
-      <c r="KU10" s="130">
+      <c r="KO10" s="148"/>
+      <c r="KP10" s="148"/>
+      <c r="KQ10" s="148"/>
+      <c r="KR10" s="148"/>
+      <c r="KS10" s="148"/>
+      <c r="KT10" s="149"/>
+      <c r="KU10" s="147">
         <f t="shared" ref="KU10" si="67">WEEKNUM(KX13,21)</f>
         <v>28</v>
       </c>
-      <c r="KV10" s="131"/>
-      <c r="KW10" s="131"/>
-      <c r="KX10" s="131"/>
-      <c r="KY10" s="131"/>
-      <c r="KZ10" s="131"/>
-      <c r="LA10" s="132"/>
-      <c r="LB10" s="130">
+      <c r="KV10" s="148"/>
+      <c r="KW10" s="148"/>
+      <c r="KX10" s="148"/>
+      <c r="KY10" s="148"/>
+      <c r="KZ10" s="148"/>
+      <c r="LA10" s="149"/>
+      <c r="LB10" s="147">
         <f t="shared" ref="LB10" si="68">WEEKNUM(LE13,21)</f>
         <v>29</v>
       </c>
-      <c r="LC10" s="131"/>
-      <c r="LD10" s="131"/>
-      <c r="LE10" s="131"/>
-      <c r="LF10" s="131"/>
-      <c r="LG10" s="131"/>
-      <c r="LH10" s="132"/>
-      <c r="LI10" s="130">
+      <c r="LC10" s="148"/>
+      <c r="LD10" s="148"/>
+      <c r="LE10" s="148"/>
+      <c r="LF10" s="148"/>
+      <c r="LG10" s="148"/>
+      <c r="LH10" s="149"/>
+      <c r="LI10" s="147">
         <f t="shared" ref="LI10" si="69">WEEKNUM(LL13,21)</f>
         <v>30</v>
       </c>
-      <c r="LJ10" s="131"/>
-      <c r="LK10" s="131"/>
-      <c r="LL10" s="131"/>
-      <c r="LM10" s="131"/>
-      <c r="LN10" s="131"/>
-      <c r="LO10" s="132"/>
-      <c r="LP10" s="130">
+      <c r="LJ10" s="148"/>
+      <c r="LK10" s="148"/>
+      <c r="LL10" s="148"/>
+      <c r="LM10" s="148"/>
+      <c r="LN10" s="148"/>
+      <c r="LO10" s="149"/>
+      <c r="LP10" s="147">
         <f t="shared" ref="LP10" si="70">WEEKNUM(LS13,21)</f>
         <v>31</v>
       </c>
-      <c r="LQ10" s="131"/>
-      <c r="LR10" s="131"/>
-      <c r="LS10" s="131"/>
-      <c r="LT10" s="131"/>
-      <c r="LU10" s="131"/>
-      <c r="LV10" s="132"/>
-      <c r="LW10" s="130">
+      <c r="LQ10" s="148"/>
+      <c r="LR10" s="148"/>
+      <c r="LS10" s="148"/>
+      <c r="LT10" s="148"/>
+      <c r="LU10" s="148"/>
+      <c r="LV10" s="149"/>
+      <c r="LW10" s="147">
         <f t="shared" ref="LW10" si="71">WEEKNUM(LZ13,21)</f>
         <v>32</v>
       </c>
-      <c r="LX10" s="131"/>
-      <c r="LY10" s="131"/>
-      <c r="LZ10" s="131"/>
-      <c r="MA10" s="131"/>
-      <c r="MB10" s="131"/>
-      <c r="MC10" s="132"/>
-      <c r="MD10" s="130">
+      <c r="LX10" s="148"/>
+      <c r="LY10" s="148"/>
+      <c r="LZ10" s="148"/>
+      <c r="MA10" s="148"/>
+      <c r="MB10" s="148"/>
+      <c r="MC10" s="149"/>
+      <c r="MD10" s="147">
         <f t="shared" ref="MD10" si="72">WEEKNUM(MG13,21)</f>
         <v>33</v>
       </c>
-      <c r="ME10" s="131"/>
-      <c r="MF10" s="131"/>
-      <c r="MG10" s="131"/>
-      <c r="MH10" s="131"/>
-      <c r="MI10" s="131"/>
-      <c r="MJ10" s="132"/>
-      <c r="MK10" s="130">
+      <c r="ME10" s="148"/>
+      <c r="MF10" s="148"/>
+      <c r="MG10" s="148"/>
+      <c r="MH10" s="148"/>
+      <c r="MI10" s="148"/>
+      <c r="MJ10" s="149"/>
+      <c r="MK10" s="147">
         <f t="shared" ref="MK10" si="73">WEEKNUM(MN13,21)</f>
         <v>34</v>
       </c>
-      <c r="ML10" s="131"/>
-      <c r="MM10" s="131"/>
-      <c r="MN10" s="131"/>
-      <c r="MO10" s="131"/>
-      <c r="MP10" s="131"/>
-      <c r="MQ10" s="132"/>
-      <c r="MR10" s="130">
+      <c r="ML10" s="148"/>
+      <c r="MM10" s="148"/>
+      <c r="MN10" s="148"/>
+      <c r="MO10" s="148"/>
+      <c r="MP10" s="148"/>
+      <c r="MQ10" s="149"/>
+      <c r="MR10" s="147">
         <f t="shared" ref="MR10" si="74">WEEKNUM(MU13,21)</f>
         <v>35</v>
       </c>
-      <c r="MS10" s="131"/>
-      <c r="MT10" s="131"/>
-      <c r="MU10" s="131"/>
-      <c r="MV10" s="131"/>
-      <c r="MW10" s="131"/>
-      <c r="MX10" s="132"/>
-      <c r="MY10" s="130">
+      <c r="MS10" s="148"/>
+      <c r="MT10" s="148"/>
+      <c r="MU10" s="148"/>
+      <c r="MV10" s="148"/>
+      <c r="MW10" s="148"/>
+      <c r="MX10" s="149"/>
+      <c r="MY10" s="147">
         <f t="shared" ref="MY10" si="75">WEEKNUM(NB13,21)</f>
         <v>36</v>
       </c>
-      <c r="MZ10" s="131"/>
-      <c r="NA10" s="131"/>
-      <c r="NB10" s="131"/>
-      <c r="NC10" s="131"/>
-      <c r="ND10" s="131"/>
-      <c r="NE10" s="132"/>
-      <c r="NF10" s="130">
+      <c r="MZ10" s="148"/>
+      <c r="NA10" s="148"/>
+      <c r="NB10" s="148"/>
+      <c r="NC10" s="148"/>
+      <c r="ND10" s="148"/>
+      <c r="NE10" s="149"/>
+      <c r="NF10" s="147">
         <f t="shared" ref="NF10" si="76">WEEKNUM(NI13,21)</f>
         <v>37</v>
       </c>
-      <c r="NG10" s="131"/>
-      <c r="NH10" s="131"/>
-      <c r="NI10" s="131"/>
-      <c r="NJ10" s="131"/>
-      <c r="NK10" s="131"/>
-      <c r="NL10" s="132"/>
-      <c r="NM10" s="130">
+      <c r="NG10" s="148"/>
+      <c r="NH10" s="148"/>
+      <c r="NI10" s="148"/>
+      <c r="NJ10" s="148"/>
+      <c r="NK10" s="148"/>
+      <c r="NL10" s="149"/>
+      <c r="NM10" s="147">
         <f t="shared" ref="NM10" si="77">WEEKNUM(NP13,21)</f>
         <v>38</v>
       </c>
-      <c r="NN10" s="131"/>
-      <c r="NO10" s="131"/>
-      <c r="NP10" s="131"/>
-      <c r="NQ10" s="131"/>
-      <c r="NR10" s="131"/>
-      <c r="NS10" s="132"/>
-      <c r="NT10" s="130">
+      <c r="NN10" s="148"/>
+      <c r="NO10" s="148"/>
+      <c r="NP10" s="148"/>
+      <c r="NQ10" s="148"/>
+      <c r="NR10" s="148"/>
+      <c r="NS10" s="149"/>
+      <c r="NT10" s="147">
         <f t="shared" ref="NT10" si="78">WEEKNUM(NW13,21)</f>
         <v>39</v>
       </c>
-      <c r="NU10" s="131"/>
-      <c r="NV10" s="131"/>
-      <c r="NW10" s="131"/>
-      <c r="NX10" s="131"/>
-      <c r="NY10" s="131"/>
-      <c r="NZ10" s="132"/>
-      <c r="OA10" s="130">
+      <c r="NU10" s="148"/>
+      <c r="NV10" s="148"/>
+      <c r="NW10" s="148"/>
+      <c r="NX10" s="148"/>
+      <c r="NY10" s="148"/>
+      <c r="NZ10" s="149"/>
+      <c r="OA10" s="147">
         <f t="shared" ref="OA10" si="79">WEEKNUM(OD13,21)</f>
         <v>40</v>
       </c>
-      <c r="OB10" s="131"/>
-      <c r="OC10" s="131"/>
-      <c r="OD10" s="131"/>
-      <c r="OE10" s="131"/>
-      <c r="OF10" s="131"/>
-      <c r="OG10" s="132"/>
-      <c r="OH10" s="130">
+      <c r="OB10" s="148"/>
+      <c r="OC10" s="148"/>
+      <c r="OD10" s="148"/>
+      <c r="OE10" s="148"/>
+      <c r="OF10" s="148"/>
+      <c r="OG10" s="149"/>
+      <c r="OH10" s="147">
         <f t="shared" ref="OH10" si="80">WEEKNUM(OK13,21)</f>
         <v>41</v>
       </c>
-      <c r="OI10" s="131"/>
-      <c r="OJ10" s="131"/>
-      <c r="OK10" s="131"/>
-      <c r="OL10" s="131"/>
-      <c r="OM10" s="131"/>
-      <c r="ON10" s="132"/>
-      <c r="OO10" s="130">
+      <c r="OI10" s="148"/>
+      <c r="OJ10" s="148"/>
+      <c r="OK10" s="148"/>
+      <c r="OL10" s="148"/>
+      <c r="OM10" s="148"/>
+      <c r="ON10" s="149"/>
+      <c r="OO10" s="147">
         <f t="shared" ref="OO10" si="81">WEEKNUM(OR13,21)</f>
         <v>42</v>
       </c>
-      <c r="OP10" s="131"/>
-      <c r="OQ10" s="131"/>
-      <c r="OR10" s="131"/>
-      <c r="OS10" s="131"/>
-      <c r="OT10" s="131"/>
-      <c r="OU10" s="132"/>
-      <c r="OV10" s="130">
+      <c r="OP10" s="148"/>
+      <c r="OQ10" s="148"/>
+      <c r="OR10" s="148"/>
+      <c r="OS10" s="148"/>
+      <c r="OT10" s="148"/>
+      <c r="OU10" s="149"/>
+      <c r="OV10" s="147">
         <f t="shared" ref="OV10" si="82">WEEKNUM(OY13,21)</f>
         <v>43</v>
       </c>
-      <c r="OW10" s="131"/>
-      <c r="OX10" s="131"/>
-      <c r="OY10" s="131"/>
-      <c r="OZ10" s="131"/>
-      <c r="PA10" s="131"/>
-      <c r="PB10" s="132"/>
+      <c r="OW10" s="148"/>
+      <c r="OX10" s="148"/>
+      <c r="OY10" s="148"/>
+      <c r="OZ10" s="148"/>
+      <c r="PA10" s="148"/>
+      <c r="PB10" s="149"/>
     </row>
     <row r="11" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="29"/>
@@ -6591,8 +6571,8 @@
       <c r="G11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="133"/>
-      <c r="I11" s="133"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
       <c r="J11" s="33"/>
       <c r="L11" s="28" t="s">
         <v>17</v>
@@ -7821,8 +7801,8 @@
       <c r="C12" s="30"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="174"/>
       <c r="J12" s="38"/>
       <c r="L12" s="39" t="s">
         <v>2</v>
@@ -18142,10 +18122,10 @@
       </c>
       <c r="I30" s="78"/>
       <c r="J30" s="78"/>
-      <c r="K30" s="173">
+      <c r="K30" s="132">
         <v>3</v>
       </c>
-      <c r="L30" s="174">
+      <c r="L30" s="133">
         <v>8</v>
       </c>
       <c r="M30" s="58"/>
@@ -20331,10 +20311,10 @@
       </c>
       <c r="I35" s="78"/>
       <c r="J35" s="78"/>
-      <c r="K35" s="173">
+      <c r="K35" s="132">
         <v>2</v>
       </c>
-      <c r="L35" s="174">
+      <c r="L35" s="133">
         <v>5</v>
       </c>
       <c r="M35" s="58"/>
@@ -22962,10 +22942,10 @@
       </c>
       <c r="I41" s="78"/>
       <c r="J41" s="78"/>
-      <c r="K41" s="171">
+      <c r="K41" s="130">
         <v>7</v>
       </c>
-      <c r="L41" s="172">
+      <c r="L41" s="131">
         <v>2</v>
       </c>
       <c r="M41" s="58"/>
@@ -45709,10 +45689,10 @@
       </c>
       <c r="I93" s="78"/>
       <c r="J93" s="78"/>
-      <c r="K93" s="171">
+      <c r="K93" s="130">
         <v>10</v>
       </c>
-      <c r="L93" s="172">
+      <c r="L93" s="131">
         <v>5</v>
       </c>
       <c r="M93" s="58"/>
@@ -47020,10 +47000,10 @@
       </c>
       <c r="I96" s="78"/>
       <c r="J96" s="78"/>
-      <c r="K96" s="171">
+      <c r="K96" s="130">
         <v>6</v>
       </c>
-      <c r="L96" s="172">
+      <c r="L96" s="131">
         <v>3</v>
       </c>
       <c r="M96" s="58"/>
@@ -57543,21 +57523,100 @@
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="133">
-    <mergeCell ref="OA9:OG9"/>
-    <mergeCell ref="KN9:KT9"/>
-    <mergeCell ref="IX9:JD9"/>
-    <mergeCell ref="IQ9:IW9"/>
-    <mergeCell ref="IJ9:IP9"/>
-    <mergeCell ref="IC9:II9"/>
-    <mergeCell ref="HV9:IB9"/>
-    <mergeCell ref="HO9:HU9"/>
-    <mergeCell ref="HH9:HN9"/>
-    <mergeCell ref="JE9:JK9"/>
-    <mergeCell ref="JL9:JR9"/>
-    <mergeCell ref="JS9:JY9"/>
-    <mergeCell ref="JZ9:KF9"/>
-    <mergeCell ref="KG9:KM9"/>
-    <mergeCell ref="MY9:NE9"/>
+    <mergeCell ref="IQ10:IW10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="FD10:FJ10"/>
+    <mergeCell ref="CE10:CK10"/>
+    <mergeCell ref="CL10:CR10"/>
+    <mergeCell ref="CS10:CY10"/>
+    <mergeCell ref="CZ10:DF10"/>
+    <mergeCell ref="DG10:DM10"/>
+    <mergeCell ref="DN10:DT10"/>
+    <mergeCell ref="BQ10:BW10"/>
+    <mergeCell ref="BX10:CD10"/>
+    <mergeCell ref="AO10:AU10"/>
+    <mergeCell ref="AV10:BB10"/>
+    <mergeCell ref="BC10:BI10"/>
+    <mergeCell ref="BJ10:BP10"/>
+    <mergeCell ref="DU10:EA10"/>
+    <mergeCell ref="EB10:EH10"/>
+    <mergeCell ref="EI10:EO10"/>
+    <mergeCell ref="EP10:EV10"/>
+    <mergeCell ref="EW10:FC10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:Z10"/>
+    <mergeCell ref="AA10:AG10"/>
+    <mergeCell ref="AH10:AN10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="JS10:JY10"/>
+    <mergeCell ref="JZ10:KF10"/>
+    <mergeCell ref="HA10:HG10"/>
+    <mergeCell ref="HH10:HN10"/>
+    <mergeCell ref="HO10:HU10"/>
+    <mergeCell ref="HV10:IB10"/>
+    <mergeCell ref="IC10:II10"/>
+    <mergeCell ref="IJ10:IP10"/>
+    <mergeCell ref="FK10:FQ10"/>
+    <mergeCell ref="FR10:FX10"/>
+    <mergeCell ref="FY10:GE10"/>
+    <mergeCell ref="GF10:GL10"/>
+    <mergeCell ref="GM10:GS10"/>
+    <mergeCell ref="GT10:GZ10"/>
+    <mergeCell ref="JL10:JR10"/>
+    <mergeCell ref="JE10:JK10"/>
+    <mergeCell ref="IX10:JD10"/>
+    <mergeCell ref="HA9:HG9"/>
+    <mergeCell ref="GT9:GZ9"/>
+    <mergeCell ref="GM9:GS9"/>
+    <mergeCell ref="GF9:GL9"/>
+    <mergeCell ref="FY9:GE9"/>
+    <mergeCell ref="FR9:FX9"/>
+    <mergeCell ref="FK9:FQ9"/>
+    <mergeCell ref="MK9:MQ9"/>
+    <mergeCell ref="MR9:MX9"/>
+    <mergeCell ref="KU9:LA9"/>
+    <mergeCell ref="LB9:LH9"/>
+    <mergeCell ref="LI9:LO9"/>
+    <mergeCell ref="LP9:LV9"/>
+    <mergeCell ref="LW9:MC9"/>
+    <mergeCell ref="MD9:MJ9"/>
+    <mergeCell ref="EW9:FC9"/>
+    <mergeCell ref="FD9:FJ9"/>
+    <mergeCell ref="CS9:CY9"/>
+    <mergeCell ref="CZ9:DF9"/>
+    <mergeCell ref="DG9:DM9"/>
+    <mergeCell ref="DN9:DT9"/>
+    <mergeCell ref="DU9:EA9"/>
+    <mergeCell ref="EB9:EH9"/>
+    <mergeCell ref="EI9:EO9"/>
+    <mergeCell ref="EP9:EV9"/>
+    <mergeCell ref="OV9:PB9"/>
+    <mergeCell ref="NF9:NL9"/>
+    <mergeCell ref="NM9:NS9"/>
+    <mergeCell ref="NT9:NZ9"/>
+    <mergeCell ref="B1:I2"/>
+    <mergeCell ref="BC9:BI9"/>
+    <mergeCell ref="BJ9:BP9"/>
+    <mergeCell ref="BQ9:BW9"/>
+    <mergeCell ref="BX9:CD9"/>
+    <mergeCell ref="CE9:CK9"/>
+    <mergeCell ref="CL9:CR9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:Z9"/>
+    <mergeCell ref="AA9:AG9"/>
+    <mergeCell ref="AH9:AN9"/>
+    <mergeCell ref="AO9:AU9"/>
+    <mergeCell ref="AV9:BB9"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I9"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="B4:D4"/>
@@ -57582,740 +57641,661 @@
     <mergeCell ref="KG10:KM10"/>
     <mergeCell ref="OO9:OU9"/>
     <mergeCell ref="OH9:ON9"/>
-    <mergeCell ref="OV9:PB9"/>
-    <mergeCell ref="NF9:NL9"/>
-    <mergeCell ref="NM9:NS9"/>
-    <mergeCell ref="NT9:NZ9"/>
-    <mergeCell ref="B1:I2"/>
-    <mergeCell ref="BC9:BI9"/>
-    <mergeCell ref="BJ9:BP9"/>
-    <mergeCell ref="BQ9:BW9"/>
-    <mergeCell ref="BX9:CD9"/>
-    <mergeCell ref="CE9:CK9"/>
-    <mergeCell ref="CL9:CR9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:Z9"/>
-    <mergeCell ref="AA9:AG9"/>
-    <mergeCell ref="AH9:AN9"/>
-    <mergeCell ref="AO9:AU9"/>
-    <mergeCell ref="AV9:BB9"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I9"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="EW9:FC9"/>
-    <mergeCell ref="FD9:FJ9"/>
-    <mergeCell ref="CS9:CY9"/>
-    <mergeCell ref="CZ9:DF9"/>
-    <mergeCell ref="DG9:DM9"/>
-    <mergeCell ref="DN9:DT9"/>
-    <mergeCell ref="DU9:EA9"/>
-    <mergeCell ref="EB9:EH9"/>
-    <mergeCell ref="EI9:EO9"/>
-    <mergeCell ref="EP9:EV9"/>
-    <mergeCell ref="HA9:HG9"/>
-    <mergeCell ref="GT9:GZ9"/>
-    <mergeCell ref="GM9:GS9"/>
-    <mergeCell ref="GF9:GL9"/>
-    <mergeCell ref="FY9:GE9"/>
-    <mergeCell ref="FR9:FX9"/>
-    <mergeCell ref="FK9:FQ9"/>
-    <mergeCell ref="MK9:MQ9"/>
-    <mergeCell ref="MR9:MX9"/>
-    <mergeCell ref="KU9:LA9"/>
-    <mergeCell ref="LB9:LH9"/>
-    <mergeCell ref="LI9:LO9"/>
-    <mergeCell ref="LP9:LV9"/>
-    <mergeCell ref="LW9:MC9"/>
-    <mergeCell ref="MD9:MJ9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:Z10"/>
-    <mergeCell ref="AA10:AG10"/>
-    <mergeCell ref="AH10:AN10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="JS10:JY10"/>
-    <mergeCell ref="JZ10:KF10"/>
-    <mergeCell ref="HA10:HG10"/>
-    <mergeCell ref="HH10:HN10"/>
-    <mergeCell ref="HO10:HU10"/>
-    <mergeCell ref="HV10:IB10"/>
-    <mergeCell ref="IC10:II10"/>
-    <mergeCell ref="IJ10:IP10"/>
-    <mergeCell ref="FK10:FQ10"/>
-    <mergeCell ref="FR10:FX10"/>
-    <mergeCell ref="FY10:GE10"/>
-    <mergeCell ref="GF10:GL10"/>
-    <mergeCell ref="GM10:GS10"/>
-    <mergeCell ref="GT10:GZ10"/>
-    <mergeCell ref="JL10:JR10"/>
-    <mergeCell ref="JE10:JK10"/>
-    <mergeCell ref="IX10:JD10"/>
-    <mergeCell ref="IQ10:IW10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="FD10:FJ10"/>
-    <mergeCell ref="CE10:CK10"/>
-    <mergeCell ref="CL10:CR10"/>
-    <mergeCell ref="CS10:CY10"/>
-    <mergeCell ref="CZ10:DF10"/>
-    <mergeCell ref="DG10:DM10"/>
-    <mergeCell ref="DN10:DT10"/>
-    <mergeCell ref="BQ10:BW10"/>
-    <mergeCell ref="BX10:CD10"/>
-    <mergeCell ref="AO10:AU10"/>
-    <mergeCell ref="AV10:BB10"/>
-    <mergeCell ref="BC10:BI10"/>
-    <mergeCell ref="BJ10:BP10"/>
-    <mergeCell ref="DU10:EA10"/>
-    <mergeCell ref="EB10:EH10"/>
-    <mergeCell ref="EI10:EO10"/>
-    <mergeCell ref="EP10:EV10"/>
-    <mergeCell ref="EW10:FC10"/>
+    <mergeCell ref="OA9:OG9"/>
+    <mergeCell ref="KN9:KT9"/>
+    <mergeCell ref="IX9:JD9"/>
+    <mergeCell ref="IQ9:IW9"/>
+    <mergeCell ref="IJ9:IP9"/>
+    <mergeCell ref="IC9:II9"/>
+    <mergeCell ref="HV9:IB9"/>
+    <mergeCell ref="HO9:HU9"/>
+    <mergeCell ref="HH9:HN9"/>
+    <mergeCell ref="JE9:JK9"/>
+    <mergeCell ref="JL9:JR9"/>
+    <mergeCell ref="JS9:JY9"/>
+    <mergeCell ref="JZ9:KF9"/>
+    <mergeCell ref="KG9:KM9"/>
+    <mergeCell ref="MY9:NE9"/>
   </mergeCells>
   <conditionalFormatting sqref="M9:PB9">
-    <cfRule type="expression" dxfId="281" priority="778">
+    <cfRule type="expression" dxfId="279" priority="778">
       <formula>OR(TEXT(M9,"MMMM")="Februar",TEXT(M9,"MMMM")="April",TEXT(M9,"MMMM")="Juni",TEXT(M9,"MMMM")="August",TEXT(M9,"MMMM")="Oktober",TEXT(M9,"MMMM")="Dezember")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M75:PB108 M62:PB66">
-    <cfRule type="expression" dxfId="280" priority="771">
+    <cfRule type="expression" dxfId="278" priority="771">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:PI13">
-    <cfRule type="expression" dxfId="279" priority="774">
+    <cfRule type="expression" dxfId="277" priority="774">
       <formula>AND(M$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="278" priority="776">
+    <cfRule type="expression" dxfId="276" priority="776">
       <formula>AND(M$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:U13 V13:PB13">
-    <cfRule type="expression" dxfId="277" priority="775">
+    <cfRule type="expression" dxfId="275" priority="775">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:X13">
-    <cfRule type="expression" dxfId="276" priority="772">
+    <cfRule type="expression" dxfId="274" priority="772">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="275" priority="773">
+    <cfRule type="expression" dxfId="273" priority="773">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB44 M46:PB107">
-    <cfRule type="expression" dxfId="274" priority="758">
+    <cfRule type="expression" dxfId="272" priority="758">
       <formula>AND($I15=M$13,$J15&lt;&gt;"F",$I15&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="763">
+    <cfRule type="expression" dxfId="271" priority="763">
       <formula>AND($I15=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="272" priority="767">
+    <cfRule type="expression" dxfId="270" priority="767">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="770">
+    <cfRule type="expression" dxfId="269" priority="770">
       <formula>AND($G15&lt;&gt;"",AND(M$13&gt;=$E15,M$13&lt;=$G15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB44 M46:PB107">
-    <cfRule type="expression" dxfId="270" priority="768">
+    <cfRule type="expression" dxfId="268" priority="768">
       <formula>AND($H15&gt;0,AND(M$13&gt;=$E15,M$13&lt;=$E15+($G15-$E15)*$H15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M75:PB108 M62:PB66">
-    <cfRule type="expression" dxfId="269" priority="779">
+    <cfRule type="expression" dxfId="267" priority="779">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M62:PB66 M75:PB107">
-    <cfRule type="expression" dxfId="268" priority="766">
+    <cfRule type="expression" dxfId="266" priority="766">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M75:PB108 M62:PB66">
-    <cfRule type="expression" dxfId="267" priority="777">
+    <cfRule type="expression" dxfId="265" priority="777">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:J18 I20:J26 I28:J28 I30:J32 I39:J39 I34:J37 I110:J118 I71:J71 I68:J69 I57:J60 I46:J55 I73:J73 I75:J82 I62:J66">
-    <cfRule type="expression" dxfId="266" priority="759">
+    <cfRule type="expression" dxfId="264" priority="759">
       <formula>AND($J15="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="760">
+    <cfRule type="expression" dxfId="263" priority="760">
       <formula>AND($I15&lt;&gt;"",AND($I15&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="264" priority="764">
+    <cfRule type="expression" dxfId="262" priority="764">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="765">
+    <cfRule type="expression" dxfId="261" priority="765">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:R13">
-    <cfRule type="expression" dxfId="262" priority="761">
+    <cfRule type="expression" dxfId="260" priority="761">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="762">
+    <cfRule type="expression" dxfId="259" priority="762">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:L18 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C51:F52 C110:L118 C50:D50 F50 C53:L55 E71:L71 C71 C75:L82 C68:L69 C57:L60 C46:F49 H46:L52 C73 E73:L73 C65:L66 C64:D64 C62:L63 G46:G50 G64:J64">
-    <cfRule type="expression" dxfId="260" priority="769">
+    <cfRule type="expression" dxfId="258" priority="769">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="259" priority="683">
+    <cfRule type="expression" dxfId="257" priority="683">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="258" priority="674">
+    <cfRule type="expression" dxfId="256" priority="674">
       <formula>AND($I19=M$13,$J19&lt;&gt;"F",$I19&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="257" priority="677">
+    <cfRule type="expression" dxfId="255" priority="677">
       <formula>AND($I19=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="256" priority="679">
+    <cfRule type="expression" dxfId="254" priority="679">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="682">
+    <cfRule type="expression" dxfId="253" priority="682">
       <formula>AND($G19&lt;&gt;"",AND(M$13&gt;=$E19,M$13&lt;=$G19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="254" priority="680">
+    <cfRule type="expression" dxfId="252" priority="680">
       <formula>AND($H19&gt;0,AND(M$13&gt;=$E19,M$13&lt;=$E19+($G19-$E19)*$H19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="253" priority="685">
+    <cfRule type="expression" dxfId="251" priority="685">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="252" priority="678">
+    <cfRule type="expression" dxfId="250" priority="678">
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="251" priority="684">
+    <cfRule type="expression" dxfId="249" priority="684">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J19">
-    <cfRule type="expression" dxfId="250" priority="675">
+    <cfRule type="expression" dxfId="248" priority="675">
       <formula>AND($J19="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="249" priority="676">
+    <cfRule type="expression" dxfId="247" priority="676">
       <formula>AND($I19&lt;&gt;"",AND($I19&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:L19">
-    <cfRule type="expression" dxfId="248" priority="681">
+    <cfRule type="expression" dxfId="246" priority="681">
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110:PB110">
-    <cfRule type="expression" dxfId="247" priority="473">
+    <cfRule type="expression" dxfId="245" priority="473">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110:PB110">
-    <cfRule type="expression" dxfId="246" priority="475">
+    <cfRule type="expression" dxfId="244" priority="475">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110:PB119">
-    <cfRule type="expression" dxfId="245" priority="468">
+    <cfRule type="expression" dxfId="243" priority="468">
       <formula>OR($C109="X",$C109="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110:PB110">
-    <cfRule type="expression" dxfId="244" priority="474">
+    <cfRule type="expression" dxfId="242" priority="474">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109:J109">
-    <cfRule type="expression" dxfId="243" priority="465">
+    <cfRule type="expression" dxfId="241" priority="465">
       <formula>AND($J109="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="466">
+    <cfRule type="expression" dxfId="240" priority="466">
       <formula>AND($I109&lt;&gt;"",AND($I109&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109 F109:L109">
-    <cfRule type="expression" dxfId="241" priority="471">
+    <cfRule type="expression" dxfId="239" priority="471">
       <formula>OR($C109="X",$C109="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="240" priority="463">
+    <cfRule type="expression" dxfId="238" priority="463">
       <formula>OR($C109="X",$C109="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="239" priority="459">
+    <cfRule type="expression" dxfId="237" priority="459">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="238" priority="461">
+    <cfRule type="expression" dxfId="236" priority="461">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="237" priority="454">
+    <cfRule type="expression" dxfId="235" priority="454">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="236" priority="460">
+    <cfRule type="expression" dxfId="234" priority="460">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:J108">
-    <cfRule type="expression" dxfId="235" priority="451">
+    <cfRule type="expression" dxfId="233" priority="451">
       <formula>AND($J108="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="234" priority="452">
+    <cfRule type="expression" dxfId="232" priority="452">
       <formula>AND($I108&lt;&gt;"",AND($I108&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108 F108 H108:L108">
-    <cfRule type="expression" dxfId="233" priority="457">
+    <cfRule type="expression" dxfId="231" priority="457">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="expression" dxfId="231" priority="413">
+    <cfRule type="expression" dxfId="230" priority="413">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="expression" dxfId="230" priority="414">
+    <cfRule type="expression" dxfId="229" priority="414">
       <formula>OR($C109="X",$C109="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="229" priority="374">
+    <cfRule type="expression" dxfId="228" priority="374">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="228" priority="365">
+    <cfRule type="expression" dxfId="227" priority="365">
       <formula>AND($I29=M$13,$J29&lt;&gt;"F",$I29&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="368">
+    <cfRule type="expression" dxfId="226" priority="368">
       <formula>AND($I29=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="370">
+    <cfRule type="expression" dxfId="225" priority="370">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="373">
+    <cfRule type="expression" dxfId="224" priority="373">
       <formula>AND($G29&lt;&gt;"",AND(M$13&gt;=$E29,M$13&lt;=$G29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="224" priority="371">
+    <cfRule type="expression" dxfId="223" priority="371">
       <formula>AND($H29&gt;0,AND(M$13&gt;=$E29,M$13&lt;=$E29+($G29-$E29)*$H29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="223" priority="376">
+    <cfRule type="expression" dxfId="222" priority="376">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="222" priority="369">
+    <cfRule type="expression" dxfId="221" priority="369">
       <formula>OR($C29="X",$C29="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="221" priority="375">
+    <cfRule type="expression" dxfId="220" priority="375">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J29">
-    <cfRule type="expression" dxfId="220" priority="366">
+    <cfRule type="expression" dxfId="219" priority="366">
       <formula>AND($J29="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="367">
+    <cfRule type="expression" dxfId="218" priority="367">
       <formula>AND($I29&lt;&gt;"",AND($I29&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:L29">
-    <cfRule type="expression" dxfId="218" priority="372">
+    <cfRule type="expression" dxfId="217" priority="372">
       <formula>OR($C29="X",$C29="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="217" priority="350">
+    <cfRule type="expression" dxfId="216" priority="350">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="216" priority="352">
+    <cfRule type="expression" dxfId="215" priority="352">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="215" priority="345">
+    <cfRule type="expression" dxfId="214" priority="345">
       <formula>OR($C38="X",$C38="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="214" priority="351">
+    <cfRule type="expression" dxfId="213" priority="351">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J38">
-    <cfRule type="expression" dxfId="213" priority="342">
+    <cfRule type="expression" dxfId="212" priority="342">
       <formula>AND($J38="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="212" priority="343">
+    <cfRule type="expression" dxfId="211" priority="343">
       <formula>AND($I38&lt;&gt;"",AND($I38&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F38 H38:L38">
-    <cfRule type="expression" dxfId="211" priority="348">
+    <cfRule type="expression" dxfId="210" priority="348">
       <formula>OR($C38="X",$C38="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="210" priority="338">
+    <cfRule type="expression" dxfId="209" priority="338">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="209" priority="329">
+    <cfRule type="expression" dxfId="208" priority="329">
       <formula>AND($I27=M$13,$J27&lt;&gt;"F",$I27&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="332">
+    <cfRule type="expression" dxfId="207" priority="332">
       <formula>AND($I27=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="334">
+    <cfRule type="expression" dxfId="206" priority="334">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="337">
+    <cfRule type="expression" dxfId="205" priority="337">
       <formula>AND($G27&lt;&gt;"",AND(M$13&gt;=$E27,M$13&lt;=$G27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="205" priority="335">
+    <cfRule type="expression" dxfId="204" priority="335">
       <formula>AND($H27&gt;0,AND(M$13&gt;=$E27,M$13&lt;=$E27+($G27-$E27)*$H27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="204" priority="340">
+    <cfRule type="expression" dxfId="203" priority="340">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="203" priority="333">
+    <cfRule type="expression" dxfId="202" priority="333">
       <formula>OR($C27="X",$C27="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="202" priority="339">
+    <cfRule type="expression" dxfId="201" priority="339">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J27">
-    <cfRule type="expression" dxfId="201" priority="330">
+    <cfRule type="expression" dxfId="200" priority="330">
       <formula>AND($J27="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="331">
+    <cfRule type="expression" dxfId="199" priority="331">
       <formula>AND($I27&lt;&gt;"",AND($I27&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:L27">
-    <cfRule type="expression" dxfId="199" priority="336">
+    <cfRule type="expression" dxfId="198" priority="336">
       <formula>OR($C27="X",$C27="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="198" priority="258">
+    <cfRule type="expression" dxfId="197" priority="258">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="197" priority="249">
+    <cfRule type="expression" dxfId="196" priority="249">
       <formula>AND($I33=M$13,$J33&lt;&gt;"F",$I33&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="252">
+    <cfRule type="expression" dxfId="195" priority="252">
       <formula>AND($I33=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="254">
+    <cfRule type="expression" dxfId="194" priority="254">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="257">
+    <cfRule type="expression" dxfId="193" priority="257">
       <formula>AND($G33&lt;&gt;"",AND(M$13&gt;=$E33,M$13&lt;=$G33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="193" priority="255">
+    <cfRule type="expression" dxfId="192" priority="255">
       <formula>AND($H33&gt;0,AND(M$13&gt;=$E33,M$13&lt;=$E33+($G33-$E33)*$H33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="192" priority="260">
+    <cfRule type="expression" dxfId="191" priority="260">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="191" priority="253">
+    <cfRule type="expression" dxfId="190" priority="253">
       <formula>OR($C33="X",$C33="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="190" priority="259">
+    <cfRule type="expression" dxfId="189" priority="259">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:J33">
-    <cfRule type="expression" dxfId="189" priority="250">
+    <cfRule type="expression" dxfId="188" priority="250">
       <formula>AND($J33="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="251">
+    <cfRule type="expression" dxfId="187" priority="251">
       <formula>AND($I33&lt;&gt;"",AND($I33&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:L33">
-    <cfRule type="expression" dxfId="187" priority="256">
+    <cfRule type="expression" dxfId="186" priority="256">
       <formula>OR($C33="X",$C33="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="expression" dxfId="186" priority="246">
+    <cfRule type="expression" dxfId="185" priority="246">
       <formula>AND($J40="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="247">
+    <cfRule type="expression" dxfId="184" priority="247">
       <formula>AND($I40&lt;&gt;"",AND($I40&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:L40 G42:G43 G51:G52">
-    <cfRule type="expression" dxfId="184" priority="248">
+    <cfRule type="expression" dxfId="183" priority="248">
       <formula>OR($C40="X",$C40="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J41">
-    <cfRule type="expression" dxfId="183" priority="243">
+    <cfRule type="expression" dxfId="182" priority="243">
       <formula>AND($J41="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="244">
+    <cfRule type="expression" dxfId="181" priority="244">
       <formula>AND($I41&lt;&gt;"",AND($I41&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:L41 G44">
-    <cfRule type="expression" dxfId="181" priority="245">
+    <cfRule type="expression" dxfId="180" priority="245">
       <formula>OR($C41="X",$C41="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:J84">
-    <cfRule type="expression" dxfId="180" priority="240">
+    <cfRule type="expression" dxfId="179" priority="240">
       <formula>AND($J83="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="241">
+    <cfRule type="expression" dxfId="178" priority="241">
       <formula>AND($I83&lt;&gt;"",AND($I83&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83:C84 F83:L83 F84 H84:L84 G84:G102">
-    <cfRule type="expression" dxfId="178" priority="242">
+    <cfRule type="expression" dxfId="177" priority="242">
       <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="177" priority="239">
+    <cfRule type="expression" dxfId="176" priority="239">
       <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="expression" dxfId="176" priority="238">
+    <cfRule type="expression" dxfId="175" priority="238">
       <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87:J87 I106:J106 I89:J103">
-    <cfRule type="expression" dxfId="175" priority="235">
+    <cfRule type="expression" dxfId="174" priority="235">
       <formula>AND($J87="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="174" priority="236">
+    <cfRule type="expression" dxfId="173" priority="236">
       <formula>AND($I87&lt;&gt;"",AND($I87&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87 F106:L106 C106 F103:L103 F102 H87:L87 H89:L102 C89:C103 G104:G105">
-    <cfRule type="expression" dxfId="173" priority="237">
+    <cfRule type="expression" dxfId="172" priority="237">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:E103 E106">
-    <cfRule type="expression" dxfId="172" priority="234">
+    <cfRule type="expression" dxfId="171" priority="234">
       <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:J86">
-    <cfRule type="expression" dxfId="171" priority="231">
+    <cfRule type="expression" dxfId="170" priority="231">
       <formula>AND($J86="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="232">
+    <cfRule type="expression" dxfId="169" priority="232">
       <formula>AND($I86&lt;&gt;"",AND($I86&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86 F86 H86:L86">
-    <cfRule type="expression" dxfId="169" priority="233">
+    <cfRule type="expression" dxfId="168" priority="233">
       <formula>OR($C86="X",$C86="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="168" priority="230">
+    <cfRule type="expression" dxfId="167" priority="230">
       <formula>OR($C86="X",$C86="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87 D106 D89:D103">
-    <cfRule type="expression" dxfId="167" priority="229">
+    <cfRule type="expression" dxfId="166" priority="229">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="expression" dxfId="166" priority="228">
+    <cfRule type="expression" dxfId="165" priority="228">
       <formula>OR($C86="X",$C86="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="expression" dxfId="165" priority="223">
+    <cfRule type="expression" dxfId="164" priority="223">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:J85">
-    <cfRule type="expression" dxfId="164" priority="225">
+    <cfRule type="expression" dxfId="163" priority="225">
       <formula>AND($J85="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="226">
+    <cfRule type="expression" dxfId="162" priority="226">
       <formula>AND($I85&lt;&gt;"",AND($I85&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85 F85 H85:L85">
-    <cfRule type="expression" dxfId="162" priority="227">
+    <cfRule type="expression" dxfId="161" priority="227">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="161" priority="224">
+    <cfRule type="expression" dxfId="160" priority="224">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:J103 I109:J109 I106:J106">
-    <cfRule type="expression" dxfId="160" priority="220">
+    <cfRule type="expression" dxfId="159" priority="220">
       <formula>AND($J103="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="221">
+    <cfRule type="expression" dxfId="158" priority="221">
       <formula>AND($I103&lt;&gt;"",AND($I103&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109:L109 C103:L103 C106:L106 G104:G105">
-    <cfRule type="expression" dxfId="158" priority="222">
+    <cfRule type="expression" dxfId="157" priority="222">
       <formula>OR($C103="X",$C103="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102:J102">
-    <cfRule type="expression" dxfId="157" priority="217">
+    <cfRule type="expression" dxfId="156" priority="217">
       <formula>AND($J102="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="218">
+    <cfRule type="expression" dxfId="155" priority="218">
       <formula>AND($I102&lt;&gt;"",AND($I102&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102 F102 H102:L102">
-    <cfRule type="expression" dxfId="155" priority="219">
+    <cfRule type="expression" dxfId="154" priority="219">
       <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="154" priority="216">
+    <cfRule type="expression" dxfId="153" priority="216">
       <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:J101">
-    <cfRule type="expression" dxfId="153" priority="213">
+    <cfRule type="expression" dxfId="152" priority="213">
       <formula>AND($J101="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="214">
+    <cfRule type="expression" dxfId="151" priority="214">
       <formula>AND($I101&lt;&gt;"",AND($I101&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101 H101:L101">
-    <cfRule type="expression" dxfId="151" priority="215">
+    <cfRule type="expression" dxfId="150" priority="215">
       <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:J100">
-    <cfRule type="expression" dxfId="150" priority="209">
+    <cfRule type="expression" dxfId="149" priority="209">
       <formula>AND($J100="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="210">
+    <cfRule type="expression" dxfId="148" priority="210">
       <formula>AND($I100&lt;&gt;"",AND($I100&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100 H100:L100">
-    <cfRule type="expression" dxfId="148" priority="211">
+    <cfRule type="expression" dxfId="147" priority="211">
       <formula>OR($C100="X",$C100="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:J99">
-    <cfRule type="expression" dxfId="147" priority="205">
+    <cfRule type="expression" dxfId="146" priority="205">
       <formula>AND($J89="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="206">
+    <cfRule type="expression" dxfId="145" priority="206">
       <formula>AND($I89&lt;&gt;"",AND($I89&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C99 H89:L99">
-    <cfRule type="expression" dxfId="145" priority="207">
+    <cfRule type="expression" dxfId="144" priority="207">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="expression" dxfId="144" priority="198">
+    <cfRule type="expression" dxfId="143" priority="198">
       <formula>OR($C100="X",$C100="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92:H94">
-    <cfRule type="expression" dxfId="143" priority="176">
+    <cfRule type="expression" dxfId="142" priority="176">
       <formula>OR($C92="X",$C92="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="142" priority="199">
+    <cfRule type="expression" dxfId="141" priority="199">
       <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="141" priority="197">
+    <cfRule type="expression" dxfId="140" priority="197">
       <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89:D99">
-    <cfRule type="expression" dxfId="140" priority="196">
+    <cfRule type="expression" dxfId="139" priority="196">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:J108">
-    <cfRule type="expression" dxfId="139" priority="192">
+    <cfRule type="expression" dxfId="138" priority="192">
       <formula>AND($J108="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="193">
+    <cfRule type="expression" dxfId="137" priority="193">
       <formula>AND($I108&lt;&gt;"",AND($I108&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108 F108 H108:L108">
-    <cfRule type="expression" dxfId="137" priority="194">
+    <cfRule type="expression" dxfId="136" priority="194">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
+++ b/Projektmanagement/Detaillierter Projektplan PAIND V1.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -630,7 +630,7 @@
     <numFmt numFmtId="164" formatCode="d/m;@"/>
     <numFmt numFmtId="165" formatCode="d/m/"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,6 +885,12 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1551,7 +1557,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1995,6 +2001,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="30" fillId="16" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="31" fillId="16" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="16" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="16" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="16" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2138,7 +2166,17 @@
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="280">
+  <dxfs count="274">
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="1"/>
@@ -2763,83 +2801,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDEDEDE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF6F6F6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="7" tint="0.40000610370189521"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <bottom style="thin">
-          <color theme="7"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4865,8 +4826,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD55D"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FFFFD55D"/>
       <color rgb="FFFFF8E5"/>
       <color rgb="FFFF0101"/>
       <color rgb="FFFF3300"/>
@@ -5191,11 +5152,11 @@
   </sheetPr>
   <dimension ref="A1:PB121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <pane xSplit="12" ySplit="14" topLeftCell="M20" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <pane xSplit="12" ySplit="14" topLeftCell="BU78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="AM66" sqref="AM66"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6.3046875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5218,47 +5179,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
-      <c r="I1" s="150"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
       <c r="J1" s="1"/>
       <c r="K1" s="2"/>
       <c r="N1" s="5"/>
     </row>
     <row r="2" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="H2" s="157"/>
+      <c r="I2" s="157"/>
       <c r="J2" s="6"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="8"/>
     </row>
     <row r="3" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="140" t="s">
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="147"/>
       <c r="J3" s="9"/>
       <c r="K3" s="10"/>
       <c r="L3" s="11" t="s">
@@ -5274,18 +5235,18 @@
       <c r="W3" s="4"/>
     </row>
     <row r="4" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145" t="s">
+      <c r="C4" s="149"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="151" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="146"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="152"/>
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
       <c r="L4" s="12" t="s">
@@ -5296,18 +5257,18 @@
       <c r="P4" s="8"/>
     </row>
     <row r="5" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145" t="s">
+      <c r="C5" s="149"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="151" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="146"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="152"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10"/>
       <c r="L5" s="13" t="s">
@@ -5318,18 +5279,18 @@
       <c r="P5" s="8"/>
     </row>
     <row r="6" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="142" t="s">
+      <c r="B6" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="143"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="153" t="s">
+      <c r="C6" s="149"/>
+      <c r="D6" s="150"/>
+      <c r="E6" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="154"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="160"/>
       <c r="J6" s="14"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16" t="s">
@@ -5337,1232 +5298,1231 @@
       </c>
     </row>
     <row r="7" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="156"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="158" t="s">
+      <c r="C7" s="162"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="159"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="164"/>
+      <c r="H7" s="164"/>
+      <c r="I7" s="165"/>
       <c r="J7" s="17"/>
       <c r="K7" s="18"/>
       <c r="L7" s="19"/>
     </row>
     <row r="8" spans="2:418" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="164"/>
-      <c r="C8" s="165"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="161"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="167"/>
       <c r="J8" s="17"/>
       <c r="K8" s="18"/>
       <c r="L8" s="20"/>
       <c r="Q8" s="21"/>
     </row>
     <row r="9" spans="2:418" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="172"/>
+      <c r="C9" s="178"/>
       <c r="D9" s="22">
-        <f ca="1">TODAY()</f>
-        <v>43084</v>
-      </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="163"/>
+        <v>43091</v>
+      </c>
+      <c r="E9" s="168"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="168"/>
+      <c r="H9" s="168"/>
+      <c r="I9" s="169"/>
       <c r="J9" s="17"/>
       <c r="K9" s="23"/>
       <c r="L9" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="158" t="str">
         <f>TEXT(P13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="135"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="135"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="152" t="str">
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="141"/>
+      <c r="R9" s="141"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="158" t="str">
         <f>TEXT(W13,"MMMM JJ")</f>
         <v>September 17</v>
       </c>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="136"/>
-      <c r="AA9" s="152" t="str">
+      <c r="U9" s="141"/>
+      <c r="V9" s="141"/>
+      <c r="W9" s="141"/>
+      <c r="X9" s="141"/>
+      <c r="Y9" s="141"/>
+      <c r="Z9" s="142"/>
+      <c r="AA9" s="158" t="str">
         <f t="shared" ref="AA9" si="0">TEXT(AD13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="135"/>
-      <c r="AF9" s="135"/>
-      <c r="AG9" s="136"/>
-      <c r="AH9" s="152" t="str">
+      <c r="AB9" s="141"/>
+      <c r="AC9" s="141"/>
+      <c r="AD9" s="141"/>
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="141"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="158" t="str">
         <f t="shared" ref="AH9" si="1">TEXT(AK13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AI9" s="135"/>
-      <c r="AJ9" s="135"/>
-      <c r="AK9" s="135"/>
-      <c r="AL9" s="135"/>
-      <c r="AM9" s="135"/>
-      <c r="AN9" s="136"/>
-      <c r="AO9" s="152" t="str">
+      <c r="AI9" s="141"/>
+      <c r="AJ9" s="141"/>
+      <c r="AK9" s="141"/>
+      <c r="AL9" s="141"/>
+      <c r="AM9" s="141"/>
+      <c r="AN9" s="142"/>
+      <c r="AO9" s="158" t="str">
         <f t="shared" ref="AO9" si="2">TEXT(AR13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AP9" s="135"/>
-      <c r="AQ9" s="135"/>
-      <c r="AR9" s="135"/>
-      <c r="AS9" s="135"/>
-      <c r="AT9" s="135"/>
-      <c r="AU9" s="136"/>
-      <c r="AV9" s="152" t="str">
+      <c r="AP9" s="141"/>
+      <c r="AQ9" s="141"/>
+      <c r="AR9" s="141"/>
+      <c r="AS9" s="141"/>
+      <c r="AT9" s="141"/>
+      <c r="AU9" s="142"/>
+      <c r="AV9" s="158" t="str">
         <f t="shared" ref="AV9" si="3">TEXT(AY13,"MMMM JJ")</f>
         <v>Oktober 17</v>
       </c>
-      <c r="AW9" s="135"/>
-      <c r="AX9" s="135"/>
-      <c r="AY9" s="135"/>
-      <c r="AZ9" s="135"/>
-      <c r="BA9" s="135"/>
-      <c r="BB9" s="136"/>
-      <c r="BC9" s="152" t="str">
+      <c r="AW9" s="141"/>
+      <c r="AX9" s="141"/>
+      <c r="AY9" s="141"/>
+      <c r="AZ9" s="141"/>
+      <c r="BA9" s="141"/>
+      <c r="BB9" s="142"/>
+      <c r="BC9" s="158" t="str">
         <f t="shared" ref="BC9" si="4">TEXT(BF13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BD9" s="135"/>
-      <c r="BE9" s="135"/>
-      <c r="BF9" s="135"/>
-      <c r="BG9" s="135"/>
-      <c r="BH9" s="135"/>
-      <c r="BI9" s="136"/>
-      <c r="BJ9" s="152" t="str">
+      <c r="BD9" s="141"/>
+      <c r="BE9" s="141"/>
+      <c r="BF9" s="141"/>
+      <c r="BG9" s="141"/>
+      <c r="BH9" s="141"/>
+      <c r="BI9" s="142"/>
+      <c r="BJ9" s="158" t="str">
         <f t="shared" ref="BJ9" si="5">TEXT(BM13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BK9" s="135"/>
-      <c r="BL9" s="135"/>
-      <c r="BM9" s="135"/>
-      <c r="BN9" s="135"/>
-      <c r="BO9" s="135"/>
-      <c r="BP9" s="136"/>
-      <c r="BQ9" s="152" t="str">
+      <c r="BK9" s="141"/>
+      <c r="BL9" s="141"/>
+      <c r="BM9" s="141"/>
+      <c r="BN9" s="141"/>
+      <c r="BO9" s="141"/>
+      <c r="BP9" s="142"/>
+      <c r="BQ9" s="158" t="str">
         <f t="shared" ref="BQ9" si="6">TEXT(BT13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BR9" s="135"/>
-      <c r="BS9" s="135"/>
-      <c r="BT9" s="135"/>
-      <c r="BU9" s="135"/>
-      <c r="BV9" s="135"/>
-      <c r="BW9" s="136"/>
-      <c r="BX9" s="152" t="str">
+      <c r="BR9" s="141"/>
+      <c r="BS9" s="141"/>
+      <c r="BT9" s="141"/>
+      <c r="BU9" s="141"/>
+      <c r="BV9" s="141"/>
+      <c r="BW9" s="142"/>
+      <c r="BX9" s="158" t="str">
         <f t="shared" ref="BX9" si="7">TEXT(CA13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="BY9" s="135"/>
-      <c r="BZ9" s="135"/>
-      <c r="CA9" s="135"/>
-      <c r="CB9" s="135"/>
-      <c r="CC9" s="135"/>
-      <c r="CD9" s="136"/>
-      <c r="CE9" s="152" t="str">
+      <c r="BY9" s="141"/>
+      <c r="BZ9" s="141"/>
+      <c r="CA9" s="141"/>
+      <c r="CB9" s="141"/>
+      <c r="CC9" s="141"/>
+      <c r="CD9" s="142"/>
+      <c r="CE9" s="158" t="str">
         <f t="shared" ref="CE9" si="8">TEXT(CH13,"MMMM JJ")</f>
         <v>November 17</v>
       </c>
-      <c r="CF9" s="135"/>
-      <c r="CG9" s="135"/>
-      <c r="CH9" s="135"/>
-      <c r="CI9" s="135"/>
-      <c r="CJ9" s="135"/>
-      <c r="CK9" s="136"/>
-      <c r="CL9" s="152" t="str">
+      <c r="CF9" s="141"/>
+      <c r="CG9" s="141"/>
+      <c r="CH9" s="141"/>
+      <c r="CI9" s="141"/>
+      <c r="CJ9" s="141"/>
+      <c r="CK9" s="142"/>
+      <c r="CL9" s="158" t="str">
         <f t="shared" ref="CL9" si="9">TEXT(CO13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CM9" s="135"/>
-      <c r="CN9" s="135"/>
-      <c r="CO9" s="135"/>
-      <c r="CP9" s="135"/>
-      <c r="CQ9" s="135"/>
-      <c r="CR9" s="136"/>
-      <c r="CS9" s="152" t="str">
+      <c r="CM9" s="141"/>
+      <c r="CN9" s="141"/>
+      <c r="CO9" s="141"/>
+      <c r="CP9" s="141"/>
+      <c r="CQ9" s="141"/>
+      <c r="CR9" s="142"/>
+      <c r="CS9" s="158" t="str">
         <f t="shared" ref="CS9" si="10">TEXT(CV13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="CT9" s="135"/>
-      <c r="CU9" s="135"/>
-      <c r="CV9" s="135"/>
-      <c r="CW9" s="135"/>
-      <c r="CX9" s="135"/>
-      <c r="CY9" s="136"/>
-      <c r="CZ9" s="152" t="str">
+      <c r="CT9" s="141"/>
+      <c r="CU9" s="141"/>
+      <c r="CV9" s="141"/>
+      <c r="CW9" s="141"/>
+      <c r="CX9" s="141"/>
+      <c r="CY9" s="142"/>
+      <c r="CZ9" s="158" t="str">
         <f t="shared" ref="CZ9" si="11">TEXT(DC13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DA9" s="135"/>
-      <c r="DB9" s="135"/>
-      <c r="DC9" s="135"/>
-      <c r="DD9" s="135"/>
-      <c r="DE9" s="135"/>
-      <c r="DF9" s="136"/>
-      <c r="DG9" s="152" t="str">
+      <c r="DA9" s="141"/>
+      <c r="DB9" s="141"/>
+      <c r="DC9" s="141"/>
+      <c r="DD9" s="141"/>
+      <c r="DE9" s="141"/>
+      <c r="DF9" s="142"/>
+      <c r="DG9" s="158" t="str">
         <f t="shared" ref="DG9" si="12">TEXT(DJ13,"MMMM JJ")</f>
         <v>Dezember 17</v>
       </c>
-      <c r="DH9" s="135"/>
-      <c r="DI9" s="135"/>
-      <c r="DJ9" s="135"/>
-      <c r="DK9" s="135"/>
-      <c r="DL9" s="135"/>
-      <c r="DM9" s="136"/>
-      <c r="DN9" s="152" t="str">
+      <c r="DH9" s="141"/>
+      <c r="DI9" s="141"/>
+      <c r="DJ9" s="141"/>
+      <c r="DK9" s="141"/>
+      <c r="DL9" s="141"/>
+      <c r="DM9" s="142"/>
+      <c r="DN9" s="158" t="str">
         <f t="shared" ref="DN9" si="13">TEXT(DQ13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DO9" s="135"/>
-      <c r="DP9" s="135"/>
-      <c r="DQ9" s="135"/>
-      <c r="DR9" s="135"/>
-      <c r="DS9" s="135"/>
-      <c r="DT9" s="136"/>
-      <c r="DU9" s="152" t="str">
+      <c r="DO9" s="141"/>
+      <c r="DP9" s="141"/>
+      <c r="DQ9" s="141"/>
+      <c r="DR9" s="141"/>
+      <c r="DS9" s="141"/>
+      <c r="DT9" s="142"/>
+      <c r="DU9" s="158" t="str">
         <f t="shared" ref="DU9" si="14">TEXT(DX13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="DV9" s="135"/>
-      <c r="DW9" s="135"/>
-      <c r="DX9" s="135"/>
-      <c r="DY9" s="135"/>
-      <c r="DZ9" s="135"/>
-      <c r="EA9" s="136"/>
-      <c r="EB9" s="152" t="str">
+      <c r="DV9" s="141"/>
+      <c r="DW9" s="141"/>
+      <c r="DX9" s="141"/>
+      <c r="DY9" s="141"/>
+      <c r="DZ9" s="141"/>
+      <c r="EA9" s="142"/>
+      <c r="EB9" s="158" t="str">
         <f t="shared" ref="EB9" si="15">TEXT(EE13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EC9" s="135"/>
-      <c r="ED9" s="135"/>
-      <c r="EE9" s="135"/>
-      <c r="EF9" s="135"/>
-      <c r="EG9" s="135"/>
-      <c r="EH9" s="136"/>
-      <c r="EI9" s="152" t="str">
+      <c r="EC9" s="141"/>
+      <c r="ED9" s="141"/>
+      <c r="EE9" s="141"/>
+      <c r="EF9" s="141"/>
+      <c r="EG9" s="141"/>
+      <c r="EH9" s="142"/>
+      <c r="EI9" s="158" t="str">
         <f t="shared" ref="EI9" si="16">TEXT(EL13,"MMMM JJ")</f>
         <v>Januar 18</v>
       </c>
-      <c r="EJ9" s="135"/>
-      <c r="EK9" s="135"/>
-      <c r="EL9" s="135"/>
-      <c r="EM9" s="135"/>
-      <c r="EN9" s="135"/>
-      <c r="EO9" s="136"/>
-      <c r="EP9" s="152" t="str">
+      <c r="EJ9" s="141"/>
+      <c r="EK9" s="141"/>
+      <c r="EL9" s="141"/>
+      <c r="EM9" s="141"/>
+      <c r="EN9" s="141"/>
+      <c r="EO9" s="142"/>
+      <c r="EP9" s="158" t="str">
         <f t="shared" ref="EP9" si="17">TEXT(ES13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EQ9" s="135"/>
-      <c r="ER9" s="135"/>
-      <c r="ES9" s="135"/>
-      <c r="ET9" s="135"/>
-      <c r="EU9" s="135"/>
-      <c r="EV9" s="136"/>
-      <c r="EW9" s="152" t="str">
+      <c r="EQ9" s="141"/>
+      <c r="ER9" s="141"/>
+      <c r="ES9" s="141"/>
+      <c r="ET9" s="141"/>
+      <c r="EU9" s="141"/>
+      <c r="EV9" s="142"/>
+      <c r="EW9" s="158" t="str">
         <f t="shared" ref="EW9" si="18">TEXT(EZ13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="EX9" s="135"/>
-      <c r="EY9" s="135"/>
-      <c r="EZ9" s="135"/>
-      <c r="FA9" s="135"/>
-      <c r="FB9" s="135"/>
-      <c r="FC9" s="136"/>
-      <c r="FD9" s="152" t="str">
+      <c r="EX9" s="141"/>
+      <c r="EY9" s="141"/>
+      <c r="EZ9" s="141"/>
+      <c r="FA9" s="141"/>
+      <c r="FB9" s="141"/>
+      <c r="FC9" s="142"/>
+      <c r="FD9" s="158" t="str">
         <f t="shared" ref="FD9" si="19">TEXT(FG13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FE9" s="135"/>
-      <c r="FF9" s="135"/>
-      <c r="FG9" s="135"/>
-      <c r="FH9" s="135"/>
-      <c r="FI9" s="135"/>
-      <c r="FJ9" s="136"/>
-      <c r="FK9" s="134" t="str">
+      <c r="FE9" s="141"/>
+      <c r="FF9" s="141"/>
+      <c r="FG9" s="141"/>
+      <c r="FH9" s="141"/>
+      <c r="FI9" s="141"/>
+      <c r="FJ9" s="142"/>
+      <c r="FK9" s="140" t="str">
         <f t="shared" ref="FK9" si="20">TEXT(FN13,"MMMM JJ")</f>
         <v>Februar 18</v>
       </c>
-      <c r="FL9" s="135"/>
-      <c r="FM9" s="135"/>
-      <c r="FN9" s="135"/>
-      <c r="FO9" s="135"/>
-      <c r="FP9" s="135"/>
-      <c r="FQ9" s="136"/>
-      <c r="FR9" s="134" t="str">
+      <c r="FL9" s="141"/>
+      <c r="FM9" s="141"/>
+      <c r="FN9" s="141"/>
+      <c r="FO9" s="141"/>
+      <c r="FP9" s="141"/>
+      <c r="FQ9" s="142"/>
+      <c r="FR9" s="140" t="str">
         <f t="shared" ref="FR9" si="21">TEXT(FU13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FS9" s="135"/>
-      <c r="FT9" s="135"/>
-      <c r="FU9" s="135"/>
-      <c r="FV9" s="135"/>
-      <c r="FW9" s="135"/>
-      <c r="FX9" s="136"/>
-      <c r="FY9" s="134" t="str">
+      <c r="FS9" s="141"/>
+      <c r="FT9" s="141"/>
+      <c r="FU9" s="141"/>
+      <c r="FV9" s="141"/>
+      <c r="FW9" s="141"/>
+      <c r="FX9" s="142"/>
+      <c r="FY9" s="140" t="str">
         <f t="shared" ref="FY9" si="22">TEXT(GB13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="FZ9" s="135"/>
-      <c r="GA9" s="135"/>
-      <c r="GB9" s="135"/>
-      <c r="GC9" s="135"/>
-      <c r="GD9" s="135"/>
-      <c r="GE9" s="136"/>
-      <c r="GF9" s="134" t="str">
+      <c r="FZ9" s="141"/>
+      <c r="GA9" s="141"/>
+      <c r="GB9" s="141"/>
+      <c r="GC9" s="141"/>
+      <c r="GD9" s="141"/>
+      <c r="GE9" s="142"/>
+      <c r="GF9" s="140" t="str">
         <f t="shared" ref="GF9" si="23">TEXT(GI13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GG9" s="135"/>
-      <c r="GH9" s="135"/>
-      <c r="GI9" s="135"/>
-      <c r="GJ9" s="135"/>
-      <c r="GK9" s="135"/>
-      <c r="GL9" s="136"/>
-      <c r="GM9" s="134" t="str">
+      <c r="GG9" s="141"/>
+      <c r="GH9" s="141"/>
+      <c r="GI9" s="141"/>
+      <c r="GJ9" s="141"/>
+      <c r="GK9" s="141"/>
+      <c r="GL9" s="142"/>
+      <c r="GM9" s="140" t="str">
         <f t="shared" ref="GM9" si="24">TEXT(GP13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GN9" s="135"/>
-      <c r="GO9" s="135"/>
-      <c r="GP9" s="135"/>
-      <c r="GQ9" s="135"/>
-      <c r="GR9" s="135"/>
-      <c r="GS9" s="136"/>
-      <c r="GT9" s="134" t="str">
+      <c r="GN9" s="141"/>
+      <c r="GO9" s="141"/>
+      <c r="GP9" s="141"/>
+      <c r="GQ9" s="141"/>
+      <c r="GR9" s="141"/>
+      <c r="GS9" s="142"/>
+      <c r="GT9" s="140" t="str">
         <f t="shared" ref="GT9" si="25">TEXT(GW13,"MMMM JJ")</f>
         <v>März 18</v>
       </c>
-      <c r="GU9" s="135"/>
-      <c r="GV9" s="135"/>
-      <c r="GW9" s="135"/>
-      <c r="GX9" s="135"/>
-      <c r="GY9" s="135"/>
-      <c r="GZ9" s="136"/>
-      <c r="HA9" s="134" t="str">
+      <c r="GU9" s="141"/>
+      <c r="GV9" s="141"/>
+      <c r="GW9" s="141"/>
+      <c r="GX9" s="141"/>
+      <c r="GY9" s="141"/>
+      <c r="GZ9" s="142"/>
+      <c r="HA9" s="140" t="str">
         <f t="shared" ref="HA9" si="26">TEXT(HD13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HB9" s="135"/>
-      <c r="HC9" s="135"/>
-      <c r="HD9" s="135"/>
-      <c r="HE9" s="135"/>
-      <c r="HF9" s="135"/>
-      <c r="HG9" s="136"/>
-      <c r="HH9" s="134" t="str">
+      <c r="HB9" s="141"/>
+      <c r="HC9" s="141"/>
+      <c r="HD9" s="141"/>
+      <c r="HE9" s="141"/>
+      <c r="HF9" s="141"/>
+      <c r="HG9" s="142"/>
+      <c r="HH9" s="140" t="str">
         <f t="shared" ref="HH9" si="27">TEXT(HK13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HI9" s="135"/>
-      <c r="HJ9" s="135"/>
-      <c r="HK9" s="135"/>
-      <c r="HL9" s="135"/>
-      <c r="HM9" s="135"/>
-      <c r="HN9" s="136"/>
-      <c r="HO9" s="134" t="str">
+      <c r="HI9" s="141"/>
+      <c r="HJ9" s="141"/>
+      <c r="HK9" s="141"/>
+      <c r="HL9" s="141"/>
+      <c r="HM9" s="141"/>
+      <c r="HN9" s="142"/>
+      <c r="HO9" s="140" t="str">
         <f t="shared" ref="HO9" si="28">TEXT(HR13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HP9" s="135"/>
-      <c r="HQ9" s="135"/>
-      <c r="HR9" s="135"/>
-      <c r="HS9" s="135"/>
-      <c r="HT9" s="135"/>
-      <c r="HU9" s="136"/>
-      <c r="HV9" s="134" t="str">
+      <c r="HP9" s="141"/>
+      <c r="HQ9" s="141"/>
+      <c r="HR9" s="141"/>
+      <c r="HS9" s="141"/>
+      <c r="HT9" s="141"/>
+      <c r="HU9" s="142"/>
+      <c r="HV9" s="140" t="str">
         <f t="shared" ref="HV9" si="29">TEXT(HY13,"MMMM JJ")</f>
         <v>April 18</v>
       </c>
-      <c r="HW9" s="135"/>
-      <c r="HX9" s="135"/>
-      <c r="HY9" s="135"/>
-      <c r="HZ9" s="135"/>
-      <c r="IA9" s="135"/>
-      <c r="IB9" s="136"/>
-      <c r="IC9" s="134" t="str">
+      <c r="HW9" s="141"/>
+      <c r="HX9" s="141"/>
+      <c r="HY9" s="141"/>
+      <c r="HZ9" s="141"/>
+      <c r="IA9" s="141"/>
+      <c r="IB9" s="142"/>
+      <c r="IC9" s="140" t="str">
         <f t="shared" ref="IC9" si="30">TEXT(IF13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="ID9" s="135"/>
-      <c r="IE9" s="135"/>
-      <c r="IF9" s="135"/>
-      <c r="IG9" s="135"/>
-      <c r="IH9" s="135"/>
-      <c r="II9" s="136"/>
-      <c r="IJ9" s="134" t="str">
+      <c r="ID9" s="141"/>
+      <c r="IE9" s="141"/>
+      <c r="IF9" s="141"/>
+      <c r="IG9" s="141"/>
+      <c r="IH9" s="141"/>
+      <c r="II9" s="142"/>
+      <c r="IJ9" s="140" t="str">
         <f t="shared" ref="IJ9" si="31">TEXT(IM13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IK9" s="135"/>
-      <c r="IL9" s="135"/>
-      <c r="IM9" s="135"/>
-      <c r="IN9" s="135"/>
-      <c r="IO9" s="135"/>
-      <c r="IP9" s="136"/>
-      <c r="IQ9" s="134" t="str">
+      <c r="IK9" s="141"/>
+      <c r="IL9" s="141"/>
+      <c r="IM9" s="141"/>
+      <c r="IN9" s="141"/>
+      <c r="IO9" s="141"/>
+      <c r="IP9" s="142"/>
+      <c r="IQ9" s="140" t="str">
         <f t="shared" ref="IQ9" si="32">TEXT(IT13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IR9" s="135"/>
-      <c r="IS9" s="135"/>
-      <c r="IT9" s="135"/>
-      <c r="IU9" s="135"/>
-      <c r="IV9" s="135"/>
-      <c r="IW9" s="136"/>
-      <c r="IX9" s="134" t="str">
+      <c r="IR9" s="141"/>
+      <c r="IS9" s="141"/>
+      <c r="IT9" s="141"/>
+      <c r="IU9" s="141"/>
+      <c r="IV9" s="141"/>
+      <c r="IW9" s="142"/>
+      <c r="IX9" s="140" t="str">
         <f t="shared" ref="IX9" si="33">TEXT(JA13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="IY9" s="135"/>
-      <c r="IZ9" s="135"/>
-      <c r="JA9" s="135"/>
-      <c r="JB9" s="135"/>
-      <c r="JC9" s="135"/>
-      <c r="JD9" s="136"/>
-      <c r="JE9" s="134" t="str">
+      <c r="IY9" s="141"/>
+      <c r="IZ9" s="141"/>
+      <c r="JA9" s="141"/>
+      <c r="JB9" s="141"/>
+      <c r="JC9" s="141"/>
+      <c r="JD9" s="142"/>
+      <c r="JE9" s="140" t="str">
         <f t="shared" ref="JE9" si="34">TEXT(JH13,"MMMM JJ")</f>
         <v>Mai 18</v>
       </c>
-      <c r="JF9" s="135"/>
-      <c r="JG9" s="135"/>
-      <c r="JH9" s="135"/>
-      <c r="JI9" s="135"/>
-      <c r="JJ9" s="135"/>
-      <c r="JK9" s="136"/>
-      <c r="JL9" s="134" t="str">
+      <c r="JF9" s="141"/>
+      <c r="JG9" s="141"/>
+      <c r="JH9" s="141"/>
+      <c r="JI9" s="141"/>
+      <c r="JJ9" s="141"/>
+      <c r="JK9" s="142"/>
+      <c r="JL9" s="140" t="str">
         <f t="shared" ref="JL9" si="35">TEXT(JO13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JM9" s="135"/>
-      <c r="JN9" s="135"/>
-      <c r="JO9" s="135"/>
-      <c r="JP9" s="135"/>
-      <c r="JQ9" s="135"/>
-      <c r="JR9" s="136"/>
-      <c r="JS9" s="134" t="str">
+      <c r="JM9" s="141"/>
+      <c r="JN9" s="141"/>
+      <c r="JO9" s="141"/>
+      <c r="JP9" s="141"/>
+      <c r="JQ9" s="141"/>
+      <c r="JR9" s="142"/>
+      <c r="JS9" s="140" t="str">
         <f t="shared" ref="JS9" si="36">TEXT(JV13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="JT9" s="135"/>
-      <c r="JU9" s="135"/>
-      <c r="JV9" s="135"/>
-      <c r="JW9" s="135"/>
-      <c r="JX9" s="135"/>
-      <c r="JY9" s="136"/>
-      <c r="JZ9" s="134" t="str">
+      <c r="JT9" s="141"/>
+      <c r="JU9" s="141"/>
+      <c r="JV9" s="141"/>
+      <c r="JW9" s="141"/>
+      <c r="JX9" s="141"/>
+      <c r="JY9" s="142"/>
+      <c r="JZ9" s="140" t="str">
         <f t="shared" ref="JZ9" si="37">TEXT(KC13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KA9" s="135"/>
-      <c r="KB9" s="135"/>
-      <c r="KC9" s="135"/>
-      <c r="KD9" s="135"/>
-      <c r="KE9" s="135"/>
-      <c r="KF9" s="136"/>
-      <c r="KG9" s="134" t="str">
+      <c r="KA9" s="141"/>
+      <c r="KB9" s="141"/>
+      <c r="KC9" s="141"/>
+      <c r="KD9" s="141"/>
+      <c r="KE9" s="141"/>
+      <c r="KF9" s="142"/>
+      <c r="KG9" s="140" t="str">
         <f t="shared" ref="KG9" si="38">TEXT(KJ13,"MMMM JJ")</f>
         <v>Juni 18</v>
       </c>
-      <c r="KH9" s="135"/>
-      <c r="KI9" s="135"/>
-      <c r="KJ9" s="135"/>
-      <c r="KK9" s="135"/>
-      <c r="KL9" s="135"/>
-      <c r="KM9" s="136"/>
-      <c r="KN9" s="134" t="str">
+      <c r="KH9" s="141"/>
+      <c r="KI9" s="141"/>
+      <c r="KJ9" s="141"/>
+      <c r="KK9" s="141"/>
+      <c r="KL9" s="141"/>
+      <c r="KM9" s="142"/>
+      <c r="KN9" s="140" t="str">
         <f t="shared" ref="KN9" si="39">TEXT(KQ13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KO9" s="135"/>
-      <c r="KP9" s="135"/>
-      <c r="KQ9" s="135"/>
-      <c r="KR9" s="135"/>
-      <c r="KS9" s="135"/>
-      <c r="KT9" s="136"/>
-      <c r="KU9" s="134" t="str">
+      <c r="KO9" s="141"/>
+      <c r="KP9" s="141"/>
+      <c r="KQ9" s="141"/>
+      <c r="KR9" s="141"/>
+      <c r="KS9" s="141"/>
+      <c r="KT9" s="142"/>
+      <c r="KU9" s="140" t="str">
         <f t="shared" ref="KU9" si="40">TEXT(KX13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="KV9" s="135"/>
-      <c r="KW9" s="135"/>
-      <c r="KX9" s="135"/>
-      <c r="KY9" s="135"/>
-      <c r="KZ9" s="135"/>
-      <c r="LA9" s="136"/>
-      <c r="LB9" s="134" t="str">
+      <c r="KV9" s="141"/>
+      <c r="KW9" s="141"/>
+      <c r="KX9" s="141"/>
+      <c r="KY9" s="141"/>
+      <c r="KZ9" s="141"/>
+      <c r="LA9" s="142"/>
+      <c r="LB9" s="140" t="str">
         <f t="shared" ref="LB9" si="41">TEXT(LE13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LC9" s="135"/>
-      <c r="LD9" s="135"/>
-      <c r="LE9" s="135"/>
-      <c r="LF9" s="135"/>
-      <c r="LG9" s="135"/>
-      <c r="LH9" s="136"/>
-      <c r="LI9" s="134" t="str">
+      <c r="LC9" s="141"/>
+      <c r="LD9" s="141"/>
+      <c r="LE9" s="141"/>
+      <c r="LF9" s="141"/>
+      <c r="LG9" s="141"/>
+      <c r="LH9" s="142"/>
+      <c r="LI9" s="140" t="str">
         <f t="shared" ref="LI9" si="42">TEXT(LL13,"MMMM JJ")</f>
         <v>Juli 18</v>
       </c>
-      <c r="LJ9" s="135"/>
-      <c r="LK9" s="135"/>
-      <c r="LL9" s="135"/>
-      <c r="LM9" s="135"/>
-      <c r="LN9" s="135"/>
-      <c r="LO9" s="136"/>
-      <c r="LP9" s="134" t="str">
+      <c r="LJ9" s="141"/>
+      <c r="LK9" s="141"/>
+      <c r="LL9" s="141"/>
+      <c r="LM9" s="141"/>
+      <c r="LN9" s="141"/>
+      <c r="LO9" s="142"/>
+      <c r="LP9" s="140" t="str">
         <f t="shared" ref="LP9" si="43">TEXT(LS13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LQ9" s="135"/>
-      <c r="LR9" s="135"/>
-      <c r="LS9" s="135"/>
-      <c r="LT9" s="135"/>
-      <c r="LU9" s="135"/>
-      <c r="LV9" s="136"/>
-      <c r="LW9" s="134" t="str">
+      <c r="LQ9" s="141"/>
+      <c r="LR9" s="141"/>
+      <c r="LS9" s="141"/>
+      <c r="LT9" s="141"/>
+      <c r="LU9" s="141"/>
+      <c r="LV9" s="142"/>
+      <c r="LW9" s="140" t="str">
         <f t="shared" ref="LW9" si="44">TEXT(LZ13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="LX9" s="135"/>
-      <c r="LY9" s="135"/>
-      <c r="LZ9" s="135"/>
-      <c r="MA9" s="135"/>
-      <c r="MB9" s="135"/>
-      <c r="MC9" s="136"/>
-      <c r="MD9" s="134" t="str">
+      <c r="LX9" s="141"/>
+      <c r="LY9" s="141"/>
+      <c r="LZ9" s="141"/>
+      <c r="MA9" s="141"/>
+      <c r="MB9" s="141"/>
+      <c r="MC9" s="142"/>
+      <c r="MD9" s="140" t="str">
         <f t="shared" ref="MD9" si="45">TEXT(MG13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ME9" s="135"/>
-      <c r="MF9" s="135"/>
-      <c r="MG9" s="135"/>
-      <c r="MH9" s="135"/>
-      <c r="MI9" s="135"/>
-      <c r="MJ9" s="136"/>
-      <c r="MK9" s="134" t="str">
+      <c r="ME9" s="141"/>
+      <c r="MF9" s="141"/>
+      <c r="MG9" s="141"/>
+      <c r="MH9" s="141"/>
+      <c r="MI9" s="141"/>
+      <c r="MJ9" s="142"/>
+      <c r="MK9" s="140" t="str">
         <f t="shared" ref="MK9" si="46">TEXT(MN13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="ML9" s="135"/>
-      <c r="MM9" s="135"/>
-      <c r="MN9" s="135"/>
-      <c r="MO9" s="135"/>
-      <c r="MP9" s="135"/>
-      <c r="MQ9" s="136"/>
-      <c r="MR9" s="134" t="str">
+      <c r="ML9" s="141"/>
+      <c r="MM9" s="141"/>
+      <c r="MN9" s="141"/>
+      <c r="MO9" s="141"/>
+      <c r="MP9" s="141"/>
+      <c r="MQ9" s="142"/>
+      <c r="MR9" s="140" t="str">
         <f t="shared" ref="MR9" si="47">TEXT(MU13,"MMMM JJ")</f>
         <v>August 18</v>
       </c>
-      <c r="MS9" s="135"/>
-      <c r="MT9" s="135"/>
-      <c r="MU9" s="135"/>
-      <c r="MV9" s="135"/>
-      <c r="MW9" s="135"/>
-      <c r="MX9" s="136"/>
-      <c r="MY9" s="134" t="str">
+      <c r="MS9" s="141"/>
+      <c r="MT9" s="141"/>
+      <c r="MU9" s="141"/>
+      <c r="MV9" s="141"/>
+      <c r="MW9" s="141"/>
+      <c r="MX9" s="142"/>
+      <c r="MY9" s="140" t="str">
         <f t="shared" ref="MY9" si="48">TEXT(NB13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="MZ9" s="135"/>
-      <c r="NA9" s="135"/>
-      <c r="NB9" s="135"/>
-      <c r="NC9" s="135"/>
-      <c r="ND9" s="135"/>
-      <c r="NE9" s="136"/>
-      <c r="NF9" s="134" t="str">
+      <c r="MZ9" s="141"/>
+      <c r="NA9" s="141"/>
+      <c r="NB9" s="141"/>
+      <c r="NC9" s="141"/>
+      <c r="ND9" s="141"/>
+      <c r="NE9" s="142"/>
+      <c r="NF9" s="140" t="str">
         <f t="shared" ref="NF9" si="49">TEXT(NI13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NG9" s="135"/>
-      <c r="NH9" s="135"/>
-      <c r="NI9" s="135"/>
-      <c r="NJ9" s="135"/>
-      <c r="NK9" s="135"/>
-      <c r="NL9" s="136"/>
-      <c r="NM9" s="134" t="str">
+      <c r="NG9" s="141"/>
+      <c r="NH9" s="141"/>
+      <c r="NI9" s="141"/>
+      <c r="NJ9" s="141"/>
+      <c r="NK9" s="141"/>
+      <c r="NL9" s="142"/>
+      <c r="NM9" s="140" t="str">
         <f t="shared" ref="NM9" si="50">TEXT(NP13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NN9" s="135"/>
-      <c r="NO9" s="135"/>
-      <c r="NP9" s="135"/>
-      <c r="NQ9" s="135"/>
-      <c r="NR9" s="135"/>
-      <c r="NS9" s="136"/>
-      <c r="NT9" s="134" t="str">
+      <c r="NN9" s="141"/>
+      <c r="NO9" s="141"/>
+      <c r="NP9" s="141"/>
+      <c r="NQ9" s="141"/>
+      <c r="NR9" s="141"/>
+      <c r="NS9" s="142"/>
+      <c r="NT9" s="140" t="str">
         <f t="shared" ref="NT9" si="51">TEXT(NW13,"MMMM JJ")</f>
         <v>September 18</v>
       </c>
-      <c r="NU9" s="135"/>
-      <c r="NV9" s="135"/>
-      <c r="NW9" s="135"/>
-      <c r="NX9" s="135"/>
-      <c r="NY9" s="135"/>
-      <c r="NZ9" s="136"/>
-      <c r="OA9" s="134" t="str">
+      <c r="NU9" s="141"/>
+      <c r="NV9" s="141"/>
+      <c r="NW9" s="141"/>
+      <c r="NX9" s="141"/>
+      <c r="NY9" s="141"/>
+      <c r="NZ9" s="142"/>
+      <c r="OA9" s="140" t="str">
         <f t="shared" ref="OA9" si="52">TEXT(OD13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OB9" s="135"/>
-      <c r="OC9" s="135"/>
-      <c r="OD9" s="135"/>
-      <c r="OE9" s="135"/>
-      <c r="OF9" s="135"/>
-      <c r="OG9" s="136"/>
-      <c r="OH9" s="134" t="str">
+      <c r="OB9" s="141"/>
+      <c r="OC9" s="141"/>
+      <c r="OD9" s="141"/>
+      <c r="OE9" s="141"/>
+      <c r="OF9" s="141"/>
+      <c r="OG9" s="142"/>
+      <c r="OH9" s="140" t="str">
         <f t="shared" ref="OH9" si="53">TEXT(OK13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OI9" s="135"/>
-      <c r="OJ9" s="135"/>
-      <c r="OK9" s="135"/>
-      <c r="OL9" s="135"/>
-      <c r="OM9" s="135"/>
-      <c r="ON9" s="136"/>
-      <c r="OO9" s="134" t="str">
+      <c r="OI9" s="141"/>
+      <c r="OJ9" s="141"/>
+      <c r="OK9" s="141"/>
+      <c r="OL9" s="141"/>
+      <c r="OM9" s="141"/>
+      <c r="ON9" s="142"/>
+      <c r="OO9" s="140" t="str">
         <f t="shared" ref="OO9" si="54">TEXT(OR13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OP9" s="135"/>
-      <c r="OQ9" s="135"/>
-      <c r="OR9" s="135"/>
-      <c r="OS9" s="135"/>
-      <c r="OT9" s="135"/>
-      <c r="OU9" s="136"/>
-      <c r="OV9" s="134" t="str">
+      <c r="OP9" s="141"/>
+      <c r="OQ9" s="141"/>
+      <c r="OR9" s="141"/>
+      <c r="OS9" s="141"/>
+      <c r="OT9" s="141"/>
+      <c r="OU9" s="142"/>
+      <c r="OV9" s="140" t="str">
         <f t="shared" ref="OV9" si="55">TEXT(OY13,"MMMM JJ")</f>
         <v>Oktober 18</v>
       </c>
-      <c r="OW9" s="135"/>
-      <c r="OX9" s="135"/>
-      <c r="OY9" s="135"/>
-      <c r="OZ9" s="135"/>
-      <c r="PA9" s="135"/>
-      <c r="PB9" s="136"/>
+      <c r="OW9" s="141"/>
+      <c r="OX9" s="141"/>
+      <c r="OY9" s="141"/>
+      <c r="OZ9" s="141"/>
+      <c r="PA9" s="141"/>
+      <c r="PB9" s="142"/>
     </row>
     <row r="10" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
+      <c r="B10" s="173"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
       <c r="F10" s="25"/>
       <c r="G10" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="168">
+      <c r="H10" s="174">
         <v>42996</v>
       </c>
-      <c r="I10" s="168"/>
+      <c r="I10" s="174"/>
       <c r="J10" s="27"/>
       <c r="L10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M10" s="169">
+      <c r="M10" s="175">
         <f>WEEKNUM(P13,21)</f>
         <v>38</v>
       </c>
-      <c r="N10" s="169"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="169"/>
-      <c r="S10" s="169"/>
-      <c r="T10" s="147">
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="153">
         <f>WEEKNUM(W13,21)</f>
         <v>39</v>
       </c>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="149"/>
-      <c r="AA10" s="170">
+      <c r="U10" s="154"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="176">
         <f>WEEKNUM(AD13,21)</f>
         <v>40</v>
       </c>
-      <c r="AB10" s="170"/>
-      <c r="AC10" s="170"/>
-      <c r="AD10" s="170"/>
-      <c r="AE10" s="170"/>
-      <c r="AF10" s="170"/>
-      <c r="AG10" s="170"/>
-      <c r="AH10" s="147">
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
+      <c r="AD10" s="176"/>
+      <c r="AE10" s="176"/>
+      <c r="AF10" s="176"/>
+      <c r="AG10" s="176"/>
+      <c r="AH10" s="153">
         <f>WEEKNUM(AK13,21)</f>
         <v>41</v>
       </c>
-      <c r="AI10" s="148"/>
-      <c r="AJ10" s="148"/>
-      <c r="AK10" s="148"/>
-      <c r="AL10" s="148"/>
-      <c r="AM10" s="148"/>
-      <c r="AN10" s="149"/>
-      <c r="AO10" s="147">
+      <c r="AI10" s="154"/>
+      <c r="AJ10" s="154"/>
+      <c r="AK10" s="154"/>
+      <c r="AL10" s="154"/>
+      <c r="AM10" s="154"/>
+      <c r="AN10" s="155"/>
+      <c r="AO10" s="153">
         <f>WEEKNUM(AR13,21)</f>
         <v>42</v>
       </c>
-      <c r="AP10" s="148"/>
-      <c r="AQ10" s="148"/>
-      <c r="AR10" s="148"/>
-      <c r="AS10" s="148"/>
-      <c r="AT10" s="148"/>
-      <c r="AU10" s="149"/>
-      <c r="AV10" s="147">
+      <c r="AP10" s="154"/>
+      <c r="AQ10" s="154"/>
+      <c r="AR10" s="154"/>
+      <c r="AS10" s="154"/>
+      <c r="AT10" s="154"/>
+      <c r="AU10" s="155"/>
+      <c r="AV10" s="153">
         <f>WEEKNUM(AY13,21)</f>
         <v>43</v>
       </c>
-      <c r="AW10" s="148"/>
-      <c r="AX10" s="148"/>
-      <c r="AY10" s="148"/>
-      <c r="AZ10" s="148"/>
-      <c r="BA10" s="148"/>
-      <c r="BB10" s="149"/>
-      <c r="BC10" s="147">
+      <c r="AW10" s="154"/>
+      <c r="AX10" s="154"/>
+      <c r="AY10" s="154"/>
+      <c r="AZ10" s="154"/>
+      <c r="BA10" s="154"/>
+      <c r="BB10" s="155"/>
+      <c r="BC10" s="153">
         <f>WEEKNUM(BF13,21)</f>
         <v>44</v>
       </c>
-      <c r="BD10" s="148"/>
-      <c r="BE10" s="148"/>
-      <c r="BF10" s="148"/>
-      <c r="BG10" s="148"/>
-      <c r="BH10" s="148"/>
-      <c r="BI10" s="149"/>
-      <c r="BJ10" s="147">
+      <c r="BD10" s="154"/>
+      <c r="BE10" s="154"/>
+      <c r="BF10" s="154"/>
+      <c r="BG10" s="154"/>
+      <c r="BH10" s="154"/>
+      <c r="BI10" s="155"/>
+      <c r="BJ10" s="153">
         <f>WEEKNUM(BM13,21)</f>
         <v>45</v>
       </c>
-      <c r="BK10" s="148"/>
-      <c r="BL10" s="148"/>
-      <c r="BM10" s="148"/>
-      <c r="BN10" s="148"/>
-      <c r="BO10" s="148"/>
-      <c r="BP10" s="149"/>
-      <c r="BQ10" s="147">
+      <c r="BK10" s="154"/>
+      <c r="BL10" s="154"/>
+      <c r="BM10" s="154"/>
+      <c r="BN10" s="154"/>
+      <c r="BO10" s="154"/>
+      <c r="BP10" s="155"/>
+      <c r="BQ10" s="153">
         <f>WEEKNUM(BT13,21)</f>
         <v>46</v>
       </c>
-      <c r="BR10" s="148"/>
-      <c r="BS10" s="148"/>
-      <c r="BT10" s="148"/>
-      <c r="BU10" s="148"/>
-      <c r="BV10" s="148"/>
-      <c r="BW10" s="149"/>
-      <c r="BX10" s="147">
+      <c r="BR10" s="154"/>
+      <c r="BS10" s="154"/>
+      <c r="BT10" s="154"/>
+      <c r="BU10" s="154"/>
+      <c r="BV10" s="154"/>
+      <c r="BW10" s="155"/>
+      <c r="BX10" s="153">
         <f>WEEKNUM(CA13,21)</f>
         <v>47</v>
       </c>
-      <c r="BY10" s="148"/>
-      <c r="BZ10" s="148"/>
-      <c r="CA10" s="148"/>
-      <c r="CB10" s="148"/>
-      <c r="CC10" s="148"/>
-      <c r="CD10" s="149"/>
-      <c r="CE10" s="147">
+      <c r="BY10" s="154"/>
+      <c r="BZ10" s="154"/>
+      <c r="CA10" s="154"/>
+      <c r="CB10" s="154"/>
+      <c r="CC10" s="154"/>
+      <c r="CD10" s="155"/>
+      <c r="CE10" s="153">
         <f>WEEKNUM(CH13,21)</f>
         <v>48</v>
       </c>
-      <c r="CF10" s="148"/>
-      <c r="CG10" s="148"/>
-      <c r="CH10" s="148"/>
-      <c r="CI10" s="148"/>
-      <c r="CJ10" s="148"/>
-      <c r="CK10" s="149"/>
-      <c r="CL10" s="147">
+      <c r="CF10" s="154"/>
+      <c r="CG10" s="154"/>
+      <c r="CH10" s="154"/>
+      <c r="CI10" s="154"/>
+      <c r="CJ10" s="154"/>
+      <c r="CK10" s="155"/>
+      <c r="CL10" s="153">
         <f>WEEKNUM(CO13,21)</f>
         <v>49</v>
       </c>
-      <c r="CM10" s="148"/>
-      <c r="CN10" s="148"/>
-      <c r="CO10" s="148"/>
-      <c r="CP10" s="148"/>
-      <c r="CQ10" s="148"/>
-      <c r="CR10" s="149"/>
-      <c r="CS10" s="147">
+      <c r="CM10" s="154"/>
+      <c r="CN10" s="154"/>
+      <c r="CO10" s="154"/>
+      <c r="CP10" s="154"/>
+      <c r="CQ10" s="154"/>
+      <c r="CR10" s="155"/>
+      <c r="CS10" s="153">
         <f>WEEKNUM(CV13,21)</f>
         <v>50</v>
       </c>
-      <c r="CT10" s="148"/>
-      <c r="CU10" s="148"/>
-      <c r="CV10" s="148"/>
-      <c r="CW10" s="148"/>
-      <c r="CX10" s="148"/>
-      <c r="CY10" s="149"/>
-      <c r="CZ10" s="147">
+      <c r="CT10" s="154"/>
+      <c r="CU10" s="154"/>
+      <c r="CV10" s="154"/>
+      <c r="CW10" s="154"/>
+      <c r="CX10" s="154"/>
+      <c r="CY10" s="155"/>
+      <c r="CZ10" s="153">
         <f>WEEKNUM(DC13,21)</f>
         <v>51</v>
       </c>
-      <c r="DA10" s="148"/>
-      <c r="DB10" s="148"/>
-      <c r="DC10" s="148"/>
-      <c r="DD10" s="148"/>
-      <c r="DE10" s="148"/>
-      <c r="DF10" s="149"/>
-      <c r="DG10" s="147">
+      <c r="DA10" s="154"/>
+      <c r="DB10" s="154"/>
+      <c r="DC10" s="154"/>
+      <c r="DD10" s="154"/>
+      <c r="DE10" s="154"/>
+      <c r="DF10" s="155"/>
+      <c r="DG10" s="153">
         <f>WEEKNUM(DJ13,21)</f>
         <v>52</v>
       </c>
-      <c r="DH10" s="148"/>
-      <c r="DI10" s="148"/>
-      <c r="DJ10" s="148"/>
-      <c r="DK10" s="148"/>
-      <c r="DL10" s="148"/>
-      <c r="DM10" s="149"/>
-      <c r="DN10" s="147">
+      <c r="DH10" s="154"/>
+      <c r="DI10" s="154"/>
+      <c r="DJ10" s="154"/>
+      <c r="DK10" s="154"/>
+      <c r="DL10" s="154"/>
+      <c r="DM10" s="155"/>
+      <c r="DN10" s="153">
         <f>WEEKNUM(DQ13,21)</f>
         <v>1</v>
       </c>
-      <c r="DO10" s="148"/>
-      <c r="DP10" s="148"/>
-      <c r="DQ10" s="148"/>
-      <c r="DR10" s="148"/>
-      <c r="DS10" s="148"/>
-      <c r="DT10" s="149"/>
-      <c r="DU10" s="147">
+      <c r="DO10" s="154"/>
+      <c r="DP10" s="154"/>
+      <c r="DQ10" s="154"/>
+      <c r="DR10" s="154"/>
+      <c r="DS10" s="154"/>
+      <c r="DT10" s="155"/>
+      <c r="DU10" s="153">
         <f>WEEKNUM(DX13,21)</f>
         <v>2</v>
       </c>
-      <c r="DV10" s="148"/>
-      <c r="DW10" s="148"/>
-      <c r="DX10" s="148"/>
-      <c r="DY10" s="148"/>
-      <c r="DZ10" s="148"/>
-      <c r="EA10" s="149"/>
-      <c r="EB10" s="147">
+      <c r="DV10" s="154"/>
+      <c r="DW10" s="154"/>
+      <c r="DX10" s="154"/>
+      <c r="DY10" s="154"/>
+      <c r="DZ10" s="154"/>
+      <c r="EA10" s="155"/>
+      <c r="EB10" s="153">
         <f>WEEKNUM(EE13,21)</f>
         <v>3</v>
       </c>
-      <c r="EC10" s="148"/>
-      <c r="ED10" s="148"/>
-      <c r="EE10" s="148"/>
-      <c r="EF10" s="148"/>
-      <c r="EG10" s="148"/>
-      <c r="EH10" s="149"/>
-      <c r="EI10" s="147">
+      <c r="EC10" s="154"/>
+      <c r="ED10" s="154"/>
+      <c r="EE10" s="154"/>
+      <c r="EF10" s="154"/>
+      <c r="EG10" s="154"/>
+      <c r="EH10" s="155"/>
+      <c r="EI10" s="153">
         <f>WEEKNUM(EL13,21)</f>
         <v>4</v>
       </c>
-      <c r="EJ10" s="148"/>
-      <c r="EK10" s="148"/>
-      <c r="EL10" s="148"/>
-      <c r="EM10" s="148"/>
-      <c r="EN10" s="148"/>
-      <c r="EO10" s="149"/>
-      <c r="EP10" s="147">
+      <c r="EJ10" s="154"/>
+      <c r="EK10" s="154"/>
+      <c r="EL10" s="154"/>
+      <c r="EM10" s="154"/>
+      <c r="EN10" s="154"/>
+      <c r="EO10" s="155"/>
+      <c r="EP10" s="153">
         <f>WEEKNUM(ES13,21)</f>
         <v>5</v>
       </c>
-      <c r="EQ10" s="148"/>
-      <c r="ER10" s="148"/>
-      <c r="ES10" s="148"/>
-      <c r="ET10" s="148"/>
-      <c r="EU10" s="148"/>
-      <c r="EV10" s="149"/>
-      <c r="EW10" s="147">
+      <c r="EQ10" s="154"/>
+      <c r="ER10" s="154"/>
+      <c r="ES10" s="154"/>
+      <c r="ET10" s="154"/>
+      <c r="EU10" s="154"/>
+      <c r="EV10" s="155"/>
+      <c r="EW10" s="153">
         <f>WEEKNUM(EZ13,21)</f>
         <v>6</v>
       </c>
-      <c r="EX10" s="148"/>
-      <c r="EY10" s="148"/>
-      <c r="EZ10" s="148"/>
-      <c r="FA10" s="148"/>
-      <c r="FB10" s="148"/>
-      <c r="FC10" s="149"/>
-      <c r="FD10" s="147">
+      <c r="EX10" s="154"/>
+      <c r="EY10" s="154"/>
+      <c r="EZ10" s="154"/>
+      <c r="FA10" s="154"/>
+      <c r="FB10" s="154"/>
+      <c r="FC10" s="155"/>
+      <c r="FD10" s="153">
         <f>WEEKNUM(FG13,21)</f>
         <v>7</v>
       </c>
-      <c r="FE10" s="148"/>
-      <c r="FF10" s="148"/>
-      <c r="FG10" s="148"/>
-      <c r="FH10" s="148"/>
-      <c r="FI10" s="148"/>
-      <c r="FJ10" s="149"/>
-      <c r="FK10" s="147">
+      <c r="FE10" s="154"/>
+      <c r="FF10" s="154"/>
+      <c r="FG10" s="154"/>
+      <c r="FH10" s="154"/>
+      <c r="FI10" s="154"/>
+      <c r="FJ10" s="155"/>
+      <c r="FK10" s="153">
         <f>WEEKNUM(FN13,21)</f>
         <v>8</v>
       </c>
-      <c r="FL10" s="148"/>
-      <c r="FM10" s="148"/>
-      <c r="FN10" s="148"/>
-      <c r="FO10" s="148"/>
-      <c r="FP10" s="148"/>
-      <c r="FQ10" s="149"/>
-      <c r="FR10" s="147">
+      <c r="FL10" s="154"/>
+      <c r="FM10" s="154"/>
+      <c r="FN10" s="154"/>
+      <c r="FO10" s="154"/>
+      <c r="FP10" s="154"/>
+      <c r="FQ10" s="155"/>
+      <c r="FR10" s="153">
         <f>WEEKNUM(FU13,21)</f>
         <v>9</v>
       </c>
-      <c r="FS10" s="148"/>
-      <c r="FT10" s="148"/>
-      <c r="FU10" s="148"/>
-      <c r="FV10" s="148"/>
-      <c r="FW10" s="148"/>
-      <c r="FX10" s="149"/>
-      <c r="FY10" s="147">
+      <c r="FS10" s="154"/>
+      <c r="FT10" s="154"/>
+      <c r="FU10" s="154"/>
+      <c r="FV10" s="154"/>
+      <c r="FW10" s="154"/>
+      <c r="FX10" s="155"/>
+      <c r="FY10" s="153">
         <f>WEEKNUM(GB13,21)</f>
         <v>10</v>
       </c>
-      <c r="FZ10" s="148"/>
-      <c r="GA10" s="148"/>
-      <c r="GB10" s="148"/>
-      <c r="GC10" s="148"/>
-      <c r="GD10" s="148"/>
-      <c r="GE10" s="149"/>
-      <c r="GF10" s="147">
+      <c r="FZ10" s="154"/>
+      <c r="GA10" s="154"/>
+      <c r="GB10" s="154"/>
+      <c r="GC10" s="154"/>
+      <c r="GD10" s="154"/>
+      <c r="GE10" s="155"/>
+      <c r="GF10" s="153">
         <f>WEEKNUM(GI13,21)</f>
         <v>11</v>
       </c>
-      <c r="GG10" s="148"/>
-      <c r="GH10" s="148"/>
-      <c r="GI10" s="148"/>
-      <c r="GJ10" s="148"/>
-      <c r="GK10" s="148"/>
-      <c r="GL10" s="149"/>
-      <c r="GM10" s="147">
+      <c r="GG10" s="154"/>
+      <c r="GH10" s="154"/>
+      <c r="GI10" s="154"/>
+      <c r="GJ10" s="154"/>
+      <c r="GK10" s="154"/>
+      <c r="GL10" s="155"/>
+      <c r="GM10" s="153">
         <f>WEEKNUM(GP13,21)</f>
         <v>12</v>
       </c>
-      <c r="GN10" s="148"/>
-      <c r="GO10" s="148"/>
-      <c r="GP10" s="148"/>
-      <c r="GQ10" s="148"/>
-      <c r="GR10" s="148"/>
-      <c r="GS10" s="149"/>
-      <c r="GT10" s="147">
+      <c r="GN10" s="154"/>
+      <c r="GO10" s="154"/>
+      <c r="GP10" s="154"/>
+      <c r="GQ10" s="154"/>
+      <c r="GR10" s="154"/>
+      <c r="GS10" s="155"/>
+      <c r="GT10" s="153">
         <f>WEEKNUM(GW13,21)</f>
         <v>13</v>
       </c>
-      <c r="GU10" s="148"/>
-      <c r="GV10" s="148"/>
-      <c r="GW10" s="148"/>
-      <c r="GX10" s="148"/>
-      <c r="GY10" s="148"/>
-      <c r="GZ10" s="149"/>
-      <c r="HA10" s="147">
+      <c r="GU10" s="154"/>
+      <c r="GV10" s="154"/>
+      <c r="GW10" s="154"/>
+      <c r="GX10" s="154"/>
+      <c r="GY10" s="154"/>
+      <c r="GZ10" s="155"/>
+      <c r="HA10" s="153">
         <f>WEEKNUM(HD13,21)</f>
         <v>14</v>
       </c>
-      <c r="HB10" s="148"/>
-      <c r="HC10" s="148"/>
-      <c r="HD10" s="148"/>
-      <c r="HE10" s="148"/>
-      <c r="HF10" s="148"/>
-      <c r="HG10" s="149"/>
-      <c r="HH10" s="147">
+      <c r="HB10" s="154"/>
+      <c r="HC10" s="154"/>
+      <c r="HD10" s="154"/>
+      <c r="HE10" s="154"/>
+      <c r="HF10" s="154"/>
+      <c r="HG10" s="155"/>
+      <c r="HH10" s="153">
         <f>WEEKNUM(HK13,21)</f>
         <v>15</v>
       </c>
-      <c r="HI10" s="148"/>
-      <c r="HJ10" s="148"/>
-      <c r="HK10" s="148"/>
-      <c r="HL10" s="148"/>
-      <c r="HM10" s="148"/>
-      <c r="HN10" s="149"/>
-      <c r="HO10" s="147">
+      <c r="HI10" s="154"/>
+      <c r="HJ10" s="154"/>
+      <c r="HK10" s="154"/>
+      <c r="HL10" s="154"/>
+      <c r="HM10" s="154"/>
+      <c r="HN10" s="155"/>
+      <c r="HO10" s="153">
         <f>WEEKNUM(HR13,21)</f>
         <v>16</v>
       </c>
-      <c r="HP10" s="148"/>
-      <c r="HQ10" s="148"/>
-      <c r="HR10" s="148"/>
-      <c r="HS10" s="148"/>
-      <c r="HT10" s="148"/>
-      <c r="HU10" s="149"/>
-      <c r="HV10" s="147">
+      <c r="HP10" s="154"/>
+      <c r="HQ10" s="154"/>
+      <c r="HR10" s="154"/>
+      <c r="HS10" s="154"/>
+      <c r="HT10" s="154"/>
+      <c r="HU10" s="155"/>
+      <c r="HV10" s="153">
         <f t="shared" ref="HV10" si="56">WEEKNUM(HY13,21)</f>
         <v>17</v>
       </c>
-      <c r="HW10" s="148"/>
-      <c r="HX10" s="148"/>
-      <c r="HY10" s="148"/>
-      <c r="HZ10" s="148"/>
-      <c r="IA10" s="148"/>
-      <c r="IB10" s="149"/>
-      <c r="IC10" s="147">
+      <c r="HW10" s="154"/>
+      <c r="HX10" s="154"/>
+      <c r="HY10" s="154"/>
+      <c r="HZ10" s="154"/>
+      <c r="IA10" s="154"/>
+      <c r="IB10" s="155"/>
+      <c r="IC10" s="153">
         <f t="shared" ref="IC10" si="57">WEEKNUM(IF13,21)</f>
         <v>18</v>
       </c>
-      <c r="ID10" s="148"/>
-      <c r="IE10" s="148"/>
-      <c r="IF10" s="148"/>
-      <c r="IG10" s="148"/>
-      <c r="IH10" s="148"/>
-      <c r="II10" s="149"/>
-      <c r="IJ10" s="147">
+      <c r="ID10" s="154"/>
+      <c r="IE10" s="154"/>
+      <c r="IF10" s="154"/>
+      <c r="IG10" s="154"/>
+      <c r="IH10" s="154"/>
+      <c r="II10" s="155"/>
+      <c r="IJ10" s="153">
         <f t="shared" ref="IJ10" si="58">WEEKNUM(IM13,21)</f>
         <v>19</v>
       </c>
-      <c r="IK10" s="148"/>
-      <c r="IL10" s="148"/>
-      <c r="IM10" s="148"/>
-      <c r="IN10" s="148"/>
-      <c r="IO10" s="148"/>
-      <c r="IP10" s="149"/>
-      <c r="IQ10" s="147">
+      <c r="IK10" s="154"/>
+      <c r="IL10" s="154"/>
+      <c r="IM10" s="154"/>
+      <c r="IN10" s="154"/>
+      <c r="IO10" s="154"/>
+      <c r="IP10" s="155"/>
+      <c r="IQ10" s="153">
         <f t="shared" ref="IQ10" si="59">WEEKNUM(IT13,21)</f>
         <v>20</v>
       </c>
-      <c r="IR10" s="148"/>
-      <c r="IS10" s="148"/>
-      <c r="IT10" s="148"/>
-      <c r="IU10" s="148"/>
-      <c r="IV10" s="148"/>
-      <c r="IW10" s="149"/>
-      <c r="IX10" s="147">
+      <c r="IR10" s="154"/>
+      <c r="IS10" s="154"/>
+      <c r="IT10" s="154"/>
+      <c r="IU10" s="154"/>
+      <c r="IV10" s="154"/>
+      <c r="IW10" s="155"/>
+      <c r="IX10" s="153">
         <f t="shared" ref="IX10" si="60">WEEKNUM(JA13,21)</f>
         <v>21</v>
       </c>
-      <c r="IY10" s="148"/>
-      <c r="IZ10" s="148"/>
-      <c r="JA10" s="148"/>
-      <c r="JB10" s="148"/>
-      <c r="JC10" s="148"/>
-      <c r="JD10" s="149"/>
-      <c r="JE10" s="147">
+      <c r="IY10" s="154"/>
+      <c r="IZ10" s="154"/>
+      <c r="JA10" s="154"/>
+      <c r="JB10" s="154"/>
+      <c r="JC10" s="154"/>
+      <c r="JD10" s="155"/>
+      <c r="JE10" s="153">
         <f t="shared" ref="JE10" si="61">WEEKNUM(JH13,21)</f>
         <v>22</v>
       </c>
-      <c r="JF10" s="148"/>
-      <c r="JG10" s="148"/>
-      <c r="JH10" s="148"/>
-      <c r="JI10" s="148"/>
-      <c r="JJ10" s="148"/>
-      <c r="JK10" s="149"/>
-      <c r="JL10" s="147">
+      <c r="JF10" s="154"/>
+      <c r="JG10" s="154"/>
+      <c r="JH10" s="154"/>
+      <c r="JI10" s="154"/>
+      <c r="JJ10" s="154"/>
+      <c r="JK10" s="155"/>
+      <c r="JL10" s="153">
         <f t="shared" ref="JL10" si="62">WEEKNUM(JO13,21)</f>
         <v>23</v>
       </c>
-      <c r="JM10" s="148"/>
-      <c r="JN10" s="148"/>
-      <c r="JO10" s="148"/>
-      <c r="JP10" s="148"/>
-      <c r="JQ10" s="148"/>
-      <c r="JR10" s="149"/>
-      <c r="JS10" s="147">
+      <c r="JM10" s="154"/>
+      <c r="JN10" s="154"/>
+      <c r="JO10" s="154"/>
+      <c r="JP10" s="154"/>
+      <c r="JQ10" s="154"/>
+      <c r="JR10" s="155"/>
+      <c r="JS10" s="153">
         <f t="shared" ref="JS10" si="63">WEEKNUM(JV13,21)</f>
         <v>24</v>
       </c>
-      <c r="JT10" s="148"/>
-      <c r="JU10" s="148"/>
-      <c r="JV10" s="148"/>
-      <c r="JW10" s="148"/>
-      <c r="JX10" s="148"/>
-      <c r="JY10" s="149"/>
-      <c r="JZ10" s="147">
+      <c r="JT10" s="154"/>
+      <c r="JU10" s="154"/>
+      <c r="JV10" s="154"/>
+      <c r="JW10" s="154"/>
+      <c r="JX10" s="154"/>
+      <c r="JY10" s="155"/>
+      <c r="JZ10" s="153">
         <f t="shared" ref="JZ10" si="64">WEEKNUM(KC13,21)</f>
         <v>25</v>
       </c>
-      <c r="KA10" s="148"/>
-      <c r="KB10" s="148"/>
-      <c r="KC10" s="148"/>
-      <c r="KD10" s="148"/>
-      <c r="KE10" s="148"/>
-      <c r="KF10" s="149"/>
-      <c r="KG10" s="147">
+      <c r="KA10" s="154"/>
+      <c r="KB10" s="154"/>
+      <c r="KC10" s="154"/>
+      <c r="KD10" s="154"/>
+      <c r="KE10" s="154"/>
+      <c r="KF10" s="155"/>
+      <c r="KG10" s="153">
         <f t="shared" ref="KG10" si="65">WEEKNUM(KJ13,21)</f>
         <v>26</v>
       </c>
-      <c r="KH10" s="148"/>
-      <c r="KI10" s="148"/>
-      <c r="KJ10" s="148"/>
-      <c r="KK10" s="148"/>
-      <c r="KL10" s="148"/>
-      <c r="KM10" s="149"/>
-      <c r="KN10" s="147">
+      <c r="KH10" s="154"/>
+      <c r="KI10" s="154"/>
+      <c r="KJ10" s="154"/>
+      <c r="KK10" s="154"/>
+      <c r="KL10" s="154"/>
+      <c r="KM10" s="155"/>
+      <c r="KN10" s="153">
         <f t="shared" ref="KN10" si="66">WEEKNUM(KQ13,21)</f>
         <v>27</v>
       </c>
-      <c r="KO10" s="148"/>
-      <c r="KP10" s="148"/>
-      <c r="KQ10" s="148"/>
-      <c r="KR10" s="148"/>
-      <c r="KS10" s="148"/>
-      <c r="KT10" s="149"/>
-      <c r="KU10" s="147">
+      <c r="KO10" s="154"/>
+      <c r="KP10" s="154"/>
+      <c r="KQ10" s="154"/>
+      <c r="KR10" s="154"/>
+      <c r="KS10" s="154"/>
+      <c r="KT10" s="155"/>
+      <c r="KU10" s="153">
         <f t="shared" ref="KU10" si="67">WEEKNUM(KX13,21)</f>
         <v>28</v>
       </c>
-      <c r="KV10" s="148"/>
-      <c r="KW10" s="148"/>
-      <c r="KX10" s="148"/>
-      <c r="KY10" s="148"/>
-      <c r="KZ10" s="148"/>
-      <c r="LA10" s="149"/>
-      <c r="LB10" s="147">
+      <c r="KV10" s="154"/>
+      <c r="KW10" s="154"/>
+      <c r="KX10" s="154"/>
+      <c r="KY10" s="154"/>
+      <c r="KZ10" s="154"/>
+      <c r="LA10" s="155"/>
+      <c r="LB10" s="153">
         <f t="shared" ref="LB10" si="68">WEEKNUM(LE13,21)</f>
         <v>29</v>
       </c>
-      <c r="LC10" s="148"/>
-      <c r="LD10" s="148"/>
-      <c r="LE10" s="148"/>
-      <c r="LF10" s="148"/>
-      <c r="LG10" s="148"/>
-      <c r="LH10" s="149"/>
-      <c r="LI10" s="147">
+      <c r="LC10" s="154"/>
+      <c r="LD10" s="154"/>
+      <c r="LE10" s="154"/>
+      <c r="LF10" s="154"/>
+      <c r="LG10" s="154"/>
+      <c r="LH10" s="155"/>
+      <c r="LI10" s="153">
         <f t="shared" ref="LI10" si="69">WEEKNUM(LL13,21)</f>
         <v>30</v>
       </c>
-      <c r="LJ10" s="148"/>
-      <c r="LK10" s="148"/>
-      <c r="LL10" s="148"/>
-      <c r="LM10" s="148"/>
-      <c r="LN10" s="148"/>
-      <c r="LO10" s="149"/>
-      <c r="LP10" s="147">
+      <c r="LJ10" s="154"/>
+      <c r="LK10" s="154"/>
+      <c r="LL10" s="154"/>
+      <c r="LM10" s="154"/>
+      <c r="LN10" s="154"/>
+      <c r="LO10" s="155"/>
+      <c r="LP10" s="153">
         <f t="shared" ref="LP10" si="70">WEEKNUM(LS13,21)</f>
         <v>31</v>
       </c>
-      <c r="LQ10" s="148"/>
-      <c r="LR10" s="148"/>
-      <c r="LS10" s="148"/>
-      <c r="LT10" s="148"/>
-      <c r="LU10" s="148"/>
-      <c r="LV10" s="149"/>
-      <c r="LW10" s="147">
+      <c r="LQ10" s="154"/>
+      <c r="LR10" s="154"/>
+      <c r="LS10" s="154"/>
+      <c r="LT10" s="154"/>
+      <c r="LU10" s="154"/>
+      <c r="LV10" s="155"/>
+      <c r="LW10" s="153">
         <f t="shared" ref="LW10" si="71">WEEKNUM(LZ13,21)</f>
         <v>32</v>
       </c>
-      <c r="LX10" s="148"/>
-      <c r="LY10" s="148"/>
-      <c r="LZ10" s="148"/>
-      <c r="MA10" s="148"/>
-      <c r="MB10" s="148"/>
-      <c r="MC10" s="149"/>
-      <c r="MD10" s="147">
+      <c r="LX10" s="154"/>
+      <c r="LY10" s="154"/>
+      <c r="LZ10" s="154"/>
+      <c r="MA10" s="154"/>
+      <c r="MB10" s="154"/>
+      <c r="MC10" s="155"/>
+      <c r="MD10" s="153">
         <f t="shared" ref="MD10" si="72">WEEKNUM(MG13,21)</f>
         <v>33</v>
       </c>
-      <c r="ME10" s="148"/>
-      <c r="MF10" s="148"/>
-      <c r="MG10" s="148"/>
-      <c r="MH10" s="148"/>
-      <c r="MI10" s="148"/>
-      <c r="MJ10" s="149"/>
-      <c r="MK10" s="147">
+      <c r="ME10" s="154"/>
+      <c r="MF10" s="154"/>
+      <c r="MG10" s="154"/>
+      <c r="MH10" s="154"/>
+      <c r="MI10" s="154"/>
+      <c r="MJ10" s="155"/>
+      <c r="MK10" s="153">
         <f t="shared" ref="MK10" si="73">WEEKNUM(MN13,21)</f>
         <v>34</v>
       </c>
-      <c r="ML10" s="148"/>
-      <c r="MM10" s="148"/>
-      <c r="MN10" s="148"/>
-      <c r="MO10" s="148"/>
-      <c r="MP10" s="148"/>
-      <c r="MQ10" s="149"/>
-      <c r="MR10" s="147">
+      <c r="ML10" s="154"/>
+      <c r="MM10" s="154"/>
+      <c r="MN10" s="154"/>
+      <c r="MO10" s="154"/>
+      <c r="MP10" s="154"/>
+      <c r="MQ10" s="155"/>
+      <c r="MR10" s="153">
         <f t="shared" ref="MR10" si="74">WEEKNUM(MU13,21)</f>
         <v>35</v>
       </c>
-      <c r="MS10" s="148"/>
-      <c r="MT10" s="148"/>
-      <c r="MU10" s="148"/>
-      <c r="MV10" s="148"/>
-      <c r="MW10" s="148"/>
-      <c r="MX10" s="149"/>
-      <c r="MY10" s="147">
+      <c r="MS10" s="154"/>
+      <c r="MT10" s="154"/>
+      <c r="MU10" s="154"/>
+      <c r="MV10" s="154"/>
+      <c r="MW10" s="154"/>
+      <c r="MX10" s="155"/>
+      <c r="MY10" s="153">
         <f t="shared" ref="MY10" si="75">WEEKNUM(NB13,21)</f>
         <v>36</v>
       </c>
-      <c r="MZ10" s="148"/>
-      <c r="NA10" s="148"/>
-      <c r="NB10" s="148"/>
-      <c r="NC10" s="148"/>
-      <c r="ND10" s="148"/>
-      <c r="NE10" s="149"/>
-      <c r="NF10" s="147">
+      <c r="MZ10" s="154"/>
+      <c r="NA10" s="154"/>
+      <c r="NB10" s="154"/>
+      <c r="NC10" s="154"/>
+      <c r="ND10" s="154"/>
+      <c r="NE10" s="155"/>
+      <c r="NF10" s="153">
         <f t="shared" ref="NF10" si="76">WEEKNUM(NI13,21)</f>
         <v>37</v>
       </c>
-      <c r="NG10" s="148"/>
-      <c r="NH10" s="148"/>
-      <c r="NI10" s="148"/>
-      <c r="NJ10" s="148"/>
-      <c r="NK10" s="148"/>
-      <c r="NL10" s="149"/>
-      <c r="NM10" s="147">
+      <c r="NG10" s="154"/>
+      <c r="NH10" s="154"/>
+      <c r="NI10" s="154"/>
+      <c r="NJ10" s="154"/>
+      <c r="NK10" s="154"/>
+      <c r="NL10" s="155"/>
+      <c r="NM10" s="153">
         <f t="shared" ref="NM10" si="77">WEEKNUM(NP13,21)</f>
         <v>38</v>
       </c>
-      <c r="NN10" s="148"/>
-      <c r="NO10" s="148"/>
-      <c r="NP10" s="148"/>
-      <c r="NQ10" s="148"/>
-      <c r="NR10" s="148"/>
-      <c r="NS10" s="149"/>
-      <c r="NT10" s="147">
+      <c r="NN10" s="154"/>
+      <c r="NO10" s="154"/>
+      <c r="NP10" s="154"/>
+      <c r="NQ10" s="154"/>
+      <c r="NR10" s="154"/>
+      <c r="NS10" s="155"/>
+      <c r="NT10" s="153">
         <f t="shared" ref="NT10" si="78">WEEKNUM(NW13,21)</f>
         <v>39</v>
       </c>
-      <c r="NU10" s="148"/>
-      <c r="NV10" s="148"/>
-      <c r="NW10" s="148"/>
-      <c r="NX10" s="148"/>
-      <c r="NY10" s="148"/>
-      <c r="NZ10" s="149"/>
-      <c r="OA10" s="147">
+      <c r="NU10" s="154"/>
+      <c r="NV10" s="154"/>
+      <c r="NW10" s="154"/>
+      <c r="NX10" s="154"/>
+      <c r="NY10" s="154"/>
+      <c r="NZ10" s="155"/>
+      <c r="OA10" s="153">
         <f t="shared" ref="OA10" si="79">WEEKNUM(OD13,21)</f>
         <v>40</v>
       </c>
-      <c r="OB10" s="148"/>
-      <c r="OC10" s="148"/>
-      <c r="OD10" s="148"/>
-      <c r="OE10" s="148"/>
-      <c r="OF10" s="148"/>
-      <c r="OG10" s="149"/>
-      <c r="OH10" s="147">
+      <c r="OB10" s="154"/>
+      <c r="OC10" s="154"/>
+      <c r="OD10" s="154"/>
+      <c r="OE10" s="154"/>
+      <c r="OF10" s="154"/>
+      <c r="OG10" s="155"/>
+      <c r="OH10" s="153">
         <f t="shared" ref="OH10" si="80">WEEKNUM(OK13,21)</f>
         <v>41</v>
       </c>
-      <c r="OI10" s="148"/>
-      <c r="OJ10" s="148"/>
-      <c r="OK10" s="148"/>
-      <c r="OL10" s="148"/>
-      <c r="OM10" s="148"/>
-      <c r="ON10" s="149"/>
-      <c r="OO10" s="147">
+      <c r="OI10" s="154"/>
+      <c r="OJ10" s="154"/>
+      <c r="OK10" s="154"/>
+      <c r="OL10" s="154"/>
+      <c r="OM10" s="154"/>
+      <c r="ON10" s="155"/>
+      <c r="OO10" s="153">
         <f t="shared" ref="OO10" si="81">WEEKNUM(OR13,21)</f>
         <v>42</v>
       </c>
-      <c r="OP10" s="148"/>
-      <c r="OQ10" s="148"/>
-      <c r="OR10" s="148"/>
-      <c r="OS10" s="148"/>
-      <c r="OT10" s="148"/>
-      <c r="OU10" s="149"/>
-      <c r="OV10" s="147">
+      <c r="OP10" s="154"/>
+      <c r="OQ10" s="154"/>
+      <c r="OR10" s="154"/>
+      <c r="OS10" s="154"/>
+      <c r="OT10" s="154"/>
+      <c r="OU10" s="155"/>
+      <c r="OV10" s="153">
         <f t="shared" ref="OV10" si="82">WEEKNUM(OY13,21)</f>
         <v>43</v>
       </c>
-      <c r="OW10" s="148"/>
-      <c r="OX10" s="148"/>
-      <c r="OY10" s="148"/>
-      <c r="OZ10" s="148"/>
-      <c r="PA10" s="148"/>
-      <c r="PB10" s="149"/>
+      <c r="OW10" s="154"/>
+      <c r="OX10" s="154"/>
+      <c r="OY10" s="154"/>
+      <c r="OZ10" s="154"/>
+      <c r="PA10" s="154"/>
+      <c r="PB10" s="155"/>
     </row>
     <row r="11" spans="2:418" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="29"/>
@@ -6571,8 +6531,8 @@
       <c r="G11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
       <c r="J11" s="33"/>
       <c r="L11" s="28" t="s">
         <v>17</v>
@@ -7801,8 +7761,8 @@
       <c r="C12" s="30"/>
       <c r="F12" s="36"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="174"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
       <c r="J12" s="38"/>
       <c r="L12" s="39" t="s">
         <v>2</v>
@@ -22095,7 +22055,7 @@
       <c r="AE39" s="72"/>
       <c r="AF39" s="72"/>
       <c r="AG39" s="72"/>
-      <c r="AH39" s="72"/>
+      <c r="AH39" s="139"/>
       <c r="AI39" s="72"/>
       <c r="AJ39" s="59"/>
       <c r="AK39" s="59"/>
@@ -27294,7 +27254,7 @@
       <c r="PA50" s="59"/>
       <c r="PB50" s="71"/>
     </row>
-    <row r="51" spans="2:418" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:418" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B51" s="49">
         <f t="shared" si="103"/>
         <v>37</v>
@@ -28185,7 +28145,7 @@
         <v>43047</v>
       </c>
       <c r="H53" s="65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="66">
         <v>43047</v>
@@ -29072,9 +29032,9 @@
       <c r="J55" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="67" t="e">
-        <f ca="1">SUMM(K56:K77)</f>
-        <v>#NAME?</v>
+      <c r="K55" s="67">
+        <f>SUM(K56:K77)</f>
+        <v>64.25</v>
       </c>
       <c r="L55" s="68">
         <f>SUM(L57:L77)</f>
@@ -35605,10 +35565,7 @@
       <c r="PB69" s="71"/>
     </row>
     <row r="70" spans="1:418" x14ac:dyDescent="0.4">
-      <c r="B70" s="106">
-        <f t="shared" si="98"/>
-        <v>56</v>
-      </c>
+      <c r="B70" s="106"/>
       <c r="C70" s="122"/>
       <c r="D70" s="123" t="s">
         <v>110</v>
@@ -35619,19 +35576,19 @@
       <c r="F70" s="122">
         <v>1</v>
       </c>
-      <c r="G70" s="125">
-        <f t="shared" ref="G70" si="110">IF(F70&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E70,1)=7,E70+2,IF(WEEKDAY(E70,1)=1,E70+1,E70)),F70-1),E70+F70-1),"")</f>
+      <c r="G70" s="134">
+        <f t="shared" si="106"/>
         <v>43066</v>
       </c>
-      <c r="H70" s="126">
+      <c r="H70" s="135">
         <v>1</v>
       </c>
-      <c r="I70" s="127"/>
-      <c r="J70" s="127"/>
-      <c r="K70" s="128">
+      <c r="I70" s="136"/>
+      <c r="J70" s="136"/>
+      <c r="K70" s="137">
         <v>2</v>
       </c>
-      <c r="L70" s="129">
+      <c r="L70" s="138">
         <v>1</v>
       </c>
       <c r="M70" s="58"/>
@@ -37353,7 +37310,7 @@
     </row>
     <row r="74" spans="1:418" x14ac:dyDescent="0.4">
       <c r="B74" s="49">
-        <f t="shared" ref="B74" si="111">ROW()-15+1</f>
+        <f t="shared" ref="B74" si="110">ROW()-15+1</f>
         <v>60</v>
       </c>
       <c r="C74" s="110"/>
@@ -37367,7 +37324,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="113">
-        <f t="shared" ref="G74" si="112">IF(F74&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E74,1)=7,E74+2,IF(WEEKDAY(E74,1)=1,E74+1,E74)),F74-1),E74+F74-1),"")</f>
+        <f t="shared" ref="G74" si="111">IF(F74&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E74,1)=7,E74+2,IF(WEEKDAY(E74,1)=1,E74+1,E74)),F74-1),E74+F74-1),"")</f>
         <v>43073</v>
       </c>
       <c r="H74" s="114">
@@ -39134,7 +39091,7 @@
       </c>
       <c r="L78" s="68">
         <f>SUM(L79:L81)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M78" s="58"/>
       <c r="N78" s="59"/>
@@ -39559,7 +39516,7 @@
         <v>5</v>
       </c>
       <c r="G79" s="76">
-        <f t="shared" ref="G79:G81" si="113">IF(F79&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E79,1)=7,E79+2,IF(WEEKDAY(E79,1)=1,E79+1,E79)),F79-1),E79+F79-1),"")</f>
+        <f t="shared" ref="G79:G81" si="112">IF(F79&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E79,1)=7,E79+2,IF(WEEKDAY(E79,1)=1,E79+1,E79)),F79-1),E79+F79-1),"")</f>
         <v>43082</v>
       </c>
       <c r="H79" s="77">
@@ -39996,7 +39953,7 @@
         <v>5</v>
       </c>
       <c r="G80" s="76">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>43082</v>
       </c>
       <c r="H80" s="77">
@@ -40433,7 +40390,7 @@
         <v>2</v>
       </c>
       <c r="G81" s="76">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>43083</v>
       </c>
       <c r="H81" s="77">
@@ -40445,7 +40402,7 @@
         <v>1</v>
       </c>
       <c r="L81" s="80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M81" s="58"/>
       <c r="N81" s="59"/>
@@ -40875,7 +40832,7 @@
       </c>
       <c r="H82" s="65">
         <f>100*AVERAGE(H83:H102)%</f>
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="I82" s="66">
         <v>43091</v>
@@ -46996,7 +46953,7 @@
         <v>43086</v>
       </c>
       <c r="H96" s="77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="78"/>
       <c r="J96" s="78"/>
@@ -49171,14 +49128,14 @@
         <v>48</v>
       </c>
       <c r="E101" s="75">
-        <v>43085</v>
+        <v>43088</v>
       </c>
       <c r="F101" s="73">
         <v>1</v>
       </c>
       <c r="G101" s="76">
         <f>IF(F101&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E612.0,1)=7,E101+2,IF(WEEKDAY(E101,1)=1,E101+1,E101)),F101-1),E101+F101-1),"")</f>
-        <v>43085</v>
+        <v>43088</v>
       </c>
       <c r="H101" s="77">
         <v>1</v>
@@ -50051,7 +50008,7 @@
         <v>1</v>
       </c>
       <c r="G103" s="53">
-        <f t="shared" ref="G103:G106" si="114">IF(F103&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E103,1)=7,E103+2,IF(WEEKDAY(E103,1)=1,E103+1,E103)),F103-1),E103+F103-1),"")</f>
+        <f t="shared" ref="G103:G106" si="113">IF(F103&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E103,1)=7,E103+2,IF(WEEKDAY(E103,1)=1,E103+1,E103)),F103-1),E103+F103-1),"")</f>
         <v>43109</v>
       </c>
       <c r="H103" s="65">
@@ -50489,7 +50446,7 @@
         <v>9</v>
       </c>
       <c r="G104" s="76">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>43109</v>
       </c>
       <c r="H104" s="77">
@@ -50925,7 +50882,7 @@
         <v>5</v>
       </c>
       <c r="G105" s="76">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>43108</v>
       </c>
       <c r="H105" s="77">
@@ -51362,7 +51319,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="53">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>43109</v>
       </c>
       <c r="H106" s="65">
@@ -51801,7 +51758,7 @@
         <v>8</v>
       </c>
       <c r="G107" s="76">
-        <f t="shared" ref="G107:G108" si="115">IF(F107&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E107,1)=7,E107+2,IF(WEEKDAY(E107,1)=1,E107+1,E107)),F107-1),E107+F107-1),"")</f>
+        <f t="shared" ref="G107:G108" si="114">IF(F107&lt;&gt;"",IF(H$11="x",WORKDAY(IF(WEEKDAY(E107,1)=7,E107+2,IF(WEEKDAY(E107,1)=1,E107+1,E107)),F107-1),E107+F107-1),"")</f>
         <v>43108</v>
       </c>
       <c r="H107" s="77">
@@ -52238,7 +52195,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="76">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>42744</v>
       </c>
       <c r="H108" s="77"/>
@@ -57658,1269 +57615,1241 @@
     <mergeCell ref="MY9:NE9"/>
   </mergeCells>
   <conditionalFormatting sqref="M9:PB9">
-    <cfRule type="expression" dxfId="279" priority="778">
+    <cfRule type="expression" dxfId="273" priority="779">
       <formula>OR(TEXT(M9,"MMMM")="Februar",TEXT(M9,"MMMM")="April",TEXT(M9,"MMMM")="Juni",TEXT(M9,"MMMM")="August",TEXT(M9,"MMMM")="Oktober",TEXT(M9,"MMMM")="Dezember")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M75:PB108 M62:PB66">
-    <cfRule type="expression" dxfId="278" priority="771">
+  <conditionalFormatting sqref="M12:PB13 M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M68:PB71 M57:PB60 M73:PB73 M75:PB108 M62:PB66 M46:PB55">
+    <cfRule type="expression" dxfId="272" priority="772">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12:PI13">
-    <cfRule type="expression" dxfId="277" priority="774">
+    <cfRule type="expression" dxfId="271" priority="775">
       <formula>AND(M$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="276" priority="776">
+    <cfRule type="expression" dxfId="270" priority="777">
       <formula>AND(M$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:U13 V13:PB13">
-    <cfRule type="expression" dxfId="275" priority="775">
+    <cfRule type="expression" dxfId="269" priority="776">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:X13">
-    <cfRule type="expression" dxfId="274" priority="772">
+    <cfRule type="expression" dxfId="268" priority="773">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="273" priority="773">
+    <cfRule type="expression" dxfId="267" priority="774">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB44 M46:PB107">
-    <cfRule type="expression" dxfId="272" priority="758">
+    <cfRule type="expression" dxfId="266" priority="759">
       <formula>AND($I15=M$13,$J15&lt;&gt;"F",$I15&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="271" priority="763">
+    <cfRule type="expression" dxfId="265" priority="764">
       <formula>AND($I15=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="270" priority="767">
+    <cfRule type="expression" dxfId="264" priority="768">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="269" priority="770">
+    <cfRule type="expression" dxfId="263" priority="771">
       <formula>AND($G15&lt;&gt;"",AND(M$13&gt;=$E15,M$13&lt;=$G15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB44 M46:PB107">
-    <cfRule type="expression" dxfId="268" priority="768">
+    <cfRule type="expression" dxfId="262" priority="769">
       <formula>AND($H15&gt;0,AND(M$13&gt;=$E15,M$13&lt;=$E15+($G15-$E15)*$H15))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M75:PB108 M62:PB66">
-    <cfRule type="expression" dxfId="267" priority="779">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M68:PB71 M57:PB60 M73:PB73 M75:PB108 M62:PB66 M46:PB55">
+    <cfRule type="expression" dxfId="261" priority="780">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M62:PB66 M75:PB107">
-    <cfRule type="expression" dxfId="266" priority="766">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M34:PB37 M39:PB44 M68:PB71 M57:PB60 M73:PB73 M62:PB66 M75:PB107 M46:PB55">
+    <cfRule type="expression" dxfId="260" priority="767">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M71:PB71 M68:PB69 M57:PB60 M46:PB55 M73:PB73 M75:PB108 M62:PB66">
-    <cfRule type="expression" dxfId="265" priority="777">
+  <conditionalFormatting sqref="M15:PB18 M20:PB26 M28:PB28 M30:PB32 M111:PB119 M34:PB37 M39:PB44 M68:PB71 M57:PB60 M73:PB73 M75:PB108 M62:PB66 M46:PB55">
+    <cfRule type="expression" dxfId="259" priority="778">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:J18 I20:J26 I28:J28 I30:J32 I39:J39 I34:J37 I110:J118 I71:J71 I68:J69 I57:J60 I46:J55 I73:J73 I75:J82 I62:J66">
-    <cfRule type="expression" dxfId="264" priority="759">
+  <conditionalFormatting sqref="I15:J18 I20:J26 I28:J28 I30:J32 I39:J39 I34:J37 I110:J118 I68:J71 I57:J60 I73:J73 I75:J82 I62:J66 I46:J55">
+    <cfRule type="expression" dxfId="258" priority="760">
       <formula>AND($J15="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="760">
+    <cfRule type="expression" dxfId="257" priority="761">
       <formula>AND($I15&lt;&gt;"",AND($I15&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="expression" dxfId="262" priority="764">
+    <cfRule type="expression" dxfId="256" priority="765">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="765">
+    <cfRule type="expression" dxfId="255" priority="766">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13:R13">
-    <cfRule type="expression" dxfId="260" priority="761">
+    <cfRule type="expression" dxfId="254" priority="762">
       <formula>AND(N$12="So")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="762">
+    <cfRule type="expression" dxfId="253" priority="763">
       <formula>AND(N$12="Sa")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:L18 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C51:F52 C110:L118 C50:D50 F50 C53:L55 E71:L71 C71 C75:L82 C68:L69 C57:L60 C46:F49 H46:L52 C73 E73:L73 C65:L66 C64:D64 C62:L63 G46:G50 G64:J64">
-    <cfRule type="expression" dxfId="258" priority="769">
+  <conditionalFormatting sqref="C15:L18 C28:L28 C20:L26 C30:L32 C39:L39 G38 C34:L37 C110:L118 C50:D50 F50 C53:L55 E71:L71 C71 C75:L82 C68:L69 C57:L60 C46:F49 C73 E73:L73 C65:L66 C64:D64 C62:L63 G64:J64 G70:L70 C51:F52 G46:L52">
+    <cfRule type="expression" dxfId="252" priority="770">
       <formula>OR($C15="X",$C15="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="257" priority="683">
+    <cfRule type="expression" dxfId="251" priority="684">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="256" priority="674">
+    <cfRule type="expression" dxfId="250" priority="675">
       <formula>AND($I19=M$13,$J19&lt;&gt;"F",$I19&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="255" priority="677">
+    <cfRule type="expression" dxfId="249" priority="678">
       <formula>AND($I19=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="254" priority="679">
+    <cfRule type="expression" dxfId="248" priority="680">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="253" priority="682">
+    <cfRule type="expression" dxfId="247" priority="683">
       <formula>AND($G19&lt;&gt;"",AND(M$13&gt;=$E19,M$13&lt;=$G19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="252" priority="680">
+    <cfRule type="expression" dxfId="246" priority="681">
       <formula>AND($H19&gt;0,AND(M$13&gt;=$E19,M$13&lt;=$E19+($G19-$E19)*$H19))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="251" priority="685">
+    <cfRule type="expression" dxfId="245" priority="686">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="250" priority="678">
+    <cfRule type="expression" dxfId="244" priority="679">
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M19:PB19">
-    <cfRule type="expression" dxfId="249" priority="684">
+    <cfRule type="expression" dxfId="243" priority="685">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:J19">
-    <cfRule type="expression" dxfId="248" priority="675">
+    <cfRule type="expression" dxfId="242" priority="676">
       <formula>AND($J19="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="247" priority="676">
+    <cfRule type="expression" dxfId="241" priority="677">
       <formula>AND($I19&lt;&gt;"",AND($I19&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:L19">
-    <cfRule type="expression" dxfId="246" priority="681">
+    <cfRule type="expression" dxfId="240" priority="682">
       <formula>OR($C19="X",$C19="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110:PB110">
-    <cfRule type="expression" dxfId="245" priority="473">
+    <cfRule type="expression" dxfId="239" priority="474">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110:PB110">
-    <cfRule type="expression" dxfId="244" priority="475">
+    <cfRule type="expression" dxfId="238" priority="476">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110:PB119">
-    <cfRule type="expression" dxfId="243" priority="468">
+    <cfRule type="expression" dxfId="237" priority="469">
       <formula>OR($C109="X",$C109="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M110:PB110">
-    <cfRule type="expression" dxfId="242" priority="474">
+    <cfRule type="expression" dxfId="236" priority="475">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109:J109">
-    <cfRule type="expression" dxfId="241" priority="465">
+    <cfRule type="expression" dxfId="235" priority="466">
       <formula>AND($J109="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="240" priority="466">
+    <cfRule type="expression" dxfId="234" priority="467">
       <formula>AND($I109&lt;&gt;"",AND($I109&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109 F109:L109">
-    <cfRule type="expression" dxfId="239" priority="471">
+    <cfRule type="expression" dxfId="233" priority="472">
       <formula>OR($C109="X",$C109="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="expression" dxfId="238" priority="463">
+    <cfRule type="expression" dxfId="232" priority="464">
       <formula>OR($C109="X",$C109="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="237" priority="459">
+    <cfRule type="expression" dxfId="231" priority="460">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="236" priority="461">
+    <cfRule type="expression" dxfId="230" priority="462">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="235" priority="454">
+    <cfRule type="expression" dxfId="229" priority="455">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB109">
-    <cfRule type="expression" dxfId="234" priority="460">
+    <cfRule type="expression" dxfId="228" priority="461">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:J108">
-    <cfRule type="expression" dxfId="233" priority="451">
+    <cfRule type="expression" dxfId="227" priority="452">
       <formula>AND($J108="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="232" priority="452">
+    <cfRule type="expression" dxfId="226" priority="453">
       <formula>AND($I108&lt;&gt;"",AND($I108&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108 F108 H108:L108">
-    <cfRule type="expression" dxfId="231" priority="457">
+    <cfRule type="expression" dxfId="225" priority="458">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="expression" dxfId="230" priority="413">
+    <cfRule type="expression" dxfId="224" priority="414">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D109">
-    <cfRule type="expression" dxfId="229" priority="414">
+    <cfRule type="expression" dxfId="223" priority="415">
       <formula>OR($C109="X",$C109="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="228" priority="374">
+    <cfRule type="expression" dxfId="222" priority="375">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="227" priority="365">
+    <cfRule type="expression" dxfId="221" priority="366">
       <formula>AND($I29=M$13,$J29&lt;&gt;"F",$I29&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="368">
+    <cfRule type="expression" dxfId="220" priority="369">
       <formula>AND($I29=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="370">
+    <cfRule type="expression" dxfId="219" priority="371">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="373">
+    <cfRule type="expression" dxfId="218" priority="374">
       <formula>AND($G29&lt;&gt;"",AND(M$13&gt;=$E29,M$13&lt;=$G29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="223" priority="371">
+    <cfRule type="expression" dxfId="217" priority="372">
       <formula>AND($H29&gt;0,AND(M$13&gt;=$E29,M$13&lt;=$E29+($G29-$E29)*$H29))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="222" priority="376">
+    <cfRule type="expression" dxfId="216" priority="377">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="221" priority="369">
+    <cfRule type="expression" dxfId="215" priority="370">
       <formula>OR($C29="X",$C29="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:PB29">
-    <cfRule type="expression" dxfId="220" priority="375">
+    <cfRule type="expression" dxfId="214" priority="376">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29:J29">
-    <cfRule type="expression" dxfId="219" priority="366">
+    <cfRule type="expression" dxfId="213" priority="367">
       <formula>AND($J29="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="367">
+    <cfRule type="expression" dxfId="212" priority="368">
       <formula>AND($I29&lt;&gt;"",AND($I29&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:L29">
-    <cfRule type="expression" dxfId="217" priority="372">
+    <cfRule type="expression" dxfId="211" priority="373">
       <formula>OR($C29="X",$C29="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="216" priority="350">
+    <cfRule type="expression" dxfId="210" priority="351">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="215" priority="352">
+    <cfRule type="expression" dxfId="209" priority="353">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="214" priority="345">
+    <cfRule type="expression" dxfId="208" priority="346">
       <formula>OR($C38="X",$C38="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38:PB38">
-    <cfRule type="expression" dxfId="213" priority="351">
+    <cfRule type="expression" dxfId="207" priority="352">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:J38">
-    <cfRule type="expression" dxfId="212" priority="342">
+    <cfRule type="expression" dxfId="206" priority="343">
       <formula>AND($J38="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="211" priority="343">
+    <cfRule type="expression" dxfId="205" priority="344">
       <formula>AND($I38&lt;&gt;"",AND($I38&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:F38 H38:L38">
-    <cfRule type="expression" dxfId="210" priority="348">
+    <cfRule type="expression" dxfId="204" priority="349">
       <formula>OR($C38="X",$C38="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="209" priority="338">
+    <cfRule type="expression" dxfId="203" priority="339">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="208" priority="329">
+    <cfRule type="expression" dxfId="202" priority="330">
       <formula>AND($I27=M$13,$J27&lt;&gt;"F",$I27&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="332">
+    <cfRule type="expression" dxfId="201" priority="333">
       <formula>AND($I27=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="334">
+    <cfRule type="expression" dxfId="200" priority="335">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="337">
+    <cfRule type="expression" dxfId="199" priority="338">
       <formula>AND($G27&lt;&gt;"",AND(M$13&gt;=$E27,M$13&lt;=$G27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="204" priority="335">
+    <cfRule type="expression" dxfId="198" priority="336">
       <formula>AND($H27&gt;0,AND(M$13&gt;=$E27,M$13&lt;=$E27+($G27-$E27)*$H27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="203" priority="340">
+    <cfRule type="expression" dxfId="197" priority="341">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="202" priority="333">
+    <cfRule type="expression" dxfId="196" priority="334">
       <formula>OR($C27="X",$C27="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:PB27">
-    <cfRule type="expression" dxfId="201" priority="339">
+    <cfRule type="expression" dxfId="195" priority="340">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27:J27">
-    <cfRule type="expression" dxfId="200" priority="330">
+    <cfRule type="expression" dxfId="194" priority="331">
       <formula>AND($J27="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="331">
+    <cfRule type="expression" dxfId="193" priority="332">
       <formula>AND($I27&lt;&gt;"",AND($I27&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:L27">
-    <cfRule type="expression" dxfId="198" priority="336">
+    <cfRule type="expression" dxfId="192" priority="337">
       <formula>OR($C27="X",$C27="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="197" priority="258">
+    <cfRule type="expression" dxfId="191" priority="259">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="196" priority="249">
+    <cfRule type="expression" dxfId="190" priority="250">
       <formula>AND($I33=M$13,$J33&lt;&gt;"F",$I33&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="252">
+    <cfRule type="expression" dxfId="189" priority="253">
       <formula>AND($I33=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="194" priority="254">
+    <cfRule type="expression" dxfId="188" priority="255">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="257">
+    <cfRule type="expression" dxfId="187" priority="258">
       <formula>AND($G33&lt;&gt;"",AND(M$13&gt;=$E33,M$13&lt;=$G33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="192" priority="255">
+    <cfRule type="expression" dxfId="186" priority="256">
       <formula>AND($H33&gt;0,AND(M$13&gt;=$E33,M$13&lt;=$E33+($G33-$E33)*$H33))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="191" priority="260">
+    <cfRule type="expression" dxfId="185" priority="261">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="190" priority="253">
+    <cfRule type="expression" dxfId="184" priority="254">
       <formula>OR($C33="X",$C33="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33:PB33">
-    <cfRule type="expression" dxfId="189" priority="259">
+    <cfRule type="expression" dxfId="183" priority="260">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33:J33">
-    <cfRule type="expression" dxfId="188" priority="250">
+    <cfRule type="expression" dxfId="182" priority="251">
       <formula>AND($J33="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="251">
+    <cfRule type="expression" dxfId="181" priority="252">
       <formula>AND($I33&lt;&gt;"",AND($I33&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:L33">
-    <cfRule type="expression" dxfId="186" priority="256">
+    <cfRule type="expression" dxfId="180" priority="257">
       <formula>OR($C33="X",$C33="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40:J40">
-    <cfRule type="expression" dxfId="185" priority="246">
+    <cfRule type="expression" dxfId="179" priority="247">
       <formula>AND($J40="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="247">
+    <cfRule type="expression" dxfId="178" priority="248">
       <formula>AND($I40&lt;&gt;"",AND($I40&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C40:L40 G42:G43 G51:G52">
-    <cfRule type="expression" dxfId="183" priority="248">
+  <conditionalFormatting sqref="C40:L40 G42:G43">
+    <cfRule type="expression" dxfId="177" priority="249">
       <formula>OR($C40="X",$C40="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:J41">
-    <cfRule type="expression" dxfId="182" priority="243">
+    <cfRule type="expression" dxfId="176" priority="244">
       <formula>AND($J41="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="244">
+    <cfRule type="expression" dxfId="175" priority="245">
       <formula>AND($I41&lt;&gt;"",AND($I41&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:L41 G44">
-    <cfRule type="expression" dxfId="180" priority="245">
+    <cfRule type="expression" dxfId="174" priority="246">
       <formula>OR($C41="X",$C41="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83:J84">
-    <cfRule type="expression" dxfId="179" priority="240">
+    <cfRule type="expression" dxfId="173" priority="241">
       <formula>AND($J83="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="241">
+    <cfRule type="expression" dxfId="172" priority="242">
       <formula>AND($I83&lt;&gt;"",AND($I83&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83:C84 F83:L83 F84 H84:L84 G84:G102">
-    <cfRule type="expression" dxfId="177" priority="242">
+    <cfRule type="expression" dxfId="171" priority="243">
       <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83:E84">
-    <cfRule type="expression" dxfId="176" priority="239">
+    <cfRule type="expression" dxfId="170" priority="240">
       <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:D84">
-    <cfRule type="expression" dxfId="175" priority="238">
+    <cfRule type="expression" dxfId="169" priority="239">
       <formula>OR($C83="X",$C83="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87:J87 I106:J106 I89:J103">
-    <cfRule type="expression" dxfId="174" priority="235">
+    <cfRule type="expression" dxfId="168" priority="236">
       <formula>AND($J87="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="173" priority="236">
+    <cfRule type="expression" dxfId="167" priority="237">
       <formula>AND($I87&lt;&gt;"",AND($I87&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87 F106:L106 C106 F103:L103 F102 H87:L87 H89:L102 C89:C103 G104:G105">
-    <cfRule type="expression" dxfId="172" priority="237">
+    <cfRule type="expression" dxfId="166" priority="238">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102:E103 E106">
-    <cfRule type="expression" dxfId="171" priority="234">
+    <cfRule type="expression" dxfId="165" priority="235">
       <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:J86">
-    <cfRule type="expression" dxfId="170" priority="231">
+    <cfRule type="expression" dxfId="164" priority="232">
       <formula>AND($J86="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="232">
+    <cfRule type="expression" dxfId="163" priority="233">
       <formula>AND($I86&lt;&gt;"",AND($I86&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86 F86 H86:L86">
-    <cfRule type="expression" dxfId="168" priority="233">
+    <cfRule type="expression" dxfId="162" priority="234">
       <formula>OR($C86="X",$C86="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="expression" dxfId="167" priority="230">
+    <cfRule type="expression" dxfId="161" priority="231">
       <formula>OR($C86="X",$C86="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87 D106 D89:D103">
-    <cfRule type="expression" dxfId="166" priority="229">
+    <cfRule type="expression" dxfId="160" priority="230">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D86">
-    <cfRule type="expression" dxfId="165" priority="228">
+    <cfRule type="expression" dxfId="159" priority="229">
       <formula>OR($C86="X",$C86="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85">
-    <cfRule type="expression" dxfId="164" priority="223">
+    <cfRule type="expression" dxfId="158" priority="224">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85:J85">
-    <cfRule type="expression" dxfId="163" priority="225">
+    <cfRule type="expression" dxfId="157" priority="226">
       <formula>AND($J85="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="226">
+    <cfRule type="expression" dxfId="156" priority="227">
       <formula>AND($I85&lt;&gt;"",AND($I85&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85 F85 H85:L85">
-    <cfRule type="expression" dxfId="161" priority="227">
+    <cfRule type="expression" dxfId="155" priority="228">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="expression" dxfId="160" priority="224">
+    <cfRule type="expression" dxfId="154" priority="225">
       <formula>OR($C85="X",$C85="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103:J103 I109:J109 I106:J106">
-    <cfRule type="expression" dxfId="159" priority="220">
+    <cfRule type="expression" dxfId="153" priority="221">
       <formula>AND($J103="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="221">
+    <cfRule type="expression" dxfId="152" priority="222">
       <formula>AND($I103&lt;&gt;"",AND($I103&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C109:L109 C103:L103 C106:L106 G104:G105">
-    <cfRule type="expression" dxfId="157" priority="222">
+    <cfRule type="expression" dxfId="151" priority="223">
       <formula>OR($C103="X",$C103="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102:J102">
-    <cfRule type="expression" dxfId="156" priority="217">
+    <cfRule type="expression" dxfId="150" priority="218">
       <formula>AND($J102="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="218">
+    <cfRule type="expression" dxfId="149" priority="219">
       <formula>AND($I102&lt;&gt;"",AND($I102&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102 F102 H102:L102">
-    <cfRule type="expression" dxfId="154" priority="219">
+    <cfRule type="expression" dxfId="148" priority="220">
       <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="expression" dxfId="153" priority="216">
+    <cfRule type="expression" dxfId="147" priority="217">
       <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101:J101">
-    <cfRule type="expression" dxfId="152" priority="213">
+    <cfRule type="expression" dxfId="146" priority="214">
       <formula>AND($J101="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="214">
+    <cfRule type="expression" dxfId="145" priority="215">
       <formula>AND($I101&lt;&gt;"",AND($I101&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101 H101:L101">
-    <cfRule type="expression" dxfId="150" priority="215">
+    <cfRule type="expression" dxfId="144" priority="216">
       <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100:J100">
-    <cfRule type="expression" dxfId="149" priority="209">
+    <cfRule type="expression" dxfId="143" priority="210">
       <formula>AND($J100="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="210">
+    <cfRule type="expression" dxfId="142" priority="211">
       <formula>AND($I100&lt;&gt;"",AND($I100&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100 H100:L100">
-    <cfRule type="expression" dxfId="147" priority="211">
+    <cfRule type="expression" dxfId="141" priority="212">
       <formula>OR($C100="X",$C100="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89:J99">
-    <cfRule type="expression" dxfId="146" priority="205">
+    <cfRule type="expression" dxfId="140" priority="206">
       <formula>AND($J89="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="145" priority="206">
+    <cfRule type="expression" dxfId="139" priority="207">
       <formula>AND($I89&lt;&gt;"",AND($I89&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C99 H89:L99">
-    <cfRule type="expression" dxfId="144" priority="207">
+    <cfRule type="expression" dxfId="138" priority="208">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100">
-    <cfRule type="expression" dxfId="143" priority="198">
+    <cfRule type="expression" dxfId="137" priority="199">
       <formula>OR($C100="X",$C100="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92:H94">
-    <cfRule type="expression" dxfId="142" priority="176">
+    <cfRule type="expression" dxfId="136" priority="177">
       <formula>OR($C92="X",$C92="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="expression" dxfId="141" priority="199">
+    <cfRule type="expression" dxfId="135" priority="200">
       <formula>OR($C102="X",$C102="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="expression" dxfId="140" priority="197">
+    <cfRule type="expression" dxfId="134" priority="198">
       <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89:D99">
-    <cfRule type="expression" dxfId="139" priority="196">
+    <cfRule type="expression" dxfId="133" priority="197">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108:J108">
-    <cfRule type="expression" dxfId="138" priority="192">
+    <cfRule type="expression" dxfId="132" priority="193">
       <formula>AND($J108="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="193">
+    <cfRule type="expression" dxfId="131" priority="194">
       <formula>AND($I108&lt;&gt;"",AND($I108&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C108 F108 H108:L108">
-    <cfRule type="expression" dxfId="136" priority="194">
+    <cfRule type="expression" dxfId="130" priority="195">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="expression" dxfId="135" priority="190">
+    <cfRule type="expression" dxfId="129" priority="191">
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104:J105">
-    <cfRule type="expression" dxfId="134" priority="187">
+    <cfRule type="expression" dxfId="128" priority="188">
       <formula>AND($J104="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="188">
+    <cfRule type="expression" dxfId="127" priority="189">
       <formula>AND($I104&lt;&gt;"",AND($I104&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C105 F104:F105 H104:L105">
-    <cfRule type="expression" dxfId="132" priority="189">
+    <cfRule type="expression" dxfId="126" priority="190">
       <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104:E105">
-    <cfRule type="expression" dxfId="131" priority="186">
+    <cfRule type="expression" dxfId="125" priority="187">
       <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:D105">
-    <cfRule type="expression" dxfId="130" priority="185">
+    <cfRule type="expression" dxfId="124" priority="186">
       <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104:J105">
-    <cfRule type="expression" dxfId="129" priority="182">
+    <cfRule type="expression" dxfId="123" priority="183">
       <formula>AND($J104="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="183">
+    <cfRule type="expression" dxfId="122" priority="184">
       <formula>AND($I104&lt;&gt;"",AND($I104&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C105 F104:F105 H104:L105">
-    <cfRule type="expression" dxfId="127" priority="184">
+    <cfRule type="expression" dxfId="121" priority="185">
       <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E104:E105">
-    <cfRule type="expression" dxfId="126" priority="181">
+    <cfRule type="expression" dxfId="120" priority="182">
       <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:D105">
-    <cfRule type="expression" dxfId="125" priority="180">
+    <cfRule type="expression" dxfId="119" priority="181">
       <formula>OR($C104="X",$C104="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:J44">
-    <cfRule type="expression" dxfId="124" priority="177">
+    <cfRule type="expression" dxfId="118" priority="178">
       <formula>AND($J42="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="178">
+    <cfRule type="expression" dxfId="117" priority="179">
       <formula>AND($I42&lt;&gt;"",AND($I42&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42:L44 C42:F44">
-    <cfRule type="expression" dxfId="122" priority="179">
+    <cfRule type="expression" dxfId="116" priority="180">
       <formula>OR($C42="X",$C42="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="expression" dxfId="121" priority="175">
+    <cfRule type="expression" dxfId="115" priority="176">
       <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="expression" dxfId="120" priority="174">
+    <cfRule type="expression" dxfId="114" priority="175">
       <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="expression" dxfId="119" priority="173">
+    <cfRule type="expression" dxfId="113" priority="174">
       <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="expression" dxfId="118" priority="172">
+    <cfRule type="expression" dxfId="112" priority="173">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="expression" dxfId="117" priority="171">
+    <cfRule type="expression" dxfId="111" priority="172">
       <formula>OR($C87="X",$C87="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="expression" dxfId="116" priority="170">
+    <cfRule type="expression" dxfId="110" priority="171">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89">
-    <cfRule type="expression" dxfId="115" priority="169">
+    <cfRule type="expression" dxfId="109" priority="170">
       <formula>OR($C89="X",$C89="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90:F91">
-    <cfRule type="expression" dxfId="114" priority="166">
+    <cfRule type="expression" dxfId="108" priority="167">
       <formula>OR($C90="X",$C90="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E91">
-    <cfRule type="expression" dxfId="113" priority="165">
+    <cfRule type="expression" dxfId="107" priority="166">
       <formula>OR($C90="X",$C90="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="expression" dxfId="112" priority="164">
+    <cfRule type="expression" dxfId="106" priority="165">
       <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="expression" dxfId="111" priority="163">
+    <cfRule type="expression" dxfId="105" priority="164">
       <formula>OR($C95="X",$C95="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92:F94">
-    <cfRule type="expression" dxfId="110" priority="162">
+    <cfRule type="expression" dxfId="104" priority="163">
       <formula>OR($C92="X",$C92="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E92:E94">
-    <cfRule type="expression" dxfId="109" priority="161">
+    <cfRule type="expression" dxfId="103" priority="162">
       <formula>OR($C92="X",$C92="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="expression" dxfId="108" priority="160">
+    <cfRule type="expression" dxfId="102" priority="161">
       <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="expression" dxfId="107" priority="159">
+    <cfRule type="expression" dxfId="101" priority="160">
       <formula>OR($C96="X",$C96="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="expression" dxfId="106" priority="158">
+    <cfRule type="expression" dxfId="100" priority="159">
       <formula>OR($C98="X",$C98="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="expression" dxfId="105" priority="157">
+    <cfRule type="expression" dxfId="99" priority="158">
       <formula>OR($C98="X",$C98="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="expression" dxfId="104" priority="156">
+    <cfRule type="expression" dxfId="98" priority="157">
       <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="expression" dxfId="103" priority="155">
+    <cfRule type="expression" dxfId="97" priority="156">
       <formula>OR($C97="X",$C97="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="expression" dxfId="102" priority="154">
+    <cfRule type="expression" dxfId="96" priority="155">
       <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="expression" dxfId="101" priority="153">
+    <cfRule type="expression" dxfId="95" priority="154">
       <formula>OR($C99="X",$C99="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F101">
-    <cfRule type="expression" dxfId="100" priority="152">
+    <cfRule type="expression" dxfId="94" priority="153">
       <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="expression" dxfId="99" priority="151">
+    <cfRule type="expression" dxfId="93" priority="152">
       <formula>OR($C101="X",$C101="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="expression" dxfId="98" priority="150">
+    <cfRule type="expression" dxfId="92" priority="151">
       <formula>OR($C100="X",$C100="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="expression" dxfId="97" priority="149">
+    <cfRule type="expression" dxfId="91" priority="150">
       <formula>OR($C100="X",$C100="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="96" priority="148">
+    <cfRule type="expression" dxfId="90" priority="149">
       <formula>OR($C50="X",$C50="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88:J88">
-    <cfRule type="expression" dxfId="95" priority="144">
+    <cfRule type="expression" dxfId="89" priority="145">
       <formula>AND($J88="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="145">
+    <cfRule type="expression" dxfId="88" priority="146">
       <formula>AND($I88&lt;&gt;"",AND($I88&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88:L88 C88">
-    <cfRule type="expression" dxfId="93" priority="146">
+    <cfRule type="expression" dxfId="87" priority="147">
       <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="92" priority="143">
+    <cfRule type="expression" dxfId="86" priority="144">
       <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88:J88">
-    <cfRule type="expression" dxfId="91" priority="140">
+    <cfRule type="expression" dxfId="85" priority="141">
       <formula>AND($J88="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="141">
+    <cfRule type="expression" dxfId="84" priority="142">
       <formula>AND($I88&lt;&gt;"",AND($I88&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88 H88:L88">
-    <cfRule type="expression" dxfId="89" priority="142">
+    <cfRule type="expression" dxfId="83" priority="143">
       <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="expression" dxfId="88" priority="139">
+    <cfRule type="expression" dxfId="82" priority="140">
       <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="expression" dxfId="87" priority="138">
+    <cfRule type="expression" dxfId="81" priority="139">
       <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="expression" dxfId="86" priority="137">
+    <cfRule type="expression" dxfId="80" priority="138">
       <formula>OR($C88="X",$C88="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107:J107">
-    <cfRule type="expression" dxfId="85" priority="130">
+    <cfRule type="expression" dxfId="79" priority="131">
       <formula>AND($J107="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="131">
+    <cfRule type="expression" dxfId="78" priority="132">
       <formula>AND($I107&lt;&gt;"",AND($I107&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107 F107:L107 G108">
-    <cfRule type="expression" dxfId="83" priority="132">
+    <cfRule type="expression" dxfId="77" priority="133">
       <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="82" priority="129">
+    <cfRule type="expression" dxfId="76" priority="130">
       <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="81" priority="127">
+    <cfRule type="expression" dxfId="75" priority="128">
       <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107:J107">
-    <cfRule type="expression" dxfId="80" priority="121">
+    <cfRule type="expression" dxfId="74" priority="122">
       <formula>AND($J107="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="122">
+    <cfRule type="expression" dxfId="73" priority="123">
       <formula>AND($I107&lt;&gt;"",AND($I107&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107 F107:L107 G108">
-    <cfRule type="expression" dxfId="78" priority="123">
+    <cfRule type="expression" dxfId="72" priority="124">
       <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107">
-    <cfRule type="expression" dxfId="77" priority="120">
+    <cfRule type="expression" dxfId="71" priority="121">
       <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107">
-    <cfRule type="expression" dxfId="76" priority="119">
+    <cfRule type="expression" dxfId="70" priority="120">
       <formula>OR($C107="X",$C107="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="expression" dxfId="75" priority="781">
-      <formula>OR($C70="X",$C70="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:PB70">
-    <cfRule type="expression" dxfId="74" priority="116">
-      <formula>AND(M$13=TODAY())</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:PB70">
-    <cfRule type="expression" dxfId="73" priority="118">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:PB70">
-    <cfRule type="expression" dxfId="72" priority="111">
-      <formula>OR($C70="X",$C70="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M70:PB70">
-    <cfRule type="expression" dxfId="71" priority="117">
-      <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I70:J70">
-    <cfRule type="expression" dxfId="70" priority="108">
-      <formula>AND($J70="F")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="109">
-      <formula>AND($I70&lt;&gt;"",AND($I70&lt;TODAY()))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70:L70">
-    <cfRule type="expression" dxfId="68" priority="114">
-      <formula>OR($C70="X",$C70="x")</formula>
+    <cfRule type="expression" dxfId="69" priority="782">
+      <formula>OR(#REF!="X",#REF!="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:PB67">
-    <cfRule type="expression" dxfId="67" priority="79">
+    <cfRule type="expression" dxfId="68" priority="80">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:PB67">
-    <cfRule type="expression" dxfId="66" priority="81">
+    <cfRule type="expression" dxfId="67" priority="82">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:PB67">
-    <cfRule type="expression" dxfId="65" priority="75">
+    <cfRule type="expression" dxfId="66" priority="76">
       <formula>OR($C67="X",$C67="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M67:PB67">
-    <cfRule type="expression" dxfId="64" priority="80">
+    <cfRule type="expression" dxfId="65" priority="81">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G67">
-    <cfRule type="expression" dxfId="63" priority="72">
+    <cfRule type="expression" dxfId="64" priority="73">
       <formula>OR($C67="X",$C67="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67:J67">
-    <cfRule type="expression" dxfId="62" priority="69">
+    <cfRule type="expression" dxfId="63" priority="70">
       <formula>AND($J67="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="70">
+    <cfRule type="expression" dxfId="62" priority="71">
       <formula>AND($I67&lt;&gt;"",AND($I67&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:L67 C67:F67">
-    <cfRule type="expression" dxfId="60" priority="71">
+    <cfRule type="expression" dxfId="61" priority="72">
       <formula>OR($C67="X",$C67="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M61:PB61">
-    <cfRule type="expression" dxfId="59" priority="66">
+    <cfRule type="expression" dxfId="60" priority="67">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M61:PB61">
-    <cfRule type="expression" dxfId="58" priority="68">
+    <cfRule type="expression" dxfId="59" priority="69">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M61:PB61">
-    <cfRule type="expression" dxfId="57" priority="62">
+    <cfRule type="expression" dxfId="58" priority="63">
       <formula>OR($C61="X",$C61="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M61:PB61">
-    <cfRule type="expression" dxfId="56" priority="67">
+    <cfRule type="expression" dxfId="57" priority="68">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G61">
-    <cfRule type="expression" dxfId="55" priority="59">
+    <cfRule type="expression" dxfId="56" priority="60">
       <formula>OR($C61="X",$C61="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:J61">
-    <cfRule type="expression" dxfId="54" priority="56">
+    <cfRule type="expression" dxfId="55" priority="57">
       <formula>AND($J61="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="57">
+    <cfRule type="expression" dxfId="54" priority="58">
       <formula>AND($I61&lt;&gt;"",AND($I61&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61:L61 C61:F61">
-    <cfRule type="expression" dxfId="52" priority="58">
+    <cfRule type="expression" dxfId="53" priority="59">
       <formula>OR($C61="X",$C61="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56:PB56">
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="52" priority="54">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56:PB56">
-    <cfRule type="expression" dxfId="50" priority="55">
+    <cfRule type="expression" dxfId="51" priority="56">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56:PB56">
-    <cfRule type="expression" dxfId="49" priority="49">
+    <cfRule type="expression" dxfId="50" priority="50">
       <formula>OR($C56="X",$C56="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56:PB56">
-    <cfRule type="expression" dxfId="48" priority="54">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="47" priority="46">
+    <cfRule type="expression" dxfId="48" priority="47">
       <formula>OR($C56="X",$C56="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56:J56">
-    <cfRule type="expression" dxfId="46" priority="43">
+    <cfRule type="expression" dxfId="47" priority="44">
       <formula>AND($J56="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="44">
+    <cfRule type="expression" dxfId="46" priority="45">
       <formula>AND($I56&lt;&gt;"",AND($I56&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:L56 C56:F56">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="45" priority="46">
       <formula>OR($C56="X",$C56="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="43" priority="40">
+    <cfRule type="expression" dxfId="44" priority="41">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="42" priority="34">
+    <cfRule type="expression" dxfId="43" priority="35">
       <formula>AND($I45=M$13,$J45&lt;&gt;"F",$I45&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="35">
+    <cfRule type="expression" dxfId="42" priority="36">
       <formula>AND($I45=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="37">
+    <cfRule type="expression" dxfId="41" priority="38">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="39">
+    <cfRule type="expression" dxfId="40" priority="40">
       <formula>AND($G45&lt;&gt;"",AND(M$13&gt;=$E45,M$13&lt;=$G45))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="38" priority="38">
+    <cfRule type="expression" dxfId="39" priority="39">
       <formula>AND($H45&gt;0,AND(M$13&gt;=$E45,M$13&lt;=$E45+($G45-$E45)*$H45))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="37" priority="42">
+    <cfRule type="expression" dxfId="38" priority="43">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="37" priority="37">
       <formula>OR($C45="X",$C45="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45:PB45">
-    <cfRule type="expression" dxfId="35" priority="41">
+    <cfRule type="expression" dxfId="36" priority="42">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="34" priority="33">
+    <cfRule type="expression" dxfId="35" priority="34">
       <formula>OR($C45="X",$C45="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45:J45">
-    <cfRule type="expression" dxfId="33" priority="30">
+    <cfRule type="expression" dxfId="34" priority="31">
       <formula>AND($J45="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="31">
+    <cfRule type="expression" dxfId="33" priority="32">
       <formula>AND($I45&lt;&gt;"",AND($I45&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:L45 C45:F45">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="32" priority="33">
       <formula>OR($C45="X",$C45="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="expression" dxfId="30" priority="783">
+    <cfRule type="expression" dxfId="31" priority="784">
       <formula>OR($C71="X",$C71="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:PB72">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:PB72">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="29" priority="30">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:PB72">
-    <cfRule type="expression" dxfId="27" priority="22">
+    <cfRule type="expression" dxfId="28" priority="23">
       <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72:PB72">
-    <cfRule type="expression" dxfId="26" priority="28">
+    <cfRule type="expression" dxfId="27" priority="29">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:J72">
-    <cfRule type="expression" dxfId="25" priority="19">
+    <cfRule type="expression" dxfId="26" priority="20">
       <formula>AND($J72="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="20">
+    <cfRule type="expression" dxfId="25" priority="21">
       <formula>AND($I72&lt;&gt;"",AND($I72&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72:L72">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>OR($C72="X",$C72="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:PB74">
-    <cfRule type="expression" dxfId="22" priority="10">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>AND(M$13=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:PB74">
-    <cfRule type="expression" dxfId="21" priority="12">
+    <cfRule type="expression" dxfId="22" priority="13">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:PB74">
-    <cfRule type="expression" dxfId="20" priority="9">
+    <cfRule type="expression" dxfId="21" priority="10">
       <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:PB74">
-    <cfRule type="expression" dxfId="19" priority="11">
+    <cfRule type="expression" dxfId="20" priority="12">
       <formula>AND(OR(M$12="Sa",M$12="So"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="expression" dxfId="18" priority="8">
+    <cfRule type="expression" dxfId="19" priority="9">
       <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:J74">
-    <cfRule type="expression" dxfId="17" priority="5">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>AND($J74="F")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="17" priority="7">
       <formula>AND($I74&lt;&gt;"",AND($I74&lt;TODAY()))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:L74 C74:F74">
-    <cfRule type="expression" dxfId="15" priority="7">
+    <cfRule type="expression" dxfId="16" priority="8">
       <formula>OR($C74="X",$C74="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64:F64">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>OR($C64="X",$C64="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K64:L64">
     <cfRule type="expression" dxfId="14" priority="4">
       <formula>OR($C64="X",$C64="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K64:L64">
-    <cfRule type="expression" dxfId="13" priority="3">
-      <formula>OR($C64="X",$C64="x")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB119">
-    <cfRule type="expression" dxfId="12" priority="788">
+    <cfRule type="expression" dxfId="13" priority="789">
       <formula>AND($I108=M$13,$J108&lt;&gt;"F",$I108&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="789">
+    <cfRule type="expression" dxfId="12" priority="790">
       <formula>AND($I108=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="790">
+    <cfRule type="expression" dxfId="11" priority="791">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="791">
+    <cfRule type="expression" dxfId="10" priority="792">
       <formula>AND($G108&lt;&gt;"",AND(M$13&gt;=$E108,M$13&lt;=$G108))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:PB108">
-    <cfRule type="expression" dxfId="8" priority="792">
+    <cfRule type="expression" dxfId="9" priority="793">
       <formula>AND(#REF!=M$13,#REF!&lt;&gt;"F",#REF!&lt;TODAY())</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="793">
+    <cfRule type="expression" dxfId="8" priority="794">
       <formula>AND(#REF!=M$13)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="794">
+    <cfRule type="expression" dxfId="7" priority="795">
       <formula>IF($H$11="x",AND(OR(M$12="Sa",M$12="So")))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="795">
+    <cfRule type="expression" dxfId="6" priority="796">
       <formula>AND(#REF!&lt;&gt;"",AND(M$13&gt;=#REF!,M$13&lt;=#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M109:PB119">
-    <cfRule type="expression" dxfId="4" priority="801">
+    <cfRule type="expression" dxfId="5" priority="802">
       <formula>AND($H108&gt;0,AND(M$13&gt;=$E108,M$13&lt;=$E108+($G108-$E108)*$H108))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:PB108">
-    <cfRule type="expression" dxfId="3" priority="802">
+    <cfRule type="expression" dxfId="4" priority="803">
       <formula>AND(#REF!&gt;0,AND(M$13&gt;=#REF!,M$13&lt;=#REF!+(#REF!-#REF!)*#REF!))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M108:PB108">
-    <cfRule type="expression" dxfId="2" priority="805">
+    <cfRule type="expression" dxfId="3" priority="806">
       <formula>OR(#REF!="X",#REF!="x")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
@@ -58928,9 +58857,9 @@
       <formula>OR($C108="X",$C108="x")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
+  <conditionalFormatting sqref="C70:F70">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR($C108="X",$C108="x")</formula>
+      <formula>OR($C70="X",$C70="x")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
